--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$133</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="1348">
   <si>
     <t>Фамилия</t>
   </si>
@@ -314,9 +314,6 @@
     <t>22 мая 1016 г.</t>
   </si>
   <si>
-    <t>около XII века</t>
-  </si>
-  <si>
     <t>Давид IV Возобновитель</t>
   </si>
   <si>
@@ -324,12 +321,6 @@
   </si>
   <si>
     <t>1073 г.</t>
-  </si>
-  <si>
-    <t>XII век</t>
-  </si>
-  <si>
-    <t>XIII век</t>
   </si>
   <si>
     <t>Благоверный</t>
@@ -596,9 +587,6 @@
     <t>Граданиг</t>
   </si>
   <si>
-    <t>24 августа/6 сентября</t>
-  </si>
-  <si>
     <t xml:space="preserve">В миру Драганиг Сигур[1], родился в 1547 году на острове Закинф в Ионическом море, его предки были родом из Венеции. Был образован священниками и свободно владел греческим, итальянским и латынью.
 В 21 год он передал всё своё имущество младшему брату и сестре, а сам ушёл в монастырь. В 1568 году он принял монашество с именем Даниил. Молодой монах преуспевал в постижении богословия, его слава как духовного руководителя стала расти и распространяться. В 1570 году его рукоположили в сан священника.
 Через несколько лет ему предложили стать игуменом Строфадийского монастыря на западном побережье Закинфа, и он стал иеромонахом Закинфским и Строфадийским.
@@ -710,12 +698,6 @@
   </si>
   <si>
     <t>12.03./25. 03.</t>
-  </si>
-  <si>
-    <t>X в.</t>
-  </si>
-  <si>
-    <t>XI в.</t>
   </si>
   <si>
     <t>22.05/04.06.</t>
@@ -4258,31 +4240,7 @@
     <t>Часовня-храм новомучеников и исповедников Российских в Тесницком лесу, Тульская обл.</t>
   </si>
   <si>
-    <t>г. Ейск</t>
-  </si>
-  <si>
-    <t>г. Хвалынск</t>
-  </si>
-  <si>
-    <t>с. Березовый Хутор, Средневолжский край.</t>
-  </si>
-  <si>
-    <t>10.11./23.11.</t>
-  </si>
-  <si>
     <t>Монашество, мученичество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иеромонах Нифонт родился в 1882 году в городе Ейске в семье небогатого крестьянина Григория Выблова. Когда ему исполнилось десять лет, родители отдали его учиться в двухклассную сельскую школу в городе Ейске, которую он окончил в 1894 году. Затем он стал помогать по хозяйству отцу. Отец его умер, когда юноше исполнилось семнадцать лет, и с этого времени они остались хозяйствовать вдвоем с младшим братом. В 1913 году он уехал в село Подлесное Хвалынского уезда Саратовской губернии к известному в этих местах миссионеру иеромонаху Антонию (Винникову), который заведовал миссионерской школой. Пробыв некоторое время в миссионерской школе у иеромонаха Антония и утвердившись в решении вступить на новый путь, он поступил в мужской монастырь в городе Хвалынске, где вскоре был пострижен в монашество с именем Нифонт и хиротонисан в сан иеромонаха. В 1925 году епископ Вольский Петр (Соколов, †1937) назначил служить иеромонаха Нифонта в храм в село Березовый хутор, где он прослужил до дня своего ареста.
-28 декабря 1930 года местное отделение ОГПУ, поставившее своей целью закрытие всех храмов в районе, направило двух милиционеров в село Березовый хутор для ареста священника. Приехав в село, они увидели, что в храме идет богослужение. Тогда они направились в дом священника, чтобы там дождаться его возвращения из храма. В нетерпении они несколько раз посылали сотрудников сельсовета узнать, когда же закончится служба, о чем всем в селе стало известно, как и о предстоящем аресте священника. По окончании литургии было совершено отпевание покойника, гроб с его телом священник проводил на кладбище. Домой отец Нифонт и приехавший к нему в гости его духовный отец, иеромонах Антоний (Винников), бывший с ним в храме, пришли около двух часов дня. По их приходе был произведен обыск, а затем иеромонахов вывели из дома и велели садиться на подводу. К этому времени около дома священника собралась толпа числом около сорока человек, в основном женщин. Они стали требовать освобождения священнослужителей. Тогда милиционеры вытащили оружие и под угрозой стрельбы заставили священников сесть на телегу. Люди закричали, что власти учиняют разбой, и потребовали освободить ни в чем не повинных пастырей. Тогда милиционеры стали переписывать тех из присутствующих, кто вел себя наиболее активно, и угрожать им арестом. Был послан гонец в соседнее село за милицейским подкреплением. Все это принудило верующих отступить, и арестованные священники были увезены в тюрьму в город Сызрань. Однако, арестовав иеромонаха Нифонта, ОГПУ не смогло выдвинуть против него никаких обвинений. Сотрудник местного ОГПУ написал: «Связь с местными кулаками не установлена, но те обстоятельства, что к нему ежедневно носили хлеб и молоко, и больше всего приносили зажиточные, и даже дочь выселенного в Северный край кулака Татьяна Шуракина прислуживала ему, пекла хлеб и стирала белье, - заставляют думать, что поп Выблов имел связь с кулацкой частью села...»
-Допрошенный следователем, иеромонах Нифонт виновным себя не признал; об иеромонахе Антонии, арестованном вместе с ним, сказал, что знает его по монастырю в Хвалынске с юности и неоднократно ездил к нему в Хвалынск в последнее время, чтобы исповедаться. В последний раз они вместе вернулись из Хвалынска в село Березовый хутор, где и были арестованы.
-Иеромонах Нифонт скончался 30 августа 1931 года в половине десятого утра в Сызранской тюрьме. </t>
-  </si>
-  <si>
-    <t>https://eparhia-saratov.ru/Articles/svyatojj-prepodobnomuchenik-nifont-vyblov</t>
-  </si>
-  <si>
-    <t>https://sun9-67.userapi.com/c840331/v840331039/2739f/n_Fs_vKw8F4.jpg</t>
   </si>
   <si>
     <t>Гайдай</t>
@@ -4617,9 +4575,6 @@
     <t xml:space="preserve">1929-1933 </t>
   </si>
   <si>
-    <t xml:space="preserve">1914-1925 </t>
-  </si>
-  <si>
     <t xml:space="preserve">1927-1931 </t>
   </si>
   <si>
@@ -4761,9 +4716,6 @@
     <t xml:space="preserve">1934-1937 </t>
   </si>
   <si>
-    <t xml:space="preserve">1925-1930 </t>
-  </si>
-  <si>
     <t xml:space="preserve">1935-1938 </t>
   </si>
   <si>
@@ -5190,16 +5142,19 @@
     <t>https://drevo-info.ru/images/002/003450.jpg</t>
   </si>
   <si>
-    <t>с1923-1926 гг.</t>
-  </si>
-  <si>
     <t>Общий статус</t>
   </si>
   <si>
     <t>мученик</t>
   </si>
   <si>
-    <t>мучение</t>
+    <t>11в</t>
+  </si>
+  <si>
+    <t>24.08/6.09</t>
+  </si>
+  <si>
+    <t>1923-1926 гг.</t>
   </si>
 </sst>
 </file>
@@ -5507,7 +5462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5542,7 +5497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5727,14 +5682,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V134"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="4" customWidth="1"/>
@@ -5744,14 +5699,16 @@
     <col min="10" max="10" width="13" style="4" customWidth="1"/>
     <col min="11" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="4" customWidth="1"/>
-    <col min="14" max="17" width="20.7109375" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="41.85546875" customWidth="1"/>
     <col min="19" max="20" width="20.7109375" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" style="4" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5795,7 +5752,7 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>1359</v>
+        <v>1343</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -5819,12 +5776,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -5833,13 +5790,13 @@
         <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -5848,7 +5805,7 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -5860,13 +5817,13 @@
         <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="U2" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -5874,34 +5831,34 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="42" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -5913,13 +5870,13 @@
         <v>28</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="U3" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -5933,7 +5890,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -5942,7 +5899,7 @@
         <v>33</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -5954,13 +5911,13 @@
         <v>34</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -5974,13 +5931,13 @@
         <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -6001,13 +5958,13 @@
         <v>41</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="U5" s="4">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -6021,7 +5978,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
@@ -6042,21 +5999,21 @@
         <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="V6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
@@ -6065,13 +6022,13 @@
         <v>57</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="N7" t="s">
         <v>53</v>
@@ -6080,7 +6037,7 @@
         <v>53</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" t="s">
         <v>56</v>
@@ -6092,13 +6049,13 @@
         <v>54</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="U7" s="4">
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -6121,7 +6078,7 @@
         <v>53</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -6133,13 +6090,13 @@
         <v>60</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="U8" s="4">
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>62</v>
       </c>
@@ -6153,7 +6110,7 @@
         <v>65</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N9" t="s">
         <v>53</v>
@@ -6162,7 +6119,7 @@
         <v>53</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
@@ -6174,13 +6131,13 @@
         <v>66</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="U9" s="4">
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -6191,7 +6148,7 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H10" s="4">
         <v>781</v>
@@ -6224,13 +6181,13 @@
         <v>69</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="U10" s="4">
         <v>826</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -6244,7 +6201,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M11" s="4">
         <v>1144</v>
@@ -6253,10 +6210,10 @@
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q11" t="s">
         <v>74</v>
@@ -6268,16 +6225,16 @@
         <v>75</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="V11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -6285,13 +6242,13 @@
         <v>949</v>
       </c>
       <c r="E12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G12" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="N12" t="s">
         <v>53</v>
@@ -6300,7 +6257,7 @@
         <v>53</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q12" t="s">
         <v>56</v>
@@ -6312,13 +6269,13 @@
         <v>80</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="U12" s="4">
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -6332,16 +6289,16 @@
         <v>85</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>192</v>
+        <v>1191</v>
       </c>
       <c r="I13" t="s">
         <v>85</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>193</v>
+        <v>1345</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>91</v>
+        <v>1192</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
@@ -6350,7 +6307,7 @@
         <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q13" t="s">
         <v>86</v>
@@ -6371,80 +6328,80 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G14" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="H14" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N14" t="s">
         <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>473</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N14" t="s">
-        <v>97</v>
       </c>
       <c r="O14" t="s">
         <v>33</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="U14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="V14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="E15" t="s">
+        <v>468</v>
+      </c>
+      <c r="F15" t="s">
         <v>102</v>
       </c>
-      <c r="V14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="G15" t="s">
+        <v>469</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I15" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E15" t="s">
-        <v>474</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="M15" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="G15" t="s">
-        <v>475</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="N15" t="s">
         <v>53</v>
@@ -6453,98 +6410,98 @@
         <v>53</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q15" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="U15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="V15" t="s">
         <v>111</v>
       </c>
-      <c r="T15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>112</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="V15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>115</v>
       </c>
       <c r="D16" s="4">
         <v>1166</v>
       </c>
       <c r="E16" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O16" t="s">
         <v>33</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q16" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="U16" s="4">
         <v>1213</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D17" s="8">
         <v>1169</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>85</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>39</v>
@@ -6553,30 +6510,30 @@
         <v>33</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="U17" s="8">
         <v>1236</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4">
         <v>1296</v>
@@ -6585,10 +6542,10 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="M18" s="4">
         <v>1368</v>
@@ -6600,48 +6557,48 @@
         <v>33</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q18" t="s">
+        <v>128</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="V18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="V18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D19" s="8">
         <v>1268</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>53</v>
@@ -6650,30 +6607,30 @@
         <v>53</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="U19" s="8">
         <v>1346</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D20" s="4">
         <v>1392</v>
@@ -6682,25 +6639,25 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="K20" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L20" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="M20" s="4">
         <v>1734</v>
@@ -6712,19 +6669,19 @@
         <v>33</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="U20" s="4">
         <v>1444</v>
@@ -6733,21 +6690,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="J21" s="8"/>
       <c r="M21" s="8">
@@ -6760,95 +6717,95 @@
         <v>33</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q21" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="T21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="U21" s="8">
         <v>1429</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D22" s="4">
         <v>1510</v>
       </c>
       <c r="E22" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="M22" s="4">
         <v>1572</v>
       </c>
       <c r="N22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>151</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O22" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P22" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>154</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="T22" s="1" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="U22" s="4">
         <v>1568</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="D23" s="8">
         <v>1547</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="M23" s="8">
         <v>1703</v>
@@ -6860,92 +6817,92 @@
         <v>33</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="U23" s="8">
         <v>1622</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D24" s="4">
         <v>1587</v>
       </c>
       <c r="E24" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="I24" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="N24" t="s">
         <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="U24" s="4">
         <v>1622</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="J25" s="8"/>
       <c r="M25" s="8">
@@ -6958,39 +6915,39 @@
         <v>53</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="U25" s="8">
         <v>1651</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D26" s="4">
         <v>1775</v>
       </c>
       <c r="E26" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G26" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H26" s="4">
         <v>1795</v>
@@ -6999,166 +6956,166 @@
         <v>1912</v>
       </c>
       <c r="N26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
       <c r="V26" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D27" s="4">
         <v>1714</v>
       </c>
       <c r="E27" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M27" s="4">
         <v>1961</v>
       </c>
       <c r="N27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O27" t="s">
         <v>33</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>1346</v>
       </c>
       <c r="Q27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="V27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D28" s="4">
         <v>1745</v>
       </c>
       <c r="E28" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="M28" s="4">
         <v>1921</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>1231</v>
+        <v>1216</v>
       </c>
       <c r="V28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D29" s="4">
         <v>1739</v>
       </c>
       <c r="E29" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="I29" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="M29" s="31">
         <v>22646</v>
@@ -7170,98 +7127,98 @@
         <v>33</v>
       </c>
       <c r="P29" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>214</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="S29" t="s">
+        <v>216</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="V29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>421</v>
+      </c>
+      <c r="F30" t="s">
         <v>219</v>
       </c>
-      <c r="Q29" t="s">
-        <v>220</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="S29" t="s">
-        <v>222</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="V29" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E30" t="s">
-        <v>427</v>
-      </c>
-      <c r="F30" t="s">
-        <v>225</v>
-      </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="M30" s="31">
         <v>33912</v>
       </c>
       <c r="N30" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O30" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q30" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="U30" s="31">
         <v>8275</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D31" s="31">
         <v>8973</v>
       </c>
       <c r="E31" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="M31" s="31">
         <v>42017</v>
@@ -7273,35 +7230,35 @@
         <v>53</v>
       </c>
       <c r="P31" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q31" t="s">
         <v>56</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U31" s="31">
         <v>34527</v>
       </c>
       <c r="V31" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="8" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>43</v>
@@ -7311,67 +7268,67 @@
         <v>43</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="U32" s="8">
         <v>96</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="8" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="8"/>
@@ -7379,58 +7336,58 @@
       <c r="L33" s="5"/>
       <c r="M33" s="8"/>
       <c r="N33" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q33" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="S33" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="R33" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="T33" s="7" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="8">
         <v>213</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="8"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="8" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>39</v>
@@ -7439,35 +7396,35 @@
         <v>33</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="U34" s="8">
         <v>270</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="8" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>18</v>
@@ -7480,7 +7437,7 @@
         <v>230</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="5"/>
@@ -7490,22 +7447,22 @@
         <v>73</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>73</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="U35" s="8">
         <v>230</v>
@@ -7514,24 +7471,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="9">
         <v>329</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="8"/>
@@ -7545,51 +7502,51 @@
         <v>33</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="U36" s="8">
         <v>389</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -7601,57 +7558,57 @@
         <v>33</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="T37" s="7" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="9">
         <v>376</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="5" t="s">
@@ -7661,35 +7618,35 @@
         <v>33</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="U38" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>42</v>
@@ -7699,7 +7656,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="8"/>
@@ -7707,51 +7664,51 @@
       <c r="L39" s="5"/>
       <c r="M39" s="8"/>
       <c r="N39" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="V39" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="8">
         <v>483</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="8"/>
@@ -7759,37 +7716,37 @@
       <c r="L40" s="5"/>
       <c r="M40" s="8"/>
       <c r="N40" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="V40" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="8">
@@ -7803,7 +7760,7 @@
         <v>18</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="8"/>
@@ -7817,31 +7774,31 @@
         <v>33</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="U41" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="V41" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="8">
@@ -7852,22 +7809,22 @@
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" s="5" t="s">
@@ -7877,31 +7834,31 @@
         <v>53</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="U42" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="8">
@@ -7912,22 +7869,22 @@
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="5" t="s">
@@ -7937,31 +7894,31 @@
         <v>33</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="U43" s="8">
         <v>638</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="8">
@@ -7975,13 +7932,13 @@
         <v>42</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -7993,19 +7950,19 @@
         <v>33</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="U44" s="8">
         <v>806</v>
@@ -8014,24 +7971,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="8">
         <v>710</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="8"/>
@@ -8041,113 +7998,113 @@
         <v>870</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="U45" s="8">
         <v>779</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="8">
         <v>778</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="U46" s="8">
         <v>840</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="8">
         <v>907</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="8"/>
@@ -8155,55 +8112,55 @@
       <c r="L47" s="5"/>
       <c r="M47" s="8"/>
       <c r="N47" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="U47" s="8">
         <v>935</v>
       </c>
       <c r="V47" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="8">
         <v>894</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="8"/>
@@ -8217,59 +8174,59 @@
         <v>53</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="S48" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="U48" s="8">
         <v>962</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="8">
         <v>1115</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="5" t="s">
@@ -8279,19 +8236,19 @@
         <v>33</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
       <c r="U49" s="8">
         <v>1186</v>
@@ -8300,17 +8257,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="8">
         <v>1259</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -8321,50 +8278,50 @@
       <c r="L50" s="5"/>
       <c r="M50" s="8"/>
       <c r="N50" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="8">
         <v>1329</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H51" s="8">
         <v>1389</v>
@@ -8375,48 +8332,48 @@
       <c r="L51" s="5"/>
       <c r="M51" s="8"/>
       <c r="N51" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="U51" s="8">
         <v>1389</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="8">
         <v>1300</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="H52" s="8">
         <v>1330</v>
@@ -8427,52 +8384,52 @@
       <c r="L52" s="5"/>
       <c r="M52" s="8"/>
       <c r="N52" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="U52" s="8">
         <v>1330</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="8">
         <v>1384</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H53" s="8">
         <v>1425</v>
@@ -8485,48 +8442,48 @@
         <v>40604</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="U53" s="8">
         <v>1425</v>
       </c>
       <c r="V53" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="8">
         <v>1497</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H54" s="8">
         <v>1515</v>
@@ -8540,45 +8497,45 @@
         <v>26</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="U54" s="8">
         <v>1515</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="8">
         <v>1510</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H55" s="8">
         <v>1555</v>
@@ -8589,52 +8546,52 @@
       <c r="L55" s="5"/>
       <c r="M55" s="8"/>
       <c r="N55" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="U55" s="8">
         <v>1555</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="8">
         <v>1572</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="8"/>
       <c r="I56" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J56" s="8">
         <v>1602</v>
@@ -8643,54 +8600,54 @@
         <v>42</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M56" s="11">
         <v>40092</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="U56" s="8">
         <v>1638</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="8">
         <v>1610</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H57" s="8">
         <v>1660</v>
@@ -8700,60 +8657,60 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N57" s="5" t="s">
         <v>26</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="U57" s="8">
         <v>1660</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="8">
         <v>1722</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -8767,45 +8724,45 @@
         <v>53</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="U58" s="8">
         <v>1773</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8">
         <v>1690</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -8815,63 +8772,63 @@
         <v>1962</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>33</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="S59" s="13" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="8" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H60" s="8">
         <v>1889</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M60" s="8">
         <v>2000</v>
@@ -8883,56 +8840,56 @@
         <v>33</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q60" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="T60" s="7" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="U60" s="11">
         <v>5524</v>
       </c>
       <c r="V60" s="5"/>
     </row>
-    <row r="61" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="8" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L61" s="8">
         <v>1956</v>
@@ -8947,89 +8904,89 @@
         <v>33</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="U61" s="11">
         <v>20532</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B62" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C62" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D62" s="4">
         <v>1860</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G62" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="M62" s="4">
         <v>1999</v>
       </c>
       <c r="N62" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O62" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P62" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="Q62" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R62" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
       <c r="U62" s="31">
         <v>7282</v>
       </c>
       <c r="V62" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>591</v>
+      </c>
+      <c r="B63" t="s">
+        <v>592</v>
+      </c>
+      <c r="C63" t="s">
+        <v>586</v>
+      </c>
+      <c r="G63" t="s">
         <v>593</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>597</v>
-      </c>
-      <c r="B63" t="s">
-        <v>598</v>
-      </c>
-      <c r="C63" t="s">
-        <v>592</v>
-      </c>
-      <c r="G63" t="s">
-        <v>599</v>
       </c>
       <c r="H63" s="4">
         <v>1915</v>
@@ -9038,54 +8995,54 @@
         <v>1999</v>
       </c>
       <c r="N63" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O63" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P63" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="Q63" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R63" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
       <c r="U63" s="31">
         <v>6751</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>597</v>
+      </c>
+      <c r="B64" t="s">
+        <v>598</v>
+      </c>
+      <c r="C64" t="s">
+        <v>599</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E64" t="s">
+        <v>600</v>
+      </c>
+      <c r="G64" t="s">
+        <v>601</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="I64" t="s">
         <v>603</v>
-      </c>
-      <c r="B64" t="s">
-        <v>604</v>
-      </c>
-      <c r="C64" t="s">
-        <v>605</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E64" t="s">
-        <v>606</v>
-      </c>
-      <c r="G64" t="s">
-        <v>607</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="I64" t="s">
-        <v>609</v>
       </c>
       <c r="J64" s="4">
         <v>1926</v>
@@ -9094,101 +9051,101 @@
         <v>2000</v>
       </c>
       <c r="N64" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="O64" t="s">
         <v>53</v>
       </c>
       <c r="P64" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q64" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="R64" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="U64" s="31">
         <v>24152</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B65" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C65" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="E65" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G65" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="I65" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="M65" s="4">
         <v>2000</v>
       </c>
       <c r="N65" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O65" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P65" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Q65" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R65" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="U65" s="31">
         <v>7282</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B66" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C66" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D66" s="4">
         <v>1878</v>
       </c>
       <c r="E66" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="G66" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="M66" s="4">
         <v>2000</v>
@@ -9197,181 +9154,181 @@
         <v>26</v>
       </c>
       <c r="O66" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P66" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q66" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="R66" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="U66" s="4">
         <v>1935</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B67" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C67" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="E67" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F67" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="G67" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H67" s="4">
         <v>1926</v>
       </c>
       <c r="I67" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="J67" s="4">
         <v>1931</v>
       </c>
       <c r="K67" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="L67" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="M67" s="4">
         <v>2000</v>
       </c>
       <c r="N67" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O67" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P67" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q67" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R67" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="U67" s="4">
         <v>1934</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B68" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C68" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D68" s="4">
         <v>1865</v>
       </c>
       <c r="E68" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F68" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G68" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H68" s="4">
         <v>1865</v>
       </c>
       <c r="I68" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="J68" s="4">
         <v>1917</v>
       </c>
       <c r="K68" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="L68" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="M68" s="4">
         <v>2000</v>
       </c>
       <c r="N68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O68" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P68" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q68" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="R68" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
       <c r="U68" s="4">
         <v>1918</v>
       </c>
       <c r="V68" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B69" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C69" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D69" s="31">
         <v>4957</v>
       </c>
       <c r="E69" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F69" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G69" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H69" s="4">
         <v>1928</v>
@@ -9386,45 +9343,45 @@
         <v>53</v>
       </c>
       <c r="P69" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q69" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="R69" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
       <c r="U69" s="31">
         <v>30105</v>
       </c>
       <c r="V69" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B70" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C70" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D70" s="4">
         <v>1897</v>
       </c>
       <c r="E70" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G70" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="H70" s="4">
         <v>1915</v>
@@ -9433,110 +9390,110 @@
         <v>2000</v>
       </c>
       <c r="N70" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O70" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P70" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q70" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="R70" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="U70" s="31">
         <v>11028</v>
       </c>
       <c r="V70" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B71" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C71" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="E71" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F71" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G71" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H71" s="4">
         <v>1890</v>
       </c>
       <c r="I71" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="M71" s="4">
         <v>1999</v>
       </c>
       <c r="N71" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O71" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P71" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q71" t="s">
         <v>23</v>
       </c>
       <c r="R71" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="U71" s="31">
         <v>7901</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B72" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C72" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D72" s="4">
         <v>1885</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G72" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="H72" s="4">
         <v>1913</v>
@@ -9545,60 +9502,60 @@
         <v>2000</v>
       </c>
       <c r="N72" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O72" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P72" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q72" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R72" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
       <c r="U72" s="31">
         <v>6769</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B73" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C73" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D73" s="4">
         <v>1292</v>
       </c>
       <c r="E73" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F73" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G73" t="s">
         <v>42</v>
       </c>
       <c r="I73" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K73" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="L73" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M73" s="4">
         <v>1431</v>
@@ -9610,110 +9567,110 @@
         <v>33</v>
       </c>
       <c r="P73" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="Q73" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="R73" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>1233</v>
+        <v>1218</v>
       </c>
       <c r="V73" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B74" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C74" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="E74" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F74" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G74" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H74" s="4">
         <v>1897</v>
       </c>
       <c r="I74" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="J74" s="4">
         <v>1899</v>
       </c>
       <c r="K74" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="L74" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="M74" s="31">
         <v>33699</v>
       </c>
       <c r="N74" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O74" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P74" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q74" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="R74" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="U74" s="31">
         <v>8261</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B75" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C75" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="E75" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F75" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -9722,196 +9679,196 @@
         <v>1905</v>
       </c>
       <c r="I75" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="J75" s="4">
         <v>1913</v>
       </c>
       <c r="K75" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="L75" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M75" s="4">
         <v>2000</v>
       </c>
       <c r="N75" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O75" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="Q75" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="R75" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
       <c r="U75" s="31">
         <v>13903</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B76" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C76" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="E76" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F76" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G76" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H76" s="4">
         <v>1894</v>
       </c>
       <c r="I76" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="J76" s="4">
         <v>1912</v>
       </c>
       <c r="K76" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="L76" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="M76" s="4">
         <v>2000</v>
       </c>
       <c r="N76" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O76" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P76" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q76" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="R76" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="U76" s="31">
         <v>13894</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B77" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C77" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="E77" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F77" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G77" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H77" s="4">
         <v>1876</v>
       </c>
       <c r="I77" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="J77" s="4">
         <v>1931</v>
       </c>
       <c r="K77" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="L77" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="M77" s="4">
         <v>2000</v>
       </c>
       <c r="N77" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O77" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Q77" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="R77" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
       <c r="U77" s="31">
         <v>13762</v>
       </c>
       <c r="V77" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="E78" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G78" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H78" s="4">
         <v>1890</v>
@@ -9920,57 +9877,57 @@
         <v>2001</v>
       </c>
       <c r="N78" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O78" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P78" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q78" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R78" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
       <c r="U78" s="31">
         <v>6870</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B79" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C79" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D79" s="4">
         <v>1882</v>
       </c>
       <c r="E79" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F79" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G79" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H79" s="4">
         <v>1913</v>
       </c>
       <c r="I79" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="J79" s="4">
         <v>1913</v>
@@ -9979,57 +9936,57 @@
         <v>2000</v>
       </c>
       <c r="N79" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O79" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P79" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>166</v>
+      </c>
+      <c r="R79" t="s">
         <v>527</v>
       </c>
-      <c r="Q79" t="s">
-        <v>170</v>
-      </c>
-      <c r="R79" t="s">
-        <v>533</v>
-      </c>
       <c r="S79" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
       <c r="U79" s="31">
         <v>11565</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C80" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D80" s="4">
         <v>1877</v>
       </c>
       <c r="E80" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G80" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H80" s="4">
         <v>1897</v>
       </c>
       <c r="I80" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="M80" s="4">
         <v>2000</v>
@@ -10038,51 +9995,51 @@
         <v>26</v>
       </c>
       <c r="O80" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P80" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="Q80" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="R80" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="U80" s="31">
         <v>11414</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B81" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C81" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="E81" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F81" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G81" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="N81" t="s">
         <v>53</v>
@@ -10091,51 +10048,51 @@
         <v>53</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="Q81" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="R81" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>1316</v>
+        <v>1301</v>
       </c>
       <c r="U81" s="31">
         <v>4853</v>
       </c>
       <c r="V81" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C82" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D82" s="4">
         <v>1821</v>
       </c>
       <c r="E82" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G82" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="I82" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J82" s="4">
         <v>1881</v>
@@ -10144,113 +10101,113 @@
         <v>2001</v>
       </c>
       <c r="N82" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="O82" t="s">
         <v>33</v>
       </c>
       <c r="P82" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="Q82" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R82" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
       <c r="U82" s="4">
         <v>1900</v>
       </c>
       <c r="V82" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C83" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D83" s="4">
         <v>1856</v>
       </c>
       <c r="E83" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G83" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="M83" s="4">
         <v>1999</v>
       </c>
       <c r="N83" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="O83" t="s">
         <v>33</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q83" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="R83" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1318</v>
+        <v>1303</v>
       </c>
       <c r="U83" s="4">
         <v>1925</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="J84" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>681</v>
       </c>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -10264,55 +10221,55 @@
         <v>53</v>
       </c>
       <c r="P84" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="R84" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="S84" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="T84" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="U84" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="Q84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="R84" s="17" t="s">
+      <c r="D85" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="S84" s="7" t="s">
+      <c r="F85" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="T84" s="7" t="s">
-        <v>1319</v>
-      </c>
-      <c r="U84" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="V84" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>691</v>
-      </c>
       <c r="G85" s="5" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="5" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="K85" s="5"/>
       <c r="L85" s="8"/>
@@ -10320,59 +10277,59 @@
         <v>1988</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O85" s="5" t="s">
         <v>53</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="R85" s="17" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="S85" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="U85" s="8" t="s">
-        <v>1234</v>
+        <v>1219</v>
       </c>
       <c r="V85" s="8" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="11" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="8"/>
@@ -10386,51 +10343,51 @@
         <v>33</v>
       </c>
       <c r="P86" s="18" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="Q86" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R86" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="S86" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U86" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="V86" s="19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="S86" s="7" t="s">
+      <c r="D87" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="T86" s="5" t="s">
-        <v>1321</v>
-      </c>
-      <c r="U86" s="8" t="s">
+      <c r="E87" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="V86" s="19" t="s">
+      <c r="F87" s="5" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="H87" s="8" t="s">
         <v>708</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>714</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="8"/>
@@ -10446,51 +10403,51 @@
         <v>53</v>
       </c>
       <c r="P87" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="T87" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="U87" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="V87" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="Q87" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="R87" s="6" t="s">
+      <c r="C88" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="S87" s="7" t="s">
+      <c r="E88" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="T87" s="7" t="s">
-        <v>1322</v>
-      </c>
-      <c r="U87" s="8" t="s">
+      <c r="F88" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="V87" s="8" t="s">
+      <c r="G88" s="5" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="H88" s="8" t="s">
         <v>720</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>726</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="8"/>
@@ -10506,61 +10463,61 @@
         <v>53</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="Q88" s="5"/>
       <c r="R88" s="6" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="S88" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="T88" s="7" t="s">
-        <v>1323</v>
+        <v>1308</v>
       </c>
       <c r="U88" s="11">
         <v>14147</v>
       </c>
       <c r="V88" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="K89" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="L89" s="8" t="s">
         <v>731</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>737</v>
       </c>
       <c r="M89" s="11">
         <v>32330</v>
@@ -10572,63 +10529,63 @@
         <v>33</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="Q89" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R89" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="T89" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="U89" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="V89" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="S89" s="7" t="s">
+      <c r="D90" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="T89" s="7" t="s">
-        <v>1324</v>
-      </c>
-      <c r="U89" s="8" t="s">
+      <c r="E90" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="V89" s="8" t="s">
+      <c r="F90" s="5" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="H90" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="I90" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="J90" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="K90" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="L90" s="8" t="s">
         <v>747</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>753</v>
       </c>
       <c r="M90" s="11">
         <v>35025</v>
@@ -10640,42 +10597,42 @@
         <v>33</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="Q90" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>1325</v>
+        <v>1310</v>
       </c>
       <c r="U90" s="11">
         <v>22443</v>
       </c>
       <c r="V90" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="8">
         <v>758</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H91" s="8">
         <v>786</v>
@@ -10689,34 +10646,34 @@
         <v>26</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P91" s="20" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="Q91" s="5"/>
       <c r="R91" s="6" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="S91" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>1326</v>
+        <v>1311</v>
       </c>
       <c r="U91" s="8" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="V91" s="8"/>
     </row>
-    <row r="92" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="8" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -10724,7 +10681,7 @@
         <v>52</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="8"/>
@@ -10738,31 +10695,31 @@
         <v>53</v>
       </c>
       <c r="P92" s="20" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q92" s="5"/>
       <c r="R92" s="6" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="S92" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="T92" s="5"/>
       <c r="U92" s="8">
         <v>597</v>
       </c>
       <c r="V92" s="8" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="8" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -10770,7 +10727,7 @@
         <v>18</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="8"/>
@@ -10781,20 +10738,20 @@
         <v>26</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="Q93" s="5"/>
       <c r="R93" s="6" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>1327</v>
+        <v>1312</v>
       </c>
       <c r="U93" s="8">
         <v>269</v>
@@ -10803,21 +10760,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="8" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H94" s="8">
         <v>304</v>
@@ -10831,20 +10788,20 @@
         <v>73</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P94" s="20" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="Q94" s="5"/>
       <c r="R94" s="6" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="S94" s="7" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="T94" s="7" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
       <c r="U94" s="8">
         <v>304</v>
@@ -10853,39 +10810,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D95" s="8">
         <v>1871</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H95" s="8">
         <v>1927</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="J95" s="8">
         <v>1930</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="L95" s="8">
         <v>1930</v>
@@ -10894,51 +10851,51 @@
         <v>37251</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P95" s="5" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="Q95" s="5" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="R95" s="21" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="S95" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="U95" s="8">
         <v>1937</v>
       </c>
       <c r="V95" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="8" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="8"/>
@@ -10946,54 +10903,54 @@
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
       <c r="N96" s="5" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="O96" s="5" t="s">
         <v>53</v>
       </c>
       <c r="P96" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="R96" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="S96" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="T96" s="37" t="s">
+        <v>1315</v>
+      </c>
+      <c r="U96" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="V96" s="8" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="Q96" s="5" t="s">
+      <c r="B97" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="R96" s="6" t="s">
+      <c r="E97" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="S96" s="7" t="s">
+      <c r="F97" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="T96" s="37" t="s">
-        <v>1330</v>
-      </c>
-      <c r="U96" s="8" t="s">
+      <c r="G97" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="V96" s="8" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="H97" s="8">
         <v>1920</v>
@@ -11001,7 +10958,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="8"/>
       <c r="K97" s="5" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L97" s="8">
         <v>1934</v>
@@ -11010,44 +10967,44 @@
         <v>2000</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="Q97" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="T97" s="37" t="s">
-        <v>1331</v>
+        <v>1316</v>
       </c>
       <c r="U97" s="8">
         <v>1937</v>
       </c>
       <c r="V97" s="8"/>
     </row>
-    <row r="98" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="8" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="H98" s="8">
         <v>375</v>
@@ -11058,47 +11015,47 @@
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
       <c r="N98" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="Q98" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="T98" s="5"/>
       <c r="U98" s="8">
         <v>375</v>
       </c>
       <c r="V98" s="8" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="8" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="8"/>
@@ -11109,30 +11066,30 @@
         <v>26</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="Q99" s="5"/>
       <c r="R99" s="5" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>1332</v>
+        <v>1317</v>
       </c>
       <c r="U99" s="8" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="V99" s="8"/>
     </row>
-    <row r="100" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="8"/>
@@ -11149,19 +11106,19 @@
         <v>26</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P100" s="5" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="T100" s="5"/>
       <c r="U100" s="8">
@@ -11169,28 +11126,28 @@
       </c>
       <c r="V100" s="8"/>
     </row>
-    <row r="101" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="L101" s="4"/>
       <c r="N101" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O101" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P101" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="Q101" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="R101" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="U101" s="4">
         <v>250</v>
@@ -11199,65 +11156,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="L102" s="4"/>
       <c r="N102" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O102" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P102" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="Q102" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="R102" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="V102" s="4"/>
     </row>
-    <row r="103" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="L103" s="4"/>
       <c r="N103" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O103" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P103" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="Q103" t="s">
         <v>23</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1334</v>
+        <v>1319</v>
       </c>
       <c r="V103" s="4"/>
     </row>
-    <row r="104" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="L104" s="4"/>
       <c r="N104" t="s">
@@ -11267,47 +11224,47 @@
         <v>53</v>
       </c>
       <c r="P104" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="Q104" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="U104" s="4">
         <v>470</v>
       </c>
       <c r="V104" s="4"/>
     </row>
-    <row r="105" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D105" s="29">
         <v>1819</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="23" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="I105" s="23"/>
       <c r="J105" s="29"/>
@@ -11317,113 +11274,113 @@
         <v>42566</v>
       </c>
       <c r="N105" s="23" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="O105" s="23" t="s">
         <v>53</v>
       </c>
       <c r="P105" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q105" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="R105" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="S105" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="T105" s="23" t="s">
+        <v>1321</v>
+      </c>
+      <c r="U105" s="29" t="s">
+        <v>1221</v>
+      </c>
+      <c r="V105" s="24" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="C106" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="Q105" s="23" t="s">
+      <c r="D106" s="30" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E106" s="26" t="s">
         <v>846</v>
-      </c>
-      <c r="R105" s="23" t="s">
-        <v>847</v>
-      </c>
-      <c r="S105" s="23" t="s">
-        <v>848</v>
-      </c>
-      <c r="T105" s="23" t="s">
-        <v>1336</v>
-      </c>
-      <c r="U105" s="29" t="s">
-        <v>1236</v>
-      </c>
-      <c r="V105" s="24" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="25" t="s">
-        <v>850</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>851</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>852</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="J106" s="30" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="K106" s="26" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="L106" s="26" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="M106" s="28">
         <v>38217</v>
       </c>
       <c r="N106" s="26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O106" s="26" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P106" s="26" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="Q106" s="26" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="R106" s="26" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="S106" s="26" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="T106" s="38" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="U106" s="28">
         <v>13930</v>
       </c>
       <c r="V106" s="27"/>
     </row>
-    <row r="107" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="B107" s="23" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="29"/>
       <c r="E107" s="23"/>
       <c r="F107" s="23" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="H107" s="29" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="I107" s="23"/>
       <c r="J107" s="29"/>
@@ -11437,376 +11394,376 @@
         <v>53</v>
       </c>
       <c r="P107" s="23" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="Q107" s="23" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="R107" s="23" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="S107" s="23" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="T107" s="36" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
       <c r="U107" s="29" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
       <c r="V107" s="24"/>
     </row>
-    <row r="108" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>864</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>865</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>866</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>864</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>867</v>
+      </c>
+      <c r="H108" s="30" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I108" s="26" t="s">
+        <v>868</v>
+      </c>
+      <c r="J108" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="K108" s="26" t="s">
         <v>870</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="L108" s="26" t="s">
         <v>871</v>
       </c>
-      <c r="D108" s="30" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E108" s="26" t="s">
+      <c r="M108" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N108" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O108" s="26" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P108" s="26" t="s">
         <v>872</v>
       </c>
-      <c r="F108" s="26" t="s">
-        <v>870</v>
-      </c>
-      <c r="G108" s="26" t="s">
+      <c r="Q108" s="26" t="s">
         <v>873</v>
       </c>
-      <c r="H108" s="30" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I108" s="26" t="s">
+      <c r="R108" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="J108" s="30" t="s">
+      <c r="S108" s="26" t="s">
         <v>875</v>
       </c>
-      <c r="K108" s="26" t="s">
-        <v>876</v>
-      </c>
-      <c r="L108" s="26" t="s">
-        <v>877</v>
-      </c>
-      <c r="M108" s="33" t="s">
-        <v>1224</v>
-      </c>
-      <c r="N108" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="O108" s="26" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P108" s="26" t="s">
-        <v>878</v>
-      </c>
-      <c r="Q108" s="26" t="s">
-        <v>879</v>
-      </c>
-      <c r="R108" s="26" t="s">
-        <v>880</v>
-      </c>
-      <c r="S108" s="26" t="s">
-        <v>881</v>
-      </c>
       <c r="T108" s="38" t="s">
-        <v>1338</v>
+        <v>1323</v>
       </c>
       <c r="U108" s="28">
         <v>13878</v>
       </c>
       <c r="V108" s="27" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
+        <v>876</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="H109" s="29" t="s">
+        <v>879</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="J109" s="29" t="s">
+        <v>881</v>
+      </c>
+      <c r="K109" s="23" t="s">
         <v>882</v>
       </c>
-      <c r="B109" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="D109" s="29" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E109" s="23" t="s">
+      <c r="L109" s="23" t="s">
         <v>883</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>678</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>884</v>
-      </c>
-      <c r="H109" s="29" t="s">
-        <v>885</v>
-      </c>
-      <c r="I109" s="23" t="s">
-        <v>886</v>
-      </c>
-      <c r="J109" s="29" t="s">
-        <v>887</v>
-      </c>
-      <c r="K109" s="23" t="s">
-        <v>888</v>
-      </c>
-      <c r="L109" s="23" t="s">
-        <v>889</v>
       </c>
       <c r="M109" s="35">
         <v>36754</v>
       </c>
       <c r="N109" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O109" s="23" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P109" s="23" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="Q109" s="23" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="R109" s="23" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S109" s="23" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="T109" s="36" t="s">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="U109" s="35">
         <v>6796</v>
       </c>
       <c r="V109" s="24"/>
     </row>
-    <row r="110" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="F110" s="26"/>
       <c r="G110" s="26" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="H110" s="30" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="I110" s="26" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="J110" s="30"/>
       <c r="K110" s="26"/>
       <c r="L110" s="26"/>
       <c r="M110" s="30"/>
       <c r="N110" s="26" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="O110" s="39" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P110" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q110" s="26" t="s">
+        <v>894</v>
+      </c>
+      <c r="R110" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="S110" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="T110" s="38" t="s">
+        <v>1325</v>
+      </c>
+      <c r="U110" s="30" t="s">
+        <v>1223</v>
+      </c>
+      <c r="V110" s="27" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="C111" s="23" t="s">
         <v>899</v>
       </c>
-      <c r="Q110" s="26" t="s">
+      <c r="D111" s="29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E111" s="23" t="s">
         <v>900</v>
-      </c>
-      <c r="R110" s="26" t="s">
-        <v>901</v>
-      </c>
-      <c r="S110" s="26" t="s">
-        <v>902</v>
-      </c>
-      <c r="T110" s="38" t="s">
-        <v>1340</v>
-      </c>
-      <c r="U110" s="30" t="s">
-        <v>1238</v>
-      </c>
-      <c r="V110" s="27" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
-        <v>904</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>903</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>905</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E111" s="23" t="s">
-        <v>906</v>
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="23" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="I111" s="23" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="J111" s="29" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="K111" s="23" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="L111" s="23" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="M111" s="35">
         <v>42566</v>
       </c>
       <c r="N111" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O111" s="23" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P111" s="23" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="Q111" s="23" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="R111" s="23" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="S111" s="23" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="T111" s="36" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="U111" s="35">
         <v>6668</v>
       </c>
       <c r="V111" s="24" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="25" t="s">
+        <v>909</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>912</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="H112" s="30" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25" t="s">
+      <c r="I112" s="26" t="s">
         <v>915</v>
       </c>
-      <c r="B112" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C112" s="26" t="s">
+      <c r="J112" s="30" t="s">
         <v>916</v>
       </c>
-      <c r="D112" s="30" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E112" s="26" t="s">
+      <c r="K112" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="L112" s="26" t="s">
         <v>917</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>918</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>919</v>
-      </c>
-      <c r="H112" s="30" t="s">
-        <v>920</v>
-      </c>
-      <c r="I112" s="26" t="s">
-        <v>921</v>
-      </c>
-      <c r="J112" s="30" t="s">
-        <v>922</v>
-      </c>
-      <c r="K112" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="L112" s="26" t="s">
-        <v>923</v>
       </c>
       <c r="M112" s="28">
         <v>37546</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O112" s="26" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P112" s="26" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q112" s="26" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="R112" s="26" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="S112" s="26" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="T112" s="38" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="U112" s="28">
         <v>6766</v>
       </c>
       <c r="V112" s="27" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="23" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="H113" s="29" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="I113" s="23" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="J113" s="29">
         <v>1238</v>
@@ -11814,72 +11771,72 @@
       <c r="K113" s="23"/>
       <c r="L113" s="23"/>
       <c r="M113" s="29" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
       <c r="N113" s="23" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="O113" s="40" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P113" s="23" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="Q113" s="23" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="R113" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="S113" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="T113" s="36" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U113" s="29" t="s">
+        <v>1223</v>
+      </c>
+      <c r="V113" s="24" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="25" t="s">
+        <v>927</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>929</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>930</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>857</v>
+      </c>
+      <c r="G114" s="26" t="s">
         <v>931</v>
       </c>
-      <c r="S113" s="23" t="s">
+      <c r="H114" s="30" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I114" s="26" t="s">
         <v>932</v>
       </c>
-      <c r="T113" s="36" t="s">
-        <v>1343</v>
-      </c>
-      <c r="U113" s="29" t="s">
-        <v>1238</v>
-      </c>
-      <c r="V113" s="24" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
+      <c r="J114" s="30" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K114" t="s">
+        <v>934</v>
+      </c>
+      <c r="L114" s="26" t="s">
         <v>933</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>934</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>935</v>
-      </c>
-      <c r="D114" s="30" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>936</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>863</v>
-      </c>
-      <c r="G114" s="26" t="s">
-        <v>937</v>
-      </c>
-      <c r="H114" s="30" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I114" s="26" t="s">
-        <v>938</v>
-      </c>
-      <c r="J114" s="30" t="s">
-        <v>1221</v>
-      </c>
-      <c r="K114" s="26" t="s">
-        <v>939</v>
-      </c>
-      <c r="L114" s="26" t="s">
-        <v>940</v>
       </c>
       <c r="M114" s="28">
         <v>40708</v>
@@ -11891,36 +11848,36 @@
         <v>33</v>
       </c>
       <c r="P114" s="26" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="Q114" s="26" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="R114" s="26" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="S114" s="26" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="T114" s="38" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="U114" s="28">
         <v>15646</v>
       </c>
       <c r="V114" s="27" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D115" s="29">
         <v>1415</v>
@@ -11928,10 +11885,10 @@
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="23" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="H115" s="29" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="I115" s="23"/>
       <c r="J115" s="29"/>
@@ -11941,61 +11898,61 @@
         <v>1979</v>
       </c>
       <c r="N115" s="23" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O115" s="23" t="s">
         <v>33</v>
       </c>
       <c r="P115" s="23" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="Q115" s="23" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="R115" s="23" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="S115" s="23" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="T115" s="36" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="U115" s="29" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="V115" s="24" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="D116" s="30">
         <v>1878</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="H116" s="30">
         <v>1910</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="J116" s="30" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
@@ -12003,63 +11960,63 @@
         <v>36758</v>
       </c>
       <c r="N116" s="26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O116" s="39" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P116" s="26" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="Q116" s="26" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="R116" s="26" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="S116" s="26" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="T116" s="38" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="U116" s="28">
         <v>13821</v>
       </c>
       <c r="V116" s="27" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="D117" s="29">
         <v>1880</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="H117" s="29" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="I117" s="23" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="J117" s="29" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
@@ -12067,46 +12024,46 @@
         <v>43061</v>
       </c>
       <c r="N117" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O117" s="23" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P117" s="23" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="Q117" s="23" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="R117" s="23" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="S117" s="36" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="T117" s="36" t="s">
-        <v>1347</v>
+        <v>1332</v>
       </c>
       <c r="U117" s="35">
         <v>11055</v>
       </c>
       <c r="V117" s="24"/>
     </row>
-    <row r="118" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D118" s="30">
         <v>1870</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -12116,53 +12073,53 @@
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
       <c r="M118" s="33" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="N118" s="26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O118" s="26" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P118" s="26" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="Q118" s="26" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="R118" s="26" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="S118" s="26" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="T118" s="38" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
       <c r="U118" s="28">
         <v>13725</v>
       </c>
       <c r="V118" s="27"/>
     </row>
-    <row r="119" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D119" s="29"/>
       <c r="E119" s="23" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="H119" s="29"/>
       <c r="I119" s="23"/>
@@ -12179,262 +12136,262 @@
         <v>53</v>
       </c>
       <c r="P119" s="23" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="Q119" s="23" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="R119" s="23" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="S119" s="23" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="T119" s="36" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="U119" s="29">
         <v>1576</v>
       </c>
       <c r="V119" s="24" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D120" s="28">
         <v>561</v>
       </c>
       <c r="E120" s="26" t="s">
+        <v>981</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>984</v>
+      </c>
+      <c r="H120" s="30" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I120" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="J120" s="30" t="s">
+        <v>986</v>
+      </c>
+      <c r="K120" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="L120" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="F120" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="G120" s="26" t="s">
+      <c r="M120" s="33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N120" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="O120" s="39" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P120" s="26" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q120" s="26" t="s">
+        <v>989</v>
+      </c>
+      <c r="R120" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="H120" s="30" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I120" s="26" t="s">
+      <c r="S120" s="26" t="s">
         <v>991</v>
       </c>
-      <c r="J120" s="30" t="s">
+      <c r="T120" s="38" t="s">
         <v>992</v>
-      </c>
-      <c r="K120" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="L120" s="26" t="s">
-        <v>993</v>
-      </c>
-      <c r="M120" s="33" t="s">
-        <v>1224</v>
-      </c>
-      <c r="N120" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="O120" s="39" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P120" s="26" t="s">
-        <v>994</v>
-      </c>
-      <c r="Q120" s="26" t="s">
-        <v>995</v>
-      </c>
-      <c r="R120" s="26" t="s">
-        <v>996</v>
-      </c>
-      <c r="S120" s="26" t="s">
-        <v>997</v>
-      </c>
-      <c r="T120" s="38" t="s">
-        <v>998</v>
       </c>
       <c r="U120" s="28">
         <v>12586</v>
       </c>
       <c r="V120" s="27"/>
     </row>
-    <row r="121" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="E121" s="23" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="23" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="H121" s="29" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="I121" s="23" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="J121" s="29" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="K121" s="23" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="L121" s="23" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="M121" s="35">
         <v>38996</v>
       </c>
       <c r="N121" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O121" s="23" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P121" s="23" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="Q121" s="23" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="R121" s="23" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="S121" s="23" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="T121" s="36" t="s">
-        <v>1349</v>
+        <v>1334</v>
       </c>
       <c r="U121" s="35">
         <v>13771</v>
       </c>
       <c r="V121" s="24"/>
     </row>
-    <row r="122" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F122" s="26"/>
       <c r="G122" s="26" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="J122" s="30" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="K122" s="26" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="L122" s="26" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="M122" s="28">
         <v>39077</v>
       </c>
       <c r="N122" s="26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O122" s="26" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P122" s="26" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="Q122" s="26" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="R122" s="26" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="S122" s="26" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="T122" s="38" t="s">
-        <v>1350</v>
+        <v>1335</v>
       </c>
       <c r="U122" s="28">
         <v>7223</v>
       </c>
       <c r="V122" s="27" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="22" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H123" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I123" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J123" s="29" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K123" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="L123" s="23" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="22" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>964</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E123" s="23" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F123" s="23" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G123" s="23" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H123" s="29" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I123" s="23" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J123" s="29" t="s">
-        <v>1218</v>
-      </c>
-      <c r="K123" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="L123" s="23" t="s">
-        <v>1023</v>
-      </c>
       <c r="M123" s="34" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="N123" s="23" t="s">
         <v>39</v>
@@ -12443,63 +12400,63 @@
         <v>33</v>
       </c>
       <c r="P123" s="23" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="Q123" s="23" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="R123" s="23" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="S123" s="23" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="T123" s="36" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="U123" s="35">
         <v>9557</v>
       </c>
       <c r="V123" s="24" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G124" s="26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H124" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I124" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J124" s="30" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K124" s="26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L124" s="26" t="s">
         <v>1028</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="25" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B124" s="26" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F124" s="26" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G124" s="26" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H124" s="30" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I124" s="26" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J124" s="30" t="s">
-        <v>1217</v>
-      </c>
-      <c r="K124" s="26" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L124" s="26" t="s">
-        <v>1034</v>
       </c>
       <c r="M124" s="30">
         <v>2000</v>
@@ -12511,41 +12468,41 @@
         <v>53</v>
       </c>
       <c r="P124" s="26" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="Q124" s="26" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="R124" s="26" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="S124" s="26" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="T124" s="38" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="U124" s="30" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="V124" s="27" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22"/>
       <c r="B125" s="23" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="29"/>
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
       <c r="G125" s="23" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="H125" s="29" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="I125" s="23"/>
       <c r="J125" s="29"/>
@@ -12559,46 +12516,46 @@
         <v>53</v>
       </c>
       <c r="P125" s="23" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q125" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="R125" s="23" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S125" s="23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="T125" s="36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="U125" s="29" t="s">
+        <v>1226</v>
+      </c>
+      <c r="V125" s="24" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="25" t="s">
+        <v>972</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C126" s="26" t="s">
         <v>1042</v>
-      </c>
-      <c r="Q125" s="23" t="s">
-        <v>866</v>
-      </c>
-      <c r="R125" s="23" t="s">
-        <v>1043</v>
-      </c>
-      <c r="S125" s="23" t="s">
-        <v>1044</v>
-      </c>
-      <c r="T125" s="36" t="s">
-        <v>1045</v>
-      </c>
-      <c r="U125" s="29" t="s">
-        <v>1241</v>
-      </c>
-      <c r="V125" s="24" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
-        <v>978</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>1048</v>
       </c>
       <c r="D126" s="30"/>
       <c r="E126" s="26" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="H126" s="30"/>
       <c r="I126" s="26"/>
@@ -12615,531 +12572,469 @@
         <v>53</v>
       </c>
       <c r="P126" s="26" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="Q126" s="26" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="R126" s="26" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="S126" s="26" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="T126" s="38" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="U126" s="30">
         <v>1563</v>
       </c>
       <c r="V126" s="27" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="G127" s="23" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="H127" s="29" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="I127" s="23" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="J127" s="29" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
       <c r="M127" s="34" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="N127" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O127" s="23" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="P127" s="23" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="Q127" s="23" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="R127" s="23" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="S127" s="23" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="T127" s="36" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
       <c r="U127" s="35">
         <v>13883</v>
       </c>
       <c r="V127" s="24" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23" t="s">
         <v>1061</v>
       </c>
+      <c r="H128" s="29" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I128" s="23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J128" s="29" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="35">
+        <v>36754</v>
+      </c>
+      <c r="N128" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O128" s="23" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P128" s="23" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Q128" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="R128" s="23" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S128" s="23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T128" s="36" t="s">
+        <v>1339</v>
+      </c>
+      <c r="U128" s="35">
+        <v>13793</v>
+      </c>
+      <c r="V128" s="24"/>
     </row>
-    <row r="128" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="D128" s="30">
-        <v>1882</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F128" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="G128" s="26" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H128" s="30" t="s">
-        <v>1167</v>
-      </c>
-      <c r="I128" s="26" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J128" s="30" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K128" s="26"/>
-      <c r="L128" s="26"/>
-      <c r="M128" s="28">
-        <v>36758</v>
-      </c>
-      <c r="N128" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="O128" s="26" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P128" s="26" t="s">
-        <v>1065</v>
-      </c>
-      <c r="Q128" s="26" t="s">
+    <row r="129" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="25" t="s">
         <v>1066</v>
       </c>
-      <c r="R128" s="26" t="s">
+      <c r="B129" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="C129" s="26" t="s">
         <v>1067</v>
       </c>
-      <c r="S128" s="26" t="s">
+      <c r="D129" s="30" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E129" s="26" t="s">
         <v>1068</v>
       </c>
-      <c r="T128" s="38" t="s">
+      <c r="F129" s="26" t="s">
         <v>1069</v>
       </c>
-      <c r="U128" s="28">
-        <v>11565</v>
-      </c>
-      <c r="V128" s="27"/>
+      <c r="G129" s="26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H129" s="30" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I129" s="26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J129" s="30" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K129" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L129" s="26" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M129" s="28">
+        <v>38462</v>
+      </c>
+      <c r="N129" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O129" s="26" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P129" s="26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Q129" s="26" t="s">
+        <v>885</v>
+      </c>
+      <c r="R129" s="26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S129" s="26" t="s">
+        <v>1075</v>
+      </c>
+      <c r="T129" s="38" t="s">
+        <v>1340</v>
+      </c>
+      <c r="U129" s="28">
+        <v>13841</v>
+      </c>
+      <c r="V129" s="27"/>
     </row>
-    <row r="129" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D129" s="29" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E129" s="23" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H129" s="29" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I129" s="23" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J129" s="29" t="s">
-        <v>1214</v>
-      </c>
-      <c r="K129" s="23"/>
-      <c r="L129" s="23"/>
-      <c r="M129" s="35">
-        <v>36754</v>
-      </c>
-      <c r="N129" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="O129" s="23" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P129" s="23" t="s">
+    <row r="130" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
         <v>1076</v>
       </c>
-      <c r="Q129" s="23" t="s">
-        <v>858</v>
-      </c>
-      <c r="R129" s="23" t="s">
+      <c r="B130" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="C130" s="23" t="s">
         <v>1077</v>
       </c>
-      <c r="S129" s="23" t="s">
+      <c r="D130" s="29">
+        <v>1870</v>
+      </c>
+      <c r="E130" s="23" t="s">
         <v>1078</v>
       </c>
-      <c r="T129" s="36" t="s">
-        <v>1354</v>
-      </c>
-      <c r="U129" s="35">
-        <v>13793</v>
-      </c>
-      <c r="V129" s="24"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H130" s="29" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I130" s="23" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J130" s="29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K130" s="23" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L130" s="23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="M130" s="34" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N130" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O130" s="23" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P130" s="23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q130" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="R130" s="23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="S130" s="23" t="s">
+        <v>1085</v>
+      </c>
+      <c r="T130" s="36" t="s">
+        <v>1086</v>
+      </c>
+      <c r="U130" s="35">
+        <v>13725</v>
+      </c>
+      <c r="V130" s="24"/>
     </row>
-    <row r="130" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="25" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D130" s="30" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F130" s="26" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G130" s="26" t="s">
+    <row r="131" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="25" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G131" s="26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H131" s="30" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I131" s="26"/>
+      <c r="J131" s="30"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="33" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N131" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="O131" s="26" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P131" s="26" t="s">
         <v>1083</v>
       </c>
-      <c r="H130" s="30" t="s">
-        <v>1165</v>
-      </c>
-      <c r="I130" s="26" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J130" s="30" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K130" s="26" t="s">
-        <v>1085</v>
-      </c>
-      <c r="L130" s="26" t="s">
-        <v>1358</v>
-      </c>
-      <c r="M130" s="28">
-        <v>38462</v>
-      </c>
-      <c r="N130" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="O130" s="26" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P130" s="26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="Q130" s="26" t="s">
-        <v>891</v>
-      </c>
-      <c r="R130" s="26" t="s">
-        <v>1087</v>
-      </c>
-      <c r="S130" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T130" s="38" t="s">
-        <v>1355</v>
-      </c>
-      <c r="U130" s="28">
-        <v>13841</v>
-      </c>
-      <c r="V130" s="27"/>
+      <c r="Q131" s="26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R131" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="S131" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="T131" s="38" t="s">
+        <v>1333</v>
+      </c>
+      <c r="U131" s="28">
+        <v>13725</v>
+      </c>
+      <c r="V131" s="27"/>
     </row>
-    <row r="131" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B131" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D131" s="29">
-        <v>1870</v>
-      </c>
-      <c r="E131" s="23" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H131" s="29" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I131" s="23" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J131" s="29" t="s">
-        <v>1212</v>
-      </c>
-      <c r="K131" s="23" t="s">
+    <row r="132" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="22" t="s">
         <v>1094</v>
       </c>
-      <c r="L131" s="23" t="s">
+      <c r="B132" s="23" t="s">
         <v>1095</v>
       </c>
-      <c r="M131" s="34" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N131" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="O131" s="23" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P131" s="23" t="s">
+      <c r="C132" s="23" t="s">
         <v>1096</v>
       </c>
-      <c r="Q131" s="23" t="s">
-        <v>858</v>
-      </c>
-      <c r="R131" s="23" t="s">
+      <c r="D132" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E132" s="23" t="s">
         <v>1097</v>
       </c>
-      <c r="S131" s="23" t="s">
+      <c r="F132" s="23"/>
+      <c r="G132" s="23" t="s">
         <v>1098</v>
       </c>
-      <c r="T131" s="36" t="s">
+      <c r="H132" s="29" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I132" s="23" t="s">
         <v>1099</v>
       </c>
-      <c r="U131" s="35">
+      <c r="J132" s="29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="35">
+        <v>39556</v>
+      </c>
+      <c r="N132" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="O132" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P132" s="23" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q132" s="23" t="s">
+        <v>1101</v>
+      </c>
+      <c r="R132" s="23" t="s">
+        <v>1102</v>
+      </c>
+      <c r="S132" s="23" t="s">
+        <v>1103</v>
+      </c>
+      <c r="T132" s="36" t="s">
+        <v>1341</v>
+      </c>
+      <c r="U132" s="29" t="s">
+        <v>1227</v>
+      </c>
+      <c r="V132" s="24" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G133" s="26" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H133" s="30" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I133" s="26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J133" s="30" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K133" s="26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L133" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="M133" s="33" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N133" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O133" s="26" t="s">
+        <v>1344</v>
+      </c>
+      <c r="P133" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q133" s="26" t="s">
+        <v>885</v>
+      </c>
+      <c r="R133" s="26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S133" s="26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="T133" s="38" t="s">
+        <v>1342</v>
+      </c>
+      <c r="U133" s="28">
         <v>13725</v>
       </c>
-      <c r="V131" s="24"/>
-    </row>
-    <row r="132" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="25" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="D132" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F132" s="26" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G132" s="26" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H132" s="30" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I132" s="26"/>
-      <c r="J132" s="30"/>
-      <c r="K132" s="26"/>
-      <c r="L132" s="26"/>
-      <c r="M132" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N132" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="O132" s="26" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P132" s="26" t="s">
-        <v>1096</v>
-      </c>
-      <c r="Q132" s="26" t="s">
-        <v>1066</v>
-      </c>
-      <c r="R132" s="26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S132" s="26" t="s">
-        <v>1106</v>
-      </c>
-      <c r="T132" s="38" t="s">
-        <v>1348</v>
-      </c>
-      <c r="U132" s="28">
-        <v>13725</v>
-      </c>
-      <c r="V132" s="27"/>
-    </row>
-    <row r="133" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B133" s="23" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D133" s="29" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E133" s="23" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H133" s="29" t="s">
-        <v>1162</v>
-      </c>
-      <c r="I133" s="23" t="s">
-        <v>1112</v>
-      </c>
-      <c r="J133" s="29" t="s">
-        <v>1211</v>
-      </c>
-      <c r="K133" s="23"/>
-      <c r="L133" s="23"/>
-      <c r="M133" s="35">
-        <v>39556</v>
-      </c>
-      <c r="N133" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="O133" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P133" s="23" t="s">
-        <v>1113</v>
-      </c>
-      <c r="Q133" s="23" t="s">
-        <v>1114</v>
-      </c>
-      <c r="R133" s="23" t="s">
-        <v>1115</v>
-      </c>
-      <c r="S133" s="23" t="s">
-        <v>1116</v>
-      </c>
-      <c r="T133" s="36" t="s">
-        <v>1356</v>
-      </c>
-      <c r="U133" s="29" t="s">
-        <v>1242</v>
-      </c>
-      <c r="V133" s="24" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="25" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F134" s="26" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G134" s="26" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H134" s="30" t="s">
-        <v>1161</v>
-      </c>
-      <c r="I134" s="26" t="s">
-        <v>1123</v>
-      </c>
-      <c r="J134" s="30" t="s">
-        <v>1166</v>
-      </c>
-      <c r="K134" s="26" t="s">
-        <v>1124</v>
-      </c>
-      <c r="L134" s="26" t="s">
-        <v>1125</v>
-      </c>
-      <c r="M134" s="33" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N134" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="O134" s="26" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P134" s="26" t="s">
-        <v>1096</v>
-      </c>
-      <c r="Q134" s="26" t="s">
-        <v>891</v>
-      </c>
-      <c r="R134" s="26" t="s">
-        <v>1126</v>
-      </c>
-      <c r="S134" s="26" t="s">
-        <v>1127</v>
-      </c>
-      <c r="T134" s="38" t="s">
-        <v>1357</v>
-      </c>
-      <c r="U134" s="28">
-        <v>13725</v>
-      </c>
-      <c r="V134" s="27"/>
+      <c r="V133" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V134"/>
+  <autoFilter ref="A1:V133"/>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" location="Житие_Святого_Климента"/>
     <hyperlink ref="T3" r:id="rId2"/>
@@ -13326,7 +13221,7 @@
     <hyperlink ref="S102" r:id="rId182"/>
     <hyperlink ref="S103" r:id="rId183"/>
     <hyperlink ref="S104" r:id="rId184"/>
-    <hyperlink ref="T131" r:id="rId185"/>
+    <hyperlink ref="T130" r:id="rId185"/>
     <hyperlink ref="T29" r:id="rId186"/>
     <hyperlink ref="T79" r:id="rId187"/>
     <hyperlink ref="T83" r:id="rId188"/>
@@ -13364,14 +13259,13 @@
     <hyperlink ref="T126" r:id="rId220"/>
     <hyperlink ref="T127" r:id="rId221"/>
     <hyperlink ref="T129" r:id="rId222"/>
-    <hyperlink ref="T130" r:id="rId223"/>
+    <hyperlink ref="T131" r:id="rId223"/>
     <hyperlink ref="T132" r:id="rId224"/>
     <hyperlink ref="T133" r:id="rId225"/>
-    <hyperlink ref="T134" r:id="rId226"/>
-    <hyperlink ref="T128" r:id="rId227"/>
+    <hyperlink ref="T128" r:id="rId226"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId228"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId227"/>
 </worksheet>
 </file>
 

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F80869-976E-4739-8188-3A2977EE9BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$133</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,15 +22,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Запрос — Лист1" description="Соединение с запросом &quot;Лист1&quot; в книге." type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Запрос — Лист1" description="Соединение с запросом &quot;Лист1&quot; в книге." type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Лист1;Extended Properties=&quot;&quot;" command="SELECT * FROM [Лист1]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1324">
   <si>
     <t>Фамилия</t>
   </si>
@@ -304,9 +303,6 @@
   </si>
   <si>
     <t>https://azbyka.ru/days/sv-ioann-vladimir-serbskij</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/Иван_Владимир#/media/Файл:Jovan_Vladimir,_Greek_icon.jpg</t>
   </si>
   <si>
     <t>Давид IV Возобновитель</t>
@@ -333,9 +329,6 @@
     <t>https://ru.wikipedia.org/wiki/Давид_IV_Строитель#Память</t>
   </si>
   <si>
-    <t>https://ru.wikipedia.org/wiki/Давид_IV_Строитель#/media/Файл:Davit_Agmashenebeli.jpg</t>
-  </si>
-  <si>
     <t>Стефан Неманя, Мироточивый</t>
   </si>
   <si>
@@ -352,9 +345,6 @@
   </si>
   <si>
     <t>https://azbyka.ru/otechnik/Dmitrij_Rostovskij/zhitija-svjatykh/153</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/Стефан_Неманя#/media/Файл:Stefan_Nemanja.jpg</t>
   </si>
   <si>
     <t>монастырь Хиландар, Афон</t>
@@ -375,9 +365,6 @@
   </si>
   <si>
     <t>https://azbyka.ru/days/sv-tamara-gruzinskaja-carica</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/Тамара_(царица)#/media/Файл:Tamar_(Vardzia_fresco_detail).jpg</t>
   </si>
   <si>
     <t>неизвестно</t>
@@ -5088,12 +5075,21 @@
   <si>
     <t xml:space="preserve">05.12.1812 </t>
   </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/86/Jovan_Vladimir%2C_Greek_icon.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/9a/Davit_Agmashenebeli.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/7/7d/Stefan_Nemanja.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5392,7 +5388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5427,7 +5423,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5604,41 +5600,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="20.6640625" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="13" width="13" style="3" customWidth="1"/>
-    <col min="14" max="15" width="20.6640625" customWidth="1"/>
-    <col min="16" max="16" width="41.5546875" style="40" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="41.88671875" customWidth="1"/>
-    <col min="19" max="20" width="20.6640625" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" style="40" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="41.85546875" customWidth="1"/>
+    <col min="19" max="20" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="24.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5682,7 +5678,7 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>10</v>
@@ -5706,12 +5702,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="24.95" customHeight="1">
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -5720,13 +5716,13 @@
         <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -5735,7 +5731,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -5747,13 +5743,13 @@
         <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="U2" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="24.95" customHeight="1">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -5761,34 +5757,34 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -5800,13 +5796,13 @@
         <v>28</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="U3" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="24.95" customHeight="1">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -5820,7 +5816,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -5829,7 +5825,7 @@
         <v>33</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -5841,13 +5837,13 @@
         <v>34</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="24.95" customHeight="1">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -5861,13 +5857,13 @@
         <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -5888,13 +5884,13 @@
         <v>41</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="U5" s="3">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="24.95" customHeight="1">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -5908,7 +5904,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
@@ -5929,21 +5925,21 @@
         <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="V6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="24.95" customHeight="1">
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
@@ -5952,13 +5948,13 @@
         <v>57</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="N7" t="s">
         <v>53</v>
@@ -5967,7 +5963,7 @@
         <v>53</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="Q7" t="s">
         <v>56</v>
@@ -5979,13 +5975,13 @@
         <v>54</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="U7" s="3">
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="24.95" customHeight="1">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -6008,7 +6004,7 @@
         <v>53</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -6020,13 +6016,13 @@
         <v>60</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="U8" s="3">
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="24.95" customHeight="1">
       <c r="B9" t="s">
         <v>62</v>
       </c>
@@ -6040,7 +6036,7 @@
         <v>65</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N9" t="s">
         <v>53</v>
@@ -6049,7 +6045,7 @@
         <v>53</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
@@ -6061,13 +6057,13 @@
         <v>66</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="U9" s="3">
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="24.95" customHeight="1">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -6078,7 +6074,7 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H10" s="3">
         <v>781</v>
@@ -6111,13 +6107,13 @@
         <v>69</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="U10" s="3">
         <v>826</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="24.95" customHeight="1">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -6131,7 +6127,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M11" s="3">
         <v>1144</v>
@@ -6140,10 +6136,10 @@
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="Q11" t="s">
         <v>74</v>
@@ -6155,16 +6151,16 @@
         <v>75</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="V11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="24.95" customHeight="1">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -6172,13 +6168,13 @@
         <v>949</v>
       </c>
       <c r="E12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G12" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="N12" t="s">
         <v>53</v>
@@ -6187,7 +6183,7 @@
         <v>53</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="Q12" t="s">
         <v>56</v>
@@ -6199,13 +6195,13 @@
         <v>80</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="U12" s="3">
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="24.95" customHeight="1">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -6219,16 +6215,16 @@
         <v>84</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I13" t="s">
         <v>84</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
@@ -6237,7 +6233,7 @@
         <v>26</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="Q13" t="s">
         <v>85</v>
@@ -6249,86 +6245,86 @@
         <v>87</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>88</v>
+        <v>1321</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="V13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="24.95" customHeight="1">
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3">
         <v>1073</v>
       </c>
       <c r="E14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N14" t="s">
         <v>90</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="N14" t="s">
-        <v>91</v>
       </c>
       <c r="O14" t="s">
         <v>33</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="Q14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="T14" s="1" t="s">
-        <v>95</v>
+        <v>1322</v>
       </c>
       <c r="U14" s="3">
         <v>1125</v>
       </c>
       <c r="V14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="24.95" customHeight="1">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3">
         <v>1114</v>
       </c>
       <c r="E15" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="M15" s="3">
         <v>1204</v>
@@ -6340,99 +6336,99 @@
         <v>53</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="Q15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="T15" s="1" t="s">
-        <v>102</v>
+        <v>1323</v>
       </c>
       <c r="U15" s="3">
         <v>1200</v>
       </c>
       <c r="V15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="24.95" customHeight="1">
       <c r="B16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3">
         <v>1166</v>
       </c>
       <c r="E16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="N16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="40" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="Q16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>109</v>
+        <v>1132</v>
       </c>
       <c r="U16" s="3">
         <v>1213</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7">
         <v>1169</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>39</v>
@@ -6441,30 +6437,30 @@
         <v>33</v>
       </c>
       <c r="P17" s="41" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="U17" s="7">
         <v>1236</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="24.95" customHeight="1">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3">
         <v>1296</v>
@@ -6473,10 +6469,10 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="M18" s="3">
         <v>1368</v>
@@ -6488,49 +6484,49 @@
         <v>33</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="Q18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="V18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D19" s="7">
         <v>1268</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>53</v>
@@ -6539,30 +6535,30 @@
         <v>53</v>
       </c>
       <c r="P19" s="41" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="U19" s="7">
         <v>1346</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="24.95" customHeight="1">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D20" s="3">
         <v>1392</v>
@@ -6571,25 +6567,25 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="K20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M20" s="3">
         <v>1734</v>
@@ -6601,19 +6597,19 @@
         <v>33</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="Q20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="U20" s="3">
         <v>1444</v>
@@ -6622,21 +6618,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="J21" s="7"/>
       <c r="L21" s="7"/>
@@ -6650,95 +6646,95 @@
         <v>33</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U21" s="7">
         <v>1429</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="24.95" customHeight="1">
       <c r="B22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D22" s="3">
         <v>1510</v>
       </c>
       <c r="E22" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="M22" s="3">
         <v>1572</v>
       </c>
       <c r="N22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P22" s="40" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="Q22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="U22" s="3">
         <v>1568</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D23" s="7">
         <v>1547</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7">
@@ -6751,92 +6747,92 @@
         <v>33</v>
       </c>
       <c r="P23" s="41" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U23" s="7">
         <v>1622</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="24.95" customHeight="1">
       <c r="B24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D24" s="3">
         <v>1587</v>
       </c>
       <c r="E24" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="I24" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="N24" t="s">
         <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="Q24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="U24" s="3">
         <v>1622</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="B25" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
@@ -6850,39 +6846,39 @@
         <v>53</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="U25" s="7">
         <v>1651</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="24.95" customHeight="1">
       <c r="B26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D26" s="3">
         <v>1775</v>
       </c>
       <c r="E26" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G26" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H26" s="3">
         <v>1795</v>
@@ -6891,166 +6887,166 @@
         <v>1912</v>
       </c>
       <c r="N26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O26" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="V26" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="24.95" customHeight="1">
       <c r="B27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D27" s="3">
         <v>1714</v>
       </c>
       <c r="E27" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M27" s="3">
         <v>1961</v>
       </c>
       <c r="N27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s">
         <v>33</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="V27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="24.95" customHeight="1">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3">
         <v>1745</v>
       </c>
       <c r="E28" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="M28" s="3">
         <v>1921</v>
       </c>
       <c r="N28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O28" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="Q28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="V28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="24.95" customHeight="1">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D29" s="3">
         <v>1739</v>
       </c>
       <c r="E29" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="I29" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="M29" s="27">
         <v>22646</v>
@@ -7062,98 +7058,98 @@
         <v>33</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="Q29" t="s">
+        <v>179</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="S29" t="s">
+        <v>181</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="V29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A30" t="s">
         <v>183</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E30" t="s">
+        <v>357</v>
+      </c>
+      <c r="F30" t="s">
         <v>184</v>
       </c>
-      <c r="S29" t="s">
-        <v>185</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="V29" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F30" t="s">
-        <v>188</v>
-      </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="M30" s="27">
         <v>33912</v>
       </c>
       <c r="N30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O30" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P30" s="40" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="U30" s="27">
         <v>8275</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="24.95" customHeight="1">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D31" s="27">
         <v>8973</v>
       </c>
       <c r="E31" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="M31" s="27">
         <v>42017</v>
@@ -7165,35 +7161,35 @@
         <v>53</v>
       </c>
       <c r="P31" s="40" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="Q31" t="s">
         <v>56</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="U31" s="27">
         <v>34527</v>
       </c>
       <c r="V31" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="24.95" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="7" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>43</v>
@@ -7203,67 +7199,67 @@
         <v>43</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P32" s="41" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="U32" s="7">
         <v>96</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="24.95" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="7" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="7"/>
@@ -7271,58 +7267,58 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P33" s="41" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="R33" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="R33" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="S33" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="24.95" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="7">
         <v>213</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="7"/>
       <c r="K34" s="4"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>39</v>
@@ -7331,35 +7327,35 @@
         <v>33</v>
       </c>
       <c r="P34" s="41" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="U34" s="7">
         <v>270</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="24.95" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="7" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>18</v>
@@ -7372,7 +7368,7 @@
         <v>230</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="4"/>
@@ -7382,22 +7378,22 @@
         <v>73</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P35" s="41" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>73</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="U35" s="7">
         <v>230</v>
@@ -7406,24 +7402,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="24.95" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="8">
         <v>329</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="7"/>
@@ -7437,51 +7433,51 @@
         <v>33</v>
       </c>
       <c r="P36" s="41" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="U36" s="7">
         <v>389</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="24.95" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="7"/>
@@ -7493,57 +7489,57 @@
         <v>33</v>
       </c>
       <c r="P37" s="41" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="24.95" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="8">
         <v>376</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="4" t="s">
@@ -7553,35 +7549,35 @@
         <v>33</v>
       </c>
       <c r="P38" s="41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="24.95" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>42</v>
@@ -7591,7 +7587,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="7"/>
@@ -7599,51 +7595,51 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P39" s="41" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="V39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="24.95" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7">
         <v>483</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="7"/>
@@ -7651,37 +7647,37 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="41" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="24.95" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7">
@@ -7695,7 +7691,7 @@
         <v>18</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="7"/>
@@ -7709,31 +7705,31 @@
         <v>33</v>
       </c>
       <c r="P41" s="41" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="24.95" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="7">
@@ -7744,22 +7740,22 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="4" t="s">
@@ -7769,31 +7765,31 @@
         <v>53</v>
       </c>
       <c r="P42" s="41" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="24.95" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="7">
@@ -7804,22 +7800,22 @@
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="4" t="s">
@@ -7829,31 +7825,31 @@
         <v>33</v>
       </c>
       <c r="P43" s="41" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="U43" s="7">
         <v>638</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="24.95" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="7">
@@ -7867,13 +7863,13 @@
         <v>42</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="7"/>
@@ -7885,19 +7881,19 @@
         <v>33</v>
       </c>
       <c r="P44" s="41" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="U44" s="7">
         <v>806</v>
@@ -7906,24 +7902,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="24.95" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7">
         <v>710</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="7"/>
@@ -7933,113 +7929,113 @@
         <v>870</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="P45" s="41" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="U45" s="7">
         <v>779</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="24.95" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7">
         <v>778</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P46" s="41" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="U46" s="7">
         <v>840</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="24.95" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="7">
         <v>907</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="7"/>
@@ -8047,55 +8043,55 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P47" s="41" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="U47" s="7">
         <v>935</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="24.95" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7">
         <v>894</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="7"/>
@@ -8109,59 +8105,59 @@
         <v>53</v>
       </c>
       <c r="P48" s="41" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="U48" s="7">
         <v>962</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="24.95" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7">
         <v>1115</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="4" t="s">
@@ -8171,19 +8167,19 @@
         <v>33</v>
       </c>
       <c r="P49" s="41" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="U49" s="7">
         <v>1186</v>
@@ -8192,17 +8188,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="24.95" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="7">
         <v>1259</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -8213,50 +8209,50 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P50" s="41" t="s">
+        <v>1269</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="P50" s="41" t="s">
-        <v>1273</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="T50" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="V50" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="7">
         <v>1329</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H51" s="7">
         <v>1389</v>
@@ -8267,48 +8263,48 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P51" s="41" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="U51" s="7">
         <v>1389</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="24.95" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="7">
         <v>1300</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="H52" s="7">
         <v>1330</v>
@@ -8319,52 +8315,52 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P52" s="41" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="U52" s="7">
         <v>1330</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="24.95" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7">
         <v>1384</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H53" s="7">
         <v>1425</v>
@@ -8377,48 +8373,48 @@
         <v>40604</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P53" s="41" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="U53" s="7">
         <v>1425</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="24.95" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7">
         <v>1497</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H54" s="7">
         <v>1515</v>
@@ -8432,45 +8428,45 @@
         <v>26</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P54" s="41" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="U54" s="7">
         <v>1515</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="24.95" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7">
         <v>1510</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H55" s="7">
         <v>1555</v>
@@ -8481,52 +8477,52 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P55" s="41" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="U55" s="7">
         <v>1555</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="24.95" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7">
         <v>1572</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="7"/>
       <c r="I56" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J56" s="7">
         <v>1602</v>
@@ -8535,54 +8531,54 @@
         <v>42</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M56" s="10">
         <v>40092</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P56" s="41" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="U56" s="7">
         <v>1638</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="24.95" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7">
         <v>1610</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H57" s="7">
         <v>1660</v>
@@ -8592,60 +8588,60 @@
       <c r="K57" s="4"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P57" s="41" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="U57" s="7">
         <v>1660</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="24.95" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="7">
         <v>1722</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="7"/>
@@ -8659,45 +8655,45 @@
         <v>53</v>
       </c>
       <c r="P58" s="41" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="U58" s="7">
         <v>1773</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="24.95" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7">
         <v>1690</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -8707,63 +8703,63 @@
         <v>1962</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P59" s="41" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="Q59" s="7"/>
       <c r="R59" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="S59" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="U59" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="24.95" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="7" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H60" s="7">
         <v>1889</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M60" s="7">
         <v>2000</v>
@@ -8775,56 +8771,56 @@
         <v>33</v>
       </c>
       <c r="P60" s="41" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="Q60" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="S60" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="U60" s="10">
         <v>5524</v>
       </c>
       <c r="V60" s="4"/>
     </row>
-    <row r="61" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="24.95" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="L61" s="7">
         <v>1956</v>
@@ -8839,89 +8835,89 @@
         <v>33</v>
       </c>
       <c r="P61" s="41" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="U61" s="10">
         <v>20532</v>
       </c>
       <c r="V61" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="24.95" customHeight="1">
       <c r="A62" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C62" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D62" s="3">
         <v>1860</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G62" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M62" s="3">
         <v>1999</v>
       </c>
       <c r="N62" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O62" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P62" s="40" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Q62" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R62" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="U62" s="27">
         <v>7282</v>
       </c>
       <c r="V62" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A63" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>524</v>
-      </c>
       <c r="B63" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C63" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G63" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H63" s="3">
         <v>1915</v>
@@ -8930,54 +8926,54 @@
         <v>1999</v>
       </c>
       <c r="N63" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O63" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P63" s="40" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q63" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R63" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="U63" s="27">
         <v>6751</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="24.95" customHeight="1">
       <c r="A64" t="s">
+        <v>526</v>
+      </c>
+      <c r="B64" t="s">
+        <v>527</v>
+      </c>
+      <c r="C64" t="s">
+        <v>528</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E64" t="s">
+        <v>529</v>
+      </c>
+      <c r="G64" t="s">
         <v>530</v>
       </c>
-      <c r="B64" t="s">
+      <c r="H64" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C64" t="s">
+      <c r="I64" t="s">
         <v>532</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E64" t="s">
-        <v>533</v>
-      </c>
-      <c r="G64" t="s">
-        <v>534</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="I64" t="s">
-        <v>536</v>
       </c>
       <c r="J64" s="3">
         <v>1926</v>
@@ -8986,101 +8982,101 @@
         <v>2000</v>
       </c>
       <c r="N64" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O64" t="s">
         <v>53</v>
       </c>
       <c r="P64" s="40" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Q64" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="R64" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="U64" s="27">
         <v>24152</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="24.95" customHeight="1">
       <c r="A65" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B65" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C65" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E65" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G65" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I65" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M65" s="3">
         <v>2000</v>
       </c>
       <c r="N65" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O65" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P65" s="40" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="Q65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R65" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="U65" s="27">
         <v>7282</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="24.95" customHeight="1">
       <c r="A66" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B66" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C66" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D66" s="3">
         <v>1878</v>
       </c>
       <c r="E66" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G66" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="M66" s="3">
         <v>2000</v>
@@ -9089,60 +9085,60 @@
         <v>26</v>
       </c>
       <c r="O66" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P66" s="40" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q66" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R66" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="U66" s="3">
         <v>1935</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="24.95" customHeight="1">
       <c r="A67" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B67" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C67" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E67" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F67" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G67" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H67" s="3">
         <v>1926</v>
       </c>
       <c r="I67" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J67" s="3">
         <v>1931</v>
       </c>
       <c r="K67" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L67" s="3">
         <v>1932</v>
@@ -9151,63 +9147,63 @@
         <v>2000</v>
       </c>
       <c r="N67" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O67" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P67" s="40" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R67" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="U67" s="3">
         <v>1934</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="24.95" customHeight="1">
       <c r="A68" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B68" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C68" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D68" s="3">
         <v>1865</v>
       </c>
       <c r="E68" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F68" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G68" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H68" s="3">
         <v>1865</v>
       </c>
       <c r="I68" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="J68" s="3">
         <v>1917</v>
       </c>
       <c r="K68" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L68" s="3">
         <v>1918</v>
@@ -9216,54 +9212,54 @@
         <v>2000</v>
       </c>
       <c r="N68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O68" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P68" s="40" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q68" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="R68" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="U68" s="3">
         <v>1918</v>
       </c>
       <c r="V68" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="24.95" customHeight="1">
       <c r="A69" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B69" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C69" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D69" s="27">
         <v>4957</v>
       </c>
       <c r="E69" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F69" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G69" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H69" s="3">
         <v>1928</v>
@@ -9278,45 +9274,45 @@
         <v>53</v>
       </c>
       <c r="P69" s="40" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q69" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="R69" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="U69" s="27">
         <v>30105</v>
       </c>
       <c r="V69" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="24.95" customHeight="1">
       <c r="A70" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B70" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C70" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D70" s="3">
         <v>1897</v>
       </c>
       <c r="E70" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G70" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H70" s="3">
         <v>1915</v>
@@ -9325,110 +9321,110 @@
         <v>2000</v>
       </c>
       <c r="N70" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O70" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P70" s="40" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q70" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="R70" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="U70" s="27">
         <v>11028</v>
       </c>
       <c r="V70" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="24.95" customHeight="1">
       <c r="A71" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B71" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C71" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E71" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F71" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G71" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H71" s="3">
         <v>1890</v>
       </c>
       <c r="I71" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="M71" s="3">
         <v>1999</v>
       </c>
       <c r="N71" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O71" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P71" s="40" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q71" t="s">
         <v>23</v>
       </c>
       <c r="R71" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="U71" s="27">
         <v>7901</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="24.95" customHeight="1">
       <c r="A72" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B72" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C72" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D72" s="3">
         <v>1885</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G72" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H72" s="3">
         <v>1913</v>
@@ -9437,57 +9433,57 @@
         <v>2000</v>
       </c>
       <c r="N72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O72" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P72" s="40" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q72" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R72" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="U72" s="27">
         <v>6769</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="24.95" customHeight="1">
       <c r="A73" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C73" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D73" s="3">
         <v>1292</v>
       </c>
       <c r="E73" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F73" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G73" t="s">
         <v>42</v>
       </c>
       <c r="I73" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K73" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L73" s="3">
         <v>1357</v>
@@ -9502,60 +9498,60 @@
         <v>33</v>
       </c>
       <c r="P73" s="40" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q73" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="R73" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="V73" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="24.95" customHeight="1">
       <c r="A74" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C74" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E74" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F74" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G74" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H74" s="3">
         <v>1897</v>
       </c>
       <c r="I74" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J74" s="3">
         <v>1899</v>
       </c>
       <c r="K74" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L74" s="3">
         <v>1902</v>
@@ -9564,48 +9560,48 @@
         <v>33699</v>
       </c>
       <c r="N74" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O74" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P74" s="40" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="Q74" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="R74" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="U74" s="27">
         <v>8261</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="24.95" customHeight="1">
       <c r="A75" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C75" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E75" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F75" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -9614,13 +9610,13 @@
         <v>1905</v>
       </c>
       <c r="I75" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J75" s="3">
         <v>1913</v>
       </c>
       <c r="K75" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L75" s="3">
         <v>1922</v>
@@ -9629,63 +9625,63 @@
         <v>2000</v>
       </c>
       <c r="N75" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O75" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P75" s="40" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q75" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="R75" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="U75" s="27">
         <v>13903</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="24.95" customHeight="1">
       <c r="A76" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C76" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E76" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F76" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G76" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H76" s="3">
         <v>1894</v>
       </c>
       <c r="I76" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J76" s="3">
         <v>1912</v>
       </c>
       <c r="K76" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L76" s="3">
         <v>1924</v>
@@ -9694,63 +9690,63 @@
         <v>2000</v>
       </c>
       <c r="N76" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O76" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P76" s="40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q76" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="R76" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="U76" s="27">
         <v>13894</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="24.95" customHeight="1">
       <c r="A77" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C77" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E77" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F77" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G77" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H77" s="3">
         <v>1876</v>
       </c>
       <c r="I77" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J77" s="3">
         <v>1931</v>
       </c>
       <c r="K77" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L77" s="3">
         <v>1936</v>
@@ -9759,51 +9755,51 @@
         <v>2000</v>
       </c>
       <c r="N77" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O77" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P77" s="40" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q77" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="R77" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="U77" s="27">
         <v>13762</v>
       </c>
       <c r="V77" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="24.95" customHeight="1">
       <c r="A78" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E78" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G78" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H78" s="3">
         <v>1890</v>
@@ -9812,57 +9808,57 @@
         <v>2001</v>
       </c>
       <c r="N78" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O78" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P78" s="40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q78" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R78" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="U78" s="27">
         <v>6870</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="24.95" customHeight="1">
       <c r="A79" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B79" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C79" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D79" s="3">
         <v>1882</v>
       </c>
       <c r="E79" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F79" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G79" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H79" s="3">
         <v>1913</v>
       </c>
       <c r="I79" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J79" s="3">
         <v>1913</v>
@@ -9871,57 +9867,57 @@
         <v>2000</v>
       </c>
       <c r="N79" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O79" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P79" s="40" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R79" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="U79" s="27">
         <v>11565</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="24.95" customHeight="1">
       <c r="A80" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B80" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C80" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D80" s="3">
         <v>1877</v>
       </c>
       <c r="E80" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G80" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H80" s="3">
         <v>1897</v>
       </c>
       <c r="I80" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="M80" s="3">
         <v>2000</v>
@@ -9930,51 +9926,51 @@
         <v>26</v>
       </c>
       <c r="O80" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P80" s="40" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q80" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R80" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="U80" s="27">
         <v>11414</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="24.95" customHeight="1">
       <c r="A81" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B81" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C81" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E81" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F81" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G81" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="N81" t="s">
         <v>53</v>
@@ -9983,51 +9979,51 @@
         <v>53</v>
       </c>
       <c r="P81" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q81" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="R81" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="U81" s="27">
         <v>4853</v>
       </c>
       <c r="V81" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="24.95" customHeight="1">
       <c r="A82" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B82" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C82" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D82" s="3">
         <v>1821</v>
       </c>
       <c r="E82" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G82" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H82" s="3">
         <v>1843</v>
       </c>
       <c r="I82" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J82" s="3">
         <v>1881</v>
@@ -10036,113 +10032,113 @@
         <v>2001</v>
       </c>
       <c r="N82" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O82" t="s">
         <v>33</v>
       </c>
       <c r="P82" s="40" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q82" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R82" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="U82" s="3">
         <v>1900</v>
       </c>
       <c r="V82" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="24.95" customHeight="1">
       <c r="A83" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C83" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D83" s="3">
         <v>1856</v>
       </c>
       <c r="E83" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G83" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="M83" s="3">
         <v>1999</v>
       </c>
       <c r="N83" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O83" t="s">
         <v>33</v>
       </c>
       <c r="P83" s="40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q83" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R83" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="U83" s="3">
         <v>1925</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="24.95" customHeight="1">
       <c r="A84" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E84" s="14" t="s">
+      <c r="J84" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="7"/>
@@ -10156,55 +10152,55 @@
         <v>53</v>
       </c>
       <c r="P84" s="41" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="R84" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="S84" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="T84" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="U84" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="Q84" s="4" t="s">
+      <c r="V84" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A85" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="R84" s="15" t="s">
+      <c r="B85" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="S84" s="6" t="s">
+      <c r="C85" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="T84" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="U84" s="7" t="s">
+      <c r="D85" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="V84" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>616</v>
-      </c>
       <c r="G85" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="7"/>
@@ -10212,59 +10208,59 @@
         <v>1988</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O85" s="4" t="s">
         <v>53</v>
       </c>
       <c r="P85" s="41" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="R85" s="15" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="U85" s="7" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="V85" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="24.95" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="7"/>
@@ -10278,51 +10274,51 @@
         <v>33</v>
       </c>
       <c r="P86" s="41" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Q86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R86" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="S86" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="T86" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="U86" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="V86" s="16" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A87" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="S86" s="6" t="s">
+      <c r="B87" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="T86" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="U86" s="7" t="s">
+      <c r="C87" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="V86" s="16" t="s">
+      <c r="D87" s="7" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="7"/>
@@ -10338,51 +10334,51 @@
         <v>53</v>
       </c>
       <c r="P87" s="41" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="R87" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="T87" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="U87" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="V87" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="Q87" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="R87" s="5" t="s">
+    </row>
+    <row r="88" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A88" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="S87" s="6" t="s">
+      <c r="B88" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="T87" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="U87" s="7" t="s">
+      <c r="C88" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="V87" s="7" t="s">
+      <c r="E88" s="4" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D88" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="7"/>
@@ -10398,61 +10394,61 @@
         <v>53</v>
       </c>
       <c r="P88" s="41" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="Q88" s="4"/>
       <c r="R88" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="U88" s="10">
         <v>14147</v>
       </c>
       <c r="V88" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="24.95" customHeight="1">
       <c r="A89" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H89" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="I89" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="K89" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>661</v>
-      </c>
       <c r="L89" s="7" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="M89" s="10">
         <v>32330</v>
@@ -10464,63 +10460,63 @@
         <v>33</v>
       </c>
       <c r="P89" s="41" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="Q89" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R89" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="U89" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="V89" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A90" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="S89" s="6" t="s">
+      <c r="B90" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="T89" s="6" t="s">
-        <v>1205</v>
-      </c>
-      <c r="U89" s="7" t="s">
+      <c r="C90" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="V89" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="I90" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="L90" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="M90" s="10">
         <v>35025</v>
@@ -10532,42 +10528,42 @@
         <v>33</v>
       </c>
       <c r="P90" s="41" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="Q90" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R90" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="U90" s="10">
         <v>22443</v>
       </c>
       <c r="V90" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" ht="24.95" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="7">
         <v>758</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H91" s="7">
         <v>786</v>
@@ -10581,34 +10577,34 @@
         <v>26</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P91" s="41" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="S91" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="U91" s="7" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="V91" s="7"/>
     </row>
-    <row r="92" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="24.95" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="7" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -10616,7 +10612,7 @@
         <v>52</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="7"/>
@@ -10630,31 +10626,31 @@
         <v>53</v>
       </c>
       <c r="P92" s="41" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q92" s="4"/>
       <c r="R92" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="T92" s="4"/>
       <c r="U92" s="7">
         <v>597</v>
       </c>
       <c r="V92" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="24.95" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="7" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -10662,7 +10658,7 @@
         <v>18</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="7"/>
@@ -10673,20 +10669,20 @@
         <v>26</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P93" s="41" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="Q93" s="4"/>
       <c r="R93" s="5" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="U93" s="7">
         <v>269</v>
@@ -10695,21 +10691,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="24.95" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="7" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H94" s="7">
         <v>304</v>
@@ -10723,20 +10719,20 @@
         <v>73</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P94" s="41" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="U94" s="7">
         <v>304</v>
@@ -10745,39 +10741,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" ht="24.95" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D95" s="7">
         <v>1871</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H95" s="7">
         <v>1927</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="J95" s="7">
         <v>1930</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="L95" s="7">
         <v>1930</v>
@@ -10786,51 +10782,51 @@
         <v>37251</v>
       </c>
       <c r="N95" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P95" s="41" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="R95" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="S95" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="O95" s="4" t="s">
-        <v>1240</v>
-      </c>
-      <c r="P95" s="41" t="s">
-        <v>707</v>
-      </c>
-      <c r="Q95" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="R95" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="S95" s="6" t="s">
-        <v>710</v>
-      </c>
       <c r="T95" s="6" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="U95" s="7">
         <v>1937</v>
       </c>
       <c r="V95" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" ht="24.95" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="7"/>
@@ -10838,54 +10834,54 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>53</v>
       </c>
       <c r="P96" s="41" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="S96" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="T96" s="33" t="s">
+        <v>1207</v>
+      </c>
+      <c r="U96" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="Q96" s="4" t="s">
+      <c r="V96" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="R96" s="5" t="s">
+    </row>
+    <row r="97" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A97" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="S96" s="6" t="s">
+      <c r="B97" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="T96" s="33" t="s">
-        <v>1211</v>
-      </c>
-      <c r="U96" s="7" t="s">
+      <c r="E97" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="V96" s="7" t="s">
+      <c r="F97" s="4" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="G97" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>725</v>
       </c>
       <c r="H97" s="7">
         <v>1920</v>
@@ -10893,7 +10889,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="7"/>
       <c r="K97" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="L97" s="7">
         <v>1934</v>
@@ -10902,44 +10898,44 @@
         <v>2000</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P97" s="41" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Q97" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="S97" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="T97" s="33" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="U97" s="7">
         <v>1937</v>
       </c>
       <c r="V97" s="7"/>
     </row>
-    <row r="98" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" ht="24.95" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="7" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H98" s="7">
         <v>375</v>
@@ -10950,47 +10946,47 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
       <c r="N98" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P98" s="41" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q98" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="S98" s="6" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="T98" s="4"/>
       <c r="U98" s="7">
         <v>375</v>
       </c>
       <c r="V98" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" ht="24.95" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="7"/>
@@ -11001,30 +10997,30 @@
         <v>26</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P99" s="41" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="Q99" s="4"/>
       <c r="R99" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="S99" s="6" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="U99" s="7" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="V99" s="7"/>
     </row>
-    <row r="100" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" ht="24.95" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="7"/>
@@ -11041,19 +11037,19 @@
         <v>26</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P100" s="41" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="S100" s="6" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="T100" s="4"/>
       <c r="U100" s="7">
@@ -11061,27 +11057,27 @@
       </c>
       <c r="V100" s="7"/>
     </row>
-    <row r="101" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" ht="24.95" customHeight="1">
       <c r="B101" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="N101" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O101" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P101" s="40" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="Q101" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="R101" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="U101" s="3">
         <v>250</v>
@@ -11090,63 +11086,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" ht="24.95" customHeight="1">
       <c r="B102" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="N102" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O102" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P102" s="40" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="Q102" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="R102" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" ht="24.95" customHeight="1">
       <c r="B103" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="N103" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O103" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P103" s="40" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="Q103" t="s">
         <v>23</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" ht="24.95" customHeight="1">
       <c r="B104" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="N104" t="s">
         <v>53</v>
@@ -11155,47 +11151,47 @@
         <v>53</v>
       </c>
       <c r="P104" s="40" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="Q104" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="U104" s="3">
         <v>470</v>
       </c>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" ht="24.95" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D105" s="25">
         <v>1819</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F105" s="19"/>
       <c r="G105" s="19" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I105" s="19"/>
       <c r="J105" s="25"/>
@@ -11205,113 +11201,113 @@
         <v>42566</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O105" s="19" t="s">
         <v>53</v>
       </c>
       <c r="P105" s="30" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="Q105" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="R105" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="S105" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="T105" s="19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="U105" s="25" t="s">
+        <v>1113</v>
+      </c>
+      <c r="V105" s="20" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A106" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="R105" s="19" t="s">
+      <c r="B106" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="S105" s="19" t="s">
+      <c r="D106" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E106" s="22" t="s">
         <v>771</v>
-      </c>
-      <c r="T105" s="19" t="s">
-        <v>1217</v>
-      </c>
-      <c r="U105" s="25" t="s">
-        <v>1117</v>
-      </c>
-      <c r="V105" s="20" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21" t="s">
-        <v>773</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>775</v>
       </c>
       <c r="F106" s="22"/>
       <c r="G106" s="22" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="L106" s="26" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="M106" s="24">
         <v>38217</v>
       </c>
       <c r="N106" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O106" s="22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P106" s="29" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="Q106" s="22" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="R106" s="22" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="S106" s="22" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="T106" s="34" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="U106" s="24">
         <v>13930</v>
       </c>
       <c r="V106" s="23"/>
     </row>
-    <row r="107" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" ht="24.95" customHeight="1">
       <c r="A107" s="18"/>
       <c r="B107" s="19" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="25"/>
       <c r="E107" s="19"/>
       <c r="F107" s="19" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="I107" s="19"/>
       <c r="J107" s="25"/>
@@ -11325,376 +11321,376 @@
         <v>53</v>
       </c>
       <c r="P107" s="30" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="Q107" s="19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="R107" s="19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="S107" s="19" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="T107" s="32" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="U107" s="25" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="V107" s="20"/>
     </row>
-    <row r="108" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" ht="24.95" customHeight="1">
       <c r="A108" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>788</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="G108" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="H108" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I108" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="J108" s="26" t="s">
         <v>791</v>
       </c>
-      <c r="D108" s="26" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E108" s="22" t="s">
+      <c r="K108" s="22" t="s">
         <v>792</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="G108" s="22" t="s">
-        <v>793</v>
-      </c>
-      <c r="H108" s="26" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I108" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="J108" s="26" t="s">
-        <v>795</v>
-      </c>
-      <c r="K108" s="22" t="s">
-        <v>796</v>
       </c>
       <c r="L108" s="26">
         <v>1937</v>
       </c>
       <c r="M108" s="29" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="N108" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O108" s="22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P108" s="29" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="Q108" s="22" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R108" s="22" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="S108" s="22" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="T108" s="34" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="U108" s="24">
         <v>13878</v>
       </c>
       <c r="V108" s="23" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" ht="24.95" customHeight="1">
       <c r="A109" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="H109" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="I109" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E109" s="19" t="s">
+      <c r="J109" s="25" t="s">
         <v>801</v>
       </c>
-      <c r="F109" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="G109" s="19" t="s">
+      <c r="K109" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="H109" s="25" t="s">
+      <c r="L109" s="25" t="s">
         <v>803</v>
-      </c>
-      <c r="I109" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="J109" s="25" t="s">
-        <v>805</v>
-      </c>
-      <c r="K109" s="19" t="s">
-        <v>806</v>
-      </c>
-      <c r="L109" s="25" t="s">
-        <v>807</v>
       </c>
       <c r="M109" s="31">
         <v>36754</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P109" s="30" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="Q109" s="19" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="R109" s="19" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="S109" s="19" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="T109" s="32" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="U109" s="31">
         <v>6796</v>
       </c>
       <c r="V109" s="20"/>
     </row>
-    <row r="110" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" ht="24.95" customHeight="1">
       <c r="A110" s="21" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F110" s="22"/>
       <c r="G110" s="22" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="H110" s="26" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="J110" s="26"/>
       <c r="K110" s="22"/>
       <c r="L110" s="26"/>
       <c r="M110" s="26"/>
       <c r="N110" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O110" s="35" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P110" s="29" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="Q110" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="R110" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="S110" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="T110" s="34" t="s">
+        <v>1217</v>
+      </c>
+      <c r="U110" s="26" t="s">
+        <v>1115</v>
+      </c>
+      <c r="V110" s="23" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A111" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="R110" s="22" t="s">
+      <c r="B111" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="S110" s="22" t="s">
+      <c r="D111" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E111" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="T110" s="34" t="s">
-        <v>1221</v>
-      </c>
-      <c r="U110" s="26" t="s">
-        <v>1119</v>
-      </c>
-      <c r="V110" s="23" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
-        <v>820</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>819</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>821</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>822</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="19" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="H111" s="25" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="J111" s="25" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="L111" s="25" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="M111" s="31">
         <v>42566</v>
       </c>
       <c r="N111" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O111" s="19" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P111" s="30" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q111" s="19" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="R111" s="19" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="S111" s="19" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="T111" s="32" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="U111" s="31">
         <v>6668</v>
       </c>
       <c r="V111" s="20" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A112" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="F112" s="22" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="21" t="s">
+      <c r="G112" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="22" t="s">
+      <c r="H112" s="26" t="s">
         <v>830</v>
       </c>
-      <c r="D112" s="26" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E112" s="22" t="s">
+      <c r="I112" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="J112" s="26" t="s">
         <v>832</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="K112" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="L112" s="26" t="s">
         <v>833</v>
-      </c>
-      <c r="H112" s="26" t="s">
-        <v>834</v>
-      </c>
-      <c r="I112" s="22" t="s">
-        <v>835</v>
-      </c>
-      <c r="J112" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="K112" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="L112" s="26" t="s">
-        <v>837</v>
       </c>
       <c r="M112" s="24">
         <v>37546</v>
       </c>
       <c r="N112" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O112" s="22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P112" s="29" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="Q112" s="22" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="R112" s="22" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="S112" s="22" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="T112" s="34" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="U112" s="24">
         <v>6766</v>
       </c>
       <c r="V112" s="23" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" ht="24.95" customHeight="1">
       <c r="A113" s="18" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="19" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H113" s="25" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I113" s="19" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="J113" s="25">
         <v>1238</v>
@@ -11702,72 +11698,72 @@
       <c r="K113" s="19"/>
       <c r="L113" s="25"/>
       <c r="M113" s="25" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O113" s="36" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P113" s="30" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="Q113" s="19" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="R113" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="S113" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="T113" s="32" t="s">
+        <v>1220</v>
+      </c>
+      <c r="U113" s="25" t="s">
+        <v>1115</v>
+      </c>
+      <c r="V113" s="20" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A114" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="C114" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="S113" s="19" t="s">
+      <c r="D114" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E114" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="T113" s="32" t="s">
-        <v>1224</v>
-      </c>
-      <c r="U113" s="25" t="s">
-        <v>1119</v>
-      </c>
-      <c r="V113" s="20" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
+      <c r="F114" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="G114" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="H114" s="26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I114" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="J114" s="26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K114" t="s">
         <v>849</v>
       </c>
-      <c r="D114" s="26" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>784</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="H114" s="26" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I114" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="J114" s="26" t="s">
-        <v>1102</v>
-      </c>
-      <c r="K114" t="s">
-        <v>853</v>
-      </c>
       <c r="L114" s="26" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="M114" s="24">
         <v>40708</v>
@@ -11779,36 +11775,36 @@
         <v>33</v>
       </c>
       <c r="P114" s="29" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="Q114" s="22" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="R114" s="22" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="S114" s="22" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="T114" s="34" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="U114" s="24">
         <v>15646</v>
       </c>
       <c r="V114" s="23" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" ht="24.95" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D115" s="25">
         <v>1415</v>
@@ -11816,10 +11812,10 @@
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
       <c r="G115" s="19" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="H115" s="25" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="25"/>
@@ -11829,61 +11825,61 @@
         <v>1979</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O115" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P115" s="30" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="Q115" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="R115" s="19" t="s">
+        <v>859</v>
+      </c>
+      <c r="S115" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="T115" s="32" t="s">
+        <v>1222</v>
+      </c>
+      <c r="U115" s="25" t="s">
+        <v>1116</v>
+      </c>
+      <c r="V115" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A116" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="B116" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="R115" s="19" t="s">
-        <v>863</v>
-      </c>
-      <c r="S115" s="19" t="s">
-        <v>864</v>
-      </c>
-      <c r="T115" s="32" t="s">
-        <v>1226</v>
-      </c>
-      <c r="U115" s="25" t="s">
-        <v>1120</v>
-      </c>
-      <c r="V115" s="20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="21" t="s">
-        <v>865</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>866</v>
-      </c>
       <c r="C116" s="22" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D116" s="26">
         <v>1878</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="22" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="H116" s="26">
         <v>1910</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="K116" s="22"/>
       <c r="L116" s="26"/>
@@ -11891,63 +11887,63 @@
         <v>36758</v>
       </c>
       <c r="N116" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O116" s="35" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P116" s="29" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="Q116" s="22" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="R116" s="22" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="S116" s="22" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="T116" s="34" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="U116" s="24">
         <v>13821</v>
       </c>
       <c r="V116" s="23" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" ht="24.95" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D117" s="25">
         <v>1880</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="H117" s="25" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I117" s="19" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="J117" s="25" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="K117" s="19"/>
       <c r="L117" s="25"/>
@@ -11955,46 +11951,46 @@
         <v>43061</v>
       </c>
       <c r="N117" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O117" s="19" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P117" s="30" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="Q117" s="19" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="R117" s="19" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="S117" s="32" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="T117" s="32" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="U117" s="31">
         <v>11055</v>
       </c>
       <c r="V117" s="20"/>
     </row>
-    <row r="118" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" ht="24.95" customHeight="1">
       <c r="A118" s="21" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D118" s="26">
         <v>1870</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F118" s="22"/>
       <c r="G118" s="22"/>
@@ -12004,53 +12000,53 @@
       <c r="K118" s="22"/>
       <c r="L118" s="26"/>
       <c r="M118" s="29" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="N118" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O118" s="22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P118" s="29" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="Q118" s="22" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="R118" s="22" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="S118" s="22" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="T118" s="34" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="U118" s="24">
         <v>13725</v>
       </c>
       <c r="V118" s="23"/>
     </row>
-    <row r="119" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" ht="24.95" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D119" s="25"/>
       <c r="E119" s="19" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H119" s="25"/>
       <c r="I119" s="19"/>
@@ -12067,262 +12063,262 @@
         <v>53</v>
       </c>
       <c r="P119" s="30" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="Q119" s="19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="R119" s="19" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="S119" s="19" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="T119" s="32" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="U119" s="25">
         <v>1576</v>
       </c>
       <c r="V119" s="20" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" ht="24.95" customHeight="1">
       <c r="A120" s="21" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D120" s="24">
         <v>561</v>
       </c>
       <c r="E120" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I120" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="F120" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="G120" s="22" t="s">
+      <c r="J120" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="K120" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="L120" s="26" t="s">
+        <v>1313</v>
+      </c>
+      <c r="M120" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N120" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O120" s="35" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P120" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q120" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="H120" s="26" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="J120" s="26" t="s">
+      <c r="S120" s="22" t="s">
         <v>899</v>
       </c>
-      <c r="K120" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="L120" s="26" t="s">
-        <v>1317</v>
-      </c>
-      <c r="M120" s="29" t="s">
-        <v>1105</v>
-      </c>
-      <c r="N120" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="O120" s="35" t="s">
-        <v>1240</v>
-      </c>
-      <c r="P120" s="29" t="s">
+      <c r="T120" s="34" t="s">
         <v>900</v>
-      </c>
-      <c r="Q120" s="22" t="s">
-        <v>901</v>
-      </c>
-      <c r="R120" s="22" t="s">
-        <v>902</v>
-      </c>
-      <c r="S120" s="22" t="s">
-        <v>903</v>
-      </c>
-      <c r="T120" s="34" t="s">
-        <v>904</v>
       </c>
       <c r="U120" s="24">
         <v>12586</v>
       </c>
       <c r="V120" s="23"/>
     </row>
-    <row r="121" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" ht="24.95" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F121" s="19"/>
       <c r="G121" s="19" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="I121" s="19" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="J121" s="25" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="K121" s="19" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="L121" s="25" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="M121" s="31">
         <v>38996</v>
       </c>
       <c r="N121" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O121" s="19" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P121" s="30" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="Q121" s="19" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="R121" s="19" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="S121" s="19" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="T121" s="32" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="U121" s="31">
         <v>13771</v>
       </c>
       <c r="V121" s="20"/>
     </row>
-    <row r="122" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" ht="24.95" customHeight="1">
       <c r="A122" s="21" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="F122" s="22"/>
       <c r="G122" s="22" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="H122" s="26" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I122" s="22" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="K122" s="22" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="L122" s="26" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="M122" s="24">
         <v>39077</v>
       </c>
       <c r="N122" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O122" s="22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P122" s="29" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="Q122" s="22" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="R122" s="22" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="S122" s="22" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="T122" s="34" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="U122" s="24">
         <v>7223</v>
       </c>
       <c r="V122" s="23" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A123" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>919</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="G123" s="19" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="18" t="s">
+      <c r="H123" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I123" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="B123" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>923</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>924</v>
-      </c>
-      <c r="G123" s="19" t="s">
-        <v>925</v>
-      </c>
-      <c r="H123" s="25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I123" s="19" t="s">
-        <v>926</v>
-      </c>
       <c r="J123" s="25" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L123" s="25" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="M123" s="30" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="N123" s="19" t="s">
         <v>39</v>
@@ -12331,63 +12327,63 @@
         <v>33</v>
       </c>
       <c r="P123" s="30" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="Q123" s="19" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="R123" s="19" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="S123" s="19" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="T123" s="32" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="U123" s="31">
         <v>9557</v>
       </c>
       <c r="V123" s="20" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A124" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="G124" s="22" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21" t="s">
+      <c r="H124" s="26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I124" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="B124" s="22" t="s">
-        <v>932</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>933</v>
-      </c>
-      <c r="F124" s="22" t="s">
-        <v>924</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>934</v>
-      </c>
-      <c r="H124" s="26" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I124" s="22" t="s">
-        <v>935</v>
-      </c>
       <c r="J124" s="26" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="K124" s="22" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="L124" s="26" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="M124" s="26">
         <v>2000</v>
@@ -12399,41 +12395,41 @@
         <v>53</v>
       </c>
       <c r="P124" s="29" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="Q124" s="22" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="R124" s="22" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="S124" s="22" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="T124" s="34" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="U124" s="26" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="V124" s="23" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="24.95" customHeight="1">
       <c r="A125" s="18"/>
       <c r="B125" s="19" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="25"/>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
       <c r="G125" s="19" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I125" s="19"/>
       <c r="J125" s="25"/>
@@ -12447,46 +12443,46 @@
         <v>53</v>
       </c>
       <c r="P125" s="30" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="Q125" s="19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="R125" s="19" t="s">
+        <v>938</v>
+      </c>
+      <c r="S125" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="T125" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="U125" s="25" t="s">
+        <v>1118</v>
+      </c>
+      <c r="V125" s="20" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A126" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="B126" s="22" t="s">
         <v>942</v>
       </c>
-      <c r="S125" s="19" t="s">
+      <c r="C126" s="22" t="s">
         <v>943</v>
-      </c>
-      <c r="T125" s="32" t="s">
-        <v>944</v>
-      </c>
-      <c r="U125" s="25" t="s">
-        <v>1122</v>
-      </c>
-      <c r="V125" s="20" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="21" t="s">
-        <v>886</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>946</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>947</v>
       </c>
       <c r="D126" s="26"/>
       <c r="E126" s="22" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H126" s="26"/>
       <c r="I126" s="22"/>
@@ -12503,119 +12499,119 @@
         <v>53</v>
       </c>
       <c r="P126" s="29" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="Q126" s="22" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="R126" s="22" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="S126" s="22" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="T126" s="34" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="U126" s="26">
         <v>1563</v>
       </c>
       <c r="V126" s="23" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A127" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>949</v>
+      </c>
+      <c r="G127" s="19" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="18" t="s">
+      <c r="H127" s="25" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I127" s="19" t="s">
         <v>951</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="D127" s="25" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>952</v>
-      </c>
-      <c r="F127" s="19" t="s">
-        <v>953</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>954</v>
-      </c>
-      <c r="H127" s="25" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I127" s="19" t="s">
-        <v>955</v>
-      </c>
       <c r="J127" s="25" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="K127" s="19"/>
       <c r="L127" s="25"/>
       <c r="M127" s="30" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="N127" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O127" s="19" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P127" s="30" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="Q127" s="19" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="R127" s="19" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="S127" s="19" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="T127" s="32" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="U127" s="31">
         <v>13883</v>
       </c>
       <c r="V127" s="20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A128" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18" t="s">
-        <v>960</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>961</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>962</v>
-      </c>
       <c r="D128" s="25" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="19" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="I128" s="19" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J128" s="25" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="K128" s="19"/>
       <c r="L128" s="25"/>
@@ -12623,247 +12619,247 @@
         <v>36754</v>
       </c>
       <c r="N128" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O128" s="19" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P128" s="30" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="Q128" s="19" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="R128" s="19" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="S128" s="32" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="T128" s="32" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="U128" s="31">
         <v>13793</v>
       </c>
       <c r="V128" s="20"/>
     </row>
-    <row r="129" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" ht="24.95" customHeight="1">
       <c r="A129" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>966</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="G129" s="22" t="s">
         <v>968</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="C129" s="22" t="s">
+      <c r="H129" s="26" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I129" s="22" t="s">
         <v>969</v>
       </c>
-      <c r="D129" s="26" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E129" s="22" t="s">
+      <c r="J129" s="26" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K129" s="22" t="s">
         <v>970</v>
       </c>
-      <c r="F129" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="G129" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="H129" s="26" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I129" s="22" t="s">
-        <v>973</v>
-      </c>
-      <c r="J129" s="26" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K129" s="22" t="s">
-        <v>974</v>
-      </c>
       <c r="L129" s="26" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="M129" s="24">
         <v>38462</v>
       </c>
       <c r="N129" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O129" s="22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P129" s="29" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="Q129" s="22" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="R129" s="22" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="S129" s="22" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="T129" s="34" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="U129" s="24">
         <v>13841</v>
       </c>
       <c r="V129" s="23"/>
     </row>
-    <row r="130" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" ht="24.95" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D130" s="25">
         <v>1870</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F130" s="19"/>
       <c r="G130" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="J130" s="25" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K130" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="L130" s="25" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M130" s="30" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N130" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O130" s="19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P130" s="30" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Q130" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="R130" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="S130" s="19" t="s">
         <v>980</v>
       </c>
-      <c r="H130" s="25" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I130" s="19" t="s">
+      <c r="T130" s="32" t="s">
         <v>981</v>
-      </c>
-      <c r="J130" s="25" t="s">
-        <v>1094</v>
-      </c>
-      <c r="K130" s="19" t="s">
-        <v>982</v>
-      </c>
-      <c r="L130" s="25" t="s">
-        <v>1321</v>
-      </c>
-      <c r="M130" s="30" t="s">
-        <v>1104</v>
-      </c>
-      <c r="N130" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="O130" s="19" t="s">
-        <v>1240</v>
-      </c>
-      <c r="P130" s="30" t="s">
-        <v>1310</v>
-      </c>
-      <c r="Q130" s="19" t="s">
-        <v>779</v>
-      </c>
-      <c r="R130" s="19" t="s">
-        <v>983</v>
-      </c>
-      <c r="S130" s="19" t="s">
-        <v>984</v>
-      </c>
-      <c r="T130" s="32" t="s">
-        <v>985</v>
       </c>
       <c r="U130" s="31">
         <v>13725</v>
       </c>
       <c r="V130" s="20"/>
     </row>
-    <row r="131" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" ht="24.95" customHeight="1">
       <c r="A131" s="21" t="s">
+        <v>982</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="F131" s="22" t="s">
+        <v>985</v>
+      </c>
+      <c r="G131" s="22" t="s">
         <v>986</v>
       </c>
-      <c r="B131" s="22" t="s">
-        <v>987</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E131" s="22" t="s">
-        <v>988</v>
-      </c>
-      <c r="F131" s="22" t="s">
-        <v>989</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>990</v>
-      </c>
       <c r="H131" s="26" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="I131" s="22"/>
       <c r="J131" s="26"/>
       <c r="K131" s="22"/>
       <c r="L131" s="26"/>
       <c r="M131" s="29" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="N131" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O131" s="22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P131" s="29" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="Q131" s="22" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="R131" s="22" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="S131" s="22" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="T131" s="34" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="U131" s="24">
         <v>13725</v>
       </c>
       <c r="V131" s="23"/>
     </row>
-    <row r="132" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" ht="24.95" customHeight="1">
       <c r="A132" s="18" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="19" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="J132" s="25" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="K132" s="19"/>
       <c r="L132" s="25"/>
@@ -12871,93 +12867,93 @@
         <v>39556</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O132" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P132" s="30" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="Q132" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="R132" s="19" t="s">
+        <v>996</v>
+      </c>
+      <c r="S132" s="19" t="s">
+        <v>997</v>
+      </c>
+      <c r="T132" s="32" t="s">
+        <v>1233</v>
+      </c>
+      <c r="U132" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="V132" s="20" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A133" s="21" t="s">
         <v>999</v>
       </c>
-      <c r="R132" s="19" t="s">
+      <c r="B133" s="22" t="s">
         <v>1000</v>
       </c>
-      <c r="S132" s="19" t="s">
+      <c r="C133" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E133" s="22" t="s">
         <v>1001</v>
       </c>
-      <c r="T132" s="32" t="s">
-        <v>1237</v>
-      </c>
-      <c r="U132" s="25" t="s">
-        <v>1123</v>
-      </c>
-      <c r="V132" s="20" t="s">
+      <c r="F133" s="22" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="21" t="s">
+      <c r="G133" s="22" t="s">
         <v>1003</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="H133" s="26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I133" s="22" t="s">
         <v>1004</v>
       </c>
-      <c r="C133" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E133" s="22" t="s">
+      <c r="J133" s="26" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K133" s="22" t="s">
         <v>1005</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="L133" s="26" t="s">
+        <v>1318</v>
+      </c>
+      <c r="M133" s="29" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N133" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O133" s="22" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P133" s="29" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Q133" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="R133" s="22" t="s">
         <v>1006</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="S133" s="22" t="s">
         <v>1007</v>
       </c>
-      <c r="H133" s="26" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I133" s="22" t="s">
-        <v>1008</v>
-      </c>
-      <c r="J133" s="26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K133" s="22" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L133" s="26" t="s">
-        <v>1322</v>
-      </c>
-      <c r="M133" s="29" t="s">
-        <v>1104</v>
-      </c>
-      <c r="N133" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="O133" s="22" t="s">
-        <v>1240</v>
-      </c>
-      <c r="P133" s="29" t="s">
-        <v>1310</v>
-      </c>
-      <c r="Q133" s="22" t="s">
-        <v>808</v>
-      </c>
-      <c r="R133" s="22" t="s">
-        <v>1010</v>
-      </c>
-      <c r="S133" s="22" t="s">
-        <v>1011</v>
-      </c>
       <c r="T133" s="34" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="U133" s="24">
         <v>13725</v>
@@ -12965,236 +12961,236 @@
       <c r="V133" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V133" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V133"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" location="Житие_Святого_Климента" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="T3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="S3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="T4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="S4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="T6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="S6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="T7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="S7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="T8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="S8" r:id="rId11" location="Иконография" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="T9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="S9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="T10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="S10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="T11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="S11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="T12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="S12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="S13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="T13" r:id="rId21" location="/media/Файл:Jovan_Vladimir,_Greek_icon.jpg" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="S14" r:id="rId22" location="Память" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="T14" r:id="rId23" location="/media/Файл:Davit_Agmashenebeli.jpg" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="S15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="T15" r:id="rId25" location="/media/Файл:Stefan_Nemanja.jpg" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="S16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="T16" r:id="rId27" location="/media/Файл:Tamar_(Vardzia_fresco_detail).jpg" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="S17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="T17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="S18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="T18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="S19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="T19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="S20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="T20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="S21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="T21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="S22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="T22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="S23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="T23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="S24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="T24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="S25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="T25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="S26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="T26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="T27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="S28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="T28" r:id="rId50" display="https://upload.wikimedia.org/wikipedia/commons/e/e8/%CE%A0%CE%B1%CF%84%CF%81%CE%B9%CE%AC%CF%81%CF%87%CE%B7%CF%82_%CE%9A%CF%89%CE%BD%CF%83%CF%84%CE%B1%CE%BD%CF%84%CE%B9%CE%BD%CE%BF%CF%85%CF%80%CF%8C%CE%BB%CE%B5%CF%89%CF%82_%CE%93%CF%81%CE%B7%CE%B3%CF%8C%CF%81%CE%B9%CE%BF%CF%82_%CE%95%CE%84.jpg" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="S30" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="T30" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="S31" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="T31" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="T2" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="S5" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T5" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="S27" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="S32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="T32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="T33" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="S34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="T34" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="T35" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="S35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="S36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="T36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="S37" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="T37" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="T38" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="T39" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="S39" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="S40" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="T40" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="S41" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="T41" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="S42" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="T42" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="S43" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="T43" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="T44" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="S44" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="S45" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="T45" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="S46" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="T46" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="S47" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="T47" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="S48" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="T48" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="S49" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="T49" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="S50" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="T50" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="S51" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="T51" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="S52" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="T52" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="S53" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="T53" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="S54" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="T54" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="S55" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="T55" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="S56" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="T56" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="S57" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="T57" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="S58" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="T58" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="S59" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="T59" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="T60" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="S60" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="S61" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="T61" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="T62" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="S62" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="T63" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="S63" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="T64" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="S64" display="https://ru.wikipedia.org/wiki/Варвара_Скворчихинская#:~:text=Блаженная%20Варвара%20родилась%2020%20ноября,сельского%20священника%20Василия%20Александровича%20Архангельского.&amp;text=Варвара%20часто%20приглашала%20на%20уроки,Варвара%20не%20могла%2C%20стала%20" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="T65" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="S65" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="T66" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="S66" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="T67" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="S67" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="T68" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="S68" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="T69" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="S69" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="T70" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="S70" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="T71" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="S71" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="T72" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="S72" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="S73" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="S74" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="T74" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="T73" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="S75" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="T75" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="T76" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="S76" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="T77" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="S77" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="S78" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="T78" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="S79" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="T80" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="S80" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="T81" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="S81" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="T82" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="S82" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="S83" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="S84" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="T84" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="S85" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="T85" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="S86" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="S87" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="T87" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="S88" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="T88" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="S89" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="T89" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="S90" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="S91" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="S92" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="S93" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="S94" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="S95" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="T95" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="S96" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="S97" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="S98" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="S99" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="S100" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="S101" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="S102" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="S103" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="S104" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="T130" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="T29" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="T79" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="T83" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="T90" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="T91" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="T93" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="T94" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="T96" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="T97" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="T99" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="T102" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="T103" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="T104" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="T106" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="T107" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="T108" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="T109" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="T110" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="T111" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="T112" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="T113" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="T114" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="T115" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="T116" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="S117" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="T117" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="T118" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="T119" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="T120" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="T121" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="T122" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="T123" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="T124" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="T125" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="T126" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="T127" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="T129" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="T131" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="T132" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="T133" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="T128" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="S128" r:id="rId227" xr:uid="{C24CE83B-2D08-4031-9D6C-A764CBC2F467}"/>
+    <hyperlink ref="S2" r:id="rId1" location="Житие_Святого_Климента"/>
+    <hyperlink ref="T3" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="T4" r:id="rId4"/>
+    <hyperlink ref="S4" r:id="rId5"/>
+    <hyperlink ref="T6" r:id="rId6"/>
+    <hyperlink ref="S6" r:id="rId7"/>
+    <hyperlink ref="T7" r:id="rId8"/>
+    <hyperlink ref="S7" r:id="rId9"/>
+    <hyperlink ref="T8" r:id="rId10"/>
+    <hyperlink ref="S8" r:id="rId11" location="Иконография"/>
+    <hyperlink ref="T9" r:id="rId12"/>
+    <hyperlink ref="S9" r:id="rId13"/>
+    <hyperlink ref="T10" r:id="rId14"/>
+    <hyperlink ref="S10" r:id="rId15"/>
+    <hyperlink ref="T11" r:id="rId16"/>
+    <hyperlink ref="S11" r:id="rId17"/>
+    <hyperlink ref="T12" r:id="rId18"/>
+    <hyperlink ref="S12" r:id="rId19"/>
+    <hyperlink ref="S13" r:id="rId20"/>
+    <hyperlink ref="T13" r:id="rId21"/>
+    <hyperlink ref="S14" r:id="rId22" location="Память"/>
+    <hyperlink ref="T14" r:id="rId23"/>
+    <hyperlink ref="S15" r:id="rId24"/>
+    <hyperlink ref="T15" r:id="rId25"/>
+    <hyperlink ref="S16" r:id="rId26"/>
+    <hyperlink ref="T16" r:id="rId27"/>
+    <hyperlink ref="S17" r:id="rId28"/>
+    <hyperlink ref="T17" r:id="rId29"/>
+    <hyperlink ref="S18" r:id="rId30"/>
+    <hyperlink ref="T18" r:id="rId31"/>
+    <hyperlink ref="S19" r:id="rId32"/>
+    <hyperlink ref="T19" r:id="rId33"/>
+    <hyperlink ref="S20" r:id="rId34"/>
+    <hyperlink ref="T20" r:id="rId35"/>
+    <hyperlink ref="S21" r:id="rId36"/>
+    <hyperlink ref="T21" r:id="rId37"/>
+    <hyperlink ref="S22" r:id="rId38"/>
+    <hyperlink ref="T22" r:id="rId39"/>
+    <hyperlink ref="S23" r:id="rId40"/>
+    <hyperlink ref="T23" r:id="rId41"/>
+    <hyperlink ref="S24" r:id="rId42"/>
+    <hyperlink ref="T24" r:id="rId43"/>
+    <hyperlink ref="S25" r:id="rId44"/>
+    <hyperlink ref="T25" r:id="rId45"/>
+    <hyperlink ref="S26" r:id="rId46"/>
+    <hyperlink ref="T26" r:id="rId47"/>
+    <hyperlink ref="T27" r:id="rId48"/>
+    <hyperlink ref="S28" r:id="rId49"/>
+    <hyperlink ref="T28" r:id="rId50" display="https://upload.wikimedia.org/wikipedia/commons/e/e8/%CE%A0%CE%B1%CF%84%CF%81%CE%B9%CE%AC%CF%81%CF%87%CE%B7%CF%82_%CE%9A%CF%89%CE%BD%CF%83%CF%84%CE%B1%CE%BD%CF%84%CE%B9%CE%BD%CE%BF%CF%85%CF%80%CF%8C%CE%BB%CE%B5%CF%89%CF%82_%CE%93%CF%81%CE%B7%CE%B3%CF%8C%CF%81%CE%B9%CE%BF%CF%82_%CE%95%CE%84.jpg"/>
+    <hyperlink ref="S30" r:id="rId51"/>
+    <hyperlink ref="T30" r:id="rId52"/>
+    <hyperlink ref="S31" r:id="rId53"/>
+    <hyperlink ref="T31" r:id="rId54"/>
+    <hyperlink ref="T2" r:id="rId55"/>
+    <hyperlink ref="S5" r:id="rId56"/>
+    <hyperlink ref="T5" r:id="rId57"/>
+    <hyperlink ref="S27" r:id="rId58"/>
+    <hyperlink ref="S32" r:id="rId59"/>
+    <hyperlink ref="T32" r:id="rId60"/>
+    <hyperlink ref="T33" r:id="rId61"/>
+    <hyperlink ref="S34" r:id="rId62"/>
+    <hyperlink ref="T34" r:id="rId63"/>
+    <hyperlink ref="T35" r:id="rId64"/>
+    <hyperlink ref="S35" r:id="rId65"/>
+    <hyperlink ref="S36" r:id="rId66"/>
+    <hyperlink ref="T36" r:id="rId67"/>
+    <hyperlink ref="S37" r:id="rId68"/>
+    <hyperlink ref="T37" r:id="rId69"/>
+    <hyperlink ref="T38" r:id="rId70"/>
+    <hyperlink ref="T39" r:id="rId71"/>
+    <hyperlink ref="S39" r:id="rId72"/>
+    <hyperlink ref="S40" r:id="rId73"/>
+    <hyperlink ref="T40" r:id="rId74"/>
+    <hyperlink ref="S41" r:id="rId75"/>
+    <hyperlink ref="T41" r:id="rId76"/>
+    <hyperlink ref="S42" r:id="rId77"/>
+    <hyperlink ref="T42" r:id="rId78"/>
+    <hyperlink ref="S43" r:id="rId79"/>
+    <hyperlink ref="T43" r:id="rId80"/>
+    <hyperlink ref="T44" r:id="rId81"/>
+    <hyperlink ref="S44" r:id="rId82"/>
+    <hyperlink ref="S45" r:id="rId83"/>
+    <hyperlink ref="T45" r:id="rId84"/>
+    <hyperlink ref="S46" r:id="rId85"/>
+    <hyperlink ref="T46" r:id="rId86"/>
+    <hyperlink ref="S47" r:id="rId87"/>
+    <hyperlink ref="T47" r:id="rId88"/>
+    <hyperlink ref="S48" r:id="rId89"/>
+    <hyperlink ref="T48" r:id="rId90"/>
+    <hyperlink ref="S49" r:id="rId91"/>
+    <hyperlink ref="T49" r:id="rId92"/>
+    <hyperlink ref="S50" r:id="rId93"/>
+    <hyperlink ref="T50" r:id="rId94"/>
+    <hyperlink ref="S51" r:id="rId95"/>
+    <hyperlink ref="T51" r:id="rId96"/>
+    <hyperlink ref="S52" r:id="rId97"/>
+    <hyperlink ref="T52" r:id="rId98"/>
+    <hyperlink ref="S53" r:id="rId99"/>
+    <hyperlink ref="T53" r:id="rId100"/>
+    <hyperlink ref="S54" r:id="rId101"/>
+    <hyperlink ref="T54" r:id="rId102"/>
+    <hyperlink ref="S55" r:id="rId103"/>
+    <hyperlink ref="T55" r:id="rId104"/>
+    <hyperlink ref="S56" r:id="rId105"/>
+    <hyperlink ref="T56" r:id="rId106"/>
+    <hyperlink ref="S57" r:id="rId107"/>
+    <hyperlink ref="T57" r:id="rId108"/>
+    <hyperlink ref="S58" r:id="rId109"/>
+    <hyperlink ref="T58" r:id="rId110"/>
+    <hyperlink ref="S59" r:id="rId111"/>
+    <hyperlink ref="T59" r:id="rId112"/>
+    <hyperlink ref="T60" r:id="rId113"/>
+    <hyperlink ref="S60" r:id="rId114"/>
+    <hyperlink ref="S61" r:id="rId115"/>
+    <hyperlink ref="T61" r:id="rId116"/>
+    <hyperlink ref="T62" r:id="rId117"/>
+    <hyperlink ref="S62" r:id="rId118"/>
+    <hyperlink ref="T63" r:id="rId119"/>
+    <hyperlink ref="S63" r:id="rId120"/>
+    <hyperlink ref="T64" r:id="rId121"/>
+    <hyperlink ref="S64" display="https://ru.wikipedia.org/wiki/Варвара_Скворчихинская#:~:text=Блаженная%20Варвара%20родилась%2020%20ноября,сельского%20священника%20Василия%20Александровича%20Архангельского.&amp;text=Варвара%20часто%20приглашала%20на%20уроки,Варвара%20не%20могла%2C%20стала%20"/>
+    <hyperlink ref="T65" r:id="rId122"/>
+    <hyperlink ref="S65" r:id="rId123"/>
+    <hyperlink ref="T66" r:id="rId124"/>
+    <hyperlink ref="S66" r:id="rId125"/>
+    <hyperlink ref="T67" r:id="rId126"/>
+    <hyperlink ref="S67" r:id="rId127"/>
+    <hyperlink ref="T68" r:id="rId128"/>
+    <hyperlink ref="S68" r:id="rId129"/>
+    <hyperlink ref="T69" r:id="rId130"/>
+    <hyperlink ref="S69" r:id="rId131"/>
+    <hyperlink ref="T70" r:id="rId132"/>
+    <hyperlink ref="S70" r:id="rId133"/>
+    <hyperlink ref="T71" r:id="rId134"/>
+    <hyperlink ref="S71" r:id="rId135"/>
+    <hyperlink ref="T72" r:id="rId136"/>
+    <hyperlink ref="S72" r:id="rId137"/>
+    <hyperlink ref="S73" r:id="rId138"/>
+    <hyperlink ref="S74" r:id="rId139"/>
+    <hyperlink ref="T74" r:id="rId140"/>
+    <hyperlink ref="T73" r:id="rId141"/>
+    <hyperlink ref="S75" r:id="rId142"/>
+    <hyperlink ref="T75" r:id="rId143"/>
+    <hyperlink ref="T76" r:id="rId144"/>
+    <hyperlink ref="S76" r:id="rId145"/>
+    <hyperlink ref="T77" r:id="rId146"/>
+    <hyperlink ref="S77" r:id="rId147"/>
+    <hyperlink ref="S78" r:id="rId148"/>
+    <hyperlink ref="T78" r:id="rId149"/>
+    <hyperlink ref="S79" r:id="rId150"/>
+    <hyperlink ref="T80" r:id="rId151"/>
+    <hyperlink ref="S80" r:id="rId152"/>
+    <hyperlink ref="T81" r:id="rId153"/>
+    <hyperlink ref="S81" r:id="rId154"/>
+    <hyperlink ref="T82" r:id="rId155"/>
+    <hyperlink ref="S82" r:id="rId156"/>
+    <hyperlink ref="S83" r:id="rId157"/>
+    <hyperlink ref="S84" r:id="rId158"/>
+    <hyperlink ref="T84" r:id="rId159"/>
+    <hyperlink ref="S85" r:id="rId160"/>
+    <hyperlink ref="T85" r:id="rId161"/>
+    <hyperlink ref="S86" r:id="rId162"/>
+    <hyperlink ref="S87" r:id="rId163"/>
+    <hyperlink ref="T87" r:id="rId164"/>
+    <hyperlink ref="S88" r:id="rId165"/>
+    <hyperlink ref="T88" r:id="rId166"/>
+    <hyperlink ref="S89" r:id="rId167"/>
+    <hyperlink ref="T89" r:id="rId168"/>
+    <hyperlink ref="S90" r:id="rId169"/>
+    <hyperlink ref="S91" r:id="rId170"/>
+    <hyperlink ref="S92" r:id="rId171"/>
+    <hyperlink ref="S93" r:id="rId172"/>
+    <hyperlink ref="S94" r:id="rId173"/>
+    <hyperlink ref="S95" r:id="rId174"/>
+    <hyperlink ref="T95" r:id="rId175"/>
+    <hyperlink ref="S96" r:id="rId176"/>
+    <hyperlink ref="S97" r:id="rId177"/>
+    <hyperlink ref="S98" r:id="rId178"/>
+    <hyperlink ref="S99" r:id="rId179"/>
+    <hyperlink ref="S100" r:id="rId180"/>
+    <hyperlink ref="S101" r:id="rId181"/>
+    <hyperlink ref="S102" r:id="rId182"/>
+    <hyperlink ref="S103" r:id="rId183"/>
+    <hyperlink ref="S104" r:id="rId184"/>
+    <hyperlink ref="T130" r:id="rId185"/>
+    <hyperlink ref="T29" r:id="rId186"/>
+    <hyperlink ref="T79" r:id="rId187"/>
+    <hyperlink ref="T83" r:id="rId188"/>
+    <hyperlink ref="T90" r:id="rId189"/>
+    <hyperlink ref="T91" r:id="rId190"/>
+    <hyperlink ref="T93" r:id="rId191"/>
+    <hyperlink ref="T94" r:id="rId192"/>
+    <hyperlink ref="T96" r:id="rId193"/>
+    <hyperlink ref="T97" r:id="rId194"/>
+    <hyperlink ref="T99" r:id="rId195"/>
+    <hyperlink ref="T102" r:id="rId196"/>
+    <hyperlink ref="T103" r:id="rId197"/>
+    <hyperlink ref="T104" r:id="rId198"/>
+    <hyperlink ref="T106" r:id="rId199"/>
+    <hyperlink ref="T107" r:id="rId200"/>
+    <hyperlink ref="T108" r:id="rId201"/>
+    <hyperlink ref="T109" r:id="rId202"/>
+    <hyperlink ref="T110" r:id="rId203"/>
+    <hyperlink ref="T111" r:id="rId204"/>
+    <hyperlink ref="T112" r:id="rId205"/>
+    <hyperlink ref="T113" r:id="rId206"/>
+    <hyperlink ref="T114" r:id="rId207"/>
+    <hyperlink ref="T115" r:id="rId208"/>
+    <hyperlink ref="T116" r:id="rId209"/>
+    <hyperlink ref="S117" r:id="rId210"/>
+    <hyperlink ref="T117" r:id="rId211"/>
+    <hyperlink ref="T118" r:id="rId212"/>
+    <hyperlink ref="T119" r:id="rId213"/>
+    <hyperlink ref="T120" r:id="rId214"/>
+    <hyperlink ref="T121" r:id="rId215"/>
+    <hyperlink ref="T122" r:id="rId216"/>
+    <hyperlink ref="T123" r:id="rId217"/>
+    <hyperlink ref="T124" r:id="rId218"/>
+    <hyperlink ref="T125" r:id="rId219"/>
+    <hyperlink ref="T126" r:id="rId220"/>
+    <hyperlink ref="T127" r:id="rId221"/>
+    <hyperlink ref="T129" r:id="rId222"/>
+    <hyperlink ref="T131" r:id="rId223"/>
+    <hyperlink ref="T132" r:id="rId224"/>
+    <hyperlink ref="T133" r:id="rId225"/>
+    <hyperlink ref="T128" r:id="rId226"/>
+    <hyperlink ref="S128" r:id="rId227"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId228"/>

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="587"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$135</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1362">
   <si>
     <t>Фамилия</t>
   </si>
@@ -3093,9 +3093,6 @@
 С 1897 года по благословению архиеп. Тверского и Кашинского Димитрия (Самбикина) началось собирание сведений о тверских святых. В 1902 году по его просьбе была написана икона "Собор Тверских святых", на ней Антоний Краснохолмский изображен старцем с седой круглой бородой, в монашеском одеянии и схиме, в правой руке святой держит храм, левая рука приподнята вверх. В 1904 году архиеп. Димитрий установил местное почитание Собора Тверских святых, в который вошел и Антоний Краснохолмский, сведения о нем были включены в Тверской патерик (1907). В 1979 году по благословению патриарха Пимена было установлено праздновать Собор Тверских святых в 1-е воскресенье после праздника святых апостолов Петра и Павла. В службе Собору прп. Антоний Краснохолмский упомянут в 4-й стихире на Господи воззвах и во 2-м тропаре 8-й песни канона утрени</t>
   </si>
   <si>
-    <t>https://drevo-info.ru/articles/4919.html</t>
-  </si>
-  <si>
     <t>Остальский</t>
   </si>
   <si>
@@ -3663,9 +3660,6 @@
 Но “все возвращается на круги своя” (Еккл.1;6). По промыслу Божию мощи святых, захороненных в Пещерке, остались нетрону-тыми. После падения советской власти Кремлевский гарнизон был расформирован, и в 1995 году по благословению преосвященного Анастасия епископа ( ныне архиепископа ) Казанского и Татарстанского на месте Пещерки начались раскопки с целью обретения мощей преподобных Ионы и Нектария и других местночтимых Казанских святых, почивавших в этом оскверненном людьми, но не забытом у Бога месте. С Божией помощью все благополучно завершилось, и 11 октября 1995 года обретены святые мощи преподобных Ионы и Нектария, которые были перенесены в Петропавловский собор города Казани, где они и поныне почивают. Так же были обретены мощи святителя Ефрема Казанского, святителя Епифания и других местночтимых Казанских святых, которые так же находятся в Петропавловском Соборе города Казани.</t>
   </si>
   <si>
-    <t>http://bezhverh.ru/svyatye-i-novomucheniki/sobor-bezhetskih-svyatih/iona-i-nektariy-zastolbskie/</t>
-  </si>
-  <si>
     <t>http://bezhverh.ru/wp-content/uploads/icona_nektariy_iona_zastolb.jpg</t>
   </si>
   <si>
@@ -3880,9 +3874,6 @@
     <t>Был пострижеником Троице-Сергиевой обители. Около 1460 года поселился в дремучем лесу Бежецкого верха, где построил себе келлию. Подвиги и духовная мудрость преподобного привлекли к нему многих, желавших жить под его руководством. В скором времени иноки построили церковь в честь Введения во храм Пресвятой Богородицы и обнесли ее оградой. Кроме соборного Введенского храма была построена также и церковь во имя преподобного Сергия Радонежского. Новая обитель была одной из беднейших, которые, по выражению летописца, строились "слезами, постом и бдением". По общему согласию всей братии игуменом монастыря был избран ее основатель преподобный Нектарий. Скончался преподобный Нектарий 3 апреля 1492 года.</t>
   </si>
   <si>
-    <t>https://drevo-info.ru/articles/5510.html</t>
-  </si>
-  <si>
     <t>http://bezhverh.ru/wp-content/uploads/2013/04/icona_nektariy1.jpg</t>
   </si>
   <si>
@@ -5084,12 +5075,135 @@
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/7/7d/Stefan_Nemanja.jpg</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://drevo-info.ru/articles/4919.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://bezhverh.ru/svyatye-i-novomucheniki/sobor-bezhetskih-svyatih/iona-i-nektariy-zastolbskie/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drevo-info.ru/articles/5510.html </t>
+  </si>
+  <si>
+    <t>Петровский</t>
+  </si>
+  <si>
+    <t>23.08.1851</t>
+  </si>
+  <si>
+    <t>г. Луцк, Волынская губерния</t>
+  </si>
+  <si>
+    <t>Харьков</t>
+  </si>
+  <si>
+    <t>Новомученник</t>
+  </si>
+  <si>
+    <t>Феофанович</t>
+  </si>
+  <si>
+    <t>Архиепископство, мученичество</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=%D0%B0%D0%BB%D0%B5%D0%BA%D1%81%D0%B0%D0%BD%D0%B4%D1%80+%D1%84%D0%B5%D0%BE%D1%84%D0%B0%D0%BD%D0%BE%D0%B2%D0%B8%D1%87+%D0%BF%D0%B5%D1%82%D1%80%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9&amp;sxsrf=ALeKk035AKkHbB-5Ge59CsuLdtVHUQrOIQ:1612688437485&amp;tbm=isch&amp;source=iu&amp;ictx=1&amp;fir=xVDKnUMpF29aiM%252CxpwqsKPZlXDbhM%252C_&amp;vet=1&amp;usg=AI4_-kQ7s-J3YygphSvOGvJ1dO_To65yzg&amp;sa=X&amp;ved=2ahUKEwi9_8vLtNfuAhXrmIsKHVtfD7UQ9QF6BAgJEAE#imgrc=xVDKnUMpF29aiM</t>
+  </si>
+  <si>
+    <t>Ястребов</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>16.07.1867</t>
+  </si>
+  <si>
+    <t>с. Владимирско-Астраханская губерния</t>
+  </si>
+  <si>
+    <t>Иннокентий</t>
+  </si>
+  <si>
+    <t>11.05</t>
+  </si>
+  <si>
+    <t>Родился 23 августа 1851. В 1908 поступил в Донской монастырь. Был настоятелем Спасо-Преображенского и сково-Печерского монастыря.</t>
+  </si>
+  <si>
+    <t>Родился 16 июля 1867. Окончил Казанскую жуховную академию. Пострижен в монаха в 1902. С 1915 по 1918 настоятель Донского монастыря. Во время войны открыл там госпиталь. После выписки из больницы тихо скончался.</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/%D0%98%D0%BD%D0%BD%D0%BE%D0%BA%D0%B5%D0%BD%D1%82%D0%B8%D0%B9_(%D0%AF%D1%81%D1%82%D1%80%D0%B5%D0%B1%D0%BE%D0%B2)</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:%D0%95%D0%BF%D0%B8%D1%81%D0%BA%D0%BE%D0%BF_%D0%9A%D0%B0%D0%BD%D0%B5%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D0%98%D0%BD%D0%BD%D0%BE%D0%BA%D0%B5%D0%BD%D1%82%D0%B8%D0%B9.jpg?uselang=ru</t>
+  </si>
+  <si>
+    <t>г. Москва</t>
+  </si>
+  <si>
+    <t>Бузов</t>
+  </si>
+  <si>
+    <t>Иосиф</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>16.09.1873</t>
+  </si>
+  <si>
+    <t>с. Шонгуты</t>
+  </si>
+  <si>
+    <t>Тихон</t>
+  </si>
+  <si>
+    <t>с. Бутово</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>Родился 16 сентября 1973. В 1901 принял монашенский постриг. Был возведен в сан иеромонаха. С 1915 по 1927 проживал в Донской обители. В 1926 получил сан архимандрита. Был расстрелен 9 декабря в Бутово под Москвой</t>
+  </si>
+  <si>
+    <t>https://bessmertnybarak.ru/Buzov_Iosif_Petrovich/</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/MN7VbtAMfrEDV-RZR0l234bPbEGoK3tsFwG1Kl_SlxYlFapV78pRk5Jgkt0nAgiqvx-jtR4=s85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ермаков </t>
+  </si>
+  <si>
+    <t>31.07.1862</t>
+  </si>
+  <si>
+    <t>г.Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Туркистан</t>
+  </si>
+  <si>
+    <t>Игумен</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/%D0%9C%D0%B8%D1%85%D0%B0%D0%B8%D0%BB_(%D0%95%D1%80%D0%BC%D0%B0%D0%BA%D0%BE%D0%B2)</t>
+  </si>
+  <si>
+    <t>Родился 31/07/1862 в Санкт-Петербурге. Окончил Киевскую духовную академию. В 1887 г пострижен в моншество и посвящен в сан иеромонаха. На протяжении 11 лет преподавал в духовных учебных заведениях.</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:%D0%9C%D0%B8%D1%85%D0%B0%D0%B8%D0%BB_(%D0%95%D1%80%D0%BC%D0%B0%D0%BA%D0%BE%D0%B2).jpg?uselang=ru</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5190,7 +5304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -5235,12 +5349,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5327,6 +5450,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -5607,34 +5739,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
-    <col min="5" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="13" width="13" style="3" customWidth="1"/>
-    <col min="14" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="41.5703125" style="40" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="41.85546875" customWidth="1"/>
-    <col min="19" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
+    <col min="14" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="41.5546875" style="40" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="41.88671875" customWidth="1"/>
+    <col min="19" max="20" width="20.6640625" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24.95" customHeight="1">
+    <row r="1" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5678,7 +5810,7 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>10</v>
@@ -5702,12 +5834,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24.95" customHeight="1">
+    <row r="2" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -5716,13 +5848,13 @@
         <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -5731,7 +5863,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -5743,13 +5875,13 @@
         <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="U2" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="24.95" customHeight="1">
+    <row r="3" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -5763,28 +5895,28 @@
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="38" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P3" s="40" t="s">
         <v>1236</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>1239</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -5796,13 +5928,13 @@
         <v>28</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="U3" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="24.95" customHeight="1">
+    <row r="4" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -5816,7 +5948,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -5825,7 +5957,7 @@
         <v>33</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -5837,13 +5969,13 @@
         <v>34</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="24.95" customHeight="1">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -5857,13 +5989,13 @@
         <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -5884,13 +6016,13 @@
         <v>41</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="U5" s="3">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="24.95" customHeight="1">
+    <row r="6" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -5904,7 +6036,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
@@ -5925,21 +6057,21 @@
         <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="V6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="24.95" customHeight="1">
+    <row r="7" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
@@ -5948,13 +6080,13 @@
         <v>57</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="N7" t="s">
         <v>53</v>
@@ -5963,7 +6095,7 @@
         <v>53</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="Q7" t="s">
         <v>56</v>
@@ -5975,13 +6107,13 @@
         <v>54</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="U7" s="3">
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24.95" customHeight="1">
+    <row r="8" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -6016,13 +6148,13 @@
         <v>60</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="U8" s="3">
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="24.95" customHeight="1">
+    <row r="9" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>62</v>
       </c>
@@ -6045,7 +6177,7 @@
         <v>53</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
@@ -6057,13 +6189,13 @@
         <v>66</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="U9" s="3">
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="24.95" customHeight="1">
+    <row r="10" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -6107,13 +6239,13 @@
         <v>69</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="U10" s="3">
         <v>826</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="24.95" customHeight="1">
+    <row r="11" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -6136,10 +6268,10 @@
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="Q11" t="s">
         <v>74</v>
@@ -6151,7 +6283,7 @@
         <v>75</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>400</v>
@@ -6160,7 +6292,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="24.95" customHeight="1">
+    <row r="12" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -6183,7 +6315,7 @@
         <v>53</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="Q12" t="s">
         <v>56</v>
@@ -6195,13 +6327,13 @@
         <v>80</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="U12" s="3">
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="24.95" customHeight="1">
+    <row r="13" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -6215,16 +6347,16 @@
         <v>84</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I13" t="s">
         <v>84</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
@@ -6233,7 +6365,7 @@
         <v>26</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="Q13" t="s">
         <v>85</v>
@@ -6245,16 +6377,16 @@
         <v>87</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="V13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="24.95" customHeight="1">
+    <row r="14" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -6268,10 +6400,10 @@
         <v>89</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="N14" t="s">
         <v>90</v>
@@ -6280,7 +6412,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="Q14" t="s">
         <v>91</v>
@@ -6292,7 +6424,7 @@
         <v>93</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="U14" s="3">
         <v>1125</v>
@@ -6301,7 +6433,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="24.95" customHeight="1">
+    <row r="15" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>94</v>
       </c>
@@ -6318,13 +6450,13 @@
         <v>405</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="I15" t="s">
         <v>96</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="M15" s="3">
         <v>1204</v>
@@ -6336,7 +6468,7 @@
         <v>53</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="Q15" t="s">
         <v>97</v>
@@ -6348,7 +6480,7 @@
         <v>99</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="U15" s="3">
         <v>1200</v>
@@ -6357,7 +6489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="24.95" customHeight="1">
+    <row r="16" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>101</v>
       </c>
@@ -6371,7 +6503,7 @@
         <v>89</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="N16" t="s">
         <v>102</v>
@@ -6380,7 +6512,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="40" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="Q16" t="s">
         <v>103</v>
@@ -6392,13 +6524,13 @@
         <v>105</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="U16" s="3">
         <v>1213</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -6418,17 +6550,17 @@
         <v>110</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>39</v>
@@ -6437,7 +6569,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="41" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>111</v>
@@ -6449,13 +6581,13 @@
         <v>113</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="U17" s="7">
         <v>1236</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="24.95" customHeight="1">
+    <row r="18" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -6472,7 +6604,7 @@
         <v>96</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="M18" s="3">
         <v>1368</v>
@@ -6484,7 +6616,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="Q18" t="s">
         <v>116</v>
@@ -6496,13 +6628,13 @@
         <v>118</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="V18" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>119</v>
       </c>
@@ -6516,17 +6648,17 @@
         <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>53</v>
@@ -6535,7 +6667,7 @@
         <v>53</v>
       </c>
       <c r="P19" s="41" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>123</v>
@@ -6547,13 +6679,13 @@
         <v>125</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="U19" s="7">
         <v>1346</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="24.95" customHeight="1">
+    <row r="20" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -6573,19 +6705,19 @@
         <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="K20" t="s">
         <v>410</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="M20" s="3">
         <v>1734</v>
@@ -6597,7 +6729,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="Q20" t="s">
         <v>129</v>
@@ -6609,7 +6741,7 @@
         <v>131</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="U20" s="3">
         <v>1444</v>
@@ -6618,12 +6750,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>42</v>
@@ -6632,7 +6764,7 @@
         <v>407</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="J21" s="7"/>
       <c r="L21" s="7"/>
@@ -6646,7 +6778,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>133</v>
@@ -6664,7 +6796,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="24.95" customHeight="1">
+    <row r="22" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -6678,7 +6810,7 @@
         <v>96</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="M22" s="3">
         <v>1572</v>
@@ -6687,7 +6819,7 @@
         <v>138</v>
       </c>
       <c r="O22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P22" s="40" t="s">
         <v>756</v>
@@ -6702,13 +6834,13 @@
         <v>141</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="U22" s="3">
         <v>1568</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>142</v>
       </c>
@@ -6728,13 +6860,13 @@
         <v>143</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7">
@@ -6747,7 +6879,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="41" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>23</v>
@@ -6768,7 +6900,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="24.95" customHeight="1">
+    <row r="24" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>149</v>
       </c>
@@ -6782,25 +6914,25 @@
         <v>89</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="I24" t="s">
         <v>414</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="N24" t="s">
         <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="Q24" t="s">
         <v>150</v>
@@ -6812,18 +6944,18 @@
         <v>152</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="U24" s="3">
         <v>1622</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>153</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>415</v>
@@ -6832,7 +6964,7 @@
         <v>96</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
@@ -6846,7 +6978,7 @@
         <v>53</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>154</v>
@@ -6858,7 +6990,7 @@
         <v>156</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="U25" s="7">
         <v>1651</v>
@@ -6867,7 +6999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="24.95" customHeight="1">
+    <row r="26" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>157</v>
       </c>
@@ -6890,10 +7022,10 @@
         <v>158</v>
       </c>
       <c r="O26" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>159</v>
@@ -6902,16 +7034,16 @@
         <v>160</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="V26" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="24.95" customHeight="1">
+    <row r="27" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>161</v>
       </c>
@@ -6946,7 +7078,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="Q27" t="s">
         <v>165</v>
@@ -6958,16 +7090,16 @@
         <v>167</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="V27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="24.95" customHeight="1">
+    <row r="28" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>169</v>
       </c>
@@ -6987,7 +7119,7 @@
         <v>42</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="M28" s="3">
         <v>1921</v>
@@ -6996,7 +7128,7 @@
         <v>171</v>
       </c>
       <c r="O28" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P28" s="40" t="s">
         <v>737</v>
@@ -7011,16 +7143,16 @@
         <v>174</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="V28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="24.95" customHeight="1">
+    <row r="29" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -7040,13 +7172,13 @@
         <v>178</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="I29" t="s">
         <v>423</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="M29" s="27">
         <v>22646</v>
@@ -7058,7 +7190,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="Q29" t="s">
         <v>179</v>
@@ -7070,16 +7202,16 @@
         <v>181</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="V29" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="24.95" customHeight="1">
+    <row r="30" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -7087,7 +7219,7 @@
         <v>182</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E30" t="s">
         <v>357</v>
@@ -7099,7 +7231,7 @@
         <v>120</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="M30" s="27">
         <v>33912</v>
@@ -7108,10 +7240,10 @@
         <v>171</v>
       </c>
       <c r="O30" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P30" s="40" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="Q30" t="s">
         <v>185</v>
@@ -7123,13 +7255,13 @@
         <v>187</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="U30" s="27">
         <v>8275</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="24.95" customHeight="1">
+    <row r="31" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -7149,7 +7281,7 @@
         <v>96</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="M31" s="27">
         <v>42017</v>
@@ -7161,7 +7293,7 @@
         <v>53</v>
       </c>
       <c r="P31" s="40" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="Q31" t="s">
         <v>56</v>
@@ -7182,14 +7314,14 @@
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="24.95" customHeight="1">
+    <row r="32" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="7" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>43</v>
@@ -7199,19 +7331,19 @@
         <v>43</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>195</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="4" t="s">
@@ -7221,7 +7353,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="41" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>198</v>
@@ -7233,7 +7365,7 @@
         <v>200</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="U32" s="7">
         <v>96</v>
@@ -7242,14 +7374,14 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="24.95" customHeight="1">
+    <row r="33" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="7" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>18</v>
@@ -7259,7 +7391,7 @@
         <v>333</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="7"/>
@@ -7273,7 +7405,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="41" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>198</v>
@@ -7285,16 +7417,16 @@
         <v>203</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="V33" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="24.95" customHeight="1">
+    <row r="34" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>204</v>
@@ -7311,14 +7443,14 @@
         <v>330</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="7"/>
       <c r="K34" s="4"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>39</v>
@@ -7327,7 +7459,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="41" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>205</v>
@@ -7339,7 +7471,7 @@
         <v>207</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="U34" s="7">
         <v>270</v>
@@ -7348,14 +7480,14 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="24.95" customHeight="1">
+    <row r="35" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>18</v>
@@ -7378,10 +7510,10 @@
         <v>73</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P35" s="41" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>73</v>
@@ -7393,7 +7525,7 @@
         <v>210</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="U35" s="7">
         <v>230</v>
@@ -7402,7 +7534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="24.95" customHeight="1">
+    <row r="36" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>211</v>
@@ -7419,7 +7551,7 @@
         <v>42</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="7"/>
@@ -7433,7 +7565,7 @@
         <v>33</v>
       </c>
       <c r="P36" s="41" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>212</v>
@@ -7445,7 +7577,7 @@
         <v>214</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="U36" s="7">
         <v>389</v>
@@ -7454,7 +7586,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="24.95" customHeight="1">
+    <row r="37" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>215</v>
@@ -7471,13 +7603,13 @@
         <v>344</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>339</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="7"/>
@@ -7489,7 +7621,7 @@
         <v>33</v>
       </c>
       <c r="P37" s="41" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>23</v>
@@ -7501,7 +7633,7 @@
         <v>217</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="U37" s="7" t="s">
         <v>349</v>
@@ -7510,7 +7642,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="24.95" customHeight="1">
+    <row r="38" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>218</v>
@@ -7527,13 +7659,13 @@
         <v>338</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>340</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>338</v>
@@ -7561,7 +7693,7 @@
         <v>222</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="U38" s="7" t="s">
         <v>348</v>
@@ -7570,7 +7702,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="24.95" customHeight="1">
+    <row r="39" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>223</v>
@@ -7587,7 +7719,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="7"/>
@@ -7601,7 +7733,7 @@
         <v>33</v>
       </c>
       <c r="P39" s="41" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>103</v>
@@ -7613,7 +7745,7 @@
         <v>226</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="U39" s="7" t="s">
         <v>347</v>
@@ -7622,7 +7754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="24.95" customHeight="1">
+    <row r="40" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>227</v>
@@ -7632,14 +7764,14 @@
         <v>483</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="7"/>
@@ -7653,7 +7785,7 @@
         <v>33</v>
       </c>
       <c r="P40" s="41" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>229</v>
@@ -7665,7 +7797,7 @@
         <v>231</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="U40" s="7" t="s">
         <v>346</v>
@@ -7674,7 +7806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="24.95" customHeight="1">
+    <row r="41" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>232</v>
@@ -7691,7 +7823,7 @@
         <v>18</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="7"/>
@@ -7705,7 +7837,7 @@
         <v>33</v>
       </c>
       <c r="P41" s="41" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>233</v>
@@ -7717,7 +7849,7 @@
         <v>235</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="U41" s="7" t="s">
         <v>345</v>
@@ -7726,7 +7858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="24.95" customHeight="1">
+    <row r="42" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>236</v>
@@ -7743,19 +7875,19 @@
         <v>338</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="4" t="s">
@@ -7765,7 +7897,7 @@
         <v>53</v>
       </c>
       <c r="P42" s="41" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="Q42" s="4" t="s">
         <v>237</v>
@@ -7777,7 +7909,7 @@
         <v>239</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="U42" s="7" t="s">
         <v>350</v>
@@ -7786,7 +7918,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="24.95" customHeight="1">
+    <row r="43" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>240</v>
@@ -7803,19 +7935,19 @@
         <v>351</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>338</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="4" t="s">
@@ -7825,7 +7957,7 @@
         <v>33</v>
       </c>
       <c r="P43" s="41" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>212</v>
@@ -7837,7 +7969,7 @@
         <v>242</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="U43" s="7">
         <v>638</v>
@@ -7846,7 +7978,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="24.95" customHeight="1">
+    <row r="44" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>243</v>
@@ -7863,13 +7995,13 @@
         <v>42</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="7"/>
@@ -7881,7 +8013,7 @@
         <v>33</v>
       </c>
       <c r="P44" s="41" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>205</v>
@@ -7893,7 +8025,7 @@
         <v>244</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="U44" s="7">
         <v>806</v>
@@ -7902,7 +8034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="24.95" customHeight="1">
+    <row r="45" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>246</v>
@@ -7919,7 +8051,7 @@
         <v>352</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="7"/>
@@ -7935,7 +8067,7 @@
         <v>53</v>
       </c>
       <c r="P45" s="41" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>249</v>
@@ -7947,7 +8079,7 @@
         <v>251</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="U45" s="7">
         <v>779</v>
@@ -7956,7 +8088,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="24.95" customHeight="1">
+    <row r="46" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>252</v>
@@ -7973,29 +8105,29 @@
         <v>351</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>358</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="4" t="s">
         <v>253</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P46" s="41" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>254</v>
@@ -8007,7 +8139,7 @@
         <v>256</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="U46" s="7">
         <v>840</v>
@@ -8016,7 +8148,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="24.95" customHeight="1">
+    <row r="47" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>257</v>
       </c>
@@ -8035,7 +8167,7 @@
         <v>353</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="7"/>
@@ -8046,10 +8178,10 @@
         <v>259</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P47" s="41" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>260</v>
@@ -8061,7 +8193,7 @@
         <v>262</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="U47" s="7">
         <v>935</v>
@@ -8070,7 +8202,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="24.95" customHeight="1">
+    <row r="48" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>263</v>
       </c>
@@ -8091,7 +8223,7 @@
         <v>357</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="7"/>
@@ -8105,7 +8237,7 @@
         <v>53</v>
       </c>
       <c r="P48" s="41" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>265</v>
@@ -8117,7 +8249,7 @@
         <v>267</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="U48" s="7">
         <v>962</v>
@@ -8126,7 +8258,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="24.95" customHeight="1">
+    <row r="49" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>268</v>
@@ -8145,19 +8277,19 @@
         <v>42</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>270</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>351</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="4" t="s">
@@ -8167,7 +8299,7 @@
         <v>33</v>
       </c>
       <c r="P49" s="41" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>271</v>
@@ -8179,7 +8311,7 @@
         <v>273</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="U49" s="7">
         <v>1186</v>
@@ -8188,7 +8320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="24.95" customHeight="1">
+    <row r="50" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>274</v>
@@ -8212,10 +8344,10 @@
         <v>275</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P50" s="41" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>150</v>
@@ -8227,7 +8359,7 @@
         <v>277</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="U50" s="7" t="s">
         <v>361</v>
@@ -8236,7 +8368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="24.95" customHeight="1">
+    <row r="51" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>278</v>
       </c>
@@ -8281,7 +8413,7 @@
         <v>283</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="U51" s="7">
         <v>1389</v>
@@ -8290,7 +8422,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="24.95" customHeight="1">
+    <row r="52" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>284</v>
@@ -8304,7 +8436,7 @@
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="H52" s="7">
         <v>1330</v>
@@ -8318,10 +8450,10 @@
         <v>285</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P52" s="41" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>286</v>
@@ -8333,7 +8465,7 @@
         <v>288</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="U52" s="7">
         <v>1330</v>
@@ -8342,7 +8474,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="24.95" customHeight="1">
+    <row r="53" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>289</v>
       </c>
@@ -8376,10 +8508,10 @@
         <v>138</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P53" s="41" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="Q53" s="4" t="s">
         <v>291</v>
@@ -8391,7 +8523,7 @@
         <v>293</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="U53" s="7">
         <v>1425</v>
@@ -8400,7 +8532,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="24.95" customHeight="1">
+    <row r="54" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>294</v>
@@ -8428,10 +8560,10 @@
         <v>26</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P54" s="41" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="Q54" s="4" t="s">
         <v>298</v>
@@ -8443,7 +8575,7 @@
         <v>296</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="U54" s="7">
         <v>1515</v>
@@ -8452,7 +8584,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="24.95" customHeight="1">
+    <row r="55" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>297</v>
@@ -8480,10 +8612,10 @@
         <v>285</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P55" s="41" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="Q55" s="4" t="s">
         <v>299</v>
@@ -8495,7 +8627,7 @@
         <v>301</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="U55" s="7">
         <v>1555</v>
@@ -8504,7 +8636,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="24.95" customHeight="1">
+    <row r="56" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>302</v>
       </c>
@@ -8540,10 +8672,10 @@
         <v>171</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P56" s="41" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="Q56" s="4" t="s">
         <v>304</v>
@@ -8555,7 +8687,7 @@
         <v>306</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="U56" s="7">
         <v>1638</v>
@@ -8564,7 +8696,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="24.95" customHeight="1">
+    <row r="57" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>307</v>
@@ -8594,7 +8726,7 @@
         <v>26</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P57" s="41" t="s">
         <v>623</v>
@@ -8609,7 +8741,7 @@
         <v>310</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="U57" s="7">
         <v>1660</v>
@@ -8618,7 +8750,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="24.95" customHeight="1">
+    <row r="58" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>311</v>
@@ -8641,7 +8773,7 @@
         <v>178</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="7"/>
@@ -8655,7 +8787,7 @@
         <v>53</v>
       </c>
       <c r="P58" s="41" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>312</v>
@@ -8667,7 +8799,7 @@
         <v>314</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="U58" s="7">
         <v>1773</v>
@@ -8676,7 +8808,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="24.95" customHeight="1">
+    <row r="59" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
         <v>315</v>
@@ -8709,7 +8841,7 @@
         <v>33</v>
       </c>
       <c r="P59" s="41" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="Q59" s="7"/>
       <c r="R59" s="11" t="s">
@@ -8719,7 +8851,7 @@
         <v>319</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="U59" s="7" t="s">
         <v>381</v>
@@ -8728,7 +8860,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="24.95" customHeight="1">
+    <row r="60" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>389</v>
       </c>
@@ -8737,7 +8869,7 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="7" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>390</v>
@@ -8783,14 +8915,14 @@
         <v>322</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="U60" s="10">
         <v>5524</v>
       </c>
       <c r="V60" s="4"/>
     </row>
-    <row r="61" spans="1:22" ht="24.95" customHeight="1">
+    <row r="61" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>323</v>
       </c>
@@ -8835,7 +8967,7 @@
         <v>33</v>
       </c>
       <c r="P61" s="41" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>205</v>
@@ -8847,7 +8979,7 @@
         <v>328</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="U61" s="10">
         <v>20532</v>
@@ -8856,7 +8988,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="24.95" customHeight="1">
+    <row r="62" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>513</v>
       </c>
@@ -8882,7 +9014,7 @@
         <v>171</v>
       </c>
       <c r="O62" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P62" s="40" t="s">
         <v>517</v>
@@ -8897,7 +9029,7 @@
         <v>519</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="U62" s="27">
         <v>7282</v>
@@ -8906,7 +9038,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="24.95" customHeight="1">
+    <row r="63" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>520</v>
       </c>
@@ -8916,6 +9048,9 @@
       <c r="C63" t="s">
         <v>515</v>
       </c>
+      <c r="D63" s="3" t="s">
+        <v>1073</v>
+      </c>
       <c r="G63" t="s">
         <v>522</v>
       </c>
@@ -8929,7 +9064,7 @@
         <v>171</v>
       </c>
       <c r="O63" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P63" s="40" t="s">
         <v>523</v>
@@ -8944,13 +9079,13 @@
         <v>525</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="U63" s="27">
         <v>6751</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="24.95" customHeight="1">
+    <row r="64" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>526</v>
       </c>
@@ -8961,7 +9096,7 @@
         <v>528</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E64" t="s">
         <v>529</v>
@@ -9000,13 +9135,13 @@
         <v>537</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="U64" s="27">
         <v>24152</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="24.95" customHeight="1">
+    <row r="65" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>538</v>
       </c>
@@ -9017,7 +9152,7 @@
         <v>540</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E65" t="s">
         <v>541</v>
@@ -9035,7 +9170,7 @@
         <v>171</v>
       </c>
       <c r="O65" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P65" s="40" t="s">
         <v>542</v>
@@ -9050,13 +9185,13 @@
         <v>544</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="U65" s="27">
         <v>7282</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="24.95" customHeight="1">
+    <row r="66" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>545</v>
       </c>
@@ -9076,7 +9211,7 @@
         <v>549</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="M66" s="3">
         <v>2000</v>
@@ -9085,7 +9220,7 @@
         <v>26</v>
       </c>
       <c r="O66" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P66" s="40" t="s">
         <v>550</v>
@@ -9100,13 +9235,13 @@
         <v>553</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="U66" s="3">
         <v>1935</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="24.95" customHeight="1">
+    <row r="67" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>554</v>
       </c>
@@ -9117,7 +9252,7 @@
         <v>467</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E67" t="s">
         <v>595</v>
@@ -9150,7 +9285,7 @@
         <v>138</v>
       </c>
       <c r="O67" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P67" s="40" t="s">
         <v>550</v>
@@ -9165,13 +9300,13 @@
         <v>560</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="U67" s="3">
         <v>1934</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="24.95" customHeight="1">
+    <row r="68" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>561</v>
       </c>
@@ -9215,7 +9350,7 @@
         <v>138</v>
       </c>
       <c r="O68" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P68" s="40" t="s">
         <v>550</v>
@@ -9230,7 +9365,7 @@
         <v>568</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="U68" s="3">
         <v>1918</v>
@@ -9239,7 +9374,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="24.95" customHeight="1">
+    <row r="69" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>570</v>
       </c>
@@ -9286,7 +9421,7 @@
         <v>574</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="U69" s="27">
         <v>30105</v>
@@ -9295,7 +9430,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="24.95" customHeight="1">
+    <row r="70" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>576</v>
       </c>
@@ -9324,7 +9459,7 @@
         <v>171</v>
       </c>
       <c r="O70" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P70" s="40" t="s">
         <v>550</v>
@@ -9339,7 +9474,7 @@
         <v>580</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="U70" s="27">
         <v>11028</v>
@@ -9348,7 +9483,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="24.95" customHeight="1">
+    <row r="71" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>582</v>
       </c>
@@ -9359,7 +9494,7 @@
         <v>486</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E71" t="s">
         <v>470</v>
@@ -9377,7 +9512,7 @@
         <v>498</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="M71" s="3">
         <v>1999</v>
@@ -9386,7 +9521,7 @@
         <v>171</v>
       </c>
       <c r="O71" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P71" s="40" t="s">
         <v>550</v>
@@ -9401,13 +9536,13 @@
         <v>586</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="U71" s="27">
         <v>7901</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="24.95" customHeight="1">
+    <row r="72" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>587</v>
       </c>
@@ -9436,7 +9571,7 @@
         <v>171</v>
       </c>
       <c r="O72" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P72" s="40" t="s">
         <v>550</v>
@@ -9451,13 +9586,13 @@
         <v>591</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="U72" s="27">
         <v>6769</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="24.95" customHeight="1">
+    <row r="73" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>512</v>
       </c>
@@ -9510,16 +9645,16 @@
         <v>425</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="V73" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="24.95" customHeight="1">
+    <row r="74" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>504</v>
       </c>
@@ -9530,7 +9665,7 @@
         <v>502</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E74" t="s">
         <v>501</v>
@@ -9563,10 +9698,10 @@
         <v>171</v>
       </c>
       <c r="O74" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P74" s="40" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="Q74" t="s">
         <v>490</v>
@@ -9578,13 +9713,13 @@
         <v>425</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="U74" s="27">
         <v>8261</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="24.95" customHeight="1">
+    <row r="75" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>496</v>
       </c>
@@ -9595,7 +9730,7 @@
         <v>494</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E75" t="s">
         <v>493</v>
@@ -9628,7 +9763,7 @@
         <v>171</v>
       </c>
       <c r="O75" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P75" s="40" t="s">
         <v>491</v>
@@ -9643,13 +9778,13 @@
         <v>425</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="U75" s="27">
         <v>13903</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="24.95" customHeight="1">
+    <row r="76" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>488</v>
       </c>
@@ -9660,7 +9795,7 @@
         <v>486</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E76" t="s">
         <v>485</v>
@@ -9693,7 +9828,7 @@
         <v>171</v>
       </c>
       <c r="O76" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P76" s="40" t="s">
         <v>428</v>
@@ -9708,13 +9843,13 @@
         <v>425</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="U76" s="27">
         <v>13894</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="24.95" customHeight="1">
+    <row r="77" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>481</v>
       </c>
@@ -9725,7 +9860,7 @@
         <v>479</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E77" t="s">
         <v>430</v>
@@ -9758,7 +9893,7 @@
         <v>171</v>
       </c>
       <c r="O77" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P77" s="40" t="s">
         <v>475</v>
@@ -9773,7 +9908,7 @@
         <v>425</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="U77" s="27">
         <v>13762</v>
@@ -9782,7 +9917,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="24.95" customHeight="1">
+    <row r="78" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -9793,7 +9928,7 @@
         <v>431</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E78" t="s">
         <v>470</v>
@@ -9811,7 +9946,7 @@
         <v>171</v>
       </c>
       <c r="O78" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P78" s="40" t="s">
         <v>428</v>
@@ -9826,13 +9961,13 @@
         <v>425</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="U78" s="27">
         <v>6870</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="24.95" customHeight="1">
+    <row r="79" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>468</v>
       </c>
@@ -9870,7 +10005,7 @@
         <v>171</v>
       </c>
       <c r="O79" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P79" s="40" t="s">
         <v>456</v>
@@ -9885,13 +10020,13 @@
         <v>425</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="U79" s="27">
         <v>11565</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="24.95" customHeight="1">
+    <row r="80" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>461</v>
       </c>
@@ -9917,7 +10052,7 @@
         <v>430</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="M80" s="3">
         <v>2000</v>
@@ -9926,7 +10061,7 @@
         <v>26</v>
       </c>
       <c r="O80" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P80" s="40" t="s">
         <v>456</v>
@@ -9941,13 +10076,13 @@
         <v>454</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="U80" s="27">
         <v>11414</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="24.95" customHeight="1">
+    <row r="81" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>453</v>
       </c>
@@ -9958,7 +10093,7 @@
         <v>451</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E81" t="s">
         <v>450</v>
@@ -9970,7 +10105,7 @@
         <v>444</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="N81" t="s">
         <v>53</v>
@@ -9991,7 +10126,7 @@
         <v>445</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="U81" s="27">
         <v>4853</v>
@@ -10000,7 +10135,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="24.95" customHeight="1">
+    <row r="82" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>443</v>
       </c>
@@ -10050,7 +10185,7 @@
         <v>435</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="U82" s="3">
         <v>1900</v>
@@ -10059,7 +10194,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="24.95" customHeight="1">
+    <row r="83" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>433</v>
       </c>
@@ -10079,7 +10214,7 @@
         <v>430</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="M83" s="3">
         <v>1999</v>
@@ -10103,13 +10238,13 @@
         <v>425</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="U83" s="3">
         <v>1925</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="24.95" customHeight="1">
+    <row r="84" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>596</v>
       </c>
@@ -10120,7 +10255,7 @@
         <v>597</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>598</v>
@@ -10164,7 +10299,7 @@
         <v>606</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>607</v>
@@ -10173,7 +10308,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="24.95" customHeight="1">
+    <row r="85" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>608</v>
       </c>
@@ -10184,7 +10319,7 @@
         <v>610</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>611</v>
@@ -10200,7 +10335,7 @@
         <v>613</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="7"/>
@@ -10226,16 +10361,16 @@
         <v>616</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="U85" s="7" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="V85" s="7" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="24.95" customHeight="1">
+    <row r="86" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>617</v>
@@ -10254,7 +10389,7 @@
         <v>621</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>613</v>
@@ -10286,7 +10421,7 @@
         <v>625</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="U86" s="7" t="s">
         <v>626</v>
@@ -10295,7 +10430,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="24.95" customHeight="1">
+    <row r="87" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>628</v>
       </c>
@@ -10346,7 +10481,7 @@
         <v>638</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>639</v>
@@ -10355,7 +10490,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="24.95" customHeight="1">
+    <row r="88" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>641</v>
       </c>
@@ -10404,7 +10539,7 @@
         <v>650</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="U88" s="10">
         <v>14147</v>
@@ -10413,7 +10548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="24.95" customHeight="1">
+    <row r="89" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>651</v>
       </c>
@@ -10424,7 +10559,7 @@
         <v>652</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>653</v>
@@ -10448,7 +10583,7 @@
         <v>657</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="M89" s="10">
         <v>32330</v>
@@ -10472,7 +10607,7 @@
         <v>660</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>661</v>
@@ -10481,7 +10616,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="24.95" customHeight="1">
+    <row r="90" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>663</v>
       </c>
@@ -10540,7 +10675,7 @@
         <v>676</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="U90" s="10">
         <v>22443</v>
@@ -10549,7 +10684,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="24.95" customHeight="1">
+    <row r="91" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>677</v>
@@ -10577,7 +10712,7 @@
         <v>26</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P91" s="41" t="s">
         <v>680</v>
@@ -10590,21 +10725,21 @@
         <v>682</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="U91" s="7" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="V91" s="7"/>
     </row>
-    <row r="92" spans="1:22" ht="24.95" customHeight="1">
+    <row r="92" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>683</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="7" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -10612,7 +10747,7 @@
         <v>52</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="7"/>
@@ -10643,14 +10778,14 @@
         <v>686</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="24.95" customHeight="1">
+    <row r="93" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>687</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -10658,7 +10793,7 @@
         <v>18</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="7"/>
@@ -10669,7 +10804,7 @@
         <v>26</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P93" s="41" t="s">
         <v>688</v>
@@ -10682,7 +10817,7 @@
         <v>690</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="U93" s="7">
         <v>269</v>
@@ -10691,14 +10826,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="24.95" customHeight="1">
+    <row r="94" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>691</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>19</v>
@@ -10719,7 +10854,7 @@
         <v>73</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P94" s="41" t="s">
         <v>692</v>
@@ -10732,7 +10867,7 @@
         <v>694</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="U94" s="7">
         <v>304</v>
@@ -10741,7 +10876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="24.95" customHeight="1">
+    <row r="95" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>695</v>
       </c>
@@ -10785,7 +10920,7 @@
         <v>702</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P95" s="41" t="s">
         <v>703</v>
@@ -10800,7 +10935,7 @@
         <v>706</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="U95" s="7">
         <v>1937</v>
@@ -10809,7 +10944,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="24.95" customHeight="1">
+    <row r="96" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>707</v>
@@ -10826,7 +10961,7 @@
         <v>709</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="7"/>
@@ -10852,7 +10987,7 @@
         <v>714</v>
       </c>
       <c r="T96" s="33" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="U96" s="7" t="s">
         <v>715</v>
@@ -10861,7 +10996,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="24.95" customHeight="1">
+    <row r="97" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>717</v>
       </c>
@@ -10901,7 +11036,7 @@
         <v>171</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P97" s="41" t="s">
         <v>723</v>
@@ -10916,21 +11051,21 @@
         <v>725</v>
       </c>
       <c r="T97" s="33" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="U97" s="7">
         <v>1937</v>
       </c>
       <c r="V97" s="7"/>
     </row>
-    <row r="98" spans="1:22" ht="24.95" customHeight="1">
+    <row r="98" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>726</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -10949,7 +11084,7 @@
         <v>171</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P98" s="41" t="s">
         <v>728</v>
@@ -10971,14 +11106,14 @@
         <v>727</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="24.95" customHeight="1">
+    <row r="99" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>731</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="7" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -10986,7 +11121,7 @@
         <v>732</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="7"/>
@@ -10997,7 +11132,7 @@
         <v>26</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P99" s="41" t="s">
         <v>733</v>
@@ -11010,20 +11145,22 @@
         <v>735</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="U99" s="7" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="V99" s="7"/>
     </row>
-    <row r="100" spans="1:22" ht="24.95" customHeight="1">
+    <row r="100" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>736</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="7"/>
+      <c r="D100" s="7" t="s">
+        <v>1065</v>
+      </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -11037,7 +11174,7 @@
         <v>26</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P100" s="41" t="s">
         <v>737</v>
@@ -11057,15 +11194,18 @@
       </c>
       <c r="V100" s="7"/>
     </row>
-    <row r="101" spans="1:22" ht="24.95" customHeight="1">
+    <row r="101" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>743</v>
       </c>
+      <c r="D101" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="N101" t="s">
         <v>171</v>
       </c>
       <c r="O101" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P101" s="40" t="s">
         <v>744</v>
@@ -11086,15 +11226,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="24.95" customHeight="1">
+    <row r="102" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>747</v>
       </c>
+      <c r="D102" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="N102" t="s">
         <v>171</v>
       </c>
       <c r="O102" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P102" s="40" t="s">
         <v>748</v>
@@ -11109,19 +11252,22 @@
         <v>750</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" spans="1:22" ht="24.95" customHeight="1">
+    <row r="103" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>751</v>
       </c>
+      <c r="D103" s="3" t="s">
+        <v>1065</v>
+      </c>
       <c r="N103" t="s">
         <v>171</v>
       </c>
       <c r="O103" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P103" s="40" t="s">
         <v>752</v>
@@ -11136,14 +11282,17 @@
         <v>754</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" spans="1:22" ht="24.95" customHeight="1">
+    <row r="104" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>755</v>
       </c>
+      <c r="D104" s="3" t="s">
+        <v>1066</v>
+      </c>
       <c r="N104" t="s">
         <v>53</v>
       </c>
@@ -11163,14 +11312,14 @@
         <v>758</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="U104" s="3">
         <v>470</v>
       </c>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" spans="1:22" ht="24.95" customHeight="1">
+    <row r="105" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="18" t="s">
         <v>759</v>
       </c>
@@ -11207,7 +11356,7 @@
         <v>53</v>
       </c>
       <c r="P105" s="30" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="Q105" s="19" t="s">
         <v>765</v>
@@ -11219,16 +11368,16 @@
         <v>767</v>
       </c>
       <c r="T105" s="19" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="U105" s="25" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="V105" s="20" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="24.95" customHeight="1">
+    <row r="106" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="21" t="s">
         <v>769</v>
       </c>
@@ -11239,7 +11388,7 @@
         <v>770</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E106" s="22" t="s">
         <v>771</v>
@@ -11249,19 +11398,19 @@
         <v>772</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="I106" s="22" t="s">
         <v>773</v>
       </c>
       <c r="J106" s="26" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="K106" s="22" t="s">
         <v>774</v>
       </c>
       <c r="L106" s="26" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="M106" s="24">
         <v>38217</v>
@@ -11270,10 +11419,10 @@
         <v>171</v>
       </c>
       <c r="O106" s="22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P106" s="29" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="Q106" s="22" t="s">
         <v>775</v>
@@ -11292,13 +11441,15 @@
       </c>
       <c r="V106" s="23"/>
     </row>
-    <row r="107" spans="1:22" ht="24.95" customHeight="1">
+    <row r="107" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="18"/>
       <c r="B107" s="19" t="s">
         <v>779</v>
       </c>
       <c r="C107" s="19"/>
-      <c r="D107" s="25"/>
+      <c r="D107" s="25" t="s">
+        <v>1070</v>
+      </c>
       <c r="E107" s="19"/>
       <c r="F107" s="19" t="s">
         <v>780</v>
@@ -11307,7 +11458,7 @@
         <v>781</v>
       </c>
       <c r="H107" s="25" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I107" s="19"/>
       <c r="J107" s="25"/>
@@ -11321,7 +11472,7 @@
         <v>53</v>
       </c>
       <c r="P107" s="30" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="Q107" s="19" t="s">
         <v>782</v>
@@ -11329,77 +11480,77 @@
       <c r="R107" s="19" t="s">
         <v>783</v>
       </c>
-      <c r="S107" s="19" t="s">
+      <c r="S107" s="32" t="s">
+        <v>1321</v>
+      </c>
+      <c r="T107" s="32" t="s">
+        <v>1211</v>
+      </c>
+      <c r="U107" s="25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V107" s="20"/>
+    </row>
+    <row r="108" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="21" t="s">
         <v>784</v>
       </c>
-      <c r="T107" s="32" t="s">
-        <v>1214</v>
-      </c>
-      <c r="U107" s="25" t="s">
-        <v>1114</v>
-      </c>
-      <c r="V107" s="20"/>
-    </row>
-    <row r="108" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A108" s="21" t="s">
+      <c r="B108" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="C108" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="D108" s="26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E108" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="D108" s="26" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E108" s="22" t="s">
+      <c r="F108" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="G108" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="F108" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="G108" s="22" t="s">
+      <c r="H108" s="26" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I108" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="H108" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I108" s="22" t="s">
+      <c r="J108" s="26" t="s">
         <v>790</v>
       </c>
-      <c r="J108" s="26" t="s">
+      <c r="K108" s="22" t="s">
         <v>791</v>
-      </c>
-      <c r="K108" s="22" t="s">
-        <v>792</v>
       </c>
       <c r="L108" s="26">
         <v>1937</v>
       </c>
       <c r="M108" s="29" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="N108" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O108" s="22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P108" s="29" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="Q108" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="R108" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="R108" s="22" t="s">
+      <c r="S108" s="22" t="s">
         <v>794</v>
       </c>
-      <c r="S108" s="22" t="s">
-        <v>795</v>
-      </c>
       <c r="T108" s="34" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="U108" s="24">
         <v>13878</v>
@@ -11408,9 +11559,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="24.95" customHeight="1">
+    <row r="109" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>503</v>
@@ -11419,31 +11570,31 @@
         <v>431</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F109" s="19" t="s">
         <v>599</v>
       </c>
       <c r="G109" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="H109" s="25" t="s">
         <v>798</v>
       </c>
-      <c r="H109" s="25" t="s">
+      <c r="I109" s="19" t="s">
         <v>799</v>
       </c>
-      <c r="I109" s="19" t="s">
+      <c r="J109" s="25" t="s">
         <v>800</v>
       </c>
-      <c r="J109" s="25" t="s">
+      <c r="K109" s="19" t="s">
         <v>801</v>
       </c>
-      <c r="K109" s="19" t="s">
+      <c r="L109" s="25" t="s">
         <v>802</v>
-      </c>
-      <c r="L109" s="25" t="s">
-        <v>803</v>
       </c>
       <c r="M109" s="31">
         <v>36754</v>
@@ -11452,53 +11603,53 @@
         <v>171</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P109" s="30" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="Q109" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="R109" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="R109" s="19" t="s">
+      <c r="S109" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="S109" s="19" t="s">
-        <v>806</v>
-      </c>
       <c r="T109" s="32" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="U109" s="31">
         <v>6796</v>
       </c>
       <c r="V109" s="20"/>
     </row>
-    <row r="110" spans="1:22" ht="24.95" customHeight="1">
+    <row r="110" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B110" s="22" t="s">
         <v>503</v>
       </c>
       <c r="C110" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E110" s="22" t="s">
         <v>808</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>809</v>
       </c>
       <c r="F110" s="22"/>
       <c r="G110" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I110" s="22" t="s">
         <v>810</v>
-      </c>
-      <c r="H110" s="26" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I110" s="22" t="s">
-        <v>811</v>
       </c>
       <c r="J110" s="26"/>
       <c r="K110" s="22"/>
@@ -11508,64 +11659,64 @@
         <v>259</v>
       </c>
       <c r="O110" s="35" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P110" s="29" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="Q110" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="R110" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="R110" s="22" t="s">
+      <c r="S110" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="S110" s="22" t="s">
+      <c r="T110" s="34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="U110" s="26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="V110" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="T110" s="34" t="s">
-        <v>1217</v>
-      </c>
-      <c r="U110" s="26" t="s">
-        <v>1115</v>
-      </c>
-      <c r="V110" s="23" t="s">
+    </row>
+    <row r="111" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="18" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A111" s="18" t="s">
+      <c r="B111" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="C111" s="19" t="s">
+      <c r="D111" s="25" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E111" s="19" t="s">
         <v>817</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>818</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="H111" s="25" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I111" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="H111" s="25" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I111" s="19" t="s">
+      <c r="J111" s="25" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K111" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="J111" s="25" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K111" s="19" t="s">
-        <v>821</v>
-      </c>
       <c r="L111" s="25" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="M111" s="31">
         <v>42566</v>
@@ -11574,66 +11725,66 @@
         <v>171</v>
       </c>
       <c r="O111" s="19" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P111" s="30" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="Q111" s="19" t="s">
         <v>775</v>
       </c>
       <c r="R111" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="S111" s="19" t="s">
         <v>822</v>
       </c>
-      <c r="S111" s="19" t="s">
-        <v>823</v>
-      </c>
       <c r="T111" s="32" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="U111" s="31">
         <v>6668</v>
       </c>
       <c r="V111" s="20" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="21" t="s">
         <v>824</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A112" s="21" t="s">
-        <v>825</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C112" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E112" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="D112" s="26" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E112" s="22" t="s">
+      <c r="F112" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="G112" s="22" t="s">
         <v>828</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="H112" s="26" t="s">
         <v>829</v>
       </c>
-      <c r="H112" s="26" t="s">
+      <c r="I112" s="22" t="s">
         <v>830</v>
       </c>
-      <c r="I112" s="22" t="s">
+      <c r="J112" s="26" t="s">
         <v>831</v>
-      </c>
-      <c r="J112" s="26" t="s">
-        <v>832</v>
       </c>
       <c r="K112" s="22" t="s">
         <v>360</v>
       </c>
       <c r="L112" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M112" s="24">
         <v>37546</v>
@@ -11642,22 +11793,22 @@
         <v>171</v>
       </c>
       <c r="O112" s="22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P112" s="29" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="Q112" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R112" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="S112" s="22" t="s">
         <v>834</v>
       </c>
-      <c r="S112" s="22" t="s">
-        <v>835</v>
-      </c>
       <c r="T112" s="34" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="U112" s="24">
         <v>6766</v>
@@ -11666,31 +11817,31 @@
         <v>679</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="24.95" customHeight="1">
+    <row r="113" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="B113" s="19" t="s">
         <v>836</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="C113" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E113" s="19" t="s">
         <v>837</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>838</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="H113" s="25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I113" s="19" t="s">
         <v>839</v>
-      </c>
-      <c r="H113" s="25" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I113" s="19" t="s">
-        <v>840</v>
       </c>
       <c r="J113" s="25">
         <v>1238</v>
@@ -11698,72 +11849,72 @@
       <c r="K113" s="19"/>
       <c r="L113" s="25"/>
       <c r="M113" s="25" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="N113" s="19" t="s">
         <v>259</v>
       </c>
       <c r="O113" s="36" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P113" s="30" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="Q113" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="R113" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="S113" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="S113" s="19" t="s">
+      <c r="T113" s="32" t="s">
+        <v>1217</v>
+      </c>
+      <c r="U113" s="25" t="s">
+        <v>1112</v>
+      </c>
+      <c r="V113" s="20" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="21" t="s">
         <v>842</v>
       </c>
-      <c r="T113" s="32" t="s">
-        <v>1220</v>
-      </c>
-      <c r="U113" s="25" t="s">
-        <v>1115</v>
-      </c>
-      <c r="V113" s="20" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A114" s="21" t="s">
+      <c r="B114" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="C114" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="D114" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E114" s="22" t="s">
         <v>845</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>846</v>
       </c>
       <c r="F114" s="22" t="s">
         <v>780</v>
       </c>
       <c r="G114" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="H114" s="26" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I114" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="H114" s="26" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I114" s="22" t="s">
+      <c r="J114" s="26" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K114" t="s">
         <v>848</v>
       </c>
-      <c r="J114" s="26" t="s">
-        <v>1098</v>
-      </c>
-      <c r="K114" t="s">
-        <v>849</v>
-      </c>
       <c r="L114" s="26" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="M114" s="24">
         <v>40708</v>
@@ -11775,19 +11926,19 @@
         <v>33</v>
       </c>
       <c r="P114" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q114" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="R114" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>852</v>
       </c>
-      <c r="S114" s="22" t="s">
-        <v>853</v>
-      </c>
       <c r="T114" s="34" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="U114" s="24">
         <v>15646</v>
@@ -11796,15 +11947,15 @@
         <v>508</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="24.95" customHeight="1">
+    <row r="115" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="B115" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="C115" s="19" t="s">
         <v>855</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>856</v>
       </c>
       <c r="D115" s="25">
         <v>1415</v>
@@ -11812,10 +11963,10 @@
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
       <c r="G115" s="19" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H115" s="25" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="25"/>
@@ -11831,55 +11982,55 @@
         <v>33</v>
       </c>
       <c r="P115" s="30" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="Q115" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="R115" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="R115" s="19" t="s">
+      <c r="S115" s="19" t="s">
         <v>859</v>
       </c>
-      <c r="S115" s="19" t="s">
-        <v>860</v>
-      </c>
       <c r="T115" s="32" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="U115" s="25" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="V115" s="20" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="24.95" customHeight="1">
+    <row r="116" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="B116" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="B116" s="22" t="s">
-        <v>862</v>
-      </c>
       <c r="C116" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D116" s="26">
         <v>1878</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H116" s="26">
         <v>1910</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="K116" s="22"/>
       <c r="L116" s="26"/>
@@ -11890,60 +12041,60 @@
         <v>171</v>
       </c>
       <c r="O116" s="35" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P116" s="29" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="Q116" s="22" t="s">
         <v>775</v>
       </c>
       <c r="R116" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="S116" s="22" t="s">
         <v>866</v>
       </c>
-      <c r="S116" s="22" t="s">
-        <v>867</v>
-      </c>
       <c r="T116" s="34" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="U116" s="24">
         <v>13821</v>
       </c>
       <c r="V116" s="23" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="18" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A117" s="18" t="s">
+      <c r="B117" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>869</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>862</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>870</v>
       </c>
       <c r="D117" s="25">
         <v>1880</v>
       </c>
       <c r="E117" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="F117" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="F117" s="19" t="s">
+      <c r="G117" s="19" t="s">
         <v>872</v>
       </c>
-      <c r="G117" s="19" t="s">
+      <c r="H117" s="25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="J117" s="25" t="s">
         <v>873</v>
-      </c>
-      <c r="H117" s="25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I117" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="J117" s="25" t="s">
-        <v>874</v>
       </c>
       <c r="K117" s="19"/>
       <c r="L117" s="25"/>
@@ -11954,34 +12105,34 @@
         <v>138</v>
       </c>
       <c r="O117" s="19" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P117" s="30" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="Q117" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="R117" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="R117" s="19" t="s">
+      <c r="S117" s="32" t="s">
         <v>876</v>
       </c>
-      <c r="S117" s="32" t="s">
-        <v>877</v>
-      </c>
       <c r="T117" s="32" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="U117" s="31">
         <v>11055</v>
       </c>
       <c r="V117" s="20"/>
     </row>
-    <row r="118" spans="1:22" ht="24.95" customHeight="1">
+    <row r="118" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C118" s="22" t="s">
         <v>597</v>
@@ -11990,7 +12141,7 @@
         <v>1870</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F118" s="22"/>
       <c r="G118" s="22"/>
@@ -12000,53 +12151,55 @@
       <c r="K118" s="22"/>
       <c r="L118" s="26"/>
       <c r="M118" s="29" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="N118" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O118" s="22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P118" s="29" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="Q118" s="22" t="s">
         <v>775</v>
       </c>
       <c r="R118" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="S118" s="22" t="s">
         <v>880</v>
       </c>
-      <c r="S118" s="22" t="s">
-        <v>881</v>
-      </c>
       <c r="T118" s="34" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="U118" s="24">
         <v>13725</v>
       </c>
       <c r="V118" s="23"/>
     </row>
-    <row r="119" spans="1:22" ht="24.95" customHeight="1">
+    <row r="119" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>862</v>
-      </c>
-      <c r="C119" s="19" t="s">
+      <c r="D119" s="25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E119" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="D119" s="25"/>
-      <c r="E119" s="19" t="s">
+      <c r="F119" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="F119" s="19" t="s">
+      <c r="G119" s="19" t="s">
         <v>885</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>886</v>
       </c>
       <c r="H119" s="25"/>
       <c r="I119" s="19"/>
@@ -12063,127 +12216,127 @@
         <v>53</v>
       </c>
       <c r="P119" s="30" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="Q119" s="19" t="s">
         <v>782</v>
       </c>
       <c r="R119" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="S119" s="32" t="s">
+        <v>1322</v>
+      </c>
+      <c r="T119" s="32" t="s">
         <v>887</v>
-      </c>
-      <c r="S119" s="19" t="s">
-        <v>888</v>
-      </c>
-      <c r="T119" s="32" t="s">
-        <v>889</v>
       </c>
       <c r="U119" s="25">
         <v>1576</v>
       </c>
       <c r="V119" s="20" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" ht="24.95" customHeight="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B120" s="22" t="s">
         <v>161</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D120" s="24">
         <v>561</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F120" s="22" t="s">
         <v>546</v>
       </c>
       <c r="G120" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="J120" s="26" t="s">
         <v>893</v>
-      </c>
-      <c r="H120" s="26" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I120" s="22" t="s">
-        <v>894</v>
-      </c>
-      <c r="J120" s="26" t="s">
-        <v>895</v>
       </c>
       <c r="K120" s="22" t="s">
         <v>355</v>
       </c>
       <c r="L120" s="26" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="M120" s="29" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="N120" s="22" t="s">
         <v>138</v>
       </c>
       <c r="O120" s="35" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P120" s="29" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q120" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="R120" s="22" t="s">
         <v>896</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="T120" s="34" t="s">
         <v>898</v>
-      </c>
-      <c r="S120" s="22" t="s">
-        <v>899</v>
-      </c>
-      <c r="T120" s="34" t="s">
-        <v>900</v>
       </c>
       <c r="U120" s="24">
         <v>12586</v>
       </c>
       <c r="V120" s="23"/>
     </row>
-    <row r="121" spans="1:22" ht="24.95" customHeight="1">
+    <row r="121" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>431</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F121" s="19"/>
       <c r="G121" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="I121" s="19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J121" s="25" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="K121" s="19" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="L121" s="25" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="M121" s="31">
         <v>38996</v>
@@ -12192,31 +12345,31 @@
         <v>171</v>
       </c>
       <c r="O121" s="19" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P121" s="30" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="Q121" s="19" t="s">
         <v>775</v>
       </c>
       <c r="R121" s="19" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="S121" s="19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="T121" s="32" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="U121" s="31">
         <v>13771</v>
       </c>
       <c r="V121" s="20"/>
     </row>
-    <row r="122" spans="1:22" ht="24.95" customHeight="1">
+    <row r="122" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="21" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>264</v>
@@ -12225,29 +12378,29 @@
         <v>502</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F122" s="22"/>
       <c r="G122" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="H122" s="26" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I122" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="J122" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K122" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="H122" s="26" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I122" s="22" t="s">
+      <c r="L122" s="26" t="s">
         <v>912</v>
-      </c>
-      <c r="J122" s="26" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K122" s="22" t="s">
-        <v>913</v>
-      </c>
-      <c r="L122" s="26" t="s">
-        <v>914</v>
       </c>
       <c r="M122" s="24">
         <v>39077</v>
@@ -12256,69 +12409,69 @@
         <v>171</v>
       </c>
       <c r="O122" s="22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P122" s="29" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="Q122" s="22" t="s">
         <v>775</v>
       </c>
       <c r="R122" s="22" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="S122" s="22" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="T122" s="34" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="U122" s="24">
         <v>7223</v>
       </c>
       <c r="V122" s="23" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" ht="24.95" customHeight="1">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>264</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E123" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="G123" s="19" t="s">
         <v>919</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="H123" s="25" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I123" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="G123" s="19" t="s">
-        <v>921</v>
-      </c>
-      <c r="H123" s="25" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I123" s="19" t="s">
-        <v>922</v>
-      </c>
       <c r="J123" s="25" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="K123" s="19" t="s">
         <v>355</v>
       </c>
       <c r="L123" s="25" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="M123" s="30" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="N123" s="19" t="s">
         <v>39</v>
@@ -12327,63 +12480,63 @@
         <v>33</v>
       </c>
       <c r="P123" s="30" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="Q123" s="19" t="s">
+        <v>921</v>
+      </c>
+      <c r="R123" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="S123" s="19" t="s">
         <v>923</v>
       </c>
-      <c r="R123" s="19" t="s">
-        <v>924</v>
-      </c>
-      <c r="S123" s="19" t="s">
-        <v>925</v>
-      </c>
       <c r="T123" s="32" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="U123" s="31">
         <v>9557</v>
       </c>
       <c r="V123" s="20" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="21" t="s">
+        <v>925</v>
+      </c>
+      <c r="B124" s="22" t="s">
         <v>926</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A124" s="21" t="s">
-        <v>927</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>928</v>
       </c>
       <c r="C124" s="22" t="s">
         <v>515</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E124" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="H124" s="26" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I124" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="F124" s="22" t="s">
-        <v>920</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>930</v>
-      </c>
-      <c r="H124" s="26" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I124" s="22" t="s">
-        <v>931</v>
-      </c>
       <c r="J124" s="26" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="K124" s="22" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="L124" s="26" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="M124" s="26">
         <v>2000</v>
@@ -12395,41 +12548,43 @@
         <v>53</v>
       </c>
       <c r="P124" s="29" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="Q124" s="22" t="s">
+        <v>930</v>
+      </c>
+      <c r="R124" s="22" t="s">
+        <v>931</v>
+      </c>
+      <c r="S124" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="R124" s="22" t="s">
+      <c r="T124" s="34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="U124" s="26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="V124" s="23" t="s">
         <v>933</v>
       </c>
-      <c r="S124" s="22" t="s">
-        <v>934</v>
-      </c>
-      <c r="T124" s="34" t="s">
-        <v>1229</v>
-      </c>
-      <c r="U124" s="26" t="s">
-        <v>1117</v>
-      </c>
-      <c r="V124" s="23" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" ht="24.95" customHeight="1">
+    </row>
+    <row r="125" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="18"/>
       <c r="B125" s="19" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C125" s="19"/>
-      <c r="D125" s="25"/>
+      <c r="D125" s="25" t="s">
+        <v>1070</v>
+      </c>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
       <c r="G125" s="19" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I125" s="19"/>
       <c r="J125" s="25"/>
@@ -12443,46 +12598,48 @@
         <v>53</v>
       </c>
       <c r="P125" s="30" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="Q125" s="19" t="s">
         <v>782</v>
       </c>
       <c r="R125" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="S125" s="32" t="s">
+        <v>1323</v>
+      </c>
+      <c r="T125" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="U125" s="25" t="s">
+        <v>1115</v>
+      </c>
+      <c r="V125" s="20" t="s">
         <v>938</v>
       </c>
-      <c r="S125" s="19" t="s">
+    </row>
+    <row r="126" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="B126" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="T125" s="32" t="s">
+      <c r="C126" s="22" t="s">
         <v>940</v>
       </c>
-      <c r="U125" s="25" t="s">
-        <v>1118</v>
-      </c>
-      <c r="V125" s="20" t="s">
+      <c r="D126" s="26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>883</v>
+      </c>
+      <c r="F126" s="22" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A126" s="21" t="s">
-        <v>882</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>942</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>943</v>
-      </c>
-      <c r="D126" s="26"/>
-      <c r="E126" s="22" t="s">
-        <v>884</v>
-      </c>
-      <c r="F126" s="22" t="s">
-        <v>944</v>
-      </c>
       <c r="G126" s="22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H126" s="26"/>
       <c r="I126" s="22"/>
@@ -12499,30 +12656,30 @@
         <v>53</v>
       </c>
       <c r="P126" s="29" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="Q126" s="22" t="s">
         <v>782</v>
       </c>
       <c r="R126" s="22" t="s">
-        <v>945</v>
-      </c>
-      <c r="S126" s="22" t="s">
-        <v>888</v>
+        <v>942</v>
+      </c>
+      <c r="S126" s="34" t="s">
+        <v>1322</v>
       </c>
       <c r="T126" s="34" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="U126" s="26">
         <v>1563</v>
       </c>
       <c r="V126" s="23" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" ht="24.95" customHeight="1">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>325</v>
@@ -12531,87 +12688,87 @@
         <v>467</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E127" s="19" t="s">
+        <v>945</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="H127" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I127" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="F127" s="19" t="s">
-        <v>949</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>950</v>
-      </c>
-      <c r="H127" s="25" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I127" s="19" t="s">
-        <v>951</v>
-      </c>
       <c r="J127" s="25" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="K127" s="19"/>
       <c r="L127" s="25"/>
       <c r="M127" s="30" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="N127" s="19" t="s">
         <v>171</v>
       </c>
       <c r="O127" s="19" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P127" s="30" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="Q127" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R127" s="19" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="S127" s="19" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="T127" s="32" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="U127" s="31">
         <v>13883</v>
       </c>
       <c r="V127" s="20" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A128" s="18" t="s">
+      <c r="C128" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>956</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>957</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>958</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>959</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="19" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H128" s="25" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I128" s="19" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J128" s="25" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="K128" s="19"/>
       <c r="L128" s="25"/>
@@ -12622,61 +12779,61 @@
         <v>171</v>
       </c>
       <c r="O128" s="19" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P128" s="30" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="Q128" s="19" t="s">
         <v>775</v>
       </c>
       <c r="R128" s="19" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="S128" s="32" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="T128" s="32" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="U128" s="31">
         <v>13793</v>
       </c>
       <c r="V128" s="20"/>
     </row>
-    <row r="129" spans="1:22" ht="24.95" customHeight="1">
+    <row r="129" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="21" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B129" s="22" t="s">
         <v>432</v>
       </c>
       <c r="C129" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>963</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="G129" s="22" t="s">
         <v>965</v>
       </c>
-      <c r="D129" s="26" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E129" s="22" t="s">
+      <c r="H129" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I129" s="22" t="s">
         <v>966</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="J129" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K129" s="22" t="s">
         <v>967</v>
-      </c>
-      <c r="G129" s="22" t="s">
-        <v>968</v>
-      </c>
-      <c r="H129" s="26" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I129" s="22" t="s">
-        <v>969</v>
-      </c>
-      <c r="J129" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K129" s="22" t="s">
-        <v>970</v>
       </c>
       <c r="L129" s="26" t="s">
         <v>670</v>
@@ -12688,178 +12845,178 @@
         <v>171</v>
       </c>
       <c r="O129" s="22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P129" s="29" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="Q129" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R129" s="22" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="S129" s="22" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="T129" s="34" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="U129" s="24">
         <v>13841</v>
       </c>
       <c r="V129" s="23"/>
     </row>
-    <row r="130" spans="1:22" ht="24.95" customHeight="1">
+    <row r="130" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>432</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D130" s="25">
         <v>1870</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F130" s="19"/>
       <c r="G130" s="19" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H130" s="25" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="I130" s="19" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="J130" s="25" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="L130" s="25" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="M130" s="30" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="N130" s="19" t="s">
         <v>171</v>
       </c>
       <c r="O130" s="19" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P130" s="30" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="Q130" s="19" t="s">
         <v>775</v>
       </c>
       <c r="R130" s="19" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="S130" s="19" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="T130" s="32" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="U130" s="31">
         <v>13725</v>
       </c>
       <c r="V130" s="20"/>
     </row>
-    <row r="131" spans="1:22" ht="24.95" customHeight="1">
+    <row r="131" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C131" s="22" t="s">
         <v>652</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="H131" s="26" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="I131" s="22"/>
       <c r="J131" s="26"/>
       <c r="K131" s="22"/>
       <c r="L131" s="26"/>
       <c r="M131" s="29" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="N131" s="22" t="s">
         <v>138</v>
       </c>
       <c r="O131" s="22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P131" s="29" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="Q131" s="22" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="R131" s="22" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="S131" s="22" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="T131" s="34" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="U131" s="24">
         <v>13725</v>
       </c>
       <c r="V131" s="23"/>
     </row>
-    <row r="132" spans="1:22" ht="24.95" customHeight="1">
+    <row r="132" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
+        <v>986</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>987</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>988</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>989</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>990</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>991</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>992</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="19" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="J132" s="25" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="K132" s="19"/>
       <c r="L132" s="25"/>
@@ -12873,95 +13030,308 @@
         <v>33</v>
       </c>
       <c r="P132" s="30" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="Q132" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="R132" s="46" t="s">
+        <v>993</v>
+      </c>
+      <c r="S132" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="T132" s="32" t="s">
+        <v>1230</v>
+      </c>
+      <c r="U132" s="25" t="s">
+        <v>1116</v>
+      </c>
+      <c r="V132" s="20" t="s">
         <v>995</v>
       </c>
-      <c r="R132" s="19" t="s">
+    </row>
+    <row r="133" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="21" t="s">
         <v>996</v>
       </c>
-      <c r="S132" s="19" t="s">
+      <c r="B133" s="22" t="s">
         <v>997</v>
-      </c>
-      <c r="T132" s="32" t="s">
-        <v>1233</v>
-      </c>
-      <c r="U132" s="25" t="s">
-        <v>1119</v>
-      </c>
-      <c r="V132" s="20" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A133" s="21" t="s">
-        <v>999</v>
-      </c>
-      <c r="B133" s="22" t="s">
-        <v>1000</v>
       </c>
       <c r="C133" s="22" t="s">
         <v>431</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E133" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>999</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H133" s="26" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I133" s="22" t="s">
         <v>1001</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="J133" s="26" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K133" s="22" t="s">
         <v>1002</v>
       </c>
-      <c r="G133" s="22" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H133" s="26" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I133" s="22" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J133" s="26" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K133" s="22" t="s">
-        <v>1005</v>
-      </c>
       <c r="L133" s="26" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="M133" s="29" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="N133" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O133" s="22" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P133" s="29" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="Q133" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R133" s="22" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="S133" s="22" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="T133" s="34" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="U133" s="24">
         <v>13725</v>
       </c>
       <c r="V133" s="23"/>
     </row>
+    <row r="134" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="42" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="C134" s="43" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E134" s="43" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F134" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="G134" s="43" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H134" s="3">
+        <v>1940</v>
+      </c>
+      <c r="M134" s="3">
+        <v>1993</v>
+      </c>
+      <c r="N134" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O134" s="43" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P134" s="40" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q134" s="43" t="s">
+        <v>1330</v>
+      </c>
+      <c r="R134" s="43" t="s">
+        <v>1338</v>
+      </c>
+      <c r="T134" s="43" t="s">
+        <v>1331</v>
+      </c>
+      <c r="U134" s="27">
+        <v>14755</v>
+      </c>
+      <c r="V134" s="43" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="44" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B135" s="45" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C135" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E135" s="45" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F135" s="45" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G135" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="H135" s="3">
+        <v>1928</v>
+      </c>
+      <c r="M135" s="3">
+        <v>1928</v>
+      </c>
+      <c r="N135" s="45"/>
+      <c r="O135" s="45" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Q135" s="45" t="s">
+        <v>803</v>
+      </c>
+      <c r="R135" s="45" t="s">
+        <v>1339</v>
+      </c>
+      <c r="S135" s="33" t="s">
+        <v>1340</v>
+      </c>
+      <c r="T135" s="33" t="s">
+        <v>1341</v>
+      </c>
+      <c r="U135" s="27">
+        <v>873</v>
+      </c>
+      <c r="V135" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="42" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B136" s="43" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C136" s="43" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E136" s="43" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F136" s="43" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G136" s="47" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H136" s="27">
+        <v>13858</v>
+      </c>
+      <c r="M136" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N136" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O136" s="43" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P136" s="40" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q136" s="43" t="s">
+        <v>1358</v>
+      </c>
+      <c r="R136" s="43" t="s">
+        <v>1351</v>
+      </c>
+      <c r="S136" s="43" t="s">
+        <v>1352</v>
+      </c>
+      <c r="T136" s="48" t="s">
+        <v>1353</v>
+      </c>
+      <c r="U136" s="27">
+        <v>13858</v>
+      </c>
+      <c r="V136" s="43" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="44" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B137" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="C137" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E137" s="45" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F137" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="G137" s="45" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H137" s="3">
+        <v>1923</v>
+      </c>
+      <c r="M137" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N137" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O137" s="43" t="s">
+        <v>1328</v>
+      </c>
+      <c r="Q137" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="R137" t="s">
+        <v>1360</v>
+      </c>
+      <c r="S137" t="s">
+        <v>1359</v>
+      </c>
+      <c r="T137" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="U137" s="27">
+        <v>10682</v>
+      </c>
+      <c r="V137" t="s">
+        <v>508</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V133"/>
+  <autoFilter ref="A1:V135"/>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" location="Житие_Святого_Климента"/>
     <hyperlink ref="T3" r:id="rId2"/>
@@ -13191,9 +13561,17 @@
     <hyperlink ref="T133" r:id="rId225"/>
     <hyperlink ref="T128" r:id="rId226"/>
     <hyperlink ref="S128" r:id="rId227"/>
+    <hyperlink ref="S107" r:id="rId228"/>
+    <hyperlink ref="S119" r:id="rId229"/>
+    <hyperlink ref="S125" r:id="rId230"/>
+    <hyperlink ref="S126" r:id="rId231"/>
+    <hyperlink ref="S135" r:id="rId232"/>
+    <hyperlink ref="T135" r:id="rId233"/>
+    <hyperlink ref="T136" r:id="rId234"/>
+    <hyperlink ref="T137" r:id="rId235"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId228"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId236"/>
 </worksheet>
 </file>
 

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="587"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1361">
   <si>
     <t>Фамилия</t>
   </si>
@@ -707,36 +707,6 @@
   </si>
   <si>
     <t>Епископ, мученик.</t>
-  </si>
-  <si>
-    <t>Родился в 1867 году в Триглии (Вифиния) в сембе Николая Калафатиса и Каллиопи Лемониду. Всего в семье было восемь детей – четверо мальчиков и четверо девочек. Из мальчиков выжили первенец Евгений (род. 1865) и Хризостом. Николай Калафатис имел юридическое образование и представлял интересы своих соотечественников в турецких судах. Он активно участвовал в общественной жизни и избирался старостой греческой общины. Каллиопи была благочестивой христианкой и, согласно сохранившемуся преданию, по обету посвятила своего сына Божией Матери.
-С ранних лет Хризостом неоднократно заявлял о своем желании стать священником. Когда пришло время, родители решили помочь сыну осуществить его желание. Продав кое-что из недвижимого имущества, они отправили сына учиться в Богословскую школу на о. Халки, где ему очень повезло с преподавателями. Часть расходов на обучение юноши взял на себя и митрополит Митиленский Константин (Валиадис), который познакомился с ним во время одного из своих посещений школы.
-Хризостом закончил обучение с отличием. Митрополит Константин рукоположил его в диакона и возвел в сан архидиакона Митиленской, а позднее Ефесской митрополии, куда и сам был переведен.
-В 1896 году отец Хризостом занимался вопросом, поднятым католическими монахами обители лазаристов в Смирне. Намереваясь обратить в римо-католицизм православных жителей Ионии, они купили близ Эфеса местечко Капули-Панагия и стали распространять слухи о том, что обнаружили там гробницу Божией Матери. Отец Хризостом вынужден был в серии печатных публикаций с привлечением научной аргументации опровергать данную информацию. После этого лазаристы стали утверждать, что речь шла о доме, в котором жила Божия Матерь.
-18 мая 1897 о. Хризостом был рукоположен в пресвитеры и назначен великий протосингелом Вселенского Патриархата. Занимая эту должность, отец Хризостом был одновременно председателем Смешанной православно-англиканской комиссии. В силу своих обязанностей отцу Хризостому приходилось много проповедовать, благодаря чему он стал необычайно красноречивым проповедником. Монументальным считается его «Слово на погребение» патриарха Александрийского и бывшего патриарха Константинопольского Софрония, духовного отца Константина V, а также «Слово к Распятому», произнесенное в Великую пятницу 1901 года.
-23 мая 1902 года был единогласно избран митрополитом Драмским.
-Митра сщмч. Хризостома Смирнского. Национальный исторический музей, Афины
-Митра сщмч. Хризостома Смирнского. Национальный исторический музей, Афины
-Преосвященный Хризостом построил величественный храм в Драме, митрополичью резиденцию, мужские и женские школы, больницу и спортзал. Он взял на себя заботу о постройке жилья для рабочих, открыл много благотворительных заведений, приютов, домов престарелых и других общественно полезных учреждений. Деятельность митрополита Хризостома, направленная на защиту интересов греков, вызывала раздражение местных турецких властей, которые пожаловались на ревностного архиерея в столицу. В результате в 1907 году владыка Хризостом был отозван с кафедры. Однако после провозглашения в 1908 году Конституции Османской империи, митрополит Хризостом снова вернулся в свою епархию. Тем не менее местной турецкой администрации удалось добиться его повторного удаления с кафедры под предлогом нарушения общественного порядка.
-В 1910 году святитель был переведен на Смирнскую кафедру.
-В Смирне кроме непосредственно духовного окормления православной паствы, он оказывал значительную поддержку спорту. Именно он выделил для исторического Всеионического гимнастического общества Смирны место, где позднее был построен замечательный стадион, отказавшись от 100 тыс. золотых фунтов, предлагавшихся ему в 1911 году английской железнодорожной компанией за покупку этого места. Митрополит Хризостом построил начальную школу плавания для детей школьного возраста. В течение всего трудного периода Балканских войн (1912–1913) и Малоазийской катастрофы святитель оставался в Смирне, отказываясь покидать город и паству.
-В дни Малоазийской катастрофы, нависшей над греческим населением Малой Азии в результате поражения во второй греко-турецкой войне (1919–1922) 21 августа 1922 года, святитель оправил письмо одному из главных инициаторов начала военных действий Элефверию Венизелосу, в котором выразил свою обеспокоенность будущим и одновременно высказал неудовольствие сложившейся ситуацией. Преосвященный Хризостом писал, в частности, что малоазийские греки, Греция и вся греческая нация нисходят в ад, из которого никто не в силах будет их вывести и спасти. Ответственными за эту «невообразимую катастрофу» являются не только политики и личные враги Венизелоса, но и он сам, направивший в качестве губернатора оккупированной области жестокого и деспотичного человека, законченного эгоиста (речь идет об Аристидисе Стергиадисе). Кроме того, Венизелос несет ответственность за объявление в самый неподходящий момент, накануне вхождения в Константинополь, парламентских выборов, а затем оставление города греческими войсками во исполнение условий убийственного Севрского договора.
-Мученическая кончина
-27 августа 1922 года в Смирне впервые появляются отряды турецких нерегулярных войск под командованием Киора (Одноглазого) Бехливана. Город захлестнула волна террора. Народ стал собираться у своего митрополита.
-В тот же день итальянский католический священник сообщил представителям Франции о смертельной опасности, которой подвергался митрополит Хризостом. Спустя короткое время в резиденцию святителя прибыл французский патруль, состоявший из 20 человек, с тем, чтобы помочь владыке Хризостому бежать. Французы (до них подобную попытку предпринимали англичане) просили митрополита поехать с ними либо в консульство, либо в католическую церковь Святого Сердца. Но он отказался, подчеркнув, что долг «доброго пастыря» обязывает его оставаться с паствой.
-В тот же день в Смирну прибыл и заклятый враг святителя – генерал Нуредин-паша. Первое, что предпринял «ионийский мясник», это издал указ, призывавший сдаться всех греков и армян в возрасте от 18 до 45 лет. Затем Нуредин решил унизить и уничтожить несгибаемого владыку. Вечером 27 августа Хризостому вместе с двумя старейшинами было приказано явиться к Нуредину. После литургии святитель в полном спокойствии простился с народом и отправился вместе со своим помощником Фомой Вульциосом. Начальник гарнизона принял митрополита Хризостома и зачитал приготовленный приказ к населению. На автомашине, предоставленной американскими дипломатами, они вернулись в митрополию. Архиерей переписал и объявил народу приказ начальника гарнизона: сдать все оружие и оставаться по домам.
-Сщмч. Хризостом Смирнский
-Сщмч. Хризостом Смирнский
-В восемь вечера прибыл тот же самый полицейский с двумя вооруженными солдатами и забрали владыку с двумя старейшинами. Как только Нуредин увидел святителя, то сказал: «Это ты тот поп, который оскорбляет турок? Свинья, вот увидишь, какое наказание я готовлю тебе. Ты вместе с твоими греками – народ лакеев, и лакеи будут тебя судить». Нуредин вытащил объемистую папку, на которой было написано «Дело Хризостома». Он открыл ее и показал все вырезки из газет с речами Хризостома, после чего спросил:
-– Это твои речи?
-– Да, – ответил владыка с достоинством человека, знавшего, что означают вопросы турецкого генерала.
-Тогда Нуредин «приказал взять святителя и отдать народу для удовлетворения жажды мести», владыку отдали на растерзание разъяренной толпе, состоявшей из 1500 турок. Нуредин обратился к собравшимся с такими словами: «Если он поступал с вами хорошо – отплатите ему за это, а если плохо – то и вы поступайте с ним так же! Я отдаю вам эту свинью». В одном из помещений суда собрались отбросы общества, лакеи, преступные элементы из турок, для того чтобы осудить святителя. Едва они завидели митрополита Хризостома, как стали тотчас же поносить его, дергать за бороду и рясу, плевать в него. Смирнские старейшины, повинуясь долгу, попытались было защитить своего святителя, но турки связали их, чтобы те видели мучения и издевательства, которым подвергают их духовного вождя. Турецкий преступный суд вынес решение: «Да будет распят… Да будет распят, подобно их Христу».
-Нуредин приказал капитану-резервисту турецкой армии Рустену Беи Вашицу привести приговор народного суда в исполнение. Но когда Вашиц стал спускаться по лестнице вместе с тремя приговоренными к смерти – Хризостомом и двумя старейшинами, то не успел он выйти во двор, как на лестничной площадке неожиданно появился разъяренный Нуредин, который вытащил свой револьвер и выстрелил в митрополита. Однако бешенство его было настолько велико, что рука его дрожала от гнева, и вместо того, чтобы попасть в Хризостома, пуля смертельно ранила старосту Климаноглу.
-При звуке выстрелов и при виде Хризостома, выходящего во двор, толпа завелась. Взбешенные турки схватили святителя. Они набросились на него, стали бить кулаками, металлическими прутьями, палками, затем потащили в парикмахерскую, где заставили надеть белую рубаху. Потом они стали вырывать ему бороду, потащили в турецкий квартал, издеваясь и плюя на него по дороге. Там они приготовили для него медленную и мучительную смерть, нанеся ему ножевые ранения во многие части тела, выколов глаза, отрезав уши и нос. Всего в крови, молчащего, преисполненного достоинства, не умолявшего о пощаде и не склонившегося перед врагом, толпа таскала его по земле, а он в продолжение этих мучений повторял: «Господи, помилуй». Время от времени, когда у него получалось, он как-то поднимал правую руку и благословлял своих мучителей. Один из мучителей узнал благословляющий жест, взбесился и большим ножом отсек владыке обе руки. Один из критских турок (греки, обращенные в ислам), участвовавших в издевательстве над владыкой, не выдержав, выстрелил в него, положив тем самым конец мучениям. Святитель испустил дух со словами: «Боже мой!».
-Однако Вашиц должен был выполнить данный ему приказ. Он повесил бездыханное тело, этот истерзанный труп, в районе Трикилика, близ железнодорожной станции Смирны. Трагическим был конец и двух старост, сопровождавших святителя. Георгий Климаноглу был повешен, а Николая Цурукцоглу, привязав за ноги к автомобилю, возили по центру Смирны. Головой он бился о выложенные булыжником мостовые.
-Очевидцами мученической смерти святителя были 20 французских моряков, реакцию которых описал французский писатель Рене Пуо. Французский патруль наблюдал… Французские моряки «были вне себя». Без всякого преувеличения, они дрожали от гнева и решили вмешаться. Однако начальствовавший над ними офицер, следуя данному ему приказу, с пистолетом в руке помешал им что-либо предпринять…
-Трагическая смерть настигла большое число выдающихся греков Смирны, представителей греческой общины, священников, учителей и старейшин, которые отказались бежать и пали вместе с беззащитным безоружным населением. Вместе с Хризостомом турки уничтожили 347 священников Смирнской епархии из общего числа 459, а также митрополитов Мосхонисийского Амвросия, Кидонийского Григория – погребенного заживо, Иконийского Зилона – зарезанного. Из 46 церквей Смирны сохранилось только три. Никому не удалось узнать, что осталось от растерзанного тела святителя Хризостома. По слухам, тем не менее, тело было похоронено на участке земли, принадлежавшем спортивному обществу Аполлона, а по другой версии – близ одной реки…
-В 1992 году по инициативе афинского Союза смирнийцев Священный Синод Элладской Церкви причислил митрополита Хризостома к лику святых. Указом 2556/5-7 от 1993 года Священный Синод Константинопольской Православной Церкви установил празднование Новомучеников Малоазийской катастрофы в воскресенье предшествующее Крестовоздвижению и поставил имя священномученика Хризостома во главе этого сонма святых.</t>
   </si>
   <si>
     <t>https://drevo-info.ru/articles/21922.html</t>
@@ -5097,9 +5067,6 @@
     <t>Харьков</t>
   </si>
   <si>
-    <t>Новомученник</t>
-  </si>
-  <si>
     <t>Феофанович</t>
   </si>
   <si>
@@ -5163,9 +5130,6 @@
     <t>с. Бутово</t>
   </si>
   <si>
-    <t>6.10</t>
-  </si>
-  <si>
     <t>Родился 16 сентября 1973. В 1901 принял монашенский постриг. Был возведен в сан иеромонаха. С 1915 по 1927 проживал в Донской обители. В 1926 получил сан архимандрита. Был расстрелен 9 декабря в Бутово под Москвой</t>
   </si>
   <si>
@@ -5197,12 +5161,45 @@
   </si>
   <si>
     <t>https://commons.wikimedia.org/wiki/File:%D0%9C%D0%B8%D1%85%D0%B0%D0%B8%D0%BB_(%D0%95%D1%80%D0%BC%D0%B0%D0%BA%D0%BE%D0%B2).jpg?uselang=ru</t>
+  </si>
+  <si>
+    <t>06.10</t>
+  </si>
+  <si>
+    <t>Родился в 1867 году в Триглии (Вифиния) в семье Николая Калафатиса и Каллиопи Лемониду. Всего в семье было восемь детей – четверо мальчиков и четверо девочек. Из мальчиков выжили первенец Евгений (род. 1865) и Хризостом. Николай Калафатис имел юридическое образование и представлял интересы своих соотечественников в турецких судах. Он активно участвовал в общественной жизни и избирался старостой греческой общины. Каллиопи была благочестивой христианкой и, согласно сохранившемуся преданию, по обету посвятила своего сына Божией Матери.
+С ранних лет Хризостом неоднократно заявлял о своем желании стать священником. Когда пришло время, родители решили помочь сыну осуществить его желание. Продав кое-что из недвижимого имущества, они отправили сына учиться в Богословскую школу на о. Халки, где ему очень повезло с преподавателями. Часть расходов на обучение юноши взял на себя и митрополит Митиленский Константин (Валиадис), который познакомился с ним во время одного из своих посещений школы.
+Хризостом закончил обучение с отличием. Митрополит Константин рукоположил его в диакона и возвел в сан архидиакона Митиленской, а позднее Ефесской митрополии, куда и сам был переведен.
+В 1896 году отец Хризостом занимался вопросом, поднятым католическими монахами обители лазаристов в Смирне. Намереваясь обратить в римо-католицизм православных жителей Ионии, они купили близ Эфеса местечко Капули-Панагия и стали распространять слухи о том, что обнаружили там гробницу Божией Матери. Отец Хризостом вынужден был в серии печатных публикаций с привлечением научной аргументации опровергать данную информацию. После этого лазаристы стали утверждать, что речь шла о доме, в котором жила Божия Матерь.
+18 мая 1897 о. Хризостом был рукоположен в пресвитеры и назначен великий протосингелом Вселенского Патриархата. Занимая эту должность, отец Хризостом был одновременно председателем Смешанной православно-англиканской комиссии. В силу своих обязанностей отцу Хризостому приходилось много проповедовать, благодаря чему он стал необычайно красноречивым проповедником. Монументальным считается его «Слово на погребение» патриарха Александрийского и бывшего патриарха Константинопольского Софрония, духовного отца Константина V, а также «Слово к Распятому», произнесенное в Великую пятницу 1901 года.
+23 мая 1902 года был единогласно избран митрополитом Драмским.
+Митра сщмч. Хризостома Смирнского. Национальный исторический музей, Афины
+Митра сщмч. Хризостома Смирнского. Национальный исторический музей, Афины
+Преосвященный Хризостом построил величественный храм в Драме, митрополичью резиденцию, мужские и женские школы, больницу и спортзал. Он взял на себя заботу о постройке жилья для рабочих, открыл много благотворительных заведений, приютов, домов престарелых и других общественно полезных учреждений. Деятельность митрополита Хризостома, направленная на защиту интересов греков, вызывала раздражение местных турецких властей, которые пожаловались на ревностного архиерея в столицу. В результате в 1907 году владыка Хризостом был отозван с кафедры. Однако после провозглашения в 1908 году Конституции Османской империи, митрополит Хризостом снова вернулся в свою епархию. Тем не менее местной турецкой администрации удалось добиться его повторного удаления с кафедры под предлогом нарушения общественного порядка.
+В 1910 году святитель был переведен на Смирнскую кафедру.
+В Смирне кроме непосредственно духовного окормления православной паствы, он оказывал значительную поддержку спорту. Именно он выделил для исторического Всеионического гимнастического общества Смирны место, где позднее был построен замечательный стадион, отказавшись от 100 тыс. золотых фунтов, предлагавшихся ему в 1911 году английской железнодорожной компанией за покупку этого места. Митрополит Хризостом построил начальную школу плавания для детей школьного возраста. В течение всего трудного периода Балканских войн (1912–1913) и Малоазийской катастрофы святитель оставался в Смирне, отказываясь покидать город и паству.
+В дни Малоазийской катастрофы, нависшей над греческим населением Малой Азии в результате поражения во второй греко-турецкой войне (1919–1922) 21 августа 1922 года, святитель оправил письмо одному из главных инициаторов начала военных действий Элефверию Венизелосу, в котором выразил свою обеспокоенность будущим и одновременно высказал неудовольствие сложившейся ситуацией. Преосвященный Хризостом писал, в частности, что малоазийские греки, Греция и вся греческая нация нисходят в ад, из которого никто не в силах будет их вывести и спасти. Ответственными за эту «невообразимую катастрофу» являются не только политики и личные враги Венизелоса, но и он сам, направивший в качестве губернатора оккупированной области жестокого и деспотичного человека, законченного эгоиста (речь идет об Аристидисе Стергиадисе). Кроме того, Венизелос несет ответственность за объявление в самый неподходящий момент, накануне вхождения в Константинополь, парламентских выборов, а затем оставление города греческими войсками во исполнение условий убийственного Севрского договора.
+Мученическая кончина
+27 августа 1922 года в Смирне впервые появляются отряды турецких нерегулярных войск под командованием Киора (Одноглазого) Бехливана. Город захлестнула волна террора. Народ стал собираться у своего митрополита.
+В тот же день итальянский католический священник сообщил представителям Франции о смертельной опасности, которой подвергался митрополит Хризостом. Спустя короткое время в резиденцию святителя прибыл французский патруль, состоявший из 20 человек, с тем, чтобы помочь владыке Хризостому бежать. Французы (до них подобную попытку предпринимали англичане) просили митрополита поехать с ними либо в консульство, либо в католическую церковь Святого Сердца. Но он отказался, подчеркнув, что долг «доброго пастыря» обязывает его оставаться с паствой.
+В тот же день в Смирну прибыл и заклятый враг святителя – генерал Нуредин-паша. Первое, что предпринял «ионийский мясник», это издал указ, призывавший сдаться всех греков и армян в возрасте от 18 до 45 лет. Затем Нуредин решил унизить и уничтожить несгибаемого владыку. Вечером 27 августа Хризостому вместе с двумя старейшинами было приказано явиться к Нуредину. После литургии святитель в полном спокойствии простился с народом и отправился вместе со своим помощником Фомой Вульциосом. Начальник гарнизона принял митрополита Хризостома и зачитал приготовленный приказ к населению. На автомашине, предоставленной американскими дипломатами, они вернулись в митрополию. Архиерей переписал и объявил народу приказ начальника гарнизона: сдать все оружие и оставаться по домам.
+Сщмч. Хризостом Смирнский
+Сщмч. Хризостом Смирнский
+В восемь вечера прибыл тот же самый полицейский с двумя вооруженными солдатами и забрали владыку с двумя старейшинами. Как только Нуредин увидел святителя, то сказал: «Это ты тот поп, который оскорбляет турок? Свинья, вот увидишь, какое наказание я готовлю тебе. Ты вместе с твоими греками – народ лакеев, и лакеи будут тебя судить». Нуредин вытащил объемистую папку, на которой было написано «Дело Хризостома». Он открыл ее и показал все вырезки из газет с речами Хризостома, после чего спросил:
+– Это твои речи?
+– Да, – ответил владыка с достоинством человека, знавшего, что означают вопросы турецкого генерала.
+Тогда Нуредин «приказал взять святителя и отдать народу для удовлетворения жажды мести», владыку отдали на растерзание разъяренной толпе, состоявшей из 1500 турок. Нуредин обратился к собравшимся с такими словами: «Если он поступал с вами хорошо – отплатите ему за это, а если плохо – то и вы поступайте с ним так же! Я отдаю вам эту свинью». В одном из помещений суда собрались отбросы общества, лакеи, преступные элементы из турок, для того чтобы осудить святителя. Едва они завидели митрополита Хризостома, как стали тотчас же поносить его, дергать за бороду и рясу, плевать в него. Смирнские старейшины, повинуясь долгу, попытались было защитить своего святителя, но турки связали их, чтобы те видели мучения и издевательства, которым подвергают их духовного вождя. Турецкий преступный суд вынес решение: «Да будет распят… Да будет распят, подобно их Христу».
+Нуредин приказал капитану-резервисту турецкой армии Рустену Беи Вашицу привести приговор народного суда в исполнение. Но когда Вашиц стал спускаться по лестнице вместе с тремя приговоренными к смерти – Хризостомом и двумя старейшинами, то не успел он выйти во двор, как на лестничной площадке неожиданно появился разъяренный Нуредин, который вытащил свой револьвер и выстрелил в митрополита. Однако бешенство его было настолько велико, что рука его дрожала от гнева, и вместо того, чтобы попасть в Хризостома, пуля смертельно ранила старосту Климаноглу.
+При звуке выстрелов и при виде Хризостома, выходящего во двор, толпа завелась. Взбешенные турки схватили святителя. Они набросились на него, стали бить кулаками, металлическими прутьями, палками, затем потащили в парикмахерскую, где заставили надеть белую рубаху. Потом они стали вырывать ему бороду, потащили в турецкий квартал, издеваясь и плюя на него по дороге. Там они приготовили для него медленную и мучительную смерть, нанеся ему ножевые ранения во многие части тела, выколов глаза, отрезав уши и нос. Всего в крови, молчащего, преисполненного достоинства, не умолявшего о пощаде и не склонившегося перед врагом, толпа таскала его по земле, а он в продолжение этих мучений повторял: «Господи, помилуй». Время от времени, когда у него получалось, он как-то поднимал правую руку и благословлял своих мучителей. Один из мучителей узнал благословляющий жест, взбесился и большим ножом отсек владыке обе руки. Один из критских турок (греки, обращенные в ислам), участвовавших в издевательстве над владыкой, не выдержав, выстрелил в него, положив тем самым конец мучениям. Святитель испустил дух со словами: «Боже мой!».
+Однако Вашиц должен был выполнить данный ему приказ. Он повесил бездыханное тело, этот истерзанный труп, в районе Трикилика, близ железнодорожной станции Смирны. Трагическим был конец и двух старост, сопровождавших святителя. Георгий Климаноглу был повешен, а Николая Цурукцоглу, привязав за ноги к автомобилю, возили по центру Смирны. Головой он бился о выложенные булыжником мостовые.
+Очевидцами мученической смерти святителя были 20 французских моряков, реакцию которых описал французский писатель Рене Пуо. Французский патруль наблюдал… Французские моряки «были вне себя». Без всякого преувеличения, они дрожали от гнева и решили вмешаться. Однако начальствовавший над ними офицер, следуя данному ему приказу, с пистолетом в руке помешал им что-либо предпринять…
+Трагическая смерть настигла большое число выдающихся греков Смирны, представителей греческой общины, священников, учителей и старейшин, которые отказались бежать и пали вместе с беззащитным безоружным населением. Вместе с Хризостомом турки уничтожили 347 священников Смирнской епархии из общего числа 459, а также митрополитов Мосхонисийского Амвросия, Кидонийского Григория – погребенного заживо, Иконийского Зилона – зарезанного. Из 46 церквей Смирны сохранилось только три. Никому не удалось узнать, что осталось от растерзанного тела святителя Хризостома. По слухам, тем не менее, тело было похоронено на участке земли, принадлежавшем спортивному обществу Аполлона, а по другой версии – близ одной реки…
+В 1992 году по инициативе афинского Союза смирнийцев Священный Синод Элладской Церкви причислил митрополита Хризостома к лику святых. Указом 2556/5-7 от 1993 года Священный Синод Константинопольской Православной Церкви установил празднование Новомучеников Малоазийской катастрофы в воскресенье предшествующее Крестовоздвижению и поставил имя священномученика Хризостома во главе этого сонма святых.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5520,7 +5517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5555,7 +5552,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5732,7 +5729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5742,31 +5739,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="20.6640625" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="5" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="13" width="13" style="3" customWidth="1"/>
-    <col min="14" max="15" width="20.6640625" customWidth="1"/>
-    <col min="16" max="16" width="41.5546875" style="40" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="41.88671875" customWidth="1"/>
-    <col min="19" max="20" width="20.6640625" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" style="40" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="41.85546875" customWidth="1"/>
+    <col min="19" max="20" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5810,7 +5807,7 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>10</v>
@@ -5834,12 +5831,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -5848,13 +5845,13 @@
         <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -5863,7 +5860,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -5875,13 +5872,13 @@
         <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="U2" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -5889,34 +5886,34 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -5928,13 +5925,13 @@
         <v>28</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="U3" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -5948,7 +5945,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="N4" t="s">
         <v>33</v>
@@ -5957,7 +5954,7 @@
         <v>33</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -5969,13 +5966,13 @@
         <v>34</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -5989,13 +5986,13 @@
         <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -6016,13 +6013,13 @@
         <v>41</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="U5" s="3">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -6036,7 +6033,7 @@
         <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
@@ -6057,21 +6054,21 @@
         <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
@@ -6080,13 +6077,13 @@
         <v>57</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="N7" t="s">
         <v>53</v>
@@ -6095,7 +6092,7 @@
         <v>53</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="Q7" t="s">
         <v>56</v>
@@ -6107,13 +6104,13 @@
         <v>54</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="U7" s="3">
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -6136,7 +6133,7 @@
         <v>53</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -6148,13 +6145,13 @@
         <v>60</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="U8" s="3">
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>62</v>
       </c>
@@ -6168,7 +6165,7 @@
         <v>65</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N9" t="s">
         <v>53</v>
@@ -6177,7 +6174,7 @@
         <v>53</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
@@ -6189,13 +6186,13 @@
         <v>66</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="U9" s="3">
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -6239,13 +6236,13 @@
         <v>69</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="U10" s="3">
         <v>826</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -6259,7 +6256,7 @@
         <v>77</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M11" s="3">
         <v>1144</v>
@@ -6268,10 +6265,10 @@
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Q11" t="s">
         <v>74</v>
@@ -6283,16 +6280,16 @@
         <v>75</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -6300,13 +6297,13 @@
         <v>949</v>
       </c>
       <c r="E12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G12" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N12" t="s">
         <v>53</v>
@@ -6315,7 +6312,7 @@
         <v>53</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Q12" t="s">
         <v>56</v>
@@ -6327,13 +6324,13 @@
         <v>80</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="U12" s="3">
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -6347,16 +6344,16 @@
         <v>84</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I13" t="s">
         <v>84</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
@@ -6365,7 +6362,7 @@
         <v>26</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Q13" t="s">
         <v>85</v>
@@ -6377,16 +6374,16 @@
         <v>87</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="V13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -6394,16 +6391,16 @@
         <v>1073</v>
       </c>
       <c r="E14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G14" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N14" t="s">
         <v>90</v>
@@ -6412,7 +6409,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Q14" t="s">
         <v>91</v>
@@ -6424,16 +6421,16 @@
         <v>93</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="U14" s="3">
         <v>1125</v>
       </c>
       <c r="V14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>94</v>
       </c>
@@ -6441,22 +6438,22 @@
         <v>1114</v>
       </c>
       <c r="E15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I15" t="s">
         <v>96</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="M15" s="3">
         <v>1204</v>
@@ -6468,7 +6465,7 @@
         <v>53</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Q15" t="s">
         <v>97</v>
@@ -6480,7 +6477,7 @@
         <v>99</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="U15" s="3">
         <v>1200</v>
@@ -6489,7 +6486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>101</v>
       </c>
@@ -6497,13 +6494,13 @@
         <v>1166</v>
       </c>
       <c r="E16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G16" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N16" t="s">
         <v>102</v>
@@ -6512,7 +6509,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="40" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q16" t="s">
         <v>103</v>
@@ -6524,13 +6521,13 @@
         <v>105</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="U16" s="3">
         <v>1213</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -6541,7 +6538,7 @@
         <v>1169</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>109</v>
@@ -6550,17 +6547,17 @@
         <v>110</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>39</v>
@@ -6569,7 +6566,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="41" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>111</v>
@@ -6581,13 +6578,13 @@
         <v>113</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="U17" s="7">
         <v>1236</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -6604,7 +6601,7 @@
         <v>96</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M18" s="3">
         <v>1368</v>
@@ -6616,7 +6613,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Q18" t="s">
         <v>116</v>
@@ -6628,13 +6625,13 @@
         <v>118</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="V18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>119</v>
       </c>
@@ -6642,23 +6639,23 @@
         <v>1268</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>121</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>122</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>53</v>
@@ -6667,7 +6664,7 @@
         <v>53</v>
       </c>
       <c r="P19" s="41" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>123</v>
@@ -6679,13 +6676,13 @@
         <v>125</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="U19" s="7">
         <v>1346</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -6705,19 +6702,19 @@
         <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M20" s="3">
         <v>1734</v>
@@ -6729,7 +6726,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="Q20" t="s">
         <v>129</v>
@@ -6741,7 +6738,7 @@
         <v>131</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="U20" s="3">
         <v>1444</v>
@@ -6750,21 +6747,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J21" s="7"/>
       <c r="L21" s="7"/>
@@ -6778,7 +6775,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>133</v>
@@ -6796,7 +6793,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -6804,13 +6801,13 @@
         <v>1510</v>
       </c>
       <c r="E22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G22" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="M22" s="3">
         <v>1572</v>
@@ -6819,10 +6816,10 @@
         <v>138</v>
       </c>
       <c r="O22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P22" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Q22" t="s">
         <v>139</v>
@@ -6834,13 +6831,13 @@
         <v>141</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="U22" s="3">
         <v>1568</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>142</v>
       </c>
@@ -6851,7 +6848,7 @@
         <v>1547</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>144</v>
@@ -6860,13 +6857,13 @@
         <v>143</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>143</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7">
@@ -6879,7 +6876,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="41" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>23</v>
@@ -6897,10 +6894,10 @@
         <v>1622</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>149</v>
       </c>
@@ -6908,31 +6905,31 @@
         <v>1587</v>
       </c>
       <c r="E24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G24" t="s">
         <v>89</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="N24" t="s">
         <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q24" t="s">
         <v>150</v>
@@ -6944,27 +6941,27 @@
         <v>152</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="U24" s="3">
         <v>1622</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>153</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
@@ -6978,7 +6975,7 @@
         <v>53</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>154</v>
@@ -6990,7 +6987,7 @@
         <v>156</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="U25" s="7">
         <v>1651</v>
@@ -6999,7 +6996,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>157</v>
       </c>
@@ -7007,10 +7004,10 @@
         <v>1775</v>
       </c>
       <c r="E26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H26" s="3">
         <v>1795</v>
@@ -7022,10 +7019,10 @@
         <v>158</v>
       </c>
       <c r="O26" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>159</v>
@@ -7034,16 +7031,16 @@
         <v>160</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="V26" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>161</v>
       </c>
@@ -7051,7 +7048,7 @@
         <v>1714</v>
       </c>
       <c r="E27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F27" t="s">
         <v>162</v>
@@ -7060,13 +7057,13 @@
         <v>96</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I27" t="s">
         <v>163</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M27" s="3">
         <v>1961</v>
@@ -7078,7 +7075,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q27" t="s">
         <v>165</v>
@@ -7090,16 +7087,16 @@
         <v>167</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="V27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>169</v>
       </c>
@@ -7110,7 +7107,7 @@
         <v>1745</v>
       </c>
       <c r="E28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F28" t="s">
         <v>115</v>
@@ -7119,7 +7116,7 @@
         <v>42</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M28" s="3">
         <v>1921</v>
@@ -7128,10 +7125,10 @@
         <v>171</v>
       </c>
       <c r="O28" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q28" t="s">
         <v>172</v>
@@ -7143,16 +7140,16 @@
         <v>174</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -7163,7 +7160,7 @@
         <v>1739</v>
       </c>
       <c r="E29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F29" t="s">
         <v>177</v>
@@ -7172,13 +7169,13 @@
         <v>178</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M29" s="27">
         <v>22646</v>
@@ -7190,7 +7187,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Q29" t="s">
         <v>179</v>
@@ -7202,16 +7199,16 @@
         <v>181</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V29" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -7219,10 +7216,10 @@
         <v>182</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F30" t="s">
         <v>184</v>
@@ -7231,7 +7228,7 @@
         <v>120</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M30" s="27">
         <v>33912</v>
@@ -7240,48 +7237,48 @@
         <v>171</v>
       </c>
       <c r="O30" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P30" s="40" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Q30" t="s">
         <v>185</v>
       </c>
       <c r="R30" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="T30" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="U30" s="27">
         <v>8275</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
         <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
       </c>
       <c r="D31" s="27">
         <v>8973</v>
       </c>
       <c r="E31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" t="s">
         <v>96</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M31" s="27">
         <v>42017</v>
@@ -7293,35 +7290,35 @@
         <v>53</v>
       </c>
       <c r="P31" s="40" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="Q31" t="s">
         <v>56</v>
       </c>
       <c r="R31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="U31" s="27">
         <v>34527</v>
       </c>
       <c r="V31" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>43</v>
@@ -7331,67 +7328,67 @@
         <v>43</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P32" s="41" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q32" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="R32" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="S32" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="S32" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="T32" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="U32" s="7">
         <v>96</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="7"/>
@@ -7399,58 +7396,58 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P33" s="41" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R33" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="S33" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="S33" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="T33" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="7">
         <v>213</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="7"/>
       <c r="K34" s="4"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>39</v>
@@ -7459,35 +7456,35 @@
         <v>33</v>
       </c>
       <c r="P34" s="41" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="S34" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="S34" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="T34" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="U34" s="7">
         <v>270</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>18</v>
@@ -7500,7 +7497,7 @@
         <v>230</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="4"/>
@@ -7510,22 +7507,22 @@
         <v>73</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P35" s="41" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>73</v>
       </c>
       <c r="R35" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="S35" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="S35" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="T35" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="U35" s="7">
         <v>230</v>
@@ -7534,24 +7531,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="8">
         <v>329</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="7"/>
@@ -7565,51 +7562,51 @@
         <v>33</v>
       </c>
       <c r="P36" s="41" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="R36" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="S36" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="S36" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="T36" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U36" s="7">
         <v>389</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="7"/>
@@ -7621,57 +7618,57 @@
         <v>33</v>
       </c>
       <c r="P37" s="41" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R37" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="S37" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S37" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="T37" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="8">
         <v>376</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="4" t="s">
@@ -7681,35 +7678,35 @@
         <v>33</v>
       </c>
       <c r="P38" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q38" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="R38" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="S38" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="S38" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="T38" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>42</v>
@@ -7719,7 +7716,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="7"/>
@@ -7727,51 +7724,51 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P39" s="41" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>103</v>
       </c>
       <c r="R39" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="S39" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="S39" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="T39" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7">
         <v>483</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="7"/>
@@ -7779,37 +7776,37 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="41" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Q40" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="R40" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="S40" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="S40" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="T40" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7">
@@ -7823,7 +7820,7 @@
         <v>18</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="7"/>
@@ -7837,31 +7834,31 @@
         <v>33</v>
       </c>
       <c r="P41" s="41" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q41" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="R41" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="S41" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="S41" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="T41" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="7">
@@ -7872,22 +7869,22 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>32</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="4" t="s">
@@ -7897,31 +7894,31 @@
         <v>53</v>
       </c>
       <c r="P42" s="41" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q42" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R42" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="S42" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="S42" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="T42" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V42" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="7">
@@ -7932,22 +7929,22 @@
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H43" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>1077</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>1078</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="4" t="s">
@@ -7957,31 +7954,31 @@
         <v>33</v>
       </c>
       <c r="P43" s="41" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R43" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="S43" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="S43" s="6" t="s">
-        <v>242</v>
-      </c>
       <c r="T43" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="U43" s="7">
         <v>638</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="7">
@@ -7995,13 +7992,13 @@
         <v>42</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="7"/>
@@ -8013,19 +8010,19 @@
         <v>33</v>
       </c>
       <c r="P44" s="41" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="U44" s="7">
         <v>806</v>
@@ -8034,24 +8031,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7">
         <v>710</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="7"/>
@@ -8061,113 +8058,113 @@
         <v>870</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>53</v>
       </c>
       <c r="P45" s="41" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q45" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="R45" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="R45" s="5" t="s">
+      <c r="S45" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="S45" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="T45" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="U45" s="7">
         <v>779</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7">
         <v>778</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="M46" s="7"/>
       <c r="N46" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P46" s="41" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Q46" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="O46" s="4" t="s">
-        <v>1233</v>
-      </c>
-      <c r="P46" s="41" t="s">
-        <v>1269</v>
-      </c>
-      <c r="Q46" s="4" t="s">
+      <c r="R46" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="S46" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="S46" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="T46" s="6" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="U46" s="7">
         <v>840</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="7">
         <v>907</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="7"/>
@@ -8175,36 +8172,36 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P47" s="41" t="s">
+        <v>1269</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="O47" s="4" t="s">
-        <v>1233</v>
-      </c>
-      <c r="P47" s="41" t="s">
-        <v>1270</v>
-      </c>
-      <c r="Q47" s="4" t="s">
+      <c r="R47" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="S47" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="S47" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="T47" s="6" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="U47" s="7">
         <v>935</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>127</v>
@@ -8214,16 +8211,16 @@
         <v>894</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="7"/>
@@ -8237,59 +8234,59 @@
         <v>53</v>
       </c>
       <c r="P48" s="41" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q48" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R48" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="S48" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="S48" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="T48" s="6" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="U48" s="7">
         <v>962</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7">
         <v>1115</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M49" s="7"/>
       <c r="N49" s="4" t="s">
@@ -8299,19 +8296,19 @@
         <v>33</v>
       </c>
       <c r="P49" s="41" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q49" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="R49" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="R49" s="5" t="s">
+      <c r="S49" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="S49" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="T49" s="6" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="U49" s="7">
         <v>1186</v>
@@ -8320,17 +8317,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="7">
         <v>1259</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -8341,50 +8338,50 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P50" s="41" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>150</v>
       </c>
       <c r="R50" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S50" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="S50" s="6" t="s">
+      <c r="T50" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="T50" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="U50" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="V50" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="7">
         <v>1329</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H51" s="7">
         <v>1389</v>
@@ -8395,48 +8392,48 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P51" s="41" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q51" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="R51" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="R51" s="5" t="s">
+      <c r="S51" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="S51" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="T51" s="6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="U51" s="7">
         <v>1389</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="7">
         <v>1300</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H52" s="7">
         <v>1330</v>
@@ -8447,36 +8444,36 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P52" s="41" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Q52" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="O52" s="4" t="s">
-        <v>1233</v>
-      </c>
-      <c r="P52" s="41" t="s">
-        <v>1273</v>
-      </c>
-      <c r="Q52" s="4" t="s">
+      <c r="R52" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="R52" s="5" t="s">
+      <c r="S52" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="S52" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="T52" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="U52" s="7">
         <v>1330</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>161</v>
@@ -8486,13 +8483,13 @@
         <v>1384</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="H53" s="7">
         <v>1425</v>
@@ -8508,45 +8505,45 @@
         <v>138</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P53" s="41" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q53" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="R53" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="R53" s="5" t="s">
+      <c r="S53" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="S53" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="T53" s="6" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="U53" s="7">
         <v>1425</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="7">
         <v>1497</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H54" s="7">
         <v>1515</v>
@@ -8560,45 +8557,45 @@
         <v>26</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P54" s="41" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R54" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="S54" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="S54" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="T54" s="6" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="U54" s="7">
         <v>1515</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="7">
         <v>1510</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H55" s="7">
         <v>1555</v>
@@ -8609,52 +8606,52 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P55" s="41" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q55" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="R55" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="R55" s="5" t="s">
+      <c r="S55" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="S55" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="T55" s="6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="U55" s="7">
         <v>1555</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="7">
         <v>1572</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="7"/>
       <c r="I56" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J56" s="7">
         <v>1602</v>
@@ -8663,7 +8660,7 @@
         <v>42</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M56" s="10">
         <v>40092</v>
@@ -8672,22 +8669,22 @@
         <v>171</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P56" s="41" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q56" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="R56" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="S56" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="S56" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="T56" s="6" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="U56" s="7">
         <v>1638</v>
@@ -8696,21 +8693,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="7">
         <v>1610</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H57" s="7">
         <v>1660</v>
@@ -8720,60 +8717,60 @@
       <c r="K57" s="4"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P57" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q57" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="R57" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="R57" s="5" t="s">
+      <c r="S57" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="S57" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="T57" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="U57" s="7">
         <v>1660</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="7">
         <v>1722</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>178</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="7"/>
@@ -8787,45 +8784,45 @@
         <v>53</v>
       </c>
       <c r="P58" s="41" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q58" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="R58" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="R58" s="5" t="s">
+      <c r="S58" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="S58" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="T58" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="U58" s="7">
         <v>1773</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7">
         <v>1690</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -8835,63 +8832,63 @@
         <v>1962</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P59" s="41" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q59" s="7"/>
       <c r="R59" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="S59" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="S59" s="12" t="s">
+      <c r="T59" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="V59" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="T59" s="12" t="s">
-        <v>1168</v>
-      </c>
-      <c r="U59" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="V59" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H60" s="7">
         <v>1889</v>
       </c>
       <c r="I60" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="K60" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="L60" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M60" s="7">
         <v>2000</v>
@@ -8903,56 +8900,56 @@
         <v>33</v>
       </c>
       <c r="P60" s="41" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Q60" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R60" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="S60" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="S60" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="T60" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="U60" s="10">
         <v>5524</v>
       </c>
       <c r="V60" s="4"/>
     </row>
-    <row r="61" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="H61" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="L61" s="7">
         <v>1956</v>
@@ -8967,45 +8964,45 @@
         <v>33</v>
       </c>
       <c r="P61" s="41" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R61" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="S61" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="S61" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="T61" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="U61" s="10">
         <v>20532</v>
       </c>
       <c r="V61" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>512</v>
+      </c>
+      <c r="B62" t="s">
         <v>513</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>514</v>
-      </c>
-      <c r="C62" t="s">
-        <v>515</v>
       </c>
       <c r="D62" s="3">
         <v>1860</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G62" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M62" s="3">
         <v>1999</v>
@@ -9014,45 +9011,45 @@
         <v>171</v>
       </c>
       <c r="O62" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P62" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>436</v>
+      </c>
+      <c r="R62" t="s">
         <v>517</v>
       </c>
-      <c r="Q62" t="s">
-        <v>437</v>
-      </c>
-      <c r="R62" t="s">
+      <c r="S62" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="S62" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="T62" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="U62" s="27">
         <v>7282</v>
       </c>
       <c r="V62" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>519</v>
+      </c>
+      <c r="B63" t="s">
         <v>520</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>514</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G63" t="s">
         <v>521</v>
-      </c>
-      <c r="C63" t="s">
-        <v>515</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G63" t="s">
-        <v>522</v>
       </c>
       <c r="H63" s="3">
         <v>1915</v>
@@ -9064,51 +9061,51 @@
         <v>171</v>
       </c>
       <c r="O63" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P63" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>436</v>
+      </c>
+      <c r="R63" t="s">
         <v>523</v>
       </c>
-      <c r="Q63" t="s">
-        <v>437</v>
-      </c>
-      <c r="R63" t="s">
+      <c r="S63" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="S63" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="T63" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="U63" s="27">
         <v>6751</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>525</v>
+      </c>
+      <c r="B64" t="s">
         <v>526</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>527</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E64" t="s">
         <v>528</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>529</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" t="s">
         <v>531</v>
-      </c>
-      <c r="I64" t="s">
-        <v>532</v>
       </c>
       <c r="J64" s="3">
         <v>1926</v>
@@ -9117,51 +9114,51 @@
         <v>2000</v>
       </c>
       <c r="N64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O64" t="s">
         <v>53</v>
       </c>
       <c r="P64" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q64" t="s">
         <v>534</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>535</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="S64" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="T64" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="U64" s="27">
         <v>24152</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>537</v>
+      </c>
+      <c r="B65" t="s">
         <v>538</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>539</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E65" t="s">
         <v>540</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E65" t="s">
-        <v>541</v>
-      </c>
       <c r="G65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M65" s="3">
         <v>2000</v>
@@ -9170,48 +9167,48 @@
         <v>171</v>
       </c>
       <c r="O65" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P65" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>436</v>
+      </c>
+      <c r="R65" t="s">
         <v>542</v>
       </c>
-      <c r="Q65" t="s">
-        <v>437</v>
-      </c>
-      <c r="R65" t="s">
+      <c r="S65" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="S65" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="T65" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="U65" s="27">
         <v>7282</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>544</v>
+      </c>
+      <c r="B66" t="s">
         <v>545</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>546</v>
-      </c>
-      <c r="C66" t="s">
-        <v>547</v>
       </c>
       <c r="D66" s="3">
         <v>1878</v>
       </c>
       <c r="E66" t="s">
+        <v>547</v>
+      </c>
+      <c r="G66" t="s">
         <v>548</v>
       </c>
-      <c r="G66" t="s">
-        <v>549</v>
-      </c>
       <c r="H66" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M66" s="3">
         <v>2000</v>
@@ -9220,60 +9217,60 @@
         <v>26</v>
       </c>
       <c r="O66" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P66" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q66" t="s">
         <v>550</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>551</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="S66" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="T66" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="U66" s="3">
         <v>1935</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>553</v>
+      </c>
+      <c r="B67" t="s">
         <v>554</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>466</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E67" t="s">
+        <v>594</v>
+      </c>
+      <c r="F67" t="s">
         <v>555</v>
       </c>
-      <c r="C67" t="s">
-        <v>467</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E67" t="s">
-        <v>595</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>556</v>
-      </c>
-      <c r="G67" t="s">
-        <v>557</v>
       </c>
       <c r="H67" s="3">
         <v>1926</v>
       </c>
       <c r="I67" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J67" s="3">
         <v>1931</v>
       </c>
       <c r="K67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L67" s="3">
         <v>1932</v>
@@ -9285,60 +9282,60 @@
         <v>138</v>
       </c>
       <c r="O67" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P67" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q67" t="s">
         <v>154</v>
       </c>
       <c r="R67" t="s">
+        <v>558</v>
+      </c>
+      <c r="S67" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="S67" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="T67" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="U67" s="3">
         <v>1934</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>560</v>
+      </c>
+      <c r="B68" t="s">
         <v>561</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>562</v>
-      </c>
-      <c r="C68" t="s">
-        <v>563</v>
       </c>
       <c r="D68" s="3">
         <v>1865</v>
       </c>
       <c r="E68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F68" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H68" s="3">
         <v>1865</v>
       </c>
       <c r="I68" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J68" s="3">
         <v>1917</v>
       </c>
       <c r="K68" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L68" s="3">
         <v>1918</v>
@@ -9350,51 +9347,51 @@
         <v>138</v>
       </c>
       <c r="O68" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P68" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R68" t="s">
+        <v>566</v>
+      </c>
+      <c r="S68" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="S68" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="T68" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="U68" s="3">
         <v>1918</v>
       </c>
       <c r="V68" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>570</v>
-      </c>
       <c r="B69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D69" s="27">
         <v>4957</v>
       </c>
       <c r="E69" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F69" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G69" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H69" s="3">
         <v>1928</v>
@@ -9409,45 +9406,45 @@
         <v>53</v>
       </c>
       <c r="P69" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q69" t="s">
+        <v>571</v>
+      </c>
+      <c r="R69" t="s">
         <v>572</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="S69" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="T69" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="U69" s="27">
         <v>30105</v>
       </c>
       <c r="V69" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>576</v>
       </c>
-      <c r="B70" t="s">
-        <v>577</v>
-      </c>
       <c r="C70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D70" s="3">
         <v>1897</v>
       </c>
       <c r="E70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G70" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H70" s="3">
         <v>1915</v>
@@ -9459,60 +9456,60 @@
         <v>171</v>
       </c>
       <c r="O70" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P70" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q70" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R70" t="s">
+        <v>578</v>
+      </c>
+      <c r="S70" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="S70" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="T70" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="U70" s="27">
         <v>11028</v>
       </c>
       <c r="V70" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>582</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>485</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E71" t="s">
+        <v>469</v>
+      </c>
+      <c r="F71" t="s">
         <v>583</v>
       </c>
-      <c r="C71" t="s">
-        <v>486</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E71" t="s">
-        <v>470</v>
-      </c>
-      <c r="F71" t="s">
-        <v>584</v>
-      </c>
       <c r="G71" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H71" s="3">
         <v>1890</v>
       </c>
       <c r="I71" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M71" s="3">
         <v>1999</v>
@@ -9521,36 +9518,36 @@
         <v>171</v>
       </c>
       <c r="O71" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P71" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q71" t="s">
         <v>23</v>
       </c>
       <c r="R71" t="s">
+        <v>584</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="S71" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="T71" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="U71" s="27">
         <v>7901</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>586</v>
+      </c>
+      <c r="B72" t="s">
         <v>587</v>
       </c>
-      <c r="B72" t="s">
-        <v>588</v>
-      </c>
       <c r="C72" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D72" s="3">
         <v>1885</v>
@@ -9559,7 +9556,7 @@
         <v>106</v>
       </c>
       <c r="G72" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H72" s="3">
         <v>1913</v>
@@ -9571,54 +9568,54 @@
         <v>171</v>
       </c>
       <c r="O72" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P72" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R72" t="s">
+        <v>589</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="S72" s="1" t="s">
-        <v>591</v>
-      </c>
       <c r="T72" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="U72" s="27">
         <v>6769</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B73" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C73" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D73" s="3">
         <v>1292</v>
       </c>
       <c r="E73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F73" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G73" t="s">
         <v>42</v>
       </c>
       <c r="I73" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L73" s="3">
         <v>1357</v>
@@ -9633,60 +9630,60 @@
         <v>33</v>
       </c>
       <c r="P73" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q73" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R73" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="V73" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C74" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E74" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H74" s="3">
         <v>1897</v>
       </c>
       <c r="I74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J74" s="3">
         <v>1899</v>
       </c>
       <c r="K74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L74" s="3">
         <v>1902</v>
@@ -9698,45 +9695,45 @@
         <v>171</v>
       </c>
       <c r="O74" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P74" s="40" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Q74" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="U74" s="27">
         <v>8261</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B75" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C75" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E75" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F75" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G75" t="s">
         <v>42</v>
@@ -9745,13 +9742,13 @@
         <v>1905</v>
       </c>
       <c r="I75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J75" s="3">
         <v>1913</v>
       </c>
       <c r="K75" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L75" s="3">
         <v>1922</v>
@@ -9763,60 +9760,60 @@
         <v>171</v>
       </c>
       <c r="O75" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P75" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R75" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="U75" s="27">
         <v>13903</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C76" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H76" s="3">
         <v>1894</v>
       </c>
       <c r="I76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J76" s="3">
         <v>1912</v>
       </c>
       <c r="K76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L76" s="3">
         <v>1924</v>
@@ -9828,60 +9825,60 @@
         <v>171</v>
       </c>
       <c r="O76" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P76" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="U76" s="27">
         <v>13894</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C77" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E77" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F77" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G77" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H77" s="3">
         <v>1876</v>
       </c>
       <c r="I77" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J77" s="3">
         <v>1931</v>
       </c>
       <c r="K77" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L77" s="3">
         <v>1936</v>
@@ -9893,48 +9890,48 @@
         <v>171</v>
       </c>
       <c r="O77" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P77" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q77" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="U77" s="27">
         <v>13762</v>
       </c>
       <c r="V77" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s">
         <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E78" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G78" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H78" s="3">
         <v>1890</v>
@@ -9946,54 +9943,54 @@
         <v>171</v>
       </c>
       <c r="O78" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P78" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R78" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="U78" s="27">
         <v>6870</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C79" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D79" s="3">
         <v>1882</v>
       </c>
       <c r="E79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F79" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H79" s="3">
         <v>1913</v>
       </c>
       <c r="I79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J79" s="3">
         <v>1913</v>
@@ -10005,54 +10002,54 @@
         <v>171</v>
       </c>
       <c r="O79" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P79" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q79" t="s">
         <v>154</v>
       </c>
       <c r="R79" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="U79" s="27">
         <v>11565</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B80" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D80" s="3">
         <v>1877</v>
       </c>
       <c r="E80" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G80" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H80" s="3">
         <v>1897</v>
       </c>
       <c r="I80" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M80" s="3">
         <v>2000</v>
@@ -10061,51 +10058,51 @@
         <v>26</v>
       </c>
       <c r="O80" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P80" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R80" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="U80" s="27">
         <v>11414</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E81" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G81" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N81" t="s">
         <v>53</v>
@@ -10114,51 +10111,51 @@
         <v>53</v>
       </c>
       <c r="P81" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="U81" s="27">
         <v>4853</v>
       </c>
       <c r="V81" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C82" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D82" s="3">
         <v>1821</v>
       </c>
       <c r="E82" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G82" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H82" s="3">
         <v>1843</v>
       </c>
       <c r="I82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J82" s="3">
         <v>1881</v>
@@ -10167,113 +10164,113 @@
         <v>2001</v>
       </c>
       <c r="N82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O82" t="s">
         <v>33</v>
       </c>
       <c r="P82" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q82" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R82" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="U82" s="3">
         <v>1900</v>
       </c>
       <c r="V82" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D83" s="3">
         <v>1856</v>
       </c>
       <c r="E83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M83" s="3">
         <v>1999</v>
       </c>
       <c r="N83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O83" t="s">
         <v>33</v>
       </c>
       <c r="P83" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q83" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R83" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="U83" s="3">
         <v>1925</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E84" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E84" s="14" t="s">
+      <c r="F84" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H84" s="7" t="s">
+      <c r="I84" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="J84" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="7"/>
@@ -10287,55 +10284,55 @@
         <v>53</v>
       </c>
       <c r="P84" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q84" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="Q84" s="4" t="s">
+      <c r="R84" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="R84" s="15" t="s">
+      <c r="S84" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="S84" s="6" t="s">
+      <c r="T84" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="U84" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="T84" s="6" t="s">
-        <v>1193</v>
-      </c>
-      <c r="U84" s="7" t="s">
+      <c r="V84" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="V84" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="D85" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>612</v>
-      </c>
       <c r="G85" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="7"/>
@@ -10343,59 +10340,59 @@
         <v>1988</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O85" s="4" t="s">
         <v>53</v>
       </c>
       <c r="P85" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="R85" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="Q85" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="R85" s="15" t="s">
+      <c r="S85" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="S85" s="6" t="s">
-        <v>616</v>
-      </c>
       <c r="T85" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="U85" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="V85" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="7"/>
@@ -10409,51 +10406,51 @@
         <v>33</v>
       </c>
       <c r="P86" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R86" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="S86" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="S86" s="6" t="s">
+      <c r="T86" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="U86" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="T86" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="U86" s="7" t="s">
+      <c r="V86" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="V86" s="16" t="s">
+    </row>
+    <row r="87" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="D87" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="E87" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="7"/>
@@ -10469,51 +10466,51 @@
         <v>53</v>
       </c>
       <c r="P87" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="R87" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="Q87" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="R87" s="5" t="s">
+      <c r="S87" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="S87" s="6" t="s">
+      <c r="T87" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U87" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="T87" s="6" t="s">
-        <v>1196</v>
-      </c>
-      <c r="U87" s="7" t="s">
+      <c r="V87" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="V87" s="7" t="s">
+    </row>
+    <row r="88" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D88" s="7" t="s">
+      <c r="E88" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="7"/>
@@ -10529,17 +10526,17 @@
         <v>53</v>
       </c>
       <c r="P88" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q88" s="4"/>
       <c r="R88" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="S88" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="S88" s="6" t="s">
-        <v>650</v>
-      </c>
       <c r="T88" s="6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="U88" s="10">
         <v>14147</v>
@@ -10548,42 +10545,42 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="G89" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H89" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H89" s="7" t="s">
+      <c r="I89" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="I89" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="J89" s="7" t="s">
+      <c r="K89" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="K89" s="4" t="s">
-        <v>657</v>
-      </c>
       <c r="L89" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="M89" s="10">
         <v>32330</v>
@@ -10595,63 +10592,63 @@
         <v>33</v>
       </c>
       <c r="P89" s="41" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q89" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R89" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="S89" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="S89" s="6" t="s">
+      <c r="T89" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="U89" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="T89" s="6" t="s">
-        <v>1198</v>
-      </c>
-      <c r="U89" s="7" t="s">
+      <c r="V89" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="V89" s="7" t="s">
+    </row>
+    <row r="90" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="D90" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="E90" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="H90" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="I90" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="J90" s="7" t="s">
+      <c r="K90" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="L90" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>673</v>
       </c>
       <c r="M90" s="10">
         <v>35025</v>
@@ -10663,42 +10660,42 @@
         <v>33</v>
       </c>
       <c r="P90" s="41" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q90" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R90" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="S90" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="S90" s="6" t="s">
-        <v>676</v>
-      </c>
       <c r="T90" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="U90" s="10">
         <v>22443</v>
       </c>
       <c r="V90" s="7" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="7">
         <v>758</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H91" s="7">
         <v>786</v>
@@ -10712,34 +10709,34 @@
         <v>26</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P91" s="41" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="S91" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="S91" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="T91" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="U91" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="V91" s="7"/>
     </row>
-    <row r="92" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -10747,7 +10744,7 @@
         <v>52</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="7"/>
@@ -10761,31 +10758,31 @@
         <v>53</v>
       </c>
       <c r="P92" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q92" s="4"/>
       <c r="R92" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="S92" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="S92" s="6" t="s">
-        <v>685</v>
       </c>
       <c r="T92" s="4"/>
       <c r="U92" s="7">
         <v>597</v>
       </c>
       <c r="V92" s="7" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -10793,7 +10790,7 @@
         <v>18</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="7"/>
@@ -10804,20 +10801,20 @@
         <v>26</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P93" s="41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Q93" s="4"/>
       <c r="R93" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="S93" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="S93" s="6" t="s">
-        <v>690</v>
-      </c>
       <c r="T93" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="U93" s="7">
         <v>269</v>
@@ -10826,21 +10823,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="7" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H94" s="7">
         <v>304</v>
@@ -10854,20 +10851,20 @@
         <v>73</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P94" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="S94" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="S94" s="6" t="s">
-        <v>694</v>
-      </c>
       <c r="T94" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="U94" s="7">
         <v>304</v>
@@ -10876,39 +10873,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="D95" s="7">
         <v>1871</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F95" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="H95" s="7">
         <v>1927</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J95" s="7">
         <v>1930</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L95" s="7">
         <v>1930</v>
@@ -10917,51 +10914,51 @@
         <v>37251</v>
       </c>
       <c r="N95" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P95" s="41" t="s">
         <v>702</v>
       </c>
-      <c r="O95" s="4" t="s">
-        <v>1233</v>
-      </c>
-      <c r="P95" s="41" t="s">
+      <c r="Q95" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="Q95" s="4" t="s">
+      <c r="R95" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="R95" s="17" t="s">
+      <c r="S95" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="S95" s="6" t="s">
-        <v>706</v>
-      </c>
       <c r="T95" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="U95" s="7">
         <v>1937</v>
       </c>
       <c r="V95" s="7" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>708</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>709</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="7"/>
@@ -10969,54 +10966,54 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>53</v>
       </c>
       <c r="P96" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q96" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="Q96" s="4" t="s">
+      <c r="R96" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="R96" s="5" t="s">
+      <c r="S96" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="S96" s="6" t="s">
+      <c r="T96" s="33" t="s">
+        <v>1203</v>
+      </c>
+      <c r="U96" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="T96" s="33" t="s">
-        <v>1204</v>
-      </c>
-      <c r="U96" s="7" t="s">
+      <c r="V96" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="V96" s="7" t="s">
+    </row>
+    <row r="97" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="B97" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D97" s="7" t="s">
+      <c r="E97" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="G97" s="4" t="s">
         <v>720</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>721</v>
       </c>
       <c r="H97" s="7">
         <v>1920</v>
@@ -11024,7 +11021,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="7"/>
       <c r="K97" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L97" s="7">
         <v>1934</v>
@@ -11036,41 +11033,41 @@
         <v>171</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P97" s="41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q97" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R97" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="S97" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="S97" s="6" t="s">
-        <v>725</v>
-      </c>
       <c r="T97" s="33" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="U97" s="7">
         <v>1937</v>
       </c>
       <c r="V97" s="7"/>
     </row>
-    <row r="98" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H98" s="7">
         <v>375</v>
@@ -11084,44 +11081,44 @@
         <v>171</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P98" s="41" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Q98" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R98" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="S98" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="S98" s="6" t="s">
-        <v>730</v>
       </c>
       <c r="T98" s="4"/>
       <c r="U98" s="7">
         <v>375</v>
       </c>
       <c r="V98" s="7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="7"/>
@@ -11132,34 +11129,34 @@
         <v>26</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P99" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q99" s="4"/>
       <c r="R99" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="S99" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="S99" s="6" t="s">
-        <v>735</v>
-      </c>
       <c r="T99" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="U99" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V99" s="7"/>
     </row>
-    <row r="100" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -11174,19 +11171,19 @@
         <v>26</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P100" s="41" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q100" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="Q100" s="4" t="s">
+      <c r="R100" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="R100" s="4" t="s">
+      <c r="S100" s="6" t="s">
         <v>739</v>
-      </c>
-      <c r="S100" s="6" t="s">
-        <v>740</v>
       </c>
       <c r="T100" s="4"/>
       <c r="U100" s="7">
@@ -11194,30 +11191,30 @@
       </c>
       <c r="V100" s="7"/>
     </row>
-    <row r="101" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="N101" t="s">
         <v>171</v>
       </c>
       <c r="O101" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P101" s="40" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>737</v>
+      </c>
+      <c r="R101" t="s">
         <v>744</v>
       </c>
-      <c r="Q101" t="s">
-        <v>738</v>
-      </c>
-      <c r="R101" t="s">
+      <c r="S101" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="S101" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="U101" s="3">
         <v>250</v>
@@ -11226,72 +11223,72 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="N102" t="s">
         <v>171</v>
       </c>
       <c r="O102" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P102" s="40" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>737</v>
+      </c>
+      <c r="R102" t="s">
         <v>748</v>
       </c>
-      <c r="Q102" t="s">
-        <v>738</v>
-      </c>
-      <c r="R102" t="s">
+      <c r="S102" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="S102" s="1" t="s">
+      <c r="T102" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="V102" s="3"/>
+    </row>
+    <row r="103" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>750</v>
       </c>
-      <c r="T102" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="V102" s="3"/>
-    </row>
-    <row r="103" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>751</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="N103" t="s">
         <v>171</v>
       </c>
       <c r="O103" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P103" s="40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q103" t="s">
         <v>23</v>
       </c>
       <c r="R103" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="S103" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="S103" s="1" t="s">
+      <c r="T103" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="V103" s="3"/>
+    </row>
+    <row r="104" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>754</v>
       </c>
-      <c r="T103" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="V103" s="3"/>
-    </row>
-    <row r="104" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>755</v>
-      </c>
       <c r="D104" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="N104" t="s">
         <v>53</v>
@@ -11300,47 +11297,47 @@
         <v>53</v>
       </c>
       <c r="P104" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>741</v>
+      </c>
+      <c r="R104" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="Q104" t="s">
-        <v>742</v>
-      </c>
-      <c r="R104" s="2" t="s">
+      <c r="S104" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="S104" s="1" t="s">
-        <v>758</v>
-      </c>
       <c r="T104" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="U104" s="3">
         <v>470</v>
       </c>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="C105" s="19" t="s">
         <v>760</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>761</v>
       </c>
       <c r="D105" s="25">
         <v>1819</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F105" s="19"/>
       <c r="G105" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="H105" s="25" t="s">
         <v>763</v>
-      </c>
-      <c r="H105" s="25" t="s">
-        <v>764</v>
       </c>
       <c r="I105" s="19"/>
       <c r="J105" s="25"/>
@@ -11350,67 +11347,67 @@
         <v>42566</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O105" s="19" t="s">
         <v>53</v>
       </c>
       <c r="P105" s="30" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Q105" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="R105" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="R105" s="19" t="s">
+      <c r="S105" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="S105" s="19" t="s">
+      <c r="T105" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U105" s="25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="V105" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="T105" s="19" t="s">
-        <v>1210</v>
-      </c>
-      <c r="U105" s="25" t="s">
-        <v>1110</v>
-      </c>
-      <c r="V105" s="20" t="s">
+    </row>
+    <row r="106" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21" t="s">
+      <c r="B106" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="B106" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="C106" s="22" t="s">
+      <c r="D106" s="26" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E106" s="22" t="s">
         <v>770</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>771</v>
       </c>
       <c r="F106" s="22"/>
       <c r="G106" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="H106" s="26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I106" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="H106" s="26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I106" s="22" t="s">
+      <c r="J106" s="26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K106" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="J106" s="26" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K106" s="22" t="s">
-        <v>774</v>
-      </c>
       <c r="L106" s="26" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="M106" s="24">
         <v>38217</v>
@@ -11419,46 +11416,46 @@
         <v>171</v>
       </c>
       <c r="O106" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P106" s="29" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q106" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="R106" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="R106" s="22" t="s">
+      <c r="S106" s="22" t="s">
         <v>776</v>
       </c>
-      <c r="S106" s="22" t="s">
+      <c r="T106" s="34" t="s">
         <v>777</v>
-      </c>
-      <c r="T106" s="34" t="s">
-        <v>778</v>
       </c>
       <c r="U106" s="24">
         <v>13930</v>
       </c>
       <c r="V106" s="23"/>
     </row>
-    <row r="107" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C107" s="19"/>
       <c r="D107" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E107" s="19"/>
       <c r="F107" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="G107" s="19" t="s">
         <v>780</v>
       </c>
-      <c r="G107" s="19" t="s">
-        <v>781</v>
-      </c>
       <c r="H107" s="25" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I107" s="19"/>
       <c r="J107" s="25"/>
@@ -11472,129 +11469,129 @@
         <v>53</v>
       </c>
       <c r="P107" s="30" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q107" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="R107" s="19" t="s">
         <v>782</v>
       </c>
-      <c r="R107" s="19" t="s">
+      <c r="S107" s="32" t="s">
+        <v>1320</v>
+      </c>
+      <c r="T107" s="32" t="s">
+        <v>1210</v>
+      </c>
+      <c r="U107" s="25" t="s">
+        <v>1110</v>
+      </c>
+      <c r="V107" s="20"/>
+    </row>
+    <row r="108" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="S107" s="32" t="s">
-        <v>1321</v>
-      </c>
-      <c r="T107" s="32" t="s">
-        <v>1211</v>
-      </c>
-      <c r="U107" s="25" t="s">
-        <v>1111</v>
-      </c>
-      <c r="V107" s="20"/>
-    </row>
-    <row r="108" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="21" t="s">
+      <c r="B108" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="C108" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="D108" s="26" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E108" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="D108" s="26" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E108" s="22" t="s">
+      <c r="F108" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="G108" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="F108" s="22" t="s">
-        <v>785</v>
-      </c>
-      <c r="G108" s="22" t="s">
+      <c r="H108" s="26" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I108" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="H108" s="26" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I108" s="22" t="s">
+      <c r="J108" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="J108" s="26" t="s">
+      <c r="K108" s="22" t="s">
         <v>790</v>
-      </c>
-      <c r="K108" s="22" t="s">
-        <v>791</v>
       </c>
       <c r="L108" s="26">
         <v>1937</v>
       </c>
       <c r="M108" s="29" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N108" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O108" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P108" s="29" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Q108" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="R108" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="R108" s="22" t="s">
+      <c r="S108" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="S108" s="22" t="s">
-        <v>794</v>
-      </c>
       <c r="T108" s="34" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="U108" s="24">
         <v>13878</v>
       </c>
       <c r="V108" s="23" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E109" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E109" s="19" t="s">
+      <c r="F109" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="G109" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="F109" s="19" t="s">
-        <v>599</v>
-      </c>
-      <c r="G109" s="19" t="s">
+      <c r="H109" s="25" t="s">
         <v>797</v>
       </c>
-      <c r="H109" s="25" t="s">
+      <c r="I109" s="19" t="s">
         <v>798</v>
       </c>
-      <c r="I109" s="19" t="s">
+      <c r="J109" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="J109" s="25" t="s">
+      <c r="K109" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="K109" s="19" t="s">
+      <c r="L109" s="25" t="s">
         <v>801</v>
-      </c>
-      <c r="L109" s="25" t="s">
-        <v>802</v>
       </c>
       <c r="M109" s="31">
         <v>36754</v>
@@ -11603,120 +11600,120 @@
         <v>171</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P109" s="30" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q109" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="R109" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="R109" s="19" t="s">
+      <c r="S109" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="S109" s="19" t="s">
-        <v>805</v>
-      </c>
       <c r="T109" s="32" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="U109" s="31">
         <v>6796</v>
       </c>
       <c r="V109" s="20"/>
     </row>
-    <row r="110" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="C110" s="22" t="s">
         <v>806</v>
       </c>
-      <c r="B110" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="C110" s="22" t="s">
+      <c r="D110" s="26" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E110" s="22" t="s">
         <v>807</v>
-      </c>
-      <c r="D110" s="26" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>808</v>
       </c>
       <c r="F110" s="22"/>
       <c r="G110" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I110" s="22" t="s">
         <v>809</v>
-      </c>
-      <c r="H110" s="26" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I110" s="22" t="s">
-        <v>810</v>
       </c>
       <c r="J110" s="26"/>
       <c r="K110" s="22"/>
       <c r="L110" s="26"/>
       <c r="M110" s="26"/>
       <c r="N110" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O110" s="35" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P110" s="29" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Q110" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="R110" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="R110" s="22" t="s">
+      <c r="S110" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="S110" s="22" t="s">
+      <c r="T110" s="34" t="s">
+        <v>1213</v>
+      </c>
+      <c r="U110" s="26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V110" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="T110" s="34" t="s">
-        <v>1214</v>
-      </c>
-      <c r="U110" s="26" t="s">
-        <v>1112</v>
-      </c>
-      <c r="V110" s="23" t="s">
+    </row>
+    <row r="111" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
+      <c r="B111" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>814</v>
-      </c>
-      <c r="C111" s="19" t="s">
+      <c r="D111" s="25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E111" s="19" t="s">
         <v>816</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>817</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="H111" s="25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I111" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="H111" s="25" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I111" s="19" t="s">
+      <c r="J111" s="25" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K111" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="J111" s="25" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K111" s="19" t="s">
-        <v>820</v>
-      </c>
       <c r="L111" s="25" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="M111" s="31">
         <v>42566</v>
@@ -11725,66 +11722,66 @@
         <v>171</v>
       </c>
       <c r="O111" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P111" s="30" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Q111" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R111" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="S111" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="S111" s="19" t="s">
-        <v>822</v>
-      </c>
       <c r="T111" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="U111" s="31">
         <v>6668</v>
       </c>
       <c r="V111" s="20" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
         <v>823</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="21" t="s">
-        <v>824</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C112" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E112" s="22" t="s">
         <v>825</v>
       </c>
-      <c r="D112" s="26" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E112" s="22" t="s">
+      <c r="F112" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="G112" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="H112" s="26" t="s">
         <v>828</v>
       </c>
-      <c r="H112" s="26" t="s">
+      <c r="I112" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="I112" s="22" t="s">
+      <c r="J112" s="26" t="s">
         <v>830</v>
       </c>
-      <c r="J112" s="26" t="s">
+      <c r="K112" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="L112" s="26" t="s">
         <v>831</v>
-      </c>
-      <c r="K112" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="L112" s="26" t="s">
-        <v>832</v>
       </c>
       <c r="M112" s="24">
         <v>37546</v>
@@ -11793,55 +11790,55 @@
         <v>171</v>
       </c>
       <c r="O112" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P112" s="29" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q112" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R112" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="S112" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="S112" s="22" t="s">
-        <v>834</v>
-      </c>
       <c r="T112" s="34" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="U112" s="24">
         <v>6766</v>
       </c>
       <c r="V112" s="23" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="B113" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="C113" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E113" s="19" t="s">
         <v>836</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>807</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>837</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="H113" s="25" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I113" s="19" t="s">
         <v>838</v>
-      </c>
-      <c r="H113" s="25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I113" s="19" t="s">
-        <v>839</v>
       </c>
       <c r="J113" s="25">
         <v>1238</v>
@@ -11849,72 +11846,72 @@
       <c r="K113" s="19"/>
       <c r="L113" s="25"/>
       <c r="M113" s="25" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O113" s="36" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P113" s="30" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Q113" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R113" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="S113" s="19" t="s">
         <v>840</v>
       </c>
-      <c r="S113" s="19" t="s">
+      <c r="T113" s="32" t="s">
+        <v>1216</v>
+      </c>
+      <c r="U113" s="25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V113" s="20" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="T113" s="32" t="s">
-        <v>1217</v>
-      </c>
-      <c r="U113" s="25" t="s">
-        <v>1112</v>
-      </c>
-      <c r="V113" s="20" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
+      <c r="B114" s="22" t="s">
         <v>842</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="C114" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="D114" s="26" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E114" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="D114" s="26" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E114" s="22" t="s">
+      <c r="F114" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="G114" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="F114" s="22" t="s">
-        <v>780</v>
-      </c>
-      <c r="G114" s="22" t="s">
+      <c r="H114" s="26" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I114" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="H114" s="26" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I114" s="22" t="s">
+      <c r="J114" s="26" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K114" t="s">
         <v>847</v>
       </c>
-      <c r="J114" s="26" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K114" t="s">
-        <v>848</v>
-      </c>
       <c r="L114" s="26" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="M114" s="24">
         <v>40708</v>
@@ -11926,36 +11923,36 @@
         <v>33</v>
       </c>
       <c r="P114" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q114" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="R114" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="S114" s="22" t="s">
-        <v>852</v>
-      </c>
       <c r="T114" s="34" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="U114" s="24">
         <v>15646</v>
       </c>
       <c r="V114" s="23" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="B115" s="19" t="s">
         <v>853</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="C115" s="19" t="s">
         <v>854</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>855</v>
       </c>
       <c r="D115" s="25">
         <v>1415</v>
@@ -11963,10 +11960,10 @@
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
       <c r="G115" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H115" s="25" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="25"/>
@@ -11976,61 +11973,61 @@
         <v>1979</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O115" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P115" s="30" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Q115" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="R115" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="R115" s="19" t="s">
+      <c r="S115" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="S115" s="19" t="s">
+      <c r="T115" s="32" t="s">
+        <v>1218</v>
+      </c>
+      <c r="U115" s="25" t="s">
+        <v>1112</v>
+      </c>
+      <c r="V115" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="T115" s="32" t="s">
-        <v>1219</v>
-      </c>
-      <c r="U115" s="25" t="s">
-        <v>1113</v>
-      </c>
-      <c r="V115" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="21" t="s">
+      <c r="B116" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="B116" s="22" t="s">
-        <v>861</v>
-      </c>
       <c r="C116" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D116" s="26">
         <v>1878</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="22" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H116" s="26">
         <v>1910</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="K116" s="22"/>
       <c r="L116" s="26"/>
@@ -12041,60 +12038,60 @@
         <v>171</v>
       </c>
       <c r="O116" s="35" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P116" s="29" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Q116" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R116" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="S116" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="S116" s="22" t="s">
-        <v>866</v>
-      </c>
       <c r="T116" s="34" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="U116" s="24">
         <v>13821</v>
       </c>
       <c r="V116" s="23" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="18" t="s">
+      <c r="B117" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>868</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>869</v>
       </c>
       <c r="D117" s="25">
         <v>1880</v>
       </c>
       <c r="E117" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="F117" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="F117" s="19" t="s">
+      <c r="G117" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="G117" s="19" t="s">
+      <c r="H117" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="J117" s="25" t="s">
         <v>872</v>
-      </c>
-      <c r="H117" s="25" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I117" s="19" t="s">
-        <v>801</v>
-      </c>
-      <c r="J117" s="25" t="s">
-        <v>873</v>
       </c>
       <c r="K117" s="19"/>
       <c r="L117" s="25"/>
@@ -12105,43 +12102,43 @@
         <v>138</v>
       </c>
       <c r="O117" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P117" s="30" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Q117" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="R117" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="R117" s="19" t="s">
+      <c r="S117" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="S117" s="32" t="s">
-        <v>876</v>
-      </c>
       <c r="T117" s="32" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U117" s="31">
         <v>11055</v>
       </c>
       <c r="V117" s="20"/>
     </row>
-    <row r="118" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D118" s="26">
         <v>1870</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F118" s="22"/>
       <c r="G118" s="22"/>
@@ -12151,55 +12148,55 @@
       <c r="K118" s="22"/>
       <c r="L118" s="26"/>
       <c r="M118" s="29" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="N118" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O118" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P118" s="29" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="Q118" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R118" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="S118" s="22" t="s">
         <v>879</v>
       </c>
-      <c r="S118" s="22" t="s">
-        <v>880</v>
-      </c>
       <c r="T118" s="34" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="U118" s="24">
         <v>13725</v>
       </c>
       <c r="V118" s="23"/>
     </row>
-    <row r="119" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
+        <v>880</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>861</v>
-      </c>
-      <c r="C119" s="19" t="s">
+      <c r="D119" s="25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E119" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D119" s="25" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E119" s="19" t="s">
+      <c r="F119" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="F119" s="19" t="s">
+      <c r="G119" s="19" t="s">
         <v>884</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>885</v>
       </c>
       <c r="H119" s="25"/>
       <c r="I119" s="19"/>
@@ -12216,127 +12213,127 @@
         <v>53</v>
       </c>
       <c r="P119" s="30" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Q119" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R119" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="S119" s="32" t="s">
+        <v>1321</v>
+      </c>
+      <c r="T119" s="32" t="s">
         <v>886</v>
-      </c>
-      <c r="S119" s="32" t="s">
-        <v>1322</v>
-      </c>
-      <c r="T119" s="32" t="s">
-        <v>887</v>
       </c>
       <c r="U119" s="25">
         <v>1576</v>
       </c>
       <c r="V119" s="20" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
         <v>888</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="21" t="s">
-        <v>889</v>
       </c>
       <c r="B120" s="22" t="s">
         <v>161</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D120" s="24">
         <v>561</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G120" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I120" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="H120" s="26" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I120" s="22" t="s">
+      <c r="J120" s="26" t="s">
         <v>892</v>
       </c>
-      <c r="J120" s="26" t="s">
-        <v>893</v>
-      </c>
       <c r="K120" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L120" s="26" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="M120" s="29" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N120" s="22" t="s">
         <v>138</v>
       </c>
       <c r="O120" s="35" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P120" s="29" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q120" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>896</v>
       </c>
-      <c r="S120" s="22" t="s">
+      <c r="T120" s="34" t="s">
         <v>897</v>
-      </c>
-      <c r="T120" s="34" t="s">
-        <v>898</v>
       </c>
       <c r="U120" s="24">
         <v>12586</v>
       </c>
       <c r="V120" s="23"/>
     </row>
-    <row r="121" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="B121" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="C121" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E121" s="19" t="s">
         <v>900</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>901</v>
       </c>
       <c r="F121" s="19"/>
       <c r="G121" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H121" s="25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I121" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="J121" s="25" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K121" s="19" t="s">
         <v>902</v>
       </c>
-      <c r="J121" s="25" t="s">
-        <v>1094</v>
-      </c>
-      <c r="K121" s="19" t="s">
-        <v>903</v>
-      </c>
       <c r="L121" s="25" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="M121" s="31">
         <v>38996</v>
@@ -12345,62 +12342,62 @@
         <v>171</v>
       </c>
       <c r="O121" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P121" s="30" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q121" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="R121" s="19" t="s">
         <v>904</v>
       </c>
-      <c r="Q121" s="19" t="s">
-        <v>775</v>
-      </c>
-      <c r="R121" s="19" t="s">
+      <c r="S121" s="19" t="s">
         <v>905</v>
       </c>
-      <c r="S121" s="19" t="s">
-        <v>906</v>
-      </c>
       <c r="T121" s="32" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="U121" s="31">
         <v>13771</v>
       </c>
       <c r="V121" s="20"/>
     </row>
-    <row r="122" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E122" s="22" t="s">
         <v>907</v>
-      </c>
-      <c r="B122" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>908</v>
       </c>
       <c r="F122" s="22"/>
       <c r="G122" s="22" t="s">
+        <v>908</v>
+      </c>
+      <c r="H122" s="26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I122" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="H122" s="26" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I122" s="22" t="s">
+      <c r="J122" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K122" s="22" t="s">
         <v>910</v>
       </c>
-      <c r="J122" s="26" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K122" s="22" t="s">
+      <c r="L122" s="26" t="s">
         <v>911</v>
-      </c>
-      <c r="L122" s="26" t="s">
-        <v>912</v>
       </c>
       <c r="M122" s="24">
         <v>39077</v>
@@ -12409,69 +12406,69 @@
         <v>171</v>
       </c>
       <c r="O122" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P122" s="29" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="Q122" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R122" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="S122" s="22" t="s">
         <v>913</v>
       </c>
-      <c r="S122" s="22" t="s">
-        <v>914</v>
-      </c>
       <c r="T122" s="34" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="U122" s="24">
         <v>7223</v>
       </c>
       <c r="V122" s="23" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="18" t="s">
+      <c r="B123" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>916</v>
       </c>
-      <c r="B123" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>869</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E123" s="19" t="s">
+      <c r="F123" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="G123" s="19" t="s">
         <v>918</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="H123" s="25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I123" s="19" t="s">
         <v>919</v>
       </c>
-      <c r="H123" s="25" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I123" s="19" t="s">
-        <v>920</v>
-      </c>
       <c r="J123" s="25" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K123" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L123" s="25" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="M123" s="30" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="N123" s="19" t="s">
         <v>39</v>
@@ -12480,63 +12477,63 @@
         <v>33</v>
       </c>
       <c r="P123" s="30" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Q123" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="R123" s="19" t="s">
         <v>921</v>
       </c>
-      <c r="R123" s="19" t="s">
+      <c r="S123" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="S123" s="19" t="s">
-        <v>923</v>
-      </c>
       <c r="T123" s="32" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="U123" s="31">
         <v>9557</v>
       </c>
       <c r="V123" s="20" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21" t="s">
+      <c r="B124" s="22" t="s">
         <v>925</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="C124" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E124" s="22" t="s">
         <v>926</v>
       </c>
-      <c r="C124" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E124" s="22" t="s">
+      <c r="F124" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="G124" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="H124" s="26" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I124" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="J124" s="26" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K124" s="22" t="s">
         <v>918</v>
       </c>
-      <c r="G124" s="22" t="s">
-        <v>928</v>
-      </c>
-      <c r="H124" s="26" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I124" s="22" t="s">
-        <v>929</v>
-      </c>
-      <c r="J124" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K124" s="22" t="s">
-        <v>919</v>
-      </c>
       <c r="L124" s="26" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="M124" s="26">
         <v>2000</v>
@@ -12548,43 +12545,43 @@
         <v>53</v>
       </c>
       <c r="P124" s="29" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q124" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="R124" s="22" t="s">
         <v>930</v>
       </c>
-      <c r="R124" s="22" t="s">
+      <c r="S124" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="S124" s="22" t="s">
+      <c r="T124" s="34" t="s">
+        <v>1225</v>
+      </c>
+      <c r="U124" s="26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="V124" s="23" t="s">
         <v>932</v>
       </c>
-      <c r="T124" s="34" t="s">
-        <v>1226</v>
-      </c>
-      <c r="U124" s="26" t="s">
-        <v>1114</v>
-      </c>
-      <c r="V124" s="23" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18"/>
       <c r="B125" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
       <c r="G125" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I125" s="19"/>
       <c r="J125" s="25"/>
@@ -12598,48 +12595,48 @@
         <v>53</v>
       </c>
       <c r="P125" s="30" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Q125" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R125" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="S125" s="32" t="s">
+        <v>1322</v>
+      </c>
+      <c r="T125" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="S125" s="32" t="s">
-        <v>1323</v>
-      </c>
-      <c r="T125" s="32" t="s">
+      <c r="U125" s="25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="V125" s="20" t="s">
         <v>937</v>
       </c>
-      <c r="U125" s="25" t="s">
-        <v>1115</v>
-      </c>
-      <c r="V125" s="20" t="s">
+    </row>
+    <row r="126" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="B126" s="22" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="21" t="s">
-        <v>881</v>
-      </c>
-      <c r="B126" s="22" t="s">
+      <c r="C126" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="D126" s="26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="F126" s="22" t="s">
         <v>940</v>
       </c>
-      <c r="D126" s="26" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E126" s="22" t="s">
-        <v>883</v>
-      </c>
-      <c r="F126" s="22" t="s">
-        <v>941</v>
-      </c>
       <c r="G126" s="22" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H126" s="26"/>
       <c r="I126" s="22"/>
@@ -12656,119 +12653,119 @@
         <v>53</v>
       </c>
       <c r="P126" s="29" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Q126" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R126" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S126" s="34" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="T126" s="34" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="U126" s="26">
         <v>1563</v>
       </c>
       <c r="V126" s="23" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="18" t="s">
+      <c r="B127" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E127" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="D127" s="25" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E127" s="19" t="s">
+      <c r="F127" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="F127" s="19" t="s">
+      <c r="G127" s="19" t="s">
         <v>946</v>
       </c>
-      <c r="G127" s="19" t="s">
+      <c r="H127" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I127" s="19" t="s">
         <v>947</v>
       </c>
-      <c r="H127" s="25" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I127" s="19" t="s">
-        <v>948</v>
-      </c>
       <c r="J127" s="25" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K127" s="19"/>
       <c r="L127" s="25"/>
       <c r="M127" s="30" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="N127" s="19" t="s">
         <v>171</v>
       </c>
       <c r="O127" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P127" s="30" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Q127" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R127" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="S127" s="19" t="s">
         <v>949</v>
       </c>
-      <c r="S127" s="19" t="s">
-        <v>950</v>
-      </c>
       <c r="T127" s="32" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="U127" s="31">
         <v>13883</v>
       </c>
       <c r="V127" s="20" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="B128" s="19" t="s">
         <v>953</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="C128" s="19" t="s">
         <v>954</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="D128" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>955</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>956</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="H128" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I128" s="19" t="s">
         <v>957</v>
       </c>
-      <c r="H128" s="25" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I128" s="19" t="s">
-        <v>958</v>
-      </c>
       <c r="J128" s="25" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K128" s="19"/>
       <c r="L128" s="25"/>
@@ -12779,64 +12776,64 @@
         <v>171</v>
       </c>
       <c r="O128" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P128" s="30" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q128" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R128" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="S128" s="32" t="s">
         <v>959</v>
       </c>
-      <c r="S128" s="32" t="s">
-        <v>960</v>
-      </c>
       <c r="T128" s="32" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="U128" s="31">
         <v>13793</v>
       </c>
       <c r="V128" s="20"/>
     </row>
-    <row r="129" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C129" s="22" t="s">
         <v>961</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="C129" s="22" t="s">
+      <c r="D129" s="26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E129" s="22" t="s">
         <v>962</v>
       </c>
-      <c r="D129" s="26" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E129" s="22" t="s">
+      <c r="F129" s="22" t="s">
         <v>963</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="G129" s="22" t="s">
         <v>964</v>
       </c>
-      <c r="G129" s="22" t="s">
+      <c r="H129" s="26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I129" s="22" t="s">
         <v>965</v>
       </c>
-      <c r="H129" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="I129" s="22" t="s">
+      <c r="J129" s="26" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K129" s="22" t="s">
         <v>966</v>
       </c>
-      <c r="J129" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="K129" s="22" t="s">
-        <v>967</v>
-      </c>
       <c r="L129" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M129" s="24">
         <v>38462</v>
@@ -12845,178 +12842,178 @@
         <v>171</v>
       </c>
       <c r="O129" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P129" s="29" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Q129" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R129" s="22" t="s">
+        <v>967</v>
+      </c>
+      <c r="S129" s="22" t="s">
         <v>968</v>
       </c>
-      <c r="S129" s="22" t="s">
-        <v>969</v>
-      </c>
       <c r="T129" s="34" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="U129" s="24">
         <v>13841</v>
       </c>
       <c r="V129" s="23"/>
     </row>
-    <row r="130" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C130" s="19" t="s">
         <v>970</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>971</v>
       </c>
       <c r="D130" s="25">
         <v>1870</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F130" s="19"/>
       <c r="G130" s="19" t="s">
+        <v>972</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I130" s="19" t="s">
         <v>973</v>
       </c>
-      <c r="H130" s="25" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I130" s="19" t="s">
+      <c r="J130" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K130" s="19" t="s">
         <v>974</v>
       </c>
-      <c r="J130" s="25" t="s">
-        <v>1087</v>
-      </c>
-      <c r="K130" s="19" t="s">
-        <v>975</v>
-      </c>
       <c r="L130" s="25" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="M130" s="30" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="N130" s="19" t="s">
         <v>171</v>
       </c>
       <c r="O130" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P130" s="30" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Q130" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R130" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="S130" s="19" t="s">
         <v>976</v>
       </c>
-      <c r="S130" s="19" t="s">
+      <c r="T130" s="32" t="s">
         <v>977</v>
-      </c>
-      <c r="T130" s="32" t="s">
-        <v>978</v>
       </c>
       <c r="U130" s="31">
         <v>13725</v>
       </c>
       <c r="V130" s="20"/>
     </row>
-    <row r="131" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
+        <v>978</v>
+      </c>
+      <c r="B131" s="22" t="s">
         <v>979</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="C131" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E131" s="22" t="s">
         <v>980</v>
       </c>
-      <c r="C131" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E131" s="22" t="s">
+      <c r="F131" s="22" t="s">
         <v>981</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="G131" s="22" t="s">
         <v>982</v>
       </c>
-      <c r="G131" s="22" t="s">
-        <v>983</v>
-      </c>
       <c r="H131" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I131" s="22"/>
       <c r="J131" s="26"/>
       <c r="K131" s="22"/>
       <c r="L131" s="26"/>
       <c r="M131" s="29" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="N131" s="22" t="s">
         <v>138</v>
       </c>
       <c r="O131" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P131" s="29" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Q131" s="22" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R131" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="S131" s="22" t="s">
         <v>984</v>
       </c>
-      <c r="S131" s="22" t="s">
-        <v>985</v>
-      </c>
       <c r="T131" s="34" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="U131" s="24">
         <v>13725</v>
       </c>
       <c r="V131" s="23"/>
     </row>
-    <row r="132" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="B132" s="19" t="s">
         <v>986</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="C132" s="19" t="s">
         <v>987</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="D132" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>988</v>
-      </c>
-      <c r="D132" s="25" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>989</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I132" s="19" t="s">
         <v>990</v>
       </c>
-      <c r="H132" s="25" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I132" s="19" t="s">
-        <v>991</v>
-      </c>
       <c r="J132" s="25" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K132" s="19"/>
       <c r="L132" s="25"/>
@@ -13024,120 +13021,120 @@
         <v>39556</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O132" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P132" s="30" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Q132" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="R132" s="46" t="s">
         <v>992</v>
       </c>
-      <c r="R132" s="46" t="s">
+      <c r="S132" s="19" t="s">
         <v>993</v>
       </c>
-      <c r="S132" s="19" t="s">
+      <c r="T132" s="32" t="s">
+        <v>1229</v>
+      </c>
+      <c r="U132" s="25" t="s">
+        <v>1115</v>
+      </c>
+      <c r="V132" s="20" t="s">
         <v>994</v>
       </c>
-      <c r="T132" s="32" t="s">
-        <v>1230</v>
-      </c>
-      <c r="U132" s="25" t="s">
-        <v>1116</v>
-      </c>
-      <c r="V132" s="20" t="s">
+    </row>
+    <row r="133" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="21" t="s">
+      <c r="B133" s="22" t="s">
         <v>996</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="C133" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E133" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="C133" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E133" s="22" t="s">
+      <c r="F133" s="22" t="s">
         <v>998</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="G133" s="22" t="s">
         <v>999</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="H133" s="26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I133" s="22" t="s">
         <v>1000</v>
       </c>
-      <c r="H133" s="26" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I133" s="22" t="s">
+      <c r="J133" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K133" s="22" t="s">
         <v>1001</v>
       </c>
-      <c r="J133" s="26" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K133" s="22" t="s">
-        <v>1002</v>
-      </c>
       <c r="L133" s="26" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="M133" s="29" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="N133" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O133" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P133" s="29" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Q133" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R133" s="22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S133" s="22" t="s">
         <v>1003</v>
       </c>
-      <c r="S133" s="22" t="s">
-        <v>1004</v>
-      </c>
       <c r="T133" s="34" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="U133" s="24">
         <v>13725</v>
       </c>
       <c r="V133" s="23"/>
     </row>
-    <row r="134" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="C134" s="43" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="B134" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="C134" s="43" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D134" s="3" t="s">
+      <c r="E134" s="43" t="s">
         <v>1325</v>
       </c>
-      <c r="E134" s="43" t="s">
+      <c r="F134" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="G134" s="43" t="s">
         <v>1326</v>
-      </c>
-      <c r="F134" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="G134" s="43" t="s">
-        <v>1327</v>
       </c>
       <c r="H134" s="3">
         <v>1940</v>
@@ -13148,49 +13145,49 @@
       <c r="N134" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O134" s="43" t="s">
+      <c r="O134" s="22" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P134" s="40" t="s">
+        <v>1335</v>
+      </c>
+      <c r="Q134" s="43" t="s">
         <v>1328</v>
       </c>
-      <c r="P134" s="40" t="s">
-        <v>1337</v>
-      </c>
-      <c r="Q134" s="43" t="s">
-        <v>1330</v>
-      </c>
       <c r="R134" s="43" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="T134" s="43" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="U134" s="27">
         <v>14755</v>
       </c>
       <c r="V134" s="43" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B135" s="45" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C135" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="B135" s="45" t="s">
+      <c r="E135" s="45" t="s">
         <v>1333</v>
       </c>
-      <c r="C135" s="45" t="s">
-        <v>431</v>
-      </c>
-      <c r="D135" s="3" t="s">
+      <c r="F135" s="45" t="s">
         <v>1334</v>
       </c>
-      <c r="E135" s="45" t="s">
-        <v>1335</v>
-      </c>
-      <c r="F135" s="45" t="s">
-        <v>1336</v>
-      </c>
       <c r="G135" s="45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H135" s="3">
         <v>1928</v>
@@ -13198,50 +13195,52 @@
       <c r="M135" s="3">
         <v>1928</v>
       </c>
-      <c r="N135" s="45"/>
-      <c r="O135" s="45" t="s">
-        <v>1328</v>
+      <c r="N135" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O135" s="22" t="s">
+        <v>1232</v>
       </c>
       <c r="Q135" s="45" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R135" s="45" t="s">
+        <v>1337</v>
+      </c>
+      <c r="S135" s="33" t="s">
+        <v>1338</v>
+      </c>
+      <c r="T135" s="33" t="s">
         <v>1339</v>
-      </c>
-      <c r="S135" s="33" t="s">
-        <v>1340</v>
-      </c>
-      <c r="T135" s="33" t="s">
-        <v>1341</v>
       </c>
       <c r="U135" s="27">
         <v>873</v>
       </c>
       <c r="V135" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="42" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B136" s="43" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="42" t="s">
+      <c r="C136" s="43" t="s">
         <v>1343</v>
       </c>
-      <c r="B136" s="43" t="s">
+      <c r="D136" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="C136" s="43" t="s">
+      <c r="E136" s="43" t="s">
         <v>1345</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="F136" s="43" t="s">
         <v>1346</v>
       </c>
-      <c r="E136" s="43" t="s">
+      <c r="G136" s="47" t="s">
         <v>1347</v>
-      </c>
-      <c r="F136" s="43" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G136" s="47" t="s">
-        <v>1349</v>
       </c>
       <c r="H136" s="27">
         <v>13858</v>
@@ -13252,52 +13251,52 @@
       <c r="N136" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O136" s="43" t="s">
-        <v>1328</v>
+      <c r="O136" s="22" t="s">
+        <v>1232</v>
       </c>
       <c r="P136" s="40" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Q136" s="43" t="s">
+        <v>1355</v>
+      </c>
+      <c r="R136" s="43" t="s">
+        <v>1348</v>
+      </c>
+      <c r="S136" s="43" t="s">
+        <v>1349</v>
+      </c>
+      <c r="T136" s="48" t="s">
         <v>1350</v>
-      </c>
-      <c r="Q136" s="43" t="s">
-        <v>1358</v>
-      </c>
-      <c r="R136" s="43" t="s">
-        <v>1351</v>
-      </c>
-      <c r="S136" s="43" t="s">
-        <v>1352</v>
-      </c>
-      <c r="T136" s="48" t="s">
-        <v>1353</v>
       </c>
       <c r="U136" s="27">
         <v>13858</v>
       </c>
       <c r="V136" s="43" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B137" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="C137" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E137" s="45" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F137" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="G137" s="45" t="s">
         <v>1354</v>
-      </c>
-      <c r="B137" s="45" t="s">
-        <v>503</v>
-      </c>
-      <c r="C137" s="45" t="s">
-        <v>510</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E137" s="45" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F137" s="45" t="s">
-        <v>503</v>
-      </c>
-      <c r="G137" s="45" t="s">
-        <v>1357</v>
       </c>
       <c r="H137" s="3">
         <v>1923</v>
@@ -13308,26 +13307,26 @@
       <c r="N137" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O137" s="43" t="s">
-        <v>1328</v>
+      <c r="O137" s="22" t="s">
+        <v>1232</v>
       </c>
       <c r="Q137" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R137" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="S137" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="U137" s="27">
         <v>10682</v>
       </c>
       <c r="V137" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$135</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1362">
   <si>
     <t>Фамилия</t>
   </si>
@@ -5194,6 +5194,9 @@
 Очевидцами мученической смерти святителя были 20 французских моряков, реакцию которых описал французский писатель Рене Пуо. Французский патруль наблюдал… Французские моряки «были вне себя». Без всякого преувеличения, они дрожали от гнева и решили вмешаться. Однако начальствовавший над ними офицер, следуя данному ему приказу, с пистолетом в руке помешал им что-либо предпринять…
 Трагическая смерть настигла большое число выдающихся греков Смирны, представителей греческой общины, священников, учителей и старейшин, которые отказались бежать и пали вместе с беззащитным безоружным населением. Вместе с Хризостомом турки уничтожили 347 священников Смирнской епархии из общего числа 459, а также митрополитов Мосхонисийского Амвросия, Кидонийского Григория – погребенного заживо, Иконийского Зилона – зарезанного. Из 46 церквей Смирны сохранилось только три. Никому не удалось узнать, что осталось от растерзанного тела святителя Хризостома. По слухам, тем не менее, тело было похоронено на участке земли, принадлежавшем спортивному обществу Аполлона, а по другой версии – близ одной реки…
 В 1992 году по инициативе афинского Союза смирнийцев Священный Синод Элладской Церкви причислил митрополита Хризостома к лику святых. Указом 2556/5-7 от 1993 года Священный Синод Константинопольской Православной Церкви установил празднование Новомучеников Малоазийской катастрофы в воскресенье предшествующее Крестовоздвижению и поставил имя священномученика Хризостома во главе этого сонма святых.</t>
+  </si>
+  <si>
+    <t>14.07.1901</t>
   </si>
 </sst>
 </file>
@@ -5739,9 +5742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12244,8 +12247,8 @@
       <c r="C120" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="D120" s="24">
-        <v>561</v>
+      <c r="D120" s="24" t="s">
+        <v>1361</v>
       </c>
       <c r="E120" s="22" t="s">
         <v>887</v>

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1431">
   <si>
     <t>Фамилия</t>
   </si>
@@ -5198,12 +5198,219 @@
   <si>
     <t>14.07.1901</t>
   </si>
+  <si>
+    <t>24.05.1940</t>
+  </si>
+  <si>
+    <t>29.07.1937</t>
+  </si>
+  <si>
+    <t>22.05.1902</t>
+  </si>
+  <si>
+    <t>09.12.1937</t>
+  </si>
+  <si>
+    <t>30.03.1929</t>
+  </si>
+  <si>
+    <t>22.11.1937</t>
+  </si>
+  <si>
+    <t>05.10.1937</t>
+  </si>
+  <si>
+    <t>03.01.1938</t>
+  </si>
+  <si>
+    <t>01.03.1926</t>
+  </si>
+  <si>
+    <t>10.10.1919</t>
+  </si>
+  <si>
+    <t>13.09.1937</t>
+  </si>
+  <si>
+    <t>16.06.1934</t>
+  </si>
+  <si>
+    <t>07.04.1930</t>
+  </si>
+  <si>
+    <t>02.11.1937</t>
+  </si>
+  <si>
+    <t>01.11.1942</t>
+  </si>
+  <si>
+    <t>10.07.1918</t>
+  </si>
+  <si>
+    <t>03.04.1918</t>
+  </si>
+  <si>
+    <t>09.08.1918</t>
+  </si>
+  <si>
+    <t>29.12.1937</t>
+  </si>
+  <si>
+    <t>19.02.1938</t>
+  </si>
+  <si>
+    <t>11.06.1961</t>
+  </si>
+  <si>
+    <t>24.09.1938</t>
+  </si>
+  <si>
+    <t>14.04.1913</t>
+  </si>
+  <si>
+    <t>01.04.1931</t>
+  </si>
+  <si>
+    <t>30.08.1931</t>
+  </si>
+  <si>
+    <t>22.10.1918</t>
+  </si>
+  <si>
+    <t>04.09.1937</t>
+  </si>
+  <si>
+    <t>14.01.1938</t>
+  </si>
+  <si>
+    <t>23.01.1938</t>
+  </si>
+  <si>
+    <t>13.08.1922</t>
+  </si>
+  <si>
+    <t>13.07.1918</t>
+  </si>
+  <si>
+    <t>18.08.1921</t>
+  </si>
+  <si>
+    <t>11.03.1930</t>
+  </si>
+  <si>
+    <t>03.06.1982</t>
+  </si>
+  <si>
+    <t>08.12.1919</t>
+  </si>
+  <si>
+    <t>14.02.1966</t>
+  </si>
+  <si>
+    <t>25.06.1918</t>
+  </si>
+  <si>
+    <t>18.03.1956</t>
+  </si>
+  <si>
+    <t>14.02.1915</t>
+  </si>
+  <si>
+    <t>12.07.1994</t>
+  </si>
+  <si>
+    <t>27.08.1922</t>
+  </si>
+  <si>
+    <t>18.04.2008</t>
+  </si>
+  <si>
+    <t>20.04.2005</t>
+  </si>
+  <si>
+    <t>16.08.2000</t>
+  </si>
+  <si>
+    <t>26.12.2006</t>
+  </si>
+  <si>
+    <t>06.10.2006</t>
+  </si>
+  <si>
+    <t>22.11.2017</t>
+  </si>
+  <si>
+    <t>20.08.2000</t>
+  </si>
+  <si>
+    <t>14.06.2011</t>
+  </si>
+  <si>
+    <t>17.10.2002</t>
+  </si>
+  <si>
+    <t>15.07.2016</t>
+  </si>
+  <si>
+    <t>18.08.2004</t>
+  </si>
+  <si>
+    <t>26.12.2001</t>
+  </si>
+  <si>
+    <t>22.11.1995</t>
+  </si>
+  <si>
+    <t>06.07.1988</t>
+  </si>
+  <si>
+    <t>26.11.1987</t>
+  </si>
+  <si>
+    <t>29.01.1903</t>
+  </si>
+  <si>
+    <t>28.07.1914</t>
+  </si>
+  <si>
+    <t>06.06.1988</t>
+  </si>
+  <si>
+    <t>05.04.1992</t>
+  </si>
+  <si>
+    <t>19.05.2003</t>
+  </si>
+  <si>
+    <t>26.06.1962</t>
+  </si>
+  <si>
+    <t>06.10.2009</t>
+  </si>
+  <si>
+    <t>02.03.2011</t>
+  </si>
+  <si>
+    <t>13.01.2015</t>
+  </si>
+  <si>
+    <t>04.11.1992</t>
+  </si>
+  <si>
+    <t>31.12.1961</t>
+  </si>
+  <si>
+    <t>25.07.1924</t>
+  </si>
+  <si>
+    <t>27.07.1913</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5289,8 +5496,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5301,6 +5522,16 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -5359,11 +5590,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5380,14 +5613,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5412,28 +5639,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
@@ -5459,10 +5668,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="3" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5742,27 +5965,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="32" customWidth="1"/>
     <col min="5" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13" style="32" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13" style="32" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="13" style="3" customWidth="1"/>
+    <col min="12" max="13" width="13" style="32" customWidth="1"/>
     <col min="14" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="41.5703125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" style="32" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="41.85546875" customWidth="1"/>
     <col min="19" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="32" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5776,7 +5999,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -5788,22 +6011,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="32" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
@@ -5812,7 +6035,7 @@
       <c r="O1" t="s">
         <v>1231</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="32" t="s">
         <v>10</v>
       </c>
       <c r="Q1" t="s">
@@ -5827,7 +6050,7 @@
       <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="32" t="s">
         <v>15</v>
       </c>
       <c r="V1" t="s">
@@ -5838,7 +6061,7 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="32" t="s">
         <v>1061</v>
       </c>
       <c r="E2" t="s">
@@ -5847,22 +6070,22 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="32" t="s">
         <v>1061</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="32" t="s">
         <v>1061</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="32" t="s">
         <v>1234</v>
       </c>
       <c r="Q2" t="s">
@@ -5877,7 +6100,7 @@
       <c r="T2" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="32">
         <v>101</v>
       </c>
     </row>
@@ -5885,7 +6108,7 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="32">
         <v>100</v>
       </c>
       <c r="E3" t="s">
@@ -5894,28 +6117,28 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="32" t="s">
         <v>1062</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="32" t="s">
         <v>1062</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="32" t="s">
         <v>1062</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="30" t="s">
         <v>1232</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="32" t="s">
         <v>1235</v>
       </c>
       <c r="Q3" t="s">
@@ -5930,7 +6153,7 @@
       <c r="T3" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="32">
         <v>165</v>
       </c>
     </row>
@@ -5938,7 +6161,7 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="32">
         <v>200</v>
       </c>
       <c r="E4" t="s">
@@ -5947,7 +6170,7 @@
       <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="32" t="s">
         <v>1063</v>
       </c>
       <c r="N4" t="s">
@@ -5956,7 +6179,7 @@
       <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="32" t="s">
         <v>1236</v>
       </c>
       <c r="Q4" t="s">
@@ -5971,7 +6194,7 @@
       <c r="T4" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="32" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -5979,7 +6202,7 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="32">
         <v>330</v>
       </c>
       <c r="E5" t="s">
@@ -5988,13 +6211,13 @@
       <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="32" t="s">
         <v>1064</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="32" t="s">
         <v>1059</v>
       </c>
       <c r="N5" t="s">
@@ -6003,7 +6226,7 @@
       <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="32" t="s">
         <v>40</v>
       </c>
       <c r="Q5" t="s">
@@ -6018,7 +6241,7 @@
       <c r="T5" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="32">
         <v>379</v>
       </c>
     </row>
@@ -6026,7 +6249,7 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="32">
         <v>347</v>
       </c>
       <c r="E6" t="s">
@@ -6035,7 +6258,7 @@
       <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="32" t="s">
         <v>1064</v>
       </c>
       <c r="N6" t="s">
@@ -6044,7 +6267,7 @@
       <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="32" t="s">
         <v>47</v>
       </c>
       <c r="Q6" t="s">
@@ -6059,7 +6282,7 @@
       <c r="T6" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="32" t="s">
         <v>1101</v>
       </c>
       <c r="V6" t="s">
@@ -6070,7 +6293,7 @@
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="32" t="s">
         <v>1065</v>
       </c>
       <c r="E7" t="s">
@@ -6079,22 +6302,22 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="32" t="s">
         <v>1065</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="32" t="s">
         <v>1076</v>
       </c>
       <c r="N7" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="32" t="s">
         <v>1237</v>
       </c>
       <c r="Q7" t="s">
@@ -6109,7 +6332,7 @@
       <c r="T7" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="32">
         <v>563</v>
       </c>
     </row>
@@ -6117,7 +6340,7 @@
       <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="32">
         <v>579</v>
       </c>
       <c r="E8" t="s">
@@ -6126,7 +6349,7 @@
       <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="32">
         <v>595</v>
       </c>
       <c r="N8" t="s">
@@ -6135,7 +6358,7 @@
       <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="40" t="s">
+      <c r="P8" s="32" t="s">
         <v>397</v>
       </c>
       <c r="Q8" t="s">
@@ -6150,7 +6373,7 @@
       <c r="T8" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="32">
         <v>649</v>
       </c>
     </row>
@@ -6158,7 +6381,7 @@
       <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="32">
         <v>675</v>
       </c>
       <c r="E9" t="s">
@@ -6167,7 +6390,7 @@
       <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="32" t="s">
         <v>398</v>
       </c>
       <c r="N9" t="s">
@@ -6176,7 +6399,7 @@
       <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="P9" s="32" t="s">
         <v>1238</v>
       </c>
       <c r="Q9" t="s">
@@ -6191,7 +6414,7 @@
       <c r="T9" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="32">
         <v>780</v>
       </c>
     </row>
@@ -6199,7 +6422,7 @@
       <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="32">
         <v>759</v>
       </c>
       <c r="E10" t="s">
@@ -6208,16 +6431,16 @@
       <c r="G10" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="32">
         <v>781</v>
       </c>
       <c r="I10" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="32">
         <v>798</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="32">
         <v>828</v>
       </c>
       <c r="N10" t="s">
@@ -6226,7 +6449,7 @@
       <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="32" t="s">
         <v>68</v>
       </c>
       <c r="Q10" t="s">
@@ -6241,7 +6464,7 @@
       <c r="T10" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="32">
         <v>826</v>
       </c>
     </row>
@@ -6249,7 +6472,7 @@
       <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="32">
         <v>860</v>
       </c>
       <c r="E11" t="s">
@@ -6258,10 +6481,10 @@
       <c r="G11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="32">
         <v>1144</v>
       </c>
       <c r="N11" t="s">
@@ -6270,7 +6493,7 @@
       <c r="O11" t="s">
         <v>1232</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="32" t="s">
         <v>1239</v>
       </c>
       <c r="Q11" t="s">
@@ -6285,7 +6508,7 @@
       <c r="T11" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="32" t="s">
         <v>399</v>
       </c>
       <c r="V11" t="s">
@@ -6296,7 +6519,7 @@
       <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="32">
         <v>949</v>
       </c>
       <c r="E12" t="s">
@@ -6305,7 +6528,7 @@
       <c r="G12" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="32" t="s">
         <v>401</v>
       </c>
       <c r="N12" t="s">
@@ -6314,7 +6537,7 @@
       <c r="O12" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="32" t="s">
         <v>1240</v>
       </c>
       <c r="Q12" t="s">
@@ -6329,7 +6552,7 @@
       <c r="T12" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="32">
         <v>1022</v>
       </c>
     </row>
@@ -6337,7 +6560,7 @@
       <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="32">
         <v>900</v>
       </c>
       <c r="E13" t="s">
@@ -6346,16 +6569,16 @@
       <c r="G13" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="32" t="s">
         <v>1079</v>
       </c>
       <c r="I13" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="32" t="s">
         <v>1233</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="32" t="s">
         <v>1080</v>
       </c>
       <c r="N13" t="s">
@@ -6364,7 +6587,7 @@
       <c r="O13" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="32" t="s">
         <v>1241</v>
       </c>
       <c r="Q13" t="s">
@@ -6379,7 +6602,7 @@
       <c r="T13" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="32" t="s">
         <v>1304</v>
       </c>
       <c r="V13" t="s">
@@ -6390,7 +6613,7 @@
       <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="32">
         <v>1073</v>
       </c>
       <c r="E14" t="s">
@@ -6399,10 +6622,10 @@
       <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="32" t="s">
         <v>1080</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="32" t="s">
         <v>1066</v>
       </c>
       <c r="N14" t="s">
@@ -6411,7 +6634,7 @@
       <c r="O14" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="40" t="s">
+      <c r="P14" s="32" t="s">
         <v>1243</v>
       </c>
       <c r="Q14" t="s">
@@ -6426,7 +6649,7 @@
       <c r="T14" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="32">
         <v>1125</v>
       </c>
       <c r="V14" t="s">
@@ -6437,7 +6660,7 @@
       <c r="B15" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="32">
         <v>1114</v>
       </c>
       <c r="E15" t="s">
@@ -6449,16 +6672,16 @@
       <c r="G15" t="s">
         <v>404</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="32" t="s">
         <v>1080</v>
       </c>
       <c r="I15" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="32" t="s">
         <v>1305</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="32">
         <v>1204</v>
       </c>
       <c r="N15" t="s">
@@ -6467,7 +6690,7 @@
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="32" t="s">
         <v>1242</v>
       </c>
       <c r="Q15" t="s">
@@ -6482,7 +6705,7 @@
       <c r="T15" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="32">
         <v>1200</v>
       </c>
       <c r="V15" t="s">
@@ -6493,7 +6716,7 @@
       <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="32">
         <v>1166</v>
       </c>
       <c r="E16" t="s">
@@ -6502,7 +6725,7 @@
       <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="32" t="s">
         <v>1066</v>
       </c>
       <c r="N16" t="s">
@@ -6511,7 +6734,7 @@
       <c r="O16" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="40" t="s">
+      <c r="P16" s="32" t="s">
         <v>1244</v>
       </c>
       <c r="Q16" t="s">
@@ -6526,7 +6749,7 @@
       <c r="T16" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="32">
         <v>1213</v>
       </c>
     </row>
@@ -6537,7 +6760,7 @@
       <c r="B17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="33">
         <v>1169</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -6549,17 +6772,17 @@
       <c r="G17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="33" t="s">
         <v>1067</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="33" t="s">
         <v>1066</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
+      <c r="L17" s="33"/>
+      <c r="M17" s="33" t="s">
         <v>1066</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -6568,7 +6791,7 @@
       <c r="O17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="41" t="s">
+      <c r="P17" s="33" t="s">
         <v>1245</v>
       </c>
       <c r="Q17" s="4" t="s">
@@ -6583,7 +6806,7 @@
       <c r="T17" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="33">
         <v>1236</v>
       </c>
     </row>
@@ -6594,7 +6817,7 @@
       <c r="B18" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="32">
         <v>1296</v>
       </c>
       <c r="E18" t="s">
@@ -6603,10 +6826,10 @@
       <c r="G18" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="32" t="s">
         <v>1068</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="32">
         <v>1368</v>
       </c>
       <c r="N18" t="s">
@@ -6615,7 +6838,7 @@
       <c r="O18" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="40" t="s">
+      <c r="P18" s="32" t="s">
         <v>1246</v>
       </c>
       <c r="Q18" t="s">
@@ -6638,7 +6861,7 @@
       <c r="B19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="33">
         <v>1268</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -6647,17 +6870,17 @@
       <c r="G19" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="33" t="s">
         <v>1066</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="33" t="s">
         <v>1068</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7" t="s">
+      <c r="L19" s="33"/>
+      <c r="M19" s="33" t="s">
         <v>1068</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -6666,7 +6889,7 @@
       <c r="O19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="41" t="s">
+      <c r="P19" s="33" t="s">
         <v>1247</v>
       </c>
       <c r="Q19" s="4" t="s">
@@ -6681,7 +6904,7 @@
       <c r="T19" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="33">
         <v>1346</v>
       </c>
     </row>
@@ -6692,7 +6915,7 @@
       <c r="B20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="32">
         <v>1392</v>
       </c>
       <c r="E20" t="s">
@@ -6704,22 +6927,22 @@
       <c r="G20" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="32" t="s">
         <v>1069</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="32" t="s">
         <v>1069</v>
       </c>
       <c r="K20" t="s">
         <v>409</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="32" t="s">
         <v>1069</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="32">
         <v>1734</v>
       </c>
       <c r="N20" t="s">
@@ -6728,7 +6951,7 @@
       <c r="O20" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="40" t="s">
+      <c r="P20" s="32" t="s">
         <v>1248</v>
       </c>
       <c r="Q20" t="s">
@@ -6743,7 +6966,7 @@
       <c r="T20" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="32">
         <v>1444</v>
       </c>
       <c r="V20" t="s">
@@ -6754,7 +6977,7 @@
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="33" t="s">
         <v>1068</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6763,12 +6986,12 @@
       <c r="G21" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="33" t="s">
         <v>1069</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7">
+      <c r="J21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33">
         <v>1981</v>
       </c>
       <c r="N21" s="4" t="s">
@@ -6777,7 +7000,7 @@
       <c r="O21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="41" t="s">
+      <c r="P21" s="33" t="s">
         <v>1249</v>
       </c>
       <c r="Q21" s="4" t="s">
@@ -6792,7 +7015,7 @@
       <c r="T21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="33">
         <v>1429</v>
       </c>
     </row>
@@ -6800,7 +7023,7 @@
       <c r="B22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="32">
         <v>1510</v>
       </c>
       <c r="E22" t="s">
@@ -6809,10 +7032,10 @@
       <c r="G22" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="32" t="s">
         <v>1070</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="32">
         <v>1572</v>
       </c>
       <c r="N22" t="s">
@@ -6821,7 +7044,7 @@
       <c r="O22" t="s">
         <v>1232</v>
       </c>
-      <c r="P22" s="40" t="s">
+      <c r="P22" s="32" t="s">
         <v>755</v>
       </c>
       <c r="Q22" t="s">
@@ -6836,7 +7059,7 @@
       <c r="T22" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="32">
         <v>1568</v>
       </c>
     </row>
@@ -6847,7 +7070,7 @@
       <c r="B23" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="33">
         <v>1547</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -6859,17 +7082,17 @@
       <c r="G23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="33" t="s">
         <v>1070</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="33" t="s">
         <v>1070</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7">
+      <c r="L23" s="33"/>
+      <c r="M23" s="33">
         <v>1703</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -6878,7 +7101,7 @@
       <c r="O23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="41" t="s">
+      <c r="P23" s="33" t="s">
         <v>1250</v>
       </c>
       <c r="Q23" s="4" t="s">
@@ -6893,7 +7116,7 @@
       <c r="T23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="33">
         <v>1622</v>
       </c>
       <c r="V23" s="4" t="s">
@@ -6904,7 +7127,7 @@
       <c r="B24" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="32">
         <v>1587</v>
       </c>
       <c r="E24" t="s">
@@ -6913,16 +7136,16 @@
       <c r="G24" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="32" t="s">
         <v>1071</v>
       </c>
       <c r="I24" t="s">
         <v>413</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="42" t="s">
         <v>1071</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="32" t="s">
         <v>1071</v>
       </c>
       <c r="N24" t="s">
@@ -6931,7 +7154,7 @@
       <c r="O24" t="s">
         <v>1232</v>
       </c>
-      <c r="P24" s="40" t="s">
+      <c r="P24" s="32" t="s">
         <v>1251</v>
       </c>
       <c r="Q24" t="s">
@@ -6946,7 +7169,7 @@
       <c r="T24" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="32">
         <v>1622</v>
       </c>
     </row>
@@ -6954,7 +7177,7 @@
       <c r="B25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="33" t="s">
         <v>1070</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -6963,12 +7186,12 @@
       <c r="G25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="33" t="s">
         <v>1071</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7">
+      <c r="J25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33">
         <v>1815</v>
       </c>
       <c r="N25" s="4" t="s">
@@ -6977,7 +7200,7 @@
       <c r="O25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P25" s="41" t="s">
+      <c r="P25" s="33" t="s">
         <v>1252</v>
       </c>
       <c r="Q25" s="4" t="s">
@@ -6992,7 +7215,7 @@
       <c r="T25" s="6" t="s">
         <v>1134</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="33">
         <v>1651</v>
       </c>
       <c r="V25" s="4" t="s">
@@ -7003,7 +7226,7 @@
       <c r="B26" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="32">
         <v>1775</v>
       </c>
       <c r="E26" t="s">
@@ -7012,10 +7235,10 @@
       <c r="G26" t="s">
         <v>415</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="32">
         <v>1795</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="32">
         <v>1912</v>
       </c>
       <c r="N26" t="s">
@@ -7024,7 +7247,7 @@
       <c r="O26" t="s">
         <v>1232</v>
       </c>
-      <c r="P26" s="40" t="s">
+      <c r="P26" s="32" t="s">
         <v>1253</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -7036,7 +7259,7 @@
       <c r="T26" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="U26" s="32" t="s">
         <v>1102</v>
       </c>
       <c r="V26" t="s">
@@ -7047,7 +7270,7 @@
       <c r="B27" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="32">
         <v>1714</v>
       </c>
       <c r="E27" t="s">
@@ -7059,16 +7282,16 @@
       <c r="G27" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="32" t="s">
         <v>417</v>
       </c>
       <c r="I27" t="s">
         <v>163</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="32">
         <v>1961</v>
       </c>
       <c r="N27" t="s">
@@ -7077,7 +7300,7 @@
       <c r="O27" t="s">
         <v>33</v>
       </c>
-      <c r="P27" s="40" t="s">
+      <c r="P27" s="32" t="s">
         <v>1254</v>
       </c>
       <c r="Q27" t="s">
@@ -7092,7 +7315,7 @@
       <c r="T27" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="U27" s="32" t="s">
         <v>1103</v>
       </c>
       <c r="V27" t="s">
@@ -7106,7 +7329,7 @@
       <c r="B28" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="32">
         <v>1745</v>
       </c>
       <c r="E28" t="s">
@@ -7118,10 +7341,10 @@
       <c r="G28" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="32" t="s">
         <v>1072</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="32">
         <v>1921</v>
       </c>
       <c r="N28" t="s">
@@ -7130,7 +7353,7 @@
       <c r="O28" t="s">
         <v>1232</v>
       </c>
-      <c r="P28" s="40" t="s">
+      <c r="P28" s="32" t="s">
         <v>736</v>
       </c>
       <c r="Q28" t="s">
@@ -7145,7 +7368,7 @@
       <c r="T28" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="U28" s="32" t="s">
         <v>1104</v>
       </c>
       <c r="V28" t="s">
@@ -7159,7 +7382,7 @@
       <c r="B29" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="32">
         <v>1739</v>
       </c>
       <c r="E29" t="s">
@@ -7171,17 +7394,17 @@
       <c r="G29" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="32" t="s">
         <v>1073</v>
       </c>
       <c r="I29" t="s">
         <v>422</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="32" t="s">
         <v>1072</v>
       </c>
-      <c r="M29" s="27">
-        <v>22646</v>
+      <c r="M29" s="32" t="s">
+        <v>1428</v>
       </c>
       <c r="N29" t="s">
         <v>39</v>
@@ -7189,7 +7412,7 @@
       <c r="O29" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="P29" s="32" t="s">
         <v>1255</v>
       </c>
       <c r="Q29" t="s">
@@ -7204,7 +7427,7 @@
       <c r="T29" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="32" t="s">
         <v>1105</v>
       </c>
       <c r="V29" t="s">
@@ -7218,7 +7441,7 @@
       <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="32" t="s">
         <v>1004</v>
       </c>
       <c r="E30" t="s">
@@ -7230,11 +7453,11 @@
       <c r="G30" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="32" t="s">
         <v>1074</v>
       </c>
-      <c r="M30" s="27">
-        <v>33912</v>
+      <c r="M30" s="32" t="s">
+        <v>1427</v>
       </c>
       <c r="N30" t="s">
         <v>171</v>
@@ -7242,7 +7465,7 @@
       <c r="O30" t="s">
         <v>1232</v>
       </c>
-      <c r="P30" s="40" t="s">
+      <c r="P30" s="32" t="s">
         <v>1256</v>
       </c>
       <c r="Q30" t="s">
@@ -7257,8 +7480,8 @@
       <c r="T30" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="U30" s="27">
-        <v>8275</v>
+      <c r="U30" s="32" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7268,8 +7491,8 @@
       <c r="B31" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="27">
-        <v>8973</v>
+      <c r="D31" s="32" t="s">
+        <v>1429</v>
       </c>
       <c r="E31" t="s">
         <v>423</v>
@@ -7280,11 +7503,11 @@
       <c r="G31" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="32" t="s">
         <v>1074</v>
       </c>
-      <c r="M31" s="27">
-        <v>42017</v>
+      <c r="M31" s="32" t="s">
+        <v>1426</v>
       </c>
       <c r="N31" t="s">
         <v>53</v>
@@ -7292,7 +7515,7 @@
       <c r="O31" t="s">
         <v>53</v>
       </c>
-      <c r="P31" s="40" t="s">
+      <c r="P31" s="32" t="s">
         <v>1257</v>
       </c>
       <c r="Q31" t="s">
@@ -7307,8 +7530,8 @@
       <c r="T31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="U31" s="27">
-        <v>34527</v>
+      <c r="U31" s="32" t="s">
+        <v>1401</v>
       </c>
       <c r="V31" t="s">
         <v>406</v>
@@ -7320,7 +7543,7 @@
         <v>193</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="33" t="s">
         <v>1061</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -7330,29 +7553,29 @@
       <c r="G32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="33" t="s">
         <v>1075</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="33" t="s">
         <v>1061</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="33" t="s">
         <v>1061</v>
       </c>
-      <c r="M32" s="7"/>
+      <c r="M32" s="33"/>
       <c r="N32" s="4" t="s">
         <v>196</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P32" s="41" t="s">
+      <c r="P32" s="33" t="s">
         <v>1258</v>
       </c>
       <c r="Q32" s="4" t="s">
@@ -7367,7 +7590,7 @@
       <c r="T32" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="33">
         <v>96</v>
       </c>
       <c r="V32" s="4" t="s">
@@ -7380,7 +7603,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="33" t="s">
         <v>1062</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -7390,21 +7613,21 @@
       <c r="G33" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="33" t="s">
         <v>1061</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="7"/>
+      <c r="J33" s="33"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
       <c r="N33" s="4" t="s">
         <v>196</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P33" s="41" t="s">
+      <c r="P33" s="33" t="s">
         <v>1259</v>
       </c>
       <c r="Q33" s="4" t="s">
@@ -7419,7 +7642,7 @@
       <c r="T33" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="U33" s="7" t="s">
+      <c r="U33" s="33" t="s">
         <v>1061</v>
       </c>
       <c r="V33" s="4" t="s">
@@ -7432,7 +7655,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="7">
+      <c r="D34" s="33">
         <v>213</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -7442,14 +7665,14 @@
       <c r="G34" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="33" t="s">
         <v>1063</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="33"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7" t="s">
+      <c r="L34" s="33"/>
+      <c r="M34" s="33" t="s">
         <v>1064</v>
       </c>
       <c r="N34" s="4" t="s">
@@ -7458,7 +7681,7 @@
       <c r="O34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="41" t="s">
+      <c r="P34" s="33" t="s">
         <v>1260</v>
       </c>
       <c r="Q34" s="4" t="s">
@@ -7473,7 +7696,7 @@
       <c r="T34" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="U34" s="7">
+      <c r="U34" s="33">
         <v>270</v>
       </c>
       <c r="V34" s="4" t="s">
@@ -7486,7 +7709,7 @@
         <v>207</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="33" t="s">
         <v>1063</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -7496,23 +7719,23 @@
       <c r="G35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="33">
         <v>230</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
       <c r="N35" s="4" t="s">
         <v>73</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P35" s="41" t="s">
+      <c r="P35" s="33" t="s">
         <v>1261</v>
       </c>
       <c r="Q35" s="4" t="s">
@@ -7527,7 +7750,7 @@
       <c r="T35" s="6" t="s">
         <v>1143</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="33">
         <v>230</v>
       </c>
       <c r="V35" s="4" t="s">
@@ -7540,7 +7763,7 @@
         <v>210</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="8">
+      <c r="D36" s="41">
         <v>329</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -7550,21 +7773,21 @@
       <c r="G36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="33" t="s">
         <v>1064</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="7"/>
+      <c r="J36" s="33"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
       <c r="N36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="41" t="s">
+      <c r="P36" s="33" t="s">
         <v>1262</v>
       </c>
       <c r="Q36" s="4" t="s">
@@ -7579,7 +7802,7 @@
       <c r="T36" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="33">
         <v>389</v>
       </c>
       <c r="V36" s="4" t="s">
@@ -7592,7 +7815,7 @@
         <v>214</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="41" t="s">
         <v>342</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -7602,25 +7825,25 @@
       <c r="G37" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="33" t="s">
         <v>1064</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="33" t="s">
         <v>1064</v>
       </c>
       <c r="K37" s="4"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
       <c r="N37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="41" t="s">
+      <c r="P37" s="33" t="s">
         <v>1263</v>
       </c>
       <c r="Q37" s="4" t="s">
@@ -7635,7 +7858,7 @@
       <c r="T37" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="U37" s="7" t="s">
+      <c r="U37" s="33" t="s">
         <v>348</v>
       </c>
       <c r="V37" s="4" t="s">
@@ -7648,7 +7871,7 @@
         <v>217</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="8">
+      <c r="D38" s="41">
         <v>376</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -7658,29 +7881,29 @@
       <c r="G38" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="33" t="s">
         <v>1065</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="33" t="s">
         <v>1065</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="M38" s="7"/>
+      <c r="M38" s="33"/>
       <c r="N38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P38" s="41" t="s">
+      <c r="P38" s="33" t="s">
         <v>218</v>
       </c>
       <c r="Q38" s="4" t="s">
@@ -7695,7 +7918,7 @@
       <c r="T38" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="U38" s="7" t="s">
+      <c r="U38" s="33" t="s">
         <v>347</v>
       </c>
       <c r="V38" s="4" t="s">
@@ -7708,7 +7931,7 @@
         <v>222</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="33" t="s">
         <v>341</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -7718,27 +7941,27 @@
       <c r="G39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="33" t="s">
         <v>1065</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="7"/>
+      <c r="J39" s="33"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
       <c r="N39" s="4" t="s">
         <v>223</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="41" t="s">
+      <c r="P39" s="33" t="s">
         <v>1264</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="8" t="s">
         <v>224</v>
       </c>
       <c r="S39" s="6" t="s">
@@ -7747,7 +7970,7 @@
       <c r="T39" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="U39" s="7" t="s">
+      <c r="U39" s="33" t="s">
         <v>346</v>
       </c>
       <c r="V39" s="4" t="s">
@@ -7760,31 +7983,31 @@
         <v>226</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="7">
+      <c r="D40" s="33">
         <v>483</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="12" t="s">
         <v>1034</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="33" t="s">
         <v>1076</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="33"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
       <c r="N40" s="4" t="s">
         <v>227</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P40" s="41" t="s">
+      <c r="P40" s="33" t="s">
         <v>1246</v>
       </c>
       <c r="Q40" s="4" t="s">
@@ -7799,7 +8022,7 @@
       <c r="T40" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="U40" s="7" t="s">
+      <c r="U40" s="33" t="s">
         <v>345</v>
       </c>
       <c r="V40" s="4" t="s">
@@ -7812,7 +8035,7 @@
         <v>231</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="7">
+      <c r="D41" s="33">
         <v>540</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -7822,21 +8045,21 @@
       <c r="G41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="33" t="s">
         <v>1076</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="33"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
       <c r="N41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P41" s="41" t="s">
+      <c r="P41" s="33" t="s">
         <v>1265</v>
       </c>
       <c r="Q41" s="4" t="s">
@@ -7851,7 +8074,7 @@
       <c r="T41" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="U41" s="33" t="s">
         <v>344</v>
       </c>
       <c r="V41" s="4" t="s">
@@ -7864,7 +8087,7 @@
         <v>235</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="7">
+      <c r="D42" s="33">
         <v>582</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -7874,29 +8097,29 @@
       <c r="G42" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="33" t="s">
         <v>1077</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="33" t="s">
         <v>1077</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="33" t="s">
         <v>1077</v>
       </c>
-      <c r="M42" s="7"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="4" t="s">
         <v>53</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P42" s="41" t="s">
+      <c r="P42" s="33" t="s">
         <v>1266</v>
       </c>
       <c r="Q42" s="4" t="s">
@@ -7911,7 +8134,7 @@
       <c r="T42" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="U42" s="7" t="s">
+      <c r="U42" s="33" t="s">
         <v>349</v>
       </c>
       <c r="V42" s="4" t="s">
@@ -7924,7 +8147,7 @@
         <v>239</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="7">
+      <c r="D43" s="33">
         <v>560</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -7934,29 +8157,29 @@
       <c r="G43" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="33" t="s">
         <v>1076</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="33" t="s">
         <v>1077</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="33" t="s">
         <v>1077</v>
       </c>
-      <c r="M43" s="7"/>
+      <c r="M43" s="33"/>
       <c r="N43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P43" s="41" t="s">
+      <c r="P43" s="33" t="s">
         <v>1255</v>
       </c>
       <c r="Q43" s="4" t="s">
@@ -7971,7 +8194,7 @@
       <c r="T43" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="33">
         <v>638</v>
       </c>
       <c r="V43" s="4" t="s">
@@ -7984,7 +8207,7 @@
         <v>242</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="7">
+      <c r="D44" s="33">
         <v>730</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -7994,31 +8217,31 @@
       <c r="G44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="33" t="s">
         <v>1078</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="33" t="s">
         <v>1077</v>
       </c>
       <c r="K44" s="4"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
       <c r="N44" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P44" s="41" t="s">
+      <c r="P44" s="33" t="s">
         <v>1267</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="R44" s="8" t="s">
         <v>244</v>
       </c>
       <c r="S44" s="6" t="s">
@@ -8027,7 +8250,7 @@
       <c r="T44" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="U44" s="7">
+      <c r="U44" s="33">
         <v>806</v>
       </c>
       <c r="V44" s="4" t="s">
@@ -8040,7 +8263,7 @@
         <v>245</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="7">
+      <c r="D45" s="33">
         <v>710</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -8050,14 +8273,14 @@
       <c r="G45" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="33" t="s">
         <v>1078</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="7"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7">
+      <c r="L45" s="33"/>
+      <c r="M45" s="33">
         <v>870</v>
       </c>
       <c r="N45" s="4" t="s">
@@ -8066,7 +8289,7 @@
       <c r="O45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P45" s="41" t="s">
+      <c r="P45" s="33" t="s">
         <v>1244</v>
       </c>
       <c r="Q45" s="4" t="s">
@@ -8081,7 +8304,7 @@
       <c r="T45" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="33">
         <v>779</v>
       </c>
       <c r="V45" s="4" t="s">
@@ -8094,7 +8317,7 @@
         <v>251</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="7">
+      <c r="D46" s="33">
         <v>778</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -8104,29 +8327,29 @@
       <c r="G46" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="33" t="s">
         <v>1078</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="33" t="s">
         <v>1095</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="33" t="s">
         <v>1095</v>
       </c>
-      <c r="M46" s="7"/>
+      <c r="M46" s="33"/>
       <c r="N46" s="4" t="s">
         <v>252</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P46" s="41" t="s">
+      <c r="P46" s="33" t="s">
         <v>1268</v>
       </c>
       <c r="Q46" s="4" t="s">
@@ -8141,7 +8364,7 @@
       <c r="T46" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="33">
         <v>840</v>
       </c>
       <c r="V46" s="4" t="s">
@@ -8156,7 +8379,7 @@
         <v>257</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="7">
+      <c r="D47" s="33">
         <v>907</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -8166,21 +8389,21 @@
       <c r="G47" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="33" t="s">
         <v>1079</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="7"/>
+      <c r="J47" s="33"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
       <c r="N47" s="4" t="s">
         <v>258</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P47" s="41" t="s">
+      <c r="P47" s="33" t="s">
         <v>1269</v>
       </c>
       <c r="Q47" s="4" t="s">
@@ -8195,7 +8418,7 @@
       <c r="T47" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="33">
         <v>935</v>
       </c>
       <c r="V47" s="4" t="s">
@@ -8210,7 +8433,7 @@
         <v>127</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="7">
+      <c r="D48" s="33">
         <v>894</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -8222,21 +8445,21 @@
       <c r="G48" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="33" t="s">
         <v>1079</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="7"/>
+      <c r="J48" s="33"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
       <c r="N48" s="4" t="s">
         <v>53</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P48" s="41" t="s">
+      <c r="P48" s="33" t="s">
         <v>1270</v>
       </c>
       <c r="Q48" s="4" t="s">
@@ -8251,7 +8474,7 @@
       <c r="T48" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="U48" s="7">
+      <c r="U48" s="33">
         <v>962</v>
       </c>
       <c r="V48" s="4" t="s">
@@ -8264,7 +8487,7 @@
         <v>267</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="7">
+      <c r="D49" s="33">
         <v>1115</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -8276,29 +8499,29 @@
       <c r="G49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="33" t="s">
         <v>1080</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="33" t="s">
         <v>1080</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="33" t="s">
         <v>1080</v>
       </c>
-      <c r="M49" s="7"/>
+      <c r="M49" s="33"/>
       <c r="N49" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P49" s="41" t="s">
+      <c r="P49" s="33" t="s">
         <v>1271</v>
       </c>
       <c r="Q49" s="4" t="s">
@@ -8313,7 +8536,7 @@
       <c r="T49" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="33">
         <v>1186</v>
       </c>
       <c r="V49" s="4" t="s">
@@ -8326,7 +8549,7 @@
         <v>273</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="7">
+      <c r="D50" s="33">
         <v>1259</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -8334,19 +8557,19 @@
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="7"/>
+      <c r="J50" s="33"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
       <c r="N50" s="4" t="s">
         <v>274</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P50" s="41" t="s">
+      <c r="P50" s="33" t="s">
         <v>1265</v>
       </c>
       <c r="Q50" s="4" t="s">
@@ -8361,7 +8584,7 @@
       <c r="T50" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="U50" s="7" t="s">
+      <c r="U50" s="33" t="s">
         <v>360</v>
       </c>
       <c r="V50" s="4" t="s">
@@ -8376,7 +8599,7 @@
         <v>278</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="7">
+      <c r="D51" s="33">
         <v>1329</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -8386,21 +8609,21 @@
       <c r="G51" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="33">
         <v>1389</v>
       </c>
       <c r="I51" s="4"/>
-      <c r="J51" s="7"/>
+      <c r="J51" s="33"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
       <c r="N51" s="4" t="s">
         <v>279</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P51" s="41" t="s">
+      <c r="P51" s="33" t="s">
         <v>710</v>
       </c>
       <c r="Q51" s="4" t="s">
@@ -8415,7 +8638,7 @@
       <c r="T51" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="U51" s="7">
+      <c r="U51" s="33">
         <v>1389</v>
       </c>
       <c r="V51" s="4" t="s">
@@ -8428,7 +8651,7 @@
         <v>283</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="7">
+      <c r="D52" s="33">
         <v>1300</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -8438,21 +8661,21 @@
       <c r="G52" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="33">
         <v>1330</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="7"/>
+      <c r="J52" s="33"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
       <c r="N52" s="4" t="s">
         <v>284</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P52" s="41" t="s">
+      <c r="P52" s="33" t="s">
         <v>1272</v>
       </c>
       <c r="Q52" s="4" t="s">
@@ -8467,7 +8690,7 @@
       <c r="T52" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="U52" s="7">
+      <c r="U52" s="33">
         <v>1330</v>
       </c>
       <c r="V52" s="4" t="s">
@@ -8482,7 +8705,7 @@
         <v>161</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="7">
+      <c r="D53" s="33">
         <v>1384</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -8494,15 +8717,15 @@
       <c r="G53" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="33">
         <v>1425</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53" s="7"/>
+      <c r="J53" s="33"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="10">
-        <v>40604</v>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33" t="s">
+        <v>1425</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>138</v>
@@ -8510,7 +8733,7 @@
       <c r="O53" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P53" s="41" t="s">
+      <c r="P53" s="33" t="s">
         <v>1273</v>
       </c>
       <c r="Q53" s="4" t="s">
@@ -8525,7 +8748,7 @@
       <c r="T53" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="U53" s="7">
+      <c r="U53" s="33">
         <v>1425</v>
       </c>
       <c r="V53" s="4" t="s">
@@ -8538,7 +8761,7 @@
         <v>293</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="7">
+      <c r="D54" s="33">
         <v>1497</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -8548,21 +8771,21 @@
       <c r="G54" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="33">
         <v>1515</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="7"/>
+      <c r="J54" s="33"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
       <c r="N54" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P54" s="41" t="s">
+      <c r="P54" s="33" t="s">
         <v>1274</v>
       </c>
       <c r="Q54" s="4" t="s">
@@ -8577,7 +8800,7 @@
       <c r="T54" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="U54" s="7">
+      <c r="U54" s="33">
         <v>1515</v>
       </c>
       <c r="V54" s="4" t="s">
@@ -8590,7 +8813,7 @@
         <v>296</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="7">
+      <c r="D55" s="33">
         <v>1510</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -8600,21 +8823,21 @@
       <c r="G55" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="33">
         <v>1555</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="7"/>
+      <c r="J55" s="33"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
       <c r="N55" s="4" t="s">
         <v>284</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P55" s="41" t="s">
+      <c r="P55" s="33" t="s">
         <v>1275</v>
       </c>
       <c r="Q55" s="4" t="s">
@@ -8629,7 +8852,7 @@
       <c r="T55" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="U55" s="7">
+      <c r="U55" s="33">
         <v>1555</v>
       </c>
       <c r="V55" s="4" t="s">
@@ -8644,7 +8867,7 @@
         <v>302</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="7">
+      <c r="D56" s="33">
         <v>1572</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -8652,21 +8875,21 @@
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="33">
         <v>1602</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="M56" s="10">
-        <v>40092</v>
+      <c r="M56" s="33" t="s">
+        <v>1424</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>171</v>
@@ -8674,7 +8897,7 @@
       <c r="O56" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P56" s="41" t="s">
+      <c r="P56" s="33" t="s">
         <v>1276</v>
       </c>
       <c r="Q56" s="4" t="s">
@@ -8689,7 +8912,7 @@
       <c r="T56" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="U56" s="7">
+      <c r="U56" s="33">
         <v>1638</v>
       </c>
       <c r="V56" s="4" t="s">
@@ -8702,7 +8925,7 @@
         <v>306</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="7">
+      <c r="D57" s="33">
         <v>1610</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -8712,14 +8935,14 @@
       <c r="G57" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="33">
         <v>1660</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="7"/>
+      <c r="J57" s="33"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7" t="s">
+      <c r="L57" s="33"/>
+      <c r="M57" s="33" t="s">
         <v>376</v>
       </c>
       <c r="N57" s="4" t="s">
@@ -8728,7 +8951,7 @@
       <c r="O57" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P57" s="41" t="s">
+      <c r="P57" s="33" t="s">
         <v>622</v>
       </c>
       <c r="Q57" s="4" t="s">
@@ -8743,7 +8966,7 @@
       <c r="T57" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="U57" s="7">
+      <c r="U57" s="33">
         <v>1660</v>
       </c>
       <c r="V57" s="4" t="s">
@@ -8756,7 +8979,7 @@
         <v>310</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="7">
+      <c r="D58" s="33">
         <v>1722</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -8766,19 +8989,19 @@
       <c r="G58" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="33" t="s">
         <v>378</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="33" t="s">
         <v>1073</v>
       </c>
       <c r="K58" s="4"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="10">
-        <v>22823</v>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33" t="s">
+        <v>1423</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>53</v>
@@ -8786,7 +9009,7 @@
       <c r="O58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P58" s="41" t="s">
+      <c r="P58" s="33" t="s">
         <v>1277</v>
       </c>
       <c r="Q58" s="4" t="s">
@@ -8801,7 +9024,7 @@
       <c r="T58" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="U58" s="7">
+      <c r="U58" s="33">
         <v>1773</v>
       </c>
       <c r="V58" s="4" t="s">
@@ -8814,7 +9037,7 @@
         <v>314</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="7">
+      <c r="D59" s="33">
         <v>1690</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -8824,14 +9047,14 @@
       <c r="G59" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="33" t="s">
         <v>383</v>
       </c>
       <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="J59" s="33"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7">
+      <c r="L59" s="33"/>
+      <c r="M59" s="33">
         <v>1962</v>
       </c>
       <c r="N59" s="7" t="s">
@@ -8840,20 +9063,20 @@
       <c r="O59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="41" t="s">
+      <c r="P59" s="33" t="s">
         <v>1278</v>
       </c>
       <c r="Q59" s="7"/>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="S59" s="12" t="s">
+      <c r="S59" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="T59" s="12" t="s">
+      <c r="T59" s="10" t="s">
         <v>1167</v>
       </c>
-      <c r="U59" s="7" t="s">
+      <c r="U59" s="33" t="s">
         <v>380</v>
       </c>
       <c r="V59" s="7" t="s">
@@ -8868,7 +9091,7 @@
         <v>319</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="33" t="s">
         <v>1005</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -8878,22 +9101,22 @@
       <c r="G60" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="33">
         <v>1889</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="33" t="s">
         <v>385</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="33">
         <v>2000</v>
       </c>
       <c r="N60" s="4" t="s">
@@ -8902,7 +9125,7 @@
       <c r="O60" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P60" s="41" t="s">
+      <c r="P60" s="33" t="s">
         <v>755</v>
       </c>
       <c r="Q60" s="4" t="s">
@@ -8917,8 +9140,8 @@
       <c r="T60" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="U60" s="10">
-        <v>5524</v>
+      <c r="U60" s="33" t="s">
+        <v>1400</v>
       </c>
       <c r="V60" s="4"/>
     </row>
@@ -8930,7 +9153,7 @@
         <v>323</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="33" t="s">
         <v>390</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -8942,23 +9165,23 @@
       <c r="G61" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="33" t="s">
         <v>393</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="33" t="s">
         <v>394</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="33">
         <v>1956</v>
       </c>
-      <c r="M61" s="10">
-        <v>37760</v>
+      <c r="M61" s="33" t="s">
+        <v>1422</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>39</v>
@@ -8966,7 +9189,7 @@
       <c r="O61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P61" s="41" t="s">
+      <c r="P61" s="33" t="s">
         <v>1279</v>
       </c>
       <c r="Q61" s="4" t="s">
@@ -8981,8 +9204,8 @@
       <c r="T61" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="U61" s="10">
-        <v>20532</v>
+      <c r="U61" s="33" t="s">
+        <v>1399</v>
       </c>
       <c r="V61" s="4" t="s">
         <v>391</v>
@@ -8998,7 +9221,7 @@
       <c r="C62" t="s">
         <v>514</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="32">
         <v>1860</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -9007,7 +9230,7 @@
       <c r="G62" t="s">
         <v>515</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="32">
         <v>1999</v>
       </c>
       <c r="N62" t="s">
@@ -9016,7 +9239,7 @@
       <c r="O62" t="s">
         <v>1232</v>
       </c>
-      <c r="P62" s="40" t="s">
+      <c r="P62" s="32" t="s">
         <v>516</v>
       </c>
       <c r="Q62" t="s">
@@ -9031,8 +9254,8 @@
       <c r="T62" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="U62" s="27">
-        <v>7282</v>
+      <c r="U62" s="32" t="s">
+        <v>1396</v>
       </c>
       <c r="V62" t="s">
         <v>515</v>
@@ -9048,16 +9271,16 @@
       <c r="C63" t="s">
         <v>514</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="32" t="s">
         <v>1072</v>
       </c>
       <c r="G63" t="s">
         <v>521</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="32">
         <v>1915</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="32">
         <v>1999</v>
       </c>
       <c r="N63" t="s">
@@ -9066,7 +9289,7 @@
       <c r="O63" t="s">
         <v>1232</v>
       </c>
-      <c r="P63" s="40" t="s">
+      <c r="P63" s="32" t="s">
         <v>522</v>
       </c>
       <c r="Q63" t="s">
@@ -9081,8 +9304,8 @@
       <c r="T63" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="U63" s="27">
-        <v>6751</v>
+      <c r="U63" s="32" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9095,7 +9318,7 @@
       <c r="C64" t="s">
         <v>527</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="32" t="s">
         <v>1006</v>
       </c>
       <c r="E64" t="s">
@@ -9104,16 +9327,16 @@
       <c r="G64" t="s">
         <v>529</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="32" t="s">
         <v>530</v>
       </c>
       <c r="I64" t="s">
         <v>531</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="32">
         <v>1926</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="32">
         <v>2000</v>
       </c>
       <c r="N64" t="s">
@@ -9122,7 +9345,7 @@
       <c r="O64" t="s">
         <v>53</v>
       </c>
-      <c r="P64" s="40" t="s">
+      <c r="P64" s="32" t="s">
         <v>533</v>
       </c>
       <c r="Q64" t="s">
@@ -9137,8 +9360,8 @@
       <c r="T64" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="U64" s="27">
-        <v>24152</v>
+      <c r="U64" s="32" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9151,7 +9374,7 @@
       <c r="C65" t="s">
         <v>539</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="32" t="s">
         <v>1007</v>
       </c>
       <c r="E65" t="s">
@@ -9163,7 +9386,7 @@
       <c r="I65" t="s">
         <v>529</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M65" s="32">
         <v>2000</v>
       </c>
       <c r="N65" t="s">
@@ -9172,7 +9395,7 @@
       <c r="O65" t="s">
         <v>1232</v>
       </c>
-      <c r="P65" s="40" t="s">
+      <c r="P65" s="32" t="s">
         <v>541</v>
       </c>
       <c r="Q65" t="s">
@@ -9187,8 +9410,8 @@
       <c r="T65" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="U65" s="27">
-        <v>7282</v>
+      <c r="U65" s="32" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9201,7 +9424,7 @@
       <c r="C66" t="s">
         <v>546</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="32">
         <v>1878</v>
       </c>
       <c r="E66" t="s">
@@ -9210,10 +9433,10 @@
       <c r="G66" t="s">
         <v>548</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="32" t="s">
         <v>1074</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="32">
         <v>2000</v>
       </c>
       <c r="N66" t="s">
@@ -9222,7 +9445,7 @@
       <c r="O66" t="s">
         <v>1232</v>
       </c>
-      <c r="P66" s="40" t="s">
+      <c r="P66" s="32" t="s">
         <v>549</v>
       </c>
       <c r="Q66" t="s">
@@ -9237,7 +9460,7 @@
       <c r="T66" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="32">
         <v>1935</v>
       </c>
     </row>
@@ -9251,7 +9474,7 @@
       <c r="C67" t="s">
         <v>466</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="32" t="s">
         <v>1008</v>
       </c>
       <c r="E67" t="s">
@@ -9263,22 +9486,22 @@
       <c r="G67" t="s">
         <v>556</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="32">
         <v>1926</v>
       </c>
       <c r="I67" t="s">
         <v>557</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="32">
         <v>1931</v>
       </c>
       <c r="K67" t="s">
         <v>591</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="32">
         <v>1932</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="32">
         <v>2000</v>
       </c>
       <c r="N67" t="s">
@@ -9287,7 +9510,7 @@
       <c r="O67" t="s">
         <v>1232</v>
       </c>
-      <c r="P67" s="40" t="s">
+      <c r="P67" s="32" t="s">
         <v>549</v>
       </c>
       <c r="Q67" t="s">
@@ -9302,7 +9525,7 @@
       <c r="T67" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="U67" s="3">
+      <c r="U67" s="32">
         <v>1934</v>
       </c>
     </row>
@@ -9316,7 +9539,7 @@
       <c r="C68" t="s">
         <v>562</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="32">
         <v>1865</v>
       </c>
       <c r="E68" t="s">
@@ -9328,22 +9551,22 @@
       <c r="G68" t="s">
         <v>507</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="32">
         <v>1865</v>
       </c>
       <c r="I68" t="s">
         <v>564</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="32">
         <v>1917</v>
       </c>
       <c r="K68" t="s">
         <v>565</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68" s="32">
         <v>1918</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="32">
         <v>2000</v>
       </c>
       <c r="N68" t="s">
@@ -9352,7 +9575,7 @@
       <c r="O68" t="s">
         <v>1232</v>
       </c>
-      <c r="P68" s="40" t="s">
+      <c r="P68" s="32" t="s">
         <v>549</v>
       </c>
       <c r="Q68" t="s">
@@ -9367,7 +9590,7 @@
       <c r="T68" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="U68" s="3">
+      <c r="U68" s="32">
         <v>1918</v>
       </c>
       <c r="V68" t="s">
@@ -9384,8 +9607,8 @@
       <c r="C69" t="s">
         <v>430</v>
       </c>
-      <c r="D69" s="27">
-        <v>4957</v>
+      <c r="D69" s="32" t="s">
+        <v>1430</v>
       </c>
       <c r="E69" t="s">
         <v>593</v>
@@ -9396,10 +9619,10 @@
       <c r="G69" t="s">
         <v>529</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="32">
         <v>1928</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="32">
         <v>2001</v>
       </c>
       <c r="N69" t="s">
@@ -9408,7 +9631,7 @@
       <c r="O69" t="s">
         <v>53</v>
       </c>
-      <c r="P69" s="40" t="s">
+      <c r="P69" s="32" t="s">
         <v>549</v>
       </c>
       <c r="Q69" t="s">
@@ -9423,8 +9646,8 @@
       <c r="T69" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="U69" s="27">
-        <v>30105</v>
+      <c r="U69" s="32" t="s">
+        <v>1395</v>
       </c>
       <c r="V69" t="s">
         <v>574</v>
@@ -9440,7 +9663,7 @@
       <c r="C70" t="s">
         <v>514</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="32">
         <v>1897</v>
       </c>
       <c r="E70" t="s">
@@ -9449,10 +9672,10 @@
       <c r="G70" t="s">
         <v>577</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="32">
         <v>1915</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="32">
         <v>2000</v>
       </c>
       <c r="N70" t="s">
@@ -9461,7 +9684,7 @@
       <c r="O70" t="s">
         <v>1232</v>
       </c>
-      <c r="P70" s="40" t="s">
+      <c r="P70" s="32" t="s">
         <v>549</v>
       </c>
       <c r="Q70" t="s">
@@ -9476,8 +9699,8 @@
       <c r="T70" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="U70" s="27">
-        <v>11028</v>
+      <c r="U70" s="32" t="s">
+        <v>1394</v>
       </c>
       <c r="V70" t="s">
         <v>580</v>
@@ -9493,7 +9716,7 @@
       <c r="C71" t="s">
         <v>485</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="32" t="s">
         <v>1009</v>
       </c>
       <c r="E71" t="s">
@@ -9505,16 +9728,16 @@
       <c r="G71" t="s">
         <v>469</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="32">
         <v>1890</v>
       </c>
       <c r="I71" t="s">
         <v>497</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="32" t="s">
         <v>1058</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M71" s="32">
         <v>1999</v>
       </c>
       <c r="N71" t="s">
@@ -9523,7 +9746,7 @@
       <c r="O71" t="s">
         <v>1232</v>
       </c>
-      <c r="P71" s="40" t="s">
+      <c r="P71" s="32" t="s">
         <v>549</v>
       </c>
       <c r="Q71" t="s">
@@ -9538,8 +9761,8 @@
       <c r="T71" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="U71" s="27">
-        <v>7901</v>
+      <c r="U71" s="32" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9552,7 +9775,7 @@
       <c r="C72" t="s">
         <v>546</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="32">
         <v>1885</v>
       </c>
       <c r="E72" t="s">
@@ -9561,10 +9784,10 @@
       <c r="G72" t="s">
         <v>588</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="32">
         <v>1913</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="32">
         <v>2000</v>
       </c>
       <c r="N72" t="s">
@@ -9573,7 +9796,7 @@
       <c r="O72" t="s">
         <v>1232</v>
       </c>
-      <c r="P72" s="40" t="s">
+      <c r="P72" s="32" t="s">
         <v>549</v>
       </c>
       <c r="Q72" t="s">
@@ -9588,8 +9811,8 @@
       <c r="T72" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="U72" s="27">
-        <v>6769</v>
+      <c r="U72" s="32" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9602,7 +9825,7 @@
       <c r="C73" t="s">
         <v>509</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="32">
         <v>1292</v>
       </c>
       <c r="E73" t="s">
@@ -9620,10 +9843,10 @@
       <c r="K73" t="s">
         <v>506</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="32">
         <v>1357</v>
       </c>
-      <c r="M73" s="3">
+      <c r="M73" s="32">
         <v>1431</v>
       </c>
       <c r="N73" t="s">
@@ -9632,7 +9855,7 @@
       <c r="O73" t="s">
         <v>33</v>
       </c>
-      <c r="P73" s="40" t="s">
+      <c r="P73" s="32" t="s">
         <v>505</v>
       </c>
       <c r="Q73" t="s">
@@ -9647,7 +9870,7 @@
       <c r="T73" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="U73" s="3" t="s">
+      <c r="U73" s="32" t="s">
         <v>1106</v>
       </c>
       <c r="V73" t="s">
@@ -9664,7 +9887,7 @@
       <c r="C74" t="s">
         <v>501</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="32" t="s">
         <v>1010</v>
       </c>
       <c r="E74" t="s">
@@ -9676,23 +9899,23 @@
       <c r="G74" t="s">
         <v>498</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="32">
         <v>1897</v>
       </c>
       <c r="I74" t="s">
         <v>497</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="32">
         <v>1899</v>
       </c>
       <c r="K74" t="s">
         <v>449</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="32">
         <v>1902</v>
       </c>
-      <c r="M74" s="27">
-        <v>33699</v>
+      <c r="M74" s="32" t="s">
+        <v>1421</v>
       </c>
       <c r="N74" t="s">
         <v>171</v>
@@ -9700,7 +9923,7 @@
       <c r="O74" t="s">
         <v>1232</v>
       </c>
-      <c r="P74" s="40" t="s">
+      <c r="P74" s="32" t="s">
         <v>1280</v>
       </c>
       <c r="Q74" t="s">
@@ -9715,8 +9938,8 @@
       <c r="T74" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="U74" s="27">
-        <v>8261</v>
+      <c r="U74" s="32" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9729,7 +9952,7 @@
       <c r="C75" t="s">
         <v>493</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="32" t="s">
         <v>1011</v>
       </c>
       <c r="E75" t="s">
@@ -9741,22 +9964,22 @@
       <c r="G75" t="s">
         <v>42</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="32">
         <v>1905</v>
       </c>
       <c r="I75" t="s">
         <v>384</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="32">
         <v>1913</v>
       </c>
       <c r="K75" t="s">
         <v>449</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="32">
         <v>1922</v>
       </c>
-      <c r="M75" s="3">
+      <c r="M75" s="32">
         <v>2000</v>
       </c>
       <c r="N75" t="s">
@@ -9765,7 +9988,7 @@
       <c r="O75" t="s">
         <v>1232</v>
       </c>
-      <c r="P75" s="40" t="s">
+      <c r="P75" s="32" t="s">
         <v>490</v>
       </c>
       <c r="Q75" t="s">
@@ -9780,8 +10003,8 @@
       <c r="T75" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="U75" s="27">
-        <v>13903</v>
+      <c r="U75" s="32" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9794,7 +10017,7 @@
       <c r="C76" t="s">
         <v>485</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="32" t="s">
         <v>1012</v>
       </c>
       <c r="E76" t="s">
@@ -9806,22 +10029,22 @@
       <c r="G76" t="s">
         <v>350</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="32">
         <v>1894</v>
       </c>
       <c r="I76" t="s">
         <v>482</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="32">
         <v>1912</v>
       </c>
       <c r="K76" t="s">
         <v>449</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="32">
         <v>1924</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="32">
         <v>2000</v>
       </c>
       <c r="N76" t="s">
@@ -9830,7 +10053,7 @@
       <c r="O76" t="s">
         <v>1232</v>
       </c>
-      <c r="P76" s="40" t="s">
+      <c r="P76" s="32" t="s">
         <v>427</v>
       </c>
       <c r="Q76" t="s">
@@ -9845,8 +10068,8 @@
       <c r="T76" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="U76" s="27">
-        <v>13894</v>
+      <c r="U76" s="32" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9859,7 +10082,7 @@
       <c r="C77" t="s">
         <v>478</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="32" t="s">
         <v>1013</v>
       </c>
       <c r="E77" t="s">
@@ -9871,22 +10094,22 @@
       <c r="G77" t="s">
         <v>449</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="32">
         <v>1876</v>
       </c>
       <c r="I77" t="s">
         <v>476</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="32">
         <v>1931</v>
       </c>
       <c r="K77" t="s">
         <v>475</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="32">
         <v>1936</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M77" s="32">
         <v>2000</v>
       </c>
       <c r="N77" t="s">
@@ -9895,7 +10118,7 @@
       <c r="O77" t="s">
         <v>1232</v>
       </c>
-      <c r="P77" s="40" t="s">
+      <c r="P77" s="32" t="s">
         <v>474</v>
       </c>
       <c r="Q77" t="s">
@@ -9910,8 +10133,8 @@
       <c r="T77" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="U77" s="27">
-        <v>13762</v>
+      <c r="U77" s="32" t="s">
+        <v>1388</v>
       </c>
       <c r="V77" t="s">
         <v>471</v>
@@ -9927,7 +10150,7 @@
       <c r="C78" t="s">
         <v>430</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="32" t="s">
         <v>1014</v>
       </c>
       <c r="E78" t="s">
@@ -9936,10 +10159,10 @@
       <c r="G78" t="s">
         <v>449</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="32">
         <v>1890</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="32">
         <v>2001</v>
       </c>
       <c r="N78" t="s">
@@ -9948,7 +10171,7 @@
       <c r="O78" t="s">
         <v>1232</v>
       </c>
-      <c r="P78" s="40" t="s">
+      <c r="P78" s="32" t="s">
         <v>427</v>
       </c>
       <c r="Q78" t="s">
@@ -9963,8 +10186,8 @@
       <c r="T78" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="U78" s="27">
-        <v>6870</v>
+      <c r="U78" s="32" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9977,7 +10200,7 @@
       <c r="C79" t="s">
         <v>466</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="32">
         <v>1882</v>
       </c>
       <c r="E79" t="s">
@@ -9989,16 +10212,16 @@
       <c r="G79" t="s">
         <v>463</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="32">
         <v>1913</v>
       </c>
       <c r="I79" t="s">
         <v>462</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="32">
         <v>1913</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M79" s="32">
         <v>2000</v>
       </c>
       <c r="N79" t="s">
@@ -10007,7 +10230,7 @@
       <c r="O79" t="s">
         <v>1232</v>
       </c>
-      <c r="P79" s="40" t="s">
+      <c r="P79" s="32" t="s">
         <v>455</v>
       </c>
       <c r="Q79" t="s">
@@ -10022,8 +10245,8 @@
       <c r="T79" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="U79" s="27">
-        <v>11565</v>
+      <c r="U79" s="32" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10036,7 +10259,7 @@
       <c r="C80" t="s">
         <v>458</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="32">
         <v>1877</v>
       </c>
       <c r="E80" t="s">
@@ -10045,16 +10268,16 @@
       <c r="G80" t="s">
         <v>456</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="32">
         <v>1897</v>
       </c>
       <c r="I80" t="s">
         <v>429</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="32" t="s">
         <v>1057</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M80" s="32">
         <v>2000</v>
       </c>
       <c r="N80" t="s">
@@ -10063,7 +10286,7 @@
       <c r="O80" t="s">
         <v>1232</v>
       </c>
-      <c r="P80" s="40" t="s">
+      <c r="P80" s="32" t="s">
         <v>455</v>
       </c>
       <c r="Q80" t="s">
@@ -10078,8 +10301,8 @@
       <c r="T80" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="U80" s="27">
-        <v>11414</v>
+      <c r="U80" s="32" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10092,7 +10315,7 @@
       <c r="C81" t="s">
         <v>450</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="32" t="s">
         <v>1015</v>
       </c>
       <c r="E81" t="s">
@@ -10104,7 +10327,7 @@
       <c r="G81" t="s">
         <v>443</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="32" t="s">
         <v>1060</v>
       </c>
       <c r="N81" t="s">
@@ -10113,7 +10336,7 @@
       <c r="O81" t="s">
         <v>53</v>
       </c>
-      <c r="P81" s="40" t="s">
+      <c r="P81" s="32" t="s">
         <v>447</v>
       </c>
       <c r="Q81" t="s">
@@ -10128,8 +10351,8 @@
       <c r="T81" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="U81" s="27">
-        <v>4853</v>
+      <c r="U81" s="32" t="s">
+        <v>1384</v>
       </c>
       <c r="V81" t="s">
         <v>443</v>
@@ -10145,7 +10368,7 @@
       <c r="C82" t="s">
         <v>440</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="32">
         <v>1821</v>
       </c>
       <c r="E82" t="s">
@@ -10154,16 +10377,16 @@
       <c r="G82" t="s">
         <v>438</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="32">
         <v>1843</v>
       </c>
       <c r="I82" t="s">
         <v>433</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="32">
         <v>1881</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="32">
         <v>2001</v>
       </c>
       <c r="N82" t="s">
@@ -10172,7 +10395,7 @@
       <c r="O82" t="s">
         <v>33</v>
       </c>
-      <c r="P82" s="40" t="s">
+      <c r="P82" s="32" t="s">
         <v>437</v>
       </c>
       <c r="Q82" t="s">
@@ -10187,7 +10410,7 @@
       <c r="T82" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="U82" s="3">
+      <c r="U82" s="32">
         <v>1900</v>
       </c>
       <c r="V82" t="s">
@@ -10198,13 +10421,13 @@
       <c r="A83" t="s">
         <v>432</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="11" t="s">
         <v>431</v>
       </c>
       <c r="C83" t="s">
         <v>430</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="32">
         <v>1856</v>
       </c>
       <c r="E83" t="s">
@@ -10213,10 +10436,10 @@
       <c r="G83" t="s">
         <v>429</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="32" t="s">
         <v>1081</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="32">
         <v>1999</v>
       </c>
       <c r="N83" t="s">
@@ -10225,7 +10448,7 @@
       <c r="O83" t="s">
         <v>33</v>
       </c>
-      <c r="P83" s="40" t="s">
+      <c r="P83" s="32" t="s">
         <v>427</v>
       </c>
       <c r="Q83" t="s">
@@ -10240,7 +10463,7 @@
       <c r="T83" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="U83" s="3">
+      <c r="U83" s="32">
         <v>1925</v>
       </c>
     </row>
@@ -10254,10 +10477,10 @@
       <c r="C84" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="33" t="s">
         <v>1316</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="12" t="s">
         <v>597</v>
       </c>
       <c r="F84" s="4" t="s">
@@ -10266,19 +10489,19 @@
       <c r="G84" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="33" t="s">
         <v>599</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="33" t="s">
         <v>601</v>
       </c>
       <c r="K84" s="4"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="10">
-        <v>32300</v>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33" t="s">
+        <v>1420</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>53</v>
@@ -10286,13 +10509,13 @@
       <c r="O84" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P84" s="41" t="s">
+      <c r="P84" s="33" t="s">
         <v>602</v>
       </c>
       <c r="Q84" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="R84" s="15" t="s">
+      <c r="R84" s="13" t="s">
         <v>604</v>
       </c>
       <c r="S84" s="6" t="s">
@@ -10301,7 +10524,7 @@
       <c r="T84" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="U84" s="7" t="s">
+      <c r="U84" s="33" t="s">
         <v>606</v>
       </c>
       <c r="V84" s="4" t="s">
@@ -10318,7 +10541,7 @@
       <c r="C85" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="33" t="s">
         <v>1073</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -10330,16 +10553,16 @@
       <c r="G85" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="H85" s="7"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="33" t="s">
         <v>1073</v>
       </c>
       <c r="K85" s="4"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7">
+      <c r="L85" s="33"/>
+      <c r="M85" s="33">
         <v>1988</v>
       </c>
       <c r="N85" s="4" t="s">
@@ -10348,13 +10571,13 @@
       <c r="O85" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P85" s="41" t="s">
+      <c r="P85" s="33" t="s">
         <v>613</v>
       </c>
       <c r="Q85" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="R85" s="15" t="s">
+      <c r="R85" s="13" t="s">
         <v>614</v>
       </c>
       <c r="S85" s="6" t="s">
@@ -10363,7 +10586,7 @@
       <c r="T85" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="U85" s="7" t="s">
+      <c r="U85" s="33" t="s">
         <v>1107</v>
       </c>
       <c r="V85" s="7" t="s">
@@ -10376,7 +10599,7 @@
         <v>616</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="33" t="s">
         <v>617</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -10388,19 +10611,19 @@
       <c r="G86" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="33" t="s">
         <v>1071</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="33" t="s">
         <v>621</v>
       </c>
       <c r="K86" s="4"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="10">
-        <v>5323</v>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33" t="s">
+        <v>1419</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>39</v>
@@ -10408,13 +10631,13 @@
       <c r="O86" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P86" s="41" t="s">
+      <c r="P86" s="33" t="s">
         <v>622</v>
       </c>
       <c r="Q86" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R86" s="15" t="s">
+      <c r="R86" s="13" t="s">
         <v>623</v>
       </c>
       <c r="S86" s="6" t="s">
@@ -10423,10 +10646,10 @@
       <c r="T86" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="U86" s="7" t="s">
+      <c r="U86" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="V86" s="16" t="s">
+      <c r="V86" s="14" t="s">
         <v>626</v>
       </c>
     </row>
@@ -10440,7 +10663,7 @@
       <c r="C87" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="33" t="s">
         <v>630</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -10452,15 +10675,15 @@
       <c r="G87" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="33" t="s">
         <v>634</v>
       </c>
       <c r="I87" s="4"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="33"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="10">
-        <v>1125</v>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33" t="s">
+        <v>1418</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>53</v>
@@ -10468,7 +10691,7 @@
       <c r="O87" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P87" s="41" t="s">
+      <c r="P87" s="33" t="s">
         <v>635</v>
       </c>
       <c r="Q87" s="4" t="s">
@@ -10483,7 +10706,7 @@
       <c r="T87" s="6" t="s">
         <v>1195</v>
       </c>
-      <c r="U87" s="7" t="s">
+      <c r="U87" s="33" t="s">
         <v>638</v>
       </c>
       <c r="V87" s="7" t="s">
@@ -10500,7 +10723,7 @@
       <c r="C88" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="33" t="s">
         <v>642</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -10512,15 +10735,15 @@
       <c r="G88" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="33" t="s">
         <v>646</v>
       </c>
       <c r="I88" s="4"/>
-      <c r="J88" s="7"/>
+      <c r="J88" s="33"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="10">
-        <v>32107</v>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33" t="s">
+        <v>1417</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>53</v>
@@ -10528,7 +10751,7 @@
       <c r="O88" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P88" s="41" t="s">
+      <c r="P88" s="33" t="s">
         <v>647</v>
       </c>
       <c r="Q88" s="4"/>
@@ -10541,8 +10764,8 @@
       <c r="T88" s="6" t="s">
         <v>1196</v>
       </c>
-      <c r="U88" s="10">
-        <v>14147</v>
+      <c r="U88" s="33" t="s">
+        <v>1383</v>
       </c>
       <c r="V88" s="7" t="s">
         <v>96</v>
@@ -10558,7 +10781,7 @@
       <c r="C89" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="33" t="s">
         <v>1116</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -10570,23 +10793,23 @@
       <c r="G89" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="33" t="s">
         <v>654</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="33" t="s">
         <v>655</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="L89" s="7" t="s">
+      <c r="L89" s="33" t="s">
         <v>1281</v>
       </c>
-      <c r="M89" s="10">
-        <v>32330</v>
+      <c r="M89" s="33" t="s">
+        <v>1416</v>
       </c>
       <c r="N89" s="4" t="s">
         <v>39</v>
@@ -10594,7 +10817,7 @@
       <c r="O89" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P89" s="41" t="s">
+      <c r="P89" s="33" t="s">
         <v>657</v>
       </c>
       <c r="Q89" s="4" t="s">
@@ -10609,7 +10832,7 @@
       <c r="T89" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="U89" s="7" t="s">
+      <c r="U89" s="33" t="s">
         <v>660</v>
       </c>
       <c r="V89" s="7" t="s">
@@ -10626,7 +10849,7 @@
       <c r="C90" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="33" t="s">
         <v>665</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -10638,23 +10861,23 @@
       <c r="G90" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="33" t="s">
         <v>669</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="33" t="s">
         <v>670</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="L90" s="7" t="s">
+      <c r="L90" s="33" t="s">
         <v>672</v>
       </c>
-      <c r="M90" s="10">
-        <v>35025</v>
+      <c r="M90" s="33" t="s">
+        <v>1415</v>
       </c>
       <c r="N90" s="4" t="s">
         <v>39</v>
@@ -10662,7 +10885,7 @@
       <c r="O90" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P90" s="41" t="s">
+      <c r="P90" s="33" t="s">
         <v>673</v>
       </c>
       <c r="Q90" s="4" t="s">
@@ -10677,8 +10900,8 @@
       <c r="T90" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="U90" s="10">
-        <v>22443</v>
+      <c r="U90" s="33" t="s">
+        <v>1382</v>
       </c>
       <c r="V90" s="7" t="s">
         <v>671</v>
@@ -10690,7 +10913,7 @@
         <v>676</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="7">
+      <c r="D91" s="33">
         <v>758</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -10700,21 +10923,21 @@
       <c r="G91" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="33">
         <v>786</v>
       </c>
       <c r="I91" s="4"/>
-      <c r="J91" s="7"/>
+      <c r="J91" s="33"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
       <c r="N91" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O91" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P91" s="41" t="s">
+      <c r="P91" s="33" t="s">
         <v>679</v>
       </c>
       <c r="Q91" s="4"/>
@@ -10727,7 +10950,7 @@
       <c r="T91" s="6" t="s">
         <v>1199</v>
       </c>
-      <c r="U91" s="7" t="s">
+      <c r="U91" s="33" t="s">
         <v>1108</v>
       </c>
       <c r="V91" s="7"/>
@@ -10738,7 +10961,7 @@
         <v>682</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="33" t="s">
         <v>1076</v>
       </c>
       <c r="E92" s="4"/>
@@ -10746,21 +10969,21 @@
       <c r="G92" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="33" t="s">
         <v>1076</v>
       </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="7"/>
+      <c r="J92" s="33"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
       <c r="N92" s="4" t="s">
         <v>53</v>
       </c>
       <c r="O92" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P92" s="41" t="s">
+      <c r="P92" s="33" t="s">
         <v>397</v>
       </c>
       <c r="Q92" s="4"/>
@@ -10771,7 +10994,7 @@
         <v>684</v>
       </c>
       <c r="T92" s="4"/>
-      <c r="U92" s="7">
+      <c r="U92" s="33">
         <v>597</v>
       </c>
       <c r="V92" s="7" t="s">
@@ -10784,7 +11007,7 @@
         <v>686</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="33" t="s">
         <v>1063</v>
       </c>
       <c r="E93" s="4"/>
@@ -10792,21 +11015,21 @@
       <c r="G93" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="33" t="s">
         <v>1063</v>
       </c>
       <c r="I93" s="4"/>
-      <c r="J93" s="7"/>
+      <c r="J93" s="33"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
       <c r="N93" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O93" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P93" s="41" t="s">
+      <c r="P93" s="33" t="s">
         <v>687</v>
       </c>
       <c r="Q93" s="4"/>
@@ -10819,7 +11042,7 @@
       <c r="T93" s="6" t="s">
         <v>1200</v>
       </c>
-      <c r="U93" s="7">
+      <c r="U93" s="33">
         <v>269</v>
       </c>
       <c r="V93" s="7" t="s">
@@ -10832,7 +11055,7 @@
         <v>690</v>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="33" t="s">
         <v>1063</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -10842,21 +11065,21 @@
       <c r="G94" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="33">
         <v>304</v>
       </c>
       <c r="I94" s="4"/>
-      <c r="J94" s="7"/>
+      <c r="J94" s="33"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
       <c r="N94" s="4" t="s">
         <v>73</v>
       </c>
       <c r="O94" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P94" s="41" t="s">
+      <c r="P94" s="33" t="s">
         <v>691</v>
       </c>
       <c r="Q94" s="4"/>
@@ -10869,7 +11092,7 @@
       <c r="T94" s="6" t="s">
         <v>1201</v>
       </c>
-      <c r="U94" s="7">
+      <c r="U94" s="33">
         <v>304</v>
       </c>
       <c r="V94" s="7" t="s">
@@ -10886,7 +11109,7 @@
       <c r="C95" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="33">
         <v>1871</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -10898,23 +11121,23 @@
       <c r="G95" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="33">
         <v>1927</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="33">
         <v>1930</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="33">
         <v>1930</v>
       </c>
-      <c r="M95" s="10">
-        <v>37251</v>
+      <c r="M95" s="33" t="s">
+        <v>1414</v>
       </c>
       <c r="N95" s="4" t="s">
         <v>701</v>
@@ -10922,13 +11145,13 @@
       <c r="O95" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P95" s="41" t="s">
+      <c r="P95" s="33" t="s">
         <v>702</v>
       </c>
       <c r="Q95" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="R95" s="17" t="s">
+      <c r="R95" s="15" t="s">
         <v>704</v>
       </c>
       <c r="S95" s="6" t="s">
@@ -10937,7 +11160,7 @@
       <c r="T95" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="U95" s="7">
+      <c r="U95" s="33">
         <v>1937</v>
       </c>
       <c r="V95" s="7" t="s">
@@ -10950,7 +11173,7 @@
         <v>706</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="33" t="s">
         <v>707</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -10960,21 +11183,21 @@
       <c r="G96" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="33" t="s">
         <v>1064</v>
       </c>
       <c r="I96" s="4"/>
-      <c r="J96" s="7"/>
+      <c r="J96" s="33"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
       <c r="N96" s="4" t="s">
         <v>709</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P96" s="41" t="s">
+      <c r="P96" s="33" t="s">
         <v>710</v>
       </c>
       <c r="Q96" s="4" t="s">
@@ -10986,10 +11209,10 @@
       <c r="S96" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="T96" s="33" t="s">
+      <c r="T96" s="25" t="s">
         <v>1203</v>
       </c>
-      <c r="U96" s="7" t="s">
+      <c r="U96" s="33" t="s">
         <v>714</v>
       </c>
       <c r="V96" s="7" t="s">
@@ -11006,7 +11229,7 @@
       <c r="C97" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="33" t="s">
         <v>717</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -11018,18 +11241,18 @@
       <c r="G97" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="33">
         <v>1920</v>
       </c>
       <c r="I97" s="4"/>
-      <c r="J97" s="7"/>
+      <c r="J97" s="33"/>
       <c r="K97" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="L97" s="7">
+      <c r="L97" s="33">
         <v>1934</v>
       </c>
-      <c r="M97" s="7">
+      <c r="M97" s="33">
         <v>2000</v>
       </c>
       <c r="N97" s="4" t="s">
@@ -11038,7 +11261,7 @@
       <c r="O97" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P97" s="41" t="s">
+      <c r="P97" s="33" t="s">
         <v>722</v>
       </c>
       <c r="Q97" s="4" t="s">
@@ -11050,10 +11273,10 @@
       <c r="S97" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="T97" s="33" t="s">
+      <c r="T97" s="25" t="s">
         <v>1204</v>
       </c>
-      <c r="U97" s="7">
+      <c r="U97" s="33">
         <v>1937</v>
       </c>
       <c r="V97" s="7"/>
@@ -11064,7 +11287,7 @@
         <v>725</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="33" t="s">
         <v>1064</v>
       </c>
       <c r="E98" s="4"/>
@@ -11072,21 +11295,21 @@
       <c r="G98" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="33">
         <v>375</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="7"/>
+      <c r="J98" s="33"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
       <c r="N98" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O98" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P98" s="41" t="s">
+      <c r="P98" s="33" t="s">
         <v>727</v>
       </c>
       <c r="Q98" s="4" t="s">
@@ -11099,7 +11322,7 @@
         <v>729</v>
       </c>
       <c r="T98" s="4"/>
-      <c r="U98" s="7">
+      <c r="U98" s="33">
         <v>375</v>
       </c>
       <c r="V98" s="7" t="s">
@@ -11112,7 +11335,7 @@
         <v>730</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="33" t="s">
         <v>1065</v>
       </c>
       <c r="E99" s="4"/>
@@ -11120,21 +11343,21 @@
       <c r="G99" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="33" t="s">
         <v>1065</v>
       </c>
       <c r="I99" s="4"/>
-      <c r="J99" s="7"/>
+      <c r="J99" s="33"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
       <c r="N99" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O99" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P99" s="41" t="s">
+      <c r="P99" s="33" t="s">
         <v>732</v>
       </c>
       <c r="Q99" s="4"/>
@@ -11147,7 +11370,7 @@
       <c r="T99" s="6" t="s">
         <v>1205</v>
       </c>
-      <c r="U99" s="7" t="s">
+      <c r="U99" s="33" t="s">
         <v>1065</v>
       </c>
       <c r="V99" s="7"/>
@@ -11158,25 +11381,25 @@
         <v>735</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="33" t="s">
         <v>1064</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="7"/>
+      <c r="H100" s="33"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="7"/>
+      <c r="J100" s="33"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
       <c r="N100" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O100" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P100" s="41" t="s">
+      <c r="P100" s="33" t="s">
         <v>736</v>
       </c>
       <c r="Q100" s="4" t="s">
@@ -11189,7 +11412,7 @@
         <v>739</v>
       </c>
       <c r="T100" s="4"/>
-      <c r="U100" s="7">
+      <c r="U100" s="33">
         <v>380</v>
       </c>
       <c r="V100" s="7"/>
@@ -11198,7 +11421,7 @@
       <c r="B101" t="s">
         <v>742</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="32" t="s">
         <v>1063</v>
       </c>
       <c r="N101" t="s">
@@ -11207,7 +11430,7 @@
       <c r="O101" t="s">
         <v>1232</v>
       </c>
-      <c r="P101" s="40" t="s">
+      <c r="P101" s="32" t="s">
         <v>743</v>
       </c>
       <c r="Q101" t="s">
@@ -11219,7 +11442,7 @@
       <c r="S101" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="U101" s="3">
+      <c r="U101" s="32">
         <v>250</v>
       </c>
       <c r="V101" s="3" t="s">
@@ -11230,7 +11453,7 @@
       <c r="B102" t="s">
         <v>746</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="32" t="s">
         <v>1063</v>
       </c>
       <c r="N102" t="s">
@@ -11239,7 +11462,7 @@
       <c r="O102" t="s">
         <v>1232</v>
       </c>
-      <c r="P102" s="40" t="s">
+      <c r="P102" s="32" t="s">
         <v>747</v>
       </c>
       <c r="Q102" t="s">
@@ -11260,7 +11483,7 @@
       <c r="B103" t="s">
         <v>750</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="32" t="s">
         <v>1064</v>
       </c>
       <c r="N103" t="s">
@@ -11269,7 +11492,7 @@
       <c r="O103" t="s">
         <v>1232</v>
       </c>
-      <c r="P103" s="40" t="s">
+      <c r="P103" s="32" t="s">
         <v>751</v>
       </c>
       <c r="Q103" t="s">
@@ -11290,7 +11513,7 @@
       <c r="B104" t="s">
         <v>754</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="32" t="s">
         <v>1065</v>
       </c>
       <c r="N104" t="s">
@@ -11299,7 +11522,7 @@
       <c r="O104" t="s">
         <v>53</v>
       </c>
-      <c r="P104" s="40" t="s">
+      <c r="P104" s="32" t="s">
         <v>755</v>
       </c>
       <c r="Q104" t="s">
@@ -11314,2006 +11537,2006 @@
       <c r="T104" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="U104" s="3">
+      <c r="U104" s="32">
         <v>470</v>
       </c>
       <c r="V104" s="3"/>
     </row>
     <row r="105" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="D105" s="25">
+      <c r="D105" s="23">
         <v>1819</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="17" t="s">
         <v>761</v>
       </c>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19" t="s">
+      <c r="F105" s="17"/>
+      <c r="G105" s="17" t="s">
         <v>762</v>
       </c>
-      <c r="H105" s="25" t="s">
+      <c r="H105" s="23" t="s">
         <v>763</v>
       </c>
-      <c r="I105" s="19"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="31">
-        <v>42566</v>
-      </c>
-      <c r="N105" s="19" t="s">
+      <c r="I105" s="17"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="23" t="s">
+        <v>1412</v>
+      </c>
+      <c r="N105" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="O105" s="19" t="s">
+      <c r="O105" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P105" s="30" t="s">
+      <c r="P105" s="23" t="s">
         <v>1282</v>
       </c>
-      <c r="Q105" s="19" t="s">
+      <c r="Q105" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="R105" s="19" t="s">
+      <c r="R105" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="S105" s="19" t="s">
+      <c r="S105" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="T105" s="19" t="s">
+      <c r="T105" s="17" t="s">
         <v>1209</v>
       </c>
-      <c r="U105" s="25" t="s">
+      <c r="U105" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="V105" s="20" t="s">
+      <c r="V105" s="18" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="D106" s="22" t="s">
         <v>1016</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22" t="s">
+      <c r="F106" s="20"/>
+      <c r="G106" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="H106" s="26" t="s">
+      <c r="H106" s="22" t="s">
         <v>1082</v>
       </c>
-      <c r="I106" s="22" t="s">
+      <c r="I106" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="J106" s="26" t="s">
+      <c r="J106" s="22" t="s">
         <v>1056</v>
       </c>
-      <c r="K106" s="22" t="s">
+      <c r="K106" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="L106" s="26" t="s">
+      <c r="L106" s="22" t="s">
         <v>1306</v>
       </c>
-      <c r="M106" s="24">
-        <v>38217</v>
-      </c>
-      <c r="N106" s="22" t="s">
+      <c r="M106" s="22" t="s">
+        <v>1413</v>
+      </c>
+      <c r="N106" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="O106" s="22" t="s">
+      <c r="O106" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P106" s="29" t="s">
+      <c r="P106" s="22" t="s">
         <v>1283</v>
       </c>
-      <c r="Q106" s="22" t="s">
+      <c r="Q106" s="20" t="s">
         <v>774</v>
       </c>
-      <c r="R106" s="22" t="s">
+      <c r="R106" s="20" t="s">
         <v>775</v>
       </c>
-      <c r="S106" s="22" t="s">
+      <c r="S106" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="T106" s="34" t="s">
+      <c r="T106" s="26" t="s">
         <v>777</v>
       </c>
-      <c r="U106" s="24">
-        <v>13930</v>
-      </c>
-      <c r="V106" s="23"/>
+      <c r="U106" s="22" t="s">
+        <v>1381</v>
+      </c>
+      <c r="V106" s="21"/>
     </row>
     <row r="107" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19" t="s">
+      <c r="A107" s="16"/>
+      <c r="B107" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="25" t="s">
+      <c r="C107" s="17"/>
+      <c r="D107" s="23" t="s">
         <v>1069</v>
       </c>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19" t="s">
+      <c r="E107" s="17"/>
+      <c r="F107" s="17" t="s">
         <v>779</v>
       </c>
-      <c r="G107" s="19" t="s">
+      <c r="G107" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="H107" s="25" t="s">
+      <c r="H107" s="23" t="s">
         <v>1083</v>
       </c>
-      <c r="I107" s="19"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="25"/>
-      <c r="N107" s="19" t="s">
+      <c r="I107" s="17"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O107" s="19" t="s">
+      <c r="O107" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P107" s="30" t="s">
+      <c r="P107" s="23" t="s">
         <v>1284</v>
       </c>
-      <c r="Q107" s="19" t="s">
+      <c r="Q107" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="R107" s="19" t="s">
+      <c r="R107" s="17" t="s">
         <v>782</v>
       </c>
-      <c r="S107" s="32" t="s">
+      <c r="S107" s="24" t="s">
         <v>1320</v>
       </c>
-      <c r="T107" s="32" t="s">
+      <c r="T107" s="24" t="s">
         <v>1210</v>
       </c>
-      <c r="U107" s="25" t="s">
+      <c r="U107" s="23" t="s">
         <v>1110</v>
       </c>
-      <c r="V107" s="20"/>
+      <c r="V107" s="18"/>
     </row>
     <row r="108" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="19" t="s">
         <v>783</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="20" t="s">
         <v>784</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="22" t="s">
         <v>1017</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E108" s="20" t="s">
         <v>786</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F108" s="20" t="s">
         <v>784</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="G108" s="20" t="s">
         <v>787</v>
       </c>
-      <c r="H108" s="26" t="s">
+      <c r="H108" s="22" t="s">
         <v>1084</v>
       </c>
-      <c r="I108" s="22" t="s">
+      <c r="I108" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="J108" s="26" t="s">
+      <c r="J108" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="K108" s="22" t="s">
+      <c r="K108" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="L108" s="26">
+      <c r="L108" s="22">
         <v>1937</v>
       </c>
-      <c r="M108" s="29" t="s">
+      <c r="M108" s="22" t="s">
         <v>1097</v>
       </c>
-      <c r="N108" s="22" t="s">
+      <c r="N108" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="O108" s="22" t="s">
+      <c r="O108" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P108" s="29" t="s">
+      <c r="P108" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="Q108" s="22" t="s">
+      <c r="Q108" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="R108" s="22" t="s">
+      <c r="R108" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="S108" s="22" t="s">
+      <c r="S108" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="T108" s="34" t="s">
+      <c r="T108" s="26" t="s">
         <v>1211</v>
       </c>
-      <c r="U108" s="24">
-        <v>13878</v>
-      </c>
-      <c r="V108" s="23" t="s">
+      <c r="U108" s="22" t="s">
+        <v>1380</v>
+      </c>
+      <c r="V108" s="21" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="17" t="s">
         <v>795</v>
       </c>
-      <c r="F109" s="19" t="s">
+      <c r="F109" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G109" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="H109" s="25" t="s">
+      <c r="H109" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="I109" s="19" t="s">
+      <c r="I109" s="17" t="s">
         <v>798</v>
       </c>
-      <c r="J109" s="25" t="s">
+      <c r="J109" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="K109" s="19" t="s">
+      <c r="K109" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="L109" s="25" t="s">
+      <c r="L109" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="M109" s="31">
-        <v>36754</v>
-      </c>
-      <c r="N109" s="19" t="s">
+      <c r="M109" s="23" t="s">
+        <v>1405</v>
+      </c>
+      <c r="N109" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="O109" s="19" t="s">
+      <c r="O109" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="P109" s="30" t="s">
+      <c r="P109" s="23" t="s">
         <v>1286</v>
       </c>
-      <c r="Q109" s="19" t="s">
+      <c r="Q109" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="R109" s="19" t="s">
+      <c r="R109" s="17" t="s">
         <v>803</v>
       </c>
-      <c r="S109" s="19" t="s">
+      <c r="S109" s="17" t="s">
         <v>804</v>
       </c>
-      <c r="T109" s="32" t="s">
+      <c r="T109" s="24" t="s">
         <v>1212</v>
       </c>
-      <c r="U109" s="31">
-        <v>6796</v>
-      </c>
-      <c r="V109" s="20"/>
+      <c r="U109" s="23" t="s">
+        <v>1379</v>
+      </c>
+      <c r="V109" s="18"/>
     </row>
     <row r="110" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="22" t="s">
         <v>1019</v>
       </c>
-      <c r="E110" s="22" t="s">
+      <c r="E110" s="20" t="s">
         <v>807</v>
       </c>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22" t="s">
+      <c r="F110" s="20"/>
+      <c r="G110" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="H110" s="26" t="s">
+      <c r="H110" s="22" t="s">
         <v>1054</v>
       </c>
-      <c r="I110" s="22" t="s">
+      <c r="I110" s="20" t="s">
         <v>809</v>
       </c>
-      <c r="J110" s="26"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="26"/>
-      <c r="M110" s="26"/>
-      <c r="N110" s="22" t="s">
+      <c r="J110" s="22"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="O110" s="35" t="s">
+      <c r="O110" s="27" t="s">
         <v>1232</v>
       </c>
-      <c r="P110" s="29" t="s">
+      <c r="P110" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="Q110" s="22" t="s">
+      <c r="Q110" s="20" t="s">
         <v>810</v>
       </c>
-      <c r="R110" s="22" t="s">
+      <c r="R110" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="S110" s="22" t="s">
+      <c r="S110" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="T110" s="34" t="s">
+      <c r="T110" s="26" t="s">
         <v>1213</v>
       </c>
-      <c r="U110" s="26" t="s">
+      <c r="U110" s="22" t="s">
         <v>1111</v>
       </c>
-      <c r="V110" s="23" t="s">
+      <c r="V110" s="21" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="16" t="s">
         <v>814</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="D111" s="25" t="s">
+      <c r="D111" s="23" t="s">
         <v>1020</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="17" t="s">
         <v>816</v>
       </c>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19" t="s">
+      <c r="F111" s="17"/>
+      <c r="G111" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="H111" s="25" t="s">
+      <c r="H111" s="23" t="s">
         <v>1053</v>
       </c>
-      <c r="I111" s="19" t="s">
+      <c r="I111" s="17" t="s">
         <v>818</v>
       </c>
-      <c r="J111" s="25" t="s">
+      <c r="J111" s="23" t="s">
         <v>1055</v>
       </c>
-      <c r="K111" s="19" t="s">
+      <c r="K111" s="17" t="s">
         <v>819</v>
       </c>
-      <c r="L111" s="25" t="s">
+      <c r="L111" s="23" t="s">
         <v>1307</v>
       </c>
-      <c r="M111" s="31">
-        <v>42566</v>
-      </c>
-      <c r="N111" s="19" t="s">
+      <c r="M111" s="23" t="s">
+        <v>1412</v>
+      </c>
+      <c r="N111" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="O111" s="19" t="s">
+      <c r="O111" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="P111" s="30" t="s">
+      <c r="P111" s="23" t="s">
         <v>1288</v>
       </c>
-      <c r="Q111" s="19" t="s">
+      <c r="Q111" s="17" t="s">
         <v>774</v>
       </c>
-      <c r="R111" s="19" t="s">
+      <c r="R111" s="17" t="s">
         <v>820</v>
       </c>
-      <c r="S111" s="19" t="s">
+      <c r="S111" s="17" t="s">
         <v>821</v>
       </c>
-      <c r="T111" s="32" t="s">
+      <c r="T111" s="24" t="s">
         <v>1214</v>
       </c>
-      <c r="U111" s="31">
-        <v>6668</v>
-      </c>
-      <c r="V111" s="20" t="s">
+      <c r="U111" s="23" t="s">
+        <v>1378</v>
+      </c>
+      <c r="V111" s="18" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="22" t="s">
         <v>1021</v>
       </c>
-      <c r="E112" s="22" t="s">
+      <c r="E112" s="20" t="s">
         <v>825</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="F112" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="G112" s="20" t="s">
         <v>827</v>
       </c>
-      <c r="H112" s="26" t="s">
+      <c r="H112" s="22" t="s">
         <v>828</v>
       </c>
-      <c r="I112" s="22" t="s">
+      <c r="I112" s="20" t="s">
         <v>829</v>
       </c>
-      <c r="J112" s="26" t="s">
+      <c r="J112" s="22" t="s">
         <v>830</v>
       </c>
-      <c r="K112" s="22" t="s">
+      <c r="K112" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="L112" s="26" t="s">
+      <c r="L112" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="M112" s="24">
-        <v>37546</v>
-      </c>
-      <c r="N112" s="22" t="s">
+      <c r="M112" s="22" t="s">
+        <v>1411</v>
+      </c>
+      <c r="N112" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="O112" s="22" t="s">
+      <c r="O112" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P112" s="29" t="s">
+      <c r="P112" s="22" t="s">
         <v>1276</v>
       </c>
-      <c r="Q112" s="22" t="s">
+      <c r="Q112" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="R112" s="22" t="s">
+      <c r="R112" s="20" t="s">
         <v>832</v>
       </c>
-      <c r="S112" s="22" t="s">
+      <c r="S112" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="T112" s="34" t="s">
+      <c r="T112" s="26" t="s">
         <v>1215</v>
       </c>
-      <c r="U112" s="24">
-        <v>6766</v>
-      </c>
-      <c r="V112" s="23" t="s">
+      <c r="U112" s="22" t="s">
+        <v>1377</v>
+      </c>
+      <c r="V112" s="21" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C113" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="23" t="s">
         <v>1022</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="E113" s="17" t="s">
         <v>836</v>
       </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19" t="s">
+      <c r="F113" s="17"/>
+      <c r="G113" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="H113" s="25" t="s">
+      <c r="H113" s="23" t="s">
         <v>1052</v>
       </c>
-      <c r="I113" s="19" t="s">
+      <c r="I113" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="J113" s="25">
+      <c r="J113" s="23">
         <v>1238</v>
       </c>
-      <c r="K113" s="19"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25" t="s">
+      <c r="K113" s="17"/>
+      <c r="L113" s="23"/>
+      <c r="M113" s="23" t="s">
         <v>1099</v>
       </c>
-      <c r="N113" s="19" t="s">
+      <c r="N113" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="O113" s="36" t="s">
+      <c r="O113" s="28" t="s">
         <v>1232</v>
       </c>
-      <c r="P113" s="30" t="s">
+      <c r="P113" s="23" t="s">
         <v>1287</v>
       </c>
-      <c r="Q113" s="19" t="s">
+      <c r="Q113" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="R113" s="19" t="s">
+      <c r="R113" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="S113" s="19" t="s">
+      <c r="S113" s="17" t="s">
         <v>840</v>
       </c>
-      <c r="T113" s="32" t="s">
+      <c r="T113" s="24" t="s">
         <v>1216</v>
       </c>
-      <c r="U113" s="25" t="s">
+      <c r="U113" s="23" t="s">
         <v>1111</v>
       </c>
-      <c r="V113" s="20" t="s">
+      <c r="V113" s="18" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D114" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="E114" s="22" t="s">
+      <c r="E114" s="20" t="s">
         <v>844</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="F114" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="H114" s="26" t="s">
+      <c r="H114" s="22" t="s">
         <v>1051</v>
       </c>
-      <c r="I114" s="22" t="s">
+      <c r="I114" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="J114" s="26" t="s">
+      <c r="J114" s="22" t="s">
         <v>1094</v>
       </c>
       <c r="K114" t="s">
         <v>847</v>
       </c>
-      <c r="L114" s="26" t="s">
+      <c r="L114" s="22" t="s">
         <v>1308</v>
       </c>
-      <c r="M114" s="24">
-        <v>40708</v>
-      </c>
-      <c r="N114" s="22" t="s">
+      <c r="M114" s="22" t="s">
+        <v>1410</v>
+      </c>
+      <c r="N114" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O114" s="22" t="s">
+      <c r="O114" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="P114" s="29" t="s">
+      <c r="P114" s="22" t="s">
         <v>848</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="Q114" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="R114" s="20" t="s">
         <v>850</v>
       </c>
-      <c r="S114" s="22" t="s">
+      <c r="S114" s="20" t="s">
         <v>851</v>
       </c>
-      <c r="T114" s="34" t="s">
+      <c r="T114" s="26" t="s">
         <v>1217</v>
       </c>
-      <c r="U114" s="24">
-        <v>15646</v>
-      </c>
-      <c r="V114" s="23" t="s">
+      <c r="U114" s="22" t="s">
+        <v>1376</v>
+      </c>
+      <c r="V114" s="21" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="D115" s="25">
+      <c r="D115" s="23">
         <v>1415</v>
       </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19" t="s">
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="H115" s="25" t="s">
+      <c r="H115" s="23" t="s">
         <v>1050</v>
       </c>
-      <c r="I115" s="19"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="25">
+      <c r="I115" s="17"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="23">
         <v>1979</v>
       </c>
-      <c r="N115" s="19" t="s">
+      <c r="N115" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="O115" s="19" t="s">
+      <c r="O115" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P115" s="30" t="s">
+      <c r="P115" s="23" t="s">
         <v>1289</v>
       </c>
-      <c r="Q115" s="19" t="s">
+      <c r="Q115" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="R115" s="19" t="s">
+      <c r="R115" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="S115" s="19" t="s">
+      <c r="S115" s="17" t="s">
         <v>858</v>
       </c>
-      <c r="T115" s="32" t="s">
+      <c r="T115" s="24" t="s">
         <v>1218</v>
       </c>
-      <c r="U115" s="25" t="s">
+      <c r="U115" s="23" t="s">
         <v>1112</v>
       </c>
-      <c r="V115" s="20" t="s">
+      <c r="V115" s="18" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="19" t="s">
         <v>859</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="D116" s="26">
+      <c r="D116" s="22">
         <v>1878</v>
       </c>
-      <c r="E116" s="22" t="s">
+      <c r="E116" s="20" t="s">
         <v>861</v>
       </c>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22" t="s">
+      <c r="F116" s="20"/>
+      <c r="G116" s="20" t="s">
         <v>862</v>
       </c>
-      <c r="H116" s="26">
+      <c r="H116" s="22">
         <v>1910</v>
       </c>
-      <c r="I116" s="22" t="s">
+      <c r="I116" s="20" t="s">
         <v>863</v>
       </c>
-      <c r="J116" s="26" t="s">
+      <c r="J116" s="22" t="s">
         <v>1315</v>
       </c>
-      <c r="K116" s="22"/>
-      <c r="L116" s="26"/>
-      <c r="M116" s="24">
-        <v>36758</v>
-      </c>
-      <c r="N116" s="22" t="s">
+      <c r="K116" s="20"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22" t="s">
+        <v>1409</v>
+      </c>
+      <c r="N116" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="O116" s="35" t="s">
+      <c r="O116" s="27" t="s">
         <v>1232</v>
       </c>
-      <c r="P116" s="29" t="s">
+      <c r="P116" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="Q116" s="22" t="s">
+      <c r="Q116" s="20" t="s">
         <v>774</v>
       </c>
-      <c r="R116" s="22" t="s">
+      <c r="R116" s="20" t="s">
         <v>864</v>
       </c>
-      <c r="S116" s="22" t="s">
+      <c r="S116" s="20" t="s">
         <v>865</v>
       </c>
-      <c r="T116" s="34" t="s">
+      <c r="T116" s="26" t="s">
         <v>1219</v>
       </c>
-      <c r="U116" s="24">
-        <v>13821</v>
-      </c>
-      <c r="V116" s="23" t="s">
+      <c r="U116" s="22" t="s">
+        <v>1375</v>
+      </c>
+      <c r="V116" s="21" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="17" t="s">
         <v>868</v>
       </c>
-      <c r="D117" s="25">
+      <c r="D117" s="23">
         <v>1880</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="17" t="s">
         <v>869</v>
       </c>
-      <c r="F117" s="19" t="s">
+      <c r="F117" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="G117" s="19" t="s">
+      <c r="G117" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="H117" s="25" t="s">
+      <c r="H117" s="23" t="s">
         <v>1049</v>
       </c>
-      <c r="I117" s="19" t="s">
+      <c r="I117" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="J117" s="25" t="s">
+      <c r="J117" s="23" t="s">
         <v>872</v>
       </c>
-      <c r="K117" s="19"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="31">
-        <v>43061</v>
-      </c>
-      <c r="N117" s="19" t="s">
+      <c r="K117" s="17"/>
+      <c r="L117" s="23"/>
+      <c r="M117" s="23" t="s">
+        <v>1408</v>
+      </c>
+      <c r="N117" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="O117" s="19" t="s">
+      <c r="O117" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="P117" s="30" t="s">
+      <c r="P117" s="23" t="s">
         <v>1291</v>
       </c>
-      <c r="Q117" s="19" t="s">
+      <c r="Q117" s="17" t="s">
         <v>873</v>
       </c>
-      <c r="R117" s="19" t="s">
+      <c r="R117" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="S117" s="32" t="s">
+      <c r="S117" s="24" t="s">
         <v>875</v>
       </c>
-      <c r="T117" s="32" t="s">
+      <c r="T117" s="24" t="s">
         <v>1220</v>
       </c>
-      <c r="U117" s="31">
-        <v>11055</v>
-      </c>
-      <c r="V117" s="20"/>
+      <c r="U117" s="23" t="s">
+        <v>1374</v>
+      </c>
+      <c r="V117" s="18"/>
     </row>
     <row r="118" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="D118" s="26">
+      <c r="D118" s="22">
         <v>1870</v>
       </c>
-      <c r="E118" s="22" t="s">
+      <c r="E118" s="20" t="s">
         <v>877</v>
       </c>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="26"/>
-      <c r="M118" s="29" t="s">
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22" t="s">
         <v>1098</v>
       </c>
-      <c r="N118" s="22" t="s">
+      <c r="N118" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="O118" s="22" t="s">
+      <c r="O118" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P118" s="29" t="s">
+      <c r="P118" s="22" t="s">
         <v>1292</v>
       </c>
-      <c r="Q118" s="22" t="s">
+      <c r="Q118" s="20" t="s">
         <v>774</v>
       </c>
-      <c r="R118" s="22" t="s">
+      <c r="R118" s="20" t="s">
         <v>878</v>
       </c>
-      <c r="S118" s="22" t="s">
+      <c r="S118" s="20" t="s">
         <v>879</v>
       </c>
-      <c r="T118" s="34" t="s">
+      <c r="T118" s="26" t="s">
         <v>1221</v>
       </c>
-      <c r="U118" s="24">
-        <v>13725</v>
-      </c>
-      <c r="V118" s="23"/>
+      <c r="U118" s="22" t="s">
+        <v>1363</v>
+      </c>
+      <c r="V118" s="21"/>
     </row>
     <row r="119" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C119" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="23" t="s">
         <v>1070</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E119" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="F119" s="19" t="s">
+      <c r="F119" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="G119" s="19" t="s">
+      <c r="G119" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="H119" s="25"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="25">
+      <c r="H119" s="23"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="23"/>
+      <c r="M119" s="23">
         <v>1595</v>
       </c>
-      <c r="N119" s="19" t="s">
+      <c r="N119" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O119" s="19" t="s">
+      <c r="O119" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P119" s="30" t="s">
+      <c r="P119" s="23" t="s">
         <v>1293</v>
       </c>
-      <c r="Q119" s="19" t="s">
+      <c r="Q119" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="R119" s="19" t="s">
+      <c r="R119" s="17" t="s">
         <v>885</v>
       </c>
-      <c r="S119" s="32" t="s">
+      <c r="S119" s="24" t="s">
         <v>1321</v>
       </c>
-      <c r="T119" s="32" t="s">
+      <c r="T119" s="24" t="s">
         <v>886</v>
       </c>
-      <c r="U119" s="25">
+      <c r="U119" s="23">
         <v>1576</v>
       </c>
-      <c r="V119" s="20" t="s">
+      <c r="V119" s="18" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="20" t="s">
         <v>889</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="22" t="s">
         <v>1361</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="E120" s="20" t="s">
         <v>887</v>
       </c>
-      <c r="F120" s="22" t="s">
+      <c r="F120" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G120" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="H120" s="26" t="s">
+      <c r="H120" s="22" t="s">
         <v>1048</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="I120" s="20" t="s">
         <v>891</v>
       </c>
-      <c r="J120" s="26" t="s">
+      <c r="J120" s="22" t="s">
         <v>892</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="K120" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="L120" s="26" t="s">
+      <c r="L120" s="22" t="s">
         <v>1309</v>
       </c>
-      <c r="M120" s="29" t="s">
+      <c r="M120" s="22" t="s">
         <v>1097</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="N120" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="O120" s="35" t="s">
+      <c r="O120" s="27" t="s">
         <v>1232</v>
       </c>
-      <c r="P120" s="29" t="s">
+      <c r="P120" s="22" t="s">
         <v>893</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="Q120" s="20" t="s">
         <v>894</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="R120" s="20" t="s">
         <v>895</v>
       </c>
-      <c r="S120" s="22" t="s">
+      <c r="S120" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="T120" s="34" t="s">
+      <c r="T120" s="26" t="s">
         <v>897</v>
       </c>
-      <c r="U120" s="24">
-        <v>12586</v>
-      </c>
-      <c r="V120" s="23"/>
+      <c r="U120" s="22" t="s">
+        <v>1373</v>
+      </c>
+      <c r="V120" s="21"/>
     </row>
     <row r="121" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="16" t="s">
         <v>898</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="23" t="s">
         <v>1024</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19" t="s">
+      <c r="F121" s="17"/>
+      <c r="G121" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="H121" s="25" t="s">
+      <c r="H121" s="23" t="s">
         <v>1047</v>
       </c>
-      <c r="I121" s="19" t="s">
+      <c r="I121" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="J121" s="25" t="s">
+      <c r="J121" s="23" t="s">
         <v>1093</v>
       </c>
-      <c r="K121" s="19" t="s">
+      <c r="K121" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="L121" s="25" t="s">
+      <c r="L121" s="23" t="s">
         <v>1310</v>
       </c>
-      <c r="M121" s="31">
-        <v>38996</v>
-      </c>
-      <c r="N121" s="19" t="s">
+      <c r="M121" s="23" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N121" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="O121" s="19" t="s">
+      <c r="O121" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="P121" s="30" t="s">
+      <c r="P121" s="23" t="s">
         <v>903</v>
       </c>
-      <c r="Q121" s="19" t="s">
+      <c r="Q121" s="17" t="s">
         <v>774</v>
       </c>
-      <c r="R121" s="19" t="s">
+      <c r="R121" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="S121" s="19" t="s">
+      <c r="S121" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="T121" s="32" t="s">
+      <c r="T121" s="24" t="s">
         <v>1222</v>
       </c>
-      <c r="U121" s="31">
-        <v>13771</v>
-      </c>
-      <c r="V121" s="20"/>
+      <c r="U121" s="23" t="s">
+        <v>1372</v>
+      </c>
+      <c r="V121" s="18"/>
     </row>
     <row r="122" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="19" t="s">
         <v>906</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="22" t="s">
         <v>1025</v>
       </c>
-      <c r="E122" s="22" t="s">
+      <c r="E122" s="20" t="s">
         <v>907</v>
       </c>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22" t="s">
+      <c r="F122" s="20"/>
+      <c r="G122" s="20" t="s">
         <v>908</v>
       </c>
-      <c r="H122" s="26" t="s">
+      <c r="H122" s="22" t="s">
         <v>1046</v>
       </c>
-      <c r="I122" s="22" t="s">
+      <c r="I122" s="20" t="s">
         <v>909</v>
       </c>
-      <c r="J122" s="26" t="s">
+      <c r="J122" s="22" t="s">
         <v>1092</v>
       </c>
-      <c r="K122" s="22" t="s">
+      <c r="K122" s="20" t="s">
         <v>910</v>
       </c>
-      <c r="L122" s="26" t="s">
+      <c r="L122" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="M122" s="24">
-        <v>39077</v>
-      </c>
-      <c r="N122" s="22" t="s">
+      <c r="M122" s="22" t="s">
+        <v>1406</v>
+      </c>
+      <c r="N122" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="O122" s="22" t="s">
+      <c r="O122" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P122" s="29" t="s">
+      <c r="P122" s="22" t="s">
         <v>1294</v>
       </c>
-      <c r="Q122" s="22" t="s">
+      <c r="Q122" s="20" t="s">
         <v>774</v>
       </c>
-      <c r="R122" s="22" t="s">
+      <c r="R122" s="20" t="s">
         <v>912</v>
       </c>
-      <c r="S122" s="22" t="s">
+      <c r="S122" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="T122" s="34" t="s">
+      <c r="T122" s="26" t="s">
         <v>1223</v>
       </c>
-      <c r="U122" s="24">
-        <v>7223</v>
-      </c>
-      <c r="V122" s="23" t="s">
+      <c r="U122" s="22" t="s">
+        <v>1371</v>
+      </c>
+      <c r="V122" s="21" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="123" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="16" t="s">
         <v>915</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="17" t="s">
         <v>868</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="23" t="s">
         <v>1026</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="17" t="s">
         <v>916</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="F123" s="17" t="s">
         <v>917</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="G123" s="17" t="s">
         <v>918</v>
       </c>
-      <c r="H123" s="25" t="s">
+      <c r="H123" s="23" t="s">
         <v>1045</v>
       </c>
-      <c r="I123" s="19" t="s">
+      <c r="I123" s="17" t="s">
         <v>919</v>
       </c>
-      <c r="J123" s="25" t="s">
+      <c r="J123" s="23" t="s">
         <v>1091</v>
       </c>
-      <c r="K123" s="19" t="s">
+      <c r="K123" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="L123" s="25" t="s">
+      <c r="L123" s="23" t="s">
         <v>1311</v>
       </c>
-      <c r="M123" s="30" t="s">
+      <c r="M123" s="23" t="s">
         <v>1096</v>
       </c>
-      <c r="N123" s="19" t="s">
+      <c r="N123" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="O123" s="19" t="s">
+      <c r="O123" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P123" s="30" t="s">
+      <c r="P123" s="23" t="s">
         <v>1295</v>
       </c>
-      <c r="Q123" s="19" t="s">
+      <c r="Q123" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="R123" s="19" t="s">
+      <c r="R123" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="S123" s="19" t="s">
+      <c r="S123" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="T123" s="32" t="s">
+      <c r="T123" s="24" t="s">
         <v>1224</v>
       </c>
-      <c r="U123" s="31">
-        <v>9557</v>
-      </c>
-      <c r="V123" s="20" t="s">
+      <c r="U123" s="23" t="s">
+        <v>1370</v>
+      </c>
+      <c r="V123" s="18" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="124" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="19" t="s">
         <v>924</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="20" t="s">
         <v>925</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="D124" s="26" t="s">
+      <c r="D124" s="22" t="s">
         <v>1027</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="E124" s="20" t="s">
         <v>926</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="F124" s="20" t="s">
         <v>917</v>
       </c>
-      <c r="G124" s="22" t="s">
+      <c r="G124" s="20" t="s">
         <v>927</v>
       </c>
-      <c r="H124" s="26" t="s">
+      <c r="H124" s="22" t="s">
         <v>1044</v>
       </c>
-      <c r="I124" s="22" t="s">
+      <c r="I124" s="20" t="s">
         <v>928</v>
       </c>
-      <c r="J124" s="26" t="s">
+      <c r="J124" s="22" t="s">
         <v>1090</v>
       </c>
-      <c r="K124" s="22" t="s">
+      <c r="K124" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="L124" s="26" t="s">
+      <c r="L124" s="22" t="s">
         <v>1312</v>
       </c>
-      <c r="M124" s="26">
+      <c r="M124" s="22">
         <v>2000</v>
       </c>
-      <c r="N124" s="22" t="s">
+      <c r="N124" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="O124" s="22" t="s">
+      <c r="O124" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="P124" s="29" t="s">
+      <c r="P124" s="22" t="s">
         <v>1296</v>
       </c>
-      <c r="Q124" s="22" t="s">
+      <c r="Q124" s="20" t="s">
         <v>929</v>
       </c>
-      <c r="R124" s="22" t="s">
+      <c r="R124" s="20" t="s">
         <v>930</v>
       </c>
-      <c r="S124" s="22" t="s">
+      <c r="S124" s="20" t="s">
         <v>931</v>
       </c>
-      <c r="T124" s="34" t="s">
+      <c r="T124" s="26" t="s">
         <v>1225</v>
       </c>
-      <c r="U124" s="26" t="s">
+      <c r="U124" s="22" t="s">
         <v>1113</v>
       </c>
-      <c r="V124" s="23" t="s">
+      <c r="V124" s="21" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="125" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
-      <c r="B125" s="19" t="s">
+      <c r="A125" s="16"/>
+      <c r="B125" s="17" t="s">
         <v>933</v>
       </c>
-      <c r="C125" s="19"/>
-      <c r="D125" s="25" t="s">
+      <c r="C125" s="17"/>
+      <c r="D125" s="23" t="s">
         <v>1069</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19" t="s">
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17" t="s">
         <v>934</v>
       </c>
-      <c r="H125" s="25" t="s">
+      <c r="H125" s="23" t="s">
         <v>1043</v>
       </c>
-      <c r="I125" s="19"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="25"/>
-      <c r="N125" s="19" t="s">
+      <c r="I125" s="17"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="23"/>
+      <c r="M125" s="23"/>
+      <c r="N125" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O125" s="19" t="s">
+      <c r="O125" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="P125" s="30" t="s">
+      <c r="P125" s="23" t="s">
         <v>1297</v>
       </c>
-      <c r="Q125" s="19" t="s">
+      <c r="Q125" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="R125" s="19" t="s">
+      <c r="R125" s="17" t="s">
         <v>935</v>
       </c>
-      <c r="S125" s="32" t="s">
+      <c r="S125" s="24" t="s">
         <v>1322</v>
       </c>
-      <c r="T125" s="32" t="s">
+      <c r="T125" s="24" t="s">
         <v>936</v>
       </c>
-      <c r="U125" s="25" t="s">
+      <c r="U125" s="23" t="s">
         <v>1114</v>
       </c>
-      <c r="V125" s="20" t="s">
+      <c r="V125" s="18" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="20" t="s">
         <v>938</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="20" t="s">
         <v>939</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="22" t="s">
         <v>1070</v>
       </c>
-      <c r="E126" s="22" t="s">
+      <c r="E126" s="20" t="s">
         <v>882</v>
       </c>
-      <c r="F126" s="22" t="s">
+      <c r="F126" s="20" t="s">
         <v>940</v>
       </c>
-      <c r="G126" s="22" t="s">
+      <c r="G126" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="H126" s="26"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="22"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26">
+      <c r="H126" s="22"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="22">
         <v>1595</v>
       </c>
-      <c r="N126" s="22" t="s">
+      <c r="N126" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="O126" s="22" t="s">
+      <c r="O126" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="P126" s="29" t="s">
+      <c r="P126" s="22" t="s">
         <v>1298</v>
       </c>
-      <c r="Q126" s="22" t="s">
+      <c r="Q126" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="R126" s="22" t="s">
+      <c r="R126" s="20" t="s">
         <v>941</v>
       </c>
-      <c r="S126" s="34" t="s">
+      <c r="S126" s="26" t="s">
         <v>1321</v>
       </c>
-      <c r="T126" s="34" t="s">
+      <c r="T126" s="26" t="s">
         <v>886</v>
       </c>
-      <c r="U126" s="26">
+      <c r="U126" s="43">
         <v>1563</v>
       </c>
-      <c r="V126" s="23" t="s">
+      <c r="V126" s="21" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="16" t="s">
         <v>943</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="F127" s="19" t="s">
+      <c r="F127" s="17" t="s">
         <v>945</v>
       </c>
-      <c r="G127" s="19" t="s">
+      <c r="G127" s="17" t="s">
         <v>946</v>
       </c>
-      <c r="H127" s="25" t="s">
+      <c r="H127" s="23" t="s">
         <v>1042</v>
       </c>
-      <c r="I127" s="19" t="s">
+      <c r="I127" s="17" t="s">
         <v>947</v>
       </c>
-      <c r="J127" s="25" t="s">
+      <c r="J127" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="K127" s="19"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="30" t="s">
+      <c r="K127" s="17"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="23" t="s">
         <v>1096</v>
       </c>
-      <c r="N127" s="19" t="s">
+      <c r="N127" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="O127" s="19" t="s">
+      <c r="O127" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="P127" s="30" t="s">
+      <c r="P127" s="23" t="s">
         <v>1299</v>
       </c>
-      <c r="Q127" s="19" t="s">
+      <c r="Q127" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="R127" s="19" t="s">
+      <c r="R127" s="17" t="s">
         <v>948</v>
       </c>
-      <c r="S127" s="19" t="s">
+      <c r="S127" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="T127" s="32" t="s">
+      <c r="T127" s="24" t="s">
         <v>1226</v>
       </c>
-      <c r="U127" s="31">
-        <v>13883</v>
-      </c>
-      <c r="V127" s="20" t="s">
+      <c r="U127" s="23" t="s">
+        <v>1369</v>
+      </c>
+      <c r="V127" s="18" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="16" t="s">
         <v>952</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="17" t="s">
         <v>953</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C128" s="17" t="s">
         <v>954</v>
       </c>
-      <c r="D128" s="25" t="s">
+      <c r="D128" s="23" t="s">
         <v>1029</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="17" t="s">
         <v>955</v>
       </c>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19" t="s">
+      <c r="F128" s="17"/>
+      <c r="G128" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="H128" s="25" t="s">
+      <c r="H128" s="23" t="s">
         <v>1041</v>
       </c>
-      <c r="I128" s="19" t="s">
+      <c r="I128" s="17" t="s">
         <v>957</v>
       </c>
-      <c r="J128" s="25" t="s">
+      <c r="J128" s="23" t="s">
         <v>1088</v>
       </c>
-      <c r="K128" s="19"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="31">
-        <v>36754</v>
-      </c>
-      <c r="N128" s="19" t="s">
+      <c r="K128" s="17"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23" t="s">
+        <v>1405</v>
+      </c>
+      <c r="N128" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="O128" s="19" t="s">
+      <c r="O128" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="P128" s="30" t="s">
+      <c r="P128" s="23" t="s">
         <v>1300</v>
       </c>
-      <c r="Q128" s="19" t="s">
+      <c r="Q128" s="17" t="s">
         <v>774</v>
       </c>
-      <c r="R128" s="19" t="s">
+      <c r="R128" s="17" t="s">
         <v>958</v>
       </c>
-      <c r="S128" s="32" t="s">
+      <c r="S128" s="24" t="s">
         <v>959</v>
       </c>
-      <c r="T128" s="32" t="s">
+      <c r="T128" s="24" t="s">
         <v>1227</v>
       </c>
-      <c r="U128" s="31">
-        <v>13793</v>
-      </c>
-      <c r="V128" s="20"/>
+      <c r="U128" s="23" t="s">
+        <v>1368</v>
+      </c>
+      <c r="V128" s="18"/>
     </row>
     <row r="129" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="19" t="s">
         <v>960</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="20" t="s">
         <v>961</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="22" t="s">
         <v>1030</v>
       </c>
-      <c r="E129" s="22" t="s">
+      <c r="E129" s="20" t="s">
         <v>962</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="F129" s="20" t="s">
         <v>963</v>
       </c>
-      <c r="G129" s="22" t="s">
+      <c r="G129" s="20" t="s">
         <v>964</v>
       </c>
-      <c r="H129" s="26" t="s">
+      <c r="H129" s="22" t="s">
         <v>1040</v>
       </c>
-      <c r="I129" s="22" t="s">
+      <c r="I129" s="20" t="s">
         <v>965</v>
       </c>
-      <c r="J129" s="26" t="s">
+      <c r="J129" s="22" t="s">
         <v>1087</v>
       </c>
-      <c r="K129" s="22" t="s">
+      <c r="K129" s="20" t="s">
         <v>966</v>
       </c>
-      <c r="L129" s="26" t="s">
+      <c r="L129" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="M129" s="24">
-        <v>38462</v>
-      </c>
-      <c r="N129" s="22" t="s">
+      <c r="M129" s="22" t="s">
+        <v>1404</v>
+      </c>
+      <c r="N129" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="O129" s="22" t="s">
+      <c r="O129" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P129" s="29" t="s">
+      <c r="P129" s="22" t="s">
         <v>1301</v>
       </c>
-      <c r="Q129" s="22" t="s">
+      <c r="Q129" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="R129" s="22" t="s">
+      <c r="R129" s="20" t="s">
         <v>967</v>
       </c>
-      <c r="S129" s="22" t="s">
+      <c r="S129" s="20" t="s">
         <v>968</v>
       </c>
-      <c r="T129" s="34" t="s">
+      <c r="T129" s="26" t="s">
         <v>1228</v>
       </c>
-      <c r="U129" s="24">
-        <v>13841</v>
-      </c>
-      <c r="V129" s="23"/>
+      <c r="U129" s="22" t="s">
+        <v>1367</v>
+      </c>
+      <c r="V129" s="21"/>
     </row>
     <row r="130" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="16" t="s">
         <v>969</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="C130" s="19" t="s">
+      <c r="C130" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="D130" s="25">
+      <c r="D130" s="23">
         <v>1870</v>
       </c>
-      <c r="E130" s="19" t="s">
+      <c r="E130" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19" t="s">
+      <c r="F130" s="17"/>
+      <c r="G130" s="17" t="s">
         <v>972</v>
       </c>
-      <c r="H130" s="25" t="s">
+      <c r="H130" s="23" t="s">
         <v>1039</v>
       </c>
-      <c r="I130" s="19" t="s">
+      <c r="I130" s="17" t="s">
         <v>973</v>
       </c>
-      <c r="J130" s="25" t="s">
+      <c r="J130" s="23" t="s">
         <v>1086</v>
       </c>
-      <c r="K130" s="19" t="s">
+      <c r="K130" s="17" t="s">
         <v>974</v>
       </c>
-      <c r="L130" s="25" t="s">
+      <c r="L130" s="23" t="s">
         <v>1313</v>
       </c>
-      <c r="M130" s="30" t="s">
+      <c r="M130" s="23" t="s">
         <v>1096</v>
       </c>
-      <c r="N130" s="19" t="s">
+      <c r="N130" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="O130" s="19" t="s">
+      <c r="O130" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="P130" s="30" t="s">
+      <c r="P130" s="23" t="s">
         <v>1302</v>
       </c>
-      <c r="Q130" s="19" t="s">
+      <c r="Q130" s="17" t="s">
         <v>774</v>
       </c>
-      <c r="R130" s="19" t="s">
+      <c r="R130" s="17" t="s">
         <v>975</v>
       </c>
-      <c r="S130" s="19" t="s">
+      <c r="S130" s="17" t="s">
         <v>976</v>
       </c>
-      <c r="T130" s="32" t="s">
+      <c r="T130" s="24" t="s">
         <v>977</v>
       </c>
-      <c r="U130" s="31">
-        <v>13725</v>
-      </c>
-      <c r="V130" s="20"/>
+      <c r="U130" s="23" t="s">
+        <v>1363</v>
+      </c>
+      <c r="V130" s="18"/>
     </row>
     <row r="131" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="19" t="s">
         <v>978</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="20" t="s">
         <v>979</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C131" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="22" t="s">
         <v>1033</v>
       </c>
-      <c r="E131" s="22" t="s">
+      <c r="E131" s="20" t="s">
         <v>980</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="F131" s="20" t="s">
         <v>981</v>
       </c>
-      <c r="G131" s="22" t="s">
+      <c r="G131" s="20" t="s">
         <v>982</v>
       </c>
-      <c r="H131" s="26" t="s">
+      <c r="H131" s="22" t="s">
         <v>1038</v>
       </c>
-      <c r="I131" s="22"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="22"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="29" t="s">
+      <c r="I131" s="20"/>
+      <c r="J131" s="22"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="22" t="s">
         <v>1096</v>
       </c>
-      <c r="N131" s="22" t="s">
+      <c r="N131" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="O131" s="22" t="s">
+      <c r="O131" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P131" s="29" t="s">
+      <c r="P131" s="22" t="s">
         <v>1302</v>
       </c>
-      <c r="Q131" s="22" t="s">
+      <c r="Q131" s="20" t="s">
         <v>951</v>
       </c>
-      <c r="R131" s="22" t="s">
+      <c r="R131" s="20" t="s">
         <v>983</v>
       </c>
-      <c r="S131" s="22" t="s">
+      <c r="S131" s="20" t="s">
         <v>984</v>
       </c>
-      <c r="T131" s="34" t="s">
+      <c r="T131" s="26" t="s">
         <v>1221</v>
       </c>
-      <c r="U131" s="24">
-        <v>13725</v>
-      </c>
-      <c r="V131" s="23"/>
+      <c r="U131" s="22" t="s">
+        <v>1363</v>
+      </c>
+      <c r="V131" s="21"/>
     </row>
     <row r="132" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="16" t="s">
         <v>985</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="17" t="s">
         <v>987</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="23" t="s">
         <v>1031</v>
       </c>
-      <c r="E132" s="19" t="s">
+      <c r="E132" s="17" t="s">
         <v>988</v>
       </c>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19" t="s">
+      <c r="F132" s="17"/>
+      <c r="G132" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="H132" s="25" t="s">
+      <c r="H132" s="23" t="s">
         <v>1037</v>
       </c>
-      <c r="I132" s="19" t="s">
+      <c r="I132" s="17" t="s">
         <v>990</v>
       </c>
-      <c r="J132" s="25" t="s">
+      <c r="J132" s="23" t="s">
         <v>1085</v>
       </c>
-      <c r="K132" s="19"/>
-      <c r="L132" s="25"/>
-      <c r="M132" s="31">
-        <v>39556</v>
-      </c>
-      <c r="N132" s="19" t="s">
+      <c r="K132" s="17"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N132" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="O132" s="19" t="s">
+      <c r="O132" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P132" s="30" t="s">
+      <c r="P132" s="23" t="s">
         <v>1303</v>
       </c>
-      <c r="Q132" s="19" t="s">
+      <c r="Q132" s="17" t="s">
         <v>991</v>
       </c>
-      <c r="R132" s="46" t="s">
+      <c r="R132" s="38" t="s">
         <v>992</v>
       </c>
-      <c r="S132" s="19" t="s">
+      <c r="S132" s="17" t="s">
         <v>993</v>
       </c>
-      <c r="T132" s="32" t="s">
+      <c r="T132" s="24" t="s">
         <v>1229</v>
       </c>
-      <c r="U132" s="25" t="s">
+      <c r="U132" s="23" t="s">
         <v>1115</v>
       </c>
-      <c r="V132" s="20" t="s">
+      <c r="V132" s="18" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="133" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="19" t="s">
         <v>995</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="20" t="s">
         <v>996</v>
       </c>
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="22" t="s">
         <v>1032</v>
       </c>
-      <c r="E133" s="22" t="s">
+      <c r="E133" s="20" t="s">
         <v>997</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="F133" s="20" t="s">
         <v>998</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" s="20" t="s">
         <v>999</v>
       </c>
-      <c r="H133" s="26" t="s">
+      <c r="H133" s="22" t="s">
         <v>1036</v>
       </c>
-      <c r="I133" s="22" t="s">
+      <c r="I133" s="20" t="s">
         <v>1000</v>
       </c>
-      <c r="J133" s="26" t="s">
+      <c r="J133" s="22" t="s">
         <v>1041</v>
       </c>
-      <c r="K133" s="22" t="s">
+      <c r="K133" s="20" t="s">
         <v>1001</v>
       </c>
-      <c r="L133" s="26" t="s">
+      <c r="L133" s="22" t="s">
         <v>1314</v>
       </c>
-      <c r="M133" s="29" t="s">
+      <c r="M133" s="22" t="s">
         <v>1096</v>
       </c>
-      <c r="N133" s="22" t="s">
+      <c r="N133" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="O133" s="22" t="s">
+      <c r="O133" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P133" s="29" t="s">
+      <c r="P133" s="22" t="s">
         <v>1302</v>
       </c>
-      <c r="Q133" s="22" t="s">
+      <c r="Q133" s="20" t="s">
         <v>802</v>
       </c>
-      <c r="R133" s="22" t="s">
+      <c r="R133" s="20" t="s">
         <v>1002</v>
       </c>
-      <c r="S133" s="22" t="s">
+      <c r="S133" s="20" t="s">
         <v>1003</v>
       </c>
-      <c r="T133" s="34" t="s">
+      <c r="T133" s="26" t="s">
         <v>1230</v>
       </c>
-      <c r="U133" s="24">
-        <v>13725</v>
-      </c>
-      <c r="V133" s="23"/>
+      <c r="U133" s="22" t="s">
+        <v>1363</v>
+      </c>
+      <c r="V133" s="21"/>
     </row>
     <row r="134" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="42" t="s">
+      <c r="A134" s="34" t="s">
         <v>1323</v>
       </c>
-      <c r="B134" s="43" t="s">
+      <c r="B134" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="C134" s="43" t="s">
+      <c r="C134" s="35" t="s">
         <v>1327</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="32" t="s">
         <v>1324</v>
       </c>
-      <c r="E134" s="43" t="s">
+      <c r="E134" s="35" t="s">
         <v>1325</v>
       </c>
-      <c r="F134" s="43" t="s">
+      <c r="F134" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="G134" s="43" t="s">
+      <c r="G134" s="35" t="s">
         <v>1326</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="32">
         <v>1940</v>
       </c>
-      <c r="M134" s="3">
+      <c r="M134" s="32">
         <v>1993</v>
       </c>
-      <c r="N134" s="45" t="s">
+      <c r="N134" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O134" s="22" t="s">
+      <c r="O134" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P134" s="40" t="s">
+      <c r="P134" s="32" t="s">
         <v>1335</v>
       </c>
-      <c r="Q134" s="43" t="s">
+      <c r="Q134" s="35" t="s">
         <v>1328</v>
       </c>
-      <c r="R134" s="43" t="s">
+      <c r="R134" s="35" t="s">
         <v>1336</v>
       </c>
-      <c r="T134" s="43" t="s">
+      <c r="T134" s="35" t="s">
         <v>1329</v>
       </c>
-      <c r="U134" s="27">
-        <v>14755</v>
-      </c>
-      <c r="V134" s="43" t="s">
+      <c r="U134" s="32" t="s">
+        <v>1362</v>
+      </c>
+      <c r="V134" s="35" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="44" t="s">
+      <c r="A135" s="36" t="s">
         <v>1330</v>
       </c>
-      <c r="B135" s="45" t="s">
+      <c r="B135" s="37" t="s">
         <v>1331</v>
       </c>
-      <c r="C135" s="45" t="s">
+      <c r="C135" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="32" t="s">
         <v>1332</v>
       </c>
-      <c r="E135" s="45" t="s">
+      <c r="E135" s="37" t="s">
         <v>1333</v>
       </c>
-      <c r="F135" s="45" t="s">
+      <c r="F135" s="37" t="s">
         <v>1334</v>
       </c>
-      <c r="G135" s="45" t="s">
+      <c r="G135" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="32">
         <v>1928</v>
       </c>
-      <c r="M135" s="3">
+      <c r="M135" s="32">
         <v>1928</v>
       </c>
-      <c r="N135" s="45" t="s">
+      <c r="N135" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O135" s="22" t="s">
+      <c r="O135" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="Q135" s="45" t="s">
+      <c r="Q135" s="37" t="s">
         <v>802</v>
       </c>
-      <c r="R135" s="45" t="s">
+      <c r="R135" s="37" t="s">
         <v>1337</v>
       </c>
-      <c r="S135" s="33" t="s">
+      <c r="S135" s="25" t="s">
         <v>1338</v>
       </c>
-      <c r="T135" s="33" t="s">
+      <c r="T135" s="25" t="s">
         <v>1339</v>
       </c>
-      <c r="U135" s="27">
-        <v>873</v>
+      <c r="U135" s="44" t="s">
+        <v>1364</v>
       </c>
       <c r="V135" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="34" t="s">
         <v>1341</v>
       </c>
-      <c r="B136" s="43" t="s">
+      <c r="B136" s="35" t="s">
         <v>1342</v>
       </c>
-      <c r="C136" s="43" t="s">
+      <c r="C136" s="35" t="s">
         <v>1343</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="32" t="s">
         <v>1344</v>
       </c>
-      <c r="E136" s="43" t="s">
+      <c r="E136" s="35" t="s">
         <v>1345</v>
       </c>
-      <c r="F136" s="43" t="s">
+      <c r="F136" s="35" t="s">
         <v>1346</v>
       </c>
-      <c r="G136" s="47" t="s">
+      <c r="G136" s="39" t="s">
         <v>1347</v>
       </c>
-      <c r="H136" s="27">
-        <v>13858</v>
-      </c>
-      <c r="M136" s="3">
+      <c r="H136" s="32" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M136" s="32">
         <v>2000</v>
       </c>
-      <c r="N136" s="45" t="s">
+      <c r="N136" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O136" s="22" t="s">
+      <c r="O136" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="P136" s="40" t="s">
+      <c r="P136" s="32" t="s">
         <v>1359</v>
       </c>
-      <c r="Q136" s="43" t="s">
+      <c r="Q136" s="35" t="s">
         <v>1355</v>
       </c>
-      <c r="R136" s="43" t="s">
+      <c r="R136" s="35" t="s">
         <v>1348</v>
       </c>
-      <c r="S136" s="43" t="s">
+      <c r="S136" s="35" t="s">
         <v>1349</v>
       </c>
-      <c r="T136" s="48" t="s">
+      <c r="T136" s="40" t="s">
         <v>1350</v>
       </c>
-      <c r="U136" s="27">
-        <v>13858</v>
-      </c>
-      <c r="V136" s="43" t="s">
+      <c r="U136" s="32" t="s">
+        <v>1365</v>
+      </c>
+      <c r="V136" s="35" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="44" t="s">
+      <c r="A137" s="36" t="s">
         <v>1351</v>
       </c>
-      <c r="B137" s="45" t="s">
+      <c r="B137" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="C137" s="45" t="s">
+      <c r="C137" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="32" t="s">
         <v>1352</v>
       </c>
-      <c r="E137" s="45" t="s">
+      <c r="E137" s="37" t="s">
         <v>1353</v>
       </c>
-      <c r="F137" s="45" t="s">
+      <c r="F137" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="G137" s="45" t="s">
+      <c r="G137" s="37" t="s">
         <v>1354</v>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="32">
         <v>1923</v>
       </c>
-      <c r="M137" s="3">
+      <c r="M137" s="32">
         <v>2000</v>
       </c>
-      <c r="N137" s="45" t="s">
+      <c r="N137" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O137" s="22" t="s">
+      <c r="O137" s="20" t="s">
         <v>1232</v>
       </c>
-      <c r="Q137" s="45" t="s">
+      <c r="Q137" s="37" t="s">
         <v>489</v>
       </c>
       <c r="R137" t="s">
@@ -13325,8 +13548,8 @@
       <c r="T137" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="U137" s="27">
-        <v>10682</v>
+      <c r="U137" s="32" t="s">
+        <v>1366</v>
       </c>
       <c r="V137" t="s">
         <v>507</v>

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$141</definedName>
   </definedNames>
   <calcPr calcId="124519" refMode="R1C1"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1468">
   <si>
     <t>Фамилия</t>
   </si>
@@ -5404,6 +5404,117 @@
   </si>
   <si>
     <t>27.07.1913</t>
+  </si>
+  <si>
+    <t>Варфоломей</t>
+  </si>
+  <si>
+    <t>Кирилович</t>
+  </si>
+  <si>
+    <t>03.05.1314</t>
+  </si>
+  <si>
+    <t>с. Варницы</t>
+  </si>
+  <si>
+    <t>Сергий</t>
+  </si>
+  <si>
+    <t>08.10./19.07.</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Сергий_Радонежский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hram-olgi.ru/wp-content/uploads/2018/10/p1anull5qk17g1hfnv93l8e1njh9-1200x1671.png </t>
+  </si>
+  <si>
+    <t>25.09.1392</t>
+  </si>
+  <si>
+    <t>Троице-Сергиева Лавра</t>
+  </si>
+  <si>
+    <t>Радонеж</t>
+  </si>
+  <si>
+    <t>Се́ргий Ра́донежский, игумен Радонежский, игумен земли Русской, всея России чудотворец (в миру Варфоломе́й; 3 мая 1314 года или май 1322 года— 25 сентября 1392 года) — игумен Русской церкви, основатель ряда монастырей, в том числе Свято-Троицкого монастыря под Москвой (ныне Троице-Сергиева лавра). Духовный собиратель русского народа, с которым связаны культурный идеал Святой Руси и возникновение русской духовной культуры (и русской культуры вообще). «Ангел-Хранитель России» (П. Флоренский). Письменного наследия не оставил, однако известны его духовные наставления. Известен также как представитель деятельного исихазма, основоположник русского старчества и возобновитель монашеского общежития, которое идёт от Антония и Феодосия Печерских. С XV века почитается Русской православной церковью святым в лике преподобных и считается величайшим подвижником земли Русской. С древних времён почитается православными, в том числе старообрядцами. Считается покровителем учащихся.</t>
+  </si>
+  <si>
+    <t>Дмитрий Донской</t>
+  </si>
+  <si>
+    <t>12.10.1350</t>
+  </si>
+  <si>
+    <t>Архангельский собор в кремле</t>
+  </si>
+  <si>
+    <t>19.05.1389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/4/4c/Dmitri_Donskoy.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/Дмитрий_Иванович_Донской </t>
+  </si>
+  <si>
+    <t>19.05</t>
+  </si>
+  <si>
+    <t>Куликово поле</t>
+  </si>
+  <si>
+    <t>Дми́трий Ива́нович; 12 октября 1350, прозванный Донским за победу в Куликовской битве — князь Московский (с 1359) и великий князь Владимирский (с 1363). Сын князя Ивана II Красного и его второй жены, княгини Александры Ивановны. В правление Дмитрия Московское княжество стало одним из главных центров объединения русских земель, а Владимирское великое княжество стало наследственной собственностью московских князей, хотя при этом из-под его влияния вышли Тверское и Смоленское княжества. Были одержаны значительные военные победы над Золотой Ордой. Также был построен белокаменный Московский Кремль. Жизнеописание князя и сведения о его правлении подробно изложены в анонимном памятнике литературы XIV века «Слово о житии и о преставлении великого князя Дмитрия Ивановича, царя Русского».</t>
+  </si>
+  <si>
+    <t>Лазарь Сербский</t>
+  </si>
+  <si>
+    <t>Косово поле</t>
+  </si>
+  <si>
+    <t>28.06</t>
+  </si>
+  <si>
+    <t>Лазарь Хребелянович— последний независимый правитель Сербии (1370—1389), святой Сербской православной церкви. Лазарь не называл себя ни царём, ни королём, но только князем, самодержцем всей Сербской земли, и жил в Крушеваце. В 1376 году Лазарь добился от византийского патриарха освобождения от наложенного им на Сербию ещё при Стефане Душане проклятия и признания сербского патриархата.</t>
+  </si>
+  <si>
+    <t>Раваница</t>
+  </si>
+  <si>
+    <t>28.06.1389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://upload.wikimedia.org/wikipedia/commons/f/f9/Knez_Lazar%2C_Vladislav_Titelbah.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/Лазарь_Хребелянович </t>
+  </si>
+  <si>
+    <t>Фёдор Черный</t>
+  </si>
+  <si>
+    <t>Ростиславич</t>
+  </si>
+  <si>
+    <t>Смоленск</t>
+  </si>
+  <si>
+    <t>02.10</t>
+  </si>
+  <si>
+    <t>Ярославль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://yargid.ru/uploads/images/00/00/01/2014/11/10/eaa208.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ru.wikipedia.org/wiki/Фёдор_Ростиславич_Чёрный </t>
+  </si>
+  <si>
+    <t>Фёдор Ростисла́вич Чёрный (Чермный) (около 1240 или 1 сентября 1233 — 1299) — князь ярославский, можайский и великий князь смоленский. Прозвище Чермный означает как рыжий, так и красивый. В период с не ранее 1266 по 1276 год, возможно, пребывал в Золотой Орде, где, по легенде, по мнению Евгения Ермолина, его полюбила ханша Джиджекхатунь и благоволил хан Менгу-Тимур, они сватали свою дочь за него, несмотря на живую жену. Анастасия вскоре умерла, Фёдор пытался вернуться в Ярославль, но этому воспротивилась княгиня Ксения с боярами, объявившие князем малолетнего Михаила. Фёдор, оставшись в Орде, женился второй раз, на дочери хана, в православии Анне, получив за неё большое приданое (36 городов) и большой почёт у монголов. Родились сыновья Давид и Константин, в то время как старший сын Михаил умер в Ярославле. После этого Фёдор с семьёй отъехал в Ярославль с ханским ярлыком на княжение.</t>
   </si>
 </sst>
 </file>
@@ -5596,7 +5707,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5613,8 +5724,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5639,10 +5756,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
@@ -5668,18 +5803,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -5963,29 +6093,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13" style="32" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13" style="32" customWidth="1"/>
+    <col min="10" max="10" width="13" style="3" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="13" style="32" customWidth="1"/>
+    <col min="12" max="13" width="13" style="3" customWidth="1"/>
     <col min="14" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="41.5703125" style="32" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" style="40" customWidth="1"/>
     <col min="17" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="41.85546875" customWidth="1"/>
     <col min="19" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="32" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="3" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5999,7 +6129,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -6011,22 +6141,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
@@ -6035,7 +6165,7 @@
       <c r="O1" t="s">
         <v>1231</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="40" t="s">
         <v>10</v>
       </c>
       <c r="Q1" t="s">
@@ -6050,7 +6180,7 @@
       <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="V1" t="s">
@@ -6061,7 +6191,7 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="3" t="s">
         <v>1061</v>
       </c>
       <c r="E2" t="s">
@@ -6070,22 +6200,22 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="3" t="s">
         <v>1061</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="3" t="s">
         <v>1061</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="40" t="s">
         <v>1234</v>
       </c>
       <c r="Q2" t="s">
@@ -6100,7 +6230,7 @@
       <c r="T2" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="U2" s="32">
+      <c r="U2" s="3">
         <v>101</v>
       </c>
     </row>
@@ -6108,7 +6238,7 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="3">
         <v>100</v>
       </c>
       <c r="E3" t="s">
@@ -6117,28 +6247,28 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="3" t="s">
         <v>1062</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="3" t="s">
         <v>1062</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="3" t="s">
         <v>1062</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="38" t="s">
         <v>1232</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="40" t="s">
         <v>1235</v>
       </c>
       <c r="Q3" t="s">
@@ -6153,7 +6283,7 @@
       <c r="T3" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="U3" s="32">
+      <c r="U3" s="3">
         <v>165</v>
       </c>
     </row>
@@ -6161,7 +6291,7 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="3">
         <v>200</v>
       </c>
       <c r="E4" t="s">
@@ -6170,7 +6300,7 @@
       <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="3" t="s">
         <v>1063</v>
       </c>
       <c r="N4" t="s">
@@ -6179,7 +6309,7 @@
       <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="40" t="s">
         <v>1236</v>
       </c>
       <c r="Q4" t="s">
@@ -6194,7 +6324,7 @@
       <c r="T4" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -6202,7 +6332,7 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="3">
         <v>330</v>
       </c>
       <c r="E5" t="s">
@@ -6211,13 +6341,13 @@
       <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="3" t="s">
         <v>1064</v>
       </c>
       <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="3" t="s">
         <v>1059</v>
       </c>
       <c r="N5" t="s">
@@ -6226,7 +6356,7 @@
       <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="40" t="s">
         <v>40</v>
       </c>
       <c r="Q5" t="s">
@@ -6241,7 +6371,7 @@
       <c r="T5" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="U5" s="32">
+      <c r="U5" s="3">
         <v>379</v>
       </c>
     </row>
@@ -6249,7 +6379,7 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="3">
         <v>347</v>
       </c>
       <c r="E6" t="s">
@@ -6258,7 +6388,7 @@
       <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="3" t="s">
         <v>1064</v>
       </c>
       <c r="N6" t="s">
@@ -6267,7 +6397,7 @@
       <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="40" t="s">
         <v>47</v>
       </c>
       <c r="Q6" t="s">
@@ -6282,7 +6412,7 @@
       <c r="T6" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="3" t="s">
         <v>1101</v>
       </c>
       <c r="V6" t="s">
@@ -6293,7 +6423,7 @@
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="3" t="s">
         <v>1065</v>
       </c>
       <c r="E7" t="s">
@@ -6302,22 +6432,22 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="3" t="s">
         <v>1065</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="3" t="s">
         <v>1076</v>
       </c>
       <c r="N7" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="40" t="s">
         <v>1237</v>
       </c>
       <c r="Q7" t="s">
@@ -6332,7 +6462,7 @@
       <c r="T7" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="U7" s="32">
+      <c r="U7" s="3">
         <v>563</v>
       </c>
     </row>
@@ -6340,7 +6470,7 @@
       <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="3">
         <v>579</v>
       </c>
       <c r="E8" t="s">
@@ -6349,7 +6479,7 @@
       <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="3">
         <v>595</v>
       </c>
       <c r="N8" t="s">
@@ -6358,7 +6488,7 @@
       <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="40" t="s">
         <v>397</v>
       </c>
       <c r="Q8" t="s">
@@ -6373,7 +6503,7 @@
       <c r="T8" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="U8" s="32">
+      <c r="U8" s="3">
         <v>649</v>
       </c>
     </row>
@@ -6381,7 +6511,7 @@
       <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="3">
         <v>675</v>
       </c>
       <c r="E9" t="s">
@@ -6390,7 +6520,7 @@
       <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="3" t="s">
         <v>398</v>
       </c>
       <c r="N9" t="s">
@@ -6399,7 +6529,7 @@
       <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="40" t="s">
         <v>1238</v>
       </c>
       <c r="Q9" t="s">
@@ -6414,7 +6544,7 @@
       <c r="T9" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="U9" s="32">
+      <c r="U9" s="3">
         <v>780</v>
       </c>
     </row>
@@ -6422,7 +6552,7 @@
       <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="3">
         <v>759</v>
       </c>
       <c r="E10" t="s">
@@ -6431,16 +6561,16 @@
       <c r="G10" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="3">
         <v>781</v>
       </c>
       <c r="I10" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="3">
         <v>798</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="3">
         <v>828</v>
       </c>
       <c r="N10" t="s">
@@ -6449,7 +6579,7 @@
       <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="40" t="s">
         <v>68</v>
       </c>
       <c r="Q10" t="s">
@@ -6464,7 +6594,7 @@
       <c r="T10" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="U10" s="32">
+      <c r="U10" s="3">
         <v>826</v>
       </c>
     </row>
@@ -6472,7 +6602,7 @@
       <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="3">
         <v>860</v>
       </c>
       <c r="E11" t="s">
@@ -6481,10 +6611,10 @@
       <c r="G11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="3">
         <v>1144</v>
       </c>
       <c r="N11" t="s">
@@ -6493,7 +6623,7 @@
       <c r="O11" t="s">
         <v>1232</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="40" t="s">
         <v>1239</v>
       </c>
       <c r="Q11" t="s">
@@ -6508,7 +6638,7 @@
       <c r="T11" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="U11" s="3" t="s">
         <v>399</v>
       </c>
       <c r="V11" t="s">
@@ -6519,7 +6649,7 @@
       <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="3">
         <v>949</v>
       </c>
       <c r="E12" t="s">
@@ -6528,7 +6658,7 @@
       <c r="G12" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="3" t="s">
         <v>401</v>
       </c>
       <c r="N12" t="s">
@@ -6537,7 +6667,7 @@
       <c r="O12" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="40" t="s">
         <v>1240</v>
       </c>
       <c r="Q12" t="s">
@@ -6552,7 +6682,7 @@
       <c r="T12" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="3">
         <v>1022</v>
       </c>
     </row>
@@ -6560,7 +6690,7 @@
       <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="3">
         <v>900</v>
       </c>
       <c r="E13" t="s">
@@ -6569,16 +6699,16 @@
       <c r="G13" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="3" t="s">
         <v>1079</v>
       </c>
       <c r="I13" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="3" t="s">
         <v>1080</v>
       </c>
       <c r="N13" t="s">
@@ -6587,7 +6717,7 @@
       <c r="O13" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="40" t="s">
         <v>1241</v>
       </c>
       <c r="Q13" t="s">
@@ -6602,7 +6732,7 @@
       <c r="T13" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="3" t="s">
         <v>1304</v>
       </c>
       <c r="V13" t="s">
@@ -6613,7 +6743,7 @@
       <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="3">
         <v>1073</v>
       </c>
       <c r="E14" t="s">
@@ -6622,10 +6752,10 @@
       <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="3" t="s">
         <v>1066</v>
       </c>
       <c r="N14" t="s">
@@ -6634,7 +6764,7 @@
       <c r="O14" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="40" t="s">
         <v>1243</v>
       </c>
       <c r="Q14" t="s">
@@ -6649,7 +6779,7 @@
       <c r="T14" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="U14" s="32">
+      <c r="U14" s="3">
         <v>1125</v>
       </c>
       <c r="V14" t="s">
@@ -6660,7 +6790,7 @@
       <c r="B15" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="3">
         <v>1114</v>
       </c>
       <c r="E15" t="s">
@@ -6672,16 +6802,16 @@
       <c r="G15" t="s">
         <v>404</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="3" t="s">
         <v>1080</v>
       </c>
       <c r="I15" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="3">
         <v>1204</v>
       </c>
       <c r="N15" t="s">
@@ -6690,7 +6820,7 @@
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="40" t="s">
         <v>1242</v>
       </c>
       <c r="Q15" t="s">
@@ -6705,7 +6835,7 @@
       <c r="T15" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="U15" s="32">
+      <c r="U15" s="3">
         <v>1200</v>
       </c>
       <c r="V15" t="s">
@@ -6716,7 +6846,7 @@
       <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="3">
         <v>1166</v>
       </c>
       <c r="E16" t="s">
@@ -6725,7 +6855,7 @@
       <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="3" t="s">
         <v>1066</v>
       </c>
       <c r="N16" t="s">
@@ -6734,7 +6864,7 @@
       <c r="O16" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="32" t="s">
+      <c r="P16" s="40" t="s">
         <v>1244</v>
       </c>
       <c r="Q16" t="s">
@@ -6749,7 +6879,7 @@
       <c r="T16" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="U16" s="32">
+      <c r="U16" s="3">
         <v>1213</v>
       </c>
     </row>
@@ -6760,7 +6890,7 @@
       <c r="B17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="7">
         <v>1169</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -6772,17 +6902,17 @@
       <c r="G17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
         <v>1066</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -6791,7 +6921,7 @@
       <c r="O17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="41" t="s">
         <v>1245</v>
       </c>
       <c r="Q17" s="4" t="s">
@@ -6806,7 +6936,7 @@
       <c r="T17" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="U17" s="33">
+      <c r="U17" s="7">
         <v>1236</v>
       </c>
     </row>
@@ -6817,7 +6947,7 @@
       <c r="B18" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="3">
         <v>1296</v>
       </c>
       <c r="E18" t="s">
@@ -6826,10 +6956,10 @@
       <c r="G18" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="3">
         <v>1368</v>
       </c>
       <c r="N18" t="s">
@@ -6838,7 +6968,7 @@
       <c r="O18" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="40" t="s">
         <v>1246</v>
       </c>
       <c r="Q18" t="s">
@@ -6861,7 +6991,7 @@
       <c r="B19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="7">
         <v>1268</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -6870,17 +7000,17 @@
       <c r="G19" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="7" t="s">
         <v>1066</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33" t="s">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
         <v>1068</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -6889,7 +7019,7 @@
       <c r="O19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="P19" s="41" t="s">
         <v>1247</v>
       </c>
       <c r="Q19" s="4" t="s">
@@ -6904,7 +7034,7 @@
       <c r="T19" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="7">
         <v>1346</v>
       </c>
     </row>
@@ -6915,7 +7045,7 @@
       <c r="B20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="3">
         <v>1392</v>
       </c>
       <c r="E20" t="s">
@@ -6927,22 +7057,22 @@
       <c r="G20" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="3" t="s">
         <v>1069</v>
       </c>
       <c r="K20" t="s">
         <v>409</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="3">
         <v>1734</v>
       </c>
       <c r="N20" t="s">
@@ -6951,7 +7081,7 @@
       <c r="O20" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="40" t="s">
         <v>1248</v>
       </c>
       <c r="Q20" t="s">
@@ -6966,7 +7096,7 @@
       <c r="T20" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="U20" s="32">
+      <c r="U20" s="3">
         <v>1444</v>
       </c>
       <c r="V20" t="s">
@@ -6977,7 +7107,7 @@
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="7" t="s">
         <v>1068</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6986,12 +7116,12 @@
       <c r="G21" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33">
+      <c r="J21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
         <v>1981</v>
       </c>
       <c r="N21" s="4" t="s">
@@ -7000,7 +7130,7 @@
       <c r="O21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="33" t="s">
+      <c r="P21" s="41" t="s">
         <v>1249</v>
       </c>
       <c r="Q21" s="4" t="s">
@@ -7015,7 +7145,7 @@
       <c r="T21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="U21" s="33">
+      <c r="U21" s="7">
         <v>1429</v>
       </c>
     </row>
@@ -7023,7 +7153,7 @@
       <c r="B22" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="3">
         <v>1510</v>
       </c>
       <c r="E22" t="s">
@@ -7032,10 +7162,10 @@
       <c r="G22" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="3">
         <v>1572</v>
       </c>
       <c r="N22" t="s">
@@ -7044,7 +7174,7 @@
       <c r="O22" t="s">
         <v>1232</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="40" t="s">
         <v>755</v>
       </c>
       <c r="Q22" t="s">
@@ -7059,7 +7189,7 @@
       <c r="T22" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="U22" s="32">
+      <c r="U22" s="3">
         <v>1568</v>
       </c>
     </row>
@@ -7070,7 +7200,7 @@
       <c r="B23" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="7">
         <v>1547</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -7082,17 +7212,17 @@
       <c r="G23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="7" t="s">
         <v>1070</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33">
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
         <v>1703</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -7101,7 +7231,7 @@
       <c r="O23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="P23" s="41" t="s">
         <v>1250</v>
       </c>
       <c r="Q23" s="4" t="s">
@@ -7116,7 +7246,7 @@
       <c r="T23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="7">
         <v>1622</v>
       </c>
       <c r="V23" s="4" t="s">
@@ -7127,7 +7257,7 @@
       <c r="B24" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="3">
         <v>1587</v>
       </c>
       <c r="E24" t="s">
@@ -7136,16 +7266,16 @@
       <c r="G24" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="3" t="s">
         <v>1071</v>
       </c>
       <c r="I24" t="s">
         <v>413</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="28" t="s">
         <v>1071</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="3" t="s">
         <v>1071</v>
       </c>
       <c r="N24" t="s">
@@ -7154,7 +7284,7 @@
       <c r="O24" t="s">
         <v>1232</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" s="40" t="s">
         <v>1251</v>
       </c>
       <c r="Q24" t="s">
@@ -7169,7 +7299,7 @@
       <c r="T24" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="U24" s="32">
+      <c r="U24" s="3">
         <v>1622</v>
       </c>
     </row>
@@ -7177,7 +7307,7 @@
       <c r="B25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="7" t="s">
         <v>1070</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -7186,12 +7316,12 @@
       <c r="G25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33">
+      <c r="J25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7">
         <v>1815</v>
       </c>
       <c r="N25" s="4" t="s">
@@ -7200,7 +7330,7 @@
       <c r="O25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P25" s="33" t="s">
+      <c r="P25" s="41" t="s">
         <v>1252</v>
       </c>
       <c r="Q25" s="4" t="s">
@@ -7215,7 +7345,7 @@
       <c r="T25" s="6" t="s">
         <v>1134</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="7">
         <v>1651</v>
       </c>
       <c r="V25" s="4" t="s">
@@ -7226,7 +7356,7 @@
       <c r="B26" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="3">
         <v>1775</v>
       </c>
       <c r="E26" t="s">
@@ -7235,10 +7365,10 @@
       <c r="G26" t="s">
         <v>415</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="3">
         <v>1795</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="3">
         <v>1912</v>
       </c>
       <c r="N26" t="s">
@@ -7247,7 +7377,7 @@
       <c r="O26" t="s">
         <v>1232</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="40" t="s">
         <v>1253</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -7259,7 +7389,7 @@
       <c r="T26" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="U26" s="32" t="s">
+      <c r="U26" s="3" t="s">
         <v>1102</v>
       </c>
       <c r="V26" t="s">
@@ -7270,7 +7400,7 @@
       <c r="B27" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="3">
         <v>1714</v>
       </c>
       <c r="E27" t="s">
@@ -7282,16 +7412,16 @@
       <c r="G27" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="3" t="s">
         <v>417</v>
       </c>
       <c r="I27" t="s">
         <v>163</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="3">
         <v>1961</v>
       </c>
       <c r="N27" t="s">
@@ -7300,7 +7430,7 @@
       <c r="O27" t="s">
         <v>33</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="40" t="s">
         <v>1254</v>
       </c>
       <c r="Q27" t="s">
@@ -7315,7 +7445,7 @@
       <c r="T27" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="U27" s="32" t="s">
+      <c r="U27" s="3" t="s">
         <v>1103</v>
       </c>
       <c r="V27" t="s">
@@ -7329,7 +7459,7 @@
       <c r="B28" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="3">
         <v>1745</v>
       </c>
       <c r="E28" t="s">
@@ -7341,10 +7471,10 @@
       <c r="G28" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="3">
         <v>1921</v>
       </c>
       <c r="N28" t="s">
@@ -7353,7 +7483,7 @@
       <c r="O28" t="s">
         <v>1232</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="40" t="s">
         <v>736</v>
       </c>
       <c r="Q28" t="s">
@@ -7368,7 +7498,7 @@
       <c r="T28" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="U28" s="32" t="s">
+      <c r="U28" s="3" t="s">
         <v>1104</v>
       </c>
       <c r="V28" t="s">
@@ -7382,7 +7512,7 @@
       <c r="B29" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="3">
         <v>1739</v>
       </c>
       <c r="E29" t="s">
@@ -7394,16 +7524,16 @@
       <c r="G29" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="3" t="s">
         <v>1073</v>
       </c>
       <c r="I29" t="s">
         <v>422</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="M29" s="32" t="s">
+      <c r="M29" s="27" t="s">
         <v>1428</v>
       </c>
       <c r="N29" t="s">
@@ -7412,7 +7542,7 @@
       <c r="O29" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="P29" s="40" t="s">
         <v>1255</v>
       </c>
       <c r="Q29" t="s">
@@ -7427,7 +7557,7 @@
       <c r="T29" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="U29" s="32" t="s">
+      <c r="U29" s="3" t="s">
         <v>1105</v>
       </c>
       <c r="V29" t="s">
@@ -7441,7 +7571,7 @@
       <c r="B30" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="3" t="s">
         <v>1004</v>
       </c>
       <c r="E30" t="s">
@@ -7453,10 +7583,10 @@
       <c r="G30" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="M30" s="32" t="s">
+      <c r="M30" s="27" t="s">
         <v>1427</v>
       </c>
       <c r="N30" t="s">
@@ -7465,7 +7595,7 @@
       <c r="O30" t="s">
         <v>1232</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="40" t="s">
         <v>1256</v>
       </c>
       <c r="Q30" t="s">
@@ -7480,7 +7610,7 @@
       <c r="T30" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="U30" s="32" t="s">
+      <c r="U30" s="27" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -7491,7 +7621,7 @@
       <c r="B31" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="27" t="s">
         <v>1429</v>
       </c>
       <c r="E31" t="s">
@@ -7503,10 +7633,10 @@
       <c r="G31" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="M31" s="32" t="s">
+      <c r="M31" s="27" t="s">
         <v>1426</v>
       </c>
       <c r="N31" t="s">
@@ -7515,7 +7645,7 @@
       <c r="O31" t="s">
         <v>53</v>
       </c>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="40" t="s">
         <v>1257</v>
       </c>
       <c r="Q31" t="s">
@@ -7530,7 +7660,7 @@
       <c r="T31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="U31" s="32" t="s">
+      <c r="U31" s="27" t="s">
         <v>1401</v>
       </c>
       <c r="V31" t="s">
@@ -7543,7 +7673,7 @@
         <v>193</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="7" t="s">
         <v>1061</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -7553,29 +7683,29 @@
       <c r="G32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="7" t="s">
         <v>1075</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="7" t="s">
         <v>1061</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="M32" s="33"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="4" t="s">
         <v>196</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P32" s="33" t="s">
+      <c r="P32" s="41" t="s">
         <v>1258</v>
       </c>
       <c r="Q32" s="4" t="s">
@@ -7590,7 +7720,7 @@
       <c r="T32" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="U32" s="33">
+      <c r="U32" s="7">
         <v>96</v>
       </c>
       <c r="V32" s="4" t="s">
@@ -7603,7 +7733,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="7" t="s">
         <v>1062</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -7613,21 +7743,21 @@
       <c r="G33" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="7" t="s">
         <v>1061</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="33"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="4" t="s">
         <v>196</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P33" s="33" t="s">
+      <c r="P33" s="41" t="s">
         <v>1259</v>
       </c>
       <c r="Q33" s="4" t="s">
@@ -7642,7 +7772,7 @@
       <c r="T33" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="U33" s="33" t="s">
+      <c r="U33" s="7" t="s">
         <v>1061</v>
       </c>
       <c r="V33" s="4" t="s">
@@ -7655,7 +7785,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="33">
+      <c r="D34" s="7">
         <v>213</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -7665,14 +7795,14 @@
       <c r="G34" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="7" t="s">
         <v>1063</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="33"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33" t="s">
+      <c r="L34" s="7"/>
+      <c r="M34" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="N34" s="4" t="s">
@@ -7681,7 +7811,7 @@
       <c r="O34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="33" t="s">
+      <c r="P34" s="41" t="s">
         <v>1260</v>
       </c>
       <c r="Q34" s="4" t="s">
@@ -7696,7 +7826,7 @@
       <c r="T34" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="U34" s="33">
+      <c r="U34" s="7">
         <v>270</v>
       </c>
       <c r="V34" s="4" t="s">
@@ -7709,7 +7839,7 @@
         <v>207</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="7" t="s">
         <v>1063</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -7719,23 +7849,23 @@
       <c r="G35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="7">
         <v>230</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J35" s="33"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
       <c r="N35" s="4" t="s">
         <v>73</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P35" s="33" t="s">
+      <c r="P35" s="41" t="s">
         <v>1261</v>
       </c>
       <c r="Q35" s="4" t="s">
@@ -7750,7 +7880,7 @@
       <c r="T35" s="6" t="s">
         <v>1143</v>
       </c>
-      <c r="U35" s="33">
+      <c r="U35" s="7">
         <v>230</v>
       </c>
       <c r="V35" s="4" t="s">
@@ -7763,7 +7893,7 @@
         <v>210</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="41">
+      <c r="D36" s="8">
         <v>329</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -7773,21 +7903,21 @@
       <c r="G36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="33"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
       <c r="N36" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="33" t="s">
+      <c r="P36" s="41" t="s">
         <v>1262</v>
       </c>
       <c r="Q36" s="4" t="s">
@@ -7802,7 +7932,7 @@
       <c r="T36" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="U36" s="33">
+      <c r="U36" s="7">
         <v>389</v>
       </c>
       <c r="V36" s="4" t="s">
@@ -7815,7 +7945,7 @@
         <v>214</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="8" t="s">
         <v>342</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -7825,25 +7955,25 @@
       <c r="G37" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="J37" s="33" t="s">
+      <c r="J37" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="K37" s="4"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
       <c r="N37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="33" t="s">
+      <c r="P37" s="41" t="s">
         <v>1263</v>
       </c>
       <c r="Q37" s="4" t="s">
@@ -7858,7 +7988,7 @@
       <c r="T37" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="U37" s="33" t="s">
+      <c r="U37" s="7" t="s">
         <v>348</v>
       </c>
       <c r="V37" s="4" t="s">
@@ -7871,7 +8001,7 @@
         <v>217</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="41">
+      <c r="D38" s="8">
         <v>376</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -7881,29 +8011,29 @@
       <c r="G38" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="7"/>
       <c r="N38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P38" s="33" t="s">
+      <c r="P38" s="41" t="s">
         <v>218</v>
       </c>
       <c r="Q38" s="4" t="s">
@@ -7918,7 +8048,7 @@
       <c r="T38" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="U38" s="33" t="s">
+      <c r="U38" s="7" t="s">
         <v>347</v>
       </c>
       <c r="V38" s="4" t="s">
@@ -7931,7 +8061,7 @@
         <v>222</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="7" t="s">
         <v>341</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -7941,27 +8071,27 @@
       <c r="G39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="33"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
       <c r="N39" s="4" t="s">
         <v>223</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="33" t="s">
+      <c r="P39" s="41" t="s">
         <v>1264</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="R39" s="8" t="s">
+      <c r="R39" s="9" t="s">
         <v>224</v>
       </c>
       <c r="S39" s="6" t="s">
@@ -7970,7 +8100,7 @@
       <c r="T39" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="U39" s="33" t="s">
+      <c r="U39" s="7" t="s">
         <v>346</v>
       </c>
       <c r="V39" s="4" t="s">
@@ -7983,31 +8113,31 @@
         <v>226</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="33">
+      <c r="D40" s="7">
         <v>483</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="14" t="s">
         <v>1034</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="7" t="s">
         <v>1076</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="33"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
       <c r="N40" s="4" t="s">
         <v>227</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P40" s="33" t="s">
+      <c r="P40" s="41" t="s">
         <v>1246</v>
       </c>
       <c r="Q40" s="4" t="s">
@@ -8022,7 +8152,7 @@
       <c r="T40" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="U40" s="33" t="s">
+      <c r="U40" s="7" t="s">
         <v>345</v>
       </c>
       <c r="V40" s="4" t="s">
@@ -8035,7 +8165,7 @@
         <v>231</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="33">
+      <c r="D41" s="7">
         <v>540</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -8045,21 +8175,21 @@
       <c r="G41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="7" t="s">
         <v>1076</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="33"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
       <c r="N41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P41" s="33" t="s">
+      <c r="P41" s="41" t="s">
         <v>1265</v>
       </c>
       <c r="Q41" s="4" t="s">
@@ -8074,7 +8204,7 @@
       <c r="T41" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="U41" s="33" t="s">
+      <c r="U41" s="7" t="s">
         <v>344</v>
       </c>
       <c r="V41" s="4" t="s">
@@ -8087,7 +8217,7 @@
         <v>235</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="33">
+      <c r="D42" s="7">
         <v>582</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -8097,29 +8227,29 @@
       <c r="G42" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L42" s="33" t="s">
+      <c r="L42" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="M42" s="33"/>
+      <c r="M42" s="7"/>
       <c r="N42" s="4" t="s">
         <v>53</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P42" s="33" t="s">
+      <c r="P42" s="41" t="s">
         <v>1266</v>
       </c>
       <c r="Q42" s="4" t="s">
@@ -8134,7 +8264,7 @@
       <c r="T42" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="U42" s="33" t="s">
+      <c r="U42" s="7" t="s">
         <v>349</v>
       </c>
       <c r="V42" s="4" t="s">
@@ -8147,7 +8277,7 @@
         <v>239</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="33">
+      <c r="D43" s="7">
         <v>560</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -8157,29 +8287,29 @@
       <c r="G43" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="7" t="s">
         <v>1076</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J43" s="33" t="s">
+      <c r="J43" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="33" t="s">
+      <c r="L43" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="M43" s="33"/>
+      <c r="M43" s="7"/>
       <c r="N43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P43" s="33" t="s">
+      <c r="P43" s="41" t="s">
         <v>1255</v>
       </c>
       <c r="Q43" s="4" t="s">
@@ -8194,7 +8324,7 @@
       <c r="T43" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="U43" s="33">
+      <c r="U43" s="7">
         <v>638</v>
       </c>
       <c r="V43" s="4" t="s">
@@ -8207,7 +8337,7 @@
         <v>242</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="33">
+      <c r="D44" s="7">
         <v>730</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -8217,31 +8347,31 @@
       <c r="G44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J44" s="33" t="s">
+      <c r="J44" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="K44" s="4"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
       <c r="N44" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P44" s="33" t="s">
+      <c r="P44" s="41" t="s">
         <v>1267</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="R44" s="8" t="s">
+      <c r="R44" s="9" t="s">
         <v>244</v>
       </c>
       <c r="S44" s="6" t="s">
@@ -8250,7 +8380,7 @@
       <c r="T44" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="U44" s="33">
+      <c r="U44" s="7">
         <v>806</v>
       </c>
       <c r="V44" s="4" t="s">
@@ -8263,7 +8393,7 @@
         <v>245</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="33">
+      <c r="D45" s="7">
         <v>710</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -8273,14 +8403,14 @@
       <c r="G45" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="33"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33">
+      <c r="L45" s="7"/>
+      <c r="M45" s="7">
         <v>870</v>
       </c>
       <c r="N45" s="4" t="s">
@@ -8289,7 +8419,7 @@
       <c r="O45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P45" s="33" t="s">
+      <c r="P45" s="41" t="s">
         <v>1244</v>
       </c>
       <c r="Q45" s="4" t="s">
@@ -8304,7 +8434,7 @@
       <c r="T45" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="U45" s="33">
+      <c r="U45" s="7">
         <v>779</v>
       </c>
       <c r="V45" s="4" t="s">
@@ -8317,7 +8447,7 @@
         <v>251</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="33">
+      <c r="D46" s="7">
         <v>778</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -8327,29 +8457,29 @@
       <c r="G46" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J46" s="33" t="s">
+      <c r="J46" s="7" t="s">
         <v>1095</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="L46" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="M46" s="33"/>
+      <c r="M46" s="7"/>
       <c r="N46" s="4" t="s">
         <v>252</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P46" s="33" t="s">
+      <c r="P46" s="41" t="s">
         <v>1268</v>
       </c>
       <c r="Q46" s="4" t="s">
@@ -8364,7 +8494,7 @@
       <c r="T46" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="U46" s="33">
+      <c r="U46" s="7">
         <v>840</v>
       </c>
       <c r="V46" s="4" t="s">
@@ -8379,7 +8509,7 @@
         <v>257</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="33">
+      <c r="D47" s="7">
         <v>907</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -8389,21 +8519,21 @@
       <c r="G47" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="7" t="s">
         <v>1079</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="33"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
       <c r="N47" s="4" t="s">
         <v>258</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P47" s="33" t="s">
+      <c r="P47" s="41" t="s">
         <v>1269</v>
       </c>
       <c r="Q47" s="4" t="s">
@@ -8418,7 +8548,7 @@
       <c r="T47" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="U47" s="33">
+      <c r="U47" s="7">
         <v>935</v>
       </c>
       <c r="V47" s="4" t="s">
@@ -8433,7 +8563,7 @@
         <v>127</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="33">
+      <c r="D48" s="7">
         <v>894</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -8445,21 +8575,21 @@
       <c r="G48" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="7" t="s">
         <v>1079</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="33"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
       <c r="N48" s="4" t="s">
         <v>53</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P48" s="33" t="s">
+      <c r="P48" s="41" t="s">
         <v>1270</v>
       </c>
       <c r="Q48" s="4" t="s">
@@ -8474,7 +8604,7 @@
       <c r="T48" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="U48" s="33">
+      <c r="U48" s="7">
         <v>962</v>
       </c>
       <c r="V48" s="4" t="s">
@@ -8487,7 +8617,7 @@
         <v>267</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="33">
+      <c r="D49" s="7">
         <v>1115</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -8499,29 +8629,29 @@
       <c r="G49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H49" s="7" t="s">
         <v>1080</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="J49" s="33" t="s">
+      <c r="J49" s="7" t="s">
         <v>1080</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="M49" s="33"/>
+      <c r="M49" s="7"/>
       <c r="N49" s="4" t="s">
         <v>39</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P49" s="33" t="s">
+      <c r="P49" s="41" t="s">
         <v>1271</v>
       </c>
       <c r="Q49" s="4" t="s">
@@ -8536,7 +8666,7 @@
       <c r="T49" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="U49" s="33">
+      <c r="U49" s="7">
         <v>1186</v>
       </c>
       <c r="V49" s="4" t="s">
@@ -8549,7 +8679,7 @@
         <v>273</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="33">
+      <c r="D50" s="7">
         <v>1259</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -8557,19 +8687,19 @@
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="33"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="33"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
       <c r="N50" s="4" t="s">
         <v>274</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P50" s="33" t="s">
+      <c r="P50" s="41" t="s">
         <v>1265</v>
       </c>
       <c r="Q50" s="4" t="s">
@@ -8584,7 +8714,7 @@
       <c r="T50" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="U50" s="33" t="s">
+      <c r="U50" s="7" t="s">
         <v>360</v>
       </c>
       <c r="V50" s="4" t="s">
@@ -8599,7 +8729,7 @@
         <v>278</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="33">
+      <c r="D51" s="7">
         <v>1329</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -8609,21 +8739,21 @@
       <c r="G51" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="H51" s="33">
+      <c r="H51" s="7">
         <v>1389</v>
       </c>
       <c r="I51" s="4"/>
-      <c r="J51" s="33"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
       <c r="N51" s="4" t="s">
         <v>279</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P51" s="33" t="s">
+      <c r="P51" s="41" t="s">
         <v>710</v>
       </c>
       <c r="Q51" s="4" t="s">
@@ -8638,7 +8768,7 @@
       <c r="T51" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="U51" s="33">
+      <c r="U51" s="7">
         <v>1389</v>
       </c>
       <c r="V51" s="4" t="s">
@@ -8651,7 +8781,7 @@
         <v>283</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="33">
+      <c r="D52" s="7">
         <v>1300</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -8661,21 +8791,21 @@
       <c r="G52" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="H52" s="33">
+      <c r="H52" s="7">
         <v>1330</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="33"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
       <c r="N52" s="4" t="s">
         <v>284</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P52" s="33" t="s">
+      <c r="P52" s="41" t="s">
         <v>1272</v>
       </c>
       <c r="Q52" s="4" t="s">
@@ -8690,7 +8820,7 @@
       <c r="T52" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="U52" s="33">
+      <c r="U52" s="7">
         <v>1330</v>
       </c>
       <c r="V52" s="4" t="s">
@@ -8705,7 +8835,7 @@
         <v>161</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="33">
+      <c r="D53" s="7">
         <v>1384</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -8717,14 +8847,14 @@
       <c r="G53" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="H53" s="33">
+      <c r="H53" s="7">
         <v>1425</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53" s="33"/>
+      <c r="J53" s="7"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33" t="s">
+      <c r="L53" s="7"/>
+      <c r="M53" s="10" t="s">
         <v>1425</v>
       </c>
       <c r="N53" s="4" t="s">
@@ -8733,7 +8863,7 @@
       <c r="O53" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P53" s="33" t="s">
+      <c r="P53" s="41" t="s">
         <v>1273</v>
       </c>
       <c r="Q53" s="4" t="s">
@@ -8748,7 +8878,7 @@
       <c r="T53" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="U53" s="33">
+      <c r="U53" s="7">
         <v>1425</v>
       </c>
       <c r="V53" s="4" t="s">
@@ -8761,7 +8891,7 @@
         <v>293</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="33">
+      <c r="D54" s="7">
         <v>1497</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -8771,21 +8901,21 @@
       <c r="G54" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="H54" s="33">
+      <c r="H54" s="7">
         <v>1515</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="33"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
       <c r="N54" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P54" s="33" t="s">
+      <c r="P54" s="41" t="s">
         <v>1274</v>
       </c>
       <c r="Q54" s="4" t="s">
@@ -8800,7 +8930,7 @@
       <c r="T54" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="U54" s="33">
+      <c r="U54" s="7">
         <v>1515</v>
       </c>
       <c r="V54" s="4" t="s">
@@ -8813,7 +8943,7 @@
         <v>296</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="33">
+      <c r="D55" s="7">
         <v>1510</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -8823,21 +8953,21 @@
       <c r="G55" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="H55" s="33">
+      <c r="H55" s="7">
         <v>1555</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="33"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
       <c r="N55" s="4" t="s">
         <v>284</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P55" s="33" t="s">
+      <c r="P55" s="41" t="s">
         <v>1275</v>
       </c>
       <c r="Q55" s="4" t="s">
@@ -8852,7 +8982,7 @@
       <c r="T55" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="U55" s="33">
+      <c r="U55" s="7">
         <v>1555</v>
       </c>
       <c r="V55" s="4" t="s">
@@ -8867,7 +8997,7 @@
         <v>302</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="33">
+      <c r="D56" s="7">
         <v>1572</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -8875,20 +9005,20 @@
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="33"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J56" s="33">
+      <c r="J56" s="7">
         <v>1602</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L56" s="33" t="s">
+      <c r="L56" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="M56" s="33" t="s">
+      <c r="M56" s="10" t="s">
         <v>1424</v>
       </c>
       <c r="N56" s="4" t="s">
@@ -8897,7 +9027,7 @@
       <c r="O56" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P56" s="33" t="s">
+      <c r="P56" s="41" t="s">
         <v>1276</v>
       </c>
       <c r="Q56" s="4" t="s">
@@ -8912,7 +9042,7 @@
       <c r="T56" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="U56" s="33">
+      <c r="U56" s="7">
         <v>1638</v>
       </c>
       <c r="V56" s="4" t="s">
@@ -8925,7 +9055,7 @@
         <v>306</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="33">
+      <c r="D57" s="7">
         <v>1610</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -8935,14 +9065,14 @@
       <c r="G57" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="H57" s="33">
+      <c r="H57" s="7">
         <v>1660</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="33"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33" t="s">
+      <c r="L57" s="7"/>
+      <c r="M57" s="7" t="s">
         <v>376</v>
       </c>
       <c r="N57" s="4" t="s">
@@ -8951,7 +9081,7 @@
       <c r="O57" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P57" s="33" t="s">
+      <c r="P57" s="41" t="s">
         <v>622</v>
       </c>
       <c r="Q57" s="4" t="s">
@@ -8966,7 +9096,7 @@
       <c r="T57" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="U57" s="33">
+      <c r="U57" s="7">
         <v>1660</v>
       </c>
       <c r="V57" s="4" t="s">
@@ -8979,7 +9109,7 @@
         <v>310</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="33">
+      <c r="D58" s="7">
         <v>1722</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -8989,18 +9119,18 @@
       <c r="G58" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="7" t="s">
         <v>378</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J58" s="33" t="s">
+      <c r="J58" s="7" t="s">
         <v>1073</v>
       </c>
       <c r="K58" s="4"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33" t="s">
+      <c r="L58" s="7"/>
+      <c r="M58" s="10" t="s">
         <v>1423</v>
       </c>
       <c r="N58" s="4" t="s">
@@ -9009,7 +9139,7 @@
       <c r="O58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P58" s="33" t="s">
+      <c r="P58" s="41" t="s">
         <v>1277</v>
       </c>
       <c r="Q58" s="4" t="s">
@@ -9024,7 +9154,7 @@
       <c r="T58" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="U58" s="33">
+      <c r="U58" s="7">
         <v>1773</v>
       </c>
       <c r="V58" s="4" t="s">
@@ -9037,7 +9167,7 @@
         <v>314</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="33">
+      <c r="D59" s="7">
         <v>1690</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -9047,14 +9177,14 @@
       <c r="G59" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H59" s="7" t="s">
         <v>383</v>
       </c>
       <c r="I59" s="7"/>
-      <c r="J59" s="33"/>
+      <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33">
+      <c r="L59" s="7"/>
+      <c r="M59" s="7">
         <v>1962</v>
       </c>
       <c r="N59" s="7" t="s">
@@ -9063,20 +9193,20 @@
       <c r="O59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="33" t="s">
+      <c r="P59" s="41" t="s">
         <v>1278</v>
       </c>
       <c r="Q59" s="7"/>
-      <c r="R59" s="9" t="s">
+      <c r="R59" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="S59" s="10" t="s">
+      <c r="S59" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="T59" s="10" t="s">
+      <c r="T59" s="12" t="s">
         <v>1167</v>
       </c>
-      <c r="U59" s="33" t="s">
+      <c r="U59" s="7" t="s">
         <v>380</v>
       </c>
       <c r="V59" s="7" t="s">
@@ -9091,7 +9221,7 @@
         <v>319</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -9101,22 +9231,22 @@
       <c r="G60" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="H60" s="33">
+      <c r="H60" s="7">
         <v>1889</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="J60" s="33" t="s">
+      <c r="J60" s="7" t="s">
         <v>385</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="L60" s="33" t="s">
+      <c r="L60" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="M60" s="33">
+      <c r="M60" s="7">
         <v>2000</v>
       </c>
       <c r="N60" s="4" t="s">
@@ -9125,7 +9255,7 @@
       <c r="O60" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P60" s="33" t="s">
+      <c r="P60" s="41" t="s">
         <v>755</v>
       </c>
       <c r="Q60" s="4" t="s">
@@ -9140,7 +9270,7 @@
       <c r="T60" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="U60" s="33" t="s">
+      <c r="U60" s="10" t="s">
         <v>1400</v>
       </c>
       <c r="V60" s="4"/>
@@ -9153,7 +9283,7 @@
         <v>323</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="7" t="s">
         <v>390</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -9165,22 +9295,22 @@
       <c r="G61" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="H61" s="33" t="s">
+      <c r="H61" s="7" t="s">
         <v>393</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J61" s="33" t="s">
+      <c r="J61" s="7" t="s">
         <v>394</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="L61" s="33">
+      <c r="L61" s="7">
         <v>1956</v>
       </c>
-      <c r="M61" s="33" t="s">
+      <c r="M61" s="10" t="s">
         <v>1422</v>
       </c>
       <c r="N61" s="4" t="s">
@@ -9189,7 +9319,7 @@
       <c r="O61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P61" s="33" t="s">
+      <c r="P61" s="41" t="s">
         <v>1279</v>
       </c>
       <c r="Q61" s="4" t="s">
@@ -9204,7 +9334,7 @@
       <c r="T61" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="U61" s="33" t="s">
+      <c r="U61" s="10" t="s">
         <v>1399</v>
       </c>
       <c r="V61" s="4" t="s">
@@ -9221,7 +9351,7 @@
       <c r="C62" t="s">
         <v>514</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="3">
         <v>1860</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -9230,7 +9360,7 @@
       <c r="G62" t="s">
         <v>515</v>
       </c>
-      <c r="M62" s="32">
+      <c r="M62" s="3">
         <v>1999</v>
       </c>
       <c r="N62" t="s">
@@ -9239,7 +9369,7 @@
       <c r="O62" t="s">
         <v>1232</v>
       </c>
-      <c r="P62" s="32" t="s">
+      <c r="P62" s="40" t="s">
         <v>516</v>
       </c>
       <c r="Q62" t="s">
@@ -9254,7 +9384,7 @@
       <c r="T62" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="U62" s="32" t="s">
+      <c r="U62" s="27" t="s">
         <v>1396</v>
       </c>
       <c r="V62" t="s">
@@ -9271,16 +9401,16 @@
       <c r="C63" t="s">
         <v>514</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="3" t="s">
         <v>1072</v>
       </c>
       <c r="G63" t="s">
         <v>521</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H63" s="3">
         <v>1915</v>
       </c>
-      <c r="M63" s="32">
+      <c r="M63" s="3">
         <v>1999</v>
       </c>
       <c r="N63" t="s">
@@ -9289,7 +9419,7 @@
       <c r="O63" t="s">
         <v>1232</v>
       </c>
-      <c r="P63" s="32" t="s">
+      <c r="P63" s="40" t="s">
         <v>522</v>
       </c>
       <c r="Q63" t="s">
@@ -9304,7 +9434,7 @@
       <c r="T63" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="U63" s="32" t="s">
+      <c r="U63" s="27" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -9318,7 +9448,7 @@
       <c r="C64" t="s">
         <v>527</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="3" t="s">
         <v>1006</v>
       </c>
       <c r="E64" t="s">
@@ -9327,16 +9457,16 @@
       <c r="G64" t="s">
         <v>529</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="H64" s="3" t="s">
         <v>530</v>
       </c>
       <c r="I64" t="s">
         <v>531</v>
       </c>
-      <c r="J64" s="32">
+      <c r="J64" s="3">
         <v>1926</v>
       </c>
-      <c r="M64" s="32">
+      <c r="M64" s="3">
         <v>2000</v>
       </c>
       <c r="N64" t="s">
@@ -9345,7 +9475,7 @@
       <c r="O64" t="s">
         <v>53</v>
       </c>
-      <c r="P64" s="32" t="s">
+      <c r="P64" s="40" t="s">
         <v>533</v>
       </c>
       <c r="Q64" t="s">
@@ -9360,7 +9490,7 @@
       <c r="T64" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="U64" s="32" t="s">
+      <c r="U64" s="27" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -9374,7 +9504,7 @@
       <c r="C65" t="s">
         <v>539</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="3" t="s">
         <v>1007</v>
       </c>
       <c r="E65" t="s">
@@ -9386,7 +9516,7 @@
       <c r="I65" t="s">
         <v>529</v>
       </c>
-      <c r="M65" s="32">
+      <c r="M65" s="3">
         <v>2000</v>
       </c>
       <c r="N65" t="s">
@@ -9395,7 +9525,7 @@
       <c r="O65" t="s">
         <v>1232</v>
       </c>
-      <c r="P65" s="32" t="s">
+      <c r="P65" s="40" t="s">
         <v>541</v>
       </c>
       <c r="Q65" t="s">
@@ -9410,7 +9540,7 @@
       <c r="T65" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="U65" s="32" t="s">
+      <c r="U65" s="27" t="s">
         <v>1396</v>
       </c>
     </row>
@@ -9424,7 +9554,7 @@
       <c r="C66" t="s">
         <v>546</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="3">
         <v>1878</v>
       </c>
       <c r="E66" t="s">
@@ -9433,10 +9563,10 @@
       <c r="G66" t="s">
         <v>548</v>
       </c>
-      <c r="H66" s="32" t="s">
+      <c r="H66" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="M66" s="32">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
       <c r="N66" t="s">
@@ -9445,7 +9575,7 @@
       <c r="O66" t="s">
         <v>1232</v>
       </c>
-      <c r="P66" s="32" t="s">
+      <c r="P66" s="40" t="s">
         <v>549</v>
       </c>
       <c r="Q66" t="s">
@@ -9460,7 +9590,7 @@
       <c r="T66" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="U66" s="32">
+      <c r="U66" s="3">
         <v>1935</v>
       </c>
     </row>
@@ -9474,7 +9604,7 @@
       <c r="C67" t="s">
         <v>466</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="3" t="s">
         <v>1008</v>
       </c>
       <c r="E67" t="s">
@@ -9486,22 +9616,22 @@
       <c r="G67" t="s">
         <v>556</v>
       </c>
-      <c r="H67" s="32">
+      <c r="H67" s="3">
         <v>1926</v>
       </c>
       <c r="I67" t="s">
         <v>557</v>
       </c>
-      <c r="J67" s="32">
+      <c r="J67" s="3">
         <v>1931</v>
       </c>
       <c r="K67" t="s">
         <v>591</v>
       </c>
-      <c r="L67" s="32">
+      <c r="L67" s="3">
         <v>1932</v>
       </c>
-      <c r="M67" s="32">
+      <c r="M67" s="3">
         <v>2000</v>
       </c>
       <c r="N67" t="s">
@@ -9510,7 +9640,7 @@
       <c r="O67" t="s">
         <v>1232</v>
       </c>
-      <c r="P67" s="32" t="s">
+      <c r="P67" s="40" t="s">
         <v>549</v>
       </c>
       <c r="Q67" t="s">
@@ -9525,7 +9655,7 @@
       <c r="T67" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="U67" s="32">
+      <c r="U67" s="3">
         <v>1934</v>
       </c>
     </row>
@@ -9539,7 +9669,7 @@
       <c r="C68" t="s">
         <v>562</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D68" s="3">
         <v>1865</v>
       </c>
       <c r="E68" t="s">
@@ -9551,22 +9681,22 @@
       <c r="G68" t="s">
         <v>507</v>
       </c>
-      <c r="H68" s="32">
+      <c r="H68" s="3">
         <v>1865</v>
       </c>
       <c r="I68" t="s">
         <v>564</v>
       </c>
-      <c r="J68" s="32">
+      <c r="J68" s="3">
         <v>1917</v>
       </c>
       <c r="K68" t="s">
         <v>565</v>
       </c>
-      <c r="L68" s="32">
+      <c r="L68" s="3">
         <v>1918</v>
       </c>
-      <c r="M68" s="32">
+      <c r="M68" s="3">
         <v>2000</v>
       </c>
       <c r="N68" t="s">
@@ -9575,7 +9705,7 @@
       <c r="O68" t="s">
         <v>1232</v>
       </c>
-      <c r="P68" s="32" t="s">
+      <c r="P68" s="40" t="s">
         <v>549</v>
       </c>
       <c r="Q68" t="s">
@@ -9590,7 +9720,7 @@
       <c r="T68" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="U68" s="32">
+      <c r="U68" s="3">
         <v>1918</v>
       </c>
       <c r="V68" t="s">
@@ -9607,7 +9737,7 @@
       <c r="C69" t="s">
         <v>430</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="27" t="s">
         <v>1430</v>
       </c>
       <c r="E69" t="s">
@@ -9619,10 +9749,10 @@
       <c r="G69" t="s">
         <v>529</v>
       </c>
-      <c r="H69" s="32">
+      <c r="H69" s="3">
         <v>1928</v>
       </c>
-      <c r="M69" s="32">
+      <c r="M69" s="3">
         <v>2001</v>
       </c>
       <c r="N69" t="s">
@@ -9631,7 +9761,7 @@
       <c r="O69" t="s">
         <v>53</v>
       </c>
-      <c r="P69" s="32" t="s">
+      <c r="P69" s="40" t="s">
         <v>549</v>
       </c>
       <c r="Q69" t="s">
@@ -9646,7 +9776,7 @@
       <c r="T69" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="U69" s="32" t="s">
+      <c r="U69" s="27" t="s">
         <v>1395</v>
       </c>
       <c r="V69" t="s">
@@ -9663,7 +9793,7 @@
       <c r="C70" t="s">
         <v>514</v>
       </c>
-      <c r="D70" s="32">
+      <c r="D70" s="3">
         <v>1897</v>
       </c>
       <c r="E70" t="s">
@@ -9672,10 +9802,10 @@
       <c r="G70" t="s">
         <v>577</v>
       </c>
-      <c r="H70" s="32">
+      <c r="H70" s="3">
         <v>1915</v>
       </c>
-      <c r="M70" s="32">
+      <c r="M70" s="3">
         <v>2000</v>
       </c>
       <c r="N70" t="s">
@@ -9684,7 +9814,7 @@
       <c r="O70" t="s">
         <v>1232</v>
       </c>
-      <c r="P70" s="32" t="s">
+      <c r="P70" s="40" t="s">
         <v>549</v>
       </c>
       <c r="Q70" t="s">
@@ -9699,7 +9829,7 @@
       <c r="T70" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="U70" s="32" t="s">
+      <c r="U70" s="27" t="s">
         <v>1394</v>
       </c>
       <c r="V70" t="s">
@@ -9716,7 +9846,7 @@
       <c r="C71" t="s">
         <v>485</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="3" t="s">
         <v>1009</v>
       </c>
       <c r="E71" t="s">
@@ -9728,16 +9858,16 @@
       <c r="G71" t="s">
         <v>469</v>
       </c>
-      <c r="H71" s="32">
+      <c r="H71" s="3">
         <v>1890</v>
       </c>
       <c r="I71" t="s">
         <v>497</v>
       </c>
-      <c r="J71" s="32" t="s">
+      <c r="J71" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="M71" s="32">
+      <c r="M71" s="3">
         <v>1999</v>
       </c>
       <c r="N71" t="s">
@@ -9746,7 +9876,7 @@
       <c r="O71" t="s">
         <v>1232</v>
       </c>
-      <c r="P71" s="32" t="s">
+      <c r="P71" s="40" t="s">
         <v>549</v>
       </c>
       <c r="Q71" t="s">
@@ -9761,7 +9891,7 @@
       <c r="T71" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="U71" s="32" t="s">
+      <c r="U71" s="27" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -9775,7 +9905,7 @@
       <c r="C72" t="s">
         <v>546</v>
       </c>
-      <c r="D72" s="32">
+      <c r="D72" s="3">
         <v>1885</v>
       </c>
       <c r="E72" t="s">
@@ -9784,10 +9914,10 @@
       <c r="G72" t="s">
         <v>588</v>
       </c>
-      <c r="H72" s="32">
+      <c r="H72" s="3">
         <v>1913</v>
       </c>
-      <c r="M72" s="32">
+      <c r="M72" s="3">
         <v>2000</v>
       </c>
       <c r="N72" t="s">
@@ -9796,7 +9926,7 @@
       <c r="O72" t="s">
         <v>1232</v>
       </c>
-      <c r="P72" s="32" t="s">
+      <c r="P72" s="40" t="s">
         <v>549</v>
       </c>
       <c r="Q72" t="s">
@@ -9811,7 +9941,7 @@
       <c r="T72" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="U72" s="32" t="s">
+      <c r="U72" s="27" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -9825,7 +9955,7 @@
       <c r="C73" t="s">
         <v>509</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="3">
         <v>1292</v>
       </c>
       <c r="E73" t="s">
@@ -9843,10 +9973,10 @@
       <c r="K73" t="s">
         <v>506</v>
       </c>
-      <c r="L73" s="32">
+      <c r="L73" s="3">
         <v>1357</v>
       </c>
-      <c r="M73" s="32">
+      <c r="M73" s="3">
         <v>1431</v>
       </c>
       <c r="N73" t="s">
@@ -9855,7 +9985,7 @@
       <c r="O73" t="s">
         <v>33</v>
       </c>
-      <c r="P73" s="32" t="s">
+      <c r="P73" s="40" t="s">
         <v>505</v>
       </c>
       <c r="Q73" t="s">
@@ -9870,7 +10000,7 @@
       <c r="T73" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="U73" s="32" t="s">
+      <c r="U73" s="3" t="s">
         <v>1106</v>
       </c>
       <c r="V73" t="s">
@@ -9887,7 +10017,7 @@
       <c r="C74" t="s">
         <v>501</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="3" t="s">
         <v>1010</v>
       </c>
       <c r="E74" t="s">
@@ -9899,22 +10029,22 @@
       <c r="G74" t="s">
         <v>498</v>
       </c>
-      <c r="H74" s="32">
+      <c r="H74" s="3">
         <v>1897</v>
       </c>
       <c r="I74" t="s">
         <v>497</v>
       </c>
-      <c r="J74" s="32">
+      <c r="J74" s="3">
         <v>1899</v>
       </c>
       <c r="K74" t="s">
         <v>449</v>
       </c>
-      <c r="L74" s="32">
+      <c r="L74" s="3">
         <v>1902</v>
       </c>
-      <c r="M74" s="32" t="s">
+      <c r="M74" s="27" t="s">
         <v>1421</v>
       </c>
       <c r="N74" t="s">
@@ -9923,7 +10053,7 @@
       <c r="O74" t="s">
         <v>1232</v>
       </c>
-      <c r="P74" s="32" t="s">
+      <c r="P74" s="40" t="s">
         <v>1280</v>
       </c>
       <c r="Q74" t="s">
@@ -9938,7 +10068,7 @@
       <c r="T74" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="U74" s="32" t="s">
+      <c r="U74" s="27" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -9952,7 +10082,7 @@
       <c r="C75" t="s">
         <v>493</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="3" t="s">
         <v>1011</v>
       </c>
       <c r="E75" t="s">
@@ -9964,22 +10094,22 @@
       <c r="G75" t="s">
         <v>42</v>
       </c>
-      <c r="H75" s="32">
+      <c r="H75" s="3">
         <v>1905</v>
       </c>
       <c r="I75" t="s">
         <v>384</v>
       </c>
-      <c r="J75" s="32">
+      <c r="J75" s="3">
         <v>1913</v>
       </c>
       <c r="K75" t="s">
         <v>449</v>
       </c>
-      <c r="L75" s="32">
+      <c r="L75" s="3">
         <v>1922</v>
       </c>
-      <c r="M75" s="32">
+      <c r="M75" s="3">
         <v>2000</v>
       </c>
       <c r="N75" t="s">
@@ -9988,7 +10118,7 @@
       <c r="O75" t="s">
         <v>1232</v>
       </c>
-      <c r="P75" s="32" t="s">
+      <c r="P75" s="40" t="s">
         <v>490</v>
       </c>
       <c r="Q75" t="s">
@@ -10003,7 +10133,7 @@
       <c r="T75" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="U75" s="32" t="s">
+      <c r="U75" s="27" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -10017,7 +10147,7 @@
       <c r="C76" t="s">
         <v>485</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="E76" t="s">
@@ -10029,22 +10159,22 @@
       <c r="G76" t="s">
         <v>350</v>
       </c>
-      <c r="H76" s="32">
+      <c r="H76" s="3">
         <v>1894</v>
       </c>
       <c r="I76" t="s">
         <v>482</v>
       </c>
-      <c r="J76" s="32">
+      <c r="J76" s="3">
         <v>1912</v>
       </c>
       <c r="K76" t="s">
         <v>449</v>
       </c>
-      <c r="L76" s="32">
+      <c r="L76" s="3">
         <v>1924</v>
       </c>
-      <c r="M76" s="32">
+      <c r="M76" s="3">
         <v>2000</v>
       </c>
       <c r="N76" t="s">
@@ -10053,7 +10183,7 @@
       <c r="O76" t="s">
         <v>1232</v>
       </c>
-      <c r="P76" s="32" t="s">
+      <c r="P76" s="40" t="s">
         <v>427</v>
       </c>
       <c r="Q76" t="s">
@@ -10068,7 +10198,7 @@
       <c r="T76" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="U76" s="32" t="s">
+      <c r="U76" s="27" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -10082,7 +10212,7 @@
       <c r="C77" t="s">
         <v>478</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="3" t="s">
         <v>1013</v>
       </c>
       <c r="E77" t="s">
@@ -10094,22 +10224,22 @@
       <c r="G77" t="s">
         <v>449</v>
       </c>
-      <c r="H77" s="32">
+      <c r="H77" s="3">
         <v>1876</v>
       </c>
       <c r="I77" t="s">
         <v>476</v>
       </c>
-      <c r="J77" s="32">
+      <c r="J77" s="3">
         <v>1931</v>
       </c>
       <c r="K77" t="s">
         <v>475</v>
       </c>
-      <c r="L77" s="32">
+      <c r="L77" s="3">
         <v>1936</v>
       </c>
-      <c r="M77" s="32">
+      <c r="M77" s="3">
         <v>2000</v>
       </c>
       <c r="N77" t="s">
@@ -10118,7 +10248,7 @@
       <c r="O77" t="s">
         <v>1232</v>
       </c>
-      <c r="P77" s="32" t="s">
+      <c r="P77" s="40" t="s">
         <v>474</v>
       </c>
       <c r="Q77" t="s">
@@ -10133,7 +10263,7 @@
       <c r="T77" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="U77" s="32" t="s">
+      <c r="U77" s="27" t="s">
         <v>1388</v>
       </c>
       <c r="V77" t="s">
@@ -10150,7 +10280,7 @@
       <c r="C78" t="s">
         <v>430</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="E78" t="s">
@@ -10159,10 +10289,10 @@
       <c r="G78" t="s">
         <v>449</v>
       </c>
-      <c r="H78" s="32">
+      <c r="H78" s="3">
         <v>1890</v>
       </c>
-      <c r="M78" s="32">
+      <c r="M78" s="3">
         <v>2001</v>
       </c>
       <c r="N78" t="s">
@@ -10171,7 +10301,7 @@
       <c r="O78" t="s">
         <v>1232</v>
       </c>
-      <c r="P78" s="32" t="s">
+      <c r="P78" s="40" t="s">
         <v>427</v>
       </c>
       <c r="Q78" t="s">
@@ -10186,7 +10316,7 @@
       <c r="T78" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="U78" s="32" t="s">
+      <c r="U78" s="27" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -10200,7 +10330,7 @@
       <c r="C79" t="s">
         <v>466</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="3">
         <v>1882</v>
       </c>
       <c r="E79" t="s">
@@ -10212,16 +10342,16 @@
       <c r="G79" t="s">
         <v>463</v>
       </c>
-      <c r="H79" s="32">
+      <c r="H79" s="3">
         <v>1913</v>
       </c>
       <c r="I79" t="s">
         <v>462</v>
       </c>
-      <c r="J79" s="32">
+      <c r="J79" s="3">
         <v>1913</v>
       </c>
-      <c r="M79" s="32">
+      <c r="M79" s="3">
         <v>2000</v>
       </c>
       <c r="N79" t="s">
@@ -10230,7 +10360,7 @@
       <c r="O79" t="s">
         <v>1232</v>
       </c>
-      <c r="P79" s="32" t="s">
+      <c r="P79" s="40" t="s">
         <v>455</v>
       </c>
       <c r="Q79" t="s">
@@ -10245,7 +10375,7 @@
       <c r="T79" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="U79" s="32" t="s">
+      <c r="U79" s="27" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -10259,7 +10389,7 @@
       <c r="C80" t="s">
         <v>458</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="3">
         <v>1877</v>
       </c>
       <c r="E80" t="s">
@@ -10268,16 +10398,16 @@
       <c r="G80" t="s">
         <v>456</v>
       </c>
-      <c r="H80" s="32">
+      <c r="H80" s="3">
         <v>1897</v>
       </c>
       <c r="I80" t="s">
         <v>429</v>
       </c>
-      <c r="J80" s="32" t="s">
+      <c r="J80" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="M80" s="32">
+      <c r="M80" s="3">
         <v>2000</v>
       </c>
       <c r="N80" t="s">
@@ -10286,7 +10416,7 @@
       <c r="O80" t="s">
         <v>1232</v>
       </c>
-      <c r="P80" s="32" t="s">
+      <c r="P80" s="40" t="s">
         <v>455</v>
       </c>
       <c r="Q80" t="s">
@@ -10301,7 +10431,7 @@
       <c r="T80" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="U80" s="32" t="s">
+      <c r="U80" s="27" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -10315,7 +10445,7 @@
       <c r="C81" t="s">
         <v>450</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="E81" t="s">
@@ -10327,7 +10457,7 @@
       <c r="G81" t="s">
         <v>443</v>
       </c>
-      <c r="H81" s="32" t="s">
+      <c r="H81" s="3" t="s">
         <v>1060</v>
       </c>
       <c r="N81" t="s">
@@ -10336,7 +10466,7 @@
       <c r="O81" t="s">
         <v>53</v>
       </c>
-      <c r="P81" s="32" t="s">
+      <c r="P81" s="40" t="s">
         <v>447</v>
       </c>
       <c r="Q81" t="s">
@@ -10351,7 +10481,7 @@
       <c r="T81" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="U81" s="32" t="s">
+      <c r="U81" s="27" t="s">
         <v>1384</v>
       </c>
       <c r="V81" t="s">
@@ -10368,7 +10498,7 @@
       <c r="C82" t="s">
         <v>440</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="3">
         <v>1821</v>
       </c>
       <c r="E82" t="s">
@@ -10377,16 +10507,16 @@
       <c r="G82" t="s">
         <v>438</v>
       </c>
-      <c r="H82" s="32">
+      <c r="H82" s="3">
         <v>1843</v>
       </c>
       <c r="I82" t="s">
         <v>433</v>
       </c>
-      <c r="J82" s="32">
+      <c r="J82" s="3">
         <v>1881</v>
       </c>
-      <c r="M82" s="32">
+      <c r="M82" s="3">
         <v>2001</v>
       </c>
       <c r="N82" t="s">
@@ -10395,7 +10525,7 @@
       <c r="O82" t="s">
         <v>33</v>
       </c>
-      <c r="P82" s="32" t="s">
+      <c r="P82" s="40" t="s">
         <v>437</v>
       </c>
       <c r="Q82" t="s">
@@ -10410,7 +10540,7 @@
       <c r="T82" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="U82" s="32">
+      <c r="U82" s="3">
         <v>1900</v>
       </c>
       <c r="V82" t="s">
@@ -10421,13 +10551,13 @@
       <c r="A83" t="s">
         <v>432</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="13" t="s">
         <v>431</v>
       </c>
       <c r="C83" t="s">
         <v>430</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="3">
         <v>1856</v>
       </c>
       <c r="E83" t="s">
@@ -10436,10 +10566,10 @@
       <c r="G83" t="s">
         <v>429</v>
       </c>
-      <c r="H83" s="32" t="s">
+      <c r="H83" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="M83" s="32">
+      <c r="M83" s="3">
         <v>1999</v>
       </c>
       <c r="N83" t="s">
@@ -10448,7 +10578,7 @@
       <c r="O83" t="s">
         <v>33</v>
       </c>
-      <c r="P83" s="32" t="s">
+      <c r="P83" s="40" t="s">
         <v>427</v>
       </c>
       <c r="Q83" t="s">
@@ -10463,7 +10593,7 @@
       <c r="T83" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="U83" s="32">
+      <c r="U83" s="3">
         <v>1925</v>
       </c>
     </row>
@@ -10477,10 +10607,10 @@
       <c r="C84" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="14" t="s">
         <v>597</v>
       </c>
       <c r="F84" s="4" t="s">
@@ -10489,18 +10619,18 @@
       <c r="G84" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="H84" s="7" t="s">
         <v>599</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="J84" s="33" t="s">
+      <c r="J84" s="7" t="s">
         <v>601</v>
       </c>
       <c r="K84" s="4"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33" t="s">
+      <c r="L84" s="7"/>
+      <c r="M84" s="10" t="s">
         <v>1420</v>
       </c>
       <c r="N84" s="4" t="s">
@@ -10509,13 +10639,13 @@
       <c r="O84" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P84" s="33" t="s">
+      <c r="P84" s="41" t="s">
         <v>602</v>
       </c>
       <c r="Q84" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="R84" s="13" t="s">
+      <c r="R84" s="15" t="s">
         <v>604</v>
       </c>
       <c r="S84" s="6" t="s">
@@ -10524,7 +10654,7 @@
       <c r="T84" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="U84" s="33" t="s">
+      <c r="U84" s="7" t="s">
         <v>606</v>
       </c>
       <c r="V84" s="4" t="s">
@@ -10541,7 +10671,7 @@
       <c r="C85" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="7" t="s">
         <v>1073</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -10553,16 +10683,16 @@
       <c r="G85" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="H85" s="33"/>
+      <c r="H85" s="7"/>
       <c r="I85" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J85" s="33" t="s">
+      <c r="J85" s="7" t="s">
         <v>1073</v>
       </c>
       <c r="K85" s="4"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33">
+      <c r="L85" s="7"/>
+      <c r="M85" s="7">
         <v>1988</v>
       </c>
       <c r="N85" s="4" t="s">
@@ -10571,13 +10701,13 @@
       <c r="O85" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P85" s="33" t="s">
+      <c r="P85" s="41" t="s">
         <v>613</v>
       </c>
       <c r="Q85" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="R85" s="13" t="s">
+      <c r="R85" s="15" t="s">
         <v>614</v>
       </c>
       <c r="S85" s="6" t="s">
@@ -10586,7 +10716,7 @@
       <c r="T85" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="U85" s="33" t="s">
+      <c r="U85" s="7" t="s">
         <v>1107</v>
       </c>
       <c r="V85" s="7" t="s">
@@ -10599,7 +10729,7 @@
         <v>616</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="10" t="s">
         <v>617</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -10611,18 +10741,18 @@
       <c r="G86" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="7" t="s">
         <v>1071</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J86" s="33" t="s">
+      <c r="J86" s="7" t="s">
         <v>621</v>
       </c>
       <c r="K86" s="4"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33" t="s">
+      <c r="L86" s="7"/>
+      <c r="M86" s="10" t="s">
         <v>1419</v>
       </c>
       <c r="N86" s="4" t="s">
@@ -10631,13 +10761,13 @@
       <c r="O86" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P86" s="33" t="s">
+      <c r="P86" s="41" t="s">
         <v>622</v>
       </c>
       <c r="Q86" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R86" s="13" t="s">
+      <c r="R86" s="15" t="s">
         <v>623</v>
       </c>
       <c r="S86" s="6" t="s">
@@ -10646,10 +10776,10 @@
       <c r="T86" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="U86" s="33" t="s">
+      <c r="U86" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="V86" s="14" t="s">
+      <c r="V86" s="16" t="s">
         <v>626</v>
       </c>
     </row>
@@ -10663,7 +10793,7 @@
       <c r="C87" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="7" t="s">
         <v>630</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -10675,14 +10805,14 @@
       <c r="G87" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="7" t="s">
         <v>634</v>
       </c>
       <c r="I87" s="4"/>
-      <c r="J87" s="33"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33" t="s">
+      <c r="L87" s="7"/>
+      <c r="M87" s="10" t="s">
         <v>1418</v>
       </c>
       <c r="N87" s="4" t="s">
@@ -10691,7 +10821,7 @@
       <c r="O87" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P87" s="33" t="s">
+      <c r="P87" s="41" t="s">
         <v>635</v>
       </c>
       <c r="Q87" s="4" t="s">
@@ -10706,7 +10836,7 @@
       <c r="T87" s="6" t="s">
         <v>1195</v>
       </c>
-      <c r="U87" s="33" t="s">
+      <c r="U87" s="7" t="s">
         <v>638</v>
       </c>
       <c r="V87" s="7" t="s">
@@ -10723,7 +10853,7 @@
       <c r="C88" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="7" t="s">
         <v>642</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -10735,14 +10865,14 @@
       <c r="G88" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="7" t="s">
         <v>646</v>
       </c>
       <c r="I88" s="4"/>
-      <c r="J88" s="33"/>
+      <c r="J88" s="7"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33" t="s">
+      <c r="L88" s="7"/>
+      <c r="M88" s="10" t="s">
         <v>1417</v>
       </c>
       <c r="N88" s="4" t="s">
@@ -10751,7 +10881,7 @@
       <c r="O88" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P88" s="33" t="s">
+      <c r="P88" s="41" t="s">
         <v>647</v>
       </c>
       <c r="Q88" s="4"/>
@@ -10764,7 +10894,7 @@
       <c r="T88" s="6" t="s">
         <v>1196</v>
       </c>
-      <c r="U88" s="33" t="s">
+      <c r="U88" s="10" t="s">
         <v>1383</v>
       </c>
       <c r="V88" s="7" t="s">
@@ -10781,7 +10911,7 @@
       <c r="C89" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="7" t="s">
         <v>1116</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -10793,22 +10923,22 @@
       <c r="G89" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H89" s="33" t="s">
+      <c r="H89" s="7" t="s">
         <v>654</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J89" s="33" t="s">
+      <c r="J89" s="7" t="s">
         <v>655</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="L89" s="33" t="s">
+      <c r="L89" s="7" t="s">
         <v>1281</v>
       </c>
-      <c r="M89" s="33" t="s">
+      <c r="M89" s="10" t="s">
         <v>1416</v>
       </c>
       <c r="N89" s="4" t="s">
@@ -10817,7 +10947,7 @@
       <c r="O89" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P89" s="33" t="s">
+      <c r="P89" s="41" t="s">
         <v>657</v>
       </c>
       <c r="Q89" s="4" t="s">
@@ -10832,7 +10962,7 @@
       <c r="T89" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="U89" s="33" t="s">
+      <c r="U89" s="7" t="s">
         <v>660</v>
       </c>
       <c r="V89" s="7" t="s">
@@ -10849,7 +10979,7 @@
       <c r="C90" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="7" t="s">
         <v>665</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -10861,22 +10991,22 @@
       <c r="G90" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" s="7" t="s">
         <v>669</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="J90" s="33" t="s">
+      <c r="J90" s="7" t="s">
         <v>670</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="L90" s="33" t="s">
+      <c r="L90" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="M90" s="33" t="s">
+      <c r="M90" s="10" t="s">
         <v>1415</v>
       </c>
       <c r="N90" s="4" t="s">
@@ -10885,7 +11015,7 @@
       <c r="O90" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P90" s="33" t="s">
+      <c r="P90" s="41" t="s">
         <v>673</v>
       </c>
       <c r="Q90" s="4" t="s">
@@ -10900,7 +11030,7 @@
       <c r="T90" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="U90" s="33" t="s">
+      <c r="U90" s="10" t="s">
         <v>1382</v>
       </c>
       <c r="V90" s="7" t="s">
@@ -10913,7 +11043,7 @@
         <v>676</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="33">
+      <c r="D91" s="7">
         <v>758</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -10923,21 +11053,21 @@
       <c r="G91" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="H91" s="33">
+      <c r="H91" s="7">
         <v>786</v>
       </c>
       <c r="I91" s="4"/>
-      <c r="J91" s="33"/>
+      <c r="J91" s="7"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
       <c r="N91" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O91" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P91" s="33" t="s">
+      <c r="P91" s="41" t="s">
         <v>679</v>
       </c>
       <c r="Q91" s="4"/>
@@ -10950,7 +11080,7 @@
       <c r="T91" s="6" t="s">
         <v>1199</v>
       </c>
-      <c r="U91" s="33" t="s">
+      <c r="U91" s="7" t="s">
         <v>1108</v>
       </c>
       <c r="V91" s="7"/>
@@ -10961,7 +11091,7 @@
         <v>682</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="33" t="s">
+      <c r="D92" s="7" t="s">
         <v>1076</v>
       </c>
       <c r="E92" s="4"/>
@@ -10969,21 +11099,21 @@
       <c r="G92" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H92" s="33" t="s">
+      <c r="H92" s="7" t="s">
         <v>1076</v>
       </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="33"/>
+      <c r="J92" s="7"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
       <c r="N92" s="4" t="s">
         <v>53</v>
       </c>
       <c r="O92" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P92" s="33" t="s">
+      <c r="P92" s="41" t="s">
         <v>397</v>
       </c>
       <c r="Q92" s="4"/>
@@ -10994,7 +11124,7 @@
         <v>684</v>
       </c>
       <c r="T92" s="4"/>
-      <c r="U92" s="33">
+      <c r="U92" s="7">
         <v>597</v>
       </c>
       <c r="V92" s="7" t="s">
@@ -11007,7 +11137,7 @@
         <v>686</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="7" t="s">
         <v>1063</v>
       </c>
       <c r="E93" s="4"/>
@@ -11015,21 +11145,21 @@
       <c r="G93" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H93" s="33" t="s">
+      <c r="H93" s="7" t="s">
         <v>1063</v>
       </c>
       <c r="I93" s="4"/>
-      <c r="J93" s="33"/>
+      <c r="J93" s="7"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="33"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
       <c r="N93" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O93" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P93" s="33" t="s">
+      <c r="P93" s="41" t="s">
         <v>687</v>
       </c>
       <c r="Q93" s="4"/>
@@ -11042,7 +11172,7 @@
       <c r="T93" s="6" t="s">
         <v>1200</v>
       </c>
-      <c r="U93" s="33">
+      <c r="U93" s="7">
         <v>269</v>
       </c>
       <c r="V93" s="7" t="s">
@@ -11055,7 +11185,7 @@
         <v>690</v>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" s="33" t="s">
+      <c r="D94" s="7" t="s">
         <v>1063</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -11065,21 +11195,21 @@
       <c r="G94" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H94" s="33">
+      <c r="H94" s="7">
         <v>304</v>
       </c>
       <c r="I94" s="4"/>
-      <c r="J94" s="33"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
       <c r="N94" s="4" t="s">
         <v>73</v>
       </c>
       <c r="O94" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P94" s="33" t="s">
+      <c r="P94" s="41" t="s">
         <v>691</v>
       </c>
       <c r="Q94" s="4"/>
@@ -11092,7 +11222,7 @@
       <c r="T94" s="6" t="s">
         <v>1201</v>
       </c>
-      <c r="U94" s="33">
+      <c r="U94" s="7">
         <v>304</v>
       </c>
       <c r="V94" s="7" t="s">
@@ -11109,7 +11239,7 @@
       <c r="C95" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D95" s="33">
+      <c r="D95" s="7">
         <v>1871</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -11121,22 +11251,22 @@
       <c r="G95" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="H95" s="33">
+      <c r="H95" s="7">
         <v>1927</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="J95" s="33">
+      <c r="J95" s="7">
         <v>1930</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="L95" s="33">
+      <c r="L95" s="7">
         <v>1930</v>
       </c>
-      <c r="M95" s="33" t="s">
+      <c r="M95" s="10" t="s">
         <v>1414</v>
       </c>
       <c r="N95" s="4" t="s">
@@ -11145,13 +11275,13 @@
       <c r="O95" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P95" s="33" t="s">
+      <c r="P95" s="41" t="s">
         <v>702</v>
       </c>
       <c r="Q95" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="R95" s="15" t="s">
+      <c r="R95" s="17" t="s">
         <v>704</v>
       </c>
       <c r="S95" s="6" t="s">
@@ -11160,7 +11290,7 @@
       <c r="T95" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="U95" s="33">
+      <c r="U95" s="7">
         <v>1937</v>
       </c>
       <c r="V95" s="7" t="s">
@@ -11173,7 +11303,7 @@
         <v>706</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="33" t="s">
+      <c r="D96" s="7" t="s">
         <v>707</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -11183,21 +11313,21 @@
       <c r="G96" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="I96" s="4"/>
-      <c r="J96" s="33"/>
+      <c r="J96" s="7"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="33"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
       <c r="N96" s="4" t="s">
         <v>709</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P96" s="33" t="s">
+      <c r="P96" s="41" t="s">
         <v>710</v>
       </c>
       <c r="Q96" s="4" t="s">
@@ -11209,10 +11339,10 @@
       <c r="S96" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="T96" s="25" t="s">
+      <c r="T96" s="33" t="s">
         <v>1203</v>
       </c>
-      <c r="U96" s="33" t="s">
+      <c r="U96" s="7" t="s">
         <v>714</v>
       </c>
       <c r="V96" s="7" t="s">
@@ -11229,7 +11359,7 @@
       <c r="C97" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D97" s="33" t="s">
+      <c r="D97" s="7" t="s">
         <v>717</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -11241,18 +11371,18 @@
       <c r="G97" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="H97" s="33">
+      <c r="H97" s="7">
         <v>1920</v>
       </c>
       <c r="I97" s="4"/>
-      <c r="J97" s="33"/>
+      <c r="J97" s="7"/>
       <c r="K97" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="L97" s="33">
+      <c r="L97" s="7">
         <v>1934</v>
       </c>
-      <c r="M97" s="33">
+      <c r="M97" s="7">
         <v>2000</v>
       </c>
       <c r="N97" s="4" t="s">
@@ -11261,7 +11391,7 @@
       <c r="O97" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P97" s="33" t="s">
+      <c r="P97" s="41" t="s">
         <v>722</v>
       </c>
       <c r="Q97" s="4" t="s">
@@ -11273,10 +11403,10 @@
       <c r="S97" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="T97" s="25" t="s">
+      <c r="T97" s="33" t="s">
         <v>1204</v>
       </c>
-      <c r="U97" s="33">
+      <c r="U97" s="7">
         <v>1937</v>
       </c>
       <c r="V97" s="7"/>
@@ -11287,7 +11417,7 @@
         <v>725</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="E98" s="4"/>
@@ -11295,21 +11425,21 @@
       <c r="G98" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="H98" s="33">
+      <c r="H98" s="7">
         <v>375</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="33"/>
+      <c r="J98" s="7"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="33"/>
-      <c r="M98" s="33"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
       <c r="N98" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O98" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P98" s="33" t="s">
+      <c r="P98" s="41" t="s">
         <v>727</v>
       </c>
       <c r="Q98" s="4" t="s">
@@ -11322,7 +11452,7 @@
         <v>729</v>
       </c>
       <c r="T98" s="4"/>
-      <c r="U98" s="33">
+      <c r="U98" s="7">
         <v>375</v>
       </c>
       <c r="V98" s="7" t="s">
@@ -11335,7 +11465,7 @@
         <v>730</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="33" t="s">
+      <c r="D99" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="E99" s="4"/>
@@ -11343,21 +11473,21 @@
       <c r="G99" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="H99" s="33" t="s">
+      <c r="H99" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="I99" s="4"/>
-      <c r="J99" s="33"/>
+      <c r="J99" s="7"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="33"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
       <c r="N99" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O99" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P99" s="33" t="s">
+      <c r="P99" s="41" t="s">
         <v>732</v>
       </c>
       <c r="Q99" s="4"/>
@@ -11370,7 +11500,7 @@
       <c r="T99" s="6" t="s">
         <v>1205</v>
       </c>
-      <c r="U99" s="33" t="s">
+      <c r="U99" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="V99" s="7"/>
@@ -11381,25 +11511,25 @@
         <v>735</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="33" t="s">
+      <c r="D100" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="33"/>
+      <c r="H100" s="7"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="33"/>
+      <c r="J100" s="7"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
       <c r="N100" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O100" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="P100" s="33" t="s">
+      <c r="P100" s="41" t="s">
         <v>736</v>
       </c>
       <c r="Q100" s="4" t="s">
@@ -11412,7 +11542,7 @@
         <v>739</v>
       </c>
       <c r="T100" s="4"/>
-      <c r="U100" s="33">
+      <c r="U100" s="7">
         <v>380</v>
       </c>
       <c r="V100" s="7"/>
@@ -11421,7 +11551,7 @@
       <c r="B101" t="s">
         <v>742</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="D101" s="3" t="s">
         <v>1063</v>
       </c>
       <c r="N101" t="s">
@@ -11430,7 +11560,7 @@
       <c r="O101" t="s">
         <v>1232</v>
       </c>
-      <c r="P101" s="32" t="s">
+      <c r="P101" s="40" t="s">
         <v>743</v>
       </c>
       <c r="Q101" t="s">
@@ -11442,7 +11572,7 @@
       <c r="S101" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="U101" s="32">
+      <c r="U101" s="3">
         <v>250</v>
       </c>
       <c r="V101" s="3" t="s">
@@ -11453,7 +11583,7 @@
       <c r="B102" t="s">
         <v>746</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D102" s="3" t="s">
         <v>1063</v>
       </c>
       <c r="N102" t="s">
@@ -11462,7 +11592,7 @@
       <c r="O102" t="s">
         <v>1232</v>
       </c>
-      <c r="P102" s="32" t="s">
+      <c r="P102" s="40" t="s">
         <v>747</v>
       </c>
       <c r="Q102" t="s">
@@ -11483,7 +11613,7 @@
       <c r="B103" t="s">
         <v>750</v>
       </c>
-      <c r="D103" s="32" t="s">
+      <c r="D103" s="3" t="s">
         <v>1064</v>
       </c>
       <c r="N103" t="s">
@@ -11492,7 +11622,7 @@
       <c r="O103" t="s">
         <v>1232</v>
       </c>
-      <c r="P103" s="32" t="s">
+      <c r="P103" s="40" t="s">
         <v>751</v>
       </c>
       <c r="Q103" t="s">
@@ -11513,7 +11643,7 @@
       <c r="B104" t="s">
         <v>754</v>
       </c>
-      <c r="D104" s="32" t="s">
+      <c r="D104" s="3" t="s">
         <v>1065</v>
       </c>
       <c r="N104" t="s">
@@ -11522,7 +11652,7 @@
       <c r="O104" t="s">
         <v>53</v>
       </c>
-      <c r="P104" s="32" t="s">
+      <c r="P104" s="40" t="s">
         <v>755</v>
       </c>
       <c r="Q104" t="s">
@@ -11537,1909 +11667,1909 @@
       <c r="T104" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="U104" s="32">
+      <c r="U104" s="3">
         <v>470</v>
       </c>
       <c r="V104" s="3"/>
     </row>
     <row r="105" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="19" t="s">
         <v>760</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D105" s="25">
         <v>1819</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17" t="s">
+      <c r="F105" s="19"/>
+      <c r="G105" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="H105" s="23" t="s">
+      <c r="H105" s="25" t="s">
         <v>763</v>
       </c>
-      <c r="I105" s="17"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="23"/>
-      <c r="M105" s="23" t="s">
+      <c r="I105" s="19"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="31" t="s">
         <v>1412</v>
       </c>
-      <c r="N105" s="17" t="s">
+      <c r="N105" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="O105" s="17" t="s">
+      <c r="O105" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="P105" s="23" t="s">
+      <c r="P105" s="30" t="s">
         <v>1282</v>
       </c>
-      <c r="Q105" s="17" t="s">
+      <c r="Q105" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="R105" s="17" t="s">
+      <c r="R105" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="S105" s="17" t="s">
+      <c r="S105" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="T105" s="17" t="s">
+      <c r="T105" s="19" t="s">
         <v>1209</v>
       </c>
-      <c r="U105" s="23" t="s">
+      <c r="U105" s="25" t="s">
         <v>1109</v>
       </c>
-      <c r="V105" s="18" t="s">
+      <c r="V105" s="20" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="26" t="s">
         <v>1016</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20" t="s">
+      <c r="F106" s="22"/>
+      <c r="G106" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="H106" s="22" t="s">
+      <c r="H106" s="26" t="s">
         <v>1082</v>
       </c>
-      <c r="I106" s="20" t="s">
+      <c r="I106" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="J106" s="22" t="s">
+      <c r="J106" s="26" t="s">
         <v>1056</v>
       </c>
-      <c r="K106" s="20" t="s">
+      <c r="K106" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="L106" s="22" t="s">
+      <c r="L106" s="26" t="s">
         <v>1306</v>
       </c>
-      <c r="M106" s="22" t="s">
+      <c r="M106" s="24" t="s">
         <v>1413</v>
       </c>
-      <c r="N106" s="20" t="s">
+      <c r="N106" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O106" s="20" t="s">
+      <c r="O106" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P106" s="22" t="s">
+      <c r="P106" s="29" t="s">
         <v>1283</v>
       </c>
-      <c r="Q106" s="20" t="s">
+      <c r="Q106" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="R106" s="20" t="s">
+      <c r="R106" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="S106" s="20" t="s">
+      <c r="S106" s="22" t="s">
         <v>776</v>
       </c>
-      <c r="T106" s="26" t="s">
+      <c r="T106" s="34" t="s">
         <v>777</v>
       </c>
-      <c r="U106" s="22" t="s">
+      <c r="U106" s="24" t="s">
         <v>1381</v>
       </c>
-      <c r="V106" s="21"/>
+      <c r="V106" s="23"/>
     </row>
     <row r="107" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
-      <c r="B107" s="17" t="s">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="C107" s="17"/>
-      <c r="D107" s="23" t="s">
+      <c r="C107" s="19"/>
+      <c r="D107" s="25" t="s">
         <v>1069</v>
       </c>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17" t="s">
+      <c r="E107" s="19"/>
+      <c r="F107" s="19" t="s">
         <v>779</v>
       </c>
-      <c r="G107" s="17" t="s">
+      <c r="G107" s="19" t="s">
         <v>780</v>
       </c>
-      <c r="H107" s="23" t="s">
+      <c r="H107" s="25" t="s">
         <v>1083</v>
       </c>
-      <c r="I107" s="17"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="23"/>
-      <c r="M107" s="23"/>
-      <c r="N107" s="17" t="s">
+      <c r="I107" s="19"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="O107" s="17" t="s">
+      <c r="O107" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="P107" s="23" t="s">
+      <c r="P107" s="30" t="s">
         <v>1284</v>
       </c>
-      <c r="Q107" s="17" t="s">
+      <c r="Q107" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="R107" s="17" t="s">
+      <c r="R107" s="19" t="s">
         <v>782</v>
       </c>
-      <c r="S107" s="24" t="s">
+      <c r="S107" s="32" t="s">
         <v>1320</v>
       </c>
-      <c r="T107" s="24" t="s">
+      <c r="T107" s="32" t="s">
         <v>1210</v>
       </c>
-      <c r="U107" s="23" t="s">
+      <c r="U107" s="25" t="s">
         <v>1110</v>
       </c>
-      <c r="V107" s="18"/>
+      <c r="V107" s="20"/>
     </row>
     <row r="108" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D108" s="26" t="s">
         <v>1017</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="F108" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="G108" s="20" t="s">
+      <c r="G108" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="H108" s="22" t="s">
+      <c r="H108" s="26" t="s">
         <v>1084</v>
       </c>
-      <c r="I108" s="20" t="s">
+      <c r="I108" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="J108" s="22" t="s">
+      <c r="J108" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="K108" s="20" t="s">
+      <c r="K108" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="L108" s="22">
+      <c r="L108" s="26">
         <v>1937</v>
       </c>
-      <c r="M108" s="22" t="s">
+      <c r="M108" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="N108" s="20" t="s">
+      <c r="N108" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O108" s="20" t="s">
+      <c r="O108" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P108" s="22" t="s">
+      <c r="P108" s="29" t="s">
         <v>1285</v>
       </c>
-      <c r="Q108" s="20" t="s">
+      <c r="Q108" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="R108" s="20" t="s">
+      <c r="R108" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="S108" s="20" t="s">
+      <c r="S108" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="T108" s="26" t="s">
+      <c r="T108" s="34" t="s">
         <v>1211</v>
       </c>
-      <c r="U108" s="22" t="s">
+      <c r="U108" s="24" t="s">
         <v>1380</v>
       </c>
-      <c r="V108" s="21" t="s">
+      <c r="V108" s="23" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="D109" s="25" t="s">
         <v>1018</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="G109" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="H109" s="23" t="s">
+      <c r="H109" s="25" t="s">
         <v>797</v>
       </c>
-      <c r="I109" s="17" t="s">
+      <c r="I109" s="19" t="s">
         <v>798</v>
       </c>
-      <c r="J109" s="23" t="s">
+      <c r="J109" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="K109" s="17" t="s">
+      <c r="K109" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="L109" s="23" t="s">
+      <c r="L109" s="25" t="s">
         <v>801</v>
       </c>
-      <c r="M109" s="23" t="s">
+      <c r="M109" s="31" t="s">
         <v>1405</v>
       </c>
-      <c r="N109" s="17" t="s">
+      <c r="N109" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="O109" s="17" t="s">
+      <c r="O109" s="19" t="s">
         <v>1232</v>
       </c>
-      <c r="P109" s="23" t="s">
+      <c r="P109" s="30" t="s">
         <v>1286</v>
       </c>
-      <c r="Q109" s="17" t="s">
+      <c r="Q109" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="R109" s="17" t="s">
+      <c r="R109" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="S109" s="17" t="s">
+      <c r="S109" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="T109" s="24" t="s">
+      <c r="T109" s="32" t="s">
         <v>1212</v>
       </c>
-      <c r="U109" s="23" t="s">
+      <c r="U109" s="31" t="s">
         <v>1379</v>
       </c>
-      <c r="V109" s="18"/>
+      <c r="V109" s="20"/>
     </row>
     <row r="110" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="22" t="s">
         <v>806</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D110" s="26" t="s">
         <v>1019</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20" t="s">
+      <c r="F110" s="22"/>
+      <c r="G110" s="22" t="s">
         <v>808</v>
       </c>
-      <c r="H110" s="22" t="s">
+      <c r="H110" s="26" t="s">
         <v>1054</v>
       </c>
-      <c r="I110" s="20" t="s">
+      <c r="I110" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="J110" s="22"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="20" t="s">
+      <c r="J110" s="26"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="O110" s="27" t="s">
+      <c r="O110" s="35" t="s">
         <v>1232</v>
       </c>
-      <c r="P110" s="22" t="s">
+      <c r="P110" s="29" t="s">
         <v>1287</v>
       </c>
-      <c r="Q110" s="20" t="s">
+      <c r="Q110" s="22" t="s">
         <v>810</v>
       </c>
-      <c r="R110" s="20" t="s">
+      <c r="R110" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="S110" s="20" t="s">
+      <c r="S110" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="T110" s="26" t="s">
+      <c r="T110" s="34" t="s">
         <v>1213</v>
       </c>
-      <c r="U110" s="22" t="s">
+      <c r="U110" s="26" t="s">
         <v>1111</v>
       </c>
-      <c r="V110" s="21" t="s">
+      <c r="V110" s="23" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="D111" s="23" t="s">
+      <c r="D111" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="E111" s="17" t="s">
+      <c r="E111" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17" t="s">
+      <c r="F111" s="19"/>
+      <c r="G111" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="H111" s="23" t="s">
+      <c r="H111" s="25" t="s">
         <v>1053</v>
       </c>
-      <c r="I111" s="17" t="s">
+      <c r="I111" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="J111" s="23" t="s">
+      <c r="J111" s="25" t="s">
         <v>1055</v>
       </c>
-      <c r="K111" s="17" t="s">
+      <c r="K111" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="L111" s="23" t="s">
+      <c r="L111" s="25" t="s">
         <v>1307</v>
       </c>
-      <c r="M111" s="23" t="s">
+      <c r="M111" s="31" t="s">
         <v>1412</v>
       </c>
-      <c r="N111" s="17" t="s">
+      <c r="N111" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="O111" s="17" t="s">
+      <c r="O111" s="19" t="s">
         <v>1232</v>
       </c>
-      <c r="P111" s="23" t="s">
+      <c r="P111" s="30" t="s">
         <v>1288</v>
       </c>
-      <c r="Q111" s="17" t="s">
+      <c r="Q111" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="R111" s="17" t="s">
+      <c r="R111" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="S111" s="17" t="s">
+      <c r="S111" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="T111" s="24" t="s">
+      <c r="T111" s="32" t="s">
         <v>1214</v>
       </c>
-      <c r="U111" s="23" t="s">
+      <c r="U111" s="31" t="s">
         <v>1378</v>
       </c>
-      <c r="V111" s="18" t="s">
+      <c r="V111" s="20" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="22" t="s">
         <v>824</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="26" t="s">
         <v>1021</v>
       </c>
-      <c r="E112" s="20" t="s">
+      <c r="E112" s="22" t="s">
         <v>825</v>
       </c>
-      <c r="F112" s="20" t="s">
+      <c r="F112" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="G112" s="20" t="s">
+      <c r="G112" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="H112" s="22" t="s">
+      <c r="H112" s="26" t="s">
         <v>828</v>
       </c>
-      <c r="I112" s="20" t="s">
+      <c r="I112" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="J112" s="22" t="s">
+      <c r="J112" s="26" t="s">
         <v>830</v>
       </c>
-      <c r="K112" s="20" t="s">
+      <c r="K112" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="L112" s="22" t="s">
+      <c r="L112" s="26" t="s">
         <v>831</v>
       </c>
-      <c r="M112" s="22" t="s">
+      <c r="M112" s="24" t="s">
         <v>1411</v>
       </c>
-      <c r="N112" s="20" t="s">
+      <c r="N112" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O112" s="20" t="s">
+      <c r="O112" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P112" s="22" t="s">
+      <c r="P112" s="29" t="s">
         <v>1276</v>
       </c>
-      <c r="Q112" s="20" t="s">
+      <c r="Q112" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="R112" s="20" t="s">
+      <c r="R112" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="S112" s="20" t="s">
+      <c r="S112" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="T112" s="26" t="s">
+      <c r="T112" s="34" t="s">
         <v>1215</v>
       </c>
-      <c r="U112" s="22" t="s">
+      <c r="U112" s="24" t="s">
         <v>1377</v>
       </c>
-      <c r="V112" s="21" t="s">
+      <c r="V112" s="23" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="D113" s="23" t="s">
+      <c r="D113" s="25" t="s">
         <v>1022</v>
       </c>
-      <c r="E113" s="17" t="s">
+      <c r="E113" s="19" t="s">
         <v>836</v>
       </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17" t="s">
+      <c r="F113" s="19"/>
+      <c r="G113" s="19" t="s">
         <v>837</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="H113" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="I113" s="17" t="s">
+      <c r="I113" s="19" t="s">
         <v>838</v>
       </c>
-      <c r="J113" s="23">
+      <c r="J113" s="25">
         <v>1238</v>
       </c>
-      <c r="K113" s="17"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="23" t="s">
+      <c r="K113" s="19"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="25" t="s">
         <v>1099</v>
       </c>
-      <c r="N113" s="17" t="s">
+      <c r="N113" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="O113" s="28" t="s">
+      <c r="O113" s="36" t="s">
         <v>1232</v>
       </c>
-      <c r="P113" s="23" t="s">
+      <c r="P113" s="30" t="s">
         <v>1287</v>
       </c>
-      <c r="Q113" s="17" t="s">
+      <c r="Q113" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="R113" s="17" t="s">
+      <c r="R113" s="19" t="s">
         <v>839</v>
       </c>
-      <c r="S113" s="17" t="s">
+      <c r="S113" s="19" t="s">
         <v>840</v>
       </c>
-      <c r="T113" s="24" t="s">
+      <c r="T113" s="32" t="s">
         <v>1216</v>
       </c>
-      <c r="U113" s="23" t="s">
+      <c r="U113" s="25" t="s">
         <v>1111</v>
       </c>
-      <c r="V113" s="18" t="s">
+      <c r="V113" s="20" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="22" t="s">
         <v>842</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="26" t="s">
         <v>1023</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="F114" s="20" t="s">
+      <c r="F114" s="22" t="s">
         <v>779</v>
       </c>
-      <c r="G114" s="20" t="s">
+      <c r="G114" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="H114" s="22" t="s">
+      <c r="H114" s="26" t="s">
         <v>1051</v>
       </c>
-      <c r="I114" s="20" t="s">
+      <c r="I114" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="J114" s="22" t="s">
+      <c r="J114" s="26" t="s">
         <v>1094</v>
       </c>
       <c r="K114" t="s">
         <v>847</v>
       </c>
-      <c r="L114" s="22" t="s">
+      <c r="L114" s="26" t="s">
         <v>1308</v>
       </c>
-      <c r="M114" s="22" t="s">
+      <c r="M114" s="24" t="s">
         <v>1410</v>
       </c>
-      <c r="N114" s="20" t="s">
+      <c r="N114" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O114" s="20" t="s">
+      <c r="O114" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="P114" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="Q114" s="20" t="s">
+      <c r="Q114" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="R114" s="20" t="s">
+      <c r="R114" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="S114" s="20" t="s">
+      <c r="S114" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="T114" s="26" t="s">
+      <c r="T114" s="34" t="s">
         <v>1217</v>
       </c>
-      <c r="U114" s="22" t="s">
+      <c r="U114" s="24" t="s">
         <v>1376</v>
       </c>
-      <c r="V114" s="21" t="s">
+      <c r="V114" s="23" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="18" t="s">
         <v>852</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="19" t="s">
         <v>853</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="D115" s="23">
+      <c r="D115" s="25">
         <v>1415</v>
       </c>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17" t="s">
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="H115" s="23" t="s">
+      <c r="H115" s="25" t="s">
         <v>1050</v>
       </c>
-      <c r="I115" s="17"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="23"/>
-      <c r="M115" s="23">
+      <c r="I115" s="19"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="25">
         <v>1979</v>
       </c>
-      <c r="N115" s="17" t="s">
+      <c r="N115" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="O115" s="17" t="s">
+      <c r="O115" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="P115" s="23" t="s">
+      <c r="P115" s="30" t="s">
         <v>1289</v>
       </c>
-      <c r="Q115" s="17" t="s">
+      <c r="Q115" s="19" t="s">
         <v>856</v>
       </c>
-      <c r="R115" s="17" t="s">
+      <c r="R115" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="S115" s="17" t="s">
+      <c r="S115" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="T115" s="24" t="s">
+      <c r="T115" s="32" t="s">
         <v>1218</v>
       </c>
-      <c r="U115" s="23" t="s">
+      <c r="U115" s="25" t="s">
         <v>1112</v>
       </c>
-      <c r="V115" s="18" t="s">
+      <c r="V115" s="20" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="26">
         <v>1878</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20" t="s">
+      <c r="F116" s="22"/>
+      <c r="G116" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="H116" s="22">
+      <c r="H116" s="26">
         <v>1910</v>
       </c>
-      <c r="I116" s="20" t="s">
+      <c r="I116" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="J116" s="22" t="s">
+      <c r="J116" s="26" t="s">
         <v>1315</v>
       </c>
-      <c r="K116" s="20"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="22" t="s">
+      <c r="K116" s="22"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="24" t="s">
         <v>1409</v>
       </c>
-      <c r="N116" s="20" t="s">
+      <c r="N116" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O116" s="27" t="s">
+      <c r="O116" s="35" t="s">
         <v>1232</v>
       </c>
-      <c r="P116" s="22" t="s">
+      <c r="P116" s="29" t="s">
         <v>1290</v>
       </c>
-      <c r="Q116" s="20" t="s">
+      <c r="Q116" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="R116" s="20" t="s">
+      <c r="R116" s="22" t="s">
         <v>864</v>
       </c>
-      <c r="S116" s="20" t="s">
+      <c r="S116" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="T116" s="26" t="s">
+      <c r="T116" s="34" t="s">
         <v>1219</v>
       </c>
-      <c r="U116" s="22" t="s">
+      <c r="U116" s="24" t="s">
         <v>1375</v>
       </c>
-      <c r="V116" s="21" t="s">
+      <c r="V116" s="23" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="19" t="s">
         <v>860</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="D117" s="23">
+      <c r="D117" s="25">
         <v>1880</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="F117" s="17" t="s">
+      <c r="F117" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="G117" s="17" t="s">
+      <c r="G117" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="H117" s="25" t="s">
         <v>1049</v>
       </c>
-      <c r="I117" s="17" t="s">
+      <c r="I117" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="J117" s="23" t="s">
+      <c r="J117" s="25" t="s">
         <v>872</v>
       </c>
-      <c r="K117" s="17"/>
-      <c r="L117" s="23"/>
-      <c r="M117" s="23" t="s">
+      <c r="K117" s="19"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="31" t="s">
         <v>1408</v>
       </c>
-      <c r="N117" s="17" t="s">
+      <c r="N117" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="O117" s="17" t="s">
+      <c r="O117" s="19" t="s">
         <v>1232</v>
       </c>
-      <c r="P117" s="23" t="s">
+      <c r="P117" s="30" t="s">
         <v>1291</v>
       </c>
-      <c r="Q117" s="17" t="s">
+      <c r="Q117" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="R117" s="17" t="s">
+      <c r="R117" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="S117" s="24" t="s">
+      <c r="S117" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="T117" s="24" t="s">
+      <c r="T117" s="32" t="s">
         <v>1220</v>
       </c>
-      <c r="U117" s="23" t="s">
+      <c r="U117" s="31" t="s">
         <v>1374</v>
       </c>
-      <c r="V117" s="18"/>
+      <c r="V117" s="20"/>
     </row>
     <row r="118" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="26">
         <v>1870</v>
       </c>
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="22" t="s">
         <v>877</v>
       </c>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="22" t="s">
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="29" t="s">
         <v>1098</v>
       </c>
-      <c r="N118" s="20" t="s">
+      <c r="N118" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O118" s="20" t="s">
+      <c r="O118" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P118" s="22" t="s">
+      <c r="P118" s="29" t="s">
         <v>1292</v>
       </c>
-      <c r="Q118" s="20" t="s">
+      <c r="Q118" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="R118" s="20" t="s">
+      <c r="R118" s="22" t="s">
         <v>878</v>
       </c>
-      <c r="S118" s="20" t="s">
+      <c r="S118" s="22" t="s">
         <v>879</v>
       </c>
-      <c r="T118" s="26" t="s">
+      <c r="T118" s="34" t="s">
         <v>1221</v>
       </c>
-      <c r="U118" s="22" t="s">
+      <c r="U118" s="24" t="s">
         <v>1363</v>
       </c>
-      <c r="V118" s="21"/>
+      <c r="V118" s="23"/>
     </row>
     <row r="119" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="18" t="s">
         <v>880</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="19" t="s">
         <v>860</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="19" t="s">
         <v>881</v>
       </c>
-      <c r="D119" s="23" t="s">
+      <c r="D119" s="25" t="s">
         <v>1070</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E119" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="F119" s="17" t="s">
+      <c r="F119" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="G119" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="H119" s="23"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="23"/>
-      <c r="M119" s="23">
+      <c r="H119" s="25"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25">
         <v>1595</v>
       </c>
-      <c r="N119" s="17" t="s">
+      <c r="N119" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="O119" s="17" t="s">
+      <c r="O119" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="P119" s="23" t="s">
+      <c r="P119" s="30" t="s">
         <v>1293</v>
       </c>
-      <c r="Q119" s="17" t="s">
+      <c r="Q119" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="R119" s="17" t="s">
+      <c r="R119" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="S119" s="24" t="s">
+      <c r="S119" s="32" t="s">
         <v>1321</v>
       </c>
-      <c r="T119" s="24" t="s">
+      <c r="T119" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="U119" s="23">
+      <c r="U119" s="25">
         <v>1576</v>
       </c>
-      <c r="V119" s="18" t="s">
+      <c r="V119" s="20" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="24" t="s">
         <v>1361</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="22" t="s">
         <v>887</v>
       </c>
-      <c r="F120" s="20" t="s">
+      <c r="F120" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="G120" s="20" t="s">
+      <c r="G120" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="H120" s="22" t="s">
+      <c r="H120" s="26" t="s">
         <v>1048</v>
       </c>
-      <c r="I120" s="20" t="s">
+      <c r="I120" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="J120" s="26" t="s">
         <v>892</v>
       </c>
-      <c r="K120" s="20" t="s">
+      <c r="K120" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="L120" s="26" t="s">
         <v>1309</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="M120" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="N120" s="20" t="s">
+      <c r="N120" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O120" s="27" t="s">
+      <c r="O120" s="35" t="s">
         <v>1232</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="P120" s="29" t="s">
         <v>893</v>
       </c>
-      <c r="Q120" s="20" t="s">
+      <c r="Q120" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="R120" s="20" t="s">
+      <c r="R120" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="S120" s="20" t="s">
+      <c r="S120" s="22" t="s">
         <v>896</v>
       </c>
-      <c r="T120" s="26" t="s">
+      <c r="T120" s="34" t="s">
         <v>897</v>
       </c>
-      <c r="U120" s="22" t="s">
+      <c r="U120" s="24" t="s">
         <v>1373</v>
       </c>
-      <c r="V120" s="21"/>
+      <c r="V120" s="23"/>
     </row>
     <row r="121" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="D121" s="23" t="s">
+      <c r="D121" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E121" s="19" t="s">
         <v>900</v>
       </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17" t="s">
+      <c r="F121" s="19"/>
+      <c r="G121" s="19" t="s">
         <v>846</v>
       </c>
-      <c r="H121" s="23" t="s">
+      <c r="H121" s="25" t="s">
         <v>1047</v>
       </c>
-      <c r="I121" s="17" t="s">
+      <c r="I121" s="19" t="s">
         <v>901</v>
       </c>
-      <c r="J121" s="23" t="s">
+      <c r="J121" s="25" t="s">
         <v>1093</v>
       </c>
-      <c r="K121" s="17" t="s">
+      <c r="K121" s="19" t="s">
         <v>902</v>
       </c>
-      <c r="L121" s="23" t="s">
+      <c r="L121" s="25" t="s">
         <v>1310</v>
       </c>
-      <c r="M121" s="23" t="s">
+      <c r="M121" s="31" t="s">
         <v>1407</v>
       </c>
-      <c r="N121" s="17" t="s">
+      <c r="N121" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="O121" s="17" t="s">
+      <c r="O121" s="19" t="s">
         <v>1232</v>
       </c>
-      <c r="P121" s="23" t="s">
+      <c r="P121" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="Q121" s="17" t="s">
+      <c r="Q121" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="R121" s="17" t="s">
+      <c r="R121" s="19" t="s">
         <v>904</v>
       </c>
-      <c r="S121" s="17" t="s">
+      <c r="S121" s="19" t="s">
         <v>905</v>
       </c>
-      <c r="T121" s="24" t="s">
+      <c r="T121" s="32" t="s">
         <v>1222</v>
       </c>
-      <c r="U121" s="23" t="s">
+      <c r="U121" s="31" t="s">
         <v>1372</v>
       </c>
-      <c r="V121" s="18"/>
+      <c r="V121" s="20"/>
     </row>
     <row r="122" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="21" t="s">
         <v>906</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="26" t="s">
         <v>1025</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E122" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20" t="s">
+      <c r="F122" s="22"/>
+      <c r="G122" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="H122" s="22" t="s">
+      <c r="H122" s="26" t="s">
         <v>1046</v>
       </c>
-      <c r="I122" s="20" t="s">
+      <c r="I122" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="J122" s="22" t="s">
+      <c r="J122" s="26" t="s">
         <v>1092</v>
       </c>
-      <c r="K122" s="20" t="s">
+      <c r="K122" s="22" t="s">
         <v>910</v>
       </c>
-      <c r="L122" s="22" t="s">
+      <c r="L122" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="M122" s="22" t="s">
+      <c r="M122" s="24" t="s">
         <v>1406</v>
       </c>
-      <c r="N122" s="20" t="s">
+      <c r="N122" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O122" s="20" t="s">
+      <c r="O122" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P122" s="22" t="s">
+      <c r="P122" s="29" t="s">
         <v>1294</v>
       </c>
-      <c r="Q122" s="20" t="s">
+      <c r="Q122" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="R122" s="20" t="s">
+      <c r="R122" s="22" t="s">
         <v>912</v>
       </c>
-      <c r="S122" s="20" t="s">
+      <c r="S122" s="22" t="s">
         <v>913</v>
       </c>
-      <c r="T122" s="26" t="s">
+      <c r="T122" s="34" t="s">
         <v>1223</v>
       </c>
-      <c r="U122" s="22" t="s">
+      <c r="U122" s="24" t="s">
         <v>1371</v>
       </c>
-      <c r="V122" s="21" t="s">
+      <c r="V122" s="23" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="123" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="18" t="s">
         <v>915</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="19" t="s">
         <v>868</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="D123" s="25" t="s">
         <v>1026</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="19" t="s">
         <v>916</v>
       </c>
-      <c r="F123" s="17" t="s">
+      <c r="F123" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="G123" s="17" t="s">
+      <c r="G123" s="19" t="s">
         <v>918</v>
       </c>
-      <c r="H123" s="23" t="s">
+      <c r="H123" s="25" t="s">
         <v>1045</v>
       </c>
-      <c r="I123" s="17" t="s">
+      <c r="I123" s="19" t="s">
         <v>919</v>
       </c>
-      <c r="J123" s="23" t="s">
+      <c r="J123" s="25" t="s">
         <v>1091</v>
       </c>
-      <c r="K123" s="17" t="s">
+      <c r="K123" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="L123" s="23" t="s">
+      <c r="L123" s="25" t="s">
         <v>1311</v>
       </c>
-      <c r="M123" s="23" t="s">
+      <c r="M123" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="N123" s="17" t="s">
+      <c r="N123" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O123" s="17" t="s">
+      <c r="O123" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="P123" s="23" t="s">
+      <c r="P123" s="30" t="s">
         <v>1295</v>
       </c>
-      <c r="Q123" s="17" t="s">
+      <c r="Q123" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="R123" s="17" t="s">
+      <c r="R123" s="19" t="s">
         <v>921</v>
       </c>
-      <c r="S123" s="17" t="s">
+      <c r="S123" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="T123" s="24" t="s">
+      <c r="T123" s="32" t="s">
         <v>1224</v>
       </c>
-      <c r="U123" s="23" t="s">
+      <c r="U123" s="31" t="s">
         <v>1370</v>
       </c>
-      <c r="V123" s="18" t="s">
+      <c r="V123" s="20" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="124" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="21" t="s">
         <v>924</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="22" t="s">
         <v>925</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="26" t="s">
         <v>1027</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E124" s="22" t="s">
         <v>926</v>
       </c>
-      <c r="F124" s="20" t="s">
+      <c r="F124" s="22" t="s">
         <v>917</v>
       </c>
-      <c r="G124" s="20" t="s">
+      <c r="G124" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="H124" s="22" t="s">
+      <c r="H124" s="26" t="s">
         <v>1044</v>
       </c>
-      <c r="I124" s="20" t="s">
+      <c r="I124" s="22" t="s">
         <v>928</v>
       </c>
-      <c r="J124" s="22" t="s">
+      <c r="J124" s="26" t="s">
         <v>1090</v>
       </c>
-      <c r="K124" s="20" t="s">
+      <c r="K124" s="22" t="s">
         <v>918</v>
       </c>
-      <c r="L124" s="22" t="s">
+      <c r="L124" s="26" t="s">
         <v>1312</v>
       </c>
-      <c r="M124" s="22">
+      <c r="M124" s="26">
         <v>2000</v>
       </c>
-      <c r="N124" s="20" t="s">
+      <c r="N124" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="O124" s="20" t="s">
+      <c r="O124" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="P124" s="22" t="s">
+      <c r="P124" s="29" t="s">
         <v>1296</v>
       </c>
-      <c r="Q124" s="20" t="s">
+      <c r="Q124" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="R124" s="20" t="s">
+      <c r="R124" s="22" t="s">
         <v>930</v>
       </c>
-      <c r="S124" s="20" t="s">
+      <c r="S124" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="T124" s="26" t="s">
+      <c r="T124" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="U124" s="22" t="s">
+      <c r="U124" s="26" t="s">
         <v>1113</v>
       </c>
-      <c r="V124" s="21" t="s">
+      <c r="V124" s="23" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="125" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
-      <c r="B125" s="17" t="s">
+      <c r="A125" s="18"/>
+      <c r="B125" s="19" t="s">
         <v>933</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="23" t="s">
+      <c r="C125" s="19"/>
+      <c r="D125" s="25" t="s">
         <v>1069</v>
       </c>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17" t="s">
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H125" s="25" t="s">
         <v>1043</v>
       </c>
-      <c r="I125" s="17"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="23"/>
-      <c r="M125" s="23"/>
-      <c r="N125" s="17" t="s">
+      <c r="I125" s="19"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="O125" s="17" t="s">
+      <c r="O125" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="P125" s="23" t="s">
+      <c r="P125" s="30" t="s">
         <v>1297</v>
       </c>
-      <c r="Q125" s="17" t="s">
+      <c r="Q125" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="R125" s="17" t="s">
+      <c r="R125" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="S125" s="24" t="s">
+      <c r="S125" s="32" t="s">
         <v>1322</v>
       </c>
-      <c r="T125" s="24" t="s">
+      <c r="T125" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="U125" s="23" t="s">
+      <c r="U125" s="25" t="s">
         <v>1114</v>
       </c>
-      <c r="V125" s="18" t="s">
+      <c r="V125" s="20" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="22" t="s">
         <v>938</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="26" t="s">
         <v>1070</v>
       </c>
-      <c r="E126" s="20" t="s">
+      <c r="E126" s="22" t="s">
         <v>882</v>
       </c>
-      <c r="F126" s="20" t="s">
+      <c r="F126" s="22" t="s">
         <v>940</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G126" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="20"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="22"/>
-      <c r="M126" s="22">
+      <c r="H126" s="26"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="26">
         <v>1595</v>
       </c>
-      <c r="N126" s="20" t="s">
+      <c r="N126" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="O126" s="20" t="s">
+      <c r="O126" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="P126" s="22" t="s">
+      <c r="P126" s="29" t="s">
         <v>1298</v>
       </c>
-      <c r="Q126" s="20" t="s">
+      <c r="Q126" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="R126" s="20" t="s">
+      <c r="R126" s="22" t="s">
         <v>941</v>
       </c>
-      <c r="S126" s="26" t="s">
+      <c r="S126" s="34" t="s">
         <v>1321</v>
       </c>
-      <c r="T126" s="26" t="s">
+      <c r="T126" s="34" t="s">
         <v>886</v>
       </c>
-      <c r="U126" s="43">
+      <c r="U126" s="49">
         <v>1563</v>
       </c>
-      <c r="V126" s="21" t="s">
+      <c r="V126" s="23" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D127" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E127" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="F127" s="17" t="s">
+      <c r="F127" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G127" s="19" t="s">
         <v>946</v>
       </c>
-      <c r="H127" s="23" t="s">
+      <c r="H127" s="25" t="s">
         <v>1042</v>
       </c>
-      <c r="I127" s="17" t="s">
+      <c r="I127" s="19" t="s">
         <v>947</v>
       </c>
-      <c r="J127" s="23" t="s">
+      <c r="J127" s="25" t="s">
         <v>1089</v>
       </c>
-      <c r="K127" s="17"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="23" t="s">
+      <c r="K127" s="19"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="N127" s="17" t="s">
+      <c r="N127" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="O127" s="17" t="s">
+      <c r="O127" s="19" t="s">
         <v>1232</v>
       </c>
-      <c r="P127" s="23" t="s">
+      <c r="P127" s="30" t="s">
         <v>1299</v>
       </c>
-      <c r="Q127" s="17" t="s">
+      <c r="Q127" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="R127" s="17" t="s">
+      <c r="R127" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="S127" s="17" t="s">
+      <c r="S127" s="19" t="s">
         <v>949</v>
       </c>
-      <c r="T127" s="24" t="s">
+      <c r="T127" s="32" t="s">
         <v>1226</v>
       </c>
-      <c r="U127" s="23" t="s">
+      <c r="U127" s="31" t="s">
         <v>1369</v>
       </c>
-      <c r="V127" s="18" t="s">
+      <c r="V127" s="20" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="18" t="s">
         <v>952</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="19" t="s">
         <v>953</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="19" t="s">
         <v>954</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="D128" s="25" t="s">
         <v>1029</v>
       </c>
-      <c r="E128" s="17" t="s">
+      <c r="E128" s="19" t="s">
         <v>955</v>
       </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17" t="s">
+      <c r="F128" s="19"/>
+      <c r="G128" s="19" t="s">
         <v>956</v>
       </c>
-      <c r="H128" s="23" t="s">
+      <c r="H128" s="25" t="s">
         <v>1041</v>
       </c>
-      <c r="I128" s="17" t="s">
+      <c r="I128" s="19" t="s">
         <v>957</v>
       </c>
-      <c r="J128" s="23" t="s">
+      <c r="J128" s="25" t="s">
         <v>1088</v>
       </c>
-      <c r="K128" s="17"/>
-      <c r="L128" s="23"/>
-      <c r="M128" s="23" t="s">
+      <c r="K128" s="19"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="31" t="s">
         <v>1405</v>
       </c>
-      <c r="N128" s="17" t="s">
+      <c r="N128" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="O128" s="17" t="s">
+      <c r="O128" s="19" t="s">
         <v>1232</v>
       </c>
-      <c r="P128" s="23" t="s">
+      <c r="P128" s="30" t="s">
         <v>1300</v>
       </c>
-      <c r="Q128" s="17" t="s">
+      <c r="Q128" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="R128" s="17" t="s">
+      <c r="R128" s="19" t="s">
         <v>958</v>
       </c>
-      <c r="S128" s="24" t="s">
+      <c r="S128" s="32" t="s">
         <v>959</v>
       </c>
-      <c r="T128" s="24" t="s">
+      <c r="T128" s="32" t="s">
         <v>1227</v>
       </c>
-      <c r="U128" s="23" t="s">
+      <c r="U128" s="31" t="s">
         <v>1368</v>
       </c>
-      <c r="V128" s="18"/>
+      <c r="V128" s="20"/>
     </row>
     <row r="129" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="22" t="s">
         <v>961</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D129" s="26" t="s">
         <v>1030</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="22" t="s">
         <v>962</v>
       </c>
-      <c r="F129" s="20" t="s">
+      <c r="F129" s="22" t="s">
         <v>963</v>
       </c>
-      <c r="G129" s="20" t="s">
+      <c r="G129" s="22" t="s">
         <v>964</v>
       </c>
-      <c r="H129" s="22" t="s">
+      <c r="H129" s="26" t="s">
         <v>1040</v>
       </c>
-      <c r="I129" s="20" t="s">
+      <c r="I129" s="22" t="s">
         <v>965</v>
       </c>
-      <c r="J129" s="22" t="s">
+      <c r="J129" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="K129" s="20" t="s">
+      <c r="K129" s="22" t="s">
         <v>966</v>
       </c>
-      <c r="L129" s="22" t="s">
+      <c r="L129" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="M129" s="22" t="s">
+      <c r="M129" s="24" t="s">
         <v>1404</v>
       </c>
-      <c r="N129" s="20" t="s">
+      <c r="N129" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O129" s="20" t="s">
+      <c r="O129" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P129" s="22" t="s">
+      <c r="P129" s="29" t="s">
         <v>1301</v>
       </c>
-      <c r="Q129" s="20" t="s">
+      <c r="Q129" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="R129" s="20" t="s">
+      <c r="R129" s="22" t="s">
         <v>967</v>
       </c>
-      <c r="S129" s="20" t="s">
+      <c r="S129" s="22" t="s">
         <v>968</v>
       </c>
-      <c r="T129" s="26" t="s">
+      <c r="T129" s="34" t="s">
         <v>1228</v>
       </c>
-      <c r="U129" s="22" t="s">
+      <c r="U129" s="24" t="s">
         <v>1367</v>
       </c>
-      <c r="V129" s="21"/>
+      <c r="V129" s="23"/>
     </row>
     <row r="130" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="D130" s="23">
+      <c r="D130" s="25">
         <v>1870</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="19" t="s">
         <v>971</v>
       </c>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17" t="s">
+      <c r="F130" s="19"/>
+      <c r="G130" s="19" t="s">
         <v>972</v>
       </c>
-      <c r="H130" s="23" t="s">
+      <c r="H130" s="25" t="s">
         <v>1039</v>
       </c>
-      <c r="I130" s="17" t="s">
+      <c r="I130" s="19" t="s">
         <v>973</v>
       </c>
-      <c r="J130" s="23" t="s">
+      <c r="J130" s="25" t="s">
         <v>1086</v>
       </c>
-      <c r="K130" s="17" t="s">
+      <c r="K130" s="19" t="s">
         <v>974</v>
       </c>
-      <c r="L130" s="23" t="s">
+      <c r="L130" s="25" t="s">
         <v>1313</v>
       </c>
-      <c r="M130" s="23" t="s">
+      <c r="M130" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="N130" s="17" t="s">
+      <c r="N130" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="O130" s="17" t="s">
+      <c r="O130" s="19" t="s">
         <v>1232</v>
       </c>
-      <c r="P130" s="23" t="s">
+      <c r="P130" s="30" t="s">
         <v>1302</v>
       </c>
-      <c r="Q130" s="17" t="s">
+      <c r="Q130" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="R130" s="17" t="s">
+      <c r="R130" s="19" t="s">
         <v>975</v>
       </c>
-      <c r="S130" s="17" t="s">
+      <c r="S130" s="19" t="s">
         <v>976</v>
       </c>
-      <c r="T130" s="24" t="s">
+      <c r="T130" s="32" t="s">
         <v>977</v>
       </c>
-      <c r="U130" s="23" t="s">
+      <c r="U130" s="31" t="s">
         <v>1363</v>
       </c>
-      <c r="V130" s="18"/>
+      <c r="V130" s="20"/>
     </row>
     <row r="131" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="21" t="s">
         <v>978</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="22" t="s">
         <v>979</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="D131" s="26" t="s">
         <v>1033</v>
       </c>
-      <c r="E131" s="20" t="s">
+      <c r="E131" s="22" t="s">
         <v>980</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="F131" s="22" t="s">
         <v>981</v>
       </c>
-      <c r="G131" s="20" t="s">
+      <c r="G131" s="22" t="s">
         <v>982</v>
       </c>
-      <c r="H131" s="22" t="s">
+      <c r="H131" s="26" t="s">
         <v>1038</v>
       </c>
-      <c r="I131" s="20"/>
-      <c r="J131" s="22"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="22"/>
-      <c r="M131" s="22" t="s">
+      <c r="I131" s="22"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="29" t="s">
         <v>1096</v>
       </c>
-      <c r="N131" s="20" t="s">
+      <c r="N131" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="O131" s="20" t="s">
+      <c r="O131" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P131" s="22" t="s">
+      <c r="P131" s="29" t="s">
         <v>1302</v>
       </c>
-      <c r="Q131" s="20" t="s">
+      <c r="Q131" s="22" t="s">
         <v>951</v>
       </c>
-      <c r="R131" s="20" t="s">
+      <c r="R131" s="22" t="s">
         <v>983</v>
       </c>
-      <c r="S131" s="20" t="s">
+      <c r="S131" s="22" t="s">
         <v>984</v>
       </c>
-      <c r="T131" s="26" t="s">
+      <c r="T131" s="34" t="s">
         <v>1221</v>
       </c>
-      <c r="U131" s="22" t="s">
+      <c r="U131" s="24" t="s">
         <v>1363</v>
       </c>
-      <c r="V131" s="21"/>
+      <c r="V131" s="23"/>
     </row>
     <row r="132" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="19" t="s">
         <v>986</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="19" t="s">
         <v>987</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="D132" s="25" t="s">
         <v>1031</v>
       </c>
-      <c r="E132" s="17" t="s">
+      <c r="E132" s="19" t="s">
         <v>988</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17" t="s">
+      <c r="F132" s="19"/>
+      <c r="G132" s="19" t="s">
         <v>989</v>
       </c>
-      <c r="H132" s="23" t="s">
+      <c r="H132" s="25" t="s">
         <v>1037</v>
       </c>
-      <c r="I132" s="17" t="s">
+      <c r="I132" s="19" t="s">
         <v>990</v>
       </c>
-      <c r="J132" s="23" t="s">
+      <c r="J132" s="25" t="s">
         <v>1085</v>
       </c>
-      <c r="K132" s="17"/>
-      <c r="L132" s="23"/>
-      <c r="M132" s="23" t="s">
+      <c r="K132" s="19"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="31" t="s">
         <v>1403</v>
       </c>
-      <c r="N132" s="17" t="s">
+      <c r="N132" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="O132" s="17" t="s">
+      <c r="O132" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="P132" s="23" t="s">
+      <c r="P132" s="30" t="s">
         <v>1303</v>
       </c>
-      <c r="Q132" s="17" t="s">
+      <c r="Q132" s="19" t="s">
         <v>991</v>
       </c>
-      <c r="R132" s="38" t="s">
+      <c r="R132" s="46" t="s">
         <v>992</v>
       </c>
-      <c r="S132" s="17" t="s">
+      <c r="S132" s="19" t="s">
         <v>993</v>
       </c>
-      <c r="T132" s="24" t="s">
+      <c r="T132" s="32" t="s">
         <v>1229</v>
       </c>
-      <c r="U132" s="23" t="s">
+      <c r="U132" s="25" t="s">
         <v>1115</v>
       </c>
-      <c r="V132" s="18" t="s">
+      <c r="V132" s="20" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="133" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="22" t="s">
         <v>996</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="26" t="s">
         <v>1032</v>
       </c>
-      <c r="E133" s="20" t="s">
+      <c r="E133" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="F133" s="20" t="s">
+      <c r="F133" s="22" t="s">
         <v>998</v>
       </c>
-      <c r="G133" s="20" t="s">
+      <c r="G133" s="22" t="s">
         <v>999</v>
       </c>
-      <c r="H133" s="22" t="s">
+      <c r="H133" s="26" t="s">
         <v>1036</v>
       </c>
-      <c r="I133" s="20" t="s">
+      <c r="I133" s="22" t="s">
         <v>1000</v>
       </c>
-      <c r="J133" s="22" t="s">
+      <c r="J133" s="26" t="s">
         <v>1041</v>
       </c>
-      <c r="K133" s="20" t="s">
+      <c r="K133" s="22" t="s">
         <v>1001</v>
       </c>
-      <c r="L133" s="22" t="s">
+      <c r="L133" s="26" t="s">
         <v>1314</v>
       </c>
-      <c r="M133" s="22" t="s">
+      <c r="M133" s="29" t="s">
         <v>1096</v>
       </c>
-      <c r="N133" s="20" t="s">
+      <c r="N133" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="O133" s="20" t="s">
+      <c r="O133" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P133" s="22" t="s">
+      <c r="P133" s="29" t="s">
         <v>1302</v>
       </c>
-      <c r="Q133" s="20" t="s">
+      <c r="Q133" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="R133" s="20" t="s">
+      <c r="R133" s="22" t="s">
         <v>1002</v>
       </c>
-      <c r="S133" s="20" t="s">
+      <c r="S133" s="22" t="s">
         <v>1003</v>
       </c>
-      <c r="T133" s="26" t="s">
+      <c r="T133" s="34" t="s">
         <v>1230</v>
       </c>
-      <c r="U133" s="22" t="s">
+      <c r="U133" s="24" t="s">
         <v>1363</v>
       </c>
-      <c r="V133" s="21"/>
+      <c r="V133" s="23"/>
     </row>
     <row r="134" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="42" t="s">
         <v>1323</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B134" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="43" t="s">
         <v>1327</v>
       </c>
-      <c r="D134" s="32" t="s">
+      <c r="D134" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="E134" s="35" t="s">
+      <c r="E134" s="43" t="s">
         <v>1325</v>
       </c>
-      <c r="F134" s="35" t="s">
+      <c r="F134" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="G134" s="35" t="s">
+      <c r="G134" s="43" t="s">
         <v>1326</v>
       </c>
-      <c r="H134" s="32">
+      <c r="H134" s="3">
         <v>1940</v>
       </c>
-      <c r="M134" s="32">
+      <c r="M134" s="3">
         <v>1993</v>
       </c>
-      <c r="N134" s="37" t="s">
+      <c r="N134" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O134" s="20" t="s">
+      <c r="O134" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P134" s="32" t="s">
+      <c r="P134" s="40" t="s">
         <v>1335</v>
       </c>
-      <c r="Q134" s="35" t="s">
+      <c r="Q134" s="43" t="s">
         <v>1328</v>
       </c>
-      <c r="R134" s="35" t="s">
+      <c r="R134" s="43" t="s">
         <v>1336</v>
       </c>
-      <c r="T134" s="35" t="s">
+      <c r="T134" s="43" t="s">
         <v>1329</v>
       </c>
-      <c r="U134" s="32" t="s">
+      <c r="U134" s="27" t="s">
         <v>1362</v>
       </c>
-      <c r="V134" s="35" t="s">
+      <c r="V134" s="43" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="36" t="s">
+      <c r="A135" s="44" t="s">
         <v>1330</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B135" s="45" t="s">
         <v>1331</v>
       </c>
-      <c r="C135" s="37" t="s">
+      <c r="C135" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="D135" s="32" t="s">
+      <c r="D135" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="E135" s="37" t="s">
+      <c r="E135" s="45" t="s">
         <v>1333</v>
       </c>
-      <c r="F135" s="37" t="s">
+      <c r="F135" s="45" t="s">
         <v>1334</v>
       </c>
-      <c r="G135" s="37" t="s">
+      <c r="G135" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="H135" s="32">
+      <c r="H135" s="3">
         <v>1928</v>
       </c>
-      <c r="M135" s="32">
+      <c r="M135" s="3">
         <v>1928</v>
       </c>
-      <c r="N135" s="37" t="s">
+      <c r="N135" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="O135" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="Q135" s="37" t="s">
+      <c r="Q135" s="45" t="s">
         <v>802</v>
       </c>
-      <c r="R135" s="37" t="s">
+      <c r="R135" s="45" t="s">
         <v>1337</v>
       </c>
-      <c r="S135" s="25" t="s">
+      <c r="S135" s="33" t="s">
         <v>1338</v>
       </c>
-      <c r="T135" s="25" t="s">
+      <c r="T135" s="33" t="s">
         <v>1339</v>
       </c>
-      <c r="U135" s="44" t="s">
+      <c r="U135" s="50" t="s">
         <v>1364</v>
       </c>
       <c r="V135" t="s">
@@ -13447,96 +13577,96 @@
       </c>
     </row>
     <row r="136" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="34" t="s">
+      <c r="A136" s="42" t="s">
         <v>1341</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="43" t="s">
         <v>1342</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C136" s="43" t="s">
         <v>1343</v>
       </c>
-      <c r="D136" s="32" t="s">
+      <c r="D136" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="E136" s="35" t="s">
+      <c r="E136" s="43" t="s">
         <v>1345</v>
       </c>
-      <c r="F136" s="35" t="s">
+      <c r="F136" s="43" t="s">
         <v>1346</v>
       </c>
-      <c r="G136" s="39" t="s">
+      <c r="G136" s="47" t="s">
         <v>1347</v>
       </c>
-      <c r="H136" s="32" t="s">
+      <c r="H136" s="27" t="s">
         <v>1365</v>
       </c>
-      <c r="M136" s="32">
+      <c r="M136" s="3">
         <v>2000</v>
       </c>
-      <c r="N136" s="37" t="s">
+      <c r="N136" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O136" s="20" t="s">
+      <c r="O136" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="P136" s="32" t="s">
+      <c r="P136" s="40" t="s">
         <v>1359</v>
       </c>
-      <c r="Q136" s="35" t="s">
+      <c r="Q136" s="43" t="s">
         <v>1355</v>
       </c>
-      <c r="R136" s="35" t="s">
+      <c r="R136" s="43" t="s">
         <v>1348</v>
       </c>
-      <c r="S136" s="35" t="s">
+      <c r="S136" s="43" t="s">
         <v>1349</v>
       </c>
-      <c r="T136" s="40" t="s">
+      <c r="T136" s="48" t="s">
         <v>1350</v>
       </c>
-      <c r="U136" s="32" t="s">
+      <c r="U136" s="27" t="s">
         <v>1365</v>
       </c>
-      <c r="V136" s="35" t="s">
+      <c r="V136" s="43" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="36" t="s">
+      <c r="A137" s="44" t="s">
         <v>1351</v>
       </c>
-      <c r="B137" s="37" t="s">
+      <c r="B137" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="C137" s="37" t="s">
+      <c r="C137" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="D137" s="32" t="s">
+      <c r="D137" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="E137" s="37" t="s">
+      <c r="E137" s="45" t="s">
         <v>1353</v>
       </c>
-      <c r="F137" s="37" t="s">
+      <c r="F137" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="G137" s="37" t="s">
+      <c r="G137" s="45" t="s">
         <v>1354</v>
       </c>
-      <c r="H137" s="32">
+      <c r="H137" s="3">
         <v>1923</v>
       </c>
-      <c r="M137" s="32">
+      <c r="M137" s="3">
         <v>2000</v>
       </c>
-      <c r="N137" s="37" t="s">
+      <c r="N137" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O137" s="20" t="s">
+      <c r="O137" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="Q137" s="37" t="s">
+      <c r="Q137" s="45" t="s">
         <v>489</v>
       </c>
       <c r="R137" t="s">
@@ -13548,15 +13678,212 @@
       <c r="T137" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="U137" s="32" t="s">
+      <c r="U137" s="27" t="s">
         <v>1366</v>
       </c>
       <c r="V137" t="s">
         <v>507</v>
       </c>
     </row>
+    <row r="138" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="51" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E138" s="51" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F138" s="51" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G138" s="43" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H138" s="3">
+        <v>1330</v>
+      </c>
+      <c r="M138" s="3">
+        <v>1427</v>
+      </c>
+      <c r="N138" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="O138" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P138" s="40" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q138" s="51" t="s">
+        <v>781</v>
+      </c>
+      <c r="R138" s="43" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S138" s="48" t="s">
+        <v>1437</v>
+      </c>
+      <c r="T138" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="U138" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="V138" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="45" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C139" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E139" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H139" s="3">
+        <v>1380</v>
+      </c>
+      <c r="M139" s="3">
+        <v>1988</v>
+      </c>
+      <c r="N139" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O139" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P139" s="40" t="s">
+        <v>1449</v>
+      </c>
+      <c r="Q139" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="R139" s="45" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="T139" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="U139" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="V139" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="51" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1329</v>
+      </c>
+      <c r="E140" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H140" s="3">
+        <v>1389</v>
+      </c>
+      <c r="N140" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O140" s="45" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P140" s="40" t="s">
+        <v>1454</v>
+      </c>
+      <c r="Q140" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="R140" s="43" t="s">
+        <v>1455</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="U140" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="V140" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="45" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D141" s="3">
+        <v>1240</v>
+      </c>
+      <c r="E141" s="45" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G141" t="s">
+        <v>506</v>
+      </c>
+      <c r="H141" s="3">
+        <v>1266</v>
+      </c>
+      <c r="M141" s="3">
+        <v>1467</v>
+      </c>
+      <c r="N141" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O141" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P141" s="40" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q141" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="R141" s="45" t="s">
+        <v>1467</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="T141" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="U141" s="3">
+        <v>1299</v>
+      </c>
+      <c r="V141" t="s">
+        <v>1464</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:V135"/>
+  <autoFilter ref="A1:V141"/>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" location="Житие_Святого_Климента"/>
     <hyperlink ref="T3" r:id="rId2"/>
@@ -13794,9 +14121,17 @@
     <hyperlink ref="T135" r:id="rId233"/>
     <hyperlink ref="T136" r:id="rId234"/>
     <hyperlink ref="T137" r:id="rId235"/>
+    <hyperlink ref="T138" r:id="rId236"/>
+    <hyperlink ref="S138" r:id="rId237"/>
+    <hyperlink ref="T139" r:id="rId238"/>
+    <hyperlink ref="S139" r:id="rId239"/>
+    <hyperlink ref="T140" r:id="rId240"/>
+    <hyperlink ref="S140" r:id="rId241"/>
+    <hyperlink ref="T141" r:id="rId242"/>
+    <hyperlink ref="S141" r:id="rId243"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId236"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId244"/>
 </worksheet>
 </file>
 

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="587"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$141</definedName>
   </definedNames>
   <calcPr calcId="124519" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -4596,27 +4596,9 @@
     <t>https://drevo-info.ru/images/003/010164.jpg</t>
   </si>
   <si>
-    <t>http://www.eparhia-ufa.ru/sites/default/files/5082_averkiy_severovostokov.jpg</t>
-  </si>
-  <si>
-    <t>http://www.eparhia-ufa.ru/sites/default/files/_1_1_0.jpg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/ru/6/63/StVarvara.jpg</t>
   </si>
   <si>
-    <t>http://www.eparhia-ufa.ru/sites/default/files/18_evgraf-evarestov_0.jpg</t>
-  </si>
-  <si>
-    <t>http://www.eparhia-ufa.ru/sites/default/files/full_1224529327.jpg</t>
-  </si>
-  <si>
-    <t>http://www.eparhia-ufa.ru/sites/default/files/bkeoacwr6gi.jpg</t>
-  </si>
-  <si>
-    <t>http://www.eparhia-ufa.ru/sites/default/files/_20120206_2003763905.jpg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/ru/1/1d/O_moiseychigvintsev.jpg</t>
   </si>
   <si>
@@ -4626,9 +4608,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/2/2c/Bishop_Simeon_Shleev.jpg</t>
   </si>
   <si>
-    <t>http://www.eparhia-ufa.ru/sites/default/files/timofey_petropavlovskiy_sshchmch_0.jpg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/8/80/Mitropolitan_Alexis_by_G.Zinovyev_%281690s%2C_GTG%29.jpg</t>
   </si>
   <si>
@@ -4713,9 +4692,6 @@
     <t>https://azbyka.ru/days/assets/img/saints/4646/p1ac4r7o9o181e1sd2sgrujo16no3.png</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/xUvgoz7UsOK7WoBwvwt-aSrT07_BR3nBROqC1OhfqUCGrC-Wz7m4jCfppLXPty_SzOLy94Y9LA0fP3AqTnJwOPp6tdznHOgux7BjABqgyi4CX0ZLIA3pjiS5b95F9LEmkDH18oAd-DoA_g-twZJRWeh9RAmkyty9n_NGIzpjJ22XETLkHf6PW0i3cA4Z-fLa1Q1P2XMdAM2XmfwBGPo6WYxLaTE9fUmXRJzqKhheDzLL1gvvO-ZCk6h5MOeik_5RW3ys253b6VNgzYs1VhL1B8pBFknsW_LO5GVj_e305Be0hAKJC318-unt4kb2WZ9gs4di9gv5Zn5UWd3QzQ9Tl4zJ6AQTnKypydhRi1zaRzWmxwR_ew9jJVDsZrbHdLbdZPI75qF81-cHhh9fS2qTZd-UV1pCJpnyXZoIMyjxHig9_P87xnsxFiD27PHDXgd8RxlzZQPFp_KMgX5Oj0p9khKBXVOSFyPgH7s9HHcfQWt-tjc3nZON5L_34X8CRA01d4YVXoIknouXuiH_g14Fnh0WKDxHuYI3NyMbuabJdCoZx37WzX9guqbwXNo0ljc5C6byr7-pfWqBwQ_7MS5V9ipXIUdN239LTwjX1fs5G6rKGtvN4nNRThud737niJZ1IdBCXcmkiWlX11g02rTsGRwbT2NLujQO=w520-h150-no</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/1/14/%D0%9F%D1%80%D0%BF._%D0%90%D0%BD%D1%82%D0%BE%D0%BD%D0%B8%D0%B9_%D0%9A%D1%80%D0%B0%D1%81%D0%BD%D0%BE%D1%85%D0%BE%D0%BB%D0%BC%D1%81%D0%BA%D0%B8%D0%B9.jpg</t>
   </si>
   <si>
@@ -5073,9 +5049,6 @@
     <t>Архиепископство, мученичество</t>
   </si>
   <si>
-    <t>https://www.google.com/search?q=%D0%B0%D0%BB%D0%B5%D0%BA%D1%81%D0%B0%D0%BD%D0%B4%D1%80+%D1%84%D0%B5%D0%BE%D1%84%D0%B0%D0%BD%D0%BE%D0%B2%D0%B8%D1%87+%D0%BF%D0%B5%D1%82%D1%80%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9&amp;sxsrf=ALeKk035AKkHbB-5Ge59CsuLdtVHUQrOIQ:1612688437485&amp;tbm=isch&amp;source=iu&amp;ictx=1&amp;fir=xVDKnUMpF29aiM%252CxpwqsKPZlXDbhM%252C_&amp;vet=1&amp;usg=AI4_-kQ7s-J3YygphSvOGvJ1dO_To65yzg&amp;sa=X&amp;ved=2ahUKEwi9_8vLtNfuAhXrmIsKHVtfD7UQ9QF6BAgJEAE#imgrc=xVDKnUMpF29aiM</t>
-  </si>
-  <si>
     <t>Ястребов</t>
   </si>
   <si>
@@ -5103,9 +5076,6 @@
     <t>https://ru.wikipedia.org/wiki/%D0%98%D0%BD%D0%BD%D0%BE%D0%BA%D0%B5%D0%BD%D1%82%D0%B8%D0%B9_(%D0%AF%D1%81%D1%82%D1%80%D0%B5%D0%B1%D0%BE%D0%B2)</t>
   </si>
   <si>
-    <t>https://commons.wikimedia.org/wiki/File:%D0%95%D0%BF%D0%B8%D1%81%D0%BA%D0%BE%D0%BF_%D0%9A%D0%B0%D0%BD%D0%B5%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D0%98%D0%BD%D0%BD%D0%BE%D0%BA%D0%B5%D0%BD%D1%82%D0%B8%D0%B9.jpg?uselang=ru</t>
-  </si>
-  <si>
     <t>г. Москва</t>
   </si>
   <si>
@@ -5136,9 +5106,6 @@
     <t>https://bessmertnybarak.ru/Buzov_Iosif_Petrovich/</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/MN7VbtAMfrEDV-RZR0l234bPbEGoK3tsFwG1Kl_SlxYlFapV78pRk5Jgkt0nAgiqvx-jtR4=s85</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ермаков </t>
   </si>
   <si>
@@ -5158,9 +5125,6 @@
   </si>
   <si>
     <t>Родился 31/07/1862 в Санкт-Петербурге. Окончил Киевскую духовную академию. В 1887 г пострижен в моншество и посвящен в сан иеромонаха. На протяжении 11 лет преподавал в духовных учебных заведениях.</t>
-  </si>
-  <si>
-    <t>https://commons.wikimedia.org/wiki/File:%D0%9C%D0%B8%D1%85%D0%B0%D0%B8%D0%BB_(%D0%95%D1%80%D0%BC%D0%B0%D0%BA%D0%BE%D0%B2).jpg?uselang=ru</t>
   </si>
   <si>
     <t>06.10</t>
@@ -5508,20 +5472,56 @@
     <t>Ярославль</t>
   </si>
   <si>
-    <t xml:space="preserve">https://yargid.ru/uploads/images/00/00/01/2014/11/10/eaa208.jpg </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://ru.wikipedia.org/wiki/Фёдор_Ростиславич_Чёрный </t>
   </si>
   <si>
     <t>Фёдор Ростисла́вич Чёрный (Чермный) (около 1240 или 1 сентября 1233 — 1299) — князь ярославский, можайский и великий князь смоленский. Прозвище Чермный означает как рыжий, так и красивый. В период с не ранее 1266 по 1276 год, возможно, пребывал в Золотой Орде, где, по легенде, по мнению Евгения Ермолина, его полюбила ханша Джиджекхатунь и благоволил хан Менгу-Тимур, они сватали свою дочь за него, несмотря на живую жену. Анастасия вскоре умерла, Фёдор пытался вернуться в Ярославль, но этому воспротивилась княгиня Ксения с боярами, объявившие князем малолетнего Михаила. Фёдор, оставшись в Орде, женился второй раз, на дочери хана, в православии Анне, получив за неё большое приданое (36 городов) и большой почёт у монголов. Родились сыновья Давид и Константин, в то время как старший сын Михаил умер в Ярославле. После этого Фёдор с семьёй отъехал в Ярославль с ханским ярлыком на княжение.</t>
+  </si>
+  <si>
+    <t>http://www.rlib.yar.ru/_yar_bibliography/photo/04/02_02.jpg</t>
+  </si>
+  <si>
+    <t>http://www.logoslovo.ru/media/pic_middle/21/64633.jpg</t>
+  </si>
+  <si>
+    <t>http://xram-kusa.cerkov.ru/files/2018/02/%D1%81%D0%B2%D1%89.%D0%BC%D1%87.%D0%90%D0%BB%D0%B5%D0%BA%D1%81%D0%B8%D0%B9-%D0%9A%D0%B0%D0%BD%D1%86%D0%B5%D1%80%D0%BE%D0%B2-2.jpg</t>
+  </si>
+  <si>
+    <t>https://drevo-info.ru/images/002/007795.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/7/78/JatsenkoK.jpg</t>
+  </si>
+  <si>
+    <t>https://ic.pics.livejournal.com/kostryukov/41217450/122066/122066_original.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pravchelny.ru/www/images/2013/8/margarita_431.jpg</t>
+  </si>
+  <si>
+    <t>https://azbyka.ru/days/assets/img/saints/201/p1e05mhrq4195kr03nvm183eigv5.jpg</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/xUvgoz7UsOK7WoBwvwt-aSrT07_BR3nBROqC1OhfqUCGrC-Wz7m4jCfppLXPty_SzOLy94Y9LA0fP3AqTnJwOPp6tdznHOgux7BjABqgyi4CX0ZLIA3pjiS5b95F9LEmkDH18oAd-DoA_g-twZJRWeh9RAmkyty9n_NGIzpjJ22XETLkHf6PW0i3cA4Z-fLa1Q1P2XMdAM2XmfwBGPo6WYxLaTE9fUmXRJzqKhheDzLL1gvvO-ZCk6h5MOeik_5RW3ys253b6VNgzYs1VhL1B8pBFknsW_LO5GVj_e305Be0hAKJC318-unt4kb2WZ9gs4di9gv5Zn5UWd3QzQ9Tl4zJ6AQTnKypydhRi1zaRzWmxwR_ew9jJVDsZrbHdLbdZPI75qF81-cHhh9fS2qTZd-UV1pCJpnyXZoIMyjxHig9_P87xnsxFiD27PHDXgd8RxlzZQPFp_KMgX5Oj0p9khKBXVOSFyPgH7s9HHcfQWt-tjc3nZON5L_34X8CRA01d4YVXoIknouXuiH_g14Fnh0WKDxHuYI3NyMbuabJdCoZx37WzX9guqbwXNo0ljc5C6byr7-pfWqBwQ_7MS5V9ipXIUdN239LTwjX1fs5G6rKGtvN4nNRThud737niJZ1IdBCXcmkiWlX11g02rTsGRwbT2NLujQO=w520-h739-no</t>
+  </si>
+  <si>
+    <t>https://bessmertnybarak.ru/filesSt/2294_Buzov_Iosif_Petrovich/foto_1445330877.jpg</t>
+  </si>
+  <si>
+    <t>http://213.171.53.29/foto_1/ob7-21a.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/49/%D0%95%D0%BF%D0%B8%D1%81%D0%BA%D0%BE%D0%BF_%D0%9A%D0%B0%D0%BD%D0%B5%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D0%98%D0%BD%D0%BD%D0%BE%D0%BA%D0%B5%D0%BD%D1%82%D0%B8%D0%B9.jpg?uselang=ru</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/8/8e/%D0%9C%D0%B8%D1%85%D0%B0%D0%B8%D0%BB_%28%D0%95%D1%80%D0%BC%D0%B0%D0%BA%D0%BE%D0%B2%29.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5707,7 +5707,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5810,6 +5810,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -5873,7 +5874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5908,7 +5909,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6085,22 +6086,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V141"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T146" sqref="T146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
@@ -6119,7 +6120,7 @@
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24.95" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="P1" s="40" t="s">
         <v>10</v>
@@ -6187,7 +6188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="24.95" customHeight="1">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>33</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
@@ -6234,7 +6235,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="24.95" customHeight="1">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -6266,10 +6267,10 @@
         <v>26</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -6287,7 +6288,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="24.95" customHeight="1">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>33</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -6328,7 +6329,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="24.95" customHeight="1">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="24.95" customHeight="1">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="24.95" customHeight="1">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>53</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="Q7" t="s">
         <v>56</v>
@@ -6466,7 +6467,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="24.95" customHeight="1">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="24.95" customHeight="1">
       <c r="B9" t="s">
         <v>62</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>53</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
@@ -6548,7 +6549,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="24.95" customHeight="1">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="24.95" customHeight="1">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -6621,10 +6622,10 @@
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="Q11" t="s">
         <v>74</v>
@@ -6645,7 +6646,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="24.95" customHeight="1">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>53</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="Q12" t="s">
         <v>56</v>
@@ -6686,7 +6687,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="24.95" customHeight="1">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>84</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>1080</v>
@@ -6718,7 +6719,7 @@
         <v>26</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="Q13" t="s">
         <v>85</v>
@@ -6730,16 +6731,16 @@
         <v>87</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="V13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="24.95" customHeight="1">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="Q14" t="s">
         <v>91</v>
@@ -6777,7 +6778,7 @@
         <v>93</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="U14" s="3">
         <v>1125</v>
@@ -6786,7 +6787,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="24.95" customHeight="1">
       <c r="B15" t="s">
         <v>94</v>
       </c>
@@ -6809,7 +6810,7 @@
         <v>96</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="M15" s="3">
         <v>1204</v>
@@ -6821,7 +6822,7 @@
         <v>53</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="Q15" t="s">
         <v>97</v>
@@ -6833,7 +6834,7 @@
         <v>99</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="U15" s="3">
         <v>1200</v>
@@ -6842,7 +6843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="24.95" customHeight="1">
       <c r="B16" t="s">
         <v>101</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>33</v>
       </c>
       <c r="P16" s="40" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="Q16" t="s">
         <v>103</v>
@@ -6883,7 +6884,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>33</v>
       </c>
       <c r="P17" s="41" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>111</v>
@@ -6940,7 +6941,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="24.95" customHeight="1">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>33</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="Q18" t="s">
         <v>116</v>
@@ -6987,7 +6988,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="B19" s="4" t="s">
         <v>119</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>53</v>
       </c>
       <c r="P19" s="41" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>123</v>
@@ -7038,7 +7039,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="24.95" customHeight="1">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="Q20" t="s">
         <v>129</v>
@@ -7103,7 +7104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
@@ -7131,7 +7132,7 @@
         <v>33</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>133</v>
@@ -7149,7 +7150,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="24.95" customHeight="1">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -7172,7 +7173,7 @@
         <v>138</v>
       </c>
       <c r="O22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P22" s="40" t="s">
         <v>755</v>
@@ -7193,7 +7194,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>142</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="41" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>23</v>
@@ -7253,7 +7254,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="24.95" customHeight="1">
       <c r="B24" t="s">
         <v>149</v>
       </c>
@@ -7282,10 +7283,10 @@
         <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="Q24" t="s">
         <v>150</v>
@@ -7303,7 +7304,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="24.95" customHeight="1">
       <c r="B25" s="4" t="s">
         <v>153</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>53</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>154</v>
@@ -7352,7 +7353,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="24.95" customHeight="1">
       <c r="B26" t="s">
         <v>157</v>
       </c>
@@ -7375,10 +7376,10 @@
         <v>158</v>
       </c>
       <c r="O26" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P26" s="40" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>159</v>
@@ -7396,7 +7397,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="24.95" customHeight="1">
       <c r="B27" t="s">
         <v>161</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>33</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="Q27" t="s">
         <v>165</v>
@@ -7452,7 +7453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="24.95" customHeight="1">
       <c r="A28" t="s">
         <v>169</v>
       </c>
@@ -7481,7 +7482,7 @@
         <v>171</v>
       </c>
       <c r="O28" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P28" s="40" t="s">
         <v>736</v>
@@ -7505,7 +7506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="24.95" customHeight="1">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>1072</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="N29" t="s">
         <v>39</v>
@@ -7543,7 +7544,7 @@
         <v>33</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="Q29" t="s">
         <v>179</v>
@@ -7564,7 +7565,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="24.95" customHeight="1">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -7587,22 +7588,22 @@
         <v>1074</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="N30" t="s">
         <v>171</v>
       </c>
       <c r="O30" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P30" s="40" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="Q30" t="s">
         <v>185</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>186</v>
@@ -7611,10 +7612,10 @@
         <v>1139</v>
       </c>
       <c r="U30" s="27" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="24.95" customHeight="1">
       <c r="A31" t="s">
         <v>187</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>188</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="E31" t="s">
         <v>423</v>
@@ -7637,7 +7638,7 @@
         <v>1074</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="N31" t="s">
         <v>53</v>
@@ -7646,7 +7647,7 @@
         <v>53</v>
       </c>
       <c r="P31" s="40" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="Q31" t="s">
         <v>56</v>
@@ -7661,13 +7662,13 @@
         <v>192</v>
       </c>
       <c r="U31" s="27" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="V31" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="24.95" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>193</v>
@@ -7706,7 +7707,7 @@
         <v>33</v>
       </c>
       <c r="P32" s="41" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>197</v>
@@ -7727,7 +7728,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="24.95" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>200</v>
@@ -7758,7 +7759,7 @@
         <v>33</v>
       </c>
       <c r="P33" s="41" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>197</v>
@@ -7779,7 +7780,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="24.95" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>203</v>
@@ -7812,7 +7813,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="41" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>204</v>
@@ -7833,7 +7834,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="24.95" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>207</v>
@@ -7863,10 +7864,10 @@
         <v>73</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P35" s="41" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>73</v>
@@ -7887,7 +7888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="24.95" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>210</v>
@@ -7918,7 +7919,7 @@
         <v>33</v>
       </c>
       <c r="P36" s="41" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>211</v>
@@ -7939,7 +7940,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="24.95" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>214</v>
@@ -7974,7 +7975,7 @@
         <v>33</v>
       </c>
       <c r="P37" s="41" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>23</v>
@@ -7995,7 +7996,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="24.95" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>217</v>
@@ -8055,7 +8056,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="24.95" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>222</v>
@@ -8086,7 +8087,7 @@
         <v>33</v>
       </c>
       <c r="P39" s="41" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>103</v>
@@ -8107,7 +8108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="24.95" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>226</v>
@@ -8138,7 +8139,7 @@
         <v>33</v>
       </c>
       <c r="P40" s="41" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>228</v>
@@ -8159,7 +8160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="24.95" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>231</v>
@@ -8190,7 +8191,7 @@
         <v>33</v>
       </c>
       <c r="P41" s="41" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>232</v>
@@ -8211,7 +8212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="24.95" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>235</v>
@@ -8250,7 +8251,7 @@
         <v>53</v>
       </c>
       <c r="P42" s="41" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="Q42" s="4" t="s">
         <v>236</v>
@@ -8271,7 +8272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="24.95" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>239</v>
@@ -8310,7 +8311,7 @@
         <v>33</v>
       </c>
       <c r="P43" s="41" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>211</v>
@@ -8331,7 +8332,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="24.95" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>242</v>
@@ -8366,7 +8367,7 @@
         <v>33</v>
       </c>
       <c r="P44" s="41" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>204</v>
@@ -8387,7 +8388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="24.95" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>245</v>
@@ -8420,7 +8421,7 @@
         <v>53</v>
       </c>
       <c r="P45" s="41" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>248</v>
@@ -8441,7 +8442,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="24.95" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>251</v>
@@ -8477,10 +8478,10 @@
         <v>252</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P46" s="41" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>253</v>
@@ -8501,7 +8502,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="24.95" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>256</v>
       </c>
@@ -8531,10 +8532,10 @@
         <v>258</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P47" s="41" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>259</v>
@@ -8555,7 +8556,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="24.95" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>262</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>53</v>
       </c>
       <c r="P48" s="41" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>264</v>
@@ -8611,7 +8612,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="24.95" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>267</v>
@@ -8652,7 +8653,7 @@
         <v>33</v>
       </c>
       <c r="P49" s="41" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>270</v>
@@ -8673,7 +8674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="24.95" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>273</v>
@@ -8697,10 +8698,10 @@
         <v>274</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P50" s="41" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>150</v>
@@ -8721,7 +8722,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="24.95" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>277</v>
       </c>
@@ -8775,7 +8776,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="24.95" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>283</v>
@@ -8803,10 +8804,10 @@
         <v>284</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P52" s="41" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>285</v>
@@ -8827,7 +8828,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="24.95" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>288</v>
       </c>
@@ -8855,16 +8856,16 @@
       <c r="K53" s="4"/>
       <c r="L53" s="7"/>
       <c r="M53" s="10" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>138</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P53" s="41" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="Q53" s="4" t="s">
         <v>290</v>
@@ -8885,7 +8886,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="24.95" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>293</v>
@@ -8913,10 +8914,10 @@
         <v>26</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P54" s="41" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="Q54" s="4" t="s">
         <v>297</v>
@@ -8937,7 +8938,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="24.95" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>296</v>
@@ -8965,10 +8966,10 @@
         <v>284</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P55" s="41" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="Q55" s="4" t="s">
         <v>298</v>
@@ -8989,7 +8990,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="24.95" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>301</v>
       </c>
@@ -9019,16 +9020,16 @@
         <v>374</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>171</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P56" s="41" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="Q56" s="4" t="s">
         <v>303</v>
@@ -9049,7 +9050,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="24.95" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>306</v>
@@ -9079,7 +9080,7 @@
         <v>26</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P57" s="41" t="s">
         <v>622</v>
@@ -9103,7 +9104,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="24.95" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>310</v>
@@ -9131,7 +9132,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="7"/>
       <c r="M58" s="10" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>53</v>
@@ -9140,7 +9141,7 @@
         <v>53</v>
       </c>
       <c r="P58" s="41" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>311</v>
@@ -9161,7 +9162,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="24.95" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
         <v>314</v>
@@ -9194,7 +9195,7 @@
         <v>33</v>
       </c>
       <c r="P59" s="41" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="Q59" s="7"/>
       <c r="R59" s="11" t="s">
@@ -9213,7 +9214,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="24.95" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>388</v>
       </c>
@@ -9271,11 +9272,11 @@
         <v>1168</v>
       </c>
       <c r="U60" s="10" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="V60" s="4"/>
     </row>
-    <row r="61" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="24.95" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>322</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>1956</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>39</v>
@@ -9320,7 +9321,7 @@
         <v>33</v>
       </c>
       <c r="P61" s="41" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>204</v>
@@ -9335,13 +9336,13 @@
         <v>1169</v>
       </c>
       <c r="U61" s="10" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="V61" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="24.95" customHeight="1">
       <c r="A62" t="s">
         <v>512</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>171</v>
       </c>
       <c r="O62" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P62" s="40" t="s">
         <v>516</v>
@@ -9382,16 +9383,16 @@
         <v>518</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>1170</v>
+        <v>1456</v>
       </c>
       <c r="U62" s="27" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="V62" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="24.95" customHeight="1">
       <c r="A63" t="s">
         <v>519</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>171</v>
       </c>
       <c r="O63" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P63" s="40" t="s">
         <v>522</v>
@@ -9432,13 +9433,13 @@
         <v>524</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>1171</v>
+        <v>1457</v>
       </c>
       <c r="U63" s="27" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="24.95" customHeight="1">
       <c r="A64" t="s">
         <v>525</v>
       </c>
@@ -9488,13 +9489,13 @@
         <v>536</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="U64" s="27" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="24.95" customHeight="1">
       <c r="A65" t="s">
         <v>537</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>171</v>
       </c>
       <c r="O65" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P65" s="40" t="s">
         <v>541</v>
@@ -9538,13 +9539,13 @@
         <v>543</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>1173</v>
+        <v>1458</v>
       </c>
       <c r="U65" s="27" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="24.95" customHeight="1">
       <c r="A66" t="s">
         <v>544</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>26</v>
       </c>
       <c r="O66" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P66" s="40" t="s">
         <v>549</v>
@@ -9588,13 +9589,13 @@
         <v>552</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>1174</v>
+        <v>1459</v>
       </c>
       <c r="U66" s="3">
         <v>1935</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="24.95" customHeight="1">
       <c r="A67" t="s">
         <v>553</v>
       </c>
@@ -9638,7 +9639,7 @@
         <v>138</v>
       </c>
       <c r="O67" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P67" s="40" t="s">
         <v>549</v>
@@ -9653,13 +9654,13 @@
         <v>559</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>1175</v>
+        <v>1460</v>
       </c>
       <c r="U67" s="3">
         <v>1934</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="24.95" customHeight="1">
       <c r="A68" t="s">
         <v>560</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>138</v>
       </c>
       <c r="O68" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P68" s="40" t="s">
         <v>549</v>
@@ -9718,7 +9719,7 @@
         <v>567</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>1176</v>
+        <v>1461</v>
       </c>
       <c r="U68" s="3">
         <v>1918</v>
@@ -9727,7 +9728,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="24.95" customHeight="1">
       <c r="A69" t="s">
         <v>569</v>
       </c>
@@ -9738,7 +9739,7 @@
         <v>430</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="E69" t="s">
         <v>593</v>
@@ -9774,16 +9775,16 @@
         <v>573</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="U69" s="27" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="V69" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="24.95" customHeight="1">
       <c r="A70" t="s">
         <v>575</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>171</v>
       </c>
       <c r="O70" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P70" s="40" t="s">
         <v>549</v>
@@ -9827,16 +9828,16 @@
         <v>579</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="U70" s="27" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="V70" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="24.95" customHeight="1">
       <c r="A71" t="s">
         <v>581</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>171</v>
       </c>
       <c r="O71" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P71" s="40" t="s">
         <v>549</v>
@@ -9889,13 +9890,13 @@
         <v>585</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="U71" s="27" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="24.95" customHeight="1">
       <c r="A72" t="s">
         <v>586</v>
       </c>
@@ -9924,7 +9925,7 @@
         <v>171</v>
       </c>
       <c r="O72" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P72" s="40" t="s">
         <v>549</v>
@@ -9939,13 +9940,13 @@
         <v>590</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>1180</v>
+        <v>1462</v>
       </c>
       <c r="U72" s="27" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="24.95" customHeight="1">
       <c r="A73" t="s">
         <v>511</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>424</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="U73" s="3" t="s">
         <v>1106</v>
@@ -10007,7 +10008,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="24.95" customHeight="1">
       <c r="A74" t="s">
         <v>503</v>
       </c>
@@ -10045,16 +10046,16 @@
         <v>1902</v>
       </c>
       <c r="M74" s="27" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="N74" t="s">
         <v>171</v>
       </c>
       <c r="O74" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P74" s="40" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="Q74" t="s">
         <v>489</v>
@@ -10066,13 +10067,13 @@
         <v>424</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="U74" s="27" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="24.95" customHeight="1">
       <c r="A75" t="s">
         <v>495</v>
       </c>
@@ -10116,7 +10117,7 @@
         <v>171</v>
       </c>
       <c r="O75" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P75" s="40" t="s">
         <v>490</v>
@@ -10131,13 +10132,13 @@
         <v>424</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="U75" s="27" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="24.95" customHeight="1">
       <c r="A76" t="s">
         <v>487</v>
       </c>
@@ -10181,7 +10182,7 @@
         <v>171</v>
       </c>
       <c r="O76" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P76" s="40" t="s">
         <v>427</v>
@@ -10196,13 +10197,13 @@
         <v>424</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="U76" s="27" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="24.95" customHeight="1">
       <c r="A77" t="s">
         <v>480</v>
       </c>
@@ -10246,7 +10247,7 @@
         <v>171</v>
       </c>
       <c r="O77" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P77" s="40" t="s">
         <v>474</v>
@@ -10261,16 +10262,16 @@
         <v>424</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="U77" s="27" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="V77" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="24.95" customHeight="1">
       <c r="A78" t="s">
         <v>470</v>
       </c>
@@ -10299,7 +10300,7 @@
         <v>171</v>
       </c>
       <c r="O78" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P78" s="40" t="s">
         <v>427</v>
@@ -10314,13 +10315,13 @@
         <v>424</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="U78" s="27" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="24.95" customHeight="1">
       <c r="A79" t="s">
         <v>467</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>171</v>
       </c>
       <c r="O79" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P79" s="40" t="s">
         <v>455</v>
@@ -10373,13 +10374,13 @@
         <v>424</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="U79" s="27" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="24.95" customHeight="1">
       <c r="A80" t="s">
         <v>460</v>
       </c>
@@ -10414,7 +10415,7 @@
         <v>26</v>
       </c>
       <c r="O80" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P80" s="40" t="s">
         <v>455</v>
@@ -10429,13 +10430,13 @@
         <v>453</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="U80" s="27" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="24.95" customHeight="1">
       <c r="A81" t="s">
         <v>452</v>
       </c>
@@ -10479,16 +10480,16 @@
         <v>444</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="U81" s="27" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="V81" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="24.95" customHeight="1">
       <c r="A82" t="s">
         <v>442</v>
       </c>
@@ -10538,7 +10539,7 @@
         <v>434</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="U82" s="3">
         <v>1900</v>
@@ -10547,7 +10548,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="24.95" customHeight="1">
       <c r="A83" t="s">
         <v>432</v>
       </c>
@@ -10591,13 +10592,13 @@
         <v>424</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="U83" s="3">
         <v>1925</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="24.95" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>595</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>596</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="E84" s="14" t="s">
         <v>597</v>
@@ -10631,7 +10632,7 @@
       <c r="K84" s="4"/>
       <c r="L84" s="7"/>
       <c r="M84" s="10" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>53</v>
@@ -10652,7 +10653,7 @@
         <v>605</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="U84" s="7" t="s">
         <v>606</v>
@@ -10661,7 +10662,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="24.95" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>607</v>
       </c>
@@ -10714,7 +10715,7 @@
         <v>615</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="U85" s="7" t="s">
         <v>1107</v>
@@ -10723,7 +10724,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="24.95" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>616</v>
@@ -10753,7 +10754,7 @@
       <c r="K86" s="4"/>
       <c r="L86" s="7"/>
       <c r="M86" s="10" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>39</v>
@@ -10774,7 +10775,7 @@
         <v>624</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="U86" s="7" t="s">
         <v>625</v>
@@ -10783,7 +10784,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="24.95" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>627</v>
       </c>
@@ -10813,7 +10814,7 @@
       <c r="K87" s="4"/>
       <c r="L87" s="7"/>
       <c r="M87" s="10" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>53</v>
@@ -10834,7 +10835,7 @@
         <v>637</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="U87" s="7" t="s">
         <v>638</v>
@@ -10843,7 +10844,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" ht="24.95" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>640</v>
       </c>
@@ -10873,7 +10874,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="7"/>
       <c r="M88" s="10" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>53</v>
@@ -10892,16 +10893,16 @@
         <v>649</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="U88" s="10" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="V88" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="24.95" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>650</v>
       </c>
@@ -10936,10 +10937,10 @@
         <v>656</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="N89" s="4" t="s">
         <v>39</v>
@@ -10960,7 +10961,7 @@
         <v>659</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="U89" s="7" t="s">
         <v>660</v>
@@ -10969,7 +10970,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" ht="24.95" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>662</v>
       </c>
@@ -11007,7 +11008,7 @@
         <v>672</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="N90" s="4" t="s">
         <v>39</v>
@@ -11028,16 +11029,16 @@
         <v>675</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="U90" s="10" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="V90" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="24.95" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>676</v>
@@ -11065,7 +11066,7 @@
         <v>26</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P91" s="41" t="s">
         <v>679</v>
@@ -11078,14 +11079,14 @@
         <v>681</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="U91" s="7" t="s">
         <v>1108</v>
       </c>
       <c r="V91" s="7"/>
     </row>
-    <row r="92" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="24.95" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>682</v>
@@ -11131,7 +11132,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="24.95" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>686</v>
@@ -11157,7 +11158,7 @@
         <v>26</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P93" s="41" t="s">
         <v>687</v>
@@ -11170,7 +11171,7 @@
         <v>689</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="U93" s="7">
         <v>269</v>
@@ -11179,7 +11180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="24.95" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>690</v>
@@ -11207,7 +11208,7 @@
         <v>73</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P94" s="41" t="s">
         <v>691</v>
@@ -11220,7 +11221,7 @@
         <v>693</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="U94" s="7">
         <v>304</v>
@@ -11229,7 +11230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="24.95" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>694</v>
       </c>
@@ -11267,13 +11268,13 @@
         <v>1930</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="N95" s="4" t="s">
         <v>701</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P95" s="41" t="s">
         <v>702</v>
@@ -11288,7 +11289,7 @@
         <v>705</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="U95" s="7">
         <v>1937</v>
@@ -11297,7 +11298,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" ht="24.95" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>706</v>
@@ -11340,7 +11341,7 @@
         <v>713</v>
       </c>
       <c r="T96" s="33" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="U96" s="7" t="s">
         <v>714</v>
@@ -11349,7 +11350,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" ht="24.95" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>716</v>
       </c>
@@ -11389,7 +11390,7 @@
         <v>171</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P97" s="41" t="s">
         <v>722</v>
@@ -11404,14 +11405,14 @@
         <v>724</v>
       </c>
       <c r="T97" s="33" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="U97" s="7">
         <v>1937</v>
       </c>
       <c r="V97" s="7"/>
     </row>
-    <row r="98" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" ht="24.95" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>725</v>
@@ -11437,7 +11438,7 @@
         <v>171</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P98" s="41" t="s">
         <v>727</v>
@@ -11459,7 +11460,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" ht="24.95" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>730</v>
@@ -11485,7 +11486,7 @@
         <v>26</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P99" s="41" t="s">
         <v>732</v>
@@ -11498,14 +11499,14 @@
         <v>734</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="U99" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="V99" s="7"/>
     </row>
-    <row r="100" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" ht="24.95" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>735</v>
@@ -11527,7 +11528,7 @@
         <v>26</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P100" s="41" t="s">
         <v>736</v>
@@ -11547,7 +11548,7 @@
       </c>
       <c r="V100" s="7"/>
     </row>
-    <row r="101" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" ht="24.95" customHeight="1">
       <c r="B101" t="s">
         <v>742</v>
       </c>
@@ -11558,7 +11559,7 @@
         <v>171</v>
       </c>
       <c r="O101" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P101" s="40" t="s">
         <v>743</v>
@@ -11579,7 +11580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="24.95" customHeight="1">
       <c r="B102" t="s">
         <v>746</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>171</v>
       </c>
       <c r="O102" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P102" s="40" t="s">
         <v>747</v>
@@ -11605,11 +11606,11 @@
         <v>749</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="24.95" customHeight="1">
       <c r="B103" t="s">
         <v>750</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>171</v>
       </c>
       <c r="O103" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P103" s="40" t="s">
         <v>751</v>
@@ -11635,11 +11636,11 @@
         <v>753</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="24.95" customHeight="1">
       <c r="B104" t="s">
         <v>754</v>
       </c>
@@ -11665,14 +11666,14 @@
         <v>757</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="U104" s="3">
         <v>470</v>
       </c>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="24.95" customHeight="1">
       <c r="A105" s="18" t="s">
         <v>758</v>
       </c>
@@ -11700,7 +11701,7 @@
       <c r="K105" s="19"/>
       <c r="L105" s="25"/>
       <c r="M105" s="31" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="N105" s="19" t="s">
         <v>532</v>
@@ -11709,7 +11710,7 @@
         <v>53</v>
       </c>
       <c r="P105" s="30" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="Q105" s="19" t="s">
         <v>764</v>
@@ -11717,11 +11718,11 @@
       <c r="R105" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="S105" s="19" t="s">
+      <c r="S105" s="32" t="s">
         <v>766</v>
       </c>
-      <c r="T105" s="19" t="s">
-        <v>1209</v>
+      <c r="T105" s="36" t="s">
+        <v>1463</v>
       </c>
       <c r="U105" s="25" t="s">
         <v>1109</v>
@@ -11730,7 +11731,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="24.95" customHeight="1">
       <c r="A106" s="21" t="s">
         <v>768</v>
       </c>
@@ -11763,19 +11764,19 @@
         <v>773</v>
       </c>
       <c r="L106" s="26" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="M106" s="24" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="N106" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O106" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P106" s="29" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="Q106" s="22" t="s">
         <v>774</v>
@@ -11790,11 +11791,11 @@
         <v>777</v>
       </c>
       <c r="U106" s="24" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="V106" s="23"/>
     </row>
-    <row r="107" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" ht="24.95" customHeight="1">
       <c r="A107" s="18"/>
       <c r="B107" s="19" t="s">
         <v>778</v>
@@ -11825,7 +11826,7 @@
         <v>53</v>
       </c>
       <c r="P107" s="30" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="Q107" s="19" t="s">
         <v>781</v>
@@ -11834,17 +11835,17 @@
         <v>782</v>
       </c>
       <c r="S107" s="32" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="T107" s="32" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="U107" s="25" t="s">
         <v>1110</v>
       </c>
       <c r="V107" s="20"/>
     </row>
-    <row r="108" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" ht="24.95" customHeight="1">
       <c r="A108" s="21" t="s">
         <v>783</v>
       </c>
@@ -11888,10 +11889,10 @@
         <v>171</v>
       </c>
       <c r="O108" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P108" s="29" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="Q108" s="22" t="s">
         <v>791</v>
@@ -11903,16 +11904,16 @@
         <v>793</v>
       </c>
       <c r="T108" s="34" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="U108" s="24" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="V108" s="23" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="24.95" customHeight="1">
       <c r="A109" s="18" t="s">
         <v>794</v>
       </c>
@@ -11950,16 +11951,16 @@
         <v>801</v>
       </c>
       <c r="M109" s="31" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="N109" s="19" t="s">
         <v>171</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P109" s="30" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="Q109" s="19" t="s">
         <v>802</v>
@@ -11971,14 +11972,14 @@
         <v>804</v>
       </c>
       <c r="T109" s="32" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="U109" s="31" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="V109" s="20"/>
     </row>
-    <row r="110" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="24.95" customHeight="1">
       <c r="A110" s="21" t="s">
         <v>805</v>
       </c>
@@ -12012,10 +12013,10 @@
         <v>258</v>
       </c>
       <c r="O110" s="35" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P110" s="29" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="Q110" s="22" t="s">
         <v>810</v>
@@ -12027,7 +12028,7 @@
         <v>812</v>
       </c>
       <c r="T110" s="34" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="U110" s="26" t="s">
         <v>1111</v>
@@ -12036,7 +12037,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" ht="24.95" customHeight="1">
       <c r="A111" s="18" t="s">
         <v>814</v>
       </c>
@@ -12069,19 +12070,19 @@
         <v>819</v>
       </c>
       <c r="L111" s="25" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="M111" s="31" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="N111" s="19" t="s">
         <v>171</v>
       </c>
       <c r="O111" s="19" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P111" s="30" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="Q111" s="19" t="s">
         <v>774</v>
@@ -12093,16 +12094,16 @@
         <v>821</v>
       </c>
       <c r="T111" s="32" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="U111" s="31" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="V111" s="20" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" ht="24.95" customHeight="1">
       <c r="A112" s="21" t="s">
         <v>823</v>
       </c>
@@ -12140,16 +12141,16 @@
         <v>831</v>
       </c>
       <c r="M112" s="24" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="N112" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O112" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P112" s="29" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="Q112" s="22" t="s">
         <v>802</v>
@@ -12161,16 +12162,16 @@
         <v>833</v>
       </c>
       <c r="T112" s="34" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="U112" s="24" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="V112" s="23" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" ht="24.95" customHeight="1">
       <c r="A113" s="18" t="s">
         <v>834</v>
       </c>
@@ -12208,10 +12209,10 @@
         <v>258</v>
       </c>
       <c r="O113" s="36" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P113" s="30" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="Q113" s="19" t="s">
         <v>810</v>
@@ -12223,7 +12224,7 @@
         <v>840</v>
       </c>
       <c r="T113" s="32" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="U113" s="25" t="s">
         <v>1111</v>
@@ -12232,7 +12233,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" ht="24.95" customHeight="1">
       <c r="A114" s="21" t="s">
         <v>841</v>
       </c>
@@ -12267,10 +12268,10 @@
         <v>847</v>
       </c>
       <c r="L114" s="26" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="M114" s="24" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="N114" s="22" t="s">
         <v>39</v>
@@ -12291,16 +12292,16 @@
         <v>851</v>
       </c>
       <c r="T114" s="34" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="U114" s="24" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="V114" s="23" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" ht="24.95" customHeight="1">
       <c r="A115" s="18" t="s">
         <v>852</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>33</v>
       </c>
       <c r="P115" s="30" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="Q115" s="19" t="s">
         <v>856</v>
@@ -12347,7 +12348,7 @@
         <v>858</v>
       </c>
       <c r="T115" s="32" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="U115" s="25" t="s">
         <v>1112</v>
@@ -12356,7 +12357,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" ht="24.95" customHeight="1">
       <c r="A116" s="21" t="s">
         <v>859</v>
       </c>
@@ -12383,21 +12384,21 @@
         <v>863</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="K116" s="22"/>
       <c r="L116" s="26"/>
       <c r="M116" s="24" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="N116" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O116" s="35" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P116" s="29" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="Q116" s="22" t="s">
         <v>774</v>
@@ -12409,16 +12410,16 @@
         <v>865</v>
       </c>
       <c r="T116" s="34" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="U116" s="24" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="V116" s="23" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" ht="24.95" customHeight="1">
       <c r="A117" s="18" t="s">
         <v>867</v>
       </c>
@@ -12452,16 +12453,16 @@
       <c r="K117" s="19"/>
       <c r="L117" s="25"/>
       <c r="M117" s="31" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="N117" s="19" t="s">
         <v>138</v>
       </c>
       <c r="O117" s="19" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P117" s="30" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="Q117" s="19" t="s">
         <v>873</v>
@@ -12473,14 +12474,14 @@
         <v>875</v>
       </c>
       <c r="T117" s="32" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="U117" s="31" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="V117" s="20"/>
     </row>
-    <row r="118" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" ht="24.95" customHeight="1">
       <c r="A118" s="21" t="s">
         <v>876</v>
       </c>
@@ -12510,10 +12511,10 @@
         <v>171</v>
       </c>
       <c r="O118" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P118" s="29" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="Q118" s="22" t="s">
         <v>774</v>
@@ -12525,14 +12526,14 @@
         <v>879</v>
       </c>
       <c r="T118" s="34" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="U118" s="24" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="V118" s="23"/>
     </row>
-    <row r="119" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" ht="24.95" customHeight="1">
       <c r="A119" s="18" t="s">
         <v>880</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>53</v>
       </c>
       <c r="P119" s="30" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="Q119" s="19" t="s">
         <v>781</v>
@@ -12578,7 +12579,7 @@
         <v>885</v>
       </c>
       <c r="S119" s="32" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="T119" s="32" t="s">
         <v>886</v>
@@ -12590,7 +12591,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" ht="24.95" customHeight="1">
       <c r="A120" s="21" t="s">
         <v>888</v>
       </c>
@@ -12601,7 +12602,7 @@
         <v>889</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="E120" s="22" t="s">
         <v>887</v>
@@ -12625,7 +12626,7 @@
         <v>354</v>
       </c>
       <c r="L120" s="26" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="M120" s="29" t="s">
         <v>1097</v>
@@ -12634,7 +12635,7 @@
         <v>138</v>
       </c>
       <c r="O120" s="35" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P120" s="29" t="s">
         <v>893</v>
@@ -12652,11 +12653,11 @@
         <v>897</v>
       </c>
       <c r="U120" s="24" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="V120" s="23"/>
     </row>
-    <row r="121" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" ht="24.95" customHeight="1">
       <c r="A121" s="18" t="s">
         <v>898</v>
       </c>
@@ -12689,16 +12690,16 @@
         <v>902</v>
       </c>
       <c r="L121" s="25" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="M121" s="31" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="N121" s="19" t="s">
         <v>171</v>
       </c>
       <c r="O121" s="19" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P121" s="30" t="s">
         <v>903</v>
@@ -12713,14 +12714,14 @@
         <v>905</v>
       </c>
       <c r="T121" s="32" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="U121" s="31" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="V121" s="20"/>
     </row>
-    <row r="122" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" ht="24.95" customHeight="1">
       <c r="A122" s="21" t="s">
         <v>906</v>
       </c>
@@ -12756,16 +12757,16 @@
         <v>911</v>
       </c>
       <c r="M122" s="24" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="N122" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O122" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P122" s="29" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="Q122" s="22" t="s">
         <v>774</v>
@@ -12777,16 +12778,16 @@
         <v>913</v>
       </c>
       <c r="T122" s="34" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="U122" s="24" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="V122" s="23" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" ht="24.95" customHeight="1">
       <c r="A123" s="18" t="s">
         <v>915</v>
       </c>
@@ -12821,7 +12822,7 @@
         <v>354</v>
       </c>
       <c r="L123" s="25" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="M123" s="30" t="s">
         <v>1096</v>
@@ -12833,7 +12834,7 @@
         <v>33</v>
       </c>
       <c r="P123" s="30" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="Q123" s="19" t="s">
         <v>920</v>
@@ -12845,16 +12846,16 @@
         <v>922</v>
       </c>
       <c r="T123" s="32" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="U123" s="31" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="V123" s="20" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" ht="24.95" customHeight="1">
       <c r="A124" s="21" t="s">
         <v>924</v>
       </c>
@@ -12889,7 +12890,7 @@
         <v>918</v>
       </c>
       <c r="L124" s="26" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="M124" s="26">
         <v>2000</v>
@@ -12901,7 +12902,7 @@
         <v>53</v>
       </c>
       <c r="P124" s="29" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="Q124" s="22" t="s">
         <v>929</v>
@@ -12913,7 +12914,7 @@
         <v>931</v>
       </c>
       <c r="T124" s="34" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="U124" s="26" t="s">
         <v>1113</v>
@@ -12922,7 +12923,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" ht="24.95" customHeight="1">
       <c r="A125" s="18"/>
       <c r="B125" s="19" t="s">
         <v>933</v>
@@ -12951,7 +12952,7 @@
         <v>53</v>
       </c>
       <c r="P125" s="30" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="Q125" s="19" t="s">
         <v>781</v>
@@ -12960,7 +12961,7 @@
         <v>935</v>
       </c>
       <c r="S125" s="32" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="T125" s="32" t="s">
         <v>936</v>
@@ -12972,7 +12973,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" ht="24.95" customHeight="1">
       <c r="A126" s="21" t="s">
         <v>880</v>
       </c>
@@ -13009,7 +13010,7 @@
         <v>53</v>
       </c>
       <c r="P126" s="29" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="Q126" s="22" t="s">
         <v>781</v>
@@ -13018,7 +13019,7 @@
         <v>941</v>
       </c>
       <c r="S126" s="34" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="T126" s="34" t="s">
         <v>886</v>
@@ -13030,7 +13031,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" ht="24.95" customHeight="1">
       <c r="A127" s="18" t="s">
         <v>943</v>
       </c>
@@ -13070,10 +13071,10 @@
         <v>171</v>
       </c>
       <c r="O127" s="19" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P127" s="30" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="Q127" s="19" t="s">
         <v>802</v>
@@ -13085,16 +13086,16 @@
         <v>949</v>
       </c>
       <c r="T127" s="32" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="U127" s="31" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="V127" s="20" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" ht="24.95" customHeight="1">
       <c r="A128" s="18" t="s">
         <v>952</v>
       </c>
@@ -13126,16 +13127,16 @@
       <c r="K128" s="19"/>
       <c r="L128" s="25"/>
       <c r="M128" s="31" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="N128" s="19" t="s">
         <v>171</v>
       </c>
       <c r="O128" s="19" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P128" s="30" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="Q128" s="19" t="s">
         <v>774</v>
@@ -13147,14 +13148,14 @@
         <v>959</v>
       </c>
       <c r="T128" s="32" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="U128" s="31" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="V128" s="20"/>
     </row>
-    <row r="129" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" ht="24.95" customHeight="1">
       <c r="A129" s="21" t="s">
         <v>960</v>
       </c>
@@ -13192,16 +13193,16 @@
         <v>669</v>
       </c>
       <c r="M129" s="24" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="N129" s="22" t="s">
         <v>171</v>
       </c>
       <c r="O129" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P129" s="29" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="Q129" s="22" t="s">
         <v>802</v>
@@ -13213,14 +13214,14 @@
         <v>968</v>
       </c>
       <c r="T129" s="34" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="U129" s="24" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="V129" s="23"/>
     </row>
-    <row r="130" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" ht="24.95" customHeight="1">
       <c r="A130" s="18" t="s">
         <v>969</v>
       </c>
@@ -13253,7 +13254,7 @@
         <v>974</v>
       </c>
       <c r="L130" s="25" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="M130" s="30" t="s">
         <v>1096</v>
@@ -13262,10 +13263,10 @@
         <v>171</v>
       </c>
       <c r="O130" s="19" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P130" s="30" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="Q130" s="19" t="s">
         <v>774</v>
@@ -13280,11 +13281,11 @@
         <v>977</v>
       </c>
       <c r="U130" s="31" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="V130" s="20"/>
     </row>
-    <row r="131" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" ht="24.95" customHeight="1">
       <c r="A131" s="21" t="s">
         <v>978</v>
       </c>
@@ -13320,10 +13321,10 @@
         <v>138</v>
       </c>
       <c r="O131" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P131" s="29" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="Q131" s="22" t="s">
         <v>951</v>
@@ -13335,14 +13336,14 @@
         <v>984</v>
       </c>
       <c r="T131" s="34" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="U131" s="24" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="V131" s="23"/>
     </row>
-    <row r="132" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" ht="24.95" customHeight="1">
       <c r="A132" s="18" t="s">
         <v>985</v>
       </c>
@@ -13374,7 +13375,7 @@
       <c r="K132" s="19"/>
       <c r="L132" s="25"/>
       <c r="M132" s="31" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="N132" s="19" t="s">
         <v>316</v>
@@ -13383,7 +13384,7 @@
         <v>33</v>
       </c>
       <c r="P132" s="30" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="Q132" s="19" t="s">
         <v>991</v>
@@ -13395,7 +13396,7 @@
         <v>993</v>
       </c>
       <c r="T132" s="32" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="U132" s="25" t="s">
         <v>1115</v>
@@ -13404,7 +13405,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" ht="24.95" customHeight="1">
       <c r="A133" s="21" t="s">
         <v>995</v>
       </c>
@@ -13439,7 +13440,7 @@
         <v>1001</v>
       </c>
       <c r="L133" s="26" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="M133" s="29" t="s">
         <v>1096</v>
@@ -13448,10 +13449,10 @@
         <v>171</v>
       </c>
       <c r="O133" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P133" s="29" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="Q133" s="22" t="s">
         <v>802</v>
@@ -13463,34 +13464,34 @@
         <v>1003</v>
       </c>
       <c r="T133" s="34" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="U133" s="24" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="V133" s="23"/>
     </row>
-    <row r="134" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" ht="24.95" customHeight="1">
       <c r="A134" s="42" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="B134" s="43" t="s">
         <v>441</v>
       </c>
       <c r="C134" s="43" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="F134" s="43" t="s">
         <v>483</v>
       </c>
       <c r="G134" s="43" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="H134" s="3">
         <v>1940</v>
@@ -13502,45 +13503,45 @@
         <v>33</v>
       </c>
       <c r="O134" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P134" s="40" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="Q134" s="43" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="R134" s="43" t="s">
-        <v>1336</v>
-      </c>
-      <c r="T134" s="43" t="s">
-        <v>1329</v>
+        <v>1327</v>
+      </c>
+      <c r="T134" s="48" t="s">
+        <v>1465</v>
       </c>
       <c r="U134" s="27" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="V134" s="43" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" ht="24.95" customHeight="1">
       <c r="A135" s="44" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="B135" s="45" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="C135" s="45" t="s">
         <v>430</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="E135" s="45" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="F135" s="45" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="G135" s="45" t="s">
         <v>354</v>
@@ -13555,51 +13556,51 @@
         <v>33</v>
       </c>
       <c r="O135" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="Q135" s="45" t="s">
         <v>802</v>
       </c>
       <c r="R135" s="45" t="s">
+        <v>1328</v>
+      </c>
+      <c r="S135" s="33" t="s">
+        <v>1329</v>
+      </c>
+      <c r="T135" s="33" t="s">
+        <v>1466</v>
+      </c>
+      <c r="U135" s="50" t="s">
+        <v>1352</v>
+      </c>
+      <c r="V135" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="24.95" customHeight="1">
+      <c r="A136" s="42" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B136" s="43" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C136" s="43" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E136" s="43" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F136" s="43" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G136" s="47" t="s">
         <v>1337</v>
       </c>
-      <c r="S135" s="33" t="s">
-        <v>1338</v>
-      </c>
-      <c r="T135" s="33" t="s">
-        <v>1339</v>
-      </c>
-      <c r="U135" s="50" t="s">
-        <v>1364</v>
-      </c>
-      <c r="V135" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="42" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B136" s="43" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C136" s="43" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E136" s="43" t="s">
-        <v>1345</v>
-      </c>
-      <c r="F136" s="43" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G136" s="47" t="s">
-        <v>1347</v>
-      </c>
       <c r="H136" s="27" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="M136" s="3">
         <v>2000</v>
@@ -13608,33 +13609,33 @@
         <v>33</v>
       </c>
       <c r="O136" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P136" s="40" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="Q136" s="43" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="R136" s="43" t="s">
-        <v>1348</v>
-      </c>
-      <c r="S136" s="43" t="s">
-        <v>1349</v>
+        <v>1338</v>
+      </c>
+      <c r="S136" s="48" t="s">
+        <v>1339</v>
       </c>
       <c r="T136" s="48" t="s">
-        <v>1350</v>
+        <v>1464</v>
       </c>
       <c r="U136" s="27" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="V136" s="43" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" ht="24.95" customHeight="1">
       <c r="A137" s="44" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="B137" s="45" t="s">
         <v>502</v>
@@ -13643,16 +13644,16 @@
         <v>509</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="E137" s="45" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="F137" s="45" t="s">
         <v>502</v>
       </c>
       <c r="G137" s="45" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="H137" s="3">
         <v>1923</v>
@@ -13664,45 +13665,45 @@
         <v>33</v>
       </c>
       <c r="O137" s="22" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="Q137" s="45" t="s">
         <v>489</v>
       </c>
       <c r="R137" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="S137" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1358</v>
+        <v>1467</v>
       </c>
       <c r="U137" s="27" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="V137" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" ht="24.95" customHeight="1">
       <c r="B138" s="51" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="C138" s="51" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="E138" s="51" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="F138" s="51" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="G138" s="43" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="H138" s="3">
         <v>1330</v>
@@ -13717,42 +13718,42 @@
         <v>33</v>
       </c>
       <c r="P138" s="40" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="Q138" s="51" t="s">
         <v>781</v>
       </c>
       <c r="R138" s="43" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="S138" s="48" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="U138" s="3" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="V138" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" ht="24.95" customHeight="1">
       <c r="B139" s="45" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="C139" s="45" t="s">
         <v>430</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="E139" s="45" t="s">
         <v>354</v>
       </c>
       <c r="G139" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="H139" s="3">
         <v>1380</v>
@@ -13767,30 +13768,30 @@
         <v>33</v>
       </c>
       <c r="P139" s="40" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="Q139" s="45" t="s">
         <v>85</v>
       </c>
       <c r="R139" s="45" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="U139" s="3" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="V139" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" ht="24.95" customHeight="1">
       <c r="B140" s="51" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="D140" s="3">
         <v>1329</v>
@@ -13799,7 +13800,7 @@
         <v>84</v>
       </c>
       <c r="G140" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="H140" s="3">
         <v>1389</v>
@@ -13808,42 +13809,42 @@
         <v>26</v>
       </c>
       <c r="O140" s="45" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="P140" s="40" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="Q140" s="51" t="s">
         <v>85</v>
       </c>
       <c r="R140" s="43" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="U140" s="3" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="V140" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="45" t="s">
-        <v>1460</v>
+    <row r="141" spans="1:22" ht="24.95" customHeight="1">
+      <c r="B141" s="52" t="s">
+        <v>1448</v>
       </c>
       <c r="C141" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="D141" s="3">
         <v>1240</v>
       </c>
       <c r="E141" s="45" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="G141" t="s">
         <v>506</v>
@@ -13861,25 +13862,25 @@
         <v>33</v>
       </c>
       <c r="P141" s="40" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="Q141" s="45" t="s">
         <v>85</v>
       </c>
       <c r="R141" s="45" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="U141" s="3">
         <v>1299</v>
       </c>
       <c r="V141" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
     </row>
   </sheetData>
@@ -14129,9 +14130,12 @@
     <hyperlink ref="S140" r:id="rId241"/>
     <hyperlink ref="T141" r:id="rId242"/>
     <hyperlink ref="S141" r:id="rId243"/>
+    <hyperlink ref="S105" r:id="rId244"/>
+    <hyperlink ref="S136" r:id="rId245"/>
+    <hyperlink ref="T134" r:id="rId246"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId244"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId247"/>
 </worksheet>
 </file>
 

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" tabRatio="587"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="6675" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$W$140</definedName>
   </definedNames>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1499">
   <si>
     <t>Фамилия</t>
   </si>
@@ -5512,6 +5512,102 @@
   </si>
   <si>
     <t>Святитель Пятирим</t>
+  </si>
+  <si>
+    <t>Ефрем Новоявленный Чудотворец</t>
+  </si>
+  <si>
+    <t>Священномученик Иаков Москаев</t>
+  </si>
+  <si>
+    <t>Священномученник Никита Прибытков</t>
+  </si>
+  <si>
+    <t>Преподобномученник Федор Никитин</t>
+  </si>
+  <si>
+    <t>Свещенномученик Петр Гаврилов</t>
+  </si>
+  <si>
+    <t>Священномученик Парфений (Брянский)</t>
+  </si>
+  <si>
+    <t>Священномученик Павел Гайдай</t>
+  </si>
+  <si>
+    <t>Священник Михаил Платонов</t>
+  </si>
+  <si>
+    <t>Священномученик Мирон Ржепик</t>
+  </si>
+  <si>
+    <t>Преподобномученник иеромонах Киприан</t>
+  </si>
+  <si>
+    <t>Священномученник Иоанн Мажорин</t>
+  </si>
+  <si>
+    <t>Преподобномученник ИОВ Протопопов</t>
+  </si>
+  <si>
+    <t>священник Иоанн Ганчев</t>
+  </si>
+  <si>
+    <t>Князь Георгий</t>
+  </si>
+  <si>
+    <t>Священномученник Георгий Садзаглишвили</t>
+  </si>
+  <si>
+    <t>Священномученик Владимир Пиксанов</t>
+  </si>
+  <si>
+    <t>Василий Ростовский</t>
+  </si>
+  <si>
+    <t>Священномученик Амросий Гудко</t>
+  </si>
+  <si>
+    <t>Священномученик Аркадий Остальский</t>
+  </si>
+  <si>
+    <t>Священномученик Александр Телемаков</t>
+  </si>
+  <si>
+    <t>Схимонахиня Августа Защук</t>
+  </si>
+  <si>
+    <t>Священномученик Августин Беляев</t>
+  </si>
+  <si>
+    <t>Мученик Александр Медем</t>
+  </si>
+  <si>
+    <t>Священномученник Нифонт Выблов</t>
+  </si>
+  <si>
+    <t>Священномученик Константин Сухов</t>
+  </si>
+  <si>
+    <t>Священномученник Алексий Орлов</t>
+  </si>
+  <si>
+    <t>Священномученик Александр Трапицын</t>
+  </si>
+  <si>
+    <t>Священномученник Анатолий Грисюк</t>
+  </si>
+  <si>
+    <t>Варсонофий Оптинский</t>
+  </si>
+  <si>
+    <t>Александр Чагринский</t>
+  </si>
+  <si>
+    <t>Сергий Радонежский</t>
+  </si>
+  <si>
+    <t>Серафим Саровский</t>
   </si>
 </sst>
 </file>
@@ -5619,7 +5715,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5640,6 +5736,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5704,7 +5812,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5808,6 +5916,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -6094,8 +6207,8 @@
   <dimension ref="A1:W140"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8955,11 +9068,12 @@
       <c r="A53" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>1467</v>
+      </c>
       <c r="C53" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="4"/>
       <c r="E53" s="7">
         <v>1384</v>
       </c>
@@ -10221,6 +10335,9 @@
       <c r="A75" t="s">
         <v>495</v>
       </c>
+      <c r="B75" t="s">
+        <v>1494</v>
+      </c>
       <c r="C75" t="s">
         <v>494</v>
       </c>
@@ -10286,6 +10403,9 @@
       <c r="A76" t="s">
         <v>487</v>
       </c>
+      <c r="B76" t="s">
+        <v>1493</v>
+      </c>
       <c r="C76" t="s">
         <v>486</v>
       </c>
@@ -10351,6 +10471,9 @@
       <c r="A77" t="s">
         <v>480</v>
       </c>
+      <c r="B77" t="s">
+        <v>1492</v>
+      </c>
       <c r="C77" t="s">
         <v>479</v>
       </c>
@@ -10419,6 +10542,9 @@
       <c r="A78" t="s">
         <v>470</v>
       </c>
+      <c r="B78" t="s">
+        <v>1491</v>
+      </c>
       <c r="C78" t="s">
         <v>161</v>
       </c>
@@ -10469,6 +10595,9 @@
       <c r="A79" t="s">
         <v>467</v>
       </c>
+      <c r="B79" t="s">
+        <v>1490</v>
+      </c>
       <c r="C79" t="s">
         <v>324</v>
       </c>
@@ -10528,6 +10657,9 @@
       <c r="A80" t="s">
         <v>460</v>
       </c>
+      <c r="B80" t="s">
+        <v>1489</v>
+      </c>
       <c r="C80" t="s">
         <v>459</v>
       </c>
@@ -10584,6 +10716,9 @@
       <c r="A81" t="s">
         <v>452</v>
       </c>
+      <c r="B81" t="s">
+        <v>1495</v>
+      </c>
       <c r="C81" t="s">
         <v>451</v>
       </c>
@@ -10636,6 +10771,9 @@
     <row r="82" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>442</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1496</v>
       </c>
       <c r="C82" t="s">
         <v>441</v>
@@ -10937,7 +11075,9 @@
       <c r="A87" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>1498</v>
+      </c>
       <c r="C87" s="4" t="s">
         <v>628</v>
       </c>
@@ -11401,7 +11541,9 @@
       <c r="A95" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="B95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>1487</v>
+      </c>
       <c r="C95" s="4" t="s">
         <v>695</v>
       </c>
@@ -11523,7 +11665,9 @@
       <c r="A97" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B97" s="4"/>
+      <c r="B97" s="4" t="s">
+        <v>1488</v>
+      </c>
       <c r="C97" s="4" t="s">
         <v>441</v>
       </c>
@@ -11584,7 +11728,9 @@
     </row>
     <row r="98" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="4" t="s">
+        <v>725</v>
+      </c>
       <c r="C98" s="4" t="s">
         <v>725</v>
       </c>
@@ -11633,7 +11779,9 @@
     </row>
     <row r="99" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
+      <c r="B99" s="4" t="s">
+        <v>730</v>
+      </c>
       <c r="C99" s="4" t="s">
         <v>730</v>
       </c>
@@ -11680,7 +11828,9 @@
     </row>
     <row r="100" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
+      <c r="B100" s="4" t="s">
+        <v>735</v>
+      </c>
       <c r="C100" s="4" t="s">
         <v>735</v>
       </c>
@@ -11722,6 +11872,9 @@
       <c r="W100" s="7"/>
     </row>
     <row r="101" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>742</v>
+      </c>
       <c r="C101" t="s">
         <v>742</v>
       </c>
@@ -11754,6 +11907,9 @@
       </c>
     </row>
     <row r="102" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>746</v>
+      </c>
       <c r="C102" t="s">
         <v>746</v>
       </c>
@@ -11784,6 +11940,9 @@
       <c r="W102" s="3"/>
     </row>
     <row r="103" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>750</v>
+      </c>
       <c r="C103" t="s">
         <v>750</v>
       </c>
@@ -11909,7 +12068,9 @@
       <c r="A106" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="B106" s="22"/>
+      <c r="B106" s="22" t="s">
+        <v>1486</v>
+      </c>
       <c r="C106" s="22" t="s">
         <v>441</v>
       </c>
@@ -12025,7 +12186,9 @@
       <c r="A108" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="B108" s="22"/>
+      <c r="B108" s="22" t="s">
+        <v>1485</v>
+      </c>
       <c r="C108" s="22" t="s">
         <v>784</v>
       </c>
@@ -12094,7 +12257,9 @@
       <c r="A109" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="B109" s="19"/>
+      <c r="B109" s="19" t="s">
+        <v>1484</v>
+      </c>
       <c r="C109" s="19" t="s">
         <v>502</v>
       </c>
@@ -12143,7 +12308,7 @@
       <c r="R109" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="S109" s="19" t="s">
+      <c r="S109" s="46" t="s">
         <v>803</v>
       </c>
       <c r="T109" s="19" t="s">
@@ -12161,7 +12326,9 @@
       <c r="A110" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="B110" s="22"/>
+      <c r="B110" s="22" t="s">
+        <v>1483</v>
+      </c>
       <c r="C110" s="22" t="s">
         <v>502</v>
       </c>
@@ -12220,7 +12387,9 @@
       <c r="A111" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="B111" s="19"/>
+      <c r="B111" s="19" t="s">
+        <v>1482</v>
+      </c>
       <c r="C111" s="19" t="s">
         <v>813</v>
       </c>
@@ -12287,7 +12456,9 @@
       <c r="A112" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="B112" s="22"/>
+      <c r="B112" s="22" t="s">
+        <v>1481</v>
+      </c>
       <c r="C112" s="22" t="s">
         <v>170</v>
       </c>
@@ -12336,7 +12507,7 @@
       <c r="R112" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="S112" s="22" t="s">
+      <c r="S112" s="53" t="s">
         <v>832</v>
       </c>
       <c r="T112" s="22" t="s">
@@ -12356,7 +12527,9 @@
       <c r="A113" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="B113" s="19"/>
+      <c r="B113" s="19" t="s">
+        <v>1480</v>
+      </c>
       <c r="C113" s="19" t="s">
         <v>835</v>
       </c>
@@ -12399,7 +12572,7 @@
       <c r="R113" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="S113" s="19" t="s">
+      <c r="S113" s="46" t="s">
         <v>839</v>
       </c>
       <c r="T113" s="19" t="s">
@@ -12545,7 +12718,9 @@
       <c r="A116" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="B116" s="22"/>
+      <c r="B116" s="22" t="s">
+        <v>1479</v>
+      </c>
       <c r="C116" s="22" t="s">
         <v>860</v>
       </c>
@@ -12588,7 +12763,7 @@
       <c r="R116" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="S116" s="22" t="s">
+      <c r="S116" s="53" t="s">
         <v>864</v>
       </c>
       <c r="T116" s="22" t="s">
@@ -12608,7 +12783,9 @@
       <c r="A117" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="B117" s="19"/>
+      <c r="B117" s="54" t="s">
+        <v>1478</v>
+      </c>
       <c r="C117" s="19" t="s">
         <v>860</v>
       </c>
@@ -12653,7 +12830,7 @@
       <c r="R117" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="S117" s="19" t="s">
+      <c r="S117" s="46" t="s">
         <v>874</v>
       </c>
       <c r="T117" s="32" t="s">
@@ -12671,7 +12848,9 @@
       <c r="A118" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="B118" s="22"/>
+      <c r="B118" s="55" t="s">
+        <v>1477</v>
+      </c>
       <c r="C118" s="22" t="s">
         <v>860</v>
       </c>
@@ -12783,7 +12962,9 @@
       <c r="A120" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="B120" s="22"/>
+      <c r="B120" s="55" t="s">
+        <v>1476</v>
+      </c>
       <c r="C120" s="22" t="s">
         <v>161</v>
       </c>
@@ -12850,7 +13031,9 @@
       <c r="A121" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="B121" s="19"/>
+      <c r="B121" s="54" t="s">
+        <v>1475</v>
+      </c>
       <c r="C121" s="19" t="s">
         <v>899</v>
       </c>
@@ -12915,7 +13098,9 @@
       <c r="A122" s="21" t="s">
         <v>906</v>
       </c>
-      <c r="B122" s="22"/>
+      <c r="B122" s="55" t="s">
+        <v>1474</v>
+      </c>
       <c r="C122" s="22" t="s">
         <v>263</v>
       </c>
@@ -13230,7 +13415,9 @@
       <c r="A127" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="B127" s="19"/>
+      <c r="B127" s="54" t="s">
+        <v>1469</v>
+      </c>
       <c r="C127" s="19" t="s">
         <v>324</v>
       </c>
@@ -13295,7 +13482,9 @@
       <c r="A128" s="18" t="s">
         <v>952</v>
       </c>
-      <c r="B128" s="19"/>
+      <c r="B128" s="54" t="s">
+        <v>1473</v>
+      </c>
       <c r="C128" s="19" t="s">
         <v>953</v>
       </c>
@@ -13356,7 +13545,9 @@
       <c r="A129" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="B129" s="22"/>
+      <c r="B129" s="55" t="s">
+        <v>1472</v>
+      </c>
       <c r="C129" s="22" t="s">
         <v>431</v>
       </c>
@@ -13405,7 +13596,7 @@
       <c r="R129" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="S129" s="22" t="s">
+      <c r="S129" s="53" t="s">
         <v>967</v>
       </c>
       <c r="T129" s="22" t="s">
@@ -13423,7 +13614,9 @@
       <c r="A130" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="B130" s="19"/>
+      <c r="B130" s="54" t="s">
+        <v>1471</v>
+      </c>
       <c r="C130" s="19" t="s">
         <v>431</v>
       </c>
@@ -13488,7 +13681,9 @@
       <c r="A131" s="21" t="s">
         <v>978</v>
       </c>
-      <c r="B131" s="22"/>
+      <c r="B131" s="55" t="s">
+        <v>1470</v>
+      </c>
       <c r="C131" s="22" t="s">
         <v>979</v>
       </c>
@@ -13610,7 +13805,9 @@
       <c r="A133" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="B133" s="22"/>
+      <c r="B133" s="55" t="s">
+        <v>1468</v>
+      </c>
       <c r="C133" s="22" t="s">
         <v>996</v>
       </c>
@@ -13893,6 +14090,9 @@
       </c>
     </row>
     <row r="138" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>1497</v>
+      </c>
       <c r="C138" s="51" t="s">
         <v>1419</v>
       </c>

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -10,9 +10,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$W$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$X$140</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="1501">
   <si>
     <t>Фамилия</t>
   </si>
@@ -5608,6 +5608,12 @@
   </si>
   <si>
     <t>Серафим Саровский</t>
+  </si>
+  <si>
+    <t>Связь с храмом</t>
+  </si>
+  <si>
+    <t>3;9;15</t>
   </si>
 </sst>
 </file>
@@ -6204,34 +6210,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W140"/>
+  <dimension ref="A1:X140"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="14" width="13" style="3" customWidth="1"/>
-    <col min="15" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.5703125" style="40" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="41.85546875" customWidth="1"/>
-    <col min="20" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="6" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="13" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="41.5703125" style="40" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="41.85546875" customWidth="1"/>
+    <col min="21" max="22" width="20.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6251,58 +6257,61 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1223</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -6315,44 +6324,47 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="Q2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="R2" s="40" t="s">
         <v>1226</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -6365,50 +6377,50 @@
       <c r="F3" t="s">
         <v>396</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="Q3" s="38" t="s">
         <v>1224</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>1227</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -6421,38 +6433,38 @@
       <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>1063</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="40" t="s">
         <v>1228</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -6465,44 +6477,44 @@
       <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>39</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="R5" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="V5" s="3">
+      <c r="W5" s="3">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -6515,41 +6527,41 @@
       <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>39</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="R6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -6562,44 +6574,44 @@
       <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="Q7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="R7" s="40" t="s">
         <v>1229</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="V7" s="3">
+      <c r="W7" s="3">
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
@@ -6612,38 +6624,38 @@
       <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>595</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
       </c>
       <c r="P8" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>59</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>62</v>
       </c>
@@ -6656,38 +6668,38 @@
       <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="O9" t="s">
-        <v>53</v>
       </c>
       <c r="P9" t="s">
         <v>53</v>
       </c>
-      <c r="Q9" s="40" t="s">
+      <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" s="40" t="s">
         <v>1230</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -6700,47 +6712,47 @@
       <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>168</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>781</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>798</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>828</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
       </c>
       <c r="P10" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="Q10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>826</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -6753,44 +6765,44 @@
       <c r="F11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="J11" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>1144</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>73</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>1224</v>
       </c>
-      <c r="Q11" s="40" t="s">
+      <c r="R11" s="40" t="s">
         <v>1231</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>74</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -6803,38 +6815,38 @@
       <c r="F12" t="s">
         <v>400</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
       </c>
       <c r="P12" t="s">
         <v>53</v>
       </c>
-      <c r="Q12" s="40" t="s">
+      <c r="Q12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="40" t="s">
         <v>1232</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -6847,50 +6859,50 @@
       <c r="F13" t="s">
         <v>83</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>1080</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
       </c>
       <c r="P13" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="40" t="s">
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="40" t="s">
         <v>1233</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -6903,44 +6915,44 @@
       <c r="F14" t="s">
         <v>402</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>90</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="40" t="s">
+      <c r="R14" s="40" t="s">
         <v>1235</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>91</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1125</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>94</v>
       </c>
@@ -6953,53 +6965,53 @@
       <c r="F15" t="s">
         <v>403</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>95</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>404</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1204</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
       </c>
       <c r="P15" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="40" t="s">
+      <c r="Q15" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="40" t="s">
         <v>1234</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>97</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1200</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>101</v>
       </c>
@@ -7012,38 +7024,38 @@
       <c r="F16" t="s">
         <v>359</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>102</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="40" t="s">
+      <c r="R16" s="40" t="s">
         <v>1236</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>103</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="V16" s="3">
+      <c r="W16" s="3">
         <v>1213</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -7059,51 +7071,51 @@
       <c r="F17" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="41" t="s">
+      <c r="R17" s="41" t="s">
         <v>1237</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="T17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="U17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="V17" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="V17" s="7">
+      <c r="W17" s="7">
         <v>1236</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -7119,41 +7131,41 @@
       <c r="F18" t="s">
         <v>42</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1368</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>39</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="40" t="s">
+      <c r="R18" s="40" t="s">
         <v>1238</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>119</v>
       </c>
@@ -7166,48 +7178,48 @@
       <c r="F19" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="7"/>
+      <c r="O19" s="7" t="s">
         <v>1068</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="41" t="s">
+      <c r="Q19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="41" t="s">
         <v>1239</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="S19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="T19" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="U19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="V19" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="V19" s="7">
+      <c r="W19" s="7">
         <v>1346</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -7220,59 +7232,59 @@
       <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>128</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>409</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1734</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>39</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="40" t="s">
+      <c r="R20" s="40" t="s">
         <v>1240</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>129</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1444</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
@@ -7285,43 +7297,43 @@
       <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7">
+      <c r="L21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
         <v>1981</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="41" t="s">
+      <c r="R21" s="41" t="s">
         <v>1241</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="S21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="T21" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="U21" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="V21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="V21" s="7">
+      <c r="W21" s="7">
         <v>1429</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -7334,41 +7346,41 @@
       <c r="F22" t="s">
         <v>410</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1572</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>138</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q22" s="40" t="s">
+      <c r="R22" s="40" t="s">
         <v>755</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>139</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1568</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>142</v>
       </c>
@@ -7381,54 +7393,54 @@
       <c r="F23" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7">
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
         <v>1703</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="41" t="s">
+      <c r="R23" s="41" t="s">
         <v>1242</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="T23" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="U23" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="V23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="V23" s="7">
+      <c r="W23" s="7">
         <v>1622</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="X23" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>149</v>
       </c>
@@ -7441,47 +7453,47 @@
       <c r="F24" t="s">
         <v>412</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>413</v>
       </c>
-      <c r="K24" s="28" t="s">
+      <c r="L24" s="28" t="s">
         <v>1071</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>1224</v>
       </c>
-      <c r="Q24" s="40" t="s">
+      <c r="R24" s="40" t="s">
         <v>1243</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>150</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1622</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>153</v>
       </c>
@@ -7494,46 +7506,46 @@
       <c r="F25" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7">
+      <c r="L25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7">
         <v>1815</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q25" s="41" t="s">
+      <c r="Q25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="41" t="s">
         <v>1244</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="T25" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="T25" s="6" t="s">
+      <c r="U25" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="U25" s="6" t="s">
+      <c r="V25" s="6" t="s">
         <v>1134</v>
       </c>
-      <c r="V25" s="7">
+      <c r="W25" s="7">
         <v>1651</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="X25" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>157</v>
       </c>
@@ -7546,41 +7558,41 @@
       <c r="F26" t="s">
         <v>415</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>415</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1795</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1912</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>158</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>1224</v>
       </c>
-      <c r="Q26" s="40" t="s">
+      <c r="R26" s="40" t="s">
         <v>1245</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="U26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>161</v>
       </c>
@@ -7590,53 +7602,53 @@
       <c r="F27" t="s">
         <v>416</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>162</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>163</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1961</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>164</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" s="40" t="s">
+      <c r="R27" s="40" t="s">
         <v>1246</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>165</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>169</v>
       </c>
@@ -7649,47 +7661,47 @@
       <c r="F28" t="s">
         <v>419</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>115</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
         <v>1921</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>171</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>1224</v>
       </c>
-      <c r="Q28" s="40" t="s">
+      <c r="R28" s="40" t="s">
         <v>736</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>172</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -7702,53 +7714,53 @@
       <c r="F29" t="s">
         <v>421</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>177</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>178</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>422</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="N29" s="27" t="s">
+      <c r="O29" s="27" t="s">
         <v>1416</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>39</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>33</v>
       </c>
-      <c r="Q29" s="40" t="s">
+      <c r="R29" s="40" t="s">
         <v>1247</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>179</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>181</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -7761,44 +7773,44 @@
       <c r="F30" t="s">
         <v>356</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>184</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="O30" s="27" t="s">
         <v>1415</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>171</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>1224</v>
       </c>
-      <c r="Q30" s="40" t="s">
+      <c r="R30" s="40" t="s">
         <v>1248</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>185</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="V30" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="V30" s="27" t="s">
+      <c r="W30" s="27" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>187</v>
       </c>
@@ -7811,47 +7823,47 @@
       <c r="F31" t="s">
         <v>423</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>189</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="N31" s="27" t="s">
+      <c r="O31" s="27" t="s">
         <v>1414</v>
-      </c>
-      <c r="O31" t="s">
-        <v>53</v>
       </c>
       <c r="P31" t="s">
         <v>53</v>
       </c>
-      <c r="Q31" s="40" t="s">
+      <c r="Q31" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" s="40" t="s">
         <v>1249</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="V31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="V31" s="27" t="s">
+      <c r="W31" s="27" t="s">
         <v>1389</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -7865,54 +7877,55 @@
         <v>43</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="N32" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="7"/>
+      <c r="P32" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q32" s="41" t="s">
+      <c r="R32" s="41" t="s">
         <v>1250</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="S32" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="T32" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="T32" s="6" t="s">
+      <c r="U32" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="U32" s="6" t="s">
+      <c r="V32" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="V32" s="7">
+      <c r="W32" s="7">
         <v>96</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="X32" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -7926,46 +7939,47 @@
         <v>18</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="7"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="4"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="7"/>
+      <c r="P33" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" s="41" t="s">
+      <c r="R33" s="41" t="s">
         <v>1251</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="S33" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="T33" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="T33" s="4" t="s">
+      <c r="U33" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="U33" s="6" t="s">
+      <c r="V33" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="V33" s="7" t="s">
+      <c r="W33" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="X33" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -7979,48 +7993,49 @@
         <v>329</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7" t="s">
+      <c r="K34" s="4"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q34" s="41" t="s">
+      <c r="R34" s="41" t="s">
         <v>1252</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="S34" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="T34" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="T34" s="6" t="s">
+      <c r="U34" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="U34" s="6" t="s">
+      <c r="V34" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="V34" s="7">
+      <c r="W34" s="7">
         <v>270</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="X34" s="4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>207</v>
@@ -8036,48 +8051,49 @@
         <v>18</v>
       </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="7">
+      <c r="J35" s="7">
         <v>230</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="4"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="7"/>
+      <c r="P35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q35" s="41" t="s">
+      <c r="R35" s="41" t="s">
         <v>1253</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="S35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="T35" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="T35" s="6" t="s">
+      <c r="U35" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="U35" s="6" t="s">
+      <c r="V35" s="6" t="s">
         <v>1143</v>
       </c>
-      <c r="V35" s="7">
+      <c r="W35" s="7">
         <v>230</v>
       </c>
-      <c r="W35" s="4" t="s">
+      <c r="X35" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>210</v>
@@ -8093,46 +8109,47 @@
         <v>330</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="7"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="4"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="4" t="s">
+      <c r="O36" s="7"/>
+      <c r="P36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q36" s="41" t="s">
+      <c r="R36" s="41" t="s">
         <v>1254</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="S36" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S36" s="5" t="s">
+      <c r="T36" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="T36" s="6" t="s">
+      <c r="U36" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="U36" s="6" t="s">
+      <c r="V36" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="V36" s="7">
+      <c r="W36" s="7">
         <v>389</v>
       </c>
-      <c r="W36" s="4" t="s">
+      <c r="X36" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>214</v>
@@ -8148,50 +8165,51 @@
         <v>331</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="4" t="s">
+      <c r="O37" s="7"/>
+      <c r="P37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="Q37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q37" s="41" t="s">
+      <c r="R37" s="41" t="s">
         <v>1255</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S37" s="5" t="s">
+      <c r="T37" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="T37" s="6" t="s">
+      <c r="U37" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="U37" s="6" t="s">
+      <c r="V37" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="V37" s="7" t="s">
+      <c r="W37" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="W37" s="4" t="s">
+      <c r="X37" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>217</v>
@@ -8207,54 +8225,55 @@
         <v>337</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="N38" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="7"/>
+      <c r="P38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="Q38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q38" s="41" t="s">
+      <c r="R38" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="S38" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="T38" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="T38" s="4" t="s">
+      <c r="U38" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="U38" s="6" t="s">
+      <c r="V38" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="V38" s="7" t="s">
+      <c r="W38" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="X38" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>222</v>
@@ -8270,46 +8289,47 @@
         <v>42</v>
       </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="7"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="4"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="7"/>
+      <c r="P39" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q39" s="41" t="s">
+      <c r="R39" s="41" t="s">
         <v>1256</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="S39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="S39" s="9" t="s">
+      <c r="T39" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="T39" s="6" t="s">
+      <c r="U39" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="U39" s="6" t="s">
+      <c r="V39" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="V39" s="7" t="s">
+      <c r="W39" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="W39" s="4" t="s">
+      <c r="X39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>226</v>
@@ -8324,47 +8344,48 @@
       <c r="F40" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="7"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="4"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="4" t="s">
+      <c r="O40" s="7"/>
+      <c r="P40" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q40" s="41" t="s">
+      <c r="R40" s="41" t="s">
         <v>1238</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="S40" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="S40" s="5" t="s">
+      <c r="T40" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="T40" s="6" t="s">
+      <c r="U40" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="U40" s="6" t="s">
+      <c r="V40" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="V40" s="7" t="s">
+      <c r="W40" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="X40" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>231</v>
@@ -8380,46 +8401,47 @@
         <v>18</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="J41" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="7"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="4"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="7"/>
+      <c r="P41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="Q41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q41" s="41" t="s">
+      <c r="R41" s="41" t="s">
         <v>1257</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="S41" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="T41" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="T41" s="6" t="s">
+      <c r="U41" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="U41" s="6" t="s">
+      <c r="V41" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="V41" s="7" t="s">
+      <c r="W41" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="W41" s="4" t="s">
+      <c r="X41" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>235</v>
@@ -8435,54 +8457,55 @@
         <v>42</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="J42" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="N42" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="O42" s="7"/>
       <c r="P42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q42" s="41" t="s">
+      <c r="Q42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R42" s="41" t="s">
         <v>1258</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="S42" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="S42" s="5" t="s">
+      <c r="T42" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="T42" s="6" t="s">
+      <c r="U42" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="U42" s="6" t="s">
+      <c r="V42" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="V42" s="7" t="s">
+      <c r="W42" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="W42" s="4" t="s">
+      <c r="X42" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>239</v>
@@ -8498,54 +8521,55 @@
         <v>63</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="J43" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="N43" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="N43" s="7"/>
-      <c r="O43" s="4" t="s">
+      <c r="O43" s="7"/>
+      <c r="P43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="Q43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="41" t="s">
+      <c r="R43" s="41" t="s">
         <v>1247</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="S43" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S43" s="5" t="s">
+      <c r="T43" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="T43" s="6" t="s">
+      <c r="U43" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="U43" s="6" t="s">
+      <c r="V43" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="V43" s="7">
+      <c r="W43" s="7">
         <v>638</v>
       </c>
-      <c r="W43" s="4" t="s">
+      <c r="X43" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>242</v>
@@ -8561,50 +8585,51 @@
         <v>42</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="7"/>
+      <c r="M44" s="4"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="7"/>
+      <c r="P44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="Q44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q44" s="41" t="s">
+      <c r="R44" s="41" t="s">
         <v>1259</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="S44" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="S44" s="9" t="s">
+      <c r="T44" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="T44" s="6" t="s">
+      <c r="U44" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="U44" s="6" t="s">
+      <c r="V44" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="V44" s="7">
+      <c r="W44" s="7">
         <v>806</v>
       </c>
-      <c r="W44" s="4" t="s">
+      <c r="X44" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>245</v>
@@ -8620,48 +8645,49 @@
         <v>246</v>
       </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="J45" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7">
+      <c r="K45" s="4"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7">
         <v>870</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="P45" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="Q45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q45" s="41" t="s">
+      <c r="R45" s="41" t="s">
         <v>1236</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="S45" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="S45" s="5" t="s">
+      <c r="T45" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="T45" s="6" t="s">
+      <c r="U45" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="U45" s="6" t="s">
+      <c r="V45" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="V45" s="7">
+      <c r="W45" s="7">
         <v>779</v>
       </c>
-      <c r="W45" s="4" t="s">
+      <c r="X45" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>251</v>
@@ -8677,54 +8703,55 @@
         <v>350</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="J46" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="N46" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="4" t="s">
+      <c r="O46" s="7"/>
+      <c r="P46" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="Q46" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q46" s="41" t="s">
+      <c r="R46" s="41" t="s">
         <v>1260</v>
       </c>
-      <c r="R46" s="4" t="s">
+      <c r="S46" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="S46" s="5" t="s">
+      <c r="T46" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="T46" s="6" t="s">
+      <c r="U46" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="U46" s="6" t="s">
+      <c r="V46" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="V46" s="7">
+      <c r="W46" s="7">
         <v>840</v>
       </c>
-      <c r="W46" s="4" t="s">
+      <c r="X46" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>256</v>
       </c>
@@ -8742,46 +8769,47 @@
         <v>352</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="J47" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="7"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="4"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="4" t="s">
+      <c r="O47" s="7"/>
+      <c r="P47" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q47" s="41" t="s">
+      <c r="R47" s="41" t="s">
         <v>1261</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="S47" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="S47" s="5" t="s">
+      <c r="T47" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="T47" s="6" t="s">
+      <c r="U47" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="U47" s="6" t="s">
+      <c r="V47" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="V47" s="7">
+      <c r="W47" s="7">
         <v>935</v>
       </c>
-      <c r="W47" s="4" t="s">
+      <c r="X47" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>262</v>
       </c>
@@ -8796,49 +8824,50 @@
       <c r="F48" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="7"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="4"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="O48" s="7"/>
       <c r="P48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="41" t="s">
+      <c r="Q48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R48" s="41" t="s">
         <v>1262</v>
       </c>
-      <c r="R48" s="4" t="s">
+      <c r="S48" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="S48" s="5" t="s">
+      <c r="T48" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="T48" s="6" t="s">
+      <c r="U48" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="U48" s="6" t="s">
+      <c r="V48" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="V48" s="7">
+      <c r="W48" s="7">
         <v>962</v>
       </c>
-      <c r="W48" s="4" t="s">
+      <c r="X48" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
@@ -8851,57 +8880,58 @@
       <c r="F49" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="N49" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="N49" s="7"/>
-      <c r="O49" s="4" t="s">
+      <c r="O49" s="7"/>
+      <c r="P49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="Q49" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q49" s="41" t="s">
+      <c r="R49" s="41" t="s">
         <v>1263</v>
       </c>
-      <c r="R49" s="4" t="s">
+      <c r="S49" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="S49" s="5" t="s">
+      <c r="T49" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="T49" s="6" t="s">
+      <c r="U49" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="U49" s="6" t="s">
+      <c r="V49" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="V49" s="7">
+      <c r="W49" s="7">
         <v>1186</v>
       </c>
-      <c r="W49" s="4" t="s">
+      <c r="X49" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>273</v>
@@ -8918,41 +8948,42 @@
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="7"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="4"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="4" t="s">
+      <c r="O50" s="7"/>
+      <c r="P50" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="Q50" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q50" s="41" t="s">
+      <c r="R50" s="41" t="s">
         <v>1257</v>
       </c>
-      <c r="R50" s="4" t="s">
+      <c r="S50" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="S50" s="5" t="s">
+      <c r="T50" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="T50" s="6" t="s">
+      <c r="U50" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="U50" s="6" t="s">
+      <c r="V50" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="V50" s="7" t="s">
+      <c r="W50" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="W50" s="4" t="s">
+      <c r="X50" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>277</v>
       </c>
@@ -8970,46 +9001,47 @@
         <v>362</v>
       </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="I51" s="7">
+      <c r="J51" s="7">
         <v>1389</v>
       </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="7"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="4"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="4" t="s">
+      <c r="O51" s="7"/>
+      <c r="P51" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="Q51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="41" t="s">
+      <c r="R51" s="41" t="s">
         <v>710</v>
       </c>
-      <c r="R51" s="4" t="s">
+      <c r="S51" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="S51" s="5" t="s">
+      <c r="T51" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="T51" s="6" t="s">
+      <c r="U51" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="U51" s="6" t="s">
+      <c r="V51" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="V51" s="7">
+      <c r="W51" s="7">
         <v>1389</v>
       </c>
-      <c r="W51" s="4" t="s">
+      <c r="X51" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>283</v>
@@ -9025,46 +9057,47 @@
         <v>365</v>
       </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="I52" s="7">
+      <c r="J52" s="7">
         <v>1330</v>
       </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="7"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="4"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="4" t="s">
+      <c r="O52" s="7"/>
+      <c r="P52" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="Q52" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q52" s="41" t="s">
+      <c r="R52" s="41" t="s">
         <v>1264</v>
       </c>
-      <c r="R52" s="4" t="s">
+      <c r="S52" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="S52" s="5" t="s">
+      <c r="T52" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="T52" s="6" t="s">
+      <c r="U52" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="U52" s="6" t="s">
+      <c r="V52" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="V52" s="7">
+      <c r="W52" s="7">
         <v>1330</v>
       </c>
-      <c r="W52" s="4" t="s">
+      <c r="X52" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>288</v>
       </c>
@@ -9080,51 +9113,52 @@
       <c r="F53" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I53" s="7">
+      <c r="J53" s="7">
         <v>1425</v>
       </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="10" t="s">
+      <c r="K53" s="4"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="10" t="s">
         <v>1413</v>
       </c>
-      <c r="O53" s="4" t="s">
+      <c r="P53" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="Q53" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q53" s="41" t="s">
+      <c r="R53" s="41" t="s">
         <v>1265</v>
       </c>
-      <c r="R53" s="4" t="s">
+      <c r="S53" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="S53" s="5" t="s">
+      <c r="T53" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="T53" s="6" t="s">
+      <c r="U53" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="U53" s="6" t="s">
+      <c r="V53" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="V53" s="7">
+      <c r="W53" s="7">
         <v>1425</v>
       </c>
-      <c r="W53" s="4" t="s">
+      <c r="X53" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>293</v>
@@ -9140,46 +9174,47 @@
         <v>369</v>
       </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="I54" s="7">
+      <c r="J54" s="7">
         <v>1515</v>
       </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="7"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="4"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="4" t="s">
+      <c r="O54" s="7"/>
+      <c r="P54" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="Q54" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q54" s="41" t="s">
+      <c r="R54" s="41" t="s">
         <v>1266</v>
       </c>
-      <c r="R54" s="4" t="s">
+      <c r="S54" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="S54" s="5" t="s">
+      <c r="T54" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="T54" s="6" t="s">
+      <c r="U54" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="U54" s="6" t="s">
+      <c r="V54" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="V54" s="7">
+      <c r="W54" s="7">
         <v>1515</v>
       </c>
-      <c r="W54" s="4" t="s">
+      <c r="X54" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>296</v>
@@ -9195,46 +9230,47 @@
         <v>372</v>
       </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="I55" s="7">
+      <c r="J55" s="7">
         <v>1555</v>
       </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="7"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="4"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="4" t="s">
+      <c r="O55" s="7"/>
+      <c r="P55" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q55" s="41" t="s">
+      <c r="R55" s="41" t="s">
         <v>1267</v>
       </c>
-      <c r="R55" s="4" t="s">
+      <c r="S55" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="S55" s="5" t="s">
+      <c r="T55" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="T55" s="6" t="s">
+      <c r="U55" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="U55" s="6" t="s">
+      <c r="V55" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="V55" s="7">
+      <c r="W55" s="7">
         <v>1555</v>
       </c>
-      <c r="W55" s="4" t="s">
+      <c r="X55" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>301</v>
       </c>
@@ -9251,51 +9287,52 @@
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="4" t="s">
+      <c r="I56" s="4"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="K56" s="7">
+      <c r="L56" s="7">
         <v>1602</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>1412</v>
       </c>
-      <c r="O56" s="4" t="s">
+      <c r="P56" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="Q56" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q56" s="41" t="s">
+      <c r="R56" s="41" t="s">
         <v>1268</v>
       </c>
-      <c r="R56" s="4" t="s">
+      <c r="S56" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="S56" s="5" t="s">
+      <c r="T56" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="T56" s="6" t="s">
+      <c r="U56" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="U56" s="6" t="s">
+      <c r="V56" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="V56" s="7">
+      <c r="W56" s="7">
         <v>1638</v>
       </c>
-      <c r="W56" s="4" t="s">
+      <c r="X56" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>306</v>
@@ -9311,48 +9348,49 @@
         <v>375</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I57" s="7">
+      <c r="J57" s="7">
         <v>1660</v>
       </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7" t="s">
+      <c r="K57" s="4"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="O57" s="4" t="s">
+      <c r="P57" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="Q57" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q57" s="41" t="s">
+      <c r="R57" s="41" t="s">
         <v>622</v>
       </c>
-      <c r="R57" s="4" t="s">
+      <c r="S57" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="S57" s="5" t="s">
+      <c r="T57" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="T57" s="6" t="s">
+      <c r="U57" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="U57" s="6" t="s">
+      <c r="V57" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="V57" s="7">
+      <c r="W57" s="7">
         <v>1660</v>
       </c>
-      <c r="W57" s="4" t="s">
+      <c r="X57" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>310</v>
@@ -9368,52 +9406,53 @@
         <v>377</v>
       </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="10" t="s">
+      <c r="M58" s="4"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="10" t="s">
         <v>1411</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q58" s="41" t="s">
+      <c r="Q58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R58" s="41" t="s">
         <v>1269</v>
       </c>
-      <c r="R58" s="4" t="s">
+      <c r="S58" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="S58" s="5" t="s">
+      <c r="T58" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="T58" s="6" t="s">
+      <c r="U58" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="U58" s="6" t="s">
+      <c r="V58" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="V58" s="7">
+      <c r="W58" s="7">
         <v>1773</v>
       </c>
-      <c r="W58" s="4" t="s">
+      <c r="X58" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
         <v>314</v>
@@ -9429,46 +9468,47 @@
         <v>315</v>
       </c>
       <c r="G59" s="7"/>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="7"/>
+      <c r="I59" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
-      <c r="N59" s="7">
+      <c r="N59" s="7"/>
+      <c r="O59" s="7">
         <v>1962</v>
       </c>
-      <c r="O59" s="7" t="s">
+      <c r="P59" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P59" s="7" t="s">
+      <c r="Q59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q59" s="41" t="s">
+      <c r="R59" s="41" t="s">
         <v>1270</v>
       </c>
-      <c r="R59" s="7"/>
-      <c r="S59" s="11" t="s">
+      <c r="S59" s="7"/>
+      <c r="T59" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="T59" s="12" t="s">
+      <c r="U59" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="U59" s="12" t="s">
+      <c r="V59" s="12" t="s">
         <v>1167</v>
       </c>
-      <c r="V59" s="7" t="s">
+      <c r="W59" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="W59" s="7" t="s">
+      <c r="X59" s="7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>388</v>
       </c>
@@ -9484,54 +9524,55 @@
         <v>389</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="I60" s="7">
+      <c r="J60" s="7">
         <v>1889</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="M60" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="N60" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="N60" s="7">
+      <c r="O60" s="7">
         <v>2000</v>
       </c>
-      <c r="O60" s="4" t="s">
+      <c r="P60" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="Q60" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q60" s="41" t="s">
+      <c r="R60" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="R60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S60" s="5" t="s">
+      <c r="T60" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="T60" s="6" t="s">
+      <c r="U60" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="U60" s="6" t="s">
+      <c r="V60" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="V60" s="10" t="s">
+      <c r="W60" s="10" t="s">
         <v>1388</v>
       </c>
-      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
     </row>
-    <row r="61" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>322</v>
       </c>
@@ -9548,59 +9589,60 @@
       <c r="F61" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="M61" s="7">
+      <c r="N61" s="7">
         <v>1956</v>
       </c>
-      <c r="N61" s="10" t="s">
+      <c r="O61" s="10" t="s">
         <v>1410</v>
       </c>
-      <c r="O61" s="4" t="s">
+      <c r="P61" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="Q61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q61" s="41" t="s">
+      <c r="R61" s="41" t="s">
         <v>1271</v>
       </c>
-      <c r="R61" s="4" t="s">
+      <c r="S61" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="S61" s="5" t="s">
+      <c r="T61" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="T61" s="6" t="s">
+      <c r="U61" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="U61" s="6" t="s">
+      <c r="V61" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="V61" s="10" t="s">
+      <c r="W61" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="W61" s="4" t="s">
+      <c r="X61" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>512</v>
       </c>
@@ -9616,41 +9658,42 @@
       <c r="F62" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" s="4"/>
+      <c r="I62" t="s">
         <v>515</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1999</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>171</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>1224</v>
       </c>
-      <c r="Q62" s="40" t="s">
+      <c r="R62" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>436</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>517</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="U62" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="U62" s="1" t="s">
+      <c r="V62" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="V62" s="27" t="s">
+      <c r="W62" s="27" t="s">
         <v>1384</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>519</v>
       </c>
@@ -9663,41 +9706,41 @@
       <c r="E63" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>521</v>
       </c>
-      <c r="I63" s="3">
+      <c r="J63" s="3">
         <v>1915</v>
       </c>
-      <c r="N63" s="3">
+      <c r="O63" s="3">
         <v>1999</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>171</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>1224</v>
       </c>
-      <c r="Q63" s="40" t="s">
+      <c r="R63" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>436</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>523</v>
       </c>
-      <c r="T63" s="1" t="s">
+      <c r="U63" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="U63" s="1" t="s">
+      <c r="V63" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="V63" s="27" t="s">
+      <c r="W63" s="27" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>525</v>
       </c>
@@ -9713,47 +9756,47 @@
       <c r="F64" t="s">
         <v>528</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>529</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>531</v>
       </c>
-      <c r="K64" s="3">
+      <c r="L64" s="3">
         <v>1926</v>
       </c>
-      <c r="N64" s="3">
+      <c r="O64" s="3">
         <v>2000</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>532</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>53</v>
       </c>
-      <c r="Q64" s="40" t="s">
+      <c r="R64" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>534</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>535</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="U64" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="U64" s="1" t="s">
+      <c r="V64" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="V64" s="27" t="s">
+      <c r="W64" s="27" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>537</v>
       </c>
@@ -9769,41 +9812,41 @@
       <c r="F65" t="s">
         <v>540</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>449</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>529</v>
       </c>
-      <c r="N65" s="3">
+      <c r="O65" s="3">
         <v>2000</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>171</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>1224</v>
       </c>
-      <c r="Q65" s="40" t="s">
+      <c r="R65" s="40" t="s">
         <v>541</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>436</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>542</v>
       </c>
-      <c r="T65" s="1" t="s">
+      <c r="U65" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="U65" s="1" t="s">
+      <c r="V65" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="V65" s="27" t="s">
+      <c r="W65" s="27" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>544</v>
       </c>
@@ -9819,41 +9862,41 @@
       <c r="F66" t="s">
         <v>547</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>548</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>26</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>1224</v>
       </c>
-      <c r="Q66" s="40" t="s">
+      <c r="R66" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>550</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>551</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="U66" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="U66" s="1" t="s">
+      <c r="V66" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1935</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>553</v>
       </c>
@@ -9869,56 +9912,56 @@
       <c r="F67" t="s">
         <v>594</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>555</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>556</v>
       </c>
-      <c r="I67" s="3">
+      <c r="J67" s="3">
         <v>1926</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>557</v>
       </c>
-      <c r="K67" s="3">
+      <c r="L67" s="3">
         <v>1931</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>591</v>
       </c>
-      <c r="M67" s="3">
+      <c r="N67" s="3">
         <v>1932</v>
       </c>
-      <c r="N67" s="3">
+      <c r="O67" s="3">
         <v>2000</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>138</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>1224</v>
       </c>
-      <c r="Q67" s="40" t="s">
+      <c r="R67" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>154</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>558</v>
       </c>
-      <c r="T67" s="1" t="s">
+      <c r="U67" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="U67" s="1" t="s">
+      <c r="V67" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="V67" s="3">
+      <c r="W67" s="3">
         <v>1934</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>560</v>
       </c>
@@ -9934,59 +9977,59 @@
       <c r="F68" t="s">
         <v>507</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>563</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>507</v>
       </c>
-      <c r="I68" s="3">
+      <c r="J68" s="3">
         <v>1865</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>564</v>
       </c>
-      <c r="K68" s="3">
+      <c r="L68" s="3">
         <v>1917</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>565</v>
       </c>
-      <c r="M68" s="3">
+      <c r="N68" s="3">
         <v>1918</v>
       </c>
-      <c r="N68" s="3">
+      <c r="O68" s="3">
         <v>2000</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>138</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>1224</v>
       </c>
-      <c r="Q68" s="40" t="s">
+      <c r="R68" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>248</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>566</v>
       </c>
-      <c r="T68" s="1" t="s">
+      <c r="U68" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="U68" s="1" t="s">
+      <c r="V68" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="V68" s="3">
+      <c r="W68" s="3">
         <v>1918</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>569</v>
       </c>
@@ -10002,47 +10045,47 @@
       <c r="F69" t="s">
         <v>593</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>570</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>529</v>
       </c>
-      <c r="I69" s="3">
+      <c r="J69" s="3">
         <v>1928</v>
       </c>
-      <c r="N69" s="3">
+      <c r="O69" s="3">
         <v>2001</v>
-      </c>
-      <c r="O69" t="s">
-        <v>53</v>
       </c>
       <c r="P69" t="s">
         <v>53</v>
       </c>
-      <c r="Q69" s="40" t="s">
+      <c r="Q69" t="s">
+        <v>53</v>
+      </c>
+      <c r="R69" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>571</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>572</v>
       </c>
-      <c r="T69" s="1" t="s">
+      <c r="U69" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="U69" s="1" t="s">
+      <c r="V69" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="V69" s="27" t="s">
+      <c r="W69" s="27" t="s">
         <v>1383</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>575</v>
       </c>
@@ -10058,44 +10101,44 @@
       <c r="F70" t="s">
         <v>592</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>577</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>1915</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>2000</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>171</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>1224</v>
       </c>
-      <c r="Q70" s="40" t="s">
+      <c r="R70" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>571</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>578</v>
       </c>
-      <c r="T70" s="1" t="s">
+      <c r="U70" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="U70" s="1" t="s">
+      <c r="V70" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="V70" s="27" t="s">
+      <c r="W70" s="27" t="s">
         <v>1382</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>581</v>
       </c>
@@ -10111,50 +10154,50 @@
       <c r="F71" t="s">
         <v>469</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>583</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>469</v>
       </c>
-      <c r="I71" s="3">
+      <c r="J71" s="3">
         <v>1890</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>497</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="L71" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="N71" s="3">
+      <c r="O71" s="3">
         <v>1999</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>171</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>1224</v>
       </c>
-      <c r="Q71" s="40" t="s">
+      <c r="R71" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>23</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>584</v>
       </c>
-      <c r="T71" s="1" t="s">
+      <c r="U71" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="U71" s="1" t="s">
+      <c r="V71" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="V71" s="27" t="s">
+      <c r="W71" s="27" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>586</v>
       </c>
@@ -10170,41 +10213,41 @@
       <c r="F72" t="s">
         <v>106</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>588</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1913</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2000</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>171</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>1224</v>
       </c>
-      <c r="Q72" s="40" t="s">
+      <c r="R72" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>436</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>589</v>
       </c>
-      <c r="T72" s="1" t="s">
+      <c r="U72" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="U72" s="1" t="s">
+      <c r="V72" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="V72" s="27" t="s">
+      <c r="W72" s="27" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>511</v>
       </c>
@@ -10220,53 +10263,53 @@
       <c r="F73" t="s">
         <v>354</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>508</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>42</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>507</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>506</v>
       </c>
-      <c r="M73" s="3">
+      <c r="N73" s="3">
         <v>1357</v>
       </c>
-      <c r="N73" s="3">
+      <c r="O73" s="3">
         <v>1431</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>39</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>33</v>
       </c>
-      <c r="Q73" s="40" t="s">
+      <c r="R73" s="40" t="s">
         <v>505</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>489</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>504</v>
       </c>
-      <c r="T73" s="1" t="s">
+      <c r="U73" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U73" s="1" t="s">
+      <c r="V73" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="V73" s="3" t="s">
+      <c r="W73" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>503</v>
       </c>
@@ -10282,56 +10325,56 @@
       <c r="F74" t="s">
         <v>500</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>499</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>498</v>
       </c>
-      <c r="I74" s="3">
+      <c r="J74" s="3">
         <v>1897</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>497</v>
       </c>
-      <c r="K74" s="3">
+      <c r="L74" s="3">
         <v>1899</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>449</v>
       </c>
-      <c r="M74" s="3">
+      <c r="N74" s="3">
         <v>1902</v>
       </c>
-      <c r="N74" s="27" t="s">
+      <c r="O74" s="27" t="s">
         <v>1409</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>171</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>1224</v>
       </c>
-      <c r="Q74" s="40" t="s">
+      <c r="R74" s="40" t="s">
         <v>1272</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>489</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>496</v>
       </c>
-      <c r="T74" s="1" t="s">
+      <c r="U74" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U74" s="1" t="s">
+      <c r="V74" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="V74" s="27" t="s">
+      <c r="W74" s="27" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>495</v>
       </c>
@@ -10350,56 +10393,56 @@
       <c r="F75" t="s">
         <v>492</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>491</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>42</v>
       </c>
-      <c r="I75" s="3">
+      <c r="J75" s="3">
         <v>1905</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>384</v>
       </c>
-      <c r="K75" s="3">
+      <c r="L75" s="3">
         <v>1913</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>449</v>
       </c>
-      <c r="M75" s="3">
+      <c r="N75" s="3">
         <v>1922</v>
       </c>
-      <c r="N75" s="3">
+      <c r="O75" s="3">
         <v>2000</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>171</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>1224</v>
       </c>
-      <c r="Q75" s="40" t="s">
+      <c r="R75" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>489</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>488</v>
       </c>
-      <c r="T75" s="1" t="s">
+      <c r="U75" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U75" s="1" t="s">
+      <c r="V75" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="V75" s="27" t="s">
+      <c r="W75" s="27" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>487</v>
       </c>
@@ -10418,56 +10461,56 @@
       <c r="F76" t="s">
         <v>484</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>483</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>350</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1894</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>482</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1912</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>449</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1924</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2000</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>171</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>1224</v>
       </c>
-      <c r="Q76" s="40" t="s">
+      <c r="R76" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>473</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>481</v>
       </c>
-      <c r="T76" s="1" t="s">
+      <c r="U76" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U76" s="1" t="s">
+      <c r="V76" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="V76" s="27" t="s">
+      <c r="W76" s="27" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>480</v>
       </c>
@@ -10486,59 +10529,59 @@
       <c r="F77" t="s">
         <v>429</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>477</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>449</v>
       </c>
-      <c r="I77" s="3">
+      <c r="J77" s="3">
         <v>1876</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>476</v>
       </c>
-      <c r="K77" s="3">
+      <c r="L77" s="3">
         <v>1931</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>475</v>
       </c>
-      <c r="M77" s="3">
+      <c r="N77" s="3">
         <v>1936</v>
       </c>
-      <c r="N77" s="3">
+      <c r="O77" s="3">
         <v>2000</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>171</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>1224</v>
       </c>
-      <c r="Q77" s="40" t="s">
+      <c r="R77" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>473</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>472</v>
       </c>
-      <c r="T77" s="1" t="s">
+      <c r="U77" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U77" s="1" t="s">
+      <c r="V77" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="V77" s="27" t="s">
+      <c r="W77" s="27" t="s">
         <v>1376</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>470</v>
       </c>
@@ -10557,41 +10600,41 @@
       <c r="F78" t="s">
         <v>469</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>449</v>
       </c>
-      <c r="I78" s="3">
+      <c r="J78" s="3">
         <v>1890</v>
       </c>
-      <c r="N78" s="3">
+      <c r="O78" s="3">
         <v>2001</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>171</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>1224</v>
       </c>
-      <c r="Q78" s="40" t="s">
+      <c r="R78" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>436</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>468</v>
       </c>
-      <c r="T78" s="1" t="s">
+      <c r="U78" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U78" s="1" t="s">
+      <c r="V78" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="V78" s="27" t="s">
+      <c r="W78" s="27" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>467</v>
       </c>
@@ -10610,50 +10653,50 @@
       <c r="F79" t="s">
         <v>465</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>464</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>463</v>
       </c>
-      <c r="I79" s="3">
+      <c r="J79" s="3">
         <v>1913</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>462</v>
       </c>
-      <c r="K79" s="3">
+      <c r="L79" s="3">
         <v>1913</v>
       </c>
-      <c r="N79" s="3">
+      <c r="O79" s="3">
         <v>2000</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>171</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>1224</v>
       </c>
-      <c r="Q79" s="40" t="s">
+      <c r="R79" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>154</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>461</v>
       </c>
-      <c r="T79" s="1" t="s">
+      <c r="U79" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U79" s="1" t="s">
+      <c r="V79" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="V79" s="27" t="s">
+      <c r="W79" s="27" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>460</v>
       </c>
@@ -10672,47 +10715,47 @@
       <c r="F80" t="s">
         <v>457</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>456</v>
       </c>
-      <c r="I80" s="3">
+      <c r="J80" s="3">
         <v>1897</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>429</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="L80" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="N80" s="3">
+      <c r="O80" s="3">
         <v>2000</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>26</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>1224</v>
       </c>
-      <c r="Q80" s="40" t="s">
+      <c r="R80" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>426</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>454</v>
       </c>
-      <c r="T80" s="1" t="s">
+      <c r="U80" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="U80" s="1" t="s">
+      <c r="V80" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="V80" s="27" t="s">
+      <c r="W80" s="27" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>452</v>
       </c>
@@ -10731,44 +10774,44 @@
       <c r="F81" t="s">
         <v>449</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>448</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>443</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>1060</v>
-      </c>
-      <c r="O81" t="s">
-        <v>53</v>
       </c>
       <c r="P81" t="s">
         <v>53</v>
       </c>
-      <c r="Q81" s="40" t="s">
+      <c r="Q81" t="s">
+        <v>53</v>
+      </c>
+      <c r="R81" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>446</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>445</v>
       </c>
-      <c r="T81" s="1" t="s">
+      <c r="U81" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="U81" s="1" t="s">
+      <c r="V81" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="V81" s="27" t="s">
+      <c r="W81" s="27" t="s">
         <v>1372</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>442</v>
       </c>
@@ -10787,50 +10830,50 @@
       <c r="F82" t="s">
         <v>439</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>438</v>
       </c>
-      <c r="I82" s="3">
+      <c r="J82" s="3">
         <v>1843</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>433</v>
       </c>
-      <c r="K82" s="3">
+      <c r="L82" s="3">
         <v>1881</v>
       </c>
-      <c r="N82" s="3">
+      <c r="O82" s="3">
         <v>2001</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>428</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>33</v>
       </c>
-      <c r="Q82" s="40" t="s">
+      <c r="R82" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>436</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>435</v>
       </c>
-      <c r="T82" s="1" t="s">
+      <c r="U82" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="U82" s="1" t="s">
+      <c r="V82" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="V82" s="3">
+      <c r="W82" s="3">
         <v>1900</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>432</v>
       </c>
@@ -10846,41 +10889,41 @@
       <c r="F83" t="s">
         <v>429</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>429</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1999</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>428</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>33</v>
       </c>
-      <c r="Q83" s="40" t="s">
+      <c r="R83" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>426</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>425</v>
       </c>
-      <c r="T83" s="1" t="s">
+      <c r="U83" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U83" s="1" t="s">
+      <c r="V83" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1925</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>595</v>
       </c>
@@ -10897,55 +10940,56 @@
       <c r="F84" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="14"/>
+      <c r="H84" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="J84" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="K84" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="L84" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="L84" s="4"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="10" t="s">
+      <c r="M84" s="4"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="10" t="s">
         <v>1408</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="P84" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q84" s="41" t="s">
+      <c r="Q84" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R84" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="R84" s="4" t="s">
+      <c r="S84" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="S84" s="15" t="s">
+      <c r="T84" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="T84" s="6" t="s">
+      <c r="U84" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="U84" s="6" t="s">
+      <c r="V84" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="V84" s="7" t="s">
+      <c r="W84" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="W84" s="4" t="s">
+      <c r="X84" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>607</v>
       </c>
@@ -10962,53 +11006,54 @@
       <c r="F85" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="4"/>
+      <c r="H85" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="7"/>
+      <c r="K85" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="L85" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="L85" s="4"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7">
+      <c r="M85" s="4"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7">
         <v>1988</v>
       </c>
-      <c r="O85" s="4" t="s">
+      <c r="P85" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="P85" s="4" t="s">
+      <c r="Q85" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q85" s="41" t="s">
+      <c r="R85" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="R85" s="4" t="s">
+      <c r="S85" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="S85" s="15" t="s">
+      <c r="T85" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="T85" s="6" t="s">
+      <c r="U85" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="U85" s="6" t="s">
+      <c r="V85" s="6" t="s">
         <v>1186</v>
       </c>
-      <c r="V85" s="7" t="s">
+      <c r="W85" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="W85" s="7" t="s">
+      <c r="X85" s="7" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>1466</v>
@@ -11023,55 +11068,56 @@
       <c r="F86" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="4"/>
+      <c r="H86" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="K86" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="K86" s="7" t="s">
+      <c r="L86" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="10" t="s">
+      <c r="M86" s="4"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="O86" s="4" t="s">
+      <c r="P86" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P86" s="4" t="s">
+      <c r="Q86" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q86" s="41" t="s">
+      <c r="R86" s="41" t="s">
         <v>622</v>
       </c>
-      <c r="R86" s="4" t="s">
+      <c r="S86" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S86" s="15" t="s">
+      <c r="T86" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="T86" s="6" t="s">
+      <c r="U86" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="U86" s="4" t="s">
+      <c r="V86" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="V86" s="7" t="s">
+      <c r="W86" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="W86" s="16" t="s">
+      <c r="X86" s="16" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>627</v>
       </c>
@@ -11090,51 +11136,52 @@
       <c r="F87" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="4"/>
+      <c r="H87" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="J87" s="4"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="10" t="s">
+      <c r="K87" s="4"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="10" t="s">
         <v>1406</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="P87" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q87" s="41" t="s">
+      <c r="Q87" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R87" s="41" t="s">
         <v>635</v>
       </c>
-      <c r="R87" s="4" t="s">
+      <c r="S87" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="S87" s="5" t="s">
+      <c r="T87" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="T87" s="6" t="s">
+      <c r="U87" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="U87" s="6" t="s">
+      <c r="V87" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="V87" s="7" t="s">
+      <c r="W87" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="W87" s="7" t="s">
+      <c r="X87" s="7" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>640</v>
       </c>
@@ -11151,49 +11198,50 @@
       <c r="F88" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="4"/>
+      <c r="H88" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="J88" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="J88" s="4"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="10" t="s">
+      <c r="K88" s="4"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="10" t="s">
         <v>1405</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="P88" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q88" s="41" t="s">
+      <c r="Q88" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R88" s="41" t="s">
         <v>647</v>
       </c>
-      <c r="R88" s="4"/>
-      <c r="S88" s="5" t="s">
+      <c r="S88" s="4"/>
+      <c r="T88" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="T88" s="6" t="s">
+      <c r="U88" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="U88" s="6" t="s">
+      <c r="V88" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="V88" s="10" t="s">
+      <c r="W88" s="10" t="s">
         <v>1371</v>
       </c>
-      <c r="W88" s="7" t="s">
+      <c r="X88" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>650</v>
       </c>
@@ -11210,59 +11258,60 @@
       <c r="F89" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="4"/>
+      <c r="H89" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="J89" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="K89" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="K89" s="7" t="s">
+      <c r="L89" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="L89" s="4" t="s">
+      <c r="M89" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="M89" s="7" t="s">
+      <c r="N89" s="7" t="s">
         <v>1273</v>
       </c>
-      <c r="N89" s="10" t="s">
+      <c r="O89" s="10" t="s">
         <v>1404</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="P89" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P89" s="4" t="s">
+      <c r="Q89" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q89" s="41" t="s">
+      <c r="R89" s="41" t="s">
         <v>657</v>
       </c>
-      <c r="R89" s="4" t="s">
+      <c r="S89" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S89" s="5" t="s">
+      <c r="T89" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="T89" s="6" t="s">
+      <c r="U89" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="U89" s="6" t="s">
+      <c r="V89" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="V89" s="7" t="s">
+      <c r="W89" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="W89" s="7" t="s">
+      <c r="X89" s="7" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>662</v>
       </c>
@@ -11281,59 +11330,60 @@
       <c r="F90" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="4"/>
+      <c r="H90" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="J90" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="L90" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="L90" s="4" t="s">
+      <c r="M90" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="M90" s="7" t="s">
+      <c r="N90" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="N90" s="10" t="s">
+      <c r="O90" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="O90" s="4" t="s">
+      <c r="P90" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P90" s="4" t="s">
+      <c r="Q90" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q90" s="41" t="s">
+      <c r="R90" s="41" t="s">
         <v>673</v>
       </c>
-      <c r="R90" s="4" t="s">
+      <c r="S90" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S90" s="5" t="s">
+      <c r="T90" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="T90" s="6" t="s">
+      <c r="U90" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="U90" s="6" t="s">
+      <c r="V90" s="6" t="s">
         <v>1191</v>
       </c>
-      <c r="V90" s="10" t="s">
+      <c r="W90" s="10" t="s">
         <v>1370</v>
       </c>
-      <c r="W90" s="7" t="s">
+      <c r="X90" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>676</v>
@@ -11349,42 +11399,43 @@
         <v>677</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="4" t="s">
+      <c r="H91" s="4"/>
+      <c r="I91" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="I91" s="7">
+      <c r="J91" s="7">
         <v>786</v>
       </c>
-      <c r="J91" s="4"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="7"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="4"/>
       <c r="N91" s="7"/>
-      <c r="O91" s="4" t="s">
+      <c r="O91" s="7"/>
+      <c r="P91" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P91" s="4" t="s">
+      <c r="Q91" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q91" s="41" t="s">
+      <c r="R91" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="R91" s="4"/>
-      <c r="S91" s="5" t="s">
+      <c r="S91" s="4"/>
+      <c r="T91" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="T91" s="6" t="s">
+      <c r="U91" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="U91" s="6" t="s">
+      <c r="V91" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="V91" s="7" t="s">
+      <c r="W91" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
     </row>
-    <row r="92" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>682</v>
@@ -11398,42 +11449,43 @@
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="4"/>
+      <c r="I92" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="J92" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="7"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="4"/>
       <c r="N92" s="7"/>
-      <c r="O92" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="O92" s="7"/>
       <c r="P92" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q92" s="41" t="s">
+      <c r="Q92" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R92" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="R92" s="4"/>
-      <c r="S92" s="5" t="s">
+      <c r="S92" s="4"/>
+      <c r="T92" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="T92" s="6" t="s">
+      <c r="U92" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="U92" s="4"/>
-      <c r="V92" s="7">
+      <c r="V92" s="4"/>
+      <c r="W92" s="7">
         <v>597</v>
       </c>
-      <c r="W92" s="7" t="s">
+      <c r="X92" s="7" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>686</v>
@@ -11447,44 +11499,45 @@
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="4"/>
+      <c r="I93" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="J93" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="7"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="4"/>
       <c r="N93" s="7"/>
-      <c r="O93" s="4" t="s">
+      <c r="O93" s="7"/>
+      <c r="P93" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P93" s="4" t="s">
+      <c r="Q93" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q93" s="41" t="s">
+      <c r="R93" s="41" t="s">
         <v>687</v>
       </c>
-      <c r="R93" s="4"/>
-      <c r="S93" s="5" t="s">
+      <c r="S93" s="4"/>
+      <c r="T93" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="T93" s="6" t="s">
+      <c r="U93" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="U93" s="6" t="s">
+      <c r="V93" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="V93" s="7">
+      <c r="W93" s="7">
         <v>269</v>
       </c>
-      <c r="W93" s="7" t="s">
+      <c r="X93" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>690</v>
@@ -11500,44 +11553,45 @@
         <v>19</v>
       </c>
       <c r="G94" s="4"/>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="4"/>
+      <c r="I94" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="I94" s="7">
+      <c r="J94" s="7">
         <v>304</v>
       </c>
-      <c r="J94" s="4"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="7"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="4"/>
       <c r="N94" s="7"/>
-      <c r="O94" s="4" t="s">
+      <c r="O94" s="7"/>
+      <c r="P94" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P94" s="4" t="s">
+      <c r="Q94" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q94" s="41" t="s">
+      <c r="R94" s="41" t="s">
         <v>691</v>
       </c>
-      <c r="R94" s="4"/>
-      <c r="S94" s="5" t="s">
+      <c r="S94" s="4"/>
+      <c r="T94" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="T94" s="6" t="s">
+      <c r="U94" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="U94" s="6" t="s">
+      <c r="V94" s="6" t="s">
         <v>1194</v>
       </c>
-      <c r="V94" s="7">
+      <c r="W94" s="7">
         <v>304</v>
       </c>
-      <c r="W94" s="7" t="s">
+      <c r="X94" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>694</v>
       </c>
@@ -11556,59 +11610,60 @@
       <c r="F95" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="4"/>
+      <c r="H95" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="I95" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="I95" s="7">
+      <c r="J95" s="7">
         <v>1927</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="K95" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="K95" s="7">
+      <c r="L95" s="7">
         <v>1930</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="M95" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="M95" s="7">
+      <c r="N95" s="7">
         <v>1930</v>
       </c>
-      <c r="N95" s="10" t="s">
+      <c r="O95" s="10" t="s">
         <v>1402</v>
       </c>
-      <c r="O95" s="4" t="s">
+      <c r="P95" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="P95" s="4" t="s">
+      <c r="Q95" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q95" s="41" t="s">
+      <c r="R95" s="41" t="s">
         <v>702</v>
       </c>
-      <c r="R95" s="4" t="s">
+      <c r="S95" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="S95" s="17" t="s">
+      <c r="T95" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="T95" s="6" t="s">
+      <c r="U95" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="U95" s="6" t="s">
+      <c r="V95" s="6" t="s">
         <v>1195</v>
       </c>
-      <c r="V95" s="7">
+      <c r="W95" s="7">
         <v>1937</v>
       </c>
-      <c r="W95" s="7" t="s">
+      <c r="X95" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
@@ -11622,46 +11677,47 @@
         <v>708</v>
       </c>
       <c r="G96" s="4"/>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="4"/>
+      <c r="I96" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="J96" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="J96" s="4"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="7"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="4"/>
       <c r="N96" s="7"/>
-      <c r="O96" s="4" t="s">
+      <c r="O96" s="7"/>
+      <c r="P96" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="P96" s="4" t="s">
+      <c r="Q96" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q96" s="41" t="s">
+      <c r="R96" s="41" t="s">
         <v>710</v>
       </c>
-      <c r="R96" s="4" t="s">
+      <c r="S96" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="S96" s="5" t="s">
+      <c r="T96" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="T96" s="6" t="s">
+      <c r="U96" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="U96" s="33" t="s">
+      <c r="V96" s="33" t="s">
         <v>1196</v>
       </c>
-      <c r="V96" s="7" t="s">
+      <c r="W96" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="W96" s="7" t="s">
+      <c r="X96" s="7" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>716</v>
       </c>
@@ -11680,53 +11736,54 @@
       <c r="F97" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="I97" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="I97" s="7">
+      <c r="J97" s="7">
         <v>1920</v>
       </c>
-      <c r="J97" s="4"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="4" t="s">
+      <c r="K97" s="4"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="M97" s="7">
+      <c r="N97" s="7">
         <v>1934</v>
       </c>
-      <c r="N97" s="7">
+      <c r="O97" s="7">
         <v>2000</v>
       </c>
-      <c r="O97" s="4" t="s">
+      <c r="P97" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="P97" s="4" t="s">
+      <c r="Q97" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q97" s="41" t="s">
+      <c r="R97" s="41" t="s">
         <v>722</v>
       </c>
-      <c r="R97" s="4" t="s">
+      <c r="S97" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S97" s="5" t="s">
+      <c r="T97" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="T97" s="6" t="s">
+      <c r="U97" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="U97" s="33" t="s">
+      <c r="V97" s="33" t="s">
         <v>1197</v>
       </c>
-      <c r="V97" s="7">
+      <c r="W97" s="7">
         <v>1937</v>
       </c>
-      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
     </row>
-    <row r="98" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>725</v>
@@ -11740,44 +11797,45 @@
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="4"/>
+      <c r="I98" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="I98" s="7">
+      <c r="J98" s="7">
         <v>375</v>
       </c>
-      <c r="J98" s="4"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="7"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="4"/>
       <c r="N98" s="7"/>
-      <c r="O98" s="4" t="s">
+      <c r="O98" s="7"/>
+      <c r="P98" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="P98" s="4" t="s">
+      <c r="Q98" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q98" s="41" t="s">
+      <c r="R98" s="41" t="s">
         <v>727</v>
       </c>
-      <c r="R98" s="4" t="s">
+      <c r="S98" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S98" s="4" t="s">
+      <c r="T98" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="T98" s="6" t="s">
+      <c r="U98" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="U98" s="4"/>
-      <c r="V98" s="7">
+      <c r="V98" s="4"/>
+      <c r="W98" s="7">
         <v>375</v>
       </c>
-      <c r="W98" s="7" t="s">
+      <c r="X98" s="7" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>730</v>
@@ -11791,42 +11849,43 @@
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="4"/>
+      <c r="I99" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="J99" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="J99" s="4"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="7"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="4"/>
       <c r="N99" s="7"/>
-      <c r="O99" s="4" t="s">
+      <c r="O99" s="7"/>
+      <c r="P99" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="Q99" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q99" s="41" t="s">
+      <c r="R99" s="41" t="s">
         <v>732</v>
       </c>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4" t="s">
+      <c r="S99" s="4"/>
+      <c r="T99" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="T99" s="6" t="s">
+      <c r="U99" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="U99" s="6" t="s">
+      <c r="V99" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="V99" s="7" t="s">
+      <c r="W99" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
     </row>
-    <row r="100" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>735</v>
@@ -11841,37 +11900,38 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="7"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="4"/>
       <c r="N100" s="7"/>
-      <c r="O100" s="4" t="s">
+      <c r="O100" s="7"/>
+      <c r="P100" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P100" s="4" t="s">
+      <c r="Q100" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="Q100" s="41" t="s">
+      <c r="R100" s="41" t="s">
         <v>736</v>
       </c>
-      <c r="R100" s="4" t="s">
+      <c r="S100" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="S100" s="4" t="s">
+      <c r="T100" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="T100" s="6" t="s">
+      <c r="U100" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="U100" s="4"/>
-      <c r="V100" s="7">
+      <c r="V100" s="4"/>
+      <c r="W100" s="7">
         <v>380</v>
       </c>
-      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
     </row>
-    <row r="101" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>742</v>
       </c>
@@ -11881,32 +11941,32 @@
       <c r="E101" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>171</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>1224</v>
       </c>
-      <c r="Q101" s="40" t="s">
+      <c r="R101" s="40" t="s">
         <v>743</v>
       </c>
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>737</v>
       </c>
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>744</v>
       </c>
-      <c r="T101" s="1" t="s">
+      <c r="U101" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>250</v>
       </c>
-      <c r="W101" s="3" t="s">
+      <c r="X101" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>746</v>
       </c>
@@ -11916,30 +11976,30 @@
       <c r="E102" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
         <v>171</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" t="s">
         <v>1224</v>
       </c>
-      <c r="Q102" s="40" t="s">
+      <c r="R102" s="40" t="s">
         <v>747</v>
       </c>
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>737</v>
       </c>
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>748</v>
       </c>
-      <c r="T102" s="1" t="s">
+      <c r="U102" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="U102" s="1" t="s">
+      <c r="V102" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>750</v>
       </c>
@@ -11949,63 +12009,63 @@
       <c r="E103" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>171</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>1224</v>
       </c>
-      <c r="Q103" s="40" t="s">
+      <c r="R103" s="40" t="s">
         <v>751</v>
       </c>
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>23</v>
       </c>
-      <c r="S103" s="2" t="s">
+      <c r="T103" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="T103" s="1" t="s">
+      <c r="U103" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="U103" s="1" t="s">
+      <c r="V103" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>754</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="O104" t="s">
-        <v>53</v>
-      </c>
       <c r="P104" t="s">
         <v>53</v>
       </c>
-      <c r="Q104" s="40" t="s">
+      <c r="Q104" t="s">
+        <v>53</v>
+      </c>
+      <c r="R104" s="40" t="s">
         <v>755</v>
       </c>
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>741</v>
       </c>
-      <c r="S104" s="2" t="s">
+      <c r="T104" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="T104" s="1" t="s">
+      <c r="U104" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="U104" s="1" t="s">
+      <c r="V104" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="V104" s="3">
+      <c r="W104" s="3">
         <v>470</v>
       </c>
-      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>758</v>
       </c>
@@ -12023,48 +12083,49 @@
         <v>761</v>
       </c>
       <c r="G105" s="19"/>
-      <c r="H105" s="19" t="s">
+      <c r="H105" s="19"/>
+      <c r="I105" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="I105" s="25" t="s">
+      <c r="J105" s="25" t="s">
         <v>763</v>
       </c>
-      <c r="J105" s="19"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="25"/>
-      <c r="N105" s="31" t="s">
+      <c r="K105" s="19"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="31" t="s">
         <v>1400</v>
       </c>
-      <c r="O105" s="19" t="s">
+      <c r="P105" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="P105" s="19" t="s">
+      <c r="Q105" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="Q105" s="30" t="s">
+      <c r="R105" s="30" t="s">
         <v>1274</v>
       </c>
-      <c r="R105" s="19" t="s">
+      <c r="S105" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="S105" s="19" t="s">
+      <c r="T105" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="T105" s="32" t="s">
+      <c r="U105" s="32" t="s">
         <v>766</v>
       </c>
-      <c r="U105" s="36" t="s">
+      <c r="V105" s="36" t="s">
         <v>1455</v>
       </c>
-      <c r="V105" s="25" t="s">
+      <c r="W105" s="25" t="s">
         <v>1109</v>
       </c>
-      <c r="W105" s="20" t="s">
+      <c r="X105" s="20" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>768</v>
       </c>
@@ -12084,54 +12145,55 @@
         <v>770</v>
       </c>
       <c r="G106" s="22"/>
-      <c r="H106" s="22" t="s">
+      <c r="H106" s="22"/>
+      <c r="I106" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="I106" s="26" t="s">
+      <c r="J106" s="26" t="s">
         <v>1082</v>
       </c>
-      <c r="J106" s="22" t="s">
+      <c r="K106" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="K106" s="26" t="s">
+      <c r="L106" s="26" t="s">
         <v>1056</v>
       </c>
-      <c r="L106" s="22" t="s">
+      <c r="M106" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="M106" s="26" t="s">
+      <c r="N106" s="26" t="s">
         <v>1298</v>
       </c>
-      <c r="N106" s="24" t="s">
+      <c r="O106" s="24" t="s">
         <v>1401</v>
       </c>
-      <c r="O106" s="22" t="s">
+      <c r="P106" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="P106" s="22" t="s">
+      <c r="Q106" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q106" s="29" t="s">
+      <c r="R106" s="29" t="s">
         <v>1275</v>
       </c>
-      <c r="R106" s="22" t="s">
+      <c r="S106" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="S106" s="22" t="s">
+      <c r="T106" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="T106" s="22" t="s">
+      <c r="U106" s="22" t="s">
         <v>776</v>
       </c>
-      <c r="U106" s="34" t="s">
+      <c r="V106" s="34" t="s">
         <v>777</v>
       </c>
-      <c r="V106" s="24" t="s">
+      <c r="W106" s="24" t="s">
         <v>1369</v>
       </c>
-      <c r="W106" s="23"/>
+      <c r="X106" s="23"/>
     </row>
-    <row r="107" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19" t="s">
@@ -12142,47 +12204,48 @@
         <v>1069</v>
       </c>
       <c r="F107" s="19"/>
-      <c r="G107" s="19" t="s">
+      <c r="G107" s="19"/>
+      <c r="H107" s="19" t="s">
         <v>779</v>
       </c>
-      <c r="H107" s="19" t="s">
+      <c r="I107" s="19" t="s">
         <v>780</v>
       </c>
-      <c r="I107" s="25" t="s">
+      <c r="J107" s="25" t="s">
         <v>1083</v>
       </c>
-      <c r="J107" s="19"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="25"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="19"/>
       <c r="N107" s="25"/>
-      <c r="O107" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="O107" s="25"/>
       <c r="P107" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="Q107" s="30" t="s">
+      <c r="Q107" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="R107" s="30" t="s">
         <v>1276</v>
       </c>
-      <c r="R107" s="19" t="s">
+      <c r="S107" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="S107" s="19" t="s">
+      <c r="T107" s="19" t="s">
         <v>782</v>
       </c>
-      <c r="T107" s="32" t="s">
+      <c r="U107" s="32" t="s">
         <v>1312</v>
       </c>
-      <c r="U107" s="32" t="s">
+      <c r="V107" s="32" t="s">
         <v>1202</v>
       </c>
-      <c r="V107" s="25" t="s">
+      <c r="W107" s="25" t="s">
         <v>1110</v>
       </c>
-      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
     </row>
-    <row r="108" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>783</v>
       </c>
@@ -12201,59 +12264,60 @@
       <c r="F108" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="G108" s="22"/>
+      <c r="H108" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="H108" s="22" t="s">
+      <c r="I108" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="I108" s="26" t="s">
+      <c r="J108" s="26" t="s">
         <v>1084</v>
       </c>
-      <c r="J108" s="22" t="s">
+      <c r="K108" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="K108" s="26" t="s">
+      <c r="L108" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="L108" s="22" t="s">
+      <c r="M108" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="M108" s="26">
+      <c r="N108" s="26">
         <v>1937</v>
       </c>
-      <c r="N108" s="29" t="s">
+      <c r="O108" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="O108" s="22" t="s">
+      <c r="P108" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="P108" s="22" t="s">
+      <c r="Q108" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q108" s="29" t="s">
+      <c r="R108" s="29" t="s">
         <v>1277</v>
       </c>
-      <c r="R108" s="22" t="s">
+      <c r="S108" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="S108" s="22" t="s">
+      <c r="T108" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="T108" s="22" t="s">
+      <c r="U108" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="U108" s="34" t="s">
+      <c r="V108" s="34" t="s">
         <v>1203</v>
       </c>
-      <c r="V108" s="24" t="s">
+      <c r="W108" s="24" t="s">
         <v>1368</v>
       </c>
-      <c r="W108" s="23" t="s">
+      <c r="X108" s="23" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>794</v>
       </c>
@@ -12272,57 +12336,58 @@
       <c r="F109" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G109" s="19"/>
+      <c r="H109" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="H109" s="19" t="s">
+      <c r="I109" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="I109" s="25" t="s">
+      <c r="J109" s="25" t="s">
         <v>797</v>
       </c>
-      <c r="J109" s="19" t="s">
+      <c r="K109" s="19" t="s">
         <v>798</v>
       </c>
-      <c r="K109" s="25" t="s">
+      <c r="L109" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="L109" s="19" t="s">
+      <c r="M109" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="M109" s="25" t="s">
+      <c r="N109" s="25" t="s">
         <v>801</v>
       </c>
-      <c r="N109" s="31" t="s">
+      <c r="O109" s="31" t="s">
         <v>1393</v>
       </c>
-      <c r="O109" s="19" t="s">
+      <c r="P109" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="P109" s="19" t="s">
+      <c r="Q109" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="Q109" s="30" t="s">
+      <c r="R109" s="30" t="s">
         <v>1278</v>
       </c>
-      <c r="R109" s="19" t="s">
+      <c r="S109" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="S109" s="46" t="s">
+      <c r="T109" s="46" t="s">
         <v>803</v>
       </c>
-      <c r="T109" s="19" t="s">
+      <c r="U109" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="U109" s="32" t="s">
+      <c r="V109" s="32" t="s">
         <v>1204</v>
       </c>
-      <c r="V109" s="31" t="s">
+      <c r="W109" s="31" t="s">
         <v>1367</v>
       </c>
-      <c r="W109" s="20"/>
+      <c r="X109" s="20"/>
     </row>
-    <row r="110" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>805</v>
       </c>
@@ -12342,48 +12407,49 @@
         <v>807</v>
       </c>
       <c r="G110" s="22"/>
-      <c r="H110" s="22" t="s">
+      <c r="H110" s="22"/>
+      <c r="I110" s="22" t="s">
         <v>808</v>
       </c>
-      <c r="I110" s="26" t="s">
+      <c r="J110" s="26" t="s">
         <v>1054</v>
       </c>
-      <c r="J110" s="22" t="s">
+      <c r="K110" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="K110" s="26"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="26"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="22"/>
       <c r="N110" s="26"/>
-      <c r="O110" s="22" t="s">
+      <c r="O110" s="26"/>
+      <c r="P110" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="P110" s="35" t="s">
+      <c r="Q110" s="35" t="s">
         <v>1224</v>
       </c>
-      <c r="Q110" s="29" t="s">
+      <c r="R110" s="29" t="s">
         <v>1279</v>
       </c>
-      <c r="R110" s="22" t="s">
+      <c r="S110" s="22" t="s">
         <v>810</v>
       </c>
-      <c r="S110" s="22" t="s">
+      <c r="T110" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="T110" s="22" t="s">
+      <c r="U110" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="U110" s="34" t="s">
+      <c r="V110" s="34" t="s">
         <v>1205</v>
       </c>
-      <c r="V110" s="26" t="s">
+      <c r="W110" s="26" t="s">
         <v>1111</v>
       </c>
-      <c r="W110" s="23" t="s">
+      <c r="X110" s="23" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>814</v>
       </c>
@@ -12403,56 +12469,57 @@
         <v>816</v>
       </c>
       <c r="G111" s="19"/>
-      <c r="H111" s="19" t="s">
+      <c r="H111" s="19"/>
+      <c r="I111" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="I111" s="25" t="s">
+      <c r="J111" s="25" t="s">
         <v>1053</v>
       </c>
-      <c r="J111" s="19" t="s">
+      <c r="K111" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="K111" s="25" t="s">
+      <c r="L111" s="25" t="s">
         <v>1055</v>
       </c>
-      <c r="L111" s="19" t="s">
+      <c r="M111" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="M111" s="25" t="s">
+      <c r="N111" s="25" t="s">
         <v>1299</v>
       </c>
-      <c r="N111" s="31" t="s">
+      <c r="O111" s="31" t="s">
         <v>1400</v>
       </c>
-      <c r="O111" s="19" t="s">
+      <c r="P111" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="P111" s="19" t="s">
+      <c r="Q111" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="Q111" s="30" t="s">
+      <c r="R111" s="30" t="s">
         <v>1280</v>
       </c>
-      <c r="R111" s="19" t="s">
+      <c r="S111" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="S111" s="19" t="s">
+      <c r="T111" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="T111" s="19" t="s">
+      <c r="U111" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="U111" s="32" t="s">
+      <c r="V111" s="32" t="s">
         <v>1206</v>
       </c>
-      <c r="V111" s="31" t="s">
+      <c r="W111" s="31" t="s">
         <v>1366</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
         <v>823</v>
       </c>
@@ -12471,59 +12538,60 @@
       <c r="F112" s="22" t="s">
         <v>825</v>
       </c>
-      <c r="G112" s="22" t="s">
+      <c r="G112" s="22"/>
+      <c r="H112" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="H112" s="22" t="s">
+      <c r="I112" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="I112" s="26" t="s">
+      <c r="J112" s="26" t="s">
         <v>828</v>
       </c>
-      <c r="J112" s="22" t="s">
+      <c r="K112" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="K112" s="26" t="s">
+      <c r="L112" s="26" t="s">
         <v>830</v>
       </c>
-      <c r="L112" s="22" t="s">
+      <c r="M112" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="M112" s="26" t="s">
+      <c r="N112" s="26" t="s">
         <v>831</v>
       </c>
-      <c r="N112" s="24" t="s">
+      <c r="O112" s="24" t="s">
         <v>1399</v>
       </c>
-      <c r="O112" s="22" t="s">
+      <c r="P112" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="P112" s="22" t="s">
+      <c r="Q112" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q112" s="29" t="s">
+      <c r="R112" s="29" t="s">
         <v>1268</v>
       </c>
-      <c r="R112" s="22" t="s">
+      <c r="S112" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="S112" s="53" t="s">
+      <c r="T112" s="53" t="s">
         <v>832</v>
       </c>
-      <c r="T112" s="22" t="s">
+      <c r="U112" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="U112" s="34" t="s">
+      <c r="V112" s="34" t="s">
         <v>1207</v>
       </c>
-      <c r="V112" s="24" t="s">
+      <c r="W112" s="24" t="s">
         <v>1365</v>
       </c>
-      <c r="W112" s="23" t="s">
+      <c r="X112" s="23" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>834</v>
       </c>
@@ -12543,52 +12611,53 @@
         <v>836</v>
       </c>
       <c r="G113" s="19"/>
-      <c r="H113" s="19" t="s">
+      <c r="H113" s="19"/>
+      <c r="I113" s="19" t="s">
         <v>837</v>
       </c>
-      <c r="I113" s="25" t="s">
+      <c r="J113" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="J113" s="19" t="s">
+      <c r="K113" s="19" t="s">
         <v>838</v>
       </c>
-      <c r="K113" s="25">
+      <c r="L113" s="25">
         <v>1238</v>
       </c>
-      <c r="L113" s="19"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="25" t="s">
+      <c r="M113" s="19"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25" t="s">
         <v>1099</v>
       </c>
-      <c r="O113" s="19" t="s">
+      <c r="P113" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="P113" s="36" t="s">
+      <c r="Q113" s="36" t="s">
         <v>1224</v>
       </c>
-      <c r="Q113" s="30" t="s">
+      <c r="R113" s="30" t="s">
         <v>1279</v>
       </c>
-      <c r="R113" s="19" t="s">
+      <c r="S113" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="S113" s="46" t="s">
+      <c r="T113" s="46" t="s">
         <v>839</v>
       </c>
-      <c r="T113" s="19" t="s">
+      <c r="U113" s="19" t="s">
         <v>840</v>
       </c>
-      <c r="U113" s="32" t="s">
+      <c r="V113" s="32" t="s">
         <v>1208</v>
       </c>
-      <c r="V113" s="25" t="s">
+      <c r="W113" s="25" t="s">
         <v>1111</v>
       </c>
-      <c r="W113" s="20" t="s">
+      <c r="X113" s="20" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
         <v>841</v>
       </c>
@@ -12605,59 +12674,60 @@
       <c r="F114" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="22"/>
+      <c r="H114" s="22" t="s">
         <v>779</v>
       </c>
-      <c r="H114" s="22" t="s">
+      <c r="I114" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="I114" s="26" t="s">
+      <c r="J114" s="26" t="s">
         <v>1051</v>
       </c>
-      <c r="J114" s="22" t="s">
+      <c r="K114" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="K114" s="26" t="s">
+      <c r="L114" s="26" t="s">
         <v>1094</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>847</v>
       </c>
-      <c r="M114" s="26" t="s">
+      <c r="N114" s="26" t="s">
         <v>1300</v>
       </c>
-      <c r="N114" s="24" t="s">
+      <c r="O114" s="24" t="s">
         <v>1398</v>
       </c>
-      <c r="O114" s="22" t="s">
+      <c r="P114" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="Q114" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Q114" s="29" t="s">
+      <c r="R114" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="S114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="T114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="U114" s="34" t="s">
+      <c r="V114" s="34" t="s">
         <v>1209</v>
       </c>
-      <c r="V114" s="24" t="s">
+      <c r="W114" s="24" t="s">
         <v>1364</v>
       </c>
-      <c r="W114" s="23" t="s">
+      <c r="X114" s="23" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>852</v>
       </c>
@@ -12673,48 +12743,49 @@
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
-      <c r="H115" s="19" t="s">
+      <c r="H115" s="19"/>
+      <c r="I115" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="I115" s="25" t="s">
+      <c r="J115" s="25" t="s">
         <v>1050</v>
       </c>
-      <c r="J115" s="19"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="25"/>
-      <c r="N115" s="25">
+      <c r="K115" s="19"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25">
         <v>1979</v>
       </c>
-      <c r="O115" s="19" t="s">
+      <c r="P115" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="P115" s="19" t="s">
+      <c r="Q115" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q115" s="30" t="s">
+      <c r="R115" s="30" t="s">
         <v>1281</v>
       </c>
-      <c r="R115" s="19" t="s">
+      <c r="S115" s="19" t="s">
         <v>856</v>
       </c>
-      <c r="S115" s="19" t="s">
+      <c r="T115" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="T115" s="19" t="s">
+      <c r="U115" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="U115" s="32" t="s">
+      <c r="V115" s="32" t="s">
         <v>1210</v>
       </c>
-      <c r="V115" s="25" t="s">
+      <c r="W115" s="25" t="s">
         <v>1112</v>
       </c>
-      <c r="W115" s="20" t="s">
+      <c r="X115" s="20" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>859</v>
       </c>
@@ -12734,52 +12805,53 @@
         <v>861</v>
       </c>
       <c r="G116" s="22"/>
-      <c r="H116" s="22" t="s">
+      <c r="H116" s="22"/>
+      <c r="I116" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="I116" s="26">
+      <c r="J116" s="26">
         <v>1910</v>
       </c>
-      <c r="J116" s="22" t="s">
+      <c r="K116" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="K116" s="26" t="s">
+      <c r="L116" s="26" t="s">
         <v>1307</v>
       </c>
-      <c r="L116" s="22"/>
-      <c r="M116" s="26"/>
-      <c r="N116" s="24" t="s">
+      <c r="M116" s="22"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="24" t="s">
         <v>1397</v>
       </c>
-      <c r="O116" s="22" t="s">
+      <c r="P116" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="P116" s="35" t="s">
+      <c r="Q116" s="35" t="s">
         <v>1224</v>
       </c>
-      <c r="Q116" s="29" t="s">
+      <c r="R116" s="29" t="s">
         <v>1282</v>
       </c>
-      <c r="R116" s="22" t="s">
+      <c r="S116" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="S116" s="53" t="s">
+      <c r="T116" s="53" t="s">
         <v>864</v>
       </c>
-      <c r="T116" s="22" t="s">
+      <c r="U116" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="U116" s="34" t="s">
+      <c r="V116" s="34" t="s">
         <v>1211</v>
       </c>
-      <c r="V116" s="24" t="s">
+      <c r="W116" s="24" t="s">
         <v>1363</v>
       </c>
-      <c r="W116" s="23" t="s">
+      <c r="X116" s="23" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>867</v>
       </c>
@@ -12798,53 +12870,54 @@
       <c r="F117" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="G117" s="19" t="s">
+      <c r="G117" s="19"/>
+      <c r="H117" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="H117" s="19" t="s">
+      <c r="I117" s="19" t="s">
         <v>871</v>
       </c>
-      <c r="I117" s="25" t="s">
+      <c r="J117" s="25" t="s">
         <v>1049</v>
       </c>
-      <c r="J117" s="19" t="s">
+      <c r="K117" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="K117" s="25" t="s">
+      <c r="L117" s="25" t="s">
         <v>872</v>
       </c>
-      <c r="L117" s="19"/>
-      <c r="M117" s="25"/>
-      <c r="N117" s="31" t="s">
+      <c r="M117" s="19"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="31" t="s">
         <v>1396</v>
       </c>
-      <c r="O117" s="19" t="s">
+      <c r="P117" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="P117" s="19" t="s">
+      <c r="Q117" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="Q117" s="30" t="s">
+      <c r="R117" s="30" t="s">
         <v>1283</v>
       </c>
-      <c r="R117" s="19" t="s">
+      <c r="S117" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="S117" s="46" t="s">
+      <c r="T117" s="46" t="s">
         <v>874</v>
       </c>
-      <c r="T117" s="32" t="s">
+      <c r="U117" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="U117" s="32" t="s">
+      <c r="V117" s="32" t="s">
         <v>1212</v>
       </c>
-      <c r="V117" s="31" t="s">
+      <c r="W117" s="31" t="s">
         <v>1362</v>
       </c>
-      <c r="W117" s="20"/>
+      <c r="X117" s="20"/>
     </row>
-    <row r="118" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>876</v>
       </c>
@@ -12865,41 +12938,42 @@
       </c>
       <c r="G118" s="22"/>
       <c r="H118" s="22"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="26"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="29" t="s">
+      <c r="I118" s="22"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="29" t="s">
         <v>1098</v>
       </c>
-      <c r="O118" s="22" t="s">
+      <c r="P118" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="P118" s="22" t="s">
+      <c r="Q118" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q118" s="29" t="s">
+      <c r="R118" s="29" t="s">
         <v>1284</v>
       </c>
-      <c r="R118" s="22" t="s">
+      <c r="S118" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="S118" s="22" t="s">
+      <c r="T118" s="22" t="s">
         <v>878</v>
       </c>
-      <c r="T118" s="22" t="s">
+      <c r="U118" s="22" t="s">
         <v>879</v>
       </c>
-      <c r="U118" s="34" t="s">
+      <c r="V118" s="34" t="s">
         <v>1213</v>
       </c>
-      <c r="V118" s="24" t="s">
+      <c r="W118" s="24" t="s">
         <v>1351</v>
       </c>
-      <c r="W118" s="23"/>
+      <c r="X118" s="23"/>
     </row>
-    <row r="119" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>880</v>
       </c>
@@ -12916,49 +12990,50 @@
       <c r="F119" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="G119" s="19" t="s">
+      <c r="G119" s="19"/>
+      <c r="H119" s="19" t="s">
         <v>883</v>
       </c>
-      <c r="H119" s="19" t="s">
+      <c r="I119" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="I119" s="25"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="25"/>
-      <c r="N119" s="25">
+      <c r="J119" s="25"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="25">
         <v>1595</v>
-      </c>
-      <c r="O119" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="P119" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="Q119" s="30" t="s">
+      <c r="Q119" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="R119" s="30" t="s">
         <v>1285</v>
       </c>
-      <c r="R119" s="19" t="s">
+      <c r="S119" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="S119" s="19" t="s">
+      <c r="T119" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="T119" s="32" t="s">
+      <c r="U119" s="32" t="s">
         <v>1313</v>
       </c>
-      <c r="U119" s="32" t="s">
+      <c r="V119" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="V119" s="25">
+      <c r="W119" s="25">
         <v>1576</v>
       </c>
-      <c r="W119" s="20" t="s">
+      <c r="X119" s="20" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>888</v>
       </c>
@@ -12977,57 +13052,58 @@
       <c r="F120" s="22" t="s">
         <v>887</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G120" s="22"/>
+      <c r="H120" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="H120" s="22" t="s">
+      <c r="I120" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="I120" s="26" t="s">
+      <c r="J120" s="26" t="s">
         <v>1048</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="K120" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="K120" s="26" t="s">
+      <c r="L120" s="26" t="s">
         <v>892</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="M120" s="26" t="s">
+      <c r="N120" s="26" t="s">
         <v>1301</v>
       </c>
-      <c r="N120" s="29" t="s">
+      <c r="O120" s="29" t="s">
         <v>1097</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="P120" s="35" t="s">
+      <c r="Q120" s="35" t="s">
         <v>1224</v>
       </c>
-      <c r="Q120" s="29" t="s">
+      <c r="R120" s="29" t="s">
         <v>893</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="S120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="T120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>896</v>
       </c>
-      <c r="U120" s="34" t="s">
+      <c r="V120" s="34" t="s">
         <v>897</v>
       </c>
-      <c r="V120" s="24" t="s">
+      <c r="W120" s="24" t="s">
         <v>1361</v>
       </c>
-      <c r="W120" s="23"/>
+      <c r="X120" s="23"/>
     </row>
-    <row r="121" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>898</v>
       </c>
@@ -13047,54 +13123,55 @@
         <v>900</v>
       </c>
       <c r="G121" s="19"/>
-      <c r="H121" s="19" t="s">
+      <c r="H121" s="19"/>
+      <c r="I121" s="19" t="s">
         <v>846</v>
       </c>
-      <c r="I121" s="25" t="s">
+      <c r="J121" s="25" t="s">
         <v>1047</v>
       </c>
-      <c r="J121" s="19" t="s">
+      <c r="K121" s="19" t="s">
         <v>901</v>
       </c>
-      <c r="K121" s="25" t="s">
+      <c r="L121" s="25" t="s">
         <v>1093</v>
       </c>
-      <c r="L121" s="19" t="s">
+      <c r="M121" s="19" t="s">
         <v>902</v>
       </c>
-      <c r="M121" s="25" t="s">
+      <c r="N121" s="25" t="s">
         <v>1302</v>
       </c>
-      <c r="N121" s="31" t="s">
+      <c r="O121" s="31" t="s">
         <v>1395</v>
       </c>
-      <c r="O121" s="19" t="s">
+      <c r="P121" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="P121" s="19" t="s">
+      <c r="Q121" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="Q121" s="30" t="s">
+      <c r="R121" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="R121" s="19" t="s">
+      <c r="S121" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="S121" s="19" t="s">
+      <c r="T121" s="19" t="s">
         <v>904</v>
       </c>
-      <c r="T121" s="19" t="s">
+      <c r="U121" s="19" t="s">
         <v>905</v>
       </c>
-      <c r="U121" s="32" t="s">
+      <c r="V121" s="32" t="s">
         <v>1214</v>
       </c>
-      <c r="V121" s="31" t="s">
+      <c r="W121" s="31" t="s">
         <v>1360</v>
       </c>
-      <c r="W121" s="20"/>
+      <c r="X121" s="20"/>
     </row>
-    <row r="122" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>906</v>
       </c>
@@ -13114,56 +13191,57 @@
         <v>907</v>
       </c>
       <c r="G122" s="22"/>
-      <c r="H122" s="22" t="s">
+      <c r="H122" s="22"/>
+      <c r="I122" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="I122" s="26" t="s">
+      <c r="J122" s="26" t="s">
         <v>1046</v>
       </c>
-      <c r="J122" s="22" t="s">
+      <c r="K122" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="K122" s="26" t="s">
+      <c r="L122" s="26" t="s">
         <v>1092</v>
       </c>
-      <c r="L122" s="22" t="s">
+      <c r="M122" s="22" t="s">
         <v>910</v>
       </c>
-      <c r="M122" s="26" t="s">
+      <c r="N122" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="N122" s="24" t="s">
+      <c r="O122" s="24" t="s">
         <v>1394</v>
       </c>
-      <c r="O122" s="22" t="s">
+      <c r="P122" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="P122" s="22" t="s">
+      <c r="Q122" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q122" s="29" t="s">
+      <c r="R122" s="29" t="s">
         <v>1286</v>
       </c>
-      <c r="R122" s="22" t="s">
+      <c r="S122" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="S122" s="22" t="s">
+      <c r="T122" s="22" t="s">
         <v>912</v>
       </c>
-      <c r="T122" s="22" t="s">
+      <c r="U122" s="22" t="s">
         <v>913</v>
       </c>
-      <c r="U122" s="34" t="s">
+      <c r="V122" s="34" t="s">
         <v>1215</v>
       </c>
-      <c r="V122" s="24" t="s">
+      <c r="W122" s="24" t="s">
         <v>1359</v>
       </c>
-      <c r="W122" s="23" t="s">
+      <c r="X122" s="23" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>915</v>
       </c>
@@ -13180,59 +13258,60 @@
       <c r="F123" s="19" t="s">
         <v>916</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="G123" s="19"/>
+      <c r="H123" s="19" t="s">
         <v>917</v>
       </c>
-      <c r="H123" s="19" t="s">
+      <c r="I123" s="19" t="s">
         <v>918</v>
       </c>
-      <c r="I123" s="25" t="s">
+      <c r="J123" s="25" t="s">
         <v>1045</v>
       </c>
-      <c r="J123" s="19" t="s">
+      <c r="K123" s="19" t="s">
         <v>919</v>
       </c>
-      <c r="K123" s="25" t="s">
+      <c r="L123" s="25" t="s">
         <v>1091</v>
       </c>
-      <c r="L123" s="19" t="s">
+      <c r="M123" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="M123" s="25" t="s">
+      <c r="N123" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="N123" s="30" t="s">
+      <c r="O123" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="O123" s="19" t="s">
+      <c r="P123" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="P123" s="19" t="s">
+      <c r="Q123" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q123" s="30" t="s">
+      <c r="R123" s="30" t="s">
         <v>1287</v>
       </c>
-      <c r="R123" s="19" t="s">
+      <c r="S123" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="S123" s="19" t="s">
+      <c r="T123" s="19" t="s">
         <v>921</v>
       </c>
-      <c r="T123" s="19" t="s">
+      <c r="U123" s="19" t="s">
         <v>922</v>
       </c>
-      <c r="U123" s="32" t="s">
+      <c r="V123" s="32" t="s">
         <v>1216</v>
       </c>
-      <c r="V123" s="31" t="s">
+      <c r="W123" s="31" t="s">
         <v>1358</v>
       </c>
-      <c r="W123" s="20" t="s">
+      <c r="X123" s="20" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>924</v>
       </c>
@@ -13249,59 +13328,60 @@
       <c r="F124" s="22" t="s">
         <v>926</v>
       </c>
-      <c r="G124" s="22" t="s">
+      <c r="G124" s="22"/>
+      <c r="H124" s="22" t="s">
         <v>917</v>
       </c>
-      <c r="H124" s="22" t="s">
+      <c r="I124" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="I124" s="26" t="s">
+      <c r="J124" s="26" t="s">
         <v>1044</v>
       </c>
-      <c r="J124" s="22" t="s">
+      <c r="K124" s="22" t="s">
         <v>928</v>
       </c>
-      <c r="K124" s="26" t="s">
+      <c r="L124" s="26" t="s">
         <v>1090</v>
       </c>
-      <c r="L124" s="22" t="s">
+      <c r="M124" s="22" t="s">
         <v>918</v>
       </c>
-      <c r="M124" s="26" t="s">
+      <c r="N124" s="26" t="s">
         <v>1304</v>
       </c>
-      <c r="N124" s="26">
+      <c r="O124" s="26">
         <v>2000</v>
-      </c>
-      <c r="O124" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="P124" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="Q124" s="29" t="s">
+      <c r="Q124" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R124" s="29" t="s">
         <v>1288</v>
       </c>
-      <c r="R124" s="22" t="s">
+      <c r="S124" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="S124" s="22" t="s">
+      <c r="T124" s="22" t="s">
         <v>930</v>
       </c>
-      <c r="T124" s="22" t="s">
+      <c r="U124" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="U124" s="34" t="s">
+      <c r="V124" s="34" t="s">
         <v>1217</v>
       </c>
-      <c r="V124" s="26" t="s">
+      <c r="W124" s="26" t="s">
         <v>1113</v>
       </c>
-      <c r="W124" s="23" t="s">
+      <c r="X124" s="23" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19" t="s">
@@ -13313,46 +13393,47 @@
       </c>
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
-      <c r="H125" s="19" t="s">
+      <c r="H125" s="19"/>
+      <c r="I125" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="I125" s="25" t="s">
+      <c r="J125" s="25" t="s">
         <v>1043</v>
       </c>
-      <c r="J125" s="19"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="25"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="19"/>
       <c r="N125" s="25"/>
-      <c r="O125" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="O125" s="25"/>
       <c r="P125" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="Q125" s="30" t="s">
+      <c r="Q125" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="R125" s="30" t="s">
         <v>1289</v>
       </c>
-      <c r="R125" s="19" t="s">
+      <c r="S125" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="S125" s="19" t="s">
+      <c r="T125" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="T125" s="32" t="s">
+      <c r="U125" s="32" t="s">
         <v>1314</v>
       </c>
-      <c r="U125" s="32" t="s">
+      <c r="V125" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="V125" s="25" t="s">
+      <c r="W125" s="25" t="s">
         <v>1114</v>
       </c>
-      <c r="W125" s="20" t="s">
+      <c r="X125" s="20" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>880</v>
       </c>
@@ -13369,49 +13450,50 @@
       <c r="F126" s="22" t="s">
         <v>882</v>
       </c>
-      <c r="G126" s="22" t="s">
+      <c r="G126" s="22"/>
+      <c r="H126" s="22" t="s">
         <v>940</v>
       </c>
-      <c r="H126" s="22" t="s">
+      <c r="I126" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="I126" s="26"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="22"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="26">
+      <c r="J126" s="26"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="26">
         <v>1595</v>
-      </c>
-      <c r="O126" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="P126" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="Q126" s="29" t="s">
+      <c r="Q126" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R126" s="29" t="s">
         <v>1290</v>
       </c>
-      <c r="R126" s="22" t="s">
+      <c r="S126" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="S126" s="22" t="s">
+      <c r="T126" s="22" t="s">
         <v>941</v>
       </c>
-      <c r="T126" s="34" t="s">
+      <c r="U126" s="34" t="s">
         <v>1313</v>
       </c>
-      <c r="U126" s="34" t="s">
+      <c r="V126" s="34" t="s">
         <v>886</v>
       </c>
-      <c r="V126" s="49">
+      <c r="W126" s="49">
         <v>1563</v>
       </c>
-      <c r="W126" s="23" t="s">
+      <c r="X126" s="23" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>943</v>
       </c>
@@ -13430,55 +13512,56 @@
       <c r="F127" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="G127" s="19" t="s">
+      <c r="G127" s="19"/>
+      <c r="H127" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="H127" s="19" t="s">
+      <c r="I127" s="19" t="s">
         <v>946</v>
       </c>
-      <c r="I127" s="25" t="s">
+      <c r="J127" s="25" t="s">
         <v>1042</v>
       </c>
-      <c r="J127" s="19" t="s">
+      <c r="K127" s="19" t="s">
         <v>947</v>
       </c>
-      <c r="K127" s="25" t="s">
+      <c r="L127" s="25" t="s">
         <v>1089</v>
       </c>
-      <c r="L127" s="19"/>
-      <c r="M127" s="25"/>
-      <c r="N127" s="30" t="s">
+      <c r="M127" s="19"/>
+      <c r="N127" s="25"/>
+      <c r="O127" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="O127" s="19" t="s">
+      <c r="P127" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="P127" s="19" t="s">
+      <c r="Q127" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="Q127" s="30" t="s">
+      <c r="R127" s="30" t="s">
         <v>1291</v>
       </c>
-      <c r="R127" s="19" t="s">
+      <c r="S127" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="S127" s="19" t="s">
+      <c r="T127" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="T127" s="19" t="s">
+      <c r="U127" s="19" t="s">
         <v>949</v>
       </c>
-      <c r="U127" s="32" t="s">
+      <c r="V127" s="32" t="s">
         <v>1218</v>
       </c>
-      <c r="V127" s="31" t="s">
+      <c r="W127" s="31" t="s">
         <v>1357</v>
       </c>
-      <c r="W127" s="20" t="s">
+      <c r="X127" s="20" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>952</v>
       </c>
@@ -13498,50 +13581,51 @@
         <v>955</v>
       </c>
       <c r="G128" s="19"/>
-      <c r="H128" s="19" t="s">
+      <c r="H128" s="19"/>
+      <c r="I128" s="19" t="s">
         <v>956</v>
       </c>
-      <c r="I128" s="25" t="s">
+      <c r="J128" s="25" t="s">
         <v>1041</v>
       </c>
-      <c r="J128" s="19" t="s">
+      <c r="K128" s="19" t="s">
         <v>957</v>
       </c>
-      <c r="K128" s="25" t="s">
+      <c r="L128" s="25" t="s">
         <v>1088</v>
       </c>
-      <c r="L128" s="19"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="31" t="s">
+      <c r="M128" s="19"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="31" t="s">
         <v>1393</v>
       </c>
-      <c r="O128" s="19" t="s">
+      <c r="P128" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="P128" s="19" t="s">
+      <c r="Q128" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="Q128" s="30" t="s">
+      <c r="R128" s="30" t="s">
         <v>1292</v>
       </c>
-      <c r="R128" s="19" t="s">
+      <c r="S128" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="S128" s="19" t="s">
+      <c r="T128" s="19" t="s">
         <v>958</v>
       </c>
-      <c r="T128" s="32" t="s">
+      <c r="U128" s="32" t="s">
         <v>959</v>
       </c>
-      <c r="U128" s="32" t="s">
+      <c r="V128" s="32" t="s">
         <v>1219</v>
       </c>
-      <c r="V128" s="31" t="s">
+      <c r="W128" s="31" t="s">
         <v>1356</v>
       </c>
-      <c r="W128" s="20"/>
+      <c r="X128" s="20"/>
     </row>
-    <row r="129" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>960</v>
       </c>
@@ -13560,57 +13644,58 @@
       <c r="F129" s="22" t="s">
         <v>962</v>
       </c>
-      <c r="G129" s="22" t="s">
+      <c r="G129" s="22"/>
+      <c r="H129" s="22" t="s">
         <v>963</v>
       </c>
-      <c r="H129" s="22" t="s">
+      <c r="I129" s="22" t="s">
         <v>964</v>
       </c>
-      <c r="I129" s="26" t="s">
+      <c r="J129" s="26" t="s">
         <v>1040</v>
       </c>
-      <c r="J129" s="22" t="s">
+      <c r="K129" s="22" t="s">
         <v>965</v>
       </c>
-      <c r="K129" s="26" t="s">
+      <c r="L129" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="L129" s="22" t="s">
+      <c r="M129" s="22" t="s">
         <v>966</v>
       </c>
-      <c r="M129" s="26" t="s">
+      <c r="N129" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="N129" s="24" t="s">
+      <c r="O129" s="24" t="s">
         <v>1392</v>
       </c>
-      <c r="O129" s="22" t="s">
+      <c r="P129" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="P129" s="22" t="s">
+      <c r="Q129" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q129" s="29" t="s">
+      <c r="R129" s="29" t="s">
         <v>1293</v>
       </c>
-      <c r="R129" s="22" t="s">
+      <c r="S129" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="S129" s="53" t="s">
+      <c r="T129" s="53" t="s">
         <v>967</v>
       </c>
-      <c r="T129" s="22" t="s">
+      <c r="U129" s="22" t="s">
         <v>968</v>
       </c>
-      <c r="U129" s="34" t="s">
+      <c r="V129" s="34" t="s">
         <v>1220</v>
       </c>
-      <c r="V129" s="24" t="s">
+      <c r="W129" s="24" t="s">
         <v>1355</v>
       </c>
-      <c r="W129" s="23"/>
+      <c r="X129" s="23"/>
     </row>
-    <row r="130" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>969</v>
       </c>
@@ -13630,54 +13715,55 @@
         <v>971</v>
       </c>
       <c r="G130" s="19"/>
-      <c r="H130" s="19" t="s">
+      <c r="H130" s="19"/>
+      <c r="I130" s="19" t="s">
         <v>972</v>
       </c>
-      <c r="I130" s="25" t="s">
+      <c r="J130" s="25" t="s">
         <v>1039</v>
       </c>
-      <c r="J130" s="19" t="s">
+      <c r="K130" s="19" t="s">
         <v>973</v>
       </c>
-      <c r="K130" s="25" t="s">
+      <c r="L130" s="25" t="s">
         <v>1086</v>
       </c>
-      <c r="L130" s="19" t="s">
+      <c r="M130" s="19" t="s">
         <v>974</v>
       </c>
-      <c r="M130" s="25" t="s">
+      <c r="N130" s="25" t="s">
         <v>1305</v>
       </c>
-      <c r="N130" s="30" t="s">
+      <c r="O130" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="O130" s="19" t="s">
+      <c r="P130" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="P130" s="19" t="s">
+      <c r="Q130" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="Q130" s="30" t="s">
+      <c r="R130" s="30" t="s">
         <v>1294</v>
       </c>
-      <c r="R130" s="19" t="s">
+      <c r="S130" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="S130" s="19" t="s">
+      <c r="T130" s="19" t="s">
         <v>975</v>
       </c>
-      <c r="T130" s="19" t="s">
+      <c r="U130" s="19" t="s">
         <v>976</v>
       </c>
-      <c r="U130" s="32" t="s">
+      <c r="V130" s="32" t="s">
         <v>977</v>
       </c>
-      <c r="V130" s="31" t="s">
+      <c r="W130" s="31" t="s">
         <v>1351</v>
       </c>
-      <c r="W130" s="20"/>
+      <c r="X130" s="20"/>
     </row>
-    <row r="131" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>978</v>
       </c>
@@ -13696,49 +13782,50 @@
       <c r="F131" s="22" t="s">
         <v>980</v>
       </c>
-      <c r="G131" s="22" t="s">
+      <c r="G131" s="22"/>
+      <c r="H131" s="22" t="s">
         <v>981</v>
       </c>
-      <c r="H131" s="22" t="s">
+      <c r="I131" s="22" t="s">
         <v>982</v>
       </c>
-      <c r="I131" s="26" t="s">
+      <c r="J131" s="26" t="s">
         <v>1038</v>
       </c>
-      <c r="J131" s="22"/>
-      <c r="K131" s="26"/>
-      <c r="L131" s="22"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="29" t="s">
+      <c r="K131" s="22"/>
+      <c r="L131" s="26"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="29" t="s">
         <v>1096</v>
       </c>
-      <c r="O131" s="22" t="s">
+      <c r="P131" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="P131" s="22" t="s">
+      <c r="Q131" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q131" s="29" t="s">
+      <c r="R131" s="29" t="s">
         <v>1294</v>
       </c>
-      <c r="R131" s="22" t="s">
+      <c r="S131" s="22" t="s">
         <v>951</v>
       </c>
-      <c r="S131" s="22" t="s">
+      <c r="T131" s="22" t="s">
         <v>983</v>
       </c>
-      <c r="T131" s="22" t="s">
+      <c r="U131" s="22" t="s">
         <v>984</v>
       </c>
-      <c r="U131" s="34" t="s">
+      <c r="V131" s="34" t="s">
         <v>1213</v>
       </c>
-      <c r="V131" s="24" t="s">
+      <c r="W131" s="24" t="s">
         <v>1351</v>
       </c>
-      <c r="W131" s="23"/>
+      <c r="X131" s="23"/>
     </row>
-    <row r="132" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>985</v>
       </c>
@@ -13756,52 +13843,53 @@
         <v>988</v>
       </c>
       <c r="G132" s="19"/>
-      <c r="H132" s="19" t="s">
+      <c r="H132" s="19"/>
+      <c r="I132" s="19" t="s">
         <v>989</v>
       </c>
-      <c r="I132" s="25" t="s">
+      <c r="J132" s="25" t="s">
         <v>1037</v>
       </c>
-      <c r="J132" s="19" t="s">
+      <c r="K132" s="19" t="s">
         <v>990</v>
       </c>
-      <c r="K132" s="25" t="s">
+      <c r="L132" s="25" t="s">
         <v>1085</v>
       </c>
-      <c r="L132" s="19"/>
-      <c r="M132" s="25"/>
-      <c r="N132" s="31" t="s">
+      <c r="M132" s="19"/>
+      <c r="N132" s="25"/>
+      <c r="O132" s="31" t="s">
         <v>1391</v>
       </c>
-      <c r="O132" s="19" t="s">
+      <c r="P132" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="P132" s="19" t="s">
+      <c r="Q132" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q132" s="30" t="s">
+      <c r="R132" s="30" t="s">
         <v>1295</v>
       </c>
-      <c r="R132" s="19" t="s">
+      <c r="S132" s="19" t="s">
         <v>991</v>
       </c>
-      <c r="S132" s="46" t="s">
+      <c r="T132" s="46" t="s">
         <v>992</v>
       </c>
-      <c r="T132" s="19" t="s">
+      <c r="U132" s="19" t="s">
         <v>993</v>
       </c>
-      <c r="U132" s="32" t="s">
+      <c r="V132" s="32" t="s">
         <v>1221</v>
       </c>
-      <c r="V132" s="25" t="s">
+      <c r="W132" s="25" t="s">
         <v>1115</v>
       </c>
-      <c r="W132" s="20" t="s">
+      <c r="X132" s="20" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>995</v>
       </c>
@@ -13820,57 +13908,58 @@
       <c r="F133" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" s="22"/>
+      <c r="H133" s="22" t="s">
         <v>998</v>
       </c>
-      <c r="H133" s="22" t="s">
+      <c r="I133" s="22" t="s">
         <v>999</v>
       </c>
-      <c r="I133" s="26" t="s">
+      <c r="J133" s="26" t="s">
         <v>1036</v>
       </c>
-      <c r="J133" s="22" t="s">
+      <c r="K133" s="22" t="s">
         <v>1000</v>
       </c>
-      <c r="K133" s="26" t="s">
+      <c r="L133" s="26" t="s">
         <v>1041</v>
       </c>
-      <c r="L133" s="22" t="s">
+      <c r="M133" s="22" t="s">
         <v>1001</v>
       </c>
-      <c r="M133" s="26" t="s">
+      <c r="N133" s="26" t="s">
         <v>1306</v>
       </c>
-      <c r="N133" s="29" t="s">
+      <c r="O133" s="29" t="s">
         <v>1096</v>
       </c>
-      <c r="O133" s="22" t="s">
+      <c r="P133" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="P133" s="22" t="s">
+      <c r="Q133" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q133" s="29" t="s">
+      <c r="R133" s="29" t="s">
         <v>1294</v>
       </c>
-      <c r="R133" s="22" t="s">
+      <c r="S133" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="S133" s="22" t="s">
+      <c r="T133" s="22" t="s">
         <v>1002</v>
       </c>
-      <c r="T133" s="22" t="s">
+      <c r="U133" s="22" t="s">
         <v>1003</v>
       </c>
-      <c r="U133" s="34" t="s">
+      <c r="V133" s="34" t="s">
         <v>1222</v>
       </c>
-      <c r="V133" s="24" t="s">
+      <c r="W133" s="24" t="s">
         <v>1351</v>
       </c>
-      <c r="W133" s="23"/>
+      <c r="X133" s="23"/>
     </row>
-    <row r="134" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
         <v>1315</v>
       </c>
@@ -13887,44 +13976,45 @@
       <c r="F134" s="43" t="s">
         <v>1317</v>
       </c>
-      <c r="G134" s="43" t="s">
+      <c r="G134" s="43"/>
+      <c r="H134" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="H134" s="43" t="s">
+      <c r="I134" s="43" t="s">
         <v>1318</v>
       </c>
-      <c r="I134" s="3">
+      <c r="J134" s="3">
         <v>1940</v>
       </c>
-      <c r="N134" s="3">
+      <c r="O134" s="3">
         <v>1993</v>
       </c>
-      <c r="O134" s="45" t="s">
+      <c r="P134" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P134" s="22" t="s">
+      <c r="Q134" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q134" s="40" t="s">
+      <c r="R134" s="40" t="s">
         <v>1326</v>
       </c>
-      <c r="R134" s="43" t="s">
+      <c r="S134" s="43" t="s">
         <v>1320</v>
       </c>
-      <c r="S134" s="43" t="s">
+      <c r="T134" s="43" t="s">
         <v>1327</v>
       </c>
-      <c r="U134" s="48" t="s">
+      <c r="V134" s="48" t="s">
         <v>1457</v>
       </c>
-      <c r="V134" s="27" t="s">
+      <c r="W134" s="27" t="s">
         <v>1350</v>
       </c>
-      <c r="W134" s="43" t="s">
+      <c r="X134" s="43" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="s">
         <v>1321</v>
       </c>
@@ -13941,44 +14031,45 @@
       <c r="F135" s="45" t="s">
         <v>1324</v>
       </c>
-      <c r="G135" s="45" t="s">
+      <c r="G135" s="45"/>
+      <c r="H135" s="45" t="s">
         <v>1325</v>
       </c>
-      <c r="H135" s="45" t="s">
+      <c r="I135" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="I135" s="3">
+      <c r="J135" s="3">
         <v>1928</v>
       </c>
-      <c r="N135" s="3">
+      <c r="O135" s="3">
         <v>1928</v>
       </c>
-      <c r="O135" s="45" t="s">
+      <c r="P135" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P135" s="22" t="s">
+      <c r="Q135" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="R135" s="45" t="s">
+      <c r="S135" s="45" t="s">
         <v>802</v>
       </c>
-      <c r="S135" s="45" t="s">
+      <c r="T135" s="45" t="s">
         <v>1328</v>
       </c>
-      <c r="T135" s="33" t="s">
+      <c r="U135" s="33" t="s">
         <v>1329</v>
       </c>
-      <c r="U135" s="33" t="s">
+      <c r="V135" s="33" t="s">
         <v>1458</v>
       </c>
-      <c r="V135" s="50" t="s">
+      <c r="W135" s="50" t="s">
         <v>1352</v>
       </c>
-      <c r="W135" t="s">
+      <c r="X135" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="42" t="s">
         <v>1331</v>
       </c>
@@ -13995,47 +14086,48 @@
       <c r="F136" s="43" t="s">
         <v>1335</v>
       </c>
-      <c r="G136" s="43" t="s">
+      <c r="G136" s="43"/>
+      <c r="H136" s="43" t="s">
         <v>1336</v>
       </c>
-      <c r="H136" s="47" t="s">
+      <c r="I136" s="47" t="s">
         <v>1337</v>
       </c>
-      <c r="I136" s="27" t="s">
+      <c r="J136" s="27" t="s">
         <v>1353</v>
       </c>
-      <c r="N136" s="3">
+      <c r="O136" s="3">
         <v>2000</v>
       </c>
-      <c r="O136" s="45" t="s">
+      <c r="P136" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P136" s="22" t="s">
+      <c r="Q136" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="Q136" s="40" t="s">
+      <c r="R136" s="40" t="s">
         <v>1347</v>
       </c>
-      <c r="R136" s="43" t="s">
+      <c r="S136" s="43" t="s">
         <v>1344</v>
       </c>
-      <c r="S136" s="43" t="s">
+      <c r="T136" s="43" t="s">
         <v>1338</v>
       </c>
-      <c r="T136" s="48" t="s">
+      <c r="U136" s="48" t="s">
         <v>1339</v>
       </c>
-      <c r="U136" s="48" t="s">
+      <c r="V136" s="48" t="s">
         <v>1456</v>
       </c>
-      <c r="V136" s="27" t="s">
+      <c r="W136" s="27" t="s">
         <v>1353</v>
       </c>
-      <c r="W136" s="43" t="s">
+      <c r="X136" s="43" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="s">
         <v>1340</v>
       </c>
@@ -14052,44 +14144,45 @@
       <c r="F137" s="45" t="s">
         <v>1342</v>
       </c>
-      <c r="G137" s="45" t="s">
+      <c r="G137" s="45"/>
+      <c r="H137" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="H137" s="45" t="s">
+      <c r="I137" s="45" t="s">
         <v>1343</v>
       </c>
-      <c r="I137" s="3">
+      <c r="J137" s="3">
         <v>1923</v>
       </c>
-      <c r="N137" s="3">
+      <c r="O137" s="3">
         <v>2000</v>
       </c>
-      <c r="O137" s="45" t="s">
+      <c r="P137" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="P137" s="22" t="s">
+      <c r="Q137" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="R137" s="45" t="s">
+      <c r="S137" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="S137" t="s">
+      <c r="T137" t="s">
         <v>1346</v>
       </c>
-      <c r="T137" t="s">
+      <c r="U137" t="s">
         <v>1345</v>
       </c>
-      <c r="U137" s="1" t="s">
+      <c r="V137" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="V137" s="27" t="s">
+      <c r="W137" s="27" t="s">
         <v>1354</v>
       </c>
-      <c r="W137" t="s">
+      <c r="X137" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>1497</v>
       </c>
@@ -14105,47 +14198,48 @@
       <c r="F138" s="51" t="s">
         <v>1422</v>
       </c>
-      <c r="G138" s="51" t="s">
+      <c r="G138" s="51"/>
+      <c r="H138" s="51" t="s">
         <v>1423</v>
       </c>
-      <c r="H138" s="43" t="s">
+      <c r="I138" s="43" t="s">
         <v>1429</v>
       </c>
-      <c r="I138" s="3">
+      <c r="J138" s="3">
         <v>1330</v>
       </c>
-      <c r="N138" s="3">
+      <c r="O138" s="3">
         <v>1427</v>
       </c>
-      <c r="O138" s="51" t="s">
+      <c r="P138" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="P138" s="45" t="s">
+      <c r="Q138" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q138" s="40" t="s">
+      <c r="R138" s="40" t="s">
         <v>1424</v>
       </c>
-      <c r="R138" s="51" t="s">
+      <c r="S138" s="51" t="s">
         <v>781</v>
       </c>
-      <c r="S138" s="43" t="s">
+      <c r="T138" s="43" t="s">
         <v>1430</v>
       </c>
-      <c r="T138" s="48" t="s">
+      <c r="U138" s="48" t="s">
         <v>1425</v>
       </c>
-      <c r="U138" s="1" t="s">
+      <c r="V138" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="V138" s="3" t="s">
+      <c r="W138" s="3" t="s">
         <v>1427</v>
       </c>
-      <c r="W138" t="s">
+      <c r="X138" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="45" t="s">
         <v>1431</v>
       </c>
@@ -14158,44 +14252,45 @@
       <c r="F139" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="H139" t="s">
+      <c r="G139" s="45"/>
+      <c r="I139" t="s">
         <v>1438</v>
       </c>
-      <c r="I139" s="3">
+      <c r="J139" s="3">
         <v>1380</v>
       </c>
-      <c r="N139" s="3">
+      <c r="O139" s="3">
         <v>1988</v>
       </c>
-      <c r="O139" s="45" t="s">
+      <c r="P139" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="P139" s="45" t="s">
+      <c r="Q139" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q139" s="40" t="s">
+      <c r="R139" s="40" t="s">
         <v>1437</v>
       </c>
-      <c r="R139" s="45" t="s">
+      <c r="S139" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="S139" s="45" t="s">
+      <c r="T139" s="45" t="s">
         <v>1439</v>
       </c>
-      <c r="T139" s="1" t="s">
+      <c r="U139" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="U139" s="1" t="s">
+      <c r="V139" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="V139" s="3" t="s">
+      <c r="W139" s="3" t="s">
         <v>1434</v>
       </c>
-      <c r="W139" t="s">
+      <c r="X139" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="52" t="s">
         <v>1440</v>
       </c>
@@ -14208,291 +14303,292 @@
       <c r="F140" s="45" t="s">
         <v>1442</v>
       </c>
-      <c r="H140" t="s">
+      <c r="G140" s="45"/>
+      <c r="I140" t="s">
         <v>506</v>
       </c>
-      <c r="I140" s="3">
+      <c r="J140" s="3">
         <v>1266</v>
       </c>
-      <c r="N140" s="3">
+      <c r="O140" s="3">
         <v>1467</v>
-      </c>
-      <c r="O140" s="45" t="s">
-        <v>33</v>
       </c>
       <c r="P140" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="Q140" s="40" t="s">
+      <c r="Q140" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="R140" s="40" t="s">
         <v>1443</v>
       </c>
-      <c r="R140" s="45" t="s">
+      <c r="S140" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="S140" s="45" t="s">
+      <c r="T140" s="45" t="s">
         <v>1446</v>
       </c>
-      <c r="T140" s="1" t="s">
+      <c r="U140" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="U140" s="1" t="s">
+      <c r="V140" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="V140" s="3">
+      <c r="W140" s="3">
         <v>1299</v>
       </c>
-      <c r="W140" t="s">
+      <c r="X140" t="s">
         <v>1444</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W140"/>
+  <autoFilter ref="A1:X140"/>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" location="Житие_Святого_Климента"/>
-    <hyperlink ref="U3" r:id="rId2"/>
-    <hyperlink ref="T3" r:id="rId3"/>
-    <hyperlink ref="U4" r:id="rId4"/>
-    <hyperlink ref="T4" r:id="rId5"/>
-    <hyperlink ref="U6" r:id="rId6"/>
-    <hyperlink ref="T6" r:id="rId7"/>
-    <hyperlink ref="U7" r:id="rId8"/>
-    <hyperlink ref="T7" r:id="rId9"/>
-    <hyperlink ref="U8" r:id="rId10"/>
-    <hyperlink ref="T8" r:id="rId11" location="Иконография"/>
-    <hyperlink ref="U9" r:id="rId12"/>
-    <hyperlink ref="T9" r:id="rId13"/>
-    <hyperlink ref="U10" r:id="rId14"/>
-    <hyperlink ref="T10" r:id="rId15"/>
-    <hyperlink ref="U11" r:id="rId16"/>
-    <hyperlink ref="T11" r:id="rId17"/>
-    <hyperlink ref="U12" r:id="rId18"/>
-    <hyperlink ref="T12" r:id="rId19"/>
-    <hyperlink ref="T13" r:id="rId20"/>
-    <hyperlink ref="U13" r:id="rId21"/>
-    <hyperlink ref="T14" r:id="rId22" location="Память"/>
-    <hyperlink ref="U14" r:id="rId23"/>
-    <hyperlink ref="T15" r:id="rId24"/>
-    <hyperlink ref="U15" r:id="rId25"/>
-    <hyperlink ref="T16" r:id="rId26"/>
-    <hyperlink ref="U16" r:id="rId27"/>
-    <hyperlink ref="T17" r:id="rId28"/>
-    <hyperlink ref="U17" r:id="rId29"/>
-    <hyperlink ref="T18" r:id="rId30"/>
-    <hyperlink ref="U18" r:id="rId31"/>
-    <hyperlink ref="T19" r:id="rId32"/>
-    <hyperlink ref="U19" r:id="rId33"/>
-    <hyperlink ref="T20" r:id="rId34"/>
-    <hyperlink ref="U20" r:id="rId35"/>
-    <hyperlink ref="T21" r:id="rId36"/>
-    <hyperlink ref="U21" r:id="rId37"/>
-    <hyperlink ref="T22" r:id="rId38"/>
-    <hyperlink ref="U22" r:id="rId39"/>
-    <hyperlink ref="T23" r:id="rId40"/>
-    <hyperlink ref="U23" r:id="rId41"/>
-    <hyperlink ref="T24" r:id="rId42"/>
-    <hyperlink ref="U24" r:id="rId43"/>
-    <hyperlink ref="T25" r:id="rId44"/>
-    <hyperlink ref="U25" r:id="rId45"/>
-    <hyperlink ref="T26" r:id="rId46"/>
-    <hyperlink ref="U26" r:id="rId47"/>
-    <hyperlink ref="U27" r:id="rId48"/>
-    <hyperlink ref="T28" r:id="rId49"/>
-    <hyperlink ref="U28" r:id="rId50" display="https://upload.wikimedia.org/wikipedia/commons/e/e8/%CE%A0%CE%B1%CF%84%CF%81%CE%B9%CE%AC%CF%81%CF%87%CE%B7%CF%82_%CE%9A%CF%89%CE%BD%CF%83%CF%84%CE%B1%CE%BD%CF%84%CE%B9%CE%BD%CE%BF%CF%85%CF%80%CF%8C%CE%BB%CE%B5%CF%89%CF%82_%CE%93%CF%81%CE%B7%CE%B3%CF%8C%CF%81%CE%B9%CE%BF%CF%82_%CE%95%CE%84.jpg"/>
-    <hyperlink ref="T30" r:id="rId51"/>
-    <hyperlink ref="U30" r:id="rId52"/>
-    <hyperlink ref="T31" r:id="rId53"/>
-    <hyperlink ref="U31" r:id="rId54"/>
-    <hyperlink ref="U2" r:id="rId55"/>
-    <hyperlink ref="T5" r:id="rId56"/>
-    <hyperlink ref="U5" r:id="rId57"/>
-    <hyperlink ref="T27" r:id="rId58"/>
-    <hyperlink ref="T32" r:id="rId59"/>
-    <hyperlink ref="U32" r:id="rId60"/>
-    <hyperlink ref="U33" r:id="rId61"/>
-    <hyperlink ref="T34" r:id="rId62"/>
-    <hyperlink ref="U34" r:id="rId63"/>
-    <hyperlink ref="U35" r:id="rId64"/>
-    <hyperlink ref="T35" r:id="rId65"/>
-    <hyperlink ref="T36" r:id="rId66"/>
-    <hyperlink ref="U36" r:id="rId67"/>
-    <hyperlink ref="T37" r:id="rId68"/>
-    <hyperlink ref="U37" r:id="rId69"/>
-    <hyperlink ref="U38" r:id="rId70"/>
-    <hyperlink ref="U39" r:id="rId71"/>
-    <hyperlink ref="T39" r:id="rId72"/>
-    <hyperlink ref="T40" r:id="rId73"/>
-    <hyperlink ref="U40" r:id="rId74"/>
-    <hyperlink ref="T41" r:id="rId75"/>
-    <hyperlink ref="U41" r:id="rId76"/>
-    <hyperlink ref="T42" r:id="rId77"/>
-    <hyperlink ref="U42" r:id="rId78"/>
-    <hyperlink ref="T43" r:id="rId79"/>
-    <hyperlink ref="U43" r:id="rId80"/>
-    <hyperlink ref="U44" r:id="rId81"/>
-    <hyperlink ref="T44" r:id="rId82"/>
-    <hyperlink ref="T45" r:id="rId83"/>
-    <hyperlink ref="U45" r:id="rId84"/>
-    <hyperlink ref="T46" r:id="rId85"/>
-    <hyperlink ref="U46" r:id="rId86"/>
-    <hyperlink ref="T47" r:id="rId87"/>
-    <hyperlink ref="U47" r:id="rId88"/>
-    <hyperlink ref="T48" r:id="rId89"/>
-    <hyperlink ref="U48" r:id="rId90"/>
-    <hyperlink ref="T49" r:id="rId91"/>
-    <hyperlink ref="U49" r:id="rId92"/>
-    <hyperlink ref="T50" r:id="rId93"/>
-    <hyperlink ref="U50" r:id="rId94"/>
-    <hyperlink ref="T51" r:id="rId95"/>
-    <hyperlink ref="U51" r:id="rId96"/>
-    <hyperlink ref="T52" r:id="rId97"/>
-    <hyperlink ref="U52" r:id="rId98"/>
-    <hyperlink ref="T53" r:id="rId99"/>
-    <hyperlink ref="U53" r:id="rId100"/>
-    <hyperlink ref="T54" r:id="rId101"/>
-    <hyperlink ref="U54" r:id="rId102"/>
-    <hyperlink ref="T55" r:id="rId103"/>
-    <hyperlink ref="U55" r:id="rId104"/>
-    <hyperlink ref="T56" r:id="rId105"/>
-    <hyperlink ref="U56" r:id="rId106"/>
-    <hyperlink ref="T57" r:id="rId107"/>
-    <hyperlink ref="U57" r:id="rId108"/>
-    <hyperlink ref="T58" r:id="rId109"/>
-    <hyperlink ref="U58" r:id="rId110"/>
-    <hyperlink ref="T59" r:id="rId111"/>
-    <hyperlink ref="U59" r:id="rId112"/>
-    <hyperlink ref="U60" r:id="rId113"/>
-    <hyperlink ref="T60" r:id="rId114"/>
-    <hyperlink ref="T61" r:id="rId115"/>
-    <hyperlink ref="U61" r:id="rId116"/>
-    <hyperlink ref="U62" r:id="rId117"/>
-    <hyperlink ref="T62" r:id="rId118"/>
-    <hyperlink ref="U63" r:id="rId119"/>
-    <hyperlink ref="T63" r:id="rId120"/>
-    <hyperlink ref="U64" r:id="rId121"/>
-    <hyperlink ref="T64" display="https://ru.wikipedia.org/wiki/Варвара_Скворчихинская#:~:text=Блаженная%20Варвара%20родилась%2020%20ноября,сельского%20священника%20Василия%20Александровича%20Архангельского.&amp;text=Варвара%20часто%20приглашала%20на%20уроки,Варвара%20не%20могла%2C%20стала%20"/>
-    <hyperlink ref="U65" r:id="rId122"/>
-    <hyperlink ref="T65" r:id="rId123"/>
-    <hyperlink ref="U66" r:id="rId124"/>
-    <hyperlink ref="T66" r:id="rId125"/>
-    <hyperlink ref="U67" r:id="rId126"/>
-    <hyperlink ref="T67" r:id="rId127"/>
-    <hyperlink ref="U68" r:id="rId128"/>
-    <hyperlink ref="T68" r:id="rId129"/>
-    <hyperlink ref="U69" r:id="rId130"/>
-    <hyperlink ref="T69" r:id="rId131"/>
-    <hyperlink ref="U70" r:id="rId132"/>
-    <hyperlink ref="T70" r:id="rId133"/>
-    <hyperlink ref="U71" r:id="rId134"/>
-    <hyperlink ref="T71" r:id="rId135"/>
-    <hyperlink ref="U72" r:id="rId136"/>
-    <hyperlink ref="T72" r:id="rId137"/>
-    <hyperlink ref="T73" r:id="rId138"/>
-    <hyperlink ref="T74" r:id="rId139"/>
-    <hyperlink ref="U74" r:id="rId140"/>
-    <hyperlink ref="U73" r:id="rId141"/>
-    <hyperlink ref="T75" r:id="rId142"/>
-    <hyperlink ref="U75" r:id="rId143"/>
-    <hyperlink ref="U76" r:id="rId144"/>
-    <hyperlink ref="T76" r:id="rId145"/>
-    <hyperlink ref="U77" r:id="rId146"/>
-    <hyperlink ref="T77" r:id="rId147"/>
-    <hyperlink ref="T78" r:id="rId148"/>
-    <hyperlink ref="U78" r:id="rId149"/>
-    <hyperlink ref="T79" r:id="rId150"/>
-    <hyperlink ref="U80" r:id="rId151"/>
-    <hyperlink ref="T80" r:id="rId152"/>
-    <hyperlink ref="U81" r:id="rId153"/>
-    <hyperlink ref="T81" r:id="rId154"/>
-    <hyperlink ref="U82" r:id="rId155"/>
-    <hyperlink ref="T82" r:id="rId156"/>
-    <hyperlink ref="T83" r:id="rId157"/>
-    <hyperlink ref="T84" r:id="rId158"/>
-    <hyperlink ref="U84" r:id="rId159"/>
-    <hyperlink ref="T85" r:id="rId160"/>
-    <hyperlink ref="U85" r:id="rId161"/>
-    <hyperlink ref="T86" r:id="rId162"/>
-    <hyperlink ref="T87" r:id="rId163"/>
-    <hyperlink ref="U87" r:id="rId164"/>
-    <hyperlink ref="T88" r:id="rId165"/>
-    <hyperlink ref="U88" r:id="rId166"/>
-    <hyperlink ref="T89" r:id="rId167"/>
-    <hyperlink ref="U89" r:id="rId168"/>
-    <hyperlink ref="T90" r:id="rId169"/>
-    <hyperlink ref="T91" r:id="rId170"/>
-    <hyperlink ref="T92" r:id="rId171"/>
-    <hyperlink ref="T93" r:id="rId172"/>
-    <hyperlink ref="T94" r:id="rId173"/>
-    <hyperlink ref="T95" r:id="rId174"/>
-    <hyperlink ref="U95" r:id="rId175"/>
-    <hyperlink ref="T96" r:id="rId176"/>
-    <hyperlink ref="T97" r:id="rId177"/>
-    <hyperlink ref="T98" r:id="rId178"/>
-    <hyperlink ref="T99" r:id="rId179"/>
-    <hyperlink ref="T100" r:id="rId180"/>
-    <hyperlink ref="T101" r:id="rId181"/>
-    <hyperlink ref="T102" r:id="rId182"/>
-    <hyperlink ref="T103" r:id="rId183"/>
-    <hyperlink ref="T104" r:id="rId184"/>
-    <hyperlink ref="U130" r:id="rId185"/>
-    <hyperlink ref="U29" r:id="rId186"/>
-    <hyperlink ref="U79" r:id="rId187"/>
-    <hyperlink ref="U83" r:id="rId188"/>
-    <hyperlink ref="U90" r:id="rId189"/>
-    <hyperlink ref="U91" r:id="rId190"/>
-    <hyperlink ref="U93" r:id="rId191"/>
-    <hyperlink ref="U94" r:id="rId192"/>
-    <hyperlink ref="U96" r:id="rId193"/>
-    <hyperlink ref="U97" r:id="rId194"/>
-    <hyperlink ref="U99" r:id="rId195"/>
-    <hyperlink ref="U102" r:id="rId196"/>
-    <hyperlink ref="U103" r:id="rId197"/>
-    <hyperlink ref="U104" r:id="rId198"/>
-    <hyperlink ref="U106" r:id="rId199"/>
-    <hyperlink ref="U107" r:id="rId200"/>
-    <hyperlink ref="U108" r:id="rId201"/>
-    <hyperlink ref="U109" r:id="rId202"/>
-    <hyperlink ref="U110" r:id="rId203"/>
-    <hyperlink ref="U111" r:id="rId204"/>
-    <hyperlink ref="U112" r:id="rId205"/>
-    <hyperlink ref="U113" r:id="rId206"/>
-    <hyperlink ref="U114" r:id="rId207"/>
-    <hyperlink ref="U115" r:id="rId208"/>
-    <hyperlink ref="U116" r:id="rId209"/>
-    <hyperlink ref="T117" r:id="rId210"/>
-    <hyperlink ref="U117" r:id="rId211"/>
-    <hyperlink ref="U118" r:id="rId212"/>
-    <hyperlink ref="U119" r:id="rId213"/>
-    <hyperlink ref="U120" r:id="rId214"/>
-    <hyperlink ref="U121" r:id="rId215"/>
-    <hyperlink ref="U122" r:id="rId216"/>
-    <hyperlink ref="U123" r:id="rId217"/>
-    <hyperlink ref="U124" r:id="rId218"/>
-    <hyperlink ref="U125" r:id="rId219"/>
-    <hyperlink ref="U126" r:id="rId220"/>
-    <hyperlink ref="U127" r:id="rId221"/>
-    <hyperlink ref="U129" r:id="rId222"/>
-    <hyperlink ref="U131" r:id="rId223"/>
-    <hyperlink ref="U132" r:id="rId224"/>
-    <hyperlink ref="U133" r:id="rId225"/>
-    <hyperlink ref="U128" r:id="rId226"/>
-    <hyperlink ref="T128" r:id="rId227"/>
-    <hyperlink ref="T107" r:id="rId228"/>
-    <hyperlink ref="T119" r:id="rId229"/>
-    <hyperlink ref="T125" r:id="rId230"/>
-    <hyperlink ref="T126" r:id="rId231"/>
-    <hyperlink ref="T135" r:id="rId232"/>
-    <hyperlink ref="U135" r:id="rId233"/>
-    <hyperlink ref="U136" r:id="rId234"/>
-    <hyperlink ref="U137" r:id="rId235"/>
-    <hyperlink ref="U138" r:id="rId236"/>
-    <hyperlink ref="T138" r:id="rId237"/>
-    <hyperlink ref="U139" r:id="rId238"/>
-    <hyperlink ref="T139" r:id="rId239"/>
-    <hyperlink ref="U140" r:id="rId240"/>
-    <hyperlink ref="T140" r:id="rId241"/>
-    <hyperlink ref="T105" r:id="rId242"/>
-    <hyperlink ref="T136" r:id="rId243"/>
-    <hyperlink ref="U134" r:id="rId244"/>
+    <hyperlink ref="U2" r:id="rId1" location="Житие_Святого_Климента"/>
+    <hyperlink ref="V3" r:id="rId2"/>
+    <hyperlink ref="U3" r:id="rId3"/>
+    <hyperlink ref="V4" r:id="rId4"/>
+    <hyperlink ref="U4" r:id="rId5"/>
+    <hyperlink ref="V6" r:id="rId6"/>
+    <hyperlink ref="U6" r:id="rId7"/>
+    <hyperlink ref="V7" r:id="rId8"/>
+    <hyperlink ref="U7" r:id="rId9"/>
+    <hyperlink ref="V8" r:id="rId10"/>
+    <hyperlink ref="U8" r:id="rId11" location="Иконография"/>
+    <hyperlink ref="V9" r:id="rId12"/>
+    <hyperlink ref="U9" r:id="rId13"/>
+    <hyperlink ref="V10" r:id="rId14"/>
+    <hyperlink ref="U10" r:id="rId15"/>
+    <hyperlink ref="V11" r:id="rId16"/>
+    <hyperlink ref="U11" r:id="rId17"/>
+    <hyperlink ref="V12" r:id="rId18"/>
+    <hyperlink ref="U12" r:id="rId19"/>
+    <hyperlink ref="U13" r:id="rId20"/>
+    <hyperlink ref="V13" r:id="rId21"/>
+    <hyperlink ref="U14" r:id="rId22" location="Память"/>
+    <hyperlink ref="V14" r:id="rId23"/>
+    <hyperlink ref="U15" r:id="rId24"/>
+    <hyperlink ref="V15" r:id="rId25"/>
+    <hyperlink ref="U16" r:id="rId26"/>
+    <hyperlink ref="V16" r:id="rId27"/>
+    <hyperlink ref="U17" r:id="rId28"/>
+    <hyperlink ref="V17" r:id="rId29"/>
+    <hyperlink ref="U18" r:id="rId30"/>
+    <hyperlink ref="V18" r:id="rId31"/>
+    <hyperlink ref="U19" r:id="rId32"/>
+    <hyperlink ref="V19" r:id="rId33"/>
+    <hyperlink ref="U20" r:id="rId34"/>
+    <hyperlink ref="V20" r:id="rId35"/>
+    <hyperlink ref="U21" r:id="rId36"/>
+    <hyperlink ref="V21" r:id="rId37"/>
+    <hyperlink ref="U22" r:id="rId38"/>
+    <hyperlink ref="V22" r:id="rId39"/>
+    <hyperlink ref="U23" r:id="rId40"/>
+    <hyperlink ref="V23" r:id="rId41"/>
+    <hyperlink ref="U24" r:id="rId42"/>
+    <hyperlink ref="V24" r:id="rId43"/>
+    <hyperlink ref="U25" r:id="rId44"/>
+    <hyperlink ref="V25" r:id="rId45"/>
+    <hyperlink ref="U26" r:id="rId46"/>
+    <hyperlink ref="V26" r:id="rId47"/>
+    <hyperlink ref="V27" r:id="rId48"/>
+    <hyperlink ref="U28" r:id="rId49"/>
+    <hyperlink ref="V28" r:id="rId50" display="https://upload.wikimedia.org/wikipedia/commons/e/e8/%CE%A0%CE%B1%CF%84%CF%81%CE%B9%CE%AC%CF%81%CF%87%CE%B7%CF%82_%CE%9A%CF%89%CE%BD%CF%83%CF%84%CE%B1%CE%BD%CF%84%CE%B9%CE%BD%CE%BF%CF%85%CF%80%CF%8C%CE%BB%CE%B5%CF%89%CF%82_%CE%93%CF%81%CE%B7%CE%B3%CF%8C%CF%81%CE%B9%CE%BF%CF%82_%CE%95%CE%84.jpg"/>
+    <hyperlink ref="U30" r:id="rId51"/>
+    <hyperlink ref="V30" r:id="rId52"/>
+    <hyperlink ref="U31" r:id="rId53"/>
+    <hyperlink ref="V31" r:id="rId54"/>
+    <hyperlink ref="V2" r:id="rId55"/>
+    <hyperlink ref="U5" r:id="rId56"/>
+    <hyperlink ref="V5" r:id="rId57"/>
+    <hyperlink ref="U27" r:id="rId58"/>
+    <hyperlink ref="U32" r:id="rId59"/>
+    <hyperlink ref="V32" r:id="rId60"/>
+    <hyperlink ref="V33" r:id="rId61"/>
+    <hyperlink ref="U34" r:id="rId62"/>
+    <hyperlink ref="V34" r:id="rId63"/>
+    <hyperlink ref="V35" r:id="rId64"/>
+    <hyperlink ref="U35" r:id="rId65"/>
+    <hyperlink ref="U36" r:id="rId66"/>
+    <hyperlink ref="V36" r:id="rId67"/>
+    <hyperlink ref="U37" r:id="rId68"/>
+    <hyperlink ref="V37" r:id="rId69"/>
+    <hyperlink ref="V38" r:id="rId70"/>
+    <hyperlink ref="V39" r:id="rId71"/>
+    <hyperlink ref="U39" r:id="rId72"/>
+    <hyperlink ref="U40" r:id="rId73"/>
+    <hyperlink ref="V40" r:id="rId74"/>
+    <hyperlink ref="U41" r:id="rId75"/>
+    <hyperlink ref="V41" r:id="rId76"/>
+    <hyperlink ref="U42" r:id="rId77"/>
+    <hyperlink ref="V42" r:id="rId78"/>
+    <hyperlink ref="U43" r:id="rId79"/>
+    <hyperlink ref="V43" r:id="rId80"/>
+    <hyperlink ref="V44" r:id="rId81"/>
+    <hyperlink ref="U44" r:id="rId82"/>
+    <hyperlink ref="U45" r:id="rId83"/>
+    <hyperlink ref="V45" r:id="rId84"/>
+    <hyperlink ref="U46" r:id="rId85"/>
+    <hyperlink ref="V46" r:id="rId86"/>
+    <hyperlink ref="U47" r:id="rId87"/>
+    <hyperlink ref="V47" r:id="rId88"/>
+    <hyperlink ref="U48" r:id="rId89"/>
+    <hyperlink ref="V48" r:id="rId90"/>
+    <hyperlink ref="U49" r:id="rId91"/>
+    <hyperlink ref="V49" r:id="rId92"/>
+    <hyperlink ref="U50" r:id="rId93"/>
+    <hyperlink ref="V50" r:id="rId94"/>
+    <hyperlink ref="U51" r:id="rId95"/>
+    <hyperlink ref="V51" r:id="rId96"/>
+    <hyperlink ref="U52" r:id="rId97"/>
+    <hyperlink ref="V52" r:id="rId98"/>
+    <hyperlink ref="U53" r:id="rId99"/>
+    <hyperlink ref="V53" r:id="rId100"/>
+    <hyperlink ref="U54" r:id="rId101"/>
+    <hyperlink ref="V54" r:id="rId102"/>
+    <hyperlink ref="U55" r:id="rId103"/>
+    <hyperlink ref="V55" r:id="rId104"/>
+    <hyperlink ref="U56" r:id="rId105"/>
+    <hyperlink ref="V56" r:id="rId106"/>
+    <hyperlink ref="U57" r:id="rId107"/>
+    <hyperlink ref="V57" r:id="rId108"/>
+    <hyperlink ref="U58" r:id="rId109"/>
+    <hyperlink ref="V58" r:id="rId110"/>
+    <hyperlink ref="U59" r:id="rId111"/>
+    <hyperlink ref="V59" r:id="rId112"/>
+    <hyperlink ref="V60" r:id="rId113"/>
+    <hyperlink ref="U60" r:id="rId114"/>
+    <hyperlink ref="U61" r:id="rId115"/>
+    <hyperlink ref="V61" r:id="rId116"/>
+    <hyperlink ref="V62" r:id="rId117"/>
+    <hyperlink ref="U62" r:id="rId118"/>
+    <hyperlink ref="V63" r:id="rId119"/>
+    <hyperlink ref="U63" r:id="rId120"/>
+    <hyperlink ref="V64" r:id="rId121"/>
+    <hyperlink ref="U64" display="https://ru.wikipedia.org/wiki/Варвара_Скворчихинская#:~:text=Блаженная%20Варвара%20родилась%2020%20ноября,сельского%20священника%20Василия%20Александровича%20Архангельского.&amp;text=Варвара%20часто%20приглашала%20на%20уроки,Варвара%20не%20могла%2C%20стала%20"/>
+    <hyperlink ref="V65" r:id="rId122"/>
+    <hyperlink ref="U65" r:id="rId123"/>
+    <hyperlink ref="V66" r:id="rId124"/>
+    <hyperlink ref="U66" r:id="rId125"/>
+    <hyperlink ref="V67" r:id="rId126"/>
+    <hyperlink ref="U67" r:id="rId127"/>
+    <hyperlink ref="V68" r:id="rId128"/>
+    <hyperlink ref="U68" r:id="rId129"/>
+    <hyperlink ref="V69" r:id="rId130"/>
+    <hyperlink ref="U69" r:id="rId131"/>
+    <hyperlink ref="V70" r:id="rId132"/>
+    <hyperlink ref="U70" r:id="rId133"/>
+    <hyperlink ref="V71" r:id="rId134"/>
+    <hyperlink ref="U71" r:id="rId135"/>
+    <hyperlink ref="V72" r:id="rId136"/>
+    <hyperlink ref="U72" r:id="rId137"/>
+    <hyperlink ref="U73" r:id="rId138"/>
+    <hyperlink ref="U74" r:id="rId139"/>
+    <hyperlink ref="V74" r:id="rId140"/>
+    <hyperlink ref="V73" r:id="rId141"/>
+    <hyperlink ref="U75" r:id="rId142"/>
+    <hyperlink ref="V75" r:id="rId143"/>
+    <hyperlink ref="V76" r:id="rId144"/>
+    <hyperlink ref="U76" r:id="rId145"/>
+    <hyperlink ref="V77" r:id="rId146"/>
+    <hyperlink ref="U77" r:id="rId147"/>
+    <hyperlink ref="U78" r:id="rId148"/>
+    <hyperlink ref="V78" r:id="rId149"/>
+    <hyperlink ref="U79" r:id="rId150"/>
+    <hyperlink ref="V80" r:id="rId151"/>
+    <hyperlink ref="U80" r:id="rId152"/>
+    <hyperlink ref="V81" r:id="rId153"/>
+    <hyperlink ref="U81" r:id="rId154"/>
+    <hyperlink ref="V82" r:id="rId155"/>
+    <hyperlink ref="U82" r:id="rId156"/>
+    <hyperlink ref="U83" r:id="rId157"/>
+    <hyperlink ref="U84" r:id="rId158"/>
+    <hyperlink ref="V84" r:id="rId159"/>
+    <hyperlink ref="U85" r:id="rId160"/>
+    <hyperlink ref="V85" r:id="rId161"/>
+    <hyperlink ref="U86" r:id="rId162"/>
+    <hyperlink ref="U87" r:id="rId163"/>
+    <hyperlink ref="V87" r:id="rId164"/>
+    <hyperlink ref="U88" r:id="rId165"/>
+    <hyperlink ref="V88" r:id="rId166"/>
+    <hyperlink ref="U89" r:id="rId167"/>
+    <hyperlink ref="V89" r:id="rId168"/>
+    <hyperlink ref="U90" r:id="rId169"/>
+    <hyperlink ref="U91" r:id="rId170"/>
+    <hyperlink ref="U92" r:id="rId171"/>
+    <hyperlink ref="U93" r:id="rId172"/>
+    <hyperlink ref="U94" r:id="rId173"/>
+    <hyperlink ref="U95" r:id="rId174"/>
+    <hyperlink ref="V95" r:id="rId175"/>
+    <hyperlink ref="U96" r:id="rId176"/>
+    <hyperlink ref="U97" r:id="rId177"/>
+    <hyperlink ref="U98" r:id="rId178"/>
+    <hyperlink ref="U99" r:id="rId179"/>
+    <hyperlink ref="U100" r:id="rId180"/>
+    <hyperlink ref="U101" r:id="rId181"/>
+    <hyperlink ref="U102" r:id="rId182"/>
+    <hyperlink ref="U103" r:id="rId183"/>
+    <hyperlink ref="U104" r:id="rId184"/>
+    <hyperlink ref="V130" r:id="rId185"/>
+    <hyperlink ref="V29" r:id="rId186"/>
+    <hyperlink ref="V79" r:id="rId187"/>
+    <hyperlink ref="V83" r:id="rId188"/>
+    <hyperlink ref="V90" r:id="rId189"/>
+    <hyperlink ref="V91" r:id="rId190"/>
+    <hyperlink ref="V93" r:id="rId191"/>
+    <hyperlink ref="V94" r:id="rId192"/>
+    <hyperlink ref="V96" r:id="rId193"/>
+    <hyperlink ref="V97" r:id="rId194"/>
+    <hyperlink ref="V99" r:id="rId195"/>
+    <hyperlink ref="V102" r:id="rId196"/>
+    <hyperlink ref="V103" r:id="rId197"/>
+    <hyperlink ref="V104" r:id="rId198"/>
+    <hyperlink ref="V106" r:id="rId199"/>
+    <hyperlink ref="V107" r:id="rId200"/>
+    <hyperlink ref="V108" r:id="rId201"/>
+    <hyperlink ref="V109" r:id="rId202"/>
+    <hyperlink ref="V110" r:id="rId203"/>
+    <hyperlink ref="V111" r:id="rId204"/>
+    <hyperlink ref="V112" r:id="rId205"/>
+    <hyperlink ref="V113" r:id="rId206"/>
+    <hyperlink ref="V114" r:id="rId207"/>
+    <hyperlink ref="V115" r:id="rId208"/>
+    <hyperlink ref="V116" r:id="rId209"/>
+    <hyperlink ref="U117" r:id="rId210"/>
+    <hyperlink ref="V117" r:id="rId211"/>
+    <hyperlink ref="V118" r:id="rId212"/>
+    <hyperlink ref="V119" r:id="rId213"/>
+    <hyperlink ref="V120" r:id="rId214"/>
+    <hyperlink ref="V121" r:id="rId215"/>
+    <hyperlink ref="V122" r:id="rId216"/>
+    <hyperlink ref="V123" r:id="rId217"/>
+    <hyperlink ref="V124" r:id="rId218"/>
+    <hyperlink ref="V125" r:id="rId219"/>
+    <hyperlink ref="V126" r:id="rId220"/>
+    <hyperlink ref="V127" r:id="rId221"/>
+    <hyperlink ref="V129" r:id="rId222"/>
+    <hyperlink ref="V131" r:id="rId223"/>
+    <hyperlink ref="V132" r:id="rId224"/>
+    <hyperlink ref="V133" r:id="rId225"/>
+    <hyperlink ref="V128" r:id="rId226"/>
+    <hyperlink ref="U128" r:id="rId227"/>
+    <hyperlink ref="U107" r:id="rId228"/>
+    <hyperlink ref="U119" r:id="rId229"/>
+    <hyperlink ref="U125" r:id="rId230"/>
+    <hyperlink ref="U126" r:id="rId231"/>
+    <hyperlink ref="U135" r:id="rId232"/>
+    <hyperlink ref="V135" r:id="rId233"/>
+    <hyperlink ref="V136" r:id="rId234"/>
+    <hyperlink ref="V137" r:id="rId235"/>
+    <hyperlink ref="V138" r:id="rId236"/>
+    <hyperlink ref="U138" r:id="rId237"/>
+    <hyperlink ref="V139" r:id="rId238"/>
+    <hyperlink ref="U139" r:id="rId239"/>
+    <hyperlink ref="V140" r:id="rId240"/>
+    <hyperlink ref="U140" r:id="rId241"/>
+    <hyperlink ref="U105" r:id="rId242"/>
+    <hyperlink ref="U136" r:id="rId243"/>
+    <hyperlink ref="V134" r:id="rId244"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId245"/>

--- a/loadDatabase/religion/святые.xlsx
+++ b/loadDatabase/religion/святые.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="6675" tabRatio="587"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="7260" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="1514">
   <si>
     <t>Фамилия</t>
   </si>
@@ -5614,6 +5614,48 @@
   </si>
   <si>
     <t>3;9;15</t>
+  </si>
+  <si>
+    <t>Кирилл Просвятитель Славян</t>
+  </si>
+  <si>
+    <t>24.05</t>
+  </si>
+  <si>
+    <t>монах</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Detail_of_Saint_Cyrill_statue_in_T%C5%99eb%C3%AD%C4%8D%2C_T%C5%99eb%C3%AD%C4%8D_District.jpg/800px-Detail_of_Saint_Cyrill_statue_in_T%C5%99eb%C3%AD%C4%8D%2C_T%C5%99eb%C3%AD%C4%8D_District.jpg</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Святой_Кирилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Родился в Фессалониках в семье полкового командира друнгария Льва, сына попавшего в опалу и сосланного в Фессалию столичного вельможи, но в 12 лет осиротел и стал воспитанником влиятельного логофета Феоктиста, опекуна малолетнего императора Михаила III. Проявив еще в детстве выдающиеся способности, обучался у лучших учителей Константинополя философии, диалектике, геометрии, арифметике, риторике, астрономии, а также разным языкам. По окончании учения, отказавшись заключить весьма выгодный брак с крестницей логофета Ириной, был посвящён во чтеца и поступил на службу хартофилаксом (буквально «хранителем библиотеки»; реально это равнялось современному званию академика) при соборе Святой Софии в Константинополе. На одном из богословских диспутов Кирилл одержал блестящую победу над многоопытным вождём иконоборцев, бывшим патриархом Иоанном VII «Аннием», что принесло ему широкую известность в столице. В 852 году (по другим данным, в 855-м) был отправлен в Багдад ко двору аббасидского халифа Аль-Мутаваккиля для диспута с мусульманскими богословами, оказавшими ему уважение и отдавшими должное его учености и знанию Корана. В 856 году логофет Феоктист, бывший покровителем Константина, был убит. Константин вместе со своими учениками Климентом, Наумом и Ангеларием пришёл в монастырь, где был настоятелем его брат Мефодий. В этом монастыре вокруг Константина и Мефодия сложилась группа единомышленников и зародилась мысль о создании славянской азбуки. В 862 году в Константинополь явились послы от великоморавского князя Ростислава с просьбой прислать учителей, которые «могли бы объяснить нам веру на нашем родном языке». Император и патриарх, призвав солунских братьев, предложили им идти к моравам. В Великой Моравии Константин и Мефодий продолжали переводить церковные книги с греческого на славянский язык, обучали славян чтению, письму и ведению богослужения на славянском языке. Братья пробыли в Великой Моравии более трёх лет, а затем отправились с учениками в Рим к папе Римскому. Среди части богословов Западной Церкви сложилась точка зрения, что хвала Богу может воздаваться только на трёх языках, на которых была сделана надпись на Кресте Господнем: еврейском, греческом и латинском. Поэтому Константин и Мефодий, проповедовавшие христианство в Моравии, были восприняты как еретики и вызваны в Рим. Там они надеялись найти поддержку в борьбе против немецкого духовенства, не желавшего сдавать свои позиции в Моравии и препятствовавшего распространению славянской письменности. По дороге в Рим посетили они ещё одну славянскую страну — Паннонию, где находилось Блатенское княжество. Здесь, в Блатнограде, по поручению князя Коцела братья обучали славян книжному делу и богослужению на славянском языке. После того, как Константин передал папе Римскому Адриану II обретённые им в своём херсонесском путешествии мощи святого Климента, тот утвердил богослужение на славянском языке, и переведённые книги приказал положить в римских церквях. Мефодий был рукоположён в епископский сан. В Риме Константин тяжело заболел, в начале декабря 868 года окончательно слёг, принял схиму и новое монашеское имя Кирилл, и через 50 дней (14 февраля) скончался. Перед смертью он сказал Мефодию: «Мы с тобой, как два вола; от тяжёлой ноши один упал, другой должен продолжать путь». Похоронен в Риме в церкви Святого Климента.
+</t>
+  </si>
+  <si>
+    <t>Мефодий Просвятитель Славян</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Мефодий</t>
+  </si>
+  <si>
+    <t>Велеград, Чехия</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/42/Detail_of_Saint_Methodius_statue_in_T%C5%99eb%C3%AD%C4%8D%2C_T%C5%99eb%C3%AD%C4%8D_District.jpg/800px-Detail_of_Saint_Methodius_statue_in_T%C5%99eb%C3%AD%C4%8D%2C_T%C5%99eb%C3%AD%C4%8D_District.jpg</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Мефодий_Моравский</t>
+  </si>
+  <si>
+    <t>Происходит из семьи солунского военачальника, друнгария Льва. Учёным не известно, было ли имя Мефодий крещальным или дано при постриге. На православных сайтах приводится, что его мирским именем могло быть имя Михаил, не приводя при этом доказательств. Пользуясь поддержкой друга и покровителя семьи, великого логофета евнуха Феоктиста, сделал военно-административную карьеру, увенчавшуюся постом стратига Славинии, византийской провинции, расположенной на территории Македонии, где жили славяне. Он знал язык своих славянских подданных. В обители постников, которая называлась Малый Олимп и располагалась в Малой Азии, Мефодий принял монашество, позже здесь к нему присоединился и его брат Константин.
+Моравская миссия
+В 862 году в Константинополь явились послы от великоморавского князя Ростислава с просьбой прислать учителей. Император и патриарх, призвав солунских братьев, отправили их к моравам. Франкские епископы, прибывшие в Великую Моравию для обращения христиан к римским обычаям, арестовали Мефодия и посадили его в темницу. Никто не беспокоился о нём, и прошло почти три года, прежде чем Папа римский узнал о его судьбе и приказал Людовику Немецкому освободить его.</t>
   </si>
 </sst>
 </file>
@@ -6210,11 +6252,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S142" sqref="S142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14339,6 +14381,115 @@
       </c>
       <c r="X140" t="s">
         <v>1444</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C141" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="E141" s="3">
+        <v>827</v>
+      </c>
+      <c r="F141" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I141" t="s">
+        <v>677</v>
+      </c>
+      <c r="J141" s="3">
+        <v>852</v>
+      </c>
+      <c r="K141" t="s">
+        <v>42</v>
+      </c>
+      <c r="L141" s="3">
+        <v>862</v>
+      </c>
+      <c r="M141" t="s">
+        <v>18</v>
+      </c>
+      <c r="P141" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q141" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="R141" s="40" t="s">
+        <v>1502</v>
+      </c>
+      <c r="S141" s="45" t="s">
+        <v>1503</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="U141" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="W141" s="3">
+        <v>869</v>
+      </c>
+      <c r="X141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C142" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E142" s="3">
+        <v>815</v>
+      </c>
+      <c r="F142" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I142" t="s">
+        <v>42</v>
+      </c>
+      <c r="J142" s="3">
+        <v>862</v>
+      </c>
+      <c r="P142" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q142" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="R142" s="40" t="s">
+        <v>1502</v>
+      </c>
+      <c r="S142" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="W142" s="3">
+        <v>885</v>
+      </c>
+      <c r="X142" t="s">
+        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -14589,9 +14740,13 @@
     <hyperlink ref="U105" r:id="rId242"/>
     <hyperlink ref="U136" r:id="rId243"/>
     <hyperlink ref="V134" r:id="rId244"/>
+    <hyperlink ref="V141" r:id="rId245"/>
+    <hyperlink ref="U141" r:id="rId246"/>
+    <hyperlink ref="V142" r:id="rId247"/>
+    <hyperlink ref="U142" r:id="rId248"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId245"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId249"/>
 </worksheet>
 </file>
 
